--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="116">
   <si>
     <t>Curso</t>
   </si>
@@ -723,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M937"/>
+  <dimension ref="A1:M1093"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28096,7 +28096,7 @@
         <v>113</v>
       </c>
       <c r="K782" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L782">
         <v>0</v>
@@ -28131,7 +28131,7 @@
         <v>113</v>
       </c>
       <c r="K783" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L783">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         <v>113</v>
       </c>
       <c r="K784" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L784">
         <v>0</v>
@@ -28201,7 +28201,7 @@
         <v>113</v>
       </c>
       <c r="K785" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L785">
         <v>0</v>
@@ -28236,7 +28236,7 @@
         <v>113</v>
       </c>
       <c r="K786" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L786">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>113</v>
       </c>
       <c r="K787" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L787">
         <v>0</v>
@@ -28306,7 +28306,7 @@
         <v>113</v>
       </c>
       <c r="K788" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L788">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>113</v>
       </c>
       <c r="K789" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L789">
         <v>0</v>
@@ -28376,7 +28376,7 @@
         <v>113</v>
       </c>
       <c r="K790" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L790">
         <v>0</v>
@@ -28411,7 +28411,7 @@
         <v>113</v>
       </c>
       <c r="K791" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L791">
         <v>0</v>
@@ -28446,7 +28446,7 @@
         <v>113</v>
       </c>
       <c r="K792" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L792">
         <v>0</v>
@@ -28481,7 +28481,7 @@
         <v>113</v>
       </c>
       <c r="K793" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L793">
         <v>0</v>
@@ -28516,7 +28516,7 @@
         <v>113</v>
       </c>
       <c r="K794" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L794">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>113</v>
       </c>
       <c r="K795" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L795">
         <v>0</v>
@@ -28586,7 +28586,7 @@
         <v>113</v>
       </c>
       <c r="K796" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L796">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>113</v>
       </c>
       <c r="K797" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L797">
         <v>0</v>
@@ -28656,7 +28656,7 @@
         <v>113</v>
       </c>
       <c r="K798" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L798">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>114</v>
       </c>
       <c r="K799" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L799">
         <v>0</v>
@@ -28726,7 +28726,7 @@
         <v>115</v>
       </c>
       <c r="K800" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L800">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>114</v>
       </c>
       <c r="K801" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L801">
         <v>0</v>
@@ -28796,7 +28796,7 @@
         <v>115</v>
       </c>
       <c r="K802" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L802">
         <v>0</v>
@@ -28831,7 +28831,7 @@
         <v>114</v>
       </c>
       <c r="K803" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L803">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>115</v>
       </c>
       <c r="K804" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L804">
         <v>0</v>
@@ -28901,7 +28901,7 @@
         <v>114</v>
       </c>
       <c r="K805" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L805">
         <v>0</v>
@@ -28936,7 +28936,7 @@
         <v>115</v>
       </c>
       <c r="K806" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L806">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>115</v>
       </c>
       <c r="K807" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L807">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>114</v>
       </c>
       <c r="K808" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L808">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>115</v>
       </c>
       <c r="K809" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L809">
         <v>0</v>
@@ -29076,7 +29076,7 @@
         <v>115</v>
       </c>
       <c r="K810" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L810">
         <v>0</v>
@@ -29111,7 +29111,7 @@
         <v>114</v>
       </c>
       <c r="K811" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L811">
         <v>0</v>
@@ -29146,7 +29146,7 @@
         <v>115</v>
       </c>
       <c r="K812" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L812">
         <v>0</v>
@@ -29181,7 +29181,7 @@
         <v>115</v>
       </c>
       <c r="K813" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L813">
         <v>0</v>
@@ -29216,7 +29216,7 @@
         <v>115</v>
       </c>
       <c r="K814" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L814">
         <v>0</v>
@@ -29251,7 +29251,7 @@
         <v>115</v>
       </c>
       <c r="K815" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L815">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>115</v>
       </c>
       <c r="K816" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L816">
         <v>0</v>
@@ -29321,7 +29321,7 @@
         <v>115</v>
       </c>
       <c r="K817" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L817">
         <v>0</v>
@@ -29356,7 +29356,7 @@
         <v>114</v>
       </c>
       <c r="K818" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L818">
         <v>0</v>
@@ -29391,7 +29391,7 @@
         <v>115</v>
       </c>
       <c r="K819" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L819">
         <v>0</v>
@@ -29426,7 +29426,7 @@
         <v>114</v>
       </c>
       <c r="K820" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L820">
         <v>0</v>
@@ -29461,7 +29461,7 @@
         <v>115</v>
       </c>
       <c r="K821" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L821">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>114</v>
       </c>
       <c r="K822" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L822">
         <v>0</v>
@@ -29531,7 +29531,7 @@
         <v>115</v>
       </c>
       <c r="K823" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L823">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>114</v>
       </c>
       <c r="K824" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L824">
         <v>0</v>
@@ -29601,7 +29601,7 @@
         <v>115</v>
       </c>
       <c r="K825" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L825">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>114</v>
       </c>
       <c r="K826" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L826">
         <v>0</v>
@@ -29671,7 +29671,7 @@
         <v>115</v>
       </c>
       <c r="K827" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L827">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>114</v>
       </c>
       <c r="K828" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L828">
         <v>0</v>
@@ -29741,7 +29741,7 @@
         <v>115</v>
       </c>
       <c r="K829" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L829">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>115</v>
       </c>
       <c r="K830" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L830">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>115</v>
       </c>
       <c r="K831" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L831">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>115</v>
       </c>
       <c r="K832" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L832">
         <v>0</v>
@@ -29881,7 +29881,7 @@
         <v>115</v>
       </c>
       <c r="K833" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L833">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>115</v>
       </c>
       <c r="K834" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L834">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>115</v>
       </c>
       <c r="K835" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L835">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>115</v>
       </c>
       <c r="K836" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L836">
         <v>0</v>
@@ -30021,7 +30021,7 @@
         <v>114</v>
       </c>
       <c r="K837" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L837">
         <v>0</v>
@@ -30056,7 +30056,7 @@
         <v>115</v>
       </c>
       <c r="K838" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L838">
         <v>0</v>
@@ -30091,7 +30091,7 @@
         <v>114</v>
       </c>
       <c r="K839" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L839">
         <v>0</v>
@@ -30126,7 +30126,7 @@
         <v>115</v>
       </c>
       <c r="K840" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L840">
         <v>0</v>
@@ -30161,7 +30161,7 @@
         <v>114</v>
       </c>
       <c r="K841" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L841">
         <v>0</v>
@@ -30196,7 +30196,7 @@
         <v>115</v>
       </c>
       <c r="K842" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L842">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>114</v>
       </c>
       <c r="K843" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L843">
         <v>0</v>
@@ -30266,7 +30266,7 @@
         <v>115</v>
       </c>
       <c r="K844" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L844">
         <v>0</v>
@@ -30301,7 +30301,7 @@
         <v>114</v>
       </c>
       <c r="K845" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L845">
         <v>0</v>
@@ -30336,7 +30336,7 @@
         <v>115</v>
       </c>
       <c r="K846" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L846">
         <v>0</v>
@@ -30371,7 +30371,7 @@
         <v>114</v>
       </c>
       <c r="K847" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L847">
         <v>0</v>
@@ -30406,7 +30406,7 @@
         <v>115</v>
       </c>
       <c r="K848" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L848">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>114</v>
       </c>
       <c r="K849" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L849">
         <v>0</v>
@@ -30476,7 +30476,7 @@
         <v>115</v>
       </c>
       <c r="K850" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L850">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>114</v>
       </c>
       <c r="K851" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L851">
         <v>0</v>
@@ -30546,7 +30546,7 @@
         <v>114</v>
       </c>
       <c r="K852" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L852">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>115</v>
       </c>
       <c r="K853" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L853">
         <v>0</v>
@@ -30616,7 +30616,7 @@
         <v>115</v>
       </c>
       <c r="K854" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L854">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>115</v>
       </c>
       <c r="K855" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L855">
         <v>0</v>
@@ -30686,7 +30686,7 @@
         <v>114</v>
       </c>
       <c r="K856" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L856">
         <v>0</v>
@@ -30721,7 +30721,7 @@
         <v>115</v>
       </c>
       <c r="K857" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L857">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>114</v>
       </c>
       <c r="K858" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L858">
         <v>0</v>
@@ -30791,7 +30791,7 @@
         <v>115</v>
       </c>
       <c r="K859" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L859">
         <v>0</v>
@@ -30826,7 +30826,7 @@
         <v>115</v>
       </c>
       <c r="K860" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L860">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>115</v>
       </c>
       <c r="K861" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L861">
         <v>0</v>
@@ -30896,7 +30896,7 @@
         <v>114</v>
       </c>
       <c r="K862" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L862">
         <v>0</v>
@@ -30931,7 +30931,7 @@
         <v>115</v>
       </c>
       <c r="K863" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L863">
         <v>0</v>
@@ -30966,7 +30966,7 @@
         <v>114</v>
       </c>
       <c r="K864" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L864">
         <v>0</v>
@@ -31001,7 +31001,7 @@
         <v>115</v>
       </c>
       <c r="K865" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L865">
         <v>0</v>
@@ -31036,7 +31036,7 @@
         <v>114</v>
       </c>
       <c r="K866" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L866">
         <v>0</v>
@@ -31071,7 +31071,7 @@
         <v>115</v>
       </c>
       <c r="K867" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L867">
         <v>0</v>
@@ -31106,7 +31106,7 @@
         <v>114</v>
       </c>
       <c r="K868" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L868">
         <v>0</v>
@@ -31141,7 +31141,7 @@
         <v>115</v>
       </c>
       <c r="K869" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L869">
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>114</v>
       </c>
       <c r="K870" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L870">
         <v>0</v>
@@ -31211,7 +31211,7 @@
         <v>115</v>
       </c>
       <c r="K871" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L871">
         <v>0</v>
@@ -31246,7 +31246,7 @@
         <v>114</v>
       </c>
       <c r="K872" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L872">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>115</v>
       </c>
       <c r="K873" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L873">
         <v>0</v>
@@ -31316,7 +31316,7 @@
         <v>114</v>
       </c>
       <c r="K874" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L874">
         <v>0</v>
@@ -31351,7 +31351,7 @@
         <v>115</v>
       </c>
       <c r="K875" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L875">
         <v>0</v>
@@ -31386,7 +31386,7 @@
         <v>114</v>
       </c>
       <c r="K876" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L876">
         <v>0</v>
@@ -31421,7 +31421,7 @@
         <v>115</v>
       </c>
       <c r="K877" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L877">
         <v>0</v>
@@ -31456,7 +31456,7 @@
         <v>115</v>
       </c>
       <c r="K878" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L878">
         <v>0</v>
@@ -31491,7 +31491,7 @@
         <v>114</v>
       </c>
       <c r="K879" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L879">
         <v>0</v>
@@ -31526,7 +31526,7 @@
         <v>115</v>
       </c>
       <c r="K880" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L880">
         <v>0</v>
@@ -31561,7 +31561,7 @@
         <v>114</v>
       </c>
       <c r="K881" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L881">
         <v>0</v>
@@ -31596,7 +31596,7 @@
         <v>115</v>
       </c>
       <c r="K882" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L882">
         <v>0</v>
@@ -31631,7 +31631,7 @@
         <v>114</v>
       </c>
       <c r="K883" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L883">
         <v>0</v>
@@ -31666,7 +31666,7 @@
         <v>115</v>
       </c>
       <c r="K884" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L884">
         <v>0</v>
@@ -31701,7 +31701,7 @@
         <v>114</v>
       </c>
       <c r="K885" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L885">
         <v>0</v>
@@ -31736,7 +31736,7 @@
         <v>115</v>
       </c>
       <c r="K886" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L886">
         <v>0</v>
@@ -31771,7 +31771,7 @@
         <v>113</v>
       </c>
       <c r="K887" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L887">
         <v>0</v>
@@ -31806,7 +31806,7 @@
         <v>113</v>
       </c>
       <c r="K888" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L888">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>113</v>
       </c>
       <c r="K889" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L889">
         <v>0</v>
@@ -31876,7 +31876,7 @@
         <v>113</v>
       </c>
       <c r="K890" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L890">
         <v>0</v>
@@ -31911,7 +31911,7 @@
         <v>113</v>
       </c>
       <c r="K891" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L891">
         <v>0</v>
@@ -31946,7 +31946,7 @@
         <v>113</v>
       </c>
       <c r="K892" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L892">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>113</v>
       </c>
       <c r="K893" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L893">
         <v>0</v>
@@ -32016,7 +32016,7 @@
         <v>113</v>
       </c>
       <c r="K894" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L894">
         <v>0</v>
@@ -32051,7 +32051,7 @@
         <v>113</v>
       </c>
       <c r="K895" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L895">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>113</v>
       </c>
       <c r="K896" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L896">
         <v>0</v>
@@ -32121,7 +32121,7 @@
         <v>113</v>
       </c>
       <c r="K897" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L897">
         <v>0</v>
@@ -32156,7 +32156,7 @@
         <v>113</v>
       </c>
       <c r="K898" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L898">
         <v>0</v>
@@ -32191,7 +32191,7 @@
         <v>113</v>
       </c>
       <c r="K899" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L899">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>113</v>
       </c>
       <c r="K900" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L900">
         <v>0</v>
@@ -32261,7 +32261,7 @@
         <v>113</v>
       </c>
       <c r="K901" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L901">
         <v>0</v>
@@ -32296,7 +32296,7 @@
         <v>113</v>
       </c>
       <c r="K902" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L902">
         <v>0</v>
@@ -32331,7 +32331,7 @@
         <v>113</v>
       </c>
       <c r="K903" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L903">
         <v>0</v>
@@ -32366,7 +32366,7 @@
         <v>113</v>
       </c>
       <c r="K904" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L904">
         <v>0</v>
@@ -32401,7 +32401,7 @@
         <v>113</v>
       </c>
       <c r="K905" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L905">
         <v>0</v>
@@ -32436,7 +32436,7 @@
         <v>113</v>
       </c>
       <c r="K906" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L906">
         <v>0</v>
@@ -32471,7 +32471,7 @@
         <v>113</v>
       </c>
       <c r="K907" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L907">
         <v>0</v>
@@ -32506,7 +32506,7 @@
         <v>113</v>
       </c>
       <c r="K908" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L908">
         <v>0</v>
@@ -32541,7 +32541,7 @@
         <v>113</v>
       </c>
       <c r="K909" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L909">
         <v>0</v>
@@ -32576,7 +32576,7 @@
         <v>113</v>
       </c>
       <c r="K910" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L910">
         <v>0</v>
@@ -32611,7 +32611,7 @@
         <v>113</v>
       </c>
       <c r="K911" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L911">
         <v>0</v>
@@ -32646,7 +32646,7 @@
         <v>113</v>
       </c>
       <c r="K912" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L912">
         <v>0</v>
@@ -32681,7 +32681,7 @@
         <v>113</v>
       </c>
       <c r="K913" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L913">
         <v>0</v>
@@ -32716,7 +32716,7 @@
         <v>113</v>
       </c>
       <c r="K914" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L914">
         <v>0</v>
@@ -32751,7 +32751,7 @@
         <v>113</v>
       </c>
       <c r="K915" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L915">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>113</v>
       </c>
       <c r="K916" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L916">
         <v>0</v>
@@ -32821,7 +32821,7 @@
         <v>113</v>
       </c>
       <c r="K917" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L917">
         <v>0</v>
@@ -32856,7 +32856,7 @@
         <v>113</v>
       </c>
       <c r="K918" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L918">
         <v>0</v>
@@ -32891,7 +32891,7 @@
         <v>113</v>
       </c>
       <c r="K919" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L919">
         <v>0</v>
@@ -32926,7 +32926,7 @@
         <v>113</v>
       </c>
       <c r="K920" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L920">
         <v>0</v>
@@ -32961,7 +32961,7 @@
         <v>113</v>
       </c>
       <c r="K921" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L921">
         <v>0</v>
@@ -32996,7 +32996,7 @@
         <v>113</v>
       </c>
       <c r="K922" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L922">
         <v>0</v>
@@ -33031,7 +33031,7 @@
         <v>113</v>
       </c>
       <c r="K923" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L923">
         <v>0</v>
@@ -33066,7 +33066,7 @@
         <v>113</v>
       </c>
       <c r="K924" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L924">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>113</v>
       </c>
       <c r="K925" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L925">
         <v>0</v>
@@ -33136,7 +33136,7 @@
         <v>113</v>
       </c>
       <c r="K926" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L926">
         <v>0</v>
@@ -33171,7 +33171,7 @@
         <v>113</v>
       </c>
       <c r="K927" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L927">
         <v>0</v>
@@ -33206,7 +33206,7 @@
         <v>113</v>
       </c>
       <c r="K928" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L928">
         <v>0</v>
@@ -33241,7 +33241,7 @@
         <v>113</v>
       </c>
       <c r="K929" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L929">
         <v>0</v>
@@ -33276,7 +33276,7 @@
         <v>113</v>
       </c>
       <c r="K930" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L930">
         <v>0</v>
@@ -33311,7 +33311,7 @@
         <v>113</v>
       </c>
       <c r="K931" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L931">
         <v>0</v>
@@ -33346,7 +33346,7 @@
         <v>113</v>
       </c>
       <c r="K932" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L932">
         <v>0</v>
@@ -33381,7 +33381,7 @@
         <v>113</v>
       </c>
       <c r="K933" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L933">
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>113</v>
       </c>
       <c r="K934" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L934">
         <v>0</v>
@@ -33451,7 +33451,7 @@
         <v>113</v>
       </c>
       <c r="K935" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L935">
         <v>0</v>
@@ -33486,7 +33486,7 @@
         <v>113</v>
       </c>
       <c r="K936" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L936">
         <v>0</v>
@@ -33521,13 +33521,5473 @@
         <v>113</v>
       </c>
       <c r="K937" s="2">
-        <v>45539.60765099536</v>
+        <v>45539.60765099537</v>
       </c>
       <c r="L937">
         <v>0</v>
       </c>
       <c r="M937">
         <v>2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13">
+      <c r="A938" t="s">
+        <v>13</v>
+      </c>
+      <c r="B938" t="s">
+        <v>76</v>
+      </c>
+      <c r="C938" t="s">
+        <v>81</v>
+      </c>
+      <c r="D938" t="s">
+        <v>99</v>
+      </c>
+      <c r="E938" t="s">
+        <v>110</v>
+      </c>
+      <c r="F938">
+        <v>56</v>
+      </c>
+      <c r="G938">
+        <v>34</v>
+      </c>
+      <c r="J938" t="s">
+        <v>113</v>
+      </c>
+      <c r="K938" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L938">
+        <v>0</v>
+      </c>
+      <c r="M938">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13">
+      <c r="A939" t="s">
+        <v>14</v>
+      </c>
+      <c r="B939" t="s">
+        <v>76</v>
+      </c>
+      <c r="C939" t="s">
+        <v>81</v>
+      </c>
+      <c r="D939" t="s">
+        <v>99</v>
+      </c>
+      <c r="E939" t="s">
+        <v>110</v>
+      </c>
+      <c r="F939">
+        <v>22</v>
+      </c>
+      <c r="G939">
+        <v>19</v>
+      </c>
+      <c r="J939" t="s">
+        <v>113</v>
+      </c>
+      <c r="K939" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L939">
+        <v>0</v>
+      </c>
+      <c r="M939">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13">
+      <c r="A940" t="s">
+        <v>13</v>
+      </c>
+      <c r="B940" t="s">
+        <v>76</v>
+      </c>
+      <c r="C940" t="s">
+        <v>82</v>
+      </c>
+      <c r="D940" t="s">
+        <v>99</v>
+      </c>
+      <c r="E940" t="s">
+        <v>110</v>
+      </c>
+      <c r="F940">
+        <v>20</v>
+      </c>
+      <c r="G940">
+        <v>8</v>
+      </c>
+      <c r="J940" t="s">
+        <v>113</v>
+      </c>
+      <c r="K940" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L940">
+        <v>0</v>
+      </c>
+      <c r="M940">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13">
+      <c r="A941" t="s">
+        <v>15</v>
+      </c>
+      <c r="B941" t="s">
+        <v>76</v>
+      </c>
+      <c r="C941" t="s">
+        <v>82</v>
+      </c>
+      <c r="D941" t="s">
+        <v>99</v>
+      </c>
+      <c r="E941" t="s">
+        <v>110</v>
+      </c>
+      <c r="F941">
+        <v>59</v>
+      </c>
+      <c r="G941">
+        <v>30</v>
+      </c>
+      <c r="J941" t="s">
+        <v>113</v>
+      </c>
+      <c r="K941" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L941">
+        <v>0</v>
+      </c>
+      <c r="M941">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13">
+      <c r="A942" t="s">
+        <v>16</v>
+      </c>
+      <c r="B942" t="s">
+        <v>76</v>
+      </c>
+      <c r="C942" t="s">
+        <v>82</v>
+      </c>
+      <c r="D942" t="s">
+        <v>99</v>
+      </c>
+      <c r="E942" t="s">
+        <v>110</v>
+      </c>
+      <c r="F942">
+        <v>20</v>
+      </c>
+      <c r="G942">
+        <v>10</v>
+      </c>
+      <c r="J942" t="s">
+        <v>113</v>
+      </c>
+      <c r="K942" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L942">
+        <v>0</v>
+      </c>
+      <c r="M942">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13">
+      <c r="A943" t="s">
+        <v>17</v>
+      </c>
+      <c r="B943" t="s">
+        <v>76</v>
+      </c>
+      <c r="C943" t="s">
+        <v>82</v>
+      </c>
+      <c r="D943" t="s">
+        <v>99</v>
+      </c>
+      <c r="E943" t="s">
+        <v>110</v>
+      </c>
+      <c r="F943">
+        <v>10</v>
+      </c>
+      <c r="G943">
+        <v>3</v>
+      </c>
+      <c r="J943" t="s">
+        <v>113</v>
+      </c>
+      <c r="K943" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L943">
+        <v>0</v>
+      </c>
+      <c r="M943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13">
+      <c r="A944" t="s">
+        <v>18</v>
+      </c>
+      <c r="B944" t="s">
+        <v>76</v>
+      </c>
+      <c r="C944" t="s">
+        <v>82</v>
+      </c>
+      <c r="D944" t="s">
+        <v>99</v>
+      </c>
+      <c r="E944" t="s">
+        <v>110</v>
+      </c>
+      <c r="F944">
+        <v>4</v>
+      </c>
+      <c r="G944">
+        <v>1</v>
+      </c>
+      <c r="J944" t="s">
+        <v>113</v>
+      </c>
+      <c r="K944" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L944">
+        <v>0</v>
+      </c>
+      <c r="M944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13">
+      <c r="A945" t="s">
+        <v>19</v>
+      </c>
+      <c r="B945" t="s">
+        <v>76</v>
+      </c>
+      <c r="C945" t="s">
+        <v>82</v>
+      </c>
+      <c r="D945" t="s">
+        <v>99</v>
+      </c>
+      <c r="E945" t="s">
+        <v>110</v>
+      </c>
+      <c r="F945">
+        <v>2</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="J945" t="s">
+        <v>113</v>
+      </c>
+      <c r="K945" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L945">
+        <v>0</v>
+      </c>
+      <c r="M945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13">
+      <c r="A946" t="s">
+        <v>20</v>
+      </c>
+      <c r="B946" t="s">
+        <v>76</v>
+      </c>
+      <c r="C946" t="s">
+        <v>83</v>
+      </c>
+      <c r="D946" t="s">
+        <v>99</v>
+      </c>
+      <c r="E946" t="s">
+        <v>110</v>
+      </c>
+      <c r="F946">
+        <v>172</v>
+      </c>
+      <c r="G946">
+        <v>67</v>
+      </c>
+      <c r="J946" t="s">
+        <v>113</v>
+      </c>
+      <c r="K946" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L946">
+        <v>0</v>
+      </c>
+      <c r="M946">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13">
+      <c r="A947" t="s">
+        <v>14</v>
+      </c>
+      <c r="B947" t="s">
+        <v>76</v>
+      </c>
+      <c r="C947" t="s">
+        <v>83</v>
+      </c>
+      <c r="D947" t="s">
+        <v>99</v>
+      </c>
+      <c r="E947" t="s">
+        <v>110</v>
+      </c>
+      <c r="F947">
+        <v>117</v>
+      </c>
+      <c r="G947">
+        <v>54</v>
+      </c>
+      <c r="J947" t="s">
+        <v>113</v>
+      </c>
+      <c r="K947" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L947">
+        <v>0</v>
+      </c>
+      <c r="M947">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13">
+      <c r="A948" t="s">
+        <v>21</v>
+      </c>
+      <c r="B948" t="s">
+        <v>76</v>
+      </c>
+      <c r="C948" t="s">
+        <v>83</v>
+      </c>
+      <c r="D948" t="s">
+        <v>99</v>
+      </c>
+      <c r="E948" t="s">
+        <v>110</v>
+      </c>
+      <c r="F948">
+        <v>177</v>
+      </c>
+      <c r="G948">
+        <v>85</v>
+      </c>
+      <c r="J948" t="s">
+        <v>113</v>
+      </c>
+      <c r="K948" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L948">
+        <v>0</v>
+      </c>
+      <c r="M948">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13">
+      <c r="A949" t="s">
+        <v>22</v>
+      </c>
+      <c r="B949" t="s">
+        <v>76</v>
+      </c>
+      <c r="C949" t="s">
+        <v>84</v>
+      </c>
+      <c r="D949" t="s">
+        <v>99</v>
+      </c>
+      <c r="E949" t="s">
+        <v>110</v>
+      </c>
+      <c r="F949">
+        <v>58</v>
+      </c>
+      <c r="G949">
+        <v>24</v>
+      </c>
+      <c r="J949" t="s">
+        <v>113</v>
+      </c>
+      <c r="K949" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L949">
+        <v>0</v>
+      </c>
+      <c r="M949">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13">
+      <c r="A950" t="s">
+        <v>14</v>
+      </c>
+      <c r="B950" t="s">
+        <v>76</v>
+      </c>
+      <c r="C950" t="s">
+        <v>84</v>
+      </c>
+      <c r="D950" t="s">
+        <v>99</v>
+      </c>
+      <c r="E950" t="s">
+        <v>110</v>
+      </c>
+      <c r="F950">
+        <v>55</v>
+      </c>
+      <c r="G950">
+        <v>23</v>
+      </c>
+      <c r="J950" t="s">
+        <v>113</v>
+      </c>
+      <c r="K950" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L950">
+        <v>0</v>
+      </c>
+      <c r="M950">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13">
+      <c r="A951" t="s">
+        <v>23</v>
+      </c>
+      <c r="B951" t="s">
+        <v>76</v>
+      </c>
+      <c r="C951" t="s">
+        <v>84</v>
+      </c>
+      <c r="D951" t="s">
+        <v>99</v>
+      </c>
+      <c r="E951" t="s">
+        <v>110</v>
+      </c>
+      <c r="F951">
+        <v>74</v>
+      </c>
+      <c r="G951">
+        <v>19</v>
+      </c>
+      <c r="J951" t="s">
+        <v>113</v>
+      </c>
+      <c r="K951" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L951">
+        <v>0</v>
+      </c>
+      <c r="M951">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13">
+      <c r="A952" t="s">
+        <v>24</v>
+      </c>
+      <c r="B952" t="s">
+        <v>76</v>
+      </c>
+      <c r="C952" t="s">
+        <v>85</v>
+      </c>
+      <c r="D952" t="s">
+        <v>99</v>
+      </c>
+      <c r="E952" t="s">
+        <v>110</v>
+      </c>
+      <c r="F952">
+        <v>62</v>
+      </c>
+      <c r="G952">
+        <v>29</v>
+      </c>
+      <c r="J952" t="s">
+        <v>113</v>
+      </c>
+      <c r="K952" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L952">
+        <v>0</v>
+      </c>
+      <c r="M952">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13">
+      <c r="A953" t="s">
+        <v>14</v>
+      </c>
+      <c r="B953" t="s">
+        <v>76</v>
+      </c>
+      <c r="C953" t="s">
+        <v>85</v>
+      </c>
+      <c r="D953" t="s">
+        <v>99</v>
+      </c>
+      <c r="E953" t="s">
+        <v>110</v>
+      </c>
+      <c r="F953">
+        <v>33</v>
+      </c>
+      <c r="G953">
+        <v>14</v>
+      </c>
+      <c r="J953" t="s">
+        <v>113</v>
+      </c>
+      <c r="K953" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L953">
+        <v>0</v>
+      </c>
+      <c r="M953">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13">
+      <c r="A954" t="s">
+        <v>13</v>
+      </c>
+      <c r="B954" t="s">
+        <v>76</v>
+      </c>
+      <c r="C954" t="s">
+        <v>86</v>
+      </c>
+      <c r="D954" t="s">
+        <v>99</v>
+      </c>
+      <c r="E954" t="s">
+        <v>110</v>
+      </c>
+      <c r="F954">
+        <v>27</v>
+      </c>
+      <c r="G954">
+        <v>9</v>
+      </c>
+      <c r="J954" t="s">
+        <v>113</v>
+      </c>
+      <c r="K954" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L954">
+        <v>0</v>
+      </c>
+      <c r="M954">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13">
+      <c r="A955" t="s">
+        <v>24</v>
+      </c>
+      <c r="B955" t="s">
+        <v>76</v>
+      </c>
+      <c r="C955" t="s">
+        <v>86</v>
+      </c>
+      <c r="D955" t="s">
+        <v>99</v>
+      </c>
+      <c r="E955" t="s">
+        <v>110</v>
+      </c>
+      <c r="F955">
+        <v>12</v>
+      </c>
+      <c r="G955">
+        <v>1</v>
+      </c>
+      <c r="J955" t="s">
+        <v>113</v>
+      </c>
+      <c r="K955" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L955">
+        <v>0</v>
+      </c>
+      <c r="M955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13">
+      <c r="A956" t="s">
+        <v>17</v>
+      </c>
+      <c r="B956" t="s">
+        <v>76</v>
+      </c>
+      <c r="C956" t="s">
+        <v>86</v>
+      </c>
+      <c r="D956" t="s">
+        <v>99</v>
+      </c>
+      <c r="E956" t="s">
+        <v>110</v>
+      </c>
+      <c r="F956">
+        <v>44</v>
+      </c>
+      <c r="G956">
+        <v>14</v>
+      </c>
+      <c r="J956" t="s">
+        <v>113</v>
+      </c>
+      <c r="K956" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L956">
+        <v>0</v>
+      </c>
+      <c r="M956">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13">
+      <c r="A957" t="s">
+        <v>22</v>
+      </c>
+      <c r="B957" t="s">
+        <v>76</v>
+      </c>
+      <c r="C957" t="s">
+        <v>87</v>
+      </c>
+      <c r="D957" t="s">
+        <v>99</v>
+      </c>
+      <c r="E957" t="s">
+        <v>110</v>
+      </c>
+      <c r="F957">
+        <v>59</v>
+      </c>
+      <c r="G957">
+        <v>31</v>
+      </c>
+      <c r="J957" t="s">
+        <v>113</v>
+      </c>
+      <c r="K957" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L957">
+        <v>0</v>
+      </c>
+      <c r="M957">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13">
+      <c r="A958" t="s">
+        <v>19</v>
+      </c>
+      <c r="B958" t="s">
+        <v>76</v>
+      </c>
+      <c r="C958" t="s">
+        <v>87</v>
+      </c>
+      <c r="D958" t="s">
+        <v>99</v>
+      </c>
+      <c r="E958" t="s">
+        <v>110</v>
+      </c>
+      <c r="F958">
+        <v>73</v>
+      </c>
+      <c r="G958">
+        <v>29</v>
+      </c>
+      <c r="J958" t="s">
+        <v>113</v>
+      </c>
+      <c r="K958" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L958">
+        <v>0</v>
+      </c>
+      <c r="M958">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13">
+      <c r="A959" t="s">
+        <v>25</v>
+      </c>
+      <c r="B959" t="s">
+        <v>76</v>
+      </c>
+      <c r="C959" t="s">
+        <v>87</v>
+      </c>
+      <c r="D959" t="s">
+        <v>99</v>
+      </c>
+      <c r="E959" t="s">
+        <v>110</v>
+      </c>
+      <c r="F959">
+        <v>76</v>
+      </c>
+      <c r="G959">
+        <v>30</v>
+      </c>
+      <c r="J959" t="s">
+        <v>113</v>
+      </c>
+      <c r="K959" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L959">
+        <v>0</v>
+      </c>
+      <c r="M959">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13">
+      <c r="A960" t="s">
+        <v>20</v>
+      </c>
+      <c r="B960" t="s">
+        <v>76</v>
+      </c>
+      <c r="C960" t="s">
+        <v>88</v>
+      </c>
+      <c r="D960" t="s">
+        <v>99</v>
+      </c>
+      <c r="E960" t="s">
+        <v>110</v>
+      </c>
+      <c r="F960">
+        <v>84</v>
+      </c>
+      <c r="G960">
+        <v>36</v>
+      </c>
+      <c r="J960" t="s">
+        <v>113</v>
+      </c>
+      <c r="K960" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L960">
+        <v>0</v>
+      </c>
+      <c r="M960">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13">
+      <c r="A961" t="s">
+        <v>26</v>
+      </c>
+      <c r="B961" t="s">
+        <v>76</v>
+      </c>
+      <c r="C961" t="s">
+        <v>88</v>
+      </c>
+      <c r="D961" t="s">
+        <v>99</v>
+      </c>
+      <c r="E961" t="s">
+        <v>110</v>
+      </c>
+      <c r="F961">
+        <v>74</v>
+      </c>
+      <c r="G961">
+        <v>27</v>
+      </c>
+      <c r="J961" t="s">
+        <v>113</v>
+      </c>
+      <c r="K961" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L961">
+        <v>0</v>
+      </c>
+      <c r="M961">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13">
+      <c r="A962" t="s">
+        <v>27</v>
+      </c>
+      <c r="B962" t="s">
+        <v>76</v>
+      </c>
+      <c r="C962" t="s">
+        <v>88</v>
+      </c>
+      <c r="D962" t="s">
+        <v>99</v>
+      </c>
+      <c r="E962" t="s">
+        <v>110</v>
+      </c>
+      <c r="F962">
+        <v>43</v>
+      </c>
+      <c r="G962">
+        <v>17</v>
+      </c>
+      <c r="J962" t="s">
+        <v>113</v>
+      </c>
+      <c r="K962" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L962">
+        <v>0</v>
+      </c>
+      <c r="M962">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13">
+      <c r="A963" t="s">
+        <v>20</v>
+      </c>
+      <c r="B963" t="s">
+        <v>76</v>
+      </c>
+      <c r="C963" t="s">
+        <v>89</v>
+      </c>
+      <c r="D963" t="s">
+        <v>99</v>
+      </c>
+      <c r="E963" t="s">
+        <v>110</v>
+      </c>
+      <c r="F963">
+        <v>112</v>
+      </c>
+      <c r="G963">
+        <v>54</v>
+      </c>
+      <c r="J963" t="s">
+        <v>113</v>
+      </c>
+      <c r="K963" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L963">
+        <v>0</v>
+      </c>
+      <c r="M963">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13">
+      <c r="A964" t="s">
+        <v>24</v>
+      </c>
+      <c r="B964" t="s">
+        <v>76</v>
+      </c>
+      <c r="C964" t="s">
+        <v>89</v>
+      </c>
+      <c r="D964" t="s">
+        <v>99</v>
+      </c>
+      <c r="E964" t="s">
+        <v>110</v>
+      </c>
+      <c r="F964">
+        <v>74</v>
+      </c>
+      <c r="G964">
+        <v>19</v>
+      </c>
+      <c r="J964" t="s">
+        <v>113</v>
+      </c>
+      <c r="K964" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L964">
+        <v>0</v>
+      </c>
+      <c r="M964">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13">
+      <c r="A965" t="s">
+        <v>20</v>
+      </c>
+      <c r="B965" t="s">
+        <v>76</v>
+      </c>
+      <c r="C965" t="s">
+        <v>90</v>
+      </c>
+      <c r="D965" t="s">
+        <v>99</v>
+      </c>
+      <c r="E965" t="s">
+        <v>110</v>
+      </c>
+      <c r="F965">
+        <v>73</v>
+      </c>
+      <c r="G965">
+        <v>35</v>
+      </c>
+      <c r="J965" t="s">
+        <v>113</v>
+      </c>
+      <c r="K965" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L965">
+        <v>0</v>
+      </c>
+      <c r="M965">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13">
+      <c r="A966" t="s">
+        <v>13</v>
+      </c>
+      <c r="B966" t="s">
+        <v>76</v>
+      </c>
+      <c r="C966" t="s">
+        <v>91</v>
+      </c>
+      <c r="D966" t="s">
+        <v>99</v>
+      </c>
+      <c r="E966" t="s">
+        <v>110</v>
+      </c>
+      <c r="F966">
+        <v>75</v>
+      </c>
+      <c r="G966">
+        <v>35</v>
+      </c>
+      <c r="J966" t="s">
+        <v>113</v>
+      </c>
+      <c r="K966" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L966">
+        <v>0</v>
+      </c>
+      <c r="M966">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13">
+      <c r="A967" t="s">
+        <v>28</v>
+      </c>
+      <c r="B967" t="s">
+        <v>76</v>
+      </c>
+      <c r="C967" t="s">
+        <v>91</v>
+      </c>
+      <c r="D967" t="s">
+        <v>99</v>
+      </c>
+      <c r="E967" t="s">
+        <v>110</v>
+      </c>
+      <c r="F967">
+        <v>34</v>
+      </c>
+      <c r="G967">
+        <v>15</v>
+      </c>
+      <c r="J967" t="s">
+        <v>113</v>
+      </c>
+      <c r="K967" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L967">
+        <v>0</v>
+      </c>
+      <c r="M967">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13">
+      <c r="A968" t="s">
+        <v>17</v>
+      </c>
+      <c r="B968" t="s">
+        <v>76</v>
+      </c>
+      <c r="C968" t="s">
+        <v>91</v>
+      </c>
+      <c r="D968" t="s">
+        <v>99</v>
+      </c>
+      <c r="E968" t="s">
+        <v>110</v>
+      </c>
+      <c r="F968">
+        <v>78</v>
+      </c>
+      <c r="G968">
+        <v>37</v>
+      </c>
+      <c r="J968" t="s">
+        <v>113</v>
+      </c>
+      <c r="K968" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L968">
+        <v>0</v>
+      </c>
+      <c r="M968">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13">
+      <c r="A969" t="s">
+        <v>13</v>
+      </c>
+      <c r="B969" t="s">
+        <v>76</v>
+      </c>
+      <c r="C969" t="s">
+        <v>92</v>
+      </c>
+      <c r="D969" t="s">
+        <v>99</v>
+      </c>
+      <c r="E969" t="s">
+        <v>110</v>
+      </c>
+      <c r="F969">
+        <v>107</v>
+      </c>
+      <c r="G969">
+        <v>46</v>
+      </c>
+      <c r="J969" t="s">
+        <v>113</v>
+      </c>
+      <c r="K969" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L969">
+        <v>0</v>
+      </c>
+      <c r="M969">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13">
+      <c r="A970" t="s">
+        <v>20</v>
+      </c>
+      <c r="B970" t="s">
+        <v>76</v>
+      </c>
+      <c r="C970" t="s">
+        <v>92</v>
+      </c>
+      <c r="D970" t="s">
+        <v>99</v>
+      </c>
+      <c r="E970" t="s">
+        <v>110</v>
+      </c>
+      <c r="F970">
+        <v>82</v>
+      </c>
+      <c r="G970">
+        <v>39</v>
+      </c>
+      <c r="J970" t="s">
+        <v>113</v>
+      </c>
+      <c r="K970" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L970">
+        <v>0</v>
+      </c>
+      <c r="M970">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13">
+      <c r="A971" t="s">
+        <v>22</v>
+      </c>
+      <c r="B971" t="s">
+        <v>76</v>
+      </c>
+      <c r="C971" t="s">
+        <v>92</v>
+      </c>
+      <c r="D971" t="s">
+        <v>99</v>
+      </c>
+      <c r="E971" t="s">
+        <v>110</v>
+      </c>
+      <c r="F971">
+        <v>52</v>
+      </c>
+      <c r="G971">
+        <v>27</v>
+      </c>
+      <c r="J971" t="s">
+        <v>113</v>
+      </c>
+      <c r="K971" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L971">
+        <v>0</v>
+      </c>
+      <c r="M971">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13">
+      <c r="A972" t="s">
+        <v>28</v>
+      </c>
+      <c r="B972" t="s">
+        <v>76</v>
+      </c>
+      <c r="C972" t="s">
+        <v>92</v>
+      </c>
+      <c r="D972" t="s">
+        <v>99</v>
+      </c>
+      <c r="E972" t="s">
+        <v>110</v>
+      </c>
+      <c r="F972">
+        <v>23</v>
+      </c>
+      <c r="G972">
+        <v>14</v>
+      </c>
+      <c r="J972" t="s">
+        <v>113</v>
+      </c>
+      <c r="K972" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L972">
+        <v>0</v>
+      </c>
+      <c r="M972">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13">
+      <c r="A973" t="s">
+        <v>23</v>
+      </c>
+      <c r="B973" t="s">
+        <v>76</v>
+      </c>
+      <c r="C973" t="s">
+        <v>92</v>
+      </c>
+      <c r="D973" t="s">
+        <v>99</v>
+      </c>
+      <c r="E973" t="s">
+        <v>110</v>
+      </c>
+      <c r="F973">
+        <v>54</v>
+      </c>
+      <c r="G973">
+        <v>19</v>
+      </c>
+      <c r="J973" t="s">
+        <v>113</v>
+      </c>
+      <c r="K973" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L973">
+        <v>0</v>
+      </c>
+      <c r="M973">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13">
+      <c r="A974" t="s">
+        <v>22</v>
+      </c>
+      <c r="B974" t="s">
+        <v>76</v>
+      </c>
+      <c r="C974" t="s">
+        <v>93</v>
+      </c>
+      <c r="D974" t="s">
+        <v>99</v>
+      </c>
+      <c r="E974" t="s">
+        <v>110</v>
+      </c>
+      <c r="F974">
+        <v>39</v>
+      </c>
+      <c r="G974">
+        <v>20</v>
+      </c>
+      <c r="J974" t="s">
+        <v>113</v>
+      </c>
+      <c r="K974" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L974">
+        <v>0</v>
+      </c>
+      <c r="M974">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13">
+      <c r="A975" t="s">
+        <v>13</v>
+      </c>
+      <c r="B975" t="s">
+        <v>76</v>
+      </c>
+      <c r="C975" t="s">
+        <v>94</v>
+      </c>
+      <c r="D975" t="s">
+        <v>99</v>
+      </c>
+      <c r="E975" t="s">
+        <v>110</v>
+      </c>
+      <c r="F975">
+        <v>85</v>
+      </c>
+      <c r="G975">
+        <v>29</v>
+      </c>
+      <c r="J975" t="s">
+        <v>113</v>
+      </c>
+      <c r="K975" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L975">
+        <v>0</v>
+      </c>
+      <c r="M975">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13">
+      <c r="A976" t="s">
+        <v>17</v>
+      </c>
+      <c r="B976" t="s">
+        <v>76</v>
+      </c>
+      <c r="C976" t="s">
+        <v>94</v>
+      </c>
+      <c r="D976" t="s">
+        <v>99</v>
+      </c>
+      <c r="E976" t="s">
+        <v>110</v>
+      </c>
+      <c r="F976">
+        <v>106</v>
+      </c>
+      <c r="G976">
+        <v>39</v>
+      </c>
+      <c r="J976" t="s">
+        <v>113</v>
+      </c>
+      <c r="K976" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L976">
+        <v>0</v>
+      </c>
+      <c r="M976">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13">
+      <c r="A977" t="s">
+        <v>13</v>
+      </c>
+      <c r="B977" t="s">
+        <v>76</v>
+      </c>
+      <c r="C977" t="s">
+        <v>95</v>
+      </c>
+      <c r="D977" t="s">
+        <v>99</v>
+      </c>
+      <c r="E977" t="s">
+        <v>110</v>
+      </c>
+      <c r="F977">
+        <v>145</v>
+      </c>
+      <c r="G977">
+        <v>49</v>
+      </c>
+      <c r="J977" t="s">
+        <v>113</v>
+      </c>
+      <c r="K977" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L977">
+        <v>0</v>
+      </c>
+      <c r="M977">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13">
+      <c r="A978" t="s">
+        <v>17</v>
+      </c>
+      <c r="B978" t="s">
+        <v>76</v>
+      </c>
+      <c r="C978" t="s">
+        <v>95</v>
+      </c>
+      <c r="D978" t="s">
+        <v>99</v>
+      </c>
+      <c r="E978" t="s">
+        <v>110</v>
+      </c>
+      <c r="F978">
+        <v>126</v>
+      </c>
+      <c r="G978">
+        <v>54</v>
+      </c>
+      <c r="J978" t="s">
+        <v>113</v>
+      </c>
+      <c r="K978" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L978">
+        <v>0</v>
+      </c>
+      <c r="M978">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13">
+      <c r="A979" t="s">
+        <v>29</v>
+      </c>
+      <c r="B979" t="s">
+        <v>76</v>
+      </c>
+      <c r="C979" t="s">
+        <v>95</v>
+      </c>
+      <c r="D979" t="s">
+        <v>99</v>
+      </c>
+      <c r="E979" t="s">
+        <v>110</v>
+      </c>
+      <c r="F979">
+        <v>36</v>
+      </c>
+      <c r="G979">
+        <v>13</v>
+      </c>
+      <c r="J979" t="s">
+        <v>113</v>
+      </c>
+      <c r="K979" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L979">
+        <v>0</v>
+      </c>
+      <c r="M979">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13">
+      <c r="A980" t="s">
+        <v>13</v>
+      </c>
+      <c r="B980" t="s">
+        <v>76</v>
+      </c>
+      <c r="C980" t="s">
+        <v>96</v>
+      </c>
+      <c r="D980" t="s">
+        <v>99</v>
+      </c>
+      <c r="E980" t="s">
+        <v>110</v>
+      </c>
+      <c r="F980">
+        <v>116</v>
+      </c>
+      <c r="G980">
+        <v>51</v>
+      </c>
+      <c r="J980" t="s">
+        <v>113</v>
+      </c>
+      <c r="K980" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L980">
+        <v>0</v>
+      </c>
+      <c r="M980">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13">
+      <c r="A981" t="s">
+        <v>30</v>
+      </c>
+      <c r="B981" t="s">
+        <v>76</v>
+      </c>
+      <c r="C981" t="s">
+        <v>96</v>
+      </c>
+      <c r="D981" t="s">
+        <v>99</v>
+      </c>
+      <c r="E981" t="s">
+        <v>110</v>
+      </c>
+      <c r="F981">
+        <v>49</v>
+      </c>
+      <c r="G981">
+        <v>26</v>
+      </c>
+      <c r="J981" t="s">
+        <v>113</v>
+      </c>
+      <c r="K981" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L981">
+        <v>0</v>
+      </c>
+      <c r="M981">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13">
+      <c r="A982" t="s">
+        <v>17</v>
+      </c>
+      <c r="B982" t="s">
+        <v>76</v>
+      </c>
+      <c r="C982" t="s">
+        <v>96</v>
+      </c>
+      <c r="D982" t="s">
+        <v>99</v>
+      </c>
+      <c r="E982" t="s">
+        <v>110</v>
+      </c>
+      <c r="F982">
+        <v>90</v>
+      </c>
+      <c r="G982">
+        <v>40</v>
+      </c>
+      <c r="J982" t="s">
+        <v>113</v>
+      </c>
+      <c r="K982" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L982">
+        <v>0</v>
+      </c>
+      <c r="M982">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13">
+      <c r="A983" t="s">
+        <v>22</v>
+      </c>
+      <c r="B983" t="s">
+        <v>76</v>
+      </c>
+      <c r="C983" t="s">
+        <v>97</v>
+      </c>
+      <c r="D983" t="s">
+        <v>99</v>
+      </c>
+      <c r="E983" t="s">
+        <v>110</v>
+      </c>
+      <c r="F983">
+        <v>164</v>
+      </c>
+      <c r="G983">
+        <v>63</v>
+      </c>
+      <c r="J983" t="s">
+        <v>113</v>
+      </c>
+      <c r="K983" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L983">
+        <v>0</v>
+      </c>
+      <c r="M983">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13">
+      <c r="A984" t="s">
+        <v>25</v>
+      </c>
+      <c r="B984" t="s">
+        <v>76</v>
+      </c>
+      <c r="C984" t="s">
+        <v>97</v>
+      </c>
+      <c r="D984" t="s">
+        <v>99</v>
+      </c>
+      <c r="E984" t="s">
+        <v>110</v>
+      </c>
+      <c r="F984">
+        <v>80</v>
+      </c>
+      <c r="G984">
+        <v>21</v>
+      </c>
+      <c r="J984" t="s">
+        <v>113</v>
+      </c>
+      <c r="K984" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L984">
+        <v>0</v>
+      </c>
+      <c r="M984">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13">
+      <c r="A985" t="s">
+        <v>31</v>
+      </c>
+      <c r="B985" t="s">
+        <v>76</v>
+      </c>
+      <c r="C985" t="s">
+        <v>98</v>
+      </c>
+      <c r="D985" t="s">
+        <v>99</v>
+      </c>
+      <c r="E985" t="s">
+        <v>110</v>
+      </c>
+      <c r="F985">
+        <v>89</v>
+      </c>
+      <c r="G985">
+        <v>39</v>
+      </c>
+      <c r="J985" t="s">
+        <v>113</v>
+      </c>
+      <c r="K985" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L985">
+        <v>0</v>
+      </c>
+      <c r="M985">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13">
+      <c r="A986" t="s">
+        <v>32</v>
+      </c>
+      <c r="B986" t="s">
+        <v>76</v>
+      </c>
+      <c r="C986" t="s">
+        <v>98</v>
+      </c>
+      <c r="D986" t="s">
+        <v>99</v>
+      </c>
+      <c r="E986" t="s">
+        <v>110</v>
+      </c>
+      <c r="F986">
+        <v>66</v>
+      </c>
+      <c r="G986">
+        <v>26</v>
+      </c>
+      <c r="J986" t="s">
+        <v>113</v>
+      </c>
+      <c r="K986" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L986">
+        <v>0</v>
+      </c>
+      <c r="M986">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13">
+      <c r="A987" t="s">
+        <v>33</v>
+      </c>
+      <c r="B987" t="s">
+        <v>76</v>
+      </c>
+      <c r="C987" t="s">
+        <v>98</v>
+      </c>
+      <c r="D987" t="s">
+        <v>99</v>
+      </c>
+      <c r="E987" t="s">
+        <v>110</v>
+      </c>
+      <c r="F987">
+        <v>72</v>
+      </c>
+      <c r="G987">
+        <v>29</v>
+      </c>
+      <c r="J987" t="s">
+        <v>113</v>
+      </c>
+      <c r="K987" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L987">
+        <v>0</v>
+      </c>
+      <c r="M987">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13">
+      <c r="A988" t="s">
+        <v>34</v>
+      </c>
+      <c r="B988" t="s">
+        <v>76</v>
+      </c>
+      <c r="C988" t="s">
+        <v>98</v>
+      </c>
+      <c r="D988" t="s">
+        <v>99</v>
+      </c>
+      <c r="E988" t="s">
+        <v>110</v>
+      </c>
+      <c r="F988">
+        <v>3</v>
+      </c>
+      <c r="G988">
+        <v>2</v>
+      </c>
+      <c r="J988" t="s">
+        <v>113</v>
+      </c>
+      <c r="K988" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L988">
+        <v>0</v>
+      </c>
+      <c r="M988">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13">
+      <c r="A989" t="s">
+        <v>35</v>
+      </c>
+      <c r="B989" t="s">
+        <v>77</v>
+      </c>
+      <c r="C989" t="s">
+        <v>81</v>
+      </c>
+      <c r="D989" t="s">
+        <v>100</v>
+      </c>
+      <c r="E989" t="s">
+        <v>112</v>
+      </c>
+      <c r="F989">
+        <v>24</v>
+      </c>
+      <c r="G989">
+        <v>11</v>
+      </c>
+      <c r="J989" t="s">
+        <v>114</v>
+      </c>
+      <c r="K989" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L989">
+        <v>0</v>
+      </c>
+      <c r="M989">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13">
+      <c r="A990" t="s">
+        <v>13</v>
+      </c>
+      <c r="B990" t="s">
+        <v>77</v>
+      </c>
+      <c r="C990" t="s">
+        <v>82</v>
+      </c>
+      <c r="D990" t="s">
+        <v>101</v>
+      </c>
+      <c r="E990" t="s">
+        <v>112</v>
+      </c>
+      <c r="F990">
+        <v>9</v>
+      </c>
+      <c r="G990">
+        <v>5</v>
+      </c>
+      <c r="J990" t="s">
+        <v>115</v>
+      </c>
+      <c r="K990" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L990">
+        <v>0</v>
+      </c>
+      <c r="M990">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13">
+      <c r="A991" t="s">
+        <v>36</v>
+      </c>
+      <c r="B991" t="s">
+        <v>77</v>
+      </c>
+      <c r="C991" t="s">
+        <v>98</v>
+      </c>
+      <c r="D991" t="s">
+        <v>102</v>
+      </c>
+      <c r="E991" t="s">
+        <v>112</v>
+      </c>
+      <c r="F991">
+        <v>5</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="J991" t="s">
+        <v>114</v>
+      </c>
+      <c r="K991" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L991">
+        <v>0</v>
+      </c>
+      <c r="M991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13">
+      <c r="A992" t="s">
+        <v>37</v>
+      </c>
+      <c r="B992" t="s">
+        <v>78</v>
+      </c>
+      <c r="C992" t="s">
+        <v>82</v>
+      </c>
+      <c r="D992" t="s">
+        <v>101</v>
+      </c>
+      <c r="E992" t="s">
+        <v>112</v>
+      </c>
+      <c r="F992">
+        <v>0</v>
+      </c>
+      <c r="G992">
+        <v>0</v>
+      </c>
+      <c r="J992" t="s">
+        <v>115</v>
+      </c>
+      <c r="K992" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L992">
+        <v>0</v>
+      </c>
+      <c r="M992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13">
+      <c r="A993" t="s">
+        <v>37</v>
+      </c>
+      <c r="B993" t="s">
+        <v>78</v>
+      </c>
+      <c r="C993" t="s">
+        <v>82</v>
+      </c>
+      <c r="D993" t="s">
+        <v>101</v>
+      </c>
+      <c r="E993" t="s">
+        <v>112</v>
+      </c>
+      <c r="F993">
+        <v>1</v>
+      </c>
+      <c r="G993">
+        <v>0</v>
+      </c>
+      <c r="J993" t="s">
+        <v>114</v>
+      </c>
+      <c r="K993" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L993">
+        <v>0</v>
+      </c>
+      <c r="M993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13">
+      <c r="A994" t="s">
+        <v>38</v>
+      </c>
+      <c r="B994" t="s">
+        <v>78</v>
+      </c>
+      <c r="C994" t="s">
+        <v>82</v>
+      </c>
+      <c r="D994" t="s">
+        <v>101</v>
+      </c>
+      <c r="E994" t="s">
+        <v>112</v>
+      </c>
+      <c r="F994">
+        <v>4</v>
+      </c>
+      <c r="G994">
+        <v>1</v>
+      </c>
+      <c r="J994" t="s">
+        <v>115</v>
+      </c>
+      <c r="K994" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L994">
+        <v>0</v>
+      </c>
+      <c r="M994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13">
+      <c r="A995" t="s">
+        <v>38</v>
+      </c>
+      <c r="B995" t="s">
+        <v>78</v>
+      </c>
+      <c r="C995" t="s">
+        <v>82</v>
+      </c>
+      <c r="D995" t="s">
+        <v>101</v>
+      </c>
+      <c r="E995" t="s">
+        <v>112</v>
+      </c>
+      <c r="F995">
+        <v>5</v>
+      </c>
+      <c r="G995">
+        <v>1</v>
+      </c>
+      <c r="J995" t="s">
+        <v>114</v>
+      </c>
+      <c r="K995" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L995">
+        <v>0</v>
+      </c>
+      <c r="M995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13">
+      <c r="A996" t="s">
+        <v>39</v>
+      </c>
+      <c r="B996" t="s">
+        <v>77</v>
+      </c>
+      <c r="C996" t="s">
+        <v>82</v>
+      </c>
+      <c r="D996" t="s">
+        <v>103</v>
+      </c>
+      <c r="E996" t="s">
+        <v>112</v>
+      </c>
+      <c r="F996">
+        <v>9</v>
+      </c>
+      <c r="G996">
+        <v>2</v>
+      </c>
+      <c r="J996" t="s">
+        <v>115</v>
+      </c>
+      <c r="K996" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L996">
+        <v>0</v>
+      </c>
+      <c r="M996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13">
+      <c r="A997" t="s">
+        <v>40</v>
+      </c>
+      <c r="B997" t="s">
+        <v>77</v>
+      </c>
+      <c r="C997" t="s">
+        <v>82</v>
+      </c>
+      <c r="D997" t="s">
+        <v>104</v>
+      </c>
+      <c r="E997" t="s">
+        <v>112</v>
+      </c>
+      <c r="F997">
+        <v>0</v>
+      </c>
+      <c r="G997">
+        <v>0</v>
+      </c>
+      <c r="J997" t="s">
+        <v>115</v>
+      </c>
+      <c r="K997" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L997">
+        <v>0</v>
+      </c>
+      <c r="M997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13">
+      <c r="A998" t="s">
+        <v>40</v>
+      </c>
+      <c r="B998" t="s">
+        <v>77</v>
+      </c>
+      <c r="C998" t="s">
+        <v>82</v>
+      </c>
+      <c r="D998" t="s">
+        <v>104</v>
+      </c>
+      <c r="E998" t="s">
+        <v>112</v>
+      </c>
+      <c r="F998">
+        <v>0</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="J998" t="s">
+        <v>114</v>
+      </c>
+      <c r="K998" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L998">
+        <v>0</v>
+      </c>
+      <c r="M998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13">
+      <c r="A999" t="s">
+        <v>41</v>
+      </c>
+      <c r="B999" t="s">
+        <v>77</v>
+      </c>
+      <c r="C999" t="s">
+        <v>82</v>
+      </c>
+      <c r="D999" t="s">
+        <v>104</v>
+      </c>
+      <c r="E999" t="s">
+        <v>112</v>
+      </c>
+      <c r="F999">
+        <v>1</v>
+      </c>
+      <c r="G999">
+        <v>0</v>
+      </c>
+      <c r="J999" t="s">
+        <v>115</v>
+      </c>
+      <c r="K999" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L999">
+        <v>0</v>
+      </c>
+      <c r="M999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13">
+      <c r="A1000" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1000">
+        <v>1</v>
+      </c>
+      <c r="G1000">
+        <v>1</v>
+      </c>
+      <c r="J1000" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1000" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1000">
+        <v>0</v>
+      </c>
+      <c r="M1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13">
+      <c r="A1001" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1001">
+        <v>0</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="J1001" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1001" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1001">
+        <v>0</v>
+      </c>
+      <c r="M1001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13">
+      <c r="A1002" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1002">
+        <v>86</v>
+      </c>
+      <c r="G1002">
+        <v>37</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1002" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1002">
+        <v>0</v>
+      </c>
+      <c r="M1002">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13">
+      <c r="A1003" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1003">
+        <v>6</v>
+      </c>
+      <c r="G1003">
+        <v>2</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1003" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1003">
+        <v>0</v>
+      </c>
+      <c r="M1003">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13">
+      <c r="A1004" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1004">
+        <v>51</v>
+      </c>
+      <c r="G1004">
+        <v>17</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1004" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1004">
+        <v>0</v>
+      </c>
+      <c r="M1004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13">
+      <c r="A1005" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1005">
+        <v>46</v>
+      </c>
+      <c r="G1005">
+        <v>11</v>
+      </c>
+      <c r="J1005" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1005" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1005">
+        <v>0</v>
+      </c>
+      <c r="M1005">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13">
+      <c r="A1006" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1006">
+        <v>24</v>
+      </c>
+      <c r="G1006">
+        <v>16</v>
+      </c>
+      <c r="J1006" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1006" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1006">
+        <v>0</v>
+      </c>
+      <c r="M1006">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13">
+      <c r="A1007" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1007">
+        <v>2</v>
+      </c>
+      <c r="G1007">
+        <v>1</v>
+      </c>
+      <c r="J1007" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1007" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1007">
+        <v>0</v>
+      </c>
+      <c r="M1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13">
+      <c r="A1008" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1008">
+        <v>0</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="J1008" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1008" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1008">
+        <v>0</v>
+      </c>
+      <c r="M1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13">
+      <c r="A1009" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1009">
+        <v>4</v>
+      </c>
+      <c r="G1009">
+        <v>1</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1009" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1009">
+        <v>0</v>
+      </c>
+      <c r="M1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13">
+      <c r="A1010" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1010">
+        <v>1</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="J1010" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1010" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1010">
+        <v>0</v>
+      </c>
+      <c r="M1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13">
+      <c r="A1011" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1011">
+        <v>12</v>
+      </c>
+      <c r="G1011">
+        <v>4</v>
+      </c>
+      <c r="J1011" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1011" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1011">
+        <v>0</v>
+      </c>
+      <c r="M1011">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13">
+      <c r="A1012" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1012">
+        <v>7</v>
+      </c>
+      <c r="G1012">
+        <v>1</v>
+      </c>
+      <c r="J1012" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1012" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1012">
+        <v>0</v>
+      </c>
+      <c r="M1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13">
+      <c r="A1013" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1013">
+        <v>11</v>
+      </c>
+      <c r="G1013">
+        <v>6</v>
+      </c>
+      <c r="J1013" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1013" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1013">
+        <v>0</v>
+      </c>
+      <c r="M1013">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13">
+      <c r="A1014" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1014">
+        <v>3</v>
+      </c>
+      <c r="G1014">
+        <v>1</v>
+      </c>
+      <c r="J1014" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1014" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1014">
+        <v>0</v>
+      </c>
+      <c r="M1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13">
+      <c r="A1015" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1015">
+        <v>5</v>
+      </c>
+      <c r="G1015">
+        <v>3</v>
+      </c>
+      <c r="J1015" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1015" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1015">
+        <v>0</v>
+      </c>
+      <c r="M1015">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13">
+      <c r="A1016" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1016">
+        <v>3</v>
+      </c>
+      <c r="G1016">
+        <v>0</v>
+      </c>
+      <c r="J1016" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1016" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1016">
+        <v>0</v>
+      </c>
+      <c r="M1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13">
+      <c r="A1017" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1017">
+        <v>1</v>
+      </c>
+      <c r="G1017">
+        <v>0</v>
+      </c>
+      <c r="J1017" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1017" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1017">
+        <v>0</v>
+      </c>
+      <c r="M1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13">
+      <c r="A1018" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1018">
+        <v>1</v>
+      </c>
+      <c r="G1018">
+        <v>0</v>
+      </c>
+      <c r="J1018" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1018" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1018">
+        <v>0</v>
+      </c>
+      <c r="M1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13">
+      <c r="A1019" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1019">
+        <v>12</v>
+      </c>
+      <c r="G1019">
+        <v>3</v>
+      </c>
+      <c r="J1019" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1019" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1019">
+        <v>0</v>
+      </c>
+      <c r="M1019">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:13">
+      <c r="A1020" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1020">
+        <v>15</v>
+      </c>
+      <c r="G1020">
+        <v>6</v>
+      </c>
+      <c r="J1020" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1020" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1020">
+        <v>0</v>
+      </c>
+      <c r="M1020">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13">
+      <c r="A1021" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1021">
+        <v>6</v>
+      </c>
+      <c r="G1021">
+        <v>1</v>
+      </c>
+      <c r="J1021" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1021" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1021">
+        <v>0</v>
+      </c>
+      <c r="M1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13">
+      <c r="A1022" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1022">
+        <v>2</v>
+      </c>
+      <c r="G1022">
+        <v>1</v>
+      </c>
+      <c r="J1022" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1022" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1022">
+        <v>0</v>
+      </c>
+      <c r="M1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13">
+      <c r="A1023" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1023">
+        <v>40</v>
+      </c>
+      <c r="G1023">
+        <v>14</v>
+      </c>
+      <c r="J1023" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1023" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1023">
+        <v>0</v>
+      </c>
+      <c r="M1023">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13">
+      <c r="A1024" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1024">
+        <v>15</v>
+      </c>
+      <c r="G1024">
+        <v>5</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1024" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1024">
+        <v>0</v>
+      </c>
+      <c r="M1024">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13">
+      <c r="A1025" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1025">
+        <v>29</v>
+      </c>
+      <c r="G1025">
+        <v>5</v>
+      </c>
+      <c r="J1025" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1025" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1025">
+        <v>0</v>
+      </c>
+      <c r="M1025">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13">
+      <c r="A1026" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1026">
+        <v>8</v>
+      </c>
+      <c r="G1026">
+        <v>4</v>
+      </c>
+      <c r="J1026" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1026" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1026">
+        <v>0</v>
+      </c>
+      <c r="M1026">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13">
+      <c r="A1027" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1027">
+        <v>5</v>
+      </c>
+      <c r="G1027">
+        <v>2</v>
+      </c>
+      <c r="J1027" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1027" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1027">
+        <v>0</v>
+      </c>
+      <c r="M1027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13">
+      <c r="A1028" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1028">
+        <v>15</v>
+      </c>
+      <c r="G1028">
+        <v>6</v>
+      </c>
+      <c r="J1028" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1028" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1028">
+        <v>0</v>
+      </c>
+      <c r="M1028">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13">
+      <c r="A1029" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1029">
+        <v>15</v>
+      </c>
+      <c r="G1029">
+        <v>3</v>
+      </c>
+      <c r="J1029" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1029" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1029">
+        <v>0</v>
+      </c>
+      <c r="M1029">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13">
+      <c r="A1030" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1030">
+        <v>9</v>
+      </c>
+      <c r="G1030">
+        <v>6</v>
+      </c>
+      <c r="J1030" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1030" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1030">
+        <v>0</v>
+      </c>
+      <c r="M1030">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:13">
+      <c r="A1031" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1031">
+        <v>15</v>
+      </c>
+      <c r="G1031">
+        <v>6</v>
+      </c>
+      <c r="J1031" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1031" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1031">
+        <v>0</v>
+      </c>
+      <c r="M1031">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:13">
+      <c r="A1032" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1032">
+        <v>11</v>
+      </c>
+      <c r="G1032">
+        <v>4</v>
+      </c>
+      <c r="J1032" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1032" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1032">
+        <v>0</v>
+      </c>
+      <c r="M1032">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:13">
+      <c r="A1033" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1033">
+        <v>13</v>
+      </c>
+      <c r="G1033">
+        <v>1</v>
+      </c>
+      <c r="J1033" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1033" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1033">
+        <v>0</v>
+      </c>
+      <c r="M1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:13">
+      <c r="A1034" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1034">
+        <v>33</v>
+      </c>
+      <c r="G1034">
+        <v>16</v>
+      </c>
+      <c r="J1034" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1034" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1034">
+        <v>0</v>
+      </c>
+      <c r="M1034">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:13">
+      <c r="A1035" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1035">
+        <v>9</v>
+      </c>
+      <c r="G1035">
+        <v>5</v>
+      </c>
+      <c r="J1035" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1035" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1035">
+        <v>0</v>
+      </c>
+      <c r="M1035">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:13">
+      <c r="A1036" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1036">
+        <v>25</v>
+      </c>
+      <c r="G1036">
+        <v>12</v>
+      </c>
+      <c r="J1036" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1036" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1036">
+        <v>0</v>
+      </c>
+      <c r="M1036">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:13">
+      <c r="A1037" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1037">
+        <v>5</v>
+      </c>
+      <c r="G1037">
+        <v>0</v>
+      </c>
+      <c r="J1037" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1037" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1037">
+        <v>0</v>
+      </c>
+      <c r="M1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:13">
+      <c r="A1038" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1038">
+        <v>3</v>
+      </c>
+      <c r="G1038">
+        <v>3</v>
+      </c>
+      <c r="J1038" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1038" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1038">
+        <v>0</v>
+      </c>
+      <c r="M1038">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:13">
+      <c r="A1039" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1039">
+        <v>1</v>
+      </c>
+      <c r="G1039">
+        <v>0</v>
+      </c>
+      <c r="J1039" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1039" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1039">
+        <v>0</v>
+      </c>
+      <c r="M1039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:13">
+      <c r="A1040" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1040">
+        <v>2</v>
+      </c>
+      <c r="G1040">
+        <v>1</v>
+      </c>
+      <c r="J1040" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1040" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1040">
+        <v>0</v>
+      </c>
+      <c r="M1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:13">
+      <c r="A1041" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1041">
+        <v>0</v>
+      </c>
+      <c r="G1041">
+        <v>0</v>
+      </c>
+      <c r="J1041" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1041" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1041">
+        <v>0</v>
+      </c>
+      <c r="M1041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:13">
+      <c r="A1042" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1042">
+        <v>2</v>
+      </c>
+      <c r="G1042">
+        <v>1</v>
+      </c>
+      <c r="J1042" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1042" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1042">
+        <v>0</v>
+      </c>
+      <c r="M1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:13">
+      <c r="A1043" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1043">
+        <v>4</v>
+      </c>
+      <c r="G1043">
+        <v>1</v>
+      </c>
+      <c r="J1043" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1043" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1043">
+        <v>0</v>
+      </c>
+      <c r="M1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:13">
+      <c r="A1044" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1044">
+        <v>6</v>
+      </c>
+      <c r="G1044">
+        <v>2</v>
+      </c>
+      <c r="J1044" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1044" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1044">
+        <v>0</v>
+      </c>
+      <c r="M1044">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:13">
+      <c r="A1045" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1045">
+        <v>2</v>
+      </c>
+      <c r="G1045">
+        <v>2</v>
+      </c>
+      <c r="J1045" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1045" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1045">
+        <v>0</v>
+      </c>
+      <c r="M1045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:13">
+      <c r="A1046" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1046">
+        <v>5</v>
+      </c>
+      <c r="G1046">
+        <v>2</v>
+      </c>
+      <c r="J1046" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1046" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1046">
+        <v>0</v>
+      </c>
+      <c r="M1046">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:13">
+      <c r="A1047" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1047">
+        <v>7</v>
+      </c>
+      <c r="G1047">
+        <v>1</v>
+      </c>
+      <c r="J1047" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1047" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1047">
+        <v>0</v>
+      </c>
+      <c r="M1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:13">
+      <c r="A1048" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1048">
+        <v>10</v>
+      </c>
+      <c r="G1048">
+        <v>2</v>
+      </c>
+      <c r="J1048" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1048" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1048">
+        <v>0</v>
+      </c>
+      <c r="M1048">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:13">
+      <c r="A1049" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1049">
+        <v>12</v>
+      </c>
+      <c r="G1049">
+        <v>1</v>
+      </c>
+      <c r="J1049" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1049" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1049">
+        <v>0</v>
+      </c>
+      <c r="M1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:13">
+      <c r="A1050" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1050">
+        <v>9</v>
+      </c>
+      <c r="G1050">
+        <v>2</v>
+      </c>
+      <c r="J1050" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1050" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1050">
+        <v>0</v>
+      </c>
+      <c r="M1050">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:13">
+      <c r="A1051" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1051">
+        <v>20</v>
+      </c>
+      <c r="G1051">
+        <v>10</v>
+      </c>
+      <c r="J1051" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1051" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1051">
+        <v>0</v>
+      </c>
+      <c r="M1051">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:13">
+      <c r="A1052" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1052">
+        <v>14</v>
+      </c>
+      <c r="G1052">
+        <v>4</v>
+      </c>
+      <c r="J1052" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1052" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1052">
+        <v>0</v>
+      </c>
+      <c r="M1052">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:13">
+      <c r="A1053" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1053">
+        <v>18</v>
+      </c>
+      <c r="G1053">
+        <v>8</v>
+      </c>
+      <c r="J1053" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1053" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1053">
+        <v>0</v>
+      </c>
+      <c r="M1053">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:13">
+      <c r="A1054" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1054">
+        <v>15</v>
+      </c>
+      <c r="G1054">
+        <v>6</v>
+      </c>
+      <c r="J1054" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1054" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1054">
+        <v>0</v>
+      </c>
+      <c r="M1054">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:13">
+      <c r="A1055" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1055">
+        <v>6</v>
+      </c>
+      <c r="G1055">
+        <v>2</v>
+      </c>
+      <c r="J1055" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1055" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1055">
+        <v>0</v>
+      </c>
+      <c r="M1055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:13">
+      <c r="A1056" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1056">
+        <v>10</v>
+      </c>
+      <c r="G1056">
+        <v>4</v>
+      </c>
+      <c r="J1056" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1056" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1056">
+        <v>0</v>
+      </c>
+      <c r="M1056">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13">
+      <c r="A1057" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1057">
+        <v>13</v>
+      </c>
+      <c r="G1057">
+        <v>4</v>
+      </c>
+      <c r="J1057" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1057" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1057">
+        <v>0</v>
+      </c>
+      <c r="M1057">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13">
+      <c r="A1058" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1058">
+        <v>9</v>
+      </c>
+      <c r="G1058">
+        <v>5</v>
+      </c>
+      <c r="J1058" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1058" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1058">
+        <v>0</v>
+      </c>
+      <c r="M1058">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:13">
+      <c r="A1059" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1059">
+        <v>15</v>
+      </c>
+      <c r="G1059">
+        <v>6</v>
+      </c>
+      <c r="J1059" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1059" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1059">
+        <v>0</v>
+      </c>
+      <c r="M1059">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:13">
+      <c r="A1060" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1060">
+        <v>13</v>
+      </c>
+      <c r="G1060">
+        <v>3</v>
+      </c>
+      <c r="J1060" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1060" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1060">
+        <v>0</v>
+      </c>
+      <c r="M1060">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:13">
+      <c r="A1061" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1061">
+        <v>8</v>
+      </c>
+      <c r="G1061">
+        <v>4</v>
+      </c>
+      <c r="J1061" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1061" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1061">
+        <v>0</v>
+      </c>
+      <c r="M1061">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:13">
+      <c r="A1062" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1062">
+        <v>5</v>
+      </c>
+      <c r="G1062">
+        <v>2</v>
+      </c>
+      <c r="J1062" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1062" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1062">
+        <v>0</v>
+      </c>
+      <c r="M1062">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:13">
+      <c r="A1063" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1063">
+        <v>23</v>
+      </c>
+      <c r="G1063">
+        <v>7</v>
+      </c>
+      <c r="J1063" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1063" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1063">
+        <v>0</v>
+      </c>
+      <c r="M1063">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:13">
+      <c r="A1064" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1064">
+        <v>19</v>
+      </c>
+      <c r="G1064">
+        <v>4</v>
+      </c>
+      <c r="J1064" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1064" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1064">
+        <v>0</v>
+      </c>
+      <c r="M1064">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:13">
+      <c r="A1065" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1065">
+        <v>11</v>
+      </c>
+      <c r="G1065">
+        <v>5</v>
+      </c>
+      <c r="J1065" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1065" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1065">
+        <v>0</v>
+      </c>
+      <c r="M1065">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:13">
+      <c r="A1066" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1066">
+        <v>10</v>
+      </c>
+      <c r="G1066">
+        <v>3</v>
+      </c>
+      <c r="J1066" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1066" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1066">
+        <v>0</v>
+      </c>
+      <c r="M1066">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:13">
+      <c r="A1067" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1067">
+        <v>15</v>
+      </c>
+      <c r="G1067">
+        <v>5</v>
+      </c>
+      <c r="J1067" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1067" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1067">
+        <v>0</v>
+      </c>
+      <c r="M1067">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:13">
+      <c r="A1068" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1068">
+        <v>3</v>
+      </c>
+      <c r="G1068">
+        <v>1</v>
+      </c>
+      <c r="J1068" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1068" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1068">
+        <v>0</v>
+      </c>
+      <c r="M1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:13">
+      <c r="A1069" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1069">
+        <v>3</v>
+      </c>
+      <c r="G1069">
+        <v>2</v>
+      </c>
+      <c r="J1069" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1069" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1069">
+        <v>0</v>
+      </c>
+      <c r="M1069">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:13">
+      <c r="A1070" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1070">
+        <v>1</v>
+      </c>
+      <c r="G1070">
+        <v>0</v>
+      </c>
+      <c r="J1070" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1070" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1070">
+        <v>0</v>
+      </c>
+      <c r="M1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:13">
+      <c r="A1071" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1071">
+        <v>1</v>
+      </c>
+      <c r="G1071">
+        <v>1</v>
+      </c>
+      <c r="J1071" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1071" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1071">
+        <v>0</v>
+      </c>
+      <c r="M1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:13">
+      <c r="A1072" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1072">
+        <v>1</v>
+      </c>
+      <c r="G1072">
+        <v>0</v>
+      </c>
+      <c r="J1072" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1072" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1072">
+        <v>0</v>
+      </c>
+      <c r="M1072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13">
+      <c r="A1073" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1073">
+        <v>0</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="J1073" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1073" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1073">
+        <v>0</v>
+      </c>
+      <c r="M1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:13">
+      <c r="A1074" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1074">
+        <v>3</v>
+      </c>
+      <c r="G1074">
+        <v>1</v>
+      </c>
+      <c r="J1074" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1074" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1074">
+        <v>0</v>
+      </c>
+      <c r="M1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:13">
+      <c r="A1075" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1075">
+        <v>4</v>
+      </c>
+      <c r="G1075">
+        <v>2</v>
+      </c>
+      <c r="J1075" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1075" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1075">
+        <v>0</v>
+      </c>
+      <c r="M1075">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:13">
+      <c r="A1076" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1076">
+        <v>12</v>
+      </c>
+      <c r="G1076">
+        <v>4</v>
+      </c>
+      <c r="J1076" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1076" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1076">
+        <v>0</v>
+      </c>
+      <c r="M1076">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:13">
+      <c r="A1077" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1077">
+        <v>12</v>
+      </c>
+      <c r="G1077">
+        <v>4</v>
+      </c>
+      <c r="J1077" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1077" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1077">
+        <v>0</v>
+      </c>
+      <c r="M1077">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:13">
+      <c r="A1078" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1078">
+        <v>13</v>
+      </c>
+      <c r="G1078">
+        <v>4</v>
+      </c>
+      <c r="J1078" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1078" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1078">
+        <v>0</v>
+      </c>
+      <c r="M1078">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:13">
+      <c r="A1079" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1079">
+        <v>8</v>
+      </c>
+      <c r="G1079">
+        <v>3</v>
+      </c>
+      <c r="J1079" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1079" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1079">
+        <v>0</v>
+      </c>
+      <c r="M1079">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:13">
+      <c r="A1080" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1080">
+        <v>17</v>
+      </c>
+      <c r="G1080">
+        <v>8</v>
+      </c>
+      <c r="J1080" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1080" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1080">
+        <v>0</v>
+      </c>
+      <c r="M1080">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:13">
+      <c r="A1081" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1081">
+        <v>23</v>
+      </c>
+      <c r="G1081">
+        <v>14</v>
+      </c>
+      <c r="J1081" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1081" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1081">
+        <v>0</v>
+      </c>
+      <c r="M1081">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:13">
+      <c r="A1082" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1082">
+        <v>10</v>
+      </c>
+      <c r="G1082">
+        <v>4</v>
+      </c>
+      <c r="J1082" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1082" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1082">
+        <v>0</v>
+      </c>
+      <c r="M1082">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:13">
+      <c r="A1083" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1083">
+        <v>22</v>
+      </c>
+      <c r="G1083">
+        <v>5</v>
+      </c>
+      <c r="J1083" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1083" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1083">
+        <v>0</v>
+      </c>
+      <c r="M1083">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:13">
+      <c r="A1084" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1084">
+        <v>9</v>
+      </c>
+      <c r="G1084">
+        <v>3</v>
+      </c>
+      <c r="J1084" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1084" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1084">
+        <v>0</v>
+      </c>
+      <c r="M1084">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:13">
+      <c r="A1085" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1085">
+        <v>11</v>
+      </c>
+      <c r="G1085">
+        <v>3</v>
+      </c>
+      <c r="J1085" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1085" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1085">
+        <v>0</v>
+      </c>
+      <c r="M1085">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:13">
+      <c r="A1086" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1086">
+        <v>7</v>
+      </c>
+      <c r="G1086">
+        <v>3</v>
+      </c>
+      <c r="J1086" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1086" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1086">
+        <v>0</v>
+      </c>
+      <c r="M1086">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:13">
+      <c r="A1087" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1087">
+        <v>11</v>
+      </c>
+      <c r="G1087">
+        <v>3</v>
+      </c>
+      <c r="J1087" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1087" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1087">
+        <v>0</v>
+      </c>
+      <c r="M1087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:13">
+      <c r="A1088" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1088">
+        <v>2</v>
+      </c>
+      <c r="G1088">
+        <v>2</v>
+      </c>
+      <c r="J1088" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1088" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1088">
+        <v>0</v>
+      </c>
+      <c r="M1088">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:13">
+      <c r="A1089" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1089">
+        <v>16</v>
+      </c>
+      <c r="G1089">
+        <v>4</v>
+      </c>
+      <c r="J1089" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1089" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1089">
+        <v>0</v>
+      </c>
+      <c r="M1089">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:13">
+      <c r="A1090" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1090">
+        <v>47</v>
+      </c>
+      <c r="G1090">
+        <v>19</v>
+      </c>
+      <c r="J1090" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1090" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1090">
+        <v>0</v>
+      </c>
+      <c r="M1090">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:13">
+      <c r="A1091" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1091">
+        <v>171</v>
+      </c>
+      <c r="G1091">
+        <v>42</v>
+      </c>
+      <c r="J1091" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1091" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1091">
+        <v>0</v>
+      </c>
+      <c r="M1091">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:13">
+      <c r="A1092" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1092">
+        <v>7</v>
+      </c>
+      <c r="G1092">
+        <v>2</v>
+      </c>
+      <c r="J1092" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1092" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1092">
+        <v>0</v>
+      </c>
+      <c r="M1092">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:13">
+      <c r="A1093" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1093">
+        <v>38</v>
+      </c>
+      <c r="G1093">
+        <v>11</v>
+      </c>
+      <c r="J1093" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1093" s="2">
+        <v>45539.75899447722</v>
+      </c>
+      <c r="L1093">
+        <v>0</v>
+      </c>
+      <c r="M1093">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7501" uniqueCount="116">
   <si>
     <t>Curso</t>
   </si>
@@ -723,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1093"/>
+  <dimension ref="A1:M1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33556,7 +33556,7 @@
         <v>113</v>
       </c>
       <c r="K938" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L938">
         <v>0</v>
@@ -33591,7 +33591,7 @@
         <v>113</v>
       </c>
       <c r="K939" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L939">
         <v>0</v>
@@ -33626,7 +33626,7 @@
         <v>113</v>
       </c>
       <c r="K940" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L940">
         <v>0</v>
@@ -33661,7 +33661,7 @@
         <v>113</v>
       </c>
       <c r="K941" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L941">
         <v>0</v>
@@ -33696,7 +33696,7 @@
         <v>113</v>
       </c>
       <c r="K942" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L942">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>113</v>
       </c>
       <c r="K943" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L943">
         <v>0</v>
@@ -33766,7 +33766,7 @@
         <v>113</v>
       </c>
       <c r="K944" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L944">
         <v>0</v>
@@ -33801,7 +33801,7 @@
         <v>113</v>
       </c>
       <c r="K945" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L945">
         <v>0</v>
@@ -33836,7 +33836,7 @@
         <v>113</v>
       </c>
       <c r="K946" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L946">
         <v>0</v>
@@ -33871,7 +33871,7 @@
         <v>113</v>
       </c>
       <c r="K947" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L947">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>113</v>
       </c>
       <c r="K948" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L948">
         <v>0</v>
@@ -33941,7 +33941,7 @@
         <v>113</v>
       </c>
       <c r="K949" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L949">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>113</v>
       </c>
       <c r="K950" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L950">
         <v>0</v>
@@ -34011,7 +34011,7 @@
         <v>113</v>
       </c>
       <c r="K951" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L951">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>113</v>
       </c>
       <c r="K952" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L952">
         <v>0</v>
@@ -34081,7 +34081,7 @@
         <v>113</v>
       </c>
       <c r="K953" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L953">
         <v>0</v>
@@ -34116,7 +34116,7 @@
         <v>113</v>
       </c>
       <c r="K954" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L954">
         <v>0</v>
@@ -34151,7 +34151,7 @@
         <v>113</v>
       </c>
       <c r="K955" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L955">
         <v>0</v>
@@ -34186,7 +34186,7 @@
         <v>113</v>
       </c>
       <c r="K956" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L956">
         <v>0</v>
@@ -34221,7 +34221,7 @@
         <v>113</v>
       </c>
       <c r="K957" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L957">
         <v>0</v>
@@ -34256,7 +34256,7 @@
         <v>113</v>
       </c>
       <c r="K958" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L958">
         <v>0</v>
@@ -34291,7 +34291,7 @@
         <v>113</v>
       </c>
       <c r="K959" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L959">
         <v>0</v>
@@ -34326,7 +34326,7 @@
         <v>113</v>
       </c>
       <c r="K960" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L960">
         <v>0</v>
@@ -34361,7 +34361,7 @@
         <v>113</v>
       </c>
       <c r="K961" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L961">
         <v>0</v>
@@ -34396,7 +34396,7 @@
         <v>113</v>
       </c>
       <c r="K962" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L962">
         <v>0</v>
@@ -34431,7 +34431,7 @@
         <v>113</v>
       </c>
       <c r="K963" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L963">
         <v>0</v>
@@ -34466,7 +34466,7 @@
         <v>113</v>
       </c>
       <c r="K964" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L964">
         <v>0</v>
@@ -34501,7 +34501,7 @@
         <v>113</v>
       </c>
       <c r="K965" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L965">
         <v>0</v>
@@ -34536,7 +34536,7 @@
         <v>113</v>
       </c>
       <c r="K966" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L966">
         <v>0</v>
@@ -34571,7 +34571,7 @@
         <v>113</v>
       </c>
       <c r="K967" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L967">
         <v>0</v>
@@ -34606,7 +34606,7 @@
         <v>113</v>
       </c>
       <c r="K968" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L968">
         <v>0</v>
@@ -34641,7 +34641,7 @@
         <v>113</v>
       </c>
       <c r="K969" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L969">
         <v>0</v>
@@ -34676,7 +34676,7 @@
         <v>113</v>
       </c>
       <c r="K970" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L970">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>113</v>
       </c>
       <c r="K971" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L971">
         <v>0</v>
@@ -34746,7 +34746,7 @@
         <v>113</v>
       </c>
       <c r="K972" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L972">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>113</v>
       </c>
       <c r="K973" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L973">
         <v>0</v>
@@ -34816,7 +34816,7 @@
         <v>113</v>
       </c>
       <c r="K974" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L974">
         <v>0</v>
@@ -34851,7 +34851,7 @@
         <v>113</v>
       </c>
       <c r="K975" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L975">
         <v>0</v>
@@ -34886,7 +34886,7 @@
         <v>113</v>
       </c>
       <c r="K976" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L976">
         <v>0</v>
@@ -34921,7 +34921,7 @@
         <v>113</v>
       </c>
       <c r="K977" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L977">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>113</v>
       </c>
       <c r="K978" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L978">
         <v>0</v>
@@ -34991,7 +34991,7 @@
         <v>113</v>
       </c>
       <c r="K979" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L979">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>113</v>
       </c>
       <c r="K980" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L980">
         <v>0</v>
@@ -35061,7 +35061,7 @@
         <v>113</v>
       </c>
       <c r="K981" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L981">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>113</v>
       </c>
       <c r="K982" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L982">
         <v>0</v>
@@ -35131,7 +35131,7 @@
         <v>113</v>
       </c>
       <c r="K983" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L983">
         <v>0</v>
@@ -35166,7 +35166,7 @@
         <v>113</v>
       </c>
       <c r="K984" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L984">
         <v>0</v>
@@ -35201,7 +35201,7 @@
         <v>113</v>
       </c>
       <c r="K985" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L985">
         <v>0</v>
@@ -35236,7 +35236,7 @@
         <v>113</v>
       </c>
       <c r="K986" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L986">
         <v>0</v>
@@ -35271,7 +35271,7 @@
         <v>113</v>
       </c>
       <c r="K987" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L987">
         <v>0</v>
@@ -35306,7 +35306,7 @@
         <v>113</v>
       </c>
       <c r="K988" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L988">
         <v>0</v>
@@ -35341,7 +35341,7 @@
         <v>114</v>
       </c>
       <c r="K989" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L989">
         <v>0</v>
@@ -35376,7 +35376,7 @@
         <v>115</v>
       </c>
       <c r="K990" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L990">
         <v>0</v>
@@ -35411,7 +35411,7 @@
         <v>114</v>
       </c>
       <c r="K991" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L991">
         <v>0</v>
@@ -35446,7 +35446,7 @@
         <v>115</v>
       </c>
       <c r="K992" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L992">
         <v>0</v>
@@ -35481,7 +35481,7 @@
         <v>114</v>
       </c>
       <c r="K993" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L993">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>115</v>
       </c>
       <c r="K994" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L994">
         <v>0</v>
@@ -35551,7 +35551,7 @@
         <v>114</v>
       </c>
       <c r="K995" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L995">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>115</v>
       </c>
       <c r="K996" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L996">
         <v>0</v>
@@ -35621,7 +35621,7 @@
         <v>115</v>
       </c>
       <c r="K997" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L997">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>114</v>
       </c>
       <c r="K998" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L998">
         <v>0</v>
@@ -35691,7 +35691,7 @@
         <v>115</v>
       </c>
       <c r="K999" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L999">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>115</v>
       </c>
       <c r="K1000" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1000">
         <v>0</v>
@@ -35761,7 +35761,7 @@
         <v>114</v>
       </c>
       <c r="K1001" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1001">
         <v>0</v>
@@ -35796,7 +35796,7 @@
         <v>115</v>
       </c>
       <c r="K1002" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1002">
         <v>0</v>
@@ -35831,7 +35831,7 @@
         <v>115</v>
       </c>
       <c r="K1003" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1003">
         <v>0</v>
@@ -35866,7 +35866,7 @@
         <v>115</v>
       </c>
       <c r="K1004" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1004">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>115</v>
       </c>
       <c r="K1005" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1005">
         <v>0</v>
@@ -35936,7 +35936,7 @@
         <v>115</v>
       </c>
       <c r="K1006" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1006">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>115</v>
       </c>
       <c r="K1007" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1007">
         <v>0</v>
@@ -36006,7 +36006,7 @@
         <v>114</v>
       </c>
       <c r="K1008" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1008">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>115</v>
       </c>
       <c r="K1009" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1009">
         <v>0</v>
@@ -36076,7 +36076,7 @@
         <v>114</v>
       </c>
       <c r="K1010" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1010">
         <v>0</v>
@@ -36111,7 +36111,7 @@
         <v>115</v>
       </c>
       <c r="K1011" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1011">
         <v>0</v>
@@ -36146,7 +36146,7 @@
         <v>114</v>
       </c>
       <c r="K1012" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1012">
         <v>0</v>
@@ -36181,7 +36181,7 @@
         <v>115</v>
       </c>
       <c r="K1013" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1013">
         <v>0</v>
@@ -36216,7 +36216,7 @@
         <v>114</v>
       </c>
       <c r="K1014" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1014">
         <v>0</v>
@@ -36251,7 +36251,7 @@
         <v>115</v>
       </c>
       <c r="K1015" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1015">
         <v>0</v>
@@ -36286,7 +36286,7 @@
         <v>114</v>
       </c>
       <c r="K1016" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1016">
         <v>0</v>
@@ -36321,7 +36321,7 @@
         <v>115</v>
       </c>
       <c r="K1017" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1017">
         <v>0</v>
@@ -36356,7 +36356,7 @@
         <v>114</v>
       </c>
       <c r="K1018" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1018">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>115</v>
       </c>
       <c r="K1019" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1019">
         <v>0</v>
@@ -36426,7 +36426,7 @@
         <v>115</v>
       </c>
       <c r="K1020" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1020">
         <v>0</v>
@@ -36461,7 +36461,7 @@
         <v>115</v>
       </c>
       <c r="K1021" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1021">
         <v>0</v>
@@ -36496,7 +36496,7 @@
         <v>115</v>
       </c>
       <c r="K1022" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1022">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>115</v>
       </c>
       <c r="K1023" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1023">
         <v>0</v>
@@ -36566,7 +36566,7 @@
         <v>115</v>
       </c>
       <c r="K1024" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1024">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>115</v>
       </c>
       <c r="K1025" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1025">
         <v>0</v>
@@ -36636,7 +36636,7 @@
         <v>115</v>
       </c>
       <c r="K1026" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1026">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>114</v>
       </c>
       <c r="K1027" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1027">
         <v>0</v>
@@ -36706,7 +36706,7 @@
         <v>115</v>
       </c>
       <c r="K1028" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1028">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>114</v>
       </c>
       <c r="K1029" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1029">
         <v>0</v>
@@ -36776,7 +36776,7 @@
         <v>115</v>
       </c>
       <c r="K1030" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1030">
         <v>0</v>
@@ -36811,7 +36811,7 @@
         <v>114</v>
       </c>
       <c r="K1031" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1031">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>115</v>
       </c>
       <c r="K1032" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1032">
         <v>0</v>
@@ -36881,7 +36881,7 @@
         <v>114</v>
       </c>
       <c r="K1033" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1033">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>115</v>
       </c>
       <c r="K1034" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1034">
         <v>0</v>
@@ -36951,7 +36951,7 @@
         <v>114</v>
       </c>
       <c r="K1035" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1035">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>115</v>
       </c>
       <c r="K1036" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1036">
         <v>0</v>
@@ -37021,7 +37021,7 @@
         <v>114</v>
       </c>
       <c r="K1037" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1037">
         <v>0</v>
@@ -37056,7 +37056,7 @@
         <v>115</v>
       </c>
       <c r="K1038" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1038">
         <v>0</v>
@@ -37091,7 +37091,7 @@
         <v>114</v>
       </c>
       <c r="K1039" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1039">
         <v>0</v>
@@ -37126,7 +37126,7 @@
         <v>115</v>
       </c>
       <c r="K1040" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1040">
         <v>0</v>
@@ -37161,7 +37161,7 @@
         <v>114</v>
       </c>
       <c r="K1041" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1041">
         <v>0</v>
@@ -37196,7 +37196,7 @@
         <v>114</v>
       </c>
       <c r="K1042" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1042">
         <v>0</v>
@@ -37231,7 +37231,7 @@
         <v>115</v>
       </c>
       <c r="K1043" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1043">
         <v>0</v>
@@ -37266,7 +37266,7 @@
         <v>115</v>
       </c>
       <c r="K1044" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1044">
         <v>0</v>
@@ -37301,7 +37301,7 @@
         <v>115</v>
       </c>
       <c r="K1045" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1045">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         <v>114</v>
       </c>
       <c r="K1046" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1046">
         <v>0</v>
@@ -37371,7 +37371,7 @@
         <v>115</v>
       </c>
       <c r="K1047" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1047">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>114</v>
       </c>
       <c r="K1048" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1048">
         <v>0</v>
@@ -37441,7 +37441,7 @@
         <v>115</v>
       </c>
       <c r="K1049" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1049">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>115</v>
       </c>
       <c r="K1050" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1050">
         <v>0</v>
@@ -37511,7 +37511,7 @@
         <v>115</v>
       </c>
       <c r="K1051" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1051">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>114</v>
       </c>
       <c r="K1052" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1052">
         <v>0</v>
@@ -37581,7 +37581,7 @@
         <v>115</v>
       </c>
       <c r="K1053" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1053">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>114</v>
       </c>
       <c r="K1054" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1054">
         <v>0</v>
@@ -37651,7 +37651,7 @@
         <v>115</v>
       </c>
       <c r="K1055" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1055">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>114</v>
       </c>
       <c r="K1056" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1056">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>115</v>
       </c>
       <c r="K1057" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1057">
         <v>0</v>
@@ -37756,7 +37756,7 @@
         <v>114</v>
       </c>
       <c r="K1058" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1058">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>115</v>
       </c>
       <c r="K1059" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1059">
         <v>0</v>
@@ -37826,7 +37826,7 @@
         <v>114</v>
       </c>
       <c r="K1060" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1060">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>115</v>
       </c>
       <c r="K1061" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1061">
         <v>0</v>
@@ -37896,7 +37896,7 @@
         <v>114</v>
       </c>
       <c r="K1062" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1062">
         <v>0</v>
@@ -37931,7 +37931,7 @@
         <v>115</v>
       </c>
       <c r="K1063" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1063">
         <v>0</v>
@@ -37966,7 +37966,7 @@
         <v>114</v>
       </c>
       <c r="K1064" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1064">
         <v>0</v>
@@ -38001,7 +38001,7 @@
         <v>115</v>
       </c>
       <c r="K1065" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1065">
         <v>0</v>
@@ -38036,7 +38036,7 @@
         <v>114</v>
       </c>
       <c r="K1066" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1066">
         <v>0</v>
@@ -38071,7 +38071,7 @@
         <v>115</v>
       </c>
       <c r="K1067" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1067">
         <v>0</v>
@@ -38106,7 +38106,7 @@
         <v>115</v>
       </c>
       <c r="K1068" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1068">
         <v>0</v>
@@ -38141,7 +38141,7 @@
         <v>114</v>
       </c>
       <c r="K1069" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1069">
         <v>0</v>
@@ -38176,7 +38176,7 @@
         <v>115</v>
       </c>
       <c r="K1070" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1070">
         <v>0</v>
@@ -38211,7 +38211,7 @@
         <v>114</v>
       </c>
       <c r="K1071" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1071">
         <v>0</v>
@@ -38246,7 +38246,7 @@
         <v>115</v>
       </c>
       <c r="K1072" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1072">
         <v>0</v>
@@ -38281,7 +38281,7 @@
         <v>114</v>
       </c>
       <c r="K1073" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1073">
         <v>0</v>
@@ -38316,7 +38316,7 @@
         <v>115</v>
       </c>
       <c r="K1074" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1074">
         <v>0</v>
@@ -38351,7 +38351,7 @@
         <v>114</v>
       </c>
       <c r="K1075" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1075">
         <v>0</v>
@@ -38386,7 +38386,7 @@
         <v>115</v>
       </c>
       <c r="K1076" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1076">
         <v>0</v>
@@ -38421,7 +38421,7 @@
         <v>113</v>
       </c>
       <c r="K1077" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1077">
         <v>0</v>
@@ -38456,7 +38456,7 @@
         <v>113</v>
       </c>
       <c r="K1078" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1078">
         <v>0</v>
@@ -38491,7 +38491,7 @@
         <v>113</v>
       </c>
       <c r="K1079" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1079">
         <v>0</v>
@@ -38526,7 +38526,7 @@
         <v>113</v>
       </c>
       <c r="K1080" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1080">
         <v>0</v>
@@ -38561,7 +38561,7 @@
         <v>113</v>
       </c>
       <c r="K1081" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1081">
         <v>0</v>
@@ -38596,7 +38596,7 @@
         <v>113</v>
       </c>
       <c r="K1082" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1082">
         <v>0</v>
@@ -38631,7 +38631,7 @@
         <v>113</v>
       </c>
       <c r="K1083" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1083">
         <v>0</v>
@@ -38666,7 +38666,7 @@
         <v>113</v>
       </c>
       <c r="K1084" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1084">
         <v>0</v>
@@ -38701,7 +38701,7 @@
         <v>113</v>
       </c>
       <c r="K1085" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1085">
         <v>0</v>
@@ -38736,7 +38736,7 @@
         <v>113</v>
       </c>
       <c r="K1086" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1086">
         <v>0</v>
@@ -38771,7 +38771,7 @@
         <v>113</v>
       </c>
       <c r="K1087" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1087">
         <v>0</v>
@@ -38806,7 +38806,7 @@
         <v>113</v>
       </c>
       <c r="K1088" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1088">
         <v>0</v>
@@ -38841,7 +38841,7 @@
         <v>113</v>
       </c>
       <c r="K1089" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1089">
         <v>0</v>
@@ -38876,7 +38876,7 @@
         <v>113</v>
       </c>
       <c r="K1090" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1090">
         <v>0</v>
@@ -38911,7 +38911,7 @@
         <v>113</v>
       </c>
       <c r="K1091" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1091">
         <v>0</v>
@@ -38946,7 +38946,7 @@
         <v>113</v>
       </c>
       <c r="K1092" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1092">
         <v>0</v>
@@ -38981,12 +38981,5472 @@
         <v>113</v>
       </c>
       <c r="K1093" s="2">
-        <v>45539.75899447722</v>
+        <v>45539.75899447917</v>
       </c>
       <c r="L1093">
         <v>0</v>
       </c>
       <c r="M1093">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:13">
+      <c r="A1094" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1094">
+        <v>56</v>
+      </c>
+      <c r="G1094">
+        <v>34</v>
+      </c>
+      <c r="J1094" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1094" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1094">
+        <v>0</v>
+      </c>
+      <c r="M1094">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:13">
+      <c r="A1095" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1095">
+        <v>22</v>
+      </c>
+      <c r="G1095">
+        <v>19</v>
+      </c>
+      <c r="J1095" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1095" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1095">
+        <v>0</v>
+      </c>
+      <c r="M1095">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:13">
+      <c r="A1096" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1096">
+        <v>20</v>
+      </c>
+      <c r="G1096">
+        <v>8</v>
+      </c>
+      <c r="J1096" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1096" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1096">
+        <v>0</v>
+      </c>
+      <c r="M1096">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:13">
+      <c r="A1097" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1097">
+        <v>59</v>
+      </c>
+      <c r="G1097">
+        <v>30</v>
+      </c>
+      <c r="J1097" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1097" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1097">
+        <v>0</v>
+      </c>
+      <c r="M1097">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:13">
+      <c r="A1098" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1098">
+        <v>20</v>
+      </c>
+      <c r="G1098">
+        <v>10</v>
+      </c>
+      <c r="J1098" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1098" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1098">
+        <v>0</v>
+      </c>
+      <c r="M1098">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:13">
+      <c r="A1099" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1099">
+        <v>11</v>
+      </c>
+      <c r="G1099">
+        <v>3</v>
+      </c>
+      <c r="J1099" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1099" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1099">
+        <v>0</v>
+      </c>
+      <c r="M1099">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:13">
+      <c r="A1100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1100">
+        <v>4</v>
+      </c>
+      <c r="G1100">
+        <v>1</v>
+      </c>
+      <c r="J1100" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1100" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1100">
+        <v>0</v>
+      </c>
+      <c r="M1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:13">
+      <c r="A1101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1101">
+        <v>2</v>
+      </c>
+      <c r="G1101">
+        <v>0</v>
+      </c>
+      <c r="J1101" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1101" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1101">
+        <v>0</v>
+      </c>
+      <c r="M1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:13">
+      <c r="A1102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1102">
+        <v>173</v>
+      </c>
+      <c r="G1102">
+        <v>68</v>
+      </c>
+      <c r="J1102" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1102" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1102">
+        <v>0</v>
+      </c>
+      <c r="M1102">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:13">
+      <c r="A1103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1103">
+        <v>120</v>
+      </c>
+      <c r="G1103">
+        <v>56</v>
+      </c>
+      <c r="J1103" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1103" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1103">
+        <v>0</v>
+      </c>
+      <c r="M1103">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:13">
+      <c r="A1104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1104">
+        <v>182</v>
+      </c>
+      <c r="G1104">
+        <v>86</v>
+      </c>
+      <c r="J1104" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1104" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1104">
+        <v>0</v>
+      </c>
+      <c r="M1104">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:13">
+      <c r="A1105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1105">
+        <v>59</v>
+      </c>
+      <c r="G1105">
+        <v>24</v>
+      </c>
+      <c r="J1105" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1105" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1105">
+        <v>0</v>
+      </c>
+      <c r="M1105">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:13">
+      <c r="A1106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1106">
+        <v>55</v>
+      </c>
+      <c r="G1106">
+        <v>23</v>
+      </c>
+      <c r="J1106" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1106" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1106">
+        <v>0</v>
+      </c>
+      <c r="M1106">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:13">
+      <c r="A1107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1107">
+        <v>74</v>
+      </c>
+      <c r="G1107">
+        <v>19</v>
+      </c>
+      <c r="J1107" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1107" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1107">
+        <v>0</v>
+      </c>
+      <c r="M1107">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:13">
+      <c r="A1108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1108">
+        <v>64</v>
+      </c>
+      <c r="G1108">
+        <v>29</v>
+      </c>
+      <c r="J1108" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1108" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1108">
+        <v>0</v>
+      </c>
+      <c r="M1108">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:13">
+      <c r="A1109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1109">
+        <v>34</v>
+      </c>
+      <c r="G1109">
+        <v>14</v>
+      </c>
+      <c r="J1109" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1109" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1109">
+        <v>0</v>
+      </c>
+      <c r="M1109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:13">
+      <c r="A1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1110">
+        <v>27</v>
+      </c>
+      <c r="G1110">
+        <v>9</v>
+      </c>
+      <c r="J1110" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1110" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1110">
+        <v>0</v>
+      </c>
+      <c r="M1110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:13">
+      <c r="A1111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1111">
+        <v>12</v>
+      </c>
+      <c r="G1111">
+        <v>1</v>
+      </c>
+      <c r="J1111" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1111" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1111">
+        <v>0</v>
+      </c>
+      <c r="M1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:13">
+      <c r="A1112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1112">
+        <v>45</v>
+      </c>
+      <c r="G1112">
+        <v>15</v>
+      </c>
+      <c r="J1112" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1112" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1112">
+        <v>0</v>
+      </c>
+      <c r="M1112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:13">
+      <c r="A1113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1113">
+        <v>59</v>
+      </c>
+      <c r="G1113">
+        <v>31</v>
+      </c>
+      <c r="J1113" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1113" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1113">
+        <v>0</v>
+      </c>
+      <c r="M1113">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:13">
+      <c r="A1114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1114">
+        <v>75</v>
+      </c>
+      <c r="G1114">
+        <v>28</v>
+      </c>
+      <c r="J1114" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1114" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1114">
+        <v>0</v>
+      </c>
+      <c r="M1114">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:13">
+      <c r="A1115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1115">
+        <v>80</v>
+      </c>
+      <c r="G1115">
+        <v>33</v>
+      </c>
+      <c r="J1115" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1115" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1115">
+        <v>0</v>
+      </c>
+      <c r="M1115">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:13">
+      <c r="A1116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1116">
+        <v>87</v>
+      </c>
+      <c r="G1116">
+        <v>38</v>
+      </c>
+      <c r="J1116" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1116" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1116">
+        <v>0</v>
+      </c>
+      <c r="M1116">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:13">
+      <c r="A1117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1117">
+        <v>75</v>
+      </c>
+      <c r="G1117">
+        <v>27</v>
+      </c>
+      <c r="J1117" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1117" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1117">
+        <v>0</v>
+      </c>
+      <c r="M1117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:13">
+      <c r="A1118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1118">
+        <v>45</v>
+      </c>
+      <c r="G1118">
+        <v>17</v>
+      </c>
+      <c r="J1118" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1118" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1118">
+        <v>0</v>
+      </c>
+      <c r="M1118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:13">
+      <c r="A1119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1119">
+        <v>112</v>
+      </c>
+      <c r="G1119">
+        <v>54</v>
+      </c>
+      <c r="J1119" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1119" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1119">
+        <v>0</v>
+      </c>
+      <c r="M1119">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:13">
+      <c r="A1120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1120">
+        <v>74</v>
+      </c>
+      <c r="G1120">
+        <v>19</v>
+      </c>
+      <c r="J1120" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1120" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1120">
+        <v>0</v>
+      </c>
+      <c r="M1120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:13">
+      <c r="A1121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1121">
+        <v>74</v>
+      </c>
+      <c r="G1121">
+        <v>36</v>
+      </c>
+      <c r="J1121" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1121" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1121">
+        <v>0</v>
+      </c>
+      <c r="M1121">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:13">
+      <c r="A1122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1122">
+        <v>75</v>
+      </c>
+      <c r="G1122">
+        <v>35</v>
+      </c>
+      <c r="J1122" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1122" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1122">
+        <v>0</v>
+      </c>
+      <c r="M1122">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:13">
+      <c r="A1123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1123">
+        <v>34</v>
+      </c>
+      <c r="G1123">
+        <v>15</v>
+      </c>
+      <c r="J1123" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1123" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1123">
+        <v>0</v>
+      </c>
+      <c r="M1123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:13">
+      <c r="A1124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1124">
+        <v>78</v>
+      </c>
+      <c r="G1124">
+        <v>37</v>
+      </c>
+      <c r="J1124" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1124" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1124">
+        <v>0</v>
+      </c>
+      <c r="M1124">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:13">
+      <c r="A1125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1125">
+        <v>110</v>
+      </c>
+      <c r="G1125">
+        <v>48</v>
+      </c>
+      <c r="J1125" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1125" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1125">
+        <v>0</v>
+      </c>
+      <c r="M1125">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:13">
+      <c r="A1126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1126">
+        <v>84</v>
+      </c>
+      <c r="G1126">
+        <v>39</v>
+      </c>
+      <c r="J1126" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1126" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1126">
+        <v>0</v>
+      </c>
+      <c r="M1126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:13">
+      <c r="A1127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1127">
+        <v>53</v>
+      </c>
+      <c r="G1127">
+        <v>27</v>
+      </c>
+      <c r="J1127" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1127" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1127">
+        <v>0</v>
+      </c>
+      <c r="M1127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:13">
+      <c r="A1128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1128">
+        <v>26</v>
+      </c>
+      <c r="G1128">
+        <v>14</v>
+      </c>
+      <c r="J1128" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1128" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1128">
+        <v>0</v>
+      </c>
+      <c r="M1128">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:13">
+      <c r="A1129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1129">
+        <v>56</v>
+      </c>
+      <c r="G1129">
+        <v>19</v>
+      </c>
+      <c r="J1129" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1129" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1129">
+        <v>0</v>
+      </c>
+      <c r="M1129">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:13">
+      <c r="A1130" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1130">
+        <v>40</v>
+      </c>
+      <c r="G1130">
+        <v>20</v>
+      </c>
+      <c r="J1130" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1130" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1130">
+        <v>0</v>
+      </c>
+      <c r="M1130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:13">
+      <c r="A1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1131">
+        <v>87</v>
+      </c>
+      <c r="G1131">
+        <v>29</v>
+      </c>
+      <c r="J1131" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1131" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1131">
+        <v>0</v>
+      </c>
+      <c r="M1131">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:13">
+      <c r="A1132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1132">
+        <v>108</v>
+      </c>
+      <c r="G1132">
+        <v>39</v>
+      </c>
+      <c r="J1132" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1132" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1132">
+        <v>0</v>
+      </c>
+      <c r="M1132">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:13">
+      <c r="A1133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1133">
+        <v>146</v>
+      </c>
+      <c r="G1133">
+        <v>49</v>
+      </c>
+      <c r="J1133" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1133" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1133">
+        <v>0</v>
+      </c>
+      <c r="M1133">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:13">
+      <c r="A1134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1134">
+        <v>129</v>
+      </c>
+      <c r="G1134">
+        <v>55</v>
+      </c>
+      <c r="J1134" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1134" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1134">
+        <v>0</v>
+      </c>
+      <c r="M1134">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:13">
+      <c r="A1135" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1135">
+        <v>36</v>
+      </c>
+      <c r="G1135">
+        <v>13</v>
+      </c>
+      <c r="J1135" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1135" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1135">
+        <v>0</v>
+      </c>
+      <c r="M1135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:13">
+      <c r="A1136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1136">
+        <v>119</v>
+      </c>
+      <c r="G1136">
+        <v>52</v>
+      </c>
+      <c r="J1136" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1136" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1136">
+        <v>0</v>
+      </c>
+      <c r="M1136">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:13">
+      <c r="A1137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1137">
+        <v>49</v>
+      </c>
+      <c r="G1137">
+        <v>26</v>
+      </c>
+      <c r="J1137" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1137" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1137">
+        <v>0</v>
+      </c>
+      <c r="M1137">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:13">
+      <c r="A1138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1138">
+        <v>93</v>
+      </c>
+      <c r="G1138">
+        <v>40</v>
+      </c>
+      <c r="J1138" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1138" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1138">
+        <v>0</v>
+      </c>
+      <c r="M1138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:13">
+      <c r="A1139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1139">
+        <v>167</v>
+      </c>
+      <c r="G1139">
+        <v>63</v>
+      </c>
+      <c r="J1139" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1139" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1139">
+        <v>0</v>
+      </c>
+      <c r="M1139">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:13">
+      <c r="A1140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1140">
+        <v>82</v>
+      </c>
+      <c r="G1140">
+        <v>21</v>
+      </c>
+      <c r="J1140" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1140" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1140">
+        <v>0</v>
+      </c>
+      <c r="M1140">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:13">
+      <c r="A1141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1141">
+        <v>89</v>
+      </c>
+      <c r="G1141">
+        <v>39</v>
+      </c>
+      <c r="J1141" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1141" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1141">
+        <v>0</v>
+      </c>
+      <c r="M1141">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:13">
+      <c r="A1142" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1142">
+        <v>67</v>
+      </c>
+      <c r="G1142">
+        <v>26</v>
+      </c>
+      <c r="J1142" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1142" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1142">
+        <v>0</v>
+      </c>
+      <c r="M1142">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:13">
+      <c r="A1143" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1143">
+        <v>76</v>
+      </c>
+      <c r="G1143">
+        <v>30</v>
+      </c>
+      <c r="J1143" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1143" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1143">
+        <v>0</v>
+      </c>
+      <c r="M1143">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:13">
+      <c r="A1144" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1144">
+        <v>3</v>
+      </c>
+      <c r="G1144">
+        <v>2</v>
+      </c>
+      <c r="J1144" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1144" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1144">
+        <v>0</v>
+      </c>
+      <c r="M1144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:13">
+      <c r="A1145" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1145">
+        <v>24</v>
+      </c>
+      <c r="G1145">
+        <v>11</v>
+      </c>
+      <c r="J1145" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1145" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1145">
+        <v>0</v>
+      </c>
+      <c r="M1145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:13">
+      <c r="A1146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1146">
+        <v>9</v>
+      </c>
+      <c r="G1146">
+        <v>5</v>
+      </c>
+      <c r="J1146" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1146" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1146">
+        <v>0</v>
+      </c>
+      <c r="M1146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:13">
+      <c r="A1147" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1147">
+        <v>6</v>
+      </c>
+      <c r="G1147">
+        <v>0</v>
+      </c>
+      <c r="J1147" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1147" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1147">
+        <v>0</v>
+      </c>
+      <c r="M1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:13">
+      <c r="A1148" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1148">
+        <v>0</v>
+      </c>
+      <c r="G1148">
+        <v>0</v>
+      </c>
+      <c r="J1148" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1148" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1148">
+        <v>0</v>
+      </c>
+      <c r="M1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:13">
+      <c r="A1149" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1149">
+        <v>1</v>
+      </c>
+      <c r="G1149">
+        <v>0</v>
+      </c>
+      <c r="J1149" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1149" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1149">
+        <v>0</v>
+      </c>
+      <c r="M1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:13">
+      <c r="A1150" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1150">
+        <v>4</v>
+      </c>
+      <c r="G1150">
+        <v>1</v>
+      </c>
+      <c r="J1150" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1150" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1150">
+        <v>0</v>
+      </c>
+      <c r="M1150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:13">
+      <c r="A1151" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1151">
+        <v>5</v>
+      </c>
+      <c r="G1151">
+        <v>1</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1151" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1151">
+        <v>0</v>
+      </c>
+      <c r="M1151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:13">
+      <c r="A1152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1152">
+        <v>9</v>
+      </c>
+      <c r="G1152">
+        <v>2</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1152" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1152">
+        <v>0</v>
+      </c>
+      <c r="M1152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:13">
+      <c r="A1153" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1153">
+        <v>0</v>
+      </c>
+      <c r="G1153">
+        <v>0</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1153" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1153">
+        <v>0</v>
+      </c>
+      <c r="M1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:13">
+      <c r="A1154" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1154">
+        <v>0</v>
+      </c>
+      <c r="G1154">
+        <v>0</v>
+      </c>
+      <c r="J1154" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1154" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1154">
+        <v>0</v>
+      </c>
+      <c r="M1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:13">
+      <c r="A1155" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1155">
+        <v>1</v>
+      </c>
+      <c r="G1155">
+        <v>0</v>
+      </c>
+      <c r="J1155" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1155" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1155">
+        <v>0</v>
+      </c>
+      <c r="M1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:13">
+      <c r="A1156" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1156">
+        <v>1</v>
+      </c>
+      <c r="G1156">
+        <v>1</v>
+      </c>
+      <c r="J1156" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1156" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1156">
+        <v>0</v>
+      </c>
+      <c r="M1156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:13">
+      <c r="A1157" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1157">
+        <v>0</v>
+      </c>
+      <c r="G1157">
+        <v>0</v>
+      </c>
+      <c r="J1157" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1157" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1157">
+        <v>0</v>
+      </c>
+      <c r="M1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:13">
+      <c r="A1158" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1158">
+        <v>87</v>
+      </c>
+      <c r="G1158">
+        <v>37</v>
+      </c>
+      <c r="J1158" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1158" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1158">
+        <v>0</v>
+      </c>
+      <c r="M1158">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:13">
+      <c r="A1159" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1159">
+        <v>6</v>
+      </c>
+      <c r="G1159">
+        <v>2</v>
+      </c>
+      <c r="J1159" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1159" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1159">
+        <v>0</v>
+      </c>
+      <c r="M1159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:13">
+      <c r="A1160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1160">
+        <v>51</v>
+      </c>
+      <c r="G1160">
+        <v>17</v>
+      </c>
+      <c r="J1160" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1160" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1160">
+        <v>0</v>
+      </c>
+      <c r="M1160">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:13">
+      <c r="A1161" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1161">
+        <v>46</v>
+      </c>
+      <c r="G1161">
+        <v>11</v>
+      </c>
+      <c r="J1161" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1161" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1161">
+        <v>0</v>
+      </c>
+      <c r="M1161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:13">
+      <c r="A1162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1162">
+        <v>24</v>
+      </c>
+      <c r="G1162">
+        <v>16</v>
+      </c>
+      <c r="J1162" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1162" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1162">
+        <v>0</v>
+      </c>
+      <c r="M1162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:13">
+      <c r="A1163" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1163">
+        <v>2</v>
+      </c>
+      <c r="G1163">
+        <v>1</v>
+      </c>
+      <c r="J1163" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1163" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1163">
+        <v>0</v>
+      </c>
+      <c r="M1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:13">
+      <c r="A1164" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1164">
+        <v>0</v>
+      </c>
+      <c r="G1164">
+        <v>0</v>
+      </c>
+      <c r="J1164" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1164" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1164">
+        <v>0</v>
+      </c>
+      <c r="M1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:13">
+      <c r="A1165" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1165">
+        <v>4</v>
+      </c>
+      <c r="G1165">
+        <v>1</v>
+      </c>
+      <c r="J1165" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1165" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1165">
+        <v>0</v>
+      </c>
+      <c r="M1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:13">
+      <c r="A1166" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1166">
+        <v>1</v>
+      </c>
+      <c r="G1166">
+        <v>0</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1166" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1166">
+        <v>0</v>
+      </c>
+      <c r="M1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:13">
+      <c r="A1167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1167">
+        <v>12</v>
+      </c>
+      <c r="G1167">
+        <v>4</v>
+      </c>
+      <c r="J1167" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1167" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1167">
+        <v>0</v>
+      </c>
+      <c r="M1167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:13">
+      <c r="A1168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1168">
+        <v>7</v>
+      </c>
+      <c r="G1168">
+        <v>1</v>
+      </c>
+      <c r="J1168" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1168" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1168">
+        <v>0</v>
+      </c>
+      <c r="M1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:13">
+      <c r="A1169" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1169">
+        <v>11</v>
+      </c>
+      <c r="G1169">
+        <v>6</v>
+      </c>
+      <c r="J1169" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1169" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1169">
+        <v>0</v>
+      </c>
+      <c r="M1169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:13">
+      <c r="A1170" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1170">
+        <v>3</v>
+      </c>
+      <c r="G1170">
+        <v>1</v>
+      </c>
+      <c r="J1170" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1170" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1170">
+        <v>0</v>
+      </c>
+      <c r="M1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:13">
+      <c r="A1171" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1171">
+        <v>5</v>
+      </c>
+      <c r="G1171">
+        <v>3</v>
+      </c>
+      <c r="J1171" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1171" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1171">
+        <v>0</v>
+      </c>
+      <c r="M1171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:13">
+      <c r="A1172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1172">
+        <v>3</v>
+      </c>
+      <c r="G1172">
+        <v>0</v>
+      </c>
+      <c r="J1172" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1172" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1172">
+        <v>0</v>
+      </c>
+      <c r="M1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:13">
+      <c r="A1173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1173">
+        <v>1</v>
+      </c>
+      <c r="G1173">
+        <v>0</v>
+      </c>
+      <c r="J1173" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1173" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1173">
+        <v>0</v>
+      </c>
+      <c r="M1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:13">
+      <c r="A1174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1174">
+        <v>1</v>
+      </c>
+      <c r="G1174">
+        <v>0</v>
+      </c>
+      <c r="J1174" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1174" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1174">
+        <v>0</v>
+      </c>
+      <c r="M1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:13">
+      <c r="A1175" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1175">
+        <v>12</v>
+      </c>
+      <c r="G1175">
+        <v>3</v>
+      </c>
+      <c r="J1175" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1175" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1175">
+        <v>0</v>
+      </c>
+      <c r="M1175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:13">
+      <c r="A1176" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1176">
+        <v>15</v>
+      </c>
+      <c r="G1176">
+        <v>6</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1176" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1176">
+        <v>0</v>
+      </c>
+      <c r="M1176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:13">
+      <c r="A1177" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1177">
+        <v>6</v>
+      </c>
+      <c r="G1177">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1177" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1177">
+        <v>0</v>
+      </c>
+      <c r="M1177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:13">
+      <c r="A1178" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1178">
+        <v>2</v>
+      </c>
+      <c r="G1178">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1178" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1178">
+        <v>0</v>
+      </c>
+      <c r="M1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:13">
+      <c r="A1179" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1179">
+        <v>40</v>
+      </c>
+      <c r="G1179">
+        <v>14</v>
+      </c>
+      <c r="J1179" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1179" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1179">
+        <v>0</v>
+      </c>
+      <c r="M1179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:13">
+      <c r="A1180" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1180">
+        <v>15</v>
+      </c>
+      <c r="G1180">
+        <v>5</v>
+      </c>
+      <c r="J1180" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1180" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1180">
+        <v>0</v>
+      </c>
+      <c r="M1180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:13">
+      <c r="A1181" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1181">
+        <v>31</v>
+      </c>
+      <c r="G1181">
+        <v>5</v>
+      </c>
+      <c r="J1181" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1181" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1181">
+        <v>0</v>
+      </c>
+      <c r="M1181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:13">
+      <c r="A1182" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1182">
+        <v>9</v>
+      </c>
+      <c r="G1182">
+        <v>5</v>
+      </c>
+      <c r="J1182" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1182" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1182">
+        <v>0</v>
+      </c>
+      <c r="M1182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:13">
+      <c r="A1183" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1183">
+        <v>5</v>
+      </c>
+      <c r="G1183">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1183" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1183">
+        <v>0</v>
+      </c>
+      <c r="M1183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:13">
+      <c r="A1184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1184">
+        <v>15</v>
+      </c>
+      <c r="G1184">
+        <v>6</v>
+      </c>
+      <c r="J1184" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1184" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1184">
+        <v>0</v>
+      </c>
+      <c r="M1184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:13">
+      <c r="A1185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1185">
+        <v>15</v>
+      </c>
+      <c r="G1185">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1185" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1185">
+        <v>0</v>
+      </c>
+      <c r="M1185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:13">
+      <c r="A1186" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1186">
+        <v>10</v>
+      </c>
+      <c r="G1186">
+        <v>7</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1186" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1186">
+        <v>0</v>
+      </c>
+      <c r="M1186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:13">
+      <c r="A1187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1187">
+        <v>15</v>
+      </c>
+      <c r="G1187">
+        <v>6</v>
+      </c>
+      <c r="J1187" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1187" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1187">
+        <v>0</v>
+      </c>
+      <c r="M1187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:13">
+      <c r="A1188" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1188">
+        <v>11</v>
+      </c>
+      <c r="G1188">
+        <v>4</v>
+      </c>
+      <c r="J1188" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1188" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1188">
+        <v>0</v>
+      </c>
+      <c r="M1188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:13">
+      <c r="A1189" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1189">
+        <v>13</v>
+      </c>
+      <c r="G1189">
+        <v>1</v>
+      </c>
+      <c r="J1189" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1189" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1189">
+        <v>0</v>
+      </c>
+      <c r="M1189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:13">
+      <c r="A1190" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1190">
+        <v>33</v>
+      </c>
+      <c r="G1190">
+        <v>16</v>
+      </c>
+      <c r="J1190" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1190" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1190">
+        <v>0</v>
+      </c>
+      <c r="M1190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:13">
+      <c r="A1191" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1191">
+        <v>9</v>
+      </c>
+      <c r="G1191">
+        <v>5</v>
+      </c>
+      <c r="J1191" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1191" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1191">
+        <v>0</v>
+      </c>
+      <c r="M1191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:13">
+      <c r="A1192" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1192">
+        <v>25</v>
+      </c>
+      <c r="G1192">
+        <v>12</v>
+      </c>
+      <c r="J1192" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1192" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1192">
+        <v>0</v>
+      </c>
+      <c r="M1192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:13">
+      <c r="A1193" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1193">
+        <v>6</v>
+      </c>
+      <c r="G1193">
+        <v>0</v>
+      </c>
+      <c r="J1193" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1193" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1193">
+        <v>0</v>
+      </c>
+      <c r="M1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:13">
+      <c r="A1194" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1194">
+        <v>3</v>
+      </c>
+      <c r="G1194">
+        <v>3</v>
+      </c>
+      <c r="J1194" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1194" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1194">
+        <v>0</v>
+      </c>
+      <c r="M1194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:13">
+      <c r="A1195" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1195">
+        <v>1</v>
+      </c>
+      <c r="G1195">
+        <v>0</v>
+      </c>
+      <c r="J1195" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1195" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1195">
+        <v>0</v>
+      </c>
+      <c r="M1195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:13">
+      <c r="A1196" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1196">
+        <v>2</v>
+      </c>
+      <c r="G1196">
+        <v>1</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1196" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1196">
+        <v>0</v>
+      </c>
+      <c r="M1196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:13">
+      <c r="A1197" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1197">
+        <v>0</v>
+      </c>
+      <c r="G1197">
+        <v>0</v>
+      </c>
+      <c r="J1197" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1197" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1197">
+        <v>0</v>
+      </c>
+      <c r="M1197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:13">
+      <c r="A1198" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1198">
+        <v>2</v>
+      </c>
+      <c r="G1198">
+        <v>1</v>
+      </c>
+      <c r="J1198" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1198" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1198">
+        <v>0</v>
+      </c>
+      <c r="M1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:13">
+      <c r="A1199" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1199">
+        <v>4</v>
+      </c>
+      <c r="G1199">
+        <v>1</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1199" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1199">
+        <v>0</v>
+      </c>
+      <c r="M1199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:13">
+      <c r="A1200" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1200">
+        <v>6</v>
+      </c>
+      <c r="G1200">
+        <v>2</v>
+      </c>
+      <c r="J1200" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1200" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1200">
+        <v>0</v>
+      </c>
+      <c r="M1200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:13">
+      <c r="A1201" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1201">
+        <v>2</v>
+      </c>
+      <c r="G1201">
+        <v>2</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1201" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1201">
+        <v>0</v>
+      </c>
+      <c r="M1201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:13">
+      <c r="A1202" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1202">
+        <v>5</v>
+      </c>
+      <c r="G1202">
+        <v>2</v>
+      </c>
+      <c r="J1202" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1202" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1202">
+        <v>0</v>
+      </c>
+      <c r="M1202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:13">
+      <c r="A1203" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1203">
+        <v>7</v>
+      </c>
+      <c r="G1203">
+        <v>1</v>
+      </c>
+      <c r="J1203" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1203" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1203">
+        <v>0</v>
+      </c>
+      <c r="M1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:13">
+      <c r="A1204" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1204">
+        <v>10</v>
+      </c>
+      <c r="G1204">
+        <v>2</v>
+      </c>
+      <c r="J1204" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1204" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1204">
+        <v>0</v>
+      </c>
+      <c r="M1204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:13">
+      <c r="A1205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1205">
+        <v>12</v>
+      </c>
+      <c r="G1205">
+        <v>1</v>
+      </c>
+      <c r="J1205" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1205" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1205">
+        <v>0</v>
+      </c>
+      <c r="M1205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:13">
+      <c r="A1206" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1206">
+        <v>9</v>
+      </c>
+      <c r="G1206">
+        <v>2</v>
+      </c>
+      <c r="J1206" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1206" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1206">
+        <v>0</v>
+      </c>
+      <c r="M1206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:13">
+      <c r="A1207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1207">
+        <v>20</v>
+      </c>
+      <c r="G1207">
+        <v>10</v>
+      </c>
+      <c r="J1207" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1207" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1207">
+        <v>0</v>
+      </c>
+      <c r="M1207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:13">
+      <c r="A1208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1208">
+        <v>14</v>
+      </c>
+      <c r="G1208">
+        <v>4</v>
+      </c>
+      <c r="J1208" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1208" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1208">
+        <v>0</v>
+      </c>
+      <c r="M1208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:13">
+      <c r="A1209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1209">
+        <v>19</v>
+      </c>
+      <c r="G1209">
+        <v>8</v>
+      </c>
+      <c r="J1209" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1209" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1209">
+        <v>0</v>
+      </c>
+      <c r="M1209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:13">
+      <c r="A1210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1210">
+        <v>14</v>
+      </c>
+      <c r="G1210">
+        <v>6</v>
+      </c>
+      <c r="J1210" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1210" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1210">
+        <v>0</v>
+      </c>
+      <c r="M1210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:13">
+      <c r="A1211" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1211">
+        <v>6</v>
+      </c>
+      <c r="G1211">
+        <v>2</v>
+      </c>
+      <c r="J1211" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1211" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1211">
+        <v>0</v>
+      </c>
+      <c r="M1211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:13">
+      <c r="A1212" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1212">
+        <v>10</v>
+      </c>
+      <c r="G1212">
+        <v>4</v>
+      </c>
+      <c r="J1212" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1212" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1212">
+        <v>0</v>
+      </c>
+      <c r="M1212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:13">
+      <c r="A1213" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1213">
+        <v>13</v>
+      </c>
+      <c r="G1213">
+        <v>4</v>
+      </c>
+      <c r="J1213" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1213" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1213">
+        <v>0</v>
+      </c>
+      <c r="M1213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:13">
+      <c r="A1214" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1214">
+        <v>9</v>
+      </c>
+      <c r="G1214">
+        <v>5</v>
+      </c>
+      <c r="J1214" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1214" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1214">
+        <v>0</v>
+      </c>
+      <c r="M1214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:13">
+      <c r="A1215" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1215">
+        <v>16</v>
+      </c>
+      <c r="G1215">
+        <v>7</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1215" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1215">
+        <v>0</v>
+      </c>
+      <c r="M1215">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:13">
+      <c r="A1216" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1216">
+        <v>14</v>
+      </c>
+      <c r="G1216">
+        <v>3</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1216" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1216">
+        <v>0</v>
+      </c>
+      <c r="M1216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:13">
+      <c r="A1217" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1217">
+        <v>8</v>
+      </c>
+      <c r="G1217">
+        <v>4</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1217" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1217">
+        <v>0</v>
+      </c>
+      <c r="M1217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:13">
+      <c r="A1218" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1218">
+        <v>6</v>
+      </c>
+      <c r="G1218">
+        <v>3</v>
+      </c>
+      <c r="J1218" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1218" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1218">
+        <v>0</v>
+      </c>
+      <c r="M1218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:13">
+      <c r="A1219" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1219">
+        <v>23</v>
+      </c>
+      <c r="G1219">
+        <v>7</v>
+      </c>
+      <c r="J1219" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1219" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1219">
+        <v>0</v>
+      </c>
+      <c r="M1219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:13">
+      <c r="A1220" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1220">
+        <v>19</v>
+      </c>
+      <c r="G1220">
+        <v>4</v>
+      </c>
+      <c r="J1220" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1220" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1220">
+        <v>0</v>
+      </c>
+      <c r="M1220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:13">
+      <c r="A1221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1221">
+        <v>11</v>
+      </c>
+      <c r="G1221">
+        <v>5</v>
+      </c>
+      <c r="J1221" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1221" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1221">
+        <v>0</v>
+      </c>
+      <c r="M1221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:13">
+      <c r="A1222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1222">
+        <v>10</v>
+      </c>
+      <c r="G1222">
+        <v>3</v>
+      </c>
+      <c r="J1222" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1222" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1222">
+        <v>0</v>
+      </c>
+      <c r="M1222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:13">
+      <c r="A1223" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1223">
+        <v>15</v>
+      </c>
+      <c r="G1223">
+        <v>6</v>
+      </c>
+      <c r="J1223" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1223" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1223">
+        <v>0</v>
+      </c>
+      <c r="M1223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:13">
+      <c r="A1224" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1224">
+        <v>3</v>
+      </c>
+      <c r="G1224">
+        <v>1</v>
+      </c>
+      <c r="J1224" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1224" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1224">
+        <v>0</v>
+      </c>
+      <c r="M1224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:13">
+      <c r="A1225" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1225">
+        <v>3</v>
+      </c>
+      <c r="G1225">
+        <v>2</v>
+      </c>
+      <c r="J1225" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1225" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1225">
+        <v>0</v>
+      </c>
+      <c r="M1225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:13">
+      <c r="A1226" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1226">
+        <v>1</v>
+      </c>
+      <c r="G1226">
+        <v>0</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1226" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1226">
+        <v>0</v>
+      </c>
+      <c r="M1226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:13">
+      <c r="A1227" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1227">
+        <v>1</v>
+      </c>
+      <c r="G1227">
+        <v>1</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1227" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1227">
+        <v>0</v>
+      </c>
+      <c r="M1227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:13">
+      <c r="A1228" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1228">
+        <v>1</v>
+      </c>
+      <c r="G1228">
+        <v>0</v>
+      </c>
+      <c r="J1228" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1228" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1228">
+        <v>0</v>
+      </c>
+      <c r="M1228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:13">
+      <c r="A1229" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1229">
+        <v>0</v>
+      </c>
+      <c r="G1229">
+        <v>0</v>
+      </c>
+      <c r="J1229" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1229" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1229">
+        <v>0</v>
+      </c>
+      <c r="M1229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:13">
+      <c r="A1230" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1230">
+        <v>3</v>
+      </c>
+      <c r="G1230">
+        <v>1</v>
+      </c>
+      <c r="J1230" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1230" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1230">
+        <v>0</v>
+      </c>
+      <c r="M1230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:13">
+      <c r="A1231" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1231">
+        <v>5</v>
+      </c>
+      <c r="G1231">
+        <v>3</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1231" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1231">
+        <v>0</v>
+      </c>
+      <c r="M1231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:13">
+      <c r="A1232" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1232">
+        <v>12</v>
+      </c>
+      <c r="G1232">
+        <v>4</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1232" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1232">
+        <v>0</v>
+      </c>
+      <c r="M1232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:13">
+      <c r="A1233" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1233">
+        <v>12</v>
+      </c>
+      <c r="G1233">
+        <v>4</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1233" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1233">
+        <v>0</v>
+      </c>
+      <c r="M1233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:13">
+      <c r="A1234" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1234">
+        <v>13</v>
+      </c>
+      <c r="G1234">
+        <v>4</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1234" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1234">
+        <v>0</v>
+      </c>
+      <c r="M1234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:13">
+      <c r="A1235" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1235">
+        <v>8</v>
+      </c>
+      <c r="G1235">
+        <v>3</v>
+      </c>
+      <c r="J1235" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1235" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1235">
+        <v>0</v>
+      </c>
+      <c r="M1235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:13">
+      <c r="A1236" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1236">
+        <v>17</v>
+      </c>
+      <c r="G1236">
+        <v>8</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1236" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1236">
+        <v>0</v>
+      </c>
+      <c r="M1236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:13">
+      <c r="A1237" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1237">
+        <v>24</v>
+      </c>
+      <c r="G1237">
+        <v>14</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1237" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1237">
+        <v>0</v>
+      </c>
+      <c r="M1237">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:13">
+      <c r="A1238" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1238">
+        <v>10</v>
+      </c>
+      <c r="G1238">
+        <v>4</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1238" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1238">
+        <v>0</v>
+      </c>
+      <c r="M1238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:13">
+      <c r="A1239" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1239">
+        <v>22</v>
+      </c>
+      <c r="G1239">
+        <v>5</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1239" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1239">
+        <v>0</v>
+      </c>
+      <c r="M1239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:13">
+      <c r="A1240" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1240">
+        <v>9</v>
+      </c>
+      <c r="G1240">
+        <v>3</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1240" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1240">
+        <v>0</v>
+      </c>
+      <c r="M1240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:13">
+      <c r="A1241" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1241">
+        <v>11</v>
+      </c>
+      <c r="G1241">
+        <v>3</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1241" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1241">
+        <v>0</v>
+      </c>
+      <c r="M1241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:13">
+      <c r="A1242" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1242">
+        <v>7</v>
+      </c>
+      <c r="G1242">
+        <v>3</v>
+      </c>
+      <c r="J1242" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1242" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1242">
+        <v>0</v>
+      </c>
+      <c r="M1242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:13">
+      <c r="A1243" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1243">
+        <v>11</v>
+      </c>
+      <c r="G1243">
+        <v>3</v>
+      </c>
+      <c r="J1243" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1243" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1243">
+        <v>0</v>
+      </c>
+      <c r="M1243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:13">
+      <c r="A1244" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1244">
+        <v>2</v>
+      </c>
+      <c r="G1244">
+        <v>2</v>
+      </c>
+      <c r="J1244" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1244" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1244">
+        <v>0</v>
+      </c>
+      <c r="M1244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:13">
+      <c r="A1245" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1245">
+        <v>18</v>
+      </c>
+      <c r="G1245">
+        <v>4</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1245" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1245">
+        <v>0</v>
+      </c>
+      <c r="M1245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:13">
+      <c r="A1246" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1246">
+        <v>47</v>
+      </c>
+      <c r="G1246">
+        <v>19</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1246" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1246">
+        <v>0</v>
+      </c>
+      <c r="M1246">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:13">
+      <c r="A1247" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1247">
+        <v>173</v>
+      </c>
+      <c r="G1247">
+        <v>42</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1247" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1247">
+        <v>0</v>
+      </c>
+      <c r="M1247">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:13">
+      <c r="A1248" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1248">
+        <v>7</v>
+      </c>
+      <c r="G1248">
+        <v>2</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1248" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1248">
+        <v>0</v>
+      </c>
+      <c r="M1248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:13">
+      <c r="A1249" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1249">
+        <v>38</v>
+      </c>
+      <c r="G1249">
+        <v>11</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1249" s="2">
+        <v>45539.85596619662</v>
+      </c>
+      <c r="L1249">
+        <v>0</v>
+      </c>
+      <c r="M1249">
         <v>11</v>
       </c>
     </row>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9371" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1405"/>
+  <dimension ref="A1:K1561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44470,7 +44470,7 @@
         <v>34</v>
       </c>
       <c r="K1250" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1251" spans="1:11">
@@ -44505,7 +44505,7 @@
         <v>19</v>
       </c>
       <c r="K1251" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1252" spans="1:11">
@@ -44540,7 +44540,7 @@
         <v>8</v>
       </c>
       <c r="K1252" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1253" spans="1:11">
@@ -44575,7 +44575,7 @@
         <v>30</v>
       </c>
       <c r="K1253" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1254" spans="1:11">
@@ -44610,7 +44610,7 @@
         <v>10</v>
       </c>
       <c r="K1254" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1255" spans="1:11">
@@ -44645,7 +44645,7 @@
         <v>4</v>
       </c>
       <c r="K1255" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1256" spans="1:11">
@@ -44680,7 +44680,7 @@
         <v>1</v>
       </c>
       <c r="K1256" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1257" spans="1:11">
@@ -44715,7 +44715,7 @@
         <v>0</v>
       </c>
       <c r="K1257" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1258" spans="1:11">
@@ -44750,7 +44750,7 @@
         <v>69</v>
       </c>
       <c r="K1258" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1259" spans="1:11">
@@ -44785,7 +44785,7 @@
         <v>56</v>
       </c>
       <c r="K1259" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1260" spans="1:11">
@@ -44820,7 +44820,7 @@
         <v>88</v>
       </c>
       <c r="K1260" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1261" spans="1:11">
@@ -44855,7 +44855,7 @@
         <v>24</v>
       </c>
       <c r="K1261" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1262" spans="1:11">
@@ -44890,7 +44890,7 @@
         <v>23</v>
       </c>
       <c r="K1262" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1263" spans="1:11">
@@ -44925,7 +44925,7 @@
         <v>19</v>
       </c>
       <c r="K1263" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1264" spans="1:11">
@@ -44960,7 +44960,7 @@
         <v>29</v>
       </c>
       <c r="K1264" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1265" spans="1:11">
@@ -44995,7 +44995,7 @@
         <v>14</v>
       </c>
       <c r="K1265" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1266" spans="1:11">
@@ -45030,7 +45030,7 @@
         <v>9</v>
       </c>
       <c r="K1266" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1267" spans="1:11">
@@ -45065,7 +45065,7 @@
         <v>1</v>
       </c>
       <c r="K1267" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1268" spans="1:11">
@@ -45100,7 +45100,7 @@
         <v>16</v>
       </c>
       <c r="K1268" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1269" spans="1:11">
@@ -45135,7 +45135,7 @@
         <v>31</v>
       </c>
       <c r="K1269" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1270" spans="1:11">
@@ -45170,7 +45170,7 @@
         <v>29</v>
       </c>
       <c r="K1270" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1271" spans="1:11">
@@ -45205,7 +45205,7 @@
         <v>33</v>
       </c>
       <c r="K1271" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1272" spans="1:11">
@@ -45240,7 +45240,7 @@
         <v>39</v>
       </c>
       <c r="K1272" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1273" spans="1:11">
@@ -45275,7 +45275,7 @@
         <v>27</v>
       </c>
       <c r="K1273" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1274" spans="1:11">
@@ -45310,7 +45310,7 @@
         <v>17</v>
       </c>
       <c r="K1274" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1275" spans="1:11">
@@ -45345,7 +45345,7 @@
         <v>54</v>
       </c>
       <c r="K1275" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1276" spans="1:11">
@@ -45380,7 +45380,7 @@
         <v>19</v>
       </c>
       <c r="K1276" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1277" spans="1:11">
@@ -45415,7 +45415,7 @@
         <v>37</v>
       </c>
       <c r="K1277" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1278" spans="1:11">
@@ -45450,7 +45450,7 @@
         <v>38</v>
       </c>
       <c r="K1278" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1279" spans="1:11">
@@ -45485,7 +45485,7 @@
         <v>15</v>
       </c>
       <c r="K1279" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1280" spans="1:11">
@@ -45520,7 +45520,7 @@
         <v>39</v>
       </c>
       <c r="K1280" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1281" spans="1:11">
@@ -45555,7 +45555,7 @@
         <v>49</v>
       </c>
       <c r="K1281" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1282" spans="1:11">
@@ -45590,7 +45590,7 @@
         <v>39</v>
       </c>
       <c r="K1282" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1283" spans="1:11">
@@ -45625,7 +45625,7 @@
         <v>27</v>
       </c>
       <c r="K1283" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1284" spans="1:11">
@@ -45660,7 +45660,7 @@
         <v>14</v>
       </c>
       <c r="K1284" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1285" spans="1:11">
@@ -45695,7 +45695,7 @@
         <v>19</v>
       </c>
       <c r="K1285" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1286" spans="1:11">
@@ -45730,7 +45730,7 @@
         <v>20</v>
       </c>
       <c r="K1286" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1287" spans="1:11">
@@ -45765,7 +45765,7 @@
         <v>29</v>
       </c>
       <c r="K1287" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1288" spans="1:11">
@@ -45800,7 +45800,7 @@
         <v>40</v>
       </c>
       <c r="K1288" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1289" spans="1:11">
@@ -45835,7 +45835,7 @@
         <v>49</v>
       </c>
       <c r="K1289" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1290" spans="1:11">
@@ -45870,7 +45870,7 @@
         <v>56</v>
       </c>
       <c r="K1290" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1291" spans="1:11">
@@ -45905,7 +45905,7 @@
         <v>13</v>
       </c>
       <c r="K1291" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1292" spans="1:11">
@@ -45940,7 +45940,7 @@
         <v>52</v>
       </c>
       <c r="K1292" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1293" spans="1:11">
@@ -45975,7 +45975,7 @@
         <v>26</v>
       </c>
       <c r="K1293" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1294" spans="1:11">
@@ -46010,7 +46010,7 @@
         <v>41</v>
       </c>
       <c r="K1294" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1295" spans="1:11">
@@ -46045,7 +46045,7 @@
         <v>63</v>
       </c>
       <c r="K1295" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1296" spans="1:11">
@@ -46080,7 +46080,7 @@
         <v>21</v>
       </c>
       <c r="K1296" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1297" spans="1:11">
@@ -46115,7 +46115,7 @@
         <v>40</v>
       </c>
       <c r="K1297" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1298" spans="1:11">
@@ -46150,7 +46150,7 @@
         <v>27</v>
       </c>
       <c r="K1298" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1299" spans="1:11">
@@ -46185,7 +46185,7 @@
         <v>31</v>
       </c>
       <c r="K1299" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1300" spans="1:11">
@@ -46220,7 +46220,7 @@
         <v>2</v>
       </c>
       <c r="K1300" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1301" spans="1:11">
@@ -46255,7 +46255,7 @@
         <v>13</v>
       </c>
       <c r="K1301" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1302" spans="1:11">
@@ -46290,7 +46290,7 @@
         <v>5</v>
       </c>
       <c r="K1302" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1303" spans="1:11">
@@ -46325,7 +46325,7 @@
         <v>0</v>
       </c>
       <c r="K1303" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1304" spans="1:11">
@@ -46360,7 +46360,7 @@
         <v>0</v>
       </c>
       <c r="K1304" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1305" spans="1:11">
@@ -46395,7 +46395,7 @@
         <v>0</v>
       </c>
       <c r="K1305" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1306" spans="1:11">
@@ -46430,7 +46430,7 @@
         <v>1</v>
       </c>
       <c r="K1306" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1307" spans="1:11">
@@ -46465,7 +46465,7 @@
         <v>1</v>
       </c>
       <c r="K1307" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1308" spans="1:11">
@@ -46500,7 +46500,7 @@
         <v>2</v>
       </c>
       <c r="K1308" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1309" spans="1:11">
@@ -46535,7 +46535,7 @@
         <v>0</v>
       </c>
       <c r="K1309" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1310" spans="1:11">
@@ -46570,7 +46570,7 @@
         <v>0</v>
       </c>
       <c r="K1310" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1311" spans="1:11">
@@ -46605,7 +46605,7 @@
         <v>0</v>
       </c>
       <c r="K1311" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1312" spans="1:11">
@@ -46640,7 +46640,7 @@
         <v>1</v>
       </c>
       <c r="K1312" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1313" spans="1:11">
@@ -46675,7 +46675,7 @@
         <v>0</v>
       </c>
       <c r="K1313" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1314" spans="1:11">
@@ -46710,7 +46710,7 @@
         <v>37</v>
       </c>
       <c r="K1314" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1315" spans="1:11">
@@ -46745,7 +46745,7 @@
         <v>2</v>
       </c>
       <c r="K1315" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1316" spans="1:11">
@@ -46780,7 +46780,7 @@
         <v>17</v>
       </c>
       <c r="K1316" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1317" spans="1:11">
@@ -46815,7 +46815,7 @@
         <v>11</v>
       </c>
       <c r="K1317" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1318" spans="1:11">
@@ -46850,7 +46850,7 @@
         <v>16</v>
       </c>
       <c r="K1318" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1319" spans="1:11">
@@ -46885,7 +46885,7 @@
         <v>1</v>
       </c>
       <c r="K1319" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1320" spans="1:11">
@@ -46920,7 +46920,7 @@
         <v>0</v>
       </c>
       <c r="K1320" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1321" spans="1:11">
@@ -46955,7 +46955,7 @@
         <v>1</v>
       </c>
       <c r="K1321" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1322" spans="1:11">
@@ -46990,7 +46990,7 @@
         <v>0</v>
       </c>
       <c r="K1322" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1323" spans="1:11">
@@ -47025,7 +47025,7 @@
         <v>4</v>
       </c>
       <c r="K1323" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1324" spans="1:11">
@@ -47060,7 +47060,7 @@
         <v>1</v>
       </c>
       <c r="K1324" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1325" spans="1:11">
@@ -47095,7 +47095,7 @@
         <v>6</v>
       </c>
       <c r="K1325" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1326" spans="1:11">
@@ -47130,7 +47130,7 @@
         <v>1</v>
       </c>
       <c r="K1326" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1327" spans="1:11">
@@ -47165,7 +47165,7 @@
         <v>3</v>
       </c>
       <c r="K1327" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1328" spans="1:11">
@@ -47200,7 +47200,7 @@
         <v>0</v>
       </c>
       <c r="K1328" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1329" spans="1:11">
@@ -47235,7 +47235,7 @@
         <v>0</v>
       </c>
       <c r="K1329" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1330" spans="1:11">
@@ -47270,7 +47270,7 @@
         <v>0</v>
       </c>
       <c r="K1330" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1331" spans="1:11">
@@ -47305,7 +47305,7 @@
         <v>3</v>
       </c>
       <c r="K1331" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1332" spans="1:11">
@@ -47340,7 +47340,7 @@
         <v>6</v>
       </c>
       <c r="K1332" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1333" spans="1:11">
@@ -47375,7 +47375,7 @@
         <v>1</v>
       </c>
       <c r="K1333" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1334" spans="1:11">
@@ -47410,7 +47410,7 @@
         <v>1</v>
       </c>
       <c r="K1334" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1335" spans="1:11">
@@ -47445,7 +47445,7 @@
         <v>14</v>
       </c>
       <c r="K1335" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1336" spans="1:11">
@@ -47480,7 +47480,7 @@
         <v>5</v>
       </c>
       <c r="K1336" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1337" spans="1:11">
@@ -47515,7 +47515,7 @@
         <v>5</v>
       </c>
       <c r="K1337" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1338" spans="1:11">
@@ -47550,7 +47550,7 @@
         <v>5</v>
       </c>
       <c r="K1338" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1339" spans="1:11">
@@ -47585,7 +47585,7 @@
         <v>2</v>
       </c>
       <c r="K1339" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1340" spans="1:11">
@@ -47620,7 +47620,7 @@
         <v>6</v>
       </c>
       <c r="K1340" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1341" spans="1:11">
@@ -47655,7 +47655,7 @@
         <v>3</v>
       </c>
       <c r="K1341" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1342" spans="1:11">
@@ -47690,7 +47690,7 @@
         <v>7</v>
       </c>
       <c r="K1342" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1343" spans="1:11">
@@ -47725,7 +47725,7 @@
         <v>6</v>
       </c>
       <c r="K1343" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1344" spans="1:11">
@@ -47760,7 +47760,7 @@
         <v>5</v>
       </c>
       <c r="K1344" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1345" spans="1:11">
@@ -47795,7 +47795,7 @@
         <v>1</v>
       </c>
       <c r="K1345" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1346" spans="1:11">
@@ -47830,7 +47830,7 @@
         <v>16</v>
       </c>
       <c r="K1346" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1347" spans="1:11">
@@ -47865,7 +47865,7 @@
         <v>5</v>
       </c>
       <c r="K1347" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1348" spans="1:11">
@@ -47900,7 +47900,7 @@
         <v>13</v>
       </c>
       <c r="K1348" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1349" spans="1:11">
@@ -47935,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="K1349" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1350" spans="1:11">
@@ -47970,7 +47970,7 @@
         <v>3</v>
       </c>
       <c r="K1350" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1351" spans="1:11">
@@ -48005,7 +48005,7 @@
         <v>0</v>
       </c>
       <c r="K1351" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1352" spans="1:11">
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="K1352" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1353" spans="1:11">
@@ -48075,7 +48075,7 @@
         <v>0</v>
       </c>
       <c r="K1353" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1354" spans="1:11">
@@ -48110,7 +48110,7 @@
         <v>1</v>
       </c>
       <c r="K1354" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1355" spans="1:11">
@@ -48145,7 +48145,7 @@
         <v>1</v>
       </c>
       <c r="K1355" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1356" spans="1:11">
@@ -48180,7 +48180,7 @@
         <v>2</v>
       </c>
       <c r="K1356" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1357" spans="1:11">
@@ -48215,7 +48215,7 @@
         <v>2</v>
       </c>
       <c r="K1357" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1358" spans="1:11">
@@ -48250,7 +48250,7 @@
         <v>2</v>
       </c>
       <c r="K1358" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1359" spans="1:11">
@@ -48285,7 +48285,7 @@
         <v>1</v>
       </c>
       <c r="K1359" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1360" spans="1:11">
@@ -48320,7 +48320,7 @@
         <v>2</v>
       </c>
       <c r="K1360" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1361" spans="1:11">
@@ -48355,7 +48355,7 @@
         <v>1</v>
       </c>
       <c r="K1361" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1362" spans="1:11">
@@ -48390,7 +48390,7 @@
         <v>2</v>
       </c>
       <c r="K1362" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1363" spans="1:11">
@@ -48425,7 +48425,7 @@
         <v>10</v>
       </c>
       <c r="K1363" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1364" spans="1:11">
@@ -48460,7 +48460,7 @@
         <v>4</v>
       </c>
       <c r="K1364" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1365" spans="1:11">
@@ -48495,7 +48495,7 @@
         <v>8</v>
       </c>
       <c r="K1365" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1366" spans="1:11">
@@ -48530,7 +48530,7 @@
         <v>6</v>
       </c>
       <c r="K1366" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1367" spans="1:11">
@@ -48565,7 +48565,7 @@
         <v>2</v>
       </c>
       <c r="K1367" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1368" spans="1:11">
@@ -48600,7 +48600,7 @@
         <v>4</v>
       </c>
       <c r="K1368" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1369" spans="1:11">
@@ -48635,7 +48635,7 @@
         <v>4</v>
       </c>
       <c r="K1369" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1370" spans="1:11">
@@ -48670,7 +48670,7 @@
         <v>6</v>
       </c>
       <c r="K1370" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1371" spans="1:11">
@@ -48705,7 +48705,7 @@
         <v>7</v>
       </c>
       <c r="K1371" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1372" spans="1:11">
@@ -48740,7 +48740,7 @@
         <v>3</v>
       </c>
       <c r="K1372" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1373" spans="1:11">
@@ -48775,7 +48775,7 @@
         <v>4</v>
       </c>
       <c r="K1373" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1374" spans="1:11">
@@ -48810,7 +48810,7 @@
         <v>3</v>
       </c>
       <c r="K1374" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1375" spans="1:11">
@@ -48845,7 +48845,7 @@
         <v>7</v>
       </c>
       <c r="K1375" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1376" spans="1:11">
@@ -48880,7 +48880,7 @@
         <v>4</v>
       </c>
       <c r="K1376" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1377" spans="1:11">
@@ -48915,7 +48915,7 @@
         <v>5</v>
       </c>
       <c r="K1377" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1378" spans="1:11">
@@ -48950,7 +48950,7 @@
         <v>3</v>
       </c>
       <c r="K1378" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1379" spans="1:11">
@@ -48985,7 +48985,7 @@
         <v>6</v>
       </c>
       <c r="K1379" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1380" spans="1:11">
@@ -49020,7 +49020,7 @@
         <v>1</v>
       </c>
       <c r="K1380" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1381" spans="1:11">
@@ -49055,7 +49055,7 @@
         <v>2</v>
       </c>
       <c r="K1381" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1382" spans="1:11">
@@ -49090,7 +49090,7 @@
         <v>0</v>
       </c>
       <c r="K1382" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1383" spans="1:11">
@@ -49125,7 +49125,7 @@
         <v>1</v>
       </c>
       <c r="K1383" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1384" spans="1:11">
@@ -49160,7 +49160,7 @@
         <v>0</v>
       </c>
       <c r="K1384" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1385" spans="1:11">
@@ -49195,7 +49195,7 @@
         <v>0</v>
       </c>
       <c r="K1385" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1386" spans="1:11">
@@ -49230,7 +49230,7 @@
         <v>1</v>
       </c>
       <c r="K1386" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1387" spans="1:11">
@@ -49265,7 +49265,7 @@
         <v>4</v>
       </c>
       <c r="K1387" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1388" spans="1:11">
@@ -49300,7 +49300,7 @@
         <v>4</v>
       </c>
       <c r="K1388" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1389" spans="1:11">
@@ -49335,7 +49335,7 @@
         <v>4</v>
       </c>
       <c r="K1389" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1390" spans="1:11">
@@ -49370,7 +49370,7 @@
         <v>4</v>
       </c>
       <c r="K1390" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1391" spans="1:11">
@@ -49405,7 +49405,7 @@
         <v>3</v>
       </c>
       <c r="K1391" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1392" spans="1:11">
@@ -49440,7 +49440,7 @@
         <v>8</v>
       </c>
       <c r="K1392" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1393" spans="1:11">
@@ -49475,7 +49475,7 @@
         <v>14</v>
       </c>
       <c r="K1393" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1394" spans="1:11">
@@ -49510,7 +49510,7 @@
         <v>4</v>
       </c>
       <c r="K1394" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1395" spans="1:11">
@@ -49545,7 +49545,7 @@
         <v>5</v>
       </c>
       <c r="K1395" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1396" spans="1:11">
@@ -49580,7 +49580,7 @@
         <v>3</v>
       </c>
       <c r="K1396" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1397" spans="1:11">
@@ -49615,7 +49615,7 @@
         <v>3</v>
       </c>
       <c r="K1397" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1398" spans="1:11">
@@ -49650,7 +49650,7 @@
         <v>3</v>
       </c>
       <c r="K1398" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1399" spans="1:11">
@@ -49685,7 +49685,7 @@
         <v>3</v>
       </c>
       <c r="K1399" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1400" spans="1:11">
@@ -49720,7 +49720,7 @@
         <v>2</v>
       </c>
       <c r="K1400" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1401" spans="1:11">
@@ -49755,7 +49755,7 @@
         <v>4</v>
       </c>
       <c r="K1401" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1402" spans="1:11">
@@ -49790,7 +49790,7 @@
         <v>19</v>
       </c>
       <c r="K1402" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1403" spans="1:11">
@@ -49825,7 +49825,7 @@
         <v>42</v>
       </c>
       <c r="K1403" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1404" spans="1:11">
@@ -49860,7 +49860,7 @@
         <v>2</v>
       </c>
       <c r="K1404" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
       </c>
     </row>
     <row r="1405" spans="1:11">
@@ -49895,7 +49895,5467 @@
         <v>11</v>
       </c>
       <c r="K1405" s="2">
-        <v>45539.98618041078</v>
+        <v>45539.9861804051</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:11">
+      <c r="A1406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1406">
+        <v>56</v>
+      </c>
+      <c r="G1406">
+        <v>34</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1406">
+        <v>0</v>
+      </c>
+      <c r="J1406">
+        <v>34</v>
+      </c>
+      <c r="K1406" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:11">
+      <c r="A1407" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1407">
+        <v>22</v>
+      </c>
+      <c r="G1407">
+        <v>19</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1407">
+        <v>0</v>
+      </c>
+      <c r="J1407">
+        <v>19</v>
+      </c>
+      <c r="K1407" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:11">
+      <c r="A1408" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1408">
+        <v>22</v>
+      </c>
+      <c r="G1408">
+        <v>8</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1408">
+        <v>0</v>
+      </c>
+      <c r="J1408">
+        <v>8</v>
+      </c>
+      <c r="K1408" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:11">
+      <c r="A1409" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1409">
+        <v>61</v>
+      </c>
+      <c r="G1409">
+        <v>30</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1409">
+        <v>0</v>
+      </c>
+      <c r="J1409">
+        <v>30</v>
+      </c>
+      <c r="K1409" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:11">
+      <c r="A1410" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1410">
+        <v>20</v>
+      </c>
+      <c r="G1410">
+        <v>10</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1410">
+        <v>0</v>
+      </c>
+      <c r="J1410">
+        <v>10</v>
+      </c>
+      <c r="K1410" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:11">
+      <c r="A1411" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1411">
+        <v>12</v>
+      </c>
+      <c r="G1411">
+        <v>4</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1411">
+        <v>0</v>
+      </c>
+      <c r="J1411">
+        <v>4</v>
+      </c>
+      <c r="K1411" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:11">
+      <c r="A1412" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1412">
+        <v>4</v>
+      </c>
+      <c r="G1412">
+        <v>1</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1412">
+        <v>0</v>
+      </c>
+      <c r="J1412">
+        <v>1</v>
+      </c>
+      <c r="K1412" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:11">
+      <c r="A1413" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1413">
+        <v>2</v>
+      </c>
+      <c r="G1413">
+        <v>0</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1413">
+        <v>0</v>
+      </c>
+      <c r="J1413">
+        <v>0</v>
+      </c>
+      <c r="K1413" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:11">
+      <c r="A1414" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1414">
+        <v>177</v>
+      </c>
+      <c r="G1414">
+        <v>69</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1414">
+        <v>0</v>
+      </c>
+      <c r="J1414">
+        <v>69</v>
+      </c>
+      <c r="K1414" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:11">
+      <c r="A1415" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1415">
+        <v>124</v>
+      </c>
+      <c r="G1415">
+        <v>57</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1415">
+        <v>0</v>
+      </c>
+      <c r="J1415">
+        <v>57</v>
+      </c>
+      <c r="K1415" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:11">
+      <c r="A1416" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1416">
+        <v>190</v>
+      </c>
+      <c r="G1416">
+        <v>89</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1416">
+        <v>0</v>
+      </c>
+      <c r="J1416">
+        <v>89</v>
+      </c>
+      <c r="K1416" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:11">
+      <c r="A1417" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1417">
+        <v>61</v>
+      </c>
+      <c r="G1417">
+        <v>24</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1417">
+        <v>0</v>
+      </c>
+      <c r="J1417">
+        <v>24</v>
+      </c>
+      <c r="K1417" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:11">
+      <c r="A1418" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1418">
+        <v>55</v>
+      </c>
+      <c r="G1418">
+        <v>23</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1418">
+        <v>0</v>
+      </c>
+      <c r="J1418">
+        <v>23</v>
+      </c>
+      <c r="K1418" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:11">
+      <c r="A1419" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1419">
+        <v>74</v>
+      </c>
+      <c r="G1419">
+        <v>19</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1419">
+        <v>0</v>
+      </c>
+      <c r="J1419">
+        <v>19</v>
+      </c>
+      <c r="K1419" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:11">
+      <c r="A1420" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1420">
+        <v>69</v>
+      </c>
+      <c r="G1420">
+        <v>29</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1420">
+        <v>0</v>
+      </c>
+      <c r="J1420">
+        <v>29</v>
+      </c>
+      <c r="K1420" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:11">
+      <c r="A1421" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1421">
+        <v>34</v>
+      </c>
+      <c r="G1421">
+        <v>14</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1421">
+        <v>0</v>
+      </c>
+      <c r="J1421">
+        <v>14</v>
+      </c>
+      <c r="K1421" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:11">
+      <c r="A1422" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1422">
+        <v>27</v>
+      </c>
+      <c r="G1422">
+        <v>9</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1422">
+        <v>0</v>
+      </c>
+      <c r="J1422">
+        <v>9</v>
+      </c>
+      <c r="K1422" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:11">
+      <c r="A1423" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1423">
+        <v>12</v>
+      </c>
+      <c r="G1423">
+        <v>1</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1423">
+        <v>0</v>
+      </c>
+      <c r="J1423">
+        <v>1</v>
+      </c>
+      <c r="K1423" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:11">
+      <c r="A1424" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1424">
+        <v>47</v>
+      </c>
+      <c r="G1424">
+        <v>16</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1424">
+        <v>0</v>
+      </c>
+      <c r="J1424">
+        <v>16</v>
+      </c>
+      <c r="K1424" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:11">
+      <c r="A1425" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1425">
+        <v>61</v>
+      </c>
+      <c r="G1425">
+        <v>31</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1425">
+        <v>0</v>
+      </c>
+      <c r="J1425">
+        <v>31</v>
+      </c>
+      <c r="K1425" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:11">
+      <c r="A1426" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1426">
+        <v>77</v>
+      </c>
+      <c r="G1426">
+        <v>29</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1426">
+        <v>0</v>
+      </c>
+      <c r="J1426">
+        <v>29</v>
+      </c>
+      <c r="K1426" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:11">
+      <c r="A1427" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1427">
+        <v>81</v>
+      </c>
+      <c r="G1427">
+        <v>33</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1427">
+        <v>0</v>
+      </c>
+      <c r="J1427">
+        <v>33</v>
+      </c>
+      <c r="K1427" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:11">
+      <c r="A1428" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1428">
+        <v>88</v>
+      </c>
+      <c r="G1428">
+        <v>39</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1428">
+        <v>0</v>
+      </c>
+      <c r="J1428">
+        <v>39</v>
+      </c>
+      <c r="K1428" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:11">
+      <c r="A1429" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1429">
+        <v>77</v>
+      </c>
+      <c r="G1429">
+        <v>27</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1429">
+        <v>0</v>
+      </c>
+      <c r="J1429">
+        <v>27</v>
+      </c>
+      <c r="K1429" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11">
+      <c r="A1430" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1430">
+        <v>46</v>
+      </c>
+      <c r="G1430">
+        <v>17</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1430">
+        <v>0</v>
+      </c>
+      <c r="J1430">
+        <v>17</v>
+      </c>
+      <c r="K1430" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:11">
+      <c r="A1431" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1431">
+        <v>118</v>
+      </c>
+      <c r="G1431">
+        <v>54</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1431">
+        <v>0</v>
+      </c>
+      <c r="J1431">
+        <v>54</v>
+      </c>
+      <c r="K1431" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11">
+      <c r="A1432" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1432">
+        <v>76</v>
+      </c>
+      <c r="G1432">
+        <v>19</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1432">
+        <v>0</v>
+      </c>
+      <c r="J1432">
+        <v>19</v>
+      </c>
+      <c r="K1432" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:11">
+      <c r="A1433" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1433">
+        <v>77</v>
+      </c>
+      <c r="G1433">
+        <v>37</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1433">
+        <v>0</v>
+      </c>
+      <c r="J1433">
+        <v>37</v>
+      </c>
+      <c r="K1433" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:11">
+      <c r="A1434" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1434">
+        <v>80</v>
+      </c>
+      <c r="G1434">
+        <v>38</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1434">
+        <v>0</v>
+      </c>
+      <c r="J1434">
+        <v>38</v>
+      </c>
+      <c r="K1434" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11">
+      <c r="A1435" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1435">
+        <v>34</v>
+      </c>
+      <c r="G1435">
+        <v>15</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1435">
+        <v>0</v>
+      </c>
+      <c r="J1435">
+        <v>15</v>
+      </c>
+      <c r="K1435" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11">
+      <c r="A1436" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1436">
+        <v>82</v>
+      </c>
+      <c r="G1436">
+        <v>40</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1436">
+        <v>0</v>
+      </c>
+      <c r="J1436">
+        <v>40</v>
+      </c>
+      <c r="K1436" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11">
+      <c r="A1437" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1437">
+        <v>114</v>
+      </c>
+      <c r="G1437">
+        <v>49</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1437">
+        <v>0</v>
+      </c>
+      <c r="J1437">
+        <v>49</v>
+      </c>
+      <c r="K1437" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11">
+      <c r="A1438" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1438">
+        <v>87</v>
+      </c>
+      <c r="G1438">
+        <v>39</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1438">
+        <v>0</v>
+      </c>
+      <c r="J1438">
+        <v>39</v>
+      </c>
+      <c r="K1438" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11">
+      <c r="A1439" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1439">
+        <v>55</v>
+      </c>
+      <c r="G1439">
+        <v>27</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1439">
+        <v>0</v>
+      </c>
+      <c r="J1439">
+        <v>27</v>
+      </c>
+      <c r="K1439" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11">
+      <c r="A1440" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1440">
+        <v>28</v>
+      </c>
+      <c r="G1440">
+        <v>14</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1440">
+        <v>0</v>
+      </c>
+      <c r="J1440">
+        <v>14</v>
+      </c>
+      <c r="K1440" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11">
+      <c r="A1441" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1441">
+        <v>57</v>
+      </c>
+      <c r="G1441">
+        <v>20</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1441">
+        <v>0</v>
+      </c>
+      <c r="J1441">
+        <v>20</v>
+      </c>
+      <c r="K1441" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11">
+      <c r="A1442" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1442">
+        <v>40</v>
+      </c>
+      <c r="G1442">
+        <v>20</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1442">
+        <v>0</v>
+      </c>
+      <c r="J1442">
+        <v>20</v>
+      </c>
+      <c r="K1442" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11">
+      <c r="A1443" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1443">
+        <v>92</v>
+      </c>
+      <c r="G1443">
+        <v>29</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1443">
+        <v>0</v>
+      </c>
+      <c r="J1443">
+        <v>29</v>
+      </c>
+      <c r="K1443" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11">
+      <c r="A1444" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1444">
+        <v>111</v>
+      </c>
+      <c r="G1444">
+        <v>40</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1444">
+        <v>0</v>
+      </c>
+      <c r="J1444">
+        <v>40</v>
+      </c>
+      <c r="K1444" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11">
+      <c r="A1445" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1445">
+        <v>151</v>
+      </c>
+      <c r="G1445">
+        <v>50</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1445">
+        <v>0</v>
+      </c>
+      <c r="J1445">
+        <v>50</v>
+      </c>
+      <c r="K1445" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11">
+      <c r="A1446" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1446">
+        <v>133</v>
+      </c>
+      <c r="G1446">
+        <v>57</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1446">
+        <v>0</v>
+      </c>
+      <c r="J1446">
+        <v>57</v>
+      </c>
+      <c r="K1446" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11">
+      <c r="A1447" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1447">
+        <v>39</v>
+      </c>
+      <c r="G1447">
+        <v>14</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1447">
+        <v>0</v>
+      </c>
+      <c r="J1447">
+        <v>14</v>
+      </c>
+      <c r="K1447" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11">
+      <c r="A1448" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1448">
+        <v>122</v>
+      </c>
+      <c r="G1448">
+        <v>52</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1448">
+        <v>0</v>
+      </c>
+      <c r="J1448">
+        <v>52</v>
+      </c>
+      <c r="K1448" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11">
+      <c r="A1449" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1449">
+        <v>50</v>
+      </c>
+      <c r="G1449">
+        <v>26</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1449">
+        <v>0</v>
+      </c>
+      <c r="J1449">
+        <v>26</v>
+      </c>
+      <c r="K1449" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11">
+      <c r="A1450" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1450">
+        <v>97</v>
+      </c>
+      <c r="G1450">
+        <v>41</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1450">
+        <v>0</v>
+      </c>
+      <c r="J1450">
+        <v>41</v>
+      </c>
+      <c r="K1450" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11">
+      <c r="A1451" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1451">
+        <v>172</v>
+      </c>
+      <c r="G1451">
+        <v>64</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1451">
+        <v>0</v>
+      </c>
+      <c r="J1451">
+        <v>64</v>
+      </c>
+      <c r="K1451" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11">
+      <c r="A1452" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1452">
+        <v>85</v>
+      </c>
+      <c r="G1452">
+        <v>22</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1452">
+        <v>0</v>
+      </c>
+      <c r="J1452">
+        <v>22</v>
+      </c>
+      <c r="K1452" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11">
+      <c r="A1453" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1453">
+        <v>90</v>
+      </c>
+      <c r="G1453">
+        <v>40</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1453">
+        <v>0</v>
+      </c>
+      <c r="J1453">
+        <v>40</v>
+      </c>
+      <c r="K1453" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11">
+      <c r="A1454" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1454">
+        <v>69</v>
+      </c>
+      <c r="G1454">
+        <v>27</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1454">
+        <v>0</v>
+      </c>
+      <c r="J1454">
+        <v>27</v>
+      </c>
+      <c r="K1454" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11">
+      <c r="A1455" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1455">
+        <v>77</v>
+      </c>
+      <c r="G1455">
+        <v>31</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1455">
+        <v>0</v>
+      </c>
+      <c r="J1455">
+        <v>31</v>
+      </c>
+      <c r="K1455" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11">
+      <c r="A1456" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1456">
+        <v>3</v>
+      </c>
+      <c r="G1456">
+        <v>2</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1456">
+        <v>0</v>
+      </c>
+      <c r="J1456">
+        <v>2</v>
+      </c>
+      <c r="K1456" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11">
+      <c r="A1457" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1457">
+        <v>27</v>
+      </c>
+      <c r="G1457">
+        <v>13</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1457">
+        <v>0</v>
+      </c>
+      <c r="J1457">
+        <v>13</v>
+      </c>
+      <c r="K1457" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11">
+      <c r="A1458" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1458">
+        <v>9</v>
+      </c>
+      <c r="G1458">
+        <v>5</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1458">
+        <v>0</v>
+      </c>
+      <c r="J1458">
+        <v>5</v>
+      </c>
+      <c r="K1458" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11">
+      <c r="A1459" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1459">
+        <v>6</v>
+      </c>
+      <c r="G1459">
+        <v>0</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1459">
+        <v>0</v>
+      </c>
+      <c r="J1459">
+        <v>0</v>
+      </c>
+      <c r="K1459" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11">
+      <c r="A1460" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1460">
+        <v>0</v>
+      </c>
+      <c r="G1460">
+        <v>0</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1460">
+        <v>0</v>
+      </c>
+      <c r="J1460">
+        <v>0</v>
+      </c>
+      <c r="K1460" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11">
+      <c r="A1461" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1461">
+        <v>1</v>
+      </c>
+      <c r="G1461">
+        <v>0</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1461">
+        <v>0</v>
+      </c>
+      <c r="J1461">
+        <v>0</v>
+      </c>
+      <c r="K1461" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11">
+      <c r="A1462" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1462">
+        <v>4</v>
+      </c>
+      <c r="G1462">
+        <v>1</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1462">
+        <v>0</v>
+      </c>
+      <c r="J1462">
+        <v>1</v>
+      </c>
+      <c r="K1462" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11">
+      <c r="A1463" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1463">
+        <v>5</v>
+      </c>
+      <c r="G1463">
+        <v>1</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1463">
+        <v>0</v>
+      </c>
+      <c r="J1463">
+        <v>1</v>
+      </c>
+      <c r="K1463" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11">
+      <c r="A1464" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1464">
+        <v>9</v>
+      </c>
+      <c r="G1464">
+        <v>2</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1464">
+        <v>0</v>
+      </c>
+      <c r="J1464">
+        <v>2</v>
+      </c>
+      <c r="K1464" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11">
+      <c r="A1465" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1465">
+        <v>0</v>
+      </c>
+      <c r="G1465">
+        <v>0</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1465">
+        <v>0</v>
+      </c>
+      <c r="J1465">
+        <v>0</v>
+      </c>
+      <c r="K1465" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11">
+      <c r="A1466" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1466">
+        <v>0</v>
+      </c>
+      <c r="G1466">
+        <v>0</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1466">
+        <v>0</v>
+      </c>
+      <c r="J1466">
+        <v>0</v>
+      </c>
+      <c r="K1466" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11">
+      <c r="A1467" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1467">
+        <v>1</v>
+      </c>
+      <c r="G1467">
+        <v>0</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1467">
+        <v>0</v>
+      </c>
+      <c r="J1467">
+        <v>0</v>
+      </c>
+      <c r="K1467" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11">
+      <c r="A1468" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1468">
+        <v>1</v>
+      </c>
+      <c r="G1468">
+        <v>1</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1468">
+        <v>0</v>
+      </c>
+      <c r="J1468">
+        <v>1</v>
+      </c>
+      <c r="K1468" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11">
+      <c r="A1469" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1469">
+        <v>0</v>
+      </c>
+      <c r="G1469">
+        <v>0</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1469">
+        <v>0</v>
+      </c>
+      <c r="J1469">
+        <v>0</v>
+      </c>
+      <c r="K1469" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11">
+      <c r="A1470" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1470">
+        <v>89</v>
+      </c>
+      <c r="G1470">
+        <v>37</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1470">
+        <v>0</v>
+      </c>
+      <c r="J1470">
+        <v>37</v>
+      </c>
+      <c r="K1470" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11">
+      <c r="A1471" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1471">
+        <v>6</v>
+      </c>
+      <c r="G1471">
+        <v>2</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1471">
+        <v>0</v>
+      </c>
+      <c r="J1471">
+        <v>2</v>
+      </c>
+      <c r="K1471" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11">
+      <c r="A1472" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1472">
+        <v>54</v>
+      </c>
+      <c r="G1472">
+        <v>19</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1472">
+        <v>0</v>
+      </c>
+      <c r="J1472">
+        <v>19</v>
+      </c>
+      <c r="K1472" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11">
+      <c r="A1473" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1473">
+        <v>47</v>
+      </c>
+      <c r="G1473">
+        <v>11</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1473">
+        <v>0</v>
+      </c>
+      <c r="J1473">
+        <v>11</v>
+      </c>
+      <c r="K1473" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11">
+      <c r="A1474" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1474">
+        <v>25</v>
+      </c>
+      <c r="G1474">
+        <v>16</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1474">
+        <v>0</v>
+      </c>
+      <c r="J1474">
+        <v>16</v>
+      </c>
+      <c r="K1474" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11">
+      <c r="A1475" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1475">
+        <v>2</v>
+      </c>
+      <c r="G1475">
+        <v>1</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1475">
+        <v>0</v>
+      </c>
+      <c r="J1475">
+        <v>1</v>
+      </c>
+      <c r="K1475" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11">
+      <c r="A1476" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1476">
+        <v>0</v>
+      </c>
+      <c r="G1476">
+        <v>0</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1476">
+        <v>0</v>
+      </c>
+      <c r="J1476">
+        <v>0</v>
+      </c>
+      <c r="K1476" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11">
+      <c r="A1477" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1477">
+        <v>4</v>
+      </c>
+      <c r="G1477">
+        <v>1</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1477">
+        <v>0</v>
+      </c>
+      <c r="J1477">
+        <v>1</v>
+      </c>
+      <c r="K1477" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11">
+      <c r="A1478" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1478">
+        <v>1</v>
+      </c>
+      <c r="G1478">
+        <v>0</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1478">
+        <v>0</v>
+      </c>
+      <c r="J1478">
+        <v>0</v>
+      </c>
+      <c r="K1478" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11">
+      <c r="A1479" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1479">
+        <v>12</v>
+      </c>
+      <c r="G1479">
+        <v>4</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1479">
+        <v>0</v>
+      </c>
+      <c r="J1479">
+        <v>4</v>
+      </c>
+      <c r="K1479" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11">
+      <c r="A1480" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1480">
+        <v>7</v>
+      </c>
+      <c r="G1480">
+        <v>1</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1480">
+        <v>0</v>
+      </c>
+      <c r="J1480">
+        <v>1</v>
+      </c>
+      <c r="K1480" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:11">
+      <c r="A1481" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1481">
+        <v>11</v>
+      </c>
+      <c r="G1481">
+        <v>6</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1481">
+        <v>0</v>
+      </c>
+      <c r="J1481">
+        <v>6</v>
+      </c>
+      <c r="K1481" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:11">
+      <c r="A1482" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1482">
+        <v>3</v>
+      </c>
+      <c r="G1482">
+        <v>1</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1482">
+        <v>0</v>
+      </c>
+      <c r="J1482">
+        <v>1</v>
+      </c>
+      <c r="K1482" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:11">
+      <c r="A1483" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1483">
+        <v>5</v>
+      </c>
+      <c r="G1483">
+        <v>3</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1483">
+        <v>0</v>
+      </c>
+      <c r="J1483">
+        <v>3</v>
+      </c>
+      <c r="K1483" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:11">
+      <c r="A1484" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1484">
+        <v>3</v>
+      </c>
+      <c r="G1484">
+        <v>0</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1484">
+        <v>0</v>
+      </c>
+      <c r="J1484">
+        <v>0</v>
+      </c>
+      <c r="K1484" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:11">
+      <c r="A1485" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1485">
+        <v>1</v>
+      </c>
+      <c r="G1485">
+        <v>0</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1485">
+        <v>0</v>
+      </c>
+      <c r="J1485">
+        <v>0</v>
+      </c>
+      <c r="K1485" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11">
+      <c r="A1486" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1486">
+        <v>1</v>
+      </c>
+      <c r="G1486">
+        <v>0</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1486">
+        <v>0</v>
+      </c>
+      <c r="J1486">
+        <v>0</v>
+      </c>
+      <c r="K1486" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:11">
+      <c r="A1487" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1487">
+        <v>12</v>
+      </c>
+      <c r="G1487">
+        <v>3</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1487">
+        <v>0</v>
+      </c>
+      <c r="J1487">
+        <v>3</v>
+      </c>
+      <c r="K1487" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:11">
+      <c r="A1488" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1488">
+        <v>15</v>
+      </c>
+      <c r="G1488">
+        <v>6</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1488">
+        <v>0</v>
+      </c>
+      <c r="J1488">
+        <v>6</v>
+      </c>
+      <c r="K1488" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:11">
+      <c r="A1489" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1489">
+        <v>5</v>
+      </c>
+      <c r="G1489">
+        <v>1</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1489">
+        <v>0</v>
+      </c>
+      <c r="J1489">
+        <v>1</v>
+      </c>
+      <c r="K1489" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:11">
+      <c r="A1490" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1490">
+        <v>2</v>
+      </c>
+      <c r="G1490">
+        <v>1</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1490">
+        <v>0</v>
+      </c>
+      <c r="J1490">
+        <v>1</v>
+      </c>
+      <c r="K1490" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:11">
+      <c r="A1491" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1491">
+        <v>41</v>
+      </c>
+      <c r="G1491">
+        <v>14</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1491">
+        <v>0</v>
+      </c>
+      <c r="J1491">
+        <v>14</v>
+      </c>
+      <c r="K1491" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11">
+      <c r="A1492" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1492">
+        <v>16</v>
+      </c>
+      <c r="G1492">
+        <v>5</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1492">
+        <v>0</v>
+      </c>
+      <c r="J1492">
+        <v>5</v>
+      </c>
+      <c r="K1492" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11">
+      <c r="A1493" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1493">
+        <v>34</v>
+      </c>
+      <c r="G1493">
+        <v>5</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1493">
+        <v>0</v>
+      </c>
+      <c r="J1493">
+        <v>5</v>
+      </c>
+      <c r="K1493" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11">
+      <c r="A1494" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1494">
+        <v>9</v>
+      </c>
+      <c r="G1494">
+        <v>5</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1494">
+        <v>0</v>
+      </c>
+      <c r="J1494">
+        <v>5</v>
+      </c>
+      <c r="K1494" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11">
+      <c r="A1495" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1495">
+        <v>5</v>
+      </c>
+      <c r="G1495">
+        <v>2</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1495">
+        <v>0</v>
+      </c>
+      <c r="J1495">
+        <v>2</v>
+      </c>
+      <c r="K1495" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11">
+      <c r="A1496" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1496">
+        <v>15</v>
+      </c>
+      <c r="G1496">
+        <v>6</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1496">
+        <v>0</v>
+      </c>
+      <c r="J1496">
+        <v>6</v>
+      </c>
+      <c r="K1496" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:11">
+      <c r="A1497" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1497">
+        <v>15</v>
+      </c>
+      <c r="G1497">
+        <v>3</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1497">
+        <v>0</v>
+      </c>
+      <c r="J1497">
+        <v>3</v>
+      </c>
+      <c r="K1497" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11">
+      <c r="A1498" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1498">
+        <v>10</v>
+      </c>
+      <c r="G1498">
+        <v>7</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1498">
+        <v>0</v>
+      </c>
+      <c r="J1498">
+        <v>7</v>
+      </c>
+      <c r="K1498" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:11">
+      <c r="A1499" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1499">
+        <v>15</v>
+      </c>
+      <c r="G1499">
+        <v>6</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1499">
+        <v>0</v>
+      </c>
+      <c r="J1499">
+        <v>6</v>
+      </c>
+      <c r="K1499" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:11">
+      <c r="A1500" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1500">
+        <v>13</v>
+      </c>
+      <c r="G1500">
+        <v>5</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1500">
+        <v>0</v>
+      </c>
+      <c r="J1500">
+        <v>5</v>
+      </c>
+      <c r="K1500" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:11">
+      <c r="A1501" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1501">
+        <v>13</v>
+      </c>
+      <c r="G1501">
+        <v>1</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1501">
+        <v>0</v>
+      </c>
+      <c r="J1501">
+        <v>1</v>
+      </c>
+      <c r="K1501" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:11">
+      <c r="A1502" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1502">
+        <v>35</v>
+      </c>
+      <c r="G1502">
+        <v>16</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1502">
+        <v>0</v>
+      </c>
+      <c r="J1502">
+        <v>16</v>
+      </c>
+      <c r="K1502" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:11">
+      <c r="A1503" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1503">
+        <v>9</v>
+      </c>
+      <c r="G1503">
+        <v>5</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1503">
+        <v>0</v>
+      </c>
+      <c r="J1503">
+        <v>5</v>
+      </c>
+      <c r="K1503" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11">
+      <c r="A1504" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1504">
+        <v>27</v>
+      </c>
+      <c r="G1504">
+        <v>13</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1504">
+        <v>0</v>
+      </c>
+      <c r="J1504">
+        <v>13</v>
+      </c>
+      <c r="K1504" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:11">
+      <c r="A1505" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1505">
+        <v>6</v>
+      </c>
+      <c r="G1505">
+        <v>0</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1505">
+        <v>0</v>
+      </c>
+      <c r="J1505">
+        <v>0</v>
+      </c>
+      <c r="K1505" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:11">
+      <c r="A1506" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1506">
+        <v>3</v>
+      </c>
+      <c r="G1506">
+        <v>3</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1506">
+        <v>0</v>
+      </c>
+      <c r="J1506">
+        <v>3</v>
+      </c>
+      <c r="K1506" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:11">
+      <c r="A1507" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1507">
+        <v>1</v>
+      </c>
+      <c r="G1507">
+        <v>0</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1507">
+        <v>0</v>
+      </c>
+      <c r="J1507">
+        <v>0</v>
+      </c>
+      <c r="K1507" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:11">
+      <c r="A1508" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1508">
+        <v>2</v>
+      </c>
+      <c r="G1508">
+        <v>1</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1508">
+        <v>0</v>
+      </c>
+      <c r="J1508">
+        <v>1</v>
+      </c>
+      <c r="K1508" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:11">
+      <c r="A1509" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1509">
+        <v>0</v>
+      </c>
+      <c r="G1509">
+        <v>0</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1509">
+        <v>0</v>
+      </c>
+      <c r="J1509">
+        <v>0</v>
+      </c>
+      <c r="K1509" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11">
+      <c r="A1510" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1510">
+        <v>2</v>
+      </c>
+      <c r="G1510">
+        <v>1</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1510">
+        <v>0</v>
+      </c>
+      <c r="J1510">
+        <v>1</v>
+      </c>
+      <c r="K1510" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:11">
+      <c r="A1511" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1511">
+        <v>4</v>
+      </c>
+      <c r="G1511">
+        <v>1</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1511">
+        <v>0</v>
+      </c>
+      <c r="J1511">
+        <v>1</v>
+      </c>
+      <c r="K1511" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:11">
+      <c r="A1512" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1512">
+        <v>6</v>
+      </c>
+      <c r="G1512">
+        <v>2</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1512">
+        <v>0</v>
+      </c>
+      <c r="J1512">
+        <v>2</v>
+      </c>
+      <c r="K1512" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:11">
+      <c r="A1513" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1513">
+        <v>2</v>
+      </c>
+      <c r="G1513">
+        <v>2</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1513">
+        <v>0</v>
+      </c>
+      <c r="J1513">
+        <v>2</v>
+      </c>
+      <c r="K1513" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:11">
+      <c r="A1514" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1514">
+        <v>7</v>
+      </c>
+      <c r="G1514">
+        <v>2</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1514">
+        <v>0</v>
+      </c>
+      <c r="J1514">
+        <v>2</v>
+      </c>
+      <c r="K1514" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:11">
+      <c r="A1515" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1515">
+        <v>7</v>
+      </c>
+      <c r="G1515">
+        <v>1</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1515">
+        <v>0</v>
+      </c>
+      <c r="J1515">
+        <v>1</v>
+      </c>
+      <c r="K1515" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11">
+      <c r="A1516" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1516">
+        <v>10</v>
+      </c>
+      <c r="G1516">
+        <v>2</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1516">
+        <v>0</v>
+      </c>
+      <c r="J1516">
+        <v>2</v>
+      </c>
+      <c r="K1516" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:11">
+      <c r="A1517" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1517">
+        <v>12</v>
+      </c>
+      <c r="G1517">
+        <v>1</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1517">
+        <v>0</v>
+      </c>
+      <c r="J1517">
+        <v>1</v>
+      </c>
+      <c r="K1517" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:11">
+      <c r="A1518" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1518">
+        <v>9</v>
+      </c>
+      <c r="G1518">
+        <v>2</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1518">
+        <v>0</v>
+      </c>
+      <c r="J1518">
+        <v>2</v>
+      </c>
+      <c r="K1518" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:11">
+      <c r="A1519" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1519">
+        <v>20</v>
+      </c>
+      <c r="G1519">
+        <v>10</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1519">
+        <v>0</v>
+      </c>
+      <c r="J1519">
+        <v>10</v>
+      </c>
+      <c r="K1519" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:11">
+      <c r="A1520" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1520">
+        <v>15</v>
+      </c>
+      <c r="G1520">
+        <v>4</v>
+      </c>
+      <c r="H1520" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1520">
+        <v>0</v>
+      </c>
+      <c r="J1520">
+        <v>4</v>
+      </c>
+      <c r="K1520" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11">
+      <c r="A1521" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1521">
+        <v>20</v>
+      </c>
+      <c r="G1521">
+        <v>8</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1521">
+        <v>0</v>
+      </c>
+      <c r="J1521">
+        <v>8</v>
+      </c>
+      <c r="K1521" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11">
+      <c r="A1522" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1522">
+        <v>16</v>
+      </c>
+      <c r="G1522">
+        <v>6</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1522">
+        <v>0</v>
+      </c>
+      <c r="J1522">
+        <v>6</v>
+      </c>
+      <c r="K1522" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11">
+      <c r="A1523" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1523">
+        <v>6</v>
+      </c>
+      <c r="G1523">
+        <v>2</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1523">
+        <v>0</v>
+      </c>
+      <c r="J1523">
+        <v>2</v>
+      </c>
+      <c r="K1523" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11">
+      <c r="A1524" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1524">
+        <v>10</v>
+      </c>
+      <c r="G1524">
+        <v>4</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1524">
+        <v>0</v>
+      </c>
+      <c r="J1524">
+        <v>4</v>
+      </c>
+      <c r="K1524" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:11">
+      <c r="A1525" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1525">
+        <v>14</v>
+      </c>
+      <c r="G1525">
+        <v>4</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1525">
+        <v>0</v>
+      </c>
+      <c r="J1525">
+        <v>4</v>
+      </c>
+      <c r="K1525" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:11">
+      <c r="A1526" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1526">
+        <v>9</v>
+      </c>
+      <c r="G1526">
+        <v>6</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1526">
+        <v>0</v>
+      </c>
+      <c r="J1526">
+        <v>6</v>
+      </c>
+      <c r="K1526" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:11">
+      <c r="A1527" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1527">
+        <v>16</v>
+      </c>
+      <c r="G1527">
+        <v>7</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1527">
+        <v>0</v>
+      </c>
+      <c r="J1527">
+        <v>7</v>
+      </c>
+      <c r="K1527" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11">
+      <c r="A1528" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1528">
+        <v>14</v>
+      </c>
+      <c r="G1528">
+        <v>3</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1528">
+        <v>0</v>
+      </c>
+      <c r="J1528">
+        <v>3</v>
+      </c>
+      <c r="K1528" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:11">
+      <c r="A1529" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1529">
+        <v>8</v>
+      </c>
+      <c r="G1529">
+        <v>4</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1529">
+        <v>0</v>
+      </c>
+      <c r="J1529">
+        <v>4</v>
+      </c>
+      <c r="K1529" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:11">
+      <c r="A1530" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1530">
+        <v>6</v>
+      </c>
+      <c r="G1530">
+        <v>3</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1530">
+        <v>0</v>
+      </c>
+      <c r="J1530">
+        <v>3</v>
+      </c>
+      <c r="K1530" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:11">
+      <c r="A1531" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1531">
+        <v>24</v>
+      </c>
+      <c r="G1531">
+        <v>7</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1531">
+        <v>0</v>
+      </c>
+      <c r="J1531">
+        <v>7</v>
+      </c>
+      <c r="K1531" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:11">
+      <c r="A1532" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1532">
+        <v>19</v>
+      </c>
+      <c r="G1532">
+        <v>4</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1532">
+        <v>0</v>
+      </c>
+      <c r="J1532">
+        <v>4</v>
+      </c>
+      <c r="K1532" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:11">
+      <c r="A1533" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1533">
+        <v>11</v>
+      </c>
+      <c r="G1533">
+        <v>5</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1533">
+        <v>0</v>
+      </c>
+      <c r="J1533">
+        <v>5</v>
+      </c>
+      <c r="K1533" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11">
+      <c r="A1534" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1534">
+        <v>11</v>
+      </c>
+      <c r="G1534">
+        <v>4</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1534">
+        <v>0</v>
+      </c>
+      <c r="J1534">
+        <v>4</v>
+      </c>
+      <c r="K1534" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:11">
+      <c r="A1535" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1535">
+        <v>16</v>
+      </c>
+      <c r="G1535">
+        <v>6</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1535">
+        <v>0</v>
+      </c>
+      <c r="J1535">
+        <v>6</v>
+      </c>
+      <c r="K1535" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:11">
+      <c r="A1536" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1536">
+        <v>3</v>
+      </c>
+      <c r="G1536">
+        <v>1</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1536">
+        <v>0</v>
+      </c>
+      <c r="J1536">
+        <v>1</v>
+      </c>
+      <c r="K1536" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:11">
+      <c r="A1537" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1537">
+        <v>3</v>
+      </c>
+      <c r="G1537">
+        <v>2</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1537">
+        <v>0</v>
+      </c>
+      <c r="J1537">
+        <v>2</v>
+      </c>
+      <c r="K1537" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:11">
+      <c r="A1538" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1538">
+        <v>2</v>
+      </c>
+      <c r="G1538">
+        <v>0</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1538">
+        <v>0</v>
+      </c>
+      <c r="J1538">
+        <v>0</v>
+      </c>
+      <c r="K1538" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:11">
+      <c r="A1539" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1539">
+        <v>1</v>
+      </c>
+      <c r="G1539">
+        <v>1</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1539">
+        <v>0</v>
+      </c>
+      <c r="J1539">
+        <v>1</v>
+      </c>
+      <c r="K1539" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:11">
+      <c r="A1540" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1540">
+        <v>1</v>
+      </c>
+      <c r="G1540">
+        <v>0</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1540">
+        <v>0</v>
+      </c>
+      <c r="J1540">
+        <v>0</v>
+      </c>
+      <c r="K1540" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:11">
+      <c r="A1541" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1541">
+        <v>1</v>
+      </c>
+      <c r="G1541">
+        <v>0</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1541">
+        <v>0</v>
+      </c>
+      <c r="J1541">
+        <v>0</v>
+      </c>
+      <c r="K1541" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:11">
+      <c r="A1542" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1542">
+        <v>3</v>
+      </c>
+      <c r="G1542">
+        <v>1</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1542">
+        <v>0</v>
+      </c>
+      <c r="J1542">
+        <v>1</v>
+      </c>
+      <c r="K1542" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:11">
+      <c r="A1543" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1543">
+        <v>6</v>
+      </c>
+      <c r="G1543">
+        <v>4</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1543">
+        <v>0</v>
+      </c>
+      <c r="J1543">
+        <v>4</v>
+      </c>
+      <c r="K1543" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:11">
+      <c r="A1544" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1544">
+        <v>12</v>
+      </c>
+      <c r="G1544">
+        <v>4</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1544">
+        <v>0</v>
+      </c>
+      <c r="J1544">
+        <v>4</v>
+      </c>
+      <c r="K1544" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:11">
+      <c r="A1545" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1545">
+        <v>12</v>
+      </c>
+      <c r="G1545">
+        <v>4</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1545">
+        <v>0</v>
+      </c>
+      <c r="J1545">
+        <v>4</v>
+      </c>
+      <c r="K1545" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:11">
+      <c r="A1546" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1546">
+        <v>14</v>
+      </c>
+      <c r="G1546">
+        <v>4</v>
+      </c>
+      <c r="H1546" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1546">
+        <v>0</v>
+      </c>
+      <c r="J1546">
+        <v>4</v>
+      </c>
+      <c r="K1546" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:11">
+      <c r="A1547" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1547">
+        <v>10</v>
+      </c>
+      <c r="G1547">
+        <v>3</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1547">
+        <v>0</v>
+      </c>
+      <c r="J1547">
+        <v>3</v>
+      </c>
+      <c r="K1547" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:11">
+      <c r="A1548" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1548">
+        <v>17</v>
+      </c>
+      <c r="G1548">
+        <v>8</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1548">
+        <v>0</v>
+      </c>
+      <c r="J1548">
+        <v>8</v>
+      </c>
+      <c r="K1548" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:11">
+      <c r="A1549" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1549">
+        <v>24</v>
+      </c>
+      <c r="G1549">
+        <v>14</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1549">
+        <v>0</v>
+      </c>
+      <c r="J1549">
+        <v>14</v>
+      </c>
+      <c r="K1549" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:11">
+      <c r="A1550" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1550">
+        <v>11</v>
+      </c>
+      <c r="G1550">
+        <v>4</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1550">
+        <v>0</v>
+      </c>
+      <c r="J1550">
+        <v>4</v>
+      </c>
+      <c r="K1550" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:11">
+      <c r="A1551" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1551">
+        <v>22</v>
+      </c>
+      <c r="G1551">
+        <v>5</v>
+      </c>
+      <c r="H1551" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1551">
+        <v>0</v>
+      </c>
+      <c r="J1551">
+        <v>5</v>
+      </c>
+      <c r="K1551" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:11">
+      <c r="A1552" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1552">
+        <v>9</v>
+      </c>
+      <c r="G1552">
+        <v>3</v>
+      </c>
+      <c r="H1552" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1552">
+        <v>0</v>
+      </c>
+      <c r="J1552">
+        <v>3</v>
+      </c>
+      <c r="K1552" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:11">
+      <c r="A1553" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1553">
+        <v>11</v>
+      </c>
+      <c r="G1553">
+        <v>3</v>
+      </c>
+      <c r="H1553" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1553">
+        <v>0</v>
+      </c>
+      <c r="J1553">
+        <v>3</v>
+      </c>
+      <c r="K1553" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:11">
+      <c r="A1554" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1554">
+        <v>7</v>
+      </c>
+      <c r="G1554">
+        <v>3</v>
+      </c>
+      <c r="H1554" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1554">
+        <v>0</v>
+      </c>
+      <c r="J1554">
+        <v>3</v>
+      </c>
+      <c r="K1554" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:11">
+      <c r="A1555" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1555">
+        <v>11</v>
+      </c>
+      <c r="G1555">
+        <v>3</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1555">
+        <v>0</v>
+      </c>
+      <c r="J1555">
+        <v>3</v>
+      </c>
+      <c r="K1555" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:11">
+      <c r="A1556" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1556">
+        <v>2</v>
+      </c>
+      <c r="G1556">
+        <v>2</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1556">
+        <v>0</v>
+      </c>
+      <c r="J1556">
+        <v>2</v>
+      </c>
+      <c r="K1556" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:11">
+      <c r="A1557" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1557">
+        <v>19</v>
+      </c>
+      <c r="G1557">
+        <v>4</v>
+      </c>
+      <c r="H1557" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1557">
+        <v>0</v>
+      </c>
+      <c r="J1557">
+        <v>4</v>
+      </c>
+      <c r="K1557" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:11">
+      <c r="A1558" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1558">
+        <v>47</v>
+      </c>
+      <c r="G1558">
+        <v>19</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1558">
+        <v>0</v>
+      </c>
+      <c r="J1558">
+        <v>19</v>
+      </c>
+      <c r="K1558" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:11">
+      <c r="A1559" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1559">
+        <v>177</v>
+      </c>
+      <c r="G1559">
+        <v>42</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1559">
+        <v>0</v>
+      </c>
+      <c r="J1559">
+        <v>42</v>
+      </c>
+      <c r="K1559" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:11">
+      <c r="A1560" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1560">
+        <v>7</v>
+      </c>
+      <c r="G1560">
+        <v>2</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1560">
+        <v>0</v>
+      </c>
+      <c r="J1560">
+        <v>2</v>
+      </c>
+      <c r="K1560" s="2">
+        <v>45540.30590571978</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:11">
+      <c r="A1561" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1561">
+        <v>40</v>
+      </c>
+      <c r="G1561">
+        <v>11</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1561">
+        <v>0</v>
+      </c>
+      <c r="J1561">
+        <v>11</v>
+      </c>
+      <c r="K1561" s="2">
+        <v>45540.30590571978</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9371" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10307" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1561"/>
+  <dimension ref="A1:K1717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -49930,7 +49930,7 @@
         <v>34</v>
       </c>
       <c r="K1406" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1407" spans="1:11">
@@ -49965,7 +49965,7 @@
         <v>19</v>
       </c>
       <c r="K1407" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1408" spans="1:11">
@@ -50000,7 +50000,7 @@
         <v>8</v>
       </c>
       <c r="K1408" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1409" spans="1:11">
@@ -50035,7 +50035,7 @@
         <v>30</v>
       </c>
       <c r="K1409" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1410" spans="1:11">
@@ -50070,7 +50070,7 @@
         <v>10</v>
       </c>
       <c r="K1410" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1411" spans="1:11">
@@ -50105,7 +50105,7 @@
         <v>4</v>
       </c>
       <c r="K1411" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1412" spans="1:11">
@@ -50140,7 +50140,7 @@
         <v>1</v>
       </c>
       <c r="K1412" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1413" spans="1:11">
@@ -50175,7 +50175,7 @@
         <v>0</v>
       </c>
       <c r="K1413" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1414" spans="1:11">
@@ -50210,7 +50210,7 @@
         <v>69</v>
       </c>
       <c r="K1414" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1415" spans="1:11">
@@ -50245,7 +50245,7 @@
         <v>57</v>
       </c>
       <c r="K1415" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1416" spans="1:11">
@@ -50280,7 +50280,7 @@
         <v>89</v>
       </c>
       <c r="K1416" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1417" spans="1:11">
@@ -50315,7 +50315,7 @@
         <v>24</v>
       </c>
       <c r="K1417" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1418" spans="1:11">
@@ -50350,7 +50350,7 @@
         <v>23</v>
       </c>
       <c r="K1418" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1419" spans="1:11">
@@ -50385,7 +50385,7 @@
         <v>19</v>
       </c>
       <c r="K1419" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1420" spans="1:11">
@@ -50420,7 +50420,7 @@
         <v>29</v>
       </c>
       <c r="K1420" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1421" spans="1:11">
@@ -50455,7 +50455,7 @@
         <v>14</v>
       </c>
       <c r="K1421" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1422" spans="1:11">
@@ -50490,7 +50490,7 @@
         <v>9</v>
       </c>
       <c r="K1422" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1423" spans="1:11">
@@ -50525,7 +50525,7 @@
         <v>1</v>
       </c>
       <c r="K1423" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1424" spans="1:11">
@@ -50560,7 +50560,7 @@
         <v>16</v>
       </c>
       <c r="K1424" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1425" spans="1:11">
@@ -50595,7 +50595,7 @@
         <v>31</v>
       </c>
       <c r="K1425" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1426" spans="1:11">
@@ -50630,7 +50630,7 @@
         <v>29</v>
       </c>
       <c r="K1426" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1427" spans="1:11">
@@ -50665,7 +50665,7 @@
         <v>33</v>
       </c>
       <c r="K1427" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1428" spans="1:11">
@@ -50700,7 +50700,7 @@
         <v>39</v>
       </c>
       <c r="K1428" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1429" spans="1:11">
@@ -50735,7 +50735,7 @@
         <v>27</v>
       </c>
       <c r="K1429" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1430" spans="1:11">
@@ -50770,7 +50770,7 @@
         <v>17</v>
       </c>
       <c r="K1430" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1431" spans="1:11">
@@ -50805,7 +50805,7 @@
         <v>54</v>
       </c>
       <c r="K1431" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1432" spans="1:11">
@@ -50840,7 +50840,7 @@
         <v>19</v>
       </c>
       <c r="K1432" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1433" spans="1:11">
@@ -50875,7 +50875,7 @@
         <v>37</v>
       </c>
       <c r="K1433" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1434" spans="1:11">
@@ -50910,7 +50910,7 @@
         <v>38</v>
       </c>
       <c r="K1434" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1435" spans="1:11">
@@ -50945,7 +50945,7 @@
         <v>15</v>
       </c>
       <c r="K1435" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1436" spans="1:11">
@@ -50980,7 +50980,7 @@
         <v>40</v>
       </c>
       <c r="K1436" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1437" spans="1:11">
@@ -51015,7 +51015,7 @@
         <v>49</v>
       </c>
       <c r="K1437" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1438" spans="1:11">
@@ -51050,7 +51050,7 @@
         <v>39</v>
       </c>
       <c r="K1438" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1439" spans="1:11">
@@ -51085,7 +51085,7 @@
         <v>27</v>
       </c>
       <c r="K1439" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1440" spans="1:11">
@@ -51120,7 +51120,7 @@
         <v>14</v>
       </c>
       <c r="K1440" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1441" spans="1:11">
@@ -51155,7 +51155,7 @@
         <v>20</v>
       </c>
       <c r="K1441" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1442" spans="1:11">
@@ -51190,7 +51190,7 @@
         <v>20</v>
       </c>
       <c r="K1442" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1443" spans="1:11">
@@ -51225,7 +51225,7 @@
         <v>29</v>
       </c>
       <c r="K1443" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1444" spans="1:11">
@@ -51260,7 +51260,7 @@
         <v>40</v>
       </c>
       <c r="K1444" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1445" spans="1:11">
@@ -51295,7 +51295,7 @@
         <v>50</v>
       </c>
       <c r="K1445" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1446" spans="1:11">
@@ -51330,7 +51330,7 @@
         <v>57</v>
       </c>
       <c r="K1446" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1447" spans="1:11">
@@ -51365,7 +51365,7 @@
         <v>14</v>
       </c>
       <c r="K1447" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1448" spans="1:11">
@@ -51400,7 +51400,7 @@
         <v>52</v>
       </c>
       <c r="K1448" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1449" spans="1:11">
@@ -51435,7 +51435,7 @@
         <v>26</v>
       </c>
       <c r="K1449" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1450" spans="1:11">
@@ -51470,7 +51470,7 @@
         <v>41</v>
       </c>
       <c r="K1450" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1451" spans="1:11">
@@ -51505,7 +51505,7 @@
         <v>64</v>
       </c>
       <c r="K1451" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1452" spans="1:11">
@@ -51540,7 +51540,7 @@
         <v>22</v>
       </c>
       <c r="K1452" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1453" spans="1:11">
@@ -51575,7 +51575,7 @@
         <v>40</v>
       </c>
       <c r="K1453" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1454" spans="1:11">
@@ -51610,7 +51610,7 @@
         <v>27</v>
       </c>
       <c r="K1454" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1455" spans="1:11">
@@ -51645,7 +51645,7 @@
         <v>31</v>
       </c>
       <c r="K1455" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1456" spans="1:11">
@@ -51680,7 +51680,7 @@
         <v>2</v>
       </c>
       <c r="K1456" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1457" spans="1:11">
@@ -51715,7 +51715,7 @@
         <v>13</v>
       </c>
       <c r="K1457" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1458" spans="1:11">
@@ -51750,7 +51750,7 @@
         <v>5</v>
       </c>
       <c r="K1458" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1459" spans="1:11">
@@ -51785,7 +51785,7 @@
         <v>0</v>
       </c>
       <c r="K1459" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1460" spans="1:11">
@@ -51820,7 +51820,7 @@
         <v>0</v>
       </c>
       <c r="K1460" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1461" spans="1:11">
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
       <c r="K1461" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1462" spans="1:11">
@@ -51890,7 +51890,7 @@
         <v>1</v>
       </c>
       <c r="K1462" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1463" spans="1:11">
@@ -51925,7 +51925,7 @@
         <v>1</v>
       </c>
       <c r="K1463" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1464" spans="1:11">
@@ -51960,7 +51960,7 @@
         <v>2</v>
       </c>
       <c r="K1464" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1465" spans="1:11">
@@ -51995,7 +51995,7 @@
         <v>0</v>
       </c>
       <c r="K1465" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1466" spans="1:11">
@@ -52030,7 +52030,7 @@
         <v>0</v>
       </c>
       <c r="K1466" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1467" spans="1:11">
@@ -52065,7 +52065,7 @@
         <v>0</v>
       </c>
       <c r="K1467" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1468" spans="1:11">
@@ -52100,7 +52100,7 @@
         <v>1</v>
       </c>
       <c r="K1468" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1469" spans="1:11">
@@ -52135,7 +52135,7 @@
         <v>0</v>
       </c>
       <c r="K1469" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1470" spans="1:11">
@@ -52170,7 +52170,7 @@
         <v>37</v>
       </c>
       <c r="K1470" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1471" spans="1:11">
@@ -52205,7 +52205,7 @@
         <v>2</v>
       </c>
       <c r="K1471" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1472" spans="1:11">
@@ -52240,7 +52240,7 @@
         <v>19</v>
       </c>
       <c r="K1472" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1473" spans="1:11">
@@ -52275,7 +52275,7 @@
         <v>11</v>
       </c>
       <c r="K1473" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1474" spans="1:11">
@@ -52310,7 +52310,7 @@
         <v>16</v>
       </c>
       <c r="K1474" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1475" spans="1:11">
@@ -52345,7 +52345,7 @@
         <v>1</v>
       </c>
       <c r="K1475" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1476" spans="1:11">
@@ -52380,7 +52380,7 @@
         <v>0</v>
       </c>
       <c r="K1476" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1477" spans="1:11">
@@ -52415,7 +52415,7 @@
         <v>1</v>
       </c>
       <c r="K1477" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1478" spans="1:11">
@@ -52450,7 +52450,7 @@
         <v>0</v>
       </c>
       <c r="K1478" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1479" spans="1:11">
@@ -52485,7 +52485,7 @@
         <v>4</v>
       </c>
       <c r="K1479" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1480" spans="1:11">
@@ -52520,7 +52520,7 @@
         <v>1</v>
       </c>
       <c r="K1480" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1481" spans="1:11">
@@ -52555,7 +52555,7 @@
         <v>6</v>
       </c>
       <c r="K1481" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1482" spans="1:11">
@@ -52590,7 +52590,7 @@
         <v>1</v>
       </c>
       <c r="K1482" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1483" spans="1:11">
@@ -52625,7 +52625,7 @@
         <v>3</v>
       </c>
       <c r="K1483" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1484" spans="1:11">
@@ -52660,7 +52660,7 @@
         <v>0</v>
       </c>
       <c r="K1484" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1485" spans="1:11">
@@ -52695,7 +52695,7 @@
         <v>0</v>
       </c>
       <c r="K1485" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1486" spans="1:11">
@@ -52730,7 +52730,7 @@
         <v>0</v>
       </c>
       <c r="K1486" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1487" spans="1:11">
@@ -52765,7 +52765,7 @@
         <v>3</v>
       </c>
       <c r="K1487" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1488" spans="1:11">
@@ -52800,7 +52800,7 @@
         <v>6</v>
       </c>
       <c r="K1488" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1489" spans="1:11">
@@ -52835,7 +52835,7 @@
         <v>1</v>
       </c>
       <c r="K1489" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1490" spans="1:11">
@@ -52870,7 +52870,7 @@
         <v>1</v>
       </c>
       <c r="K1490" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1491" spans="1:11">
@@ -52905,7 +52905,7 @@
         <v>14</v>
       </c>
       <c r="K1491" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1492" spans="1:11">
@@ -52940,7 +52940,7 @@
         <v>5</v>
       </c>
       <c r="K1492" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1493" spans="1:11">
@@ -52975,7 +52975,7 @@
         <v>5</v>
       </c>
       <c r="K1493" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1494" spans="1:11">
@@ -53010,7 +53010,7 @@
         <v>5</v>
       </c>
       <c r="K1494" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1495" spans="1:11">
@@ -53045,7 +53045,7 @@
         <v>2</v>
       </c>
       <c r="K1495" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1496" spans="1:11">
@@ -53080,7 +53080,7 @@
         <v>6</v>
       </c>
       <c r="K1496" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1497" spans="1:11">
@@ -53115,7 +53115,7 @@
         <v>3</v>
       </c>
       <c r="K1497" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1498" spans="1:11">
@@ -53150,7 +53150,7 @@
         <v>7</v>
       </c>
       <c r="K1498" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1499" spans="1:11">
@@ -53185,7 +53185,7 @@
         <v>6</v>
       </c>
       <c r="K1499" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1500" spans="1:11">
@@ -53220,7 +53220,7 @@
         <v>5</v>
       </c>
       <c r="K1500" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1501" spans="1:11">
@@ -53255,7 +53255,7 @@
         <v>1</v>
       </c>
       <c r="K1501" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1502" spans="1:11">
@@ -53290,7 +53290,7 @@
         <v>16</v>
       </c>
       <c r="K1502" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1503" spans="1:11">
@@ -53325,7 +53325,7 @@
         <v>5</v>
       </c>
       <c r="K1503" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1504" spans="1:11">
@@ -53360,7 +53360,7 @@
         <v>13</v>
       </c>
       <c r="K1504" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1505" spans="1:11">
@@ -53395,7 +53395,7 @@
         <v>0</v>
       </c>
       <c r="K1505" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1506" spans="1:11">
@@ -53430,7 +53430,7 @@
         <v>3</v>
       </c>
       <c r="K1506" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1507" spans="1:11">
@@ -53465,7 +53465,7 @@
         <v>0</v>
       </c>
       <c r="K1507" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1508" spans="1:11">
@@ -53500,7 +53500,7 @@
         <v>1</v>
       </c>
       <c r="K1508" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1509" spans="1:11">
@@ -53535,7 +53535,7 @@
         <v>0</v>
       </c>
       <c r="K1509" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1510" spans="1:11">
@@ -53570,7 +53570,7 @@
         <v>1</v>
       </c>
       <c r="K1510" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1511" spans="1:11">
@@ -53605,7 +53605,7 @@
         <v>1</v>
       </c>
       <c r="K1511" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1512" spans="1:11">
@@ -53640,7 +53640,7 @@
         <v>2</v>
       </c>
       <c r="K1512" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1513" spans="1:11">
@@ -53675,7 +53675,7 @@
         <v>2</v>
       </c>
       <c r="K1513" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1514" spans="1:11">
@@ -53710,7 +53710,7 @@
         <v>2</v>
       </c>
       <c r="K1514" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1515" spans="1:11">
@@ -53745,7 +53745,7 @@
         <v>1</v>
       </c>
       <c r="K1515" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1516" spans="1:11">
@@ -53780,7 +53780,7 @@
         <v>2</v>
       </c>
       <c r="K1516" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1517" spans="1:11">
@@ -53815,7 +53815,7 @@
         <v>1</v>
       </c>
       <c r="K1517" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1518" spans="1:11">
@@ -53850,7 +53850,7 @@
         <v>2</v>
       </c>
       <c r="K1518" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1519" spans="1:11">
@@ -53885,7 +53885,7 @@
         <v>10</v>
       </c>
       <c r="K1519" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1520" spans="1:11">
@@ -53920,7 +53920,7 @@
         <v>4</v>
       </c>
       <c r="K1520" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1521" spans="1:11">
@@ -53955,7 +53955,7 @@
         <v>8</v>
       </c>
       <c r="K1521" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1522" spans="1:11">
@@ -53990,7 +53990,7 @@
         <v>6</v>
       </c>
       <c r="K1522" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1523" spans="1:11">
@@ -54025,7 +54025,7 @@
         <v>2</v>
       </c>
       <c r="K1523" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1524" spans="1:11">
@@ -54060,7 +54060,7 @@
         <v>4</v>
       </c>
       <c r="K1524" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1525" spans="1:11">
@@ -54095,7 +54095,7 @@
         <v>4</v>
       </c>
       <c r="K1525" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1526" spans="1:11">
@@ -54130,7 +54130,7 @@
         <v>6</v>
       </c>
       <c r="K1526" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1527" spans="1:11">
@@ -54165,7 +54165,7 @@
         <v>7</v>
       </c>
       <c r="K1527" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1528" spans="1:11">
@@ -54200,7 +54200,7 @@
         <v>3</v>
       </c>
       <c r="K1528" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1529" spans="1:11">
@@ -54235,7 +54235,7 @@
         <v>4</v>
       </c>
       <c r="K1529" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1530" spans="1:11">
@@ -54270,7 +54270,7 @@
         <v>3</v>
       </c>
       <c r="K1530" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1531" spans="1:11">
@@ -54305,7 +54305,7 @@
         <v>7</v>
       </c>
       <c r="K1531" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1532" spans="1:11">
@@ -54340,7 +54340,7 @@
         <v>4</v>
       </c>
       <c r="K1532" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1533" spans="1:11">
@@ -54375,7 +54375,7 @@
         <v>5</v>
       </c>
       <c r="K1533" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1534" spans="1:11">
@@ -54410,7 +54410,7 @@
         <v>4</v>
       </c>
       <c r="K1534" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1535" spans="1:11">
@@ -54445,7 +54445,7 @@
         <v>6</v>
       </c>
       <c r="K1535" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1536" spans="1:11">
@@ -54480,7 +54480,7 @@
         <v>1</v>
       </c>
       <c r="K1536" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1537" spans="1:11">
@@ -54515,7 +54515,7 @@
         <v>2</v>
       </c>
       <c r="K1537" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1538" spans="1:11">
@@ -54550,7 +54550,7 @@
         <v>0</v>
       </c>
       <c r="K1538" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1539" spans="1:11">
@@ -54585,7 +54585,7 @@
         <v>1</v>
       </c>
       <c r="K1539" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1540" spans="1:11">
@@ -54620,7 +54620,7 @@
         <v>0</v>
       </c>
       <c r="K1540" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1541" spans="1:11">
@@ -54655,7 +54655,7 @@
         <v>0</v>
       </c>
       <c r="K1541" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1542" spans="1:11">
@@ -54690,7 +54690,7 @@
         <v>1</v>
       </c>
       <c r="K1542" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1543" spans="1:11">
@@ -54725,7 +54725,7 @@
         <v>4</v>
       </c>
       <c r="K1543" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1544" spans="1:11">
@@ -54760,7 +54760,7 @@
         <v>4</v>
       </c>
       <c r="K1544" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1545" spans="1:11">
@@ -54795,7 +54795,7 @@
         <v>4</v>
       </c>
       <c r="K1545" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1546" spans="1:11">
@@ -54830,7 +54830,7 @@
         <v>4</v>
       </c>
       <c r="K1546" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1547" spans="1:11">
@@ -54865,7 +54865,7 @@
         <v>3</v>
       </c>
       <c r="K1547" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1548" spans="1:11">
@@ -54900,7 +54900,7 @@
         <v>8</v>
       </c>
       <c r="K1548" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1549" spans="1:11">
@@ -54935,7 +54935,7 @@
         <v>14</v>
       </c>
       <c r="K1549" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1550" spans="1:11">
@@ -54970,7 +54970,7 @@
         <v>4</v>
       </c>
       <c r="K1550" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1551" spans="1:11">
@@ -55005,7 +55005,7 @@
         <v>5</v>
       </c>
       <c r="K1551" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1552" spans="1:11">
@@ -55040,7 +55040,7 @@
         <v>3</v>
       </c>
       <c r="K1552" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1553" spans="1:11">
@@ -55075,7 +55075,7 @@
         <v>3</v>
       </c>
       <c r="K1553" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1554" spans="1:11">
@@ -55110,7 +55110,7 @@
         <v>3</v>
       </c>
       <c r="K1554" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1555" spans="1:11">
@@ -55145,7 +55145,7 @@
         <v>3</v>
       </c>
       <c r="K1555" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1556" spans="1:11">
@@ -55180,7 +55180,7 @@
         <v>2</v>
       </c>
       <c r="K1556" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1557" spans="1:11">
@@ -55215,7 +55215,7 @@
         <v>4</v>
       </c>
       <c r="K1557" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1558" spans="1:11">
@@ -55250,7 +55250,7 @@
         <v>19</v>
       </c>
       <c r="K1558" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1559" spans="1:11">
@@ -55285,7 +55285,7 @@
         <v>42</v>
       </c>
       <c r="K1559" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1560" spans="1:11">
@@ -55320,7 +55320,7 @@
         <v>2</v>
       </c>
       <c r="K1560" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
       </c>
     </row>
     <row r="1561" spans="1:11">
@@ -55355,7 +55355,5467 @@
         <v>11</v>
       </c>
       <c r="K1561" s="2">
-        <v>45540.30590571978</v>
+        <v>45540.30590571759</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:11">
+      <c r="A1562" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1562">
+        <v>56</v>
+      </c>
+      <c r="G1562">
+        <v>34</v>
+      </c>
+      <c r="H1562" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1562">
+        <v>0</v>
+      </c>
+      <c r="J1562">
+        <v>34</v>
+      </c>
+      <c r="K1562" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:11">
+      <c r="A1563" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1563">
+        <v>22</v>
+      </c>
+      <c r="G1563">
+        <v>19</v>
+      </c>
+      <c r="H1563" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1563">
+        <v>0</v>
+      </c>
+      <c r="J1563">
+        <v>19</v>
+      </c>
+      <c r="K1563" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:11">
+      <c r="A1564" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1564">
+        <v>22</v>
+      </c>
+      <c r="G1564">
+        <v>8</v>
+      </c>
+      <c r="H1564" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1564">
+        <v>0</v>
+      </c>
+      <c r="J1564">
+        <v>8</v>
+      </c>
+      <c r="K1564" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:11">
+      <c r="A1565" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1565">
+        <v>61</v>
+      </c>
+      <c r="G1565">
+        <v>30</v>
+      </c>
+      <c r="H1565" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1565">
+        <v>0</v>
+      </c>
+      <c r="J1565">
+        <v>30</v>
+      </c>
+      <c r="K1565" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:11">
+      <c r="A1566" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1566">
+        <v>20</v>
+      </c>
+      <c r="G1566">
+        <v>10</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1566">
+        <v>0</v>
+      </c>
+      <c r="J1566">
+        <v>10</v>
+      </c>
+      <c r="K1566" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:11">
+      <c r="A1567" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1567">
+        <v>12</v>
+      </c>
+      <c r="G1567">
+        <v>4</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1567">
+        <v>0</v>
+      </c>
+      <c r="J1567">
+        <v>4</v>
+      </c>
+      <c r="K1567" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:11">
+      <c r="A1568" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1568">
+        <v>4</v>
+      </c>
+      <c r="G1568">
+        <v>1</v>
+      </c>
+      <c r="H1568" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1568">
+        <v>0</v>
+      </c>
+      <c r="J1568">
+        <v>1</v>
+      </c>
+      <c r="K1568" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:11">
+      <c r="A1569" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1569">
+        <v>2</v>
+      </c>
+      <c r="G1569">
+        <v>0</v>
+      </c>
+      <c r="H1569" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1569">
+        <v>0</v>
+      </c>
+      <c r="J1569">
+        <v>0</v>
+      </c>
+      <c r="K1569" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:11">
+      <c r="A1570" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1570">
+        <v>177</v>
+      </c>
+      <c r="G1570">
+        <v>69</v>
+      </c>
+      <c r="H1570" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1570">
+        <v>0</v>
+      </c>
+      <c r="J1570">
+        <v>69</v>
+      </c>
+      <c r="K1570" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:11">
+      <c r="A1571" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1571">
+        <v>126</v>
+      </c>
+      <c r="G1571">
+        <v>57</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1571">
+        <v>0</v>
+      </c>
+      <c r="J1571">
+        <v>57</v>
+      </c>
+      <c r="K1571" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:11">
+      <c r="A1572" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1572">
+        <v>190</v>
+      </c>
+      <c r="G1572">
+        <v>89</v>
+      </c>
+      <c r="H1572" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1572">
+        <v>0</v>
+      </c>
+      <c r="J1572">
+        <v>89</v>
+      </c>
+      <c r="K1572" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:11">
+      <c r="A1573" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1573">
+        <v>61</v>
+      </c>
+      <c r="G1573">
+        <v>24</v>
+      </c>
+      <c r="H1573" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1573">
+        <v>0</v>
+      </c>
+      <c r="J1573">
+        <v>24</v>
+      </c>
+      <c r="K1573" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:11">
+      <c r="A1574" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1574">
+        <v>56</v>
+      </c>
+      <c r="G1574">
+        <v>23</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1574">
+        <v>0</v>
+      </c>
+      <c r="J1574">
+        <v>23</v>
+      </c>
+      <c r="K1574" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:11">
+      <c r="A1575" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1575">
+        <v>76</v>
+      </c>
+      <c r="G1575">
+        <v>20</v>
+      </c>
+      <c r="H1575" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1575">
+        <v>0</v>
+      </c>
+      <c r="J1575">
+        <v>20</v>
+      </c>
+      <c r="K1575" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:11">
+      <c r="A1576" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1576">
+        <v>70</v>
+      </c>
+      <c r="G1576">
+        <v>29</v>
+      </c>
+      <c r="H1576" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1576">
+        <v>0</v>
+      </c>
+      <c r="J1576">
+        <v>29</v>
+      </c>
+      <c r="K1576" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:11">
+      <c r="A1577" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1577">
+        <v>34</v>
+      </c>
+      <c r="G1577">
+        <v>14</v>
+      </c>
+      <c r="H1577" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1577">
+        <v>0</v>
+      </c>
+      <c r="J1577">
+        <v>14</v>
+      </c>
+      <c r="K1577" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:11">
+      <c r="A1578" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1578">
+        <v>27</v>
+      </c>
+      <c r="G1578">
+        <v>9</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1578">
+        <v>0</v>
+      </c>
+      <c r="J1578">
+        <v>9</v>
+      </c>
+      <c r="K1578" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:11">
+      <c r="A1579" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1579">
+        <v>12</v>
+      </c>
+      <c r="G1579">
+        <v>2</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1579">
+        <v>0</v>
+      </c>
+      <c r="J1579">
+        <v>2</v>
+      </c>
+      <c r="K1579" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:11">
+      <c r="A1580" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1580">
+        <v>47</v>
+      </c>
+      <c r="G1580">
+        <v>16</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1580">
+        <v>0</v>
+      </c>
+      <c r="J1580">
+        <v>16</v>
+      </c>
+      <c r="K1580" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:11">
+      <c r="A1581" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1581">
+        <v>62</v>
+      </c>
+      <c r="G1581">
+        <v>31</v>
+      </c>
+      <c r="H1581" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1581">
+        <v>0</v>
+      </c>
+      <c r="J1581">
+        <v>31</v>
+      </c>
+      <c r="K1581" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:11">
+      <c r="A1582" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1582">
+        <v>77</v>
+      </c>
+      <c r="G1582">
+        <v>29</v>
+      </c>
+      <c r="H1582" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1582">
+        <v>0</v>
+      </c>
+      <c r="J1582">
+        <v>29</v>
+      </c>
+      <c r="K1582" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:11">
+      <c r="A1583" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1583">
+        <v>81</v>
+      </c>
+      <c r="G1583">
+        <v>33</v>
+      </c>
+      <c r="H1583" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1583">
+        <v>0</v>
+      </c>
+      <c r="J1583">
+        <v>33</v>
+      </c>
+      <c r="K1583" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:11">
+      <c r="A1584" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1584">
+        <v>88</v>
+      </c>
+      <c r="G1584">
+        <v>39</v>
+      </c>
+      <c r="H1584" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1584">
+        <v>0</v>
+      </c>
+      <c r="J1584">
+        <v>39</v>
+      </c>
+      <c r="K1584" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:11">
+      <c r="A1585" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1585">
+        <v>77</v>
+      </c>
+      <c r="G1585">
+        <v>27</v>
+      </c>
+      <c r="H1585" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1585">
+        <v>0</v>
+      </c>
+      <c r="J1585">
+        <v>27</v>
+      </c>
+      <c r="K1585" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:11">
+      <c r="A1586" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1586">
+        <v>46</v>
+      </c>
+      <c r="G1586">
+        <v>17</v>
+      </c>
+      <c r="H1586" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1586">
+        <v>0</v>
+      </c>
+      <c r="J1586">
+        <v>17</v>
+      </c>
+      <c r="K1586" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:11">
+      <c r="A1587" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1587">
+        <v>118</v>
+      </c>
+      <c r="G1587">
+        <v>54</v>
+      </c>
+      <c r="H1587" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1587">
+        <v>0</v>
+      </c>
+      <c r="J1587">
+        <v>54</v>
+      </c>
+      <c r="K1587" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:11">
+      <c r="A1588" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1588">
+        <v>76</v>
+      </c>
+      <c r="G1588">
+        <v>19</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1588">
+        <v>0</v>
+      </c>
+      <c r="J1588">
+        <v>19</v>
+      </c>
+      <c r="K1588" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:11">
+      <c r="A1589" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1589">
+        <v>77</v>
+      </c>
+      <c r="G1589">
+        <v>37</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1589">
+        <v>0</v>
+      </c>
+      <c r="J1589">
+        <v>37</v>
+      </c>
+      <c r="K1589" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:11">
+      <c r="A1590" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1590">
+        <v>80</v>
+      </c>
+      <c r="G1590">
+        <v>38</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1590">
+        <v>0</v>
+      </c>
+      <c r="J1590">
+        <v>38</v>
+      </c>
+      <c r="K1590" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:11">
+      <c r="A1591" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1591">
+        <v>34</v>
+      </c>
+      <c r="G1591">
+        <v>15</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1591">
+        <v>0</v>
+      </c>
+      <c r="J1591">
+        <v>15</v>
+      </c>
+      <c r="K1591" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:11">
+      <c r="A1592" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1592">
+        <v>82</v>
+      </c>
+      <c r="G1592">
+        <v>40</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1592">
+        <v>0</v>
+      </c>
+      <c r="J1592">
+        <v>40</v>
+      </c>
+      <c r="K1592" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:11">
+      <c r="A1593" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1593">
+        <v>114</v>
+      </c>
+      <c r="G1593">
+        <v>49</v>
+      </c>
+      <c r="H1593" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1593">
+        <v>0</v>
+      </c>
+      <c r="J1593">
+        <v>49</v>
+      </c>
+      <c r="K1593" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:11">
+      <c r="A1594" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1594">
+        <v>87</v>
+      </c>
+      <c r="G1594">
+        <v>39</v>
+      </c>
+      <c r="H1594" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1594">
+        <v>0</v>
+      </c>
+      <c r="J1594">
+        <v>39</v>
+      </c>
+      <c r="K1594" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:11">
+      <c r="A1595" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1595">
+        <v>56</v>
+      </c>
+      <c r="G1595">
+        <v>27</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1595">
+        <v>0</v>
+      </c>
+      <c r="J1595">
+        <v>27</v>
+      </c>
+      <c r="K1595" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:11">
+      <c r="A1596" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1596">
+        <v>28</v>
+      </c>
+      <c r="G1596">
+        <v>14</v>
+      </c>
+      <c r="H1596" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1596">
+        <v>0</v>
+      </c>
+      <c r="J1596">
+        <v>14</v>
+      </c>
+      <c r="K1596" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:11">
+      <c r="A1597" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1597">
+        <v>57</v>
+      </c>
+      <c r="G1597">
+        <v>20</v>
+      </c>
+      <c r="H1597" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1597">
+        <v>0</v>
+      </c>
+      <c r="J1597">
+        <v>20</v>
+      </c>
+      <c r="K1597" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:11">
+      <c r="A1598" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1598">
+        <v>40</v>
+      </c>
+      <c r="G1598">
+        <v>20</v>
+      </c>
+      <c r="H1598" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1598">
+        <v>0</v>
+      </c>
+      <c r="J1598">
+        <v>20</v>
+      </c>
+      <c r="K1598" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:11">
+      <c r="A1599" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1599">
+        <v>92</v>
+      </c>
+      <c r="G1599">
+        <v>29</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1599">
+        <v>0</v>
+      </c>
+      <c r="J1599">
+        <v>29</v>
+      </c>
+      <c r="K1599" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:11">
+      <c r="A1600" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1600">
+        <v>111</v>
+      </c>
+      <c r="G1600">
+        <v>40</v>
+      </c>
+      <c r="H1600" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1600">
+        <v>0</v>
+      </c>
+      <c r="J1600">
+        <v>40</v>
+      </c>
+      <c r="K1600" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:11">
+      <c r="A1601" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1601">
+        <v>152</v>
+      </c>
+      <c r="G1601">
+        <v>50</v>
+      </c>
+      <c r="H1601" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1601">
+        <v>0</v>
+      </c>
+      <c r="J1601">
+        <v>50</v>
+      </c>
+      <c r="K1601" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:11">
+      <c r="A1602" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1602">
+        <v>133</v>
+      </c>
+      <c r="G1602">
+        <v>57</v>
+      </c>
+      <c r="H1602" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1602">
+        <v>0</v>
+      </c>
+      <c r="J1602">
+        <v>57</v>
+      </c>
+      <c r="K1602" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:11">
+      <c r="A1603" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1603">
+        <v>39</v>
+      </c>
+      <c r="G1603">
+        <v>14</v>
+      </c>
+      <c r="H1603" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1603">
+        <v>0</v>
+      </c>
+      <c r="J1603">
+        <v>14</v>
+      </c>
+      <c r="K1603" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:11">
+      <c r="A1604" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1604">
+        <v>122</v>
+      </c>
+      <c r="G1604">
+        <v>52</v>
+      </c>
+      <c r="H1604" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1604">
+        <v>0</v>
+      </c>
+      <c r="J1604">
+        <v>52</v>
+      </c>
+      <c r="K1604" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:11">
+      <c r="A1605" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1605">
+        <v>50</v>
+      </c>
+      <c r="G1605">
+        <v>26</v>
+      </c>
+      <c r="H1605" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1605">
+        <v>0</v>
+      </c>
+      <c r="J1605">
+        <v>26</v>
+      </c>
+      <c r="K1605" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:11">
+      <c r="A1606" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1606">
+        <v>98</v>
+      </c>
+      <c r="G1606">
+        <v>41</v>
+      </c>
+      <c r="H1606" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1606">
+        <v>0</v>
+      </c>
+      <c r="J1606">
+        <v>41</v>
+      </c>
+      <c r="K1606" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:11">
+      <c r="A1607" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1607">
+        <v>172</v>
+      </c>
+      <c r="G1607">
+        <v>64</v>
+      </c>
+      <c r="H1607" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1607">
+        <v>0</v>
+      </c>
+      <c r="J1607">
+        <v>64</v>
+      </c>
+      <c r="K1607" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:11">
+      <c r="A1608" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1608">
+        <v>85</v>
+      </c>
+      <c r="G1608">
+        <v>22</v>
+      </c>
+      <c r="H1608" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1608">
+        <v>0</v>
+      </c>
+      <c r="J1608">
+        <v>22</v>
+      </c>
+      <c r="K1608" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:11">
+      <c r="A1609" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1609">
+        <v>93</v>
+      </c>
+      <c r="G1609">
+        <v>40</v>
+      </c>
+      <c r="H1609" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1609">
+        <v>0</v>
+      </c>
+      <c r="J1609">
+        <v>40</v>
+      </c>
+      <c r="K1609" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:11">
+      <c r="A1610" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1610">
+        <v>69</v>
+      </c>
+      <c r="G1610">
+        <v>27</v>
+      </c>
+      <c r="H1610" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1610">
+        <v>0</v>
+      </c>
+      <c r="J1610">
+        <v>27</v>
+      </c>
+      <c r="K1610" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:11">
+      <c r="A1611" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1611">
+        <v>77</v>
+      </c>
+      <c r="G1611">
+        <v>31</v>
+      </c>
+      <c r="H1611" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1611">
+        <v>0</v>
+      </c>
+      <c r="J1611">
+        <v>31</v>
+      </c>
+      <c r="K1611" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11">
+      <c r="A1612" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1612">
+        <v>3</v>
+      </c>
+      <c r="G1612">
+        <v>2</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1612">
+        <v>0</v>
+      </c>
+      <c r="J1612">
+        <v>2</v>
+      </c>
+      <c r="K1612" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:11">
+      <c r="A1613" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1613">
+        <v>27</v>
+      </c>
+      <c r="G1613">
+        <v>13</v>
+      </c>
+      <c r="H1613" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1613">
+        <v>0</v>
+      </c>
+      <c r="J1613">
+        <v>13</v>
+      </c>
+      <c r="K1613" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:11">
+      <c r="A1614" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1614">
+        <v>9</v>
+      </c>
+      <c r="G1614">
+        <v>5</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1614">
+        <v>0</v>
+      </c>
+      <c r="J1614">
+        <v>5</v>
+      </c>
+      <c r="K1614" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:11">
+      <c r="A1615" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1615">
+        <v>6</v>
+      </c>
+      <c r="G1615">
+        <v>0</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1615">
+        <v>0</v>
+      </c>
+      <c r="J1615">
+        <v>0</v>
+      </c>
+      <c r="K1615" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:11">
+      <c r="A1616" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1616">
+        <v>0</v>
+      </c>
+      <c r="G1616">
+        <v>0</v>
+      </c>
+      <c r="H1616" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1616">
+        <v>0</v>
+      </c>
+      <c r="J1616">
+        <v>0</v>
+      </c>
+      <c r="K1616" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:11">
+      <c r="A1617" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1617">
+        <v>1</v>
+      </c>
+      <c r="G1617">
+        <v>0</v>
+      </c>
+      <c r="H1617" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1617">
+        <v>0</v>
+      </c>
+      <c r="J1617">
+        <v>0</v>
+      </c>
+      <c r="K1617" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11">
+      <c r="A1618" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1618">
+        <v>4</v>
+      </c>
+      <c r="G1618">
+        <v>1</v>
+      </c>
+      <c r="H1618" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1618">
+        <v>0</v>
+      </c>
+      <c r="J1618">
+        <v>1</v>
+      </c>
+      <c r="K1618" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:11">
+      <c r="A1619" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1619">
+        <v>5</v>
+      </c>
+      <c r="G1619">
+        <v>1</v>
+      </c>
+      <c r="H1619" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1619">
+        <v>0</v>
+      </c>
+      <c r="J1619">
+        <v>1</v>
+      </c>
+      <c r="K1619" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:11">
+      <c r="A1620" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1620">
+        <v>9</v>
+      </c>
+      <c r="G1620">
+        <v>2</v>
+      </c>
+      <c r="H1620" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1620">
+        <v>0</v>
+      </c>
+      <c r="J1620">
+        <v>2</v>
+      </c>
+      <c r="K1620" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:11">
+      <c r="A1621" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1621">
+        <v>0</v>
+      </c>
+      <c r="G1621">
+        <v>0</v>
+      </c>
+      <c r="H1621" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1621">
+        <v>0</v>
+      </c>
+      <c r="J1621">
+        <v>0</v>
+      </c>
+      <c r="K1621" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:11">
+      <c r="A1622" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1622">
+        <v>0</v>
+      </c>
+      <c r="G1622">
+        <v>0</v>
+      </c>
+      <c r="H1622" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1622">
+        <v>0</v>
+      </c>
+      <c r="J1622">
+        <v>0</v>
+      </c>
+      <c r="K1622" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:11">
+      <c r="A1623" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1623">
+        <v>1</v>
+      </c>
+      <c r="G1623">
+        <v>0</v>
+      </c>
+      <c r="H1623" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1623">
+        <v>0</v>
+      </c>
+      <c r="J1623">
+        <v>0</v>
+      </c>
+      <c r="K1623" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:11">
+      <c r="A1624" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1624">
+        <v>1</v>
+      </c>
+      <c r="G1624">
+        <v>1</v>
+      </c>
+      <c r="H1624" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1624">
+        <v>0</v>
+      </c>
+      <c r="J1624">
+        <v>1</v>
+      </c>
+      <c r="K1624" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:11">
+      <c r="A1625" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1625">
+        <v>0</v>
+      </c>
+      <c r="G1625">
+        <v>0</v>
+      </c>
+      <c r="H1625" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1625">
+        <v>0</v>
+      </c>
+      <c r="J1625">
+        <v>0</v>
+      </c>
+      <c r="K1625" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11">
+      <c r="A1626" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1626">
+        <v>89</v>
+      </c>
+      <c r="G1626">
+        <v>37</v>
+      </c>
+      <c r="H1626" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1626">
+        <v>0</v>
+      </c>
+      <c r="J1626">
+        <v>37</v>
+      </c>
+      <c r="K1626" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:11">
+      <c r="A1627" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1627">
+        <v>6</v>
+      </c>
+      <c r="G1627">
+        <v>2</v>
+      </c>
+      <c r="H1627" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1627">
+        <v>0</v>
+      </c>
+      <c r="J1627">
+        <v>2</v>
+      </c>
+      <c r="K1627" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:11">
+      <c r="A1628" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1628">
+        <v>55</v>
+      </c>
+      <c r="G1628">
+        <v>19</v>
+      </c>
+      <c r="H1628" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1628">
+        <v>0</v>
+      </c>
+      <c r="J1628">
+        <v>19</v>
+      </c>
+      <c r="K1628" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:11">
+      <c r="A1629" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1629">
+        <v>47</v>
+      </c>
+      <c r="G1629">
+        <v>11</v>
+      </c>
+      <c r="H1629" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1629">
+        <v>0</v>
+      </c>
+      <c r="J1629">
+        <v>11</v>
+      </c>
+      <c r="K1629" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11">
+      <c r="A1630" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1630">
+        <v>25</v>
+      </c>
+      <c r="G1630">
+        <v>16</v>
+      </c>
+      <c r="H1630" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1630">
+        <v>0</v>
+      </c>
+      <c r="J1630">
+        <v>16</v>
+      </c>
+      <c r="K1630" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:11">
+      <c r="A1631" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1631">
+        <v>2</v>
+      </c>
+      <c r="G1631">
+        <v>1</v>
+      </c>
+      <c r="H1631" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1631">
+        <v>0</v>
+      </c>
+      <c r="J1631">
+        <v>1</v>
+      </c>
+      <c r="K1631" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11">
+      <c r="A1632" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1632">
+        <v>0</v>
+      </c>
+      <c r="G1632">
+        <v>0</v>
+      </c>
+      <c r="H1632" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1632">
+        <v>0</v>
+      </c>
+      <c r="J1632">
+        <v>0</v>
+      </c>
+      <c r="K1632" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:11">
+      <c r="A1633" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1633">
+        <v>4</v>
+      </c>
+      <c r="G1633">
+        <v>1</v>
+      </c>
+      <c r="H1633" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1633">
+        <v>0</v>
+      </c>
+      <c r="J1633">
+        <v>1</v>
+      </c>
+      <c r="K1633" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:11">
+      <c r="A1634" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1634">
+        <v>1</v>
+      </c>
+      <c r="G1634">
+        <v>0</v>
+      </c>
+      <c r="H1634" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1634">
+        <v>0</v>
+      </c>
+      <c r="J1634">
+        <v>0</v>
+      </c>
+      <c r="K1634" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:11">
+      <c r="A1635" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1635">
+        <v>12</v>
+      </c>
+      <c r="G1635">
+        <v>4</v>
+      </c>
+      <c r="H1635" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1635">
+        <v>0</v>
+      </c>
+      <c r="J1635">
+        <v>4</v>
+      </c>
+      <c r="K1635" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:11">
+      <c r="A1636" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1636">
+        <v>7</v>
+      </c>
+      <c r="G1636">
+        <v>1</v>
+      </c>
+      <c r="H1636" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1636">
+        <v>0</v>
+      </c>
+      <c r="J1636">
+        <v>1</v>
+      </c>
+      <c r="K1636" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:11">
+      <c r="A1637" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1637">
+        <v>11</v>
+      </c>
+      <c r="G1637">
+        <v>6</v>
+      </c>
+      <c r="H1637" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1637">
+        <v>0</v>
+      </c>
+      <c r="J1637">
+        <v>6</v>
+      </c>
+      <c r="K1637" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:11">
+      <c r="A1638" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1638">
+        <v>3</v>
+      </c>
+      <c r="G1638">
+        <v>1</v>
+      </c>
+      <c r="H1638" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1638">
+        <v>0</v>
+      </c>
+      <c r="J1638">
+        <v>1</v>
+      </c>
+      <c r="K1638" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:11">
+      <c r="A1639" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1639">
+        <v>5</v>
+      </c>
+      <c r="G1639">
+        <v>3</v>
+      </c>
+      <c r="H1639" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1639">
+        <v>0</v>
+      </c>
+      <c r="J1639">
+        <v>3</v>
+      </c>
+      <c r="K1639" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:11">
+      <c r="A1640" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1640">
+        <v>3</v>
+      </c>
+      <c r="G1640">
+        <v>0</v>
+      </c>
+      <c r="H1640" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1640">
+        <v>0</v>
+      </c>
+      <c r="J1640">
+        <v>0</v>
+      </c>
+      <c r="K1640" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:11">
+      <c r="A1641" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1641">
+        <v>1</v>
+      </c>
+      <c r="G1641">
+        <v>0</v>
+      </c>
+      <c r="H1641" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1641">
+        <v>0</v>
+      </c>
+      <c r="J1641">
+        <v>0</v>
+      </c>
+      <c r="K1641" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:11">
+      <c r="A1642" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1642">
+        <v>1</v>
+      </c>
+      <c r="G1642">
+        <v>0</v>
+      </c>
+      <c r="H1642" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1642">
+        <v>0</v>
+      </c>
+      <c r="J1642">
+        <v>0</v>
+      </c>
+      <c r="K1642" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:11">
+      <c r="A1643" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1643">
+        <v>12</v>
+      </c>
+      <c r="G1643">
+        <v>3</v>
+      </c>
+      <c r="H1643" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1643">
+        <v>0</v>
+      </c>
+      <c r="J1643">
+        <v>3</v>
+      </c>
+      <c r="K1643" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:11">
+      <c r="A1644" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1644">
+        <v>15</v>
+      </c>
+      <c r="G1644">
+        <v>6</v>
+      </c>
+      <c r="H1644" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1644">
+        <v>0</v>
+      </c>
+      <c r="J1644">
+        <v>6</v>
+      </c>
+      <c r="K1644" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:11">
+      <c r="A1645" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1645">
+        <v>5</v>
+      </c>
+      <c r="G1645">
+        <v>1</v>
+      </c>
+      <c r="H1645" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1645">
+        <v>0</v>
+      </c>
+      <c r="J1645">
+        <v>1</v>
+      </c>
+      <c r="K1645" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:11">
+      <c r="A1646" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1646">
+        <v>2</v>
+      </c>
+      <c r="G1646">
+        <v>1</v>
+      </c>
+      <c r="H1646" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1646">
+        <v>0</v>
+      </c>
+      <c r="J1646">
+        <v>1</v>
+      </c>
+      <c r="K1646" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:11">
+      <c r="A1647" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1647">
+        <v>42</v>
+      </c>
+      <c r="G1647">
+        <v>14</v>
+      </c>
+      <c r="H1647" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1647">
+        <v>0</v>
+      </c>
+      <c r="J1647">
+        <v>14</v>
+      </c>
+      <c r="K1647" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:11">
+      <c r="A1648" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1648">
+        <v>16</v>
+      </c>
+      <c r="G1648">
+        <v>5</v>
+      </c>
+      <c r="H1648" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1648">
+        <v>0</v>
+      </c>
+      <c r="J1648">
+        <v>5</v>
+      </c>
+      <c r="K1648" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11">
+      <c r="A1649" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1649">
+        <v>34</v>
+      </c>
+      <c r="G1649">
+        <v>5</v>
+      </c>
+      <c r="H1649" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1649">
+        <v>0</v>
+      </c>
+      <c r="J1649">
+        <v>5</v>
+      </c>
+      <c r="K1649" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11">
+      <c r="A1650" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1650">
+        <v>9</v>
+      </c>
+      <c r="G1650">
+        <v>5</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1650">
+        <v>0</v>
+      </c>
+      <c r="J1650">
+        <v>5</v>
+      </c>
+      <c r="K1650" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11">
+      <c r="A1651" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1651" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1651">
+        <v>5</v>
+      </c>
+      <c r="G1651">
+        <v>2</v>
+      </c>
+      <c r="H1651" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1651">
+        <v>0</v>
+      </c>
+      <c r="J1651">
+        <v>2</v>
+      </c>
+      <c r="K1651" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11">
+      <c r="A1652" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1652">
+        <v>15</v>
+      </c>
+      <c r="G1652">
+        <v>6</v>
+      </c>
+      <c r="H1652" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1652">
+        <v>0</v>
+      </c>
+      <c r="J1652">
+        <v>6</v>
+      </c>
+      <c r="K1652" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11">
+      <c r="A1653" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1653">
+        <v>15</v>
+      </c>
+      <c r="G1653">
+        <v>3</v>
+      </c>
+      <c r="H1653" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1653">
+        <v>0</v>
+      </c>
+      <c r="J1653">
+        <v>3</v>
+      </c>
+      <c r="K1653" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11">
+      <c r="A1654" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1654">
+        <v>10</v>
+      </c>
+      <c r="G1654">
+        <v>7</v>
+      </c>
+      <c r="H1654" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1654">
+        <v>0</v>
+      </c>
+      <c r="J1654">
+        <v>7</v>
+      </c>
+      <c r="K1654" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11">
+      <c r="A1655" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1655">
+        <v>15</v>
+      </c>
+      <c r="G1655">
+        <v>6</v>
+      </c>
+      <c r="H1655" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1655">
+        <v>0</v>
+      </c>
+      <c r="J1655">
+        <v>6</v>
+      </c>
+      <c r="K1655" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11">
+      <c r="A1656" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1656">
+        <v>13</v>
+      </c>
+      <c r="G1656">
+        <v>5</v>
+      </c>
+      <c r="H1656" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1656">
+        <v>0</v>
+      </c>
+      <c r="J1656">
+        <v>5</v>
+      </c>
+      <c r="K1656" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11">
+      <c r="A1657" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1657">
+        <v>13</v>
+      </c>
+      <c r="G1657">
+        <v>1</v>
+      </c>
+      <c r="H1657" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1657">
+        <v>0</v>
+      </c>
+      <c r="J1657">
+        <v>1</v>
+      </c>
+      <c r="K1657" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11">
+      <c r="A1658" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1658">
+        <v>35</v>
+      </c>
+      <c r="G1658">
+        <v>16</v>
+      </c>
+      <c r="H1658" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1658">
+        <v>0</v>
+      </c>
+      <c r="J1658">
+        <v>16</v>
+      </c>
+      <c r="K1658" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11">
+      <c r="A1659" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1659">
+        <v>9</v>
+      </c>
+      <c r="G1659">
+        <v>5</v>
+      </c>
+      <c r="H1659" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1659">
+        <v>0</v>
+      </c>
+      <c r="J1659">
+        <v>5</v>
+      </c>
+      <c r="K1659" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11">
+      <c r="A1660" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1660">
+        <v>27</v>
+      </c>
+      <c r="G1660">
+        <v>13</v>
+      </c>
+      <c r="H1660" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1660">
+        <v>0</v>
+      </c>
+      <c r="J1660">
+        <v>13</v>
+      </c>
+      <c r="K1660" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11">
+      <c r="A1661" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1661">
+        <v>6</v>
+      </c>
+      <c r="G1661">
+        <v>0</v>
+      </c>
+      <c r="H1661" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1661">
+        <v>0</v>
+      </c>
+      <c r="J1661">
+        <v>0</v>
+      </c>
+      <c r="K1661" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11">
+      <c r="A1662" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1662">
+        <v>3</v>
+      </c>
+      <c r="G1662">
+        <v>3</v>
+      </c>
+      <c r="H1662" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1662">
+        <v>0</v>
+      </c>
+      <c r="J1662">
+        <v>3</v>
+      </c>
+      <c r="K1662" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11">
+      <c r="A1663" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1663">
+        <v>1</v>
+      </c>
+      <c r="G1663">
+        <v>0</v>
+      </c>
+      <c r="H1663" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1663">
+        <v>0</v>
+      </c>
+      <c r="J1663">
+        <v>0</v>
+      </c>
+      <c r="K1663" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11">
+      <c r="A1664" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1664">
+        <v>2</v>
+      </c>
+      <c r="G1664">
+        <v>1</v>
+      </c>
+      <c r="H1664" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1664">
+        <v>0</v>
+      </c>
+      <c r="J1664">
+        <v>1</v>
+      </c>
+      <c r="K1664" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11">
+      <c r="A1665" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1665">
+        <v>0</v>
+      </c>
+      <c r="G1665">
+        <v>0</v>
+      </c>
+      <c r="H1665" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1665">
+        <v>0</v>
+      </c>
+      <c r="J1665">
+        <v>0</v>
+      </c>
+      <c r="K1665" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11">
+      <c r="A1666" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1666">
+        <v>2</v>
+      </c>
+      <c r="G1666">
+        <v>1</v>
+      </c>
+      <c r="H1666" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1666">
+        <v>0</v>
+      </c>
+      <c r="J1666">
+        <v>1</v>
+      </c>
+      <c r="K1666" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11">
+      <c r="A1667" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1667">
+        <v>4</v>
+      </c>
+      <c r="G1667">
+        <v>1</v>
+      </c>
+      <c r="H1667" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1667">
+        <v>0</v>
+      </c>
+      <c r="J1667">
+        <v>1</v>
+      </c>
+      <c r="K1667" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11">
+      <c r="A1668" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1668">
+        <v>6</v>
+      </c>
+      <c r="G1668">
+        <v>2</v>
+      </c>
+      <c r="H1668" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1668">
+        <v>0</v>
+      </c>
+      <c r="J1668">
+        <v>2</v>
+      </c>
+      <c r="K1668" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11">
+      <c r="A1669" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1669">
+        <v>2</v>
+      </c>
+      <c r="G1669">
+        <v>2</v>
+      </c>
+      <c r="H1669" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1669">
+        <v>0</v>
+      </c>
+      <c r="J1669">
+        <v>2</v>
+      </c>
+      <c r="K1669" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11">
+      <c r="A1670" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1670">
+        <v>7</v>
+      </c>
+      <c r="G1670">
+        <v>2</v>
+      </c>
+      <c r="H1670" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1670">
+        <v>0</v>
+      </c>
+      <c r="J1670">
+        <v>2</v>
+      </c>
+      <c r="K1670" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11">
+      <c r="A1671" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1671">
+        <v>7</v>
+      </c>
+      <c r="G1671">
+        <v>1</v>
+      </c>
+      <c r="H1671" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1671">
+        <v>0</v>
+      </c>
+      <c r="J1671">
+        <v>1</v>
+      </c>
+      <c r="K1671" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11">
+      <c r="A1672" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1672">
+        <v>10</v>
+      </c>
+      <c r="G1672">
+        <v>2</v>
+      </c>
+      <c r="H1672" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1672">
+        <v>0</v>
+      </c>
+      <c r="J1672">
+        <v>2</v>
+      </c>
+      <c r="K1672" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11">
+      <c r="A1673" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1673">
+        <v>12</v>
+      </c>
+      <c r="G1673">
+        <v>1</v>
+      </c>
+      <c r="H1673" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1673">
+        <v>0</v>
+      </c>
+      <c r="J1673">
+        <v>1</v>
+      </c>
+      <c r="K1673" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11">
+      <c r="A1674" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1674">
+        <v>9</v>
+      </c>
+      <c r="G1674">
+        <v>2</v>
+      </c>
+      <c r="H1674" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1674">
+        <v>0</v>
+      </c>
+      <c r="J1674">
+        <v>2</v>
+      </c>
+      <c r="K1674" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11">
+      <c r="A1675" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1675">
+        <v>20</v>
+      </c>
+      <c r="G1675">
+        <v>10</v>
+      </c>
+      <c r="H1675" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1675">
+        <v>0</v>
+      </c>
+      <c r="J1675">
+        <v>10</v>
+      </c>
+      <c r="K1675" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11">
+      <c r="A1676" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1676">
+        <v>15</v>
+      </c>
+      <c r="G1676">
+        <v>4</v>
+      </c>
+      <c r="H1676" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1676">
+        <v>0</v>
+      </c>
+      <c r="J1676">
+        <v>4</v>
+      </c>
+      <c r="K1676" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11">
+      <c r="A1677" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1677">
+        <v>20</v>
+      </c>
+      <c r="G1677">
+        <v>8</v>
+      </c>
+      <c r="H1677" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1677">
+        <v>0</v>
+      </c>
+      <c r="J1677">
+        <v>8</v>
+      </c>
+      <c r="K1677" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11">
+      <c r="A1678" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1678">
+        <v>16</v>
+      </c>
+      <c r="G1678">
+        <v>6</v>
+      </c>
+      <c r="H1678" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1678">
+        <v>0</v>
+      </c>
+      <c r="J1678">
+        <v>6</v>
+      </c>
+      <c r="K1678" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11">
+      <c r="A1679" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1679">
+        <v>6</v>
+      </c>
+      <c r="G1679">
+        <v>2</v>
+      </c>
+      <c r="H1679" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1679">
+        <v>0</v>
+      </c>
+      <c r="J1679">
+        <v>2</v>
+      </c>
+      <c r="K1679" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11">
+      <c r="A1680" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1680">
+        <v>10</v>
+      </c>
+      <c r="G1680">
+        <v>4</v>
+      </c>
+      <c r="H1680" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1680">
+        <v>0</v>
+      </c>
+      <c r="J1680">
+        <v>4</v>
+      </c>
+      <c r="K1680" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:11">
+      <c r="A1681" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1681">
+        <v>14</v>
+      </c>
+      <c r="G1681">
+        <v>4</v>
+      </c>
+      <c r="H1681" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1681">
+        <v>0</v>
+      </c>
+      <c r="J1681">
+        <v>4</v>
+      </c>
+      <c r="K1681" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:11">
+      <c r="A1682" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1682">
+        <v>9</v>
+      </c>
+      <c r="G1682">
+        <v>6</v>
+      </c>
+      <c r="H1682" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1682">
+        <v>0</v>
+      </c>
+      <c r="J1682">
+        <v>6</v>
+      </c>
+      <c r="K1682" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:11">
+      <c r="A1683" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1683">
+        <v>16</v>
+      </c>
+      <c r="G1683">
+        <v>7</v>
+      </c>
+      <c r="H1683" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1683">
+        <v>0</v>
+      </c>
+      <c r="J1683">
+        <v>7</v>
+      </c>
+      <c r="K1683" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11">
+      <c r="A1684" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1684">
+        <v>14</v>
+      </c>
+      <c r="G1684">
+        <v>3</v>
+      </c>
+      <c r="H1684" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1684">
+        <v>0</v>
+      </c>
+      <c r="J1684">
+        <v>3</v>
+      </c>
+      <c r="K1684" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:11">
+      <c r="A1685" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1685">
+        <v>8</v>
+      </c>
+      <c r="G1685">
+        <v>4</v>
+      </c>
+      <c r="H1685" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1685">
+        <v>0</v>
+      </c>
+      <c r="J1685">
+        <v>4</v>
+      </c>
+      <c r="K1685" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11">
+      <c r="A1686" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1686">
+        <v>6</v>
+      </c>
+      <c r="G1686">
+        <v>3</v>
+      </c>
+      <c r="H1686" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1686">
+        <v>0</v>
+      </c>
+      <c r="J1686">
+        <v>3</v>
+      </c>
+      <c r="K1686" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:11">
+      <c r="A1687" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1687">
+        <v>24</v>
+      </c>
+      <c r="G1687">
+        <v>7</v>
+      </c>
+      <c r="H1687" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1687">
+        <v>0</v>
+      </c>
+      <c r="J1687">
+        <v>7</v>
+      </c>
+      <c r="K1687" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:11">
+      <c r="A1688" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1688">
+        <v>19</v>
+      </c>
+      <c r="G1688">
+        <v>4</v>
+      </c>
+      <c r="H1688" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1688">
+        <v>0</v>
+      </c>
+      <c r="J1688">
+        <v>4</v>
+      </c>
+      <c r="K1688" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:11">
+      <c r="A1689" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1689" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1689">
+        <v>11</v>
+      </c>
+      <c r="G1689">
+        <v>5</v>
+      </c>
+      <c r="H1689" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1689">
+        <v>0</v>
+      </c>
+      <c r="J1689">
+        <v>5</v>
+      </c>
+      <c r="K1689" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:11">
+      <c r="A1690" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1690">
+        <v>11</v>
+      </c>
+      <c r="G1690">
+        <v>4</v>
+      </c>
+      <c r="H1690" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1690">
+        <v>0</v>
+      </c>
+      <c r="J1690">
+        <v>4</v>
+      </c>
+      <c r="K1690" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:11">
+      <c r="A1691" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1691">
+        <v>16</v>
+      </c>
+      <c r="G1691">
+        <v>6</v>
+      </c>
+      <c r="H1691" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1691">
+        <v>0</v>
+      </c>
+      <c r="J1691">
+        <v>6</v>
+      </c>
+      <c r="K1691" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11">
+      <c r="A1692" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1692">
+        <v>3</v>
+      </c>
+      <c r="G1692">
+        <v>1</v>
+      </c>
+      <c r="H1692" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1692">
+        <v>0</v>
+      </c>
+      <c r="J1692">
+        <v>1</v>
+      </c>
+      <c r="K1692" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:11">
+      <c r="A1693" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1693" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1693">
+        <v>3</v>
+      </c>
+      <c r="G1693">
+        <v>2</v>
+      </c>
+      <c r="H1693" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1693">
+        <v>0</v>
+      </c>
+      <c r="J1693">
+        <v>2</v>
+      </c>
+      <c r="K1693" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:11">
+      <c r="A1694" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1694" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1694">
+        <v>2</v>
+      </c>
+      <c r="G1694">
+        <v>0</v>
+      </c>
+      <c r="H1694" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1694">
+        <v>0</v>
+      </c>
+      <c r="J1694">
+        <v>0</v>
+      </c>
+      <c r="K1694" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:11">
+      <c r="A1695" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1695">
+        <v>1</v>
+      </c>
+      <c r="G1695">
+        <v>1</v>
+      </c>
+      <c r="H1695" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1695">
+        <v>0</v>
+      </c>
+      <c r="J1695">
+        <v>1</v>
+      </c>
+      <c r="K1695" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:11">
+      <c r="A1696" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1696">
+        <v>1</v>
+      </c>
+      <c r="G1696">
+        <v>0</v>
+      </c>
+      <c r="H1696" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1696">
+        <v>0</v>
+      </c>
+      <c r="J1696">
+        <v>0</v>
+      </c>
+      <c r="K1696" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:11">
+      <c r="A1697" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1697">
+        <v>1</v>
+      </c>
+      <c r="G1697">
+        <v>0</v>
+      </c>
+      <c r="H1697" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1697">
+        <v>0</v>
+      </c>
+      <c r="J1697">
+        <v>0</v>
+      </c>
+      <c r="K1697" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11">
+      <c r="A1698" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1698">
+        <v>3</v>
+      </c>
+      <c r="G1698">
+        <v>1</v>
+      </c>
+      <c r="H1698" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1698">
+        <v>0</v>
+      </c>
+      <c r="J1698">
+        <v>1</v>
+      </c>
+      <c r="K1698" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:11">
+      <c r="A1699" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1699">
+        <v>6</v>
+      </c>
+      <c r="G1699">
+        <v>4</v>
+      </c>
+      <c r="H1699" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1699">
+        <v>0</v>
+      </c>
+      <c r="J1699">
+        <v>4</v>
+      </c>
+      <c r="K1699" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:11">
+      <c r="A1700" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1700">
+        <v>12</v>
+      </c>
+      <c r="G1700">
+        <v>4</v>
+      </c>
+      <c r="H1700" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1700">
+        <v>0</v>
+      </c>
+      <c r="J1700">
+        <v>4</v>
+      </c>
+      <c r="K1700" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:11">
+      <c r="A1701" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1701">
+        <v>12</v>
+      </c>
+      <c r="G1701">
+        <v>4</v>
+      </c>
+      <c r="H1701" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1701">
+        <v>0</v>
+      </c>
+      <c r="J1701">
+        <v>4</v>
+      </c>
+      <c r="K1701" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:11">
+      <c r="A1702" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1702">
+        <v>14</v>
+      </c>
+      <c r="G1702">
+        <v>4</v>
+      </c>
+      <c r="H1702" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1702">
+        <v>0</v>
+      </c>
+      <c r="J1702">
+        <v>4</v>
+      </c>
+      <c r="K1702" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:11">
+      <c r="A1703" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1703">
+        <v>10</v>
+      </c>
+      <c r="G1703">
+        <v>3</v>
+      </c>
+      <c r="H1703" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1703">
+        <v>0</v>
+      </c>
+      <c r="J1703">
+        <v>3</v>
+      </c>
+      <c r="K1703" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11">
+      <c r="A1704" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1704">
+        <v>17</v>
+      </c>
+      <c r="G1704">
+        <v>8</v>
+      </c>
+      <c r="H1704" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1704">
+        <v>0</v>
+      </c>
+      <c r="J1704">
+        <v>8</v>
+      </c>
+      <c r="K1704" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:11">
+      <c r="A1705" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1705">
+        <v>24</v>
+      </c>
+      <c r="G1705">
+        <v>14</v>
+      </c>
+      <c r="H1705" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1705">
+        <v>0</v>
+      </c>
+      <c r="J1705">
+        <v>14</v>
+      </c>
+      <c r="K1705" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:11">
+      <c r="A1706" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1706">
+        <v>11</v>
+      </c>
+      <c r="G1706">
+        <v>4</v>
+      </c>
+      <c r="H1706" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1706">
+        <v>0</v>
+      </c>
+      <c r="J1706">
+        <v>4</v>
+      </c>
+      <c r="K1706" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:11">
+      <c r="A1707" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1707">
+        <v>22</v>
+      </c>
+      <c r="G1707">
+        <v>5</v>
+      </c>
+      <c r="H1707" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1707">
+        <v>0</v>
+      </c>
+      <c r="J1707">
+        <v>5</v>
+      </c>
+      <c r="K1707" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:11">
+      <c r="A1708" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1708">
+        <v>9</v>
+      </c>
+      <c r="G1708">
+        <v>3</v>
+      </c>
+      <c r="H1708" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1708">
+        <v>0</v>
+      </c>
+      <c r="J1708">
+        <v>3</v>
+      </c>
+      <c r="K1708" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:11">
+      <c r="A1709" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1709">
+        <v>11</v>
+      </c>
+      <c r="G1709">
+        <v>3</v>
+      </c>
+      <c r="H1709" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1709">
+        <v>0</v>
+      </c>
+      <c r="J1709">
+        <v>3</v>
+      </c>
+      <c r="K1709" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11">
+      <c r="A1710" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1710">
+        <v>7</v>
+      </c>
+      <c r="G1710">
+        <v>3</v>
+      </c>
+      <c r="H1710" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1710">
+        <v>0</v>
+      </c>
+      <c r="J1710">
+        <v>3</v>
+      </c>
+      <c r="K1710" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:11">
+      <c r="A1711" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1711">
+        <v>11</v>
+      </c>
+      <c r="G1711">
+        <v>3</v>
+      </c>
+      <c r="H1711" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1711">
+        <v>0</v>
+      </c>
+      <c r="J1711">
+        <v>3</v>
+      </c>
+      <c r="K1711" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:11">
+      <c r="A1712" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1712">
+        <v>2</v>
+      </c>
+      <c r="G1712">
+        <v>2</v>
+      </c>
+      <c r="H1712" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1712">
+        <v>0</v>
+      </c>
+      <c r="J1712">
+        <v>2</v>
+      </c>
+      <c r="K1712" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:11">
+      <c r="A1713" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1713">
+        <v>19</v>
+      </c>
+      <c r="G1713">
+        <v>4</v>
+      </c>
+      <c r="H1713" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1713">
+        <v>0</v>
+      </c>
+      <c r="J1713">
+        <v>4</v>
+      </c>
+      <c r="K1713" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:11">
+      <c r="A1714" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1714">
+        <v>47</v>
+      </c>
+      <c r="G1714">
+        <v>19</v>
+      </c>
+      <c r="H1714" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1714">
+        <v>0</v>
+      </c>
+      <c r="J1714">
+        <v>19</v>
+      </c>
+      <c r="K1714" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:11">
+      <c r="A1715" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1715">
+        <v>177</v>
+      </c>
+      <c r="G1715">
+        <v>42</v>
+      </c>
+      <c r="H1715" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1715">
+        <v>0</v>
+      </c>
+      <c r="J1715">
+        <v>42</v>
+      </c>
+      <c r="K1715" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11">
+      <c r="A1716" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1716">
+        <v>7</v>
+      </c>
+      <c r="G1716">
+        <v>2</v>
+      </c>
+      <c r="H1716" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1716">
+        <v>0</v>
+      </c>
+      <c r="J1716">
+        <v>2</v>
+      </c>
+      <c r="K1716" s="2">
+        <v>45540.35820144753</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:11">
+      <c r="A1717" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1717">
+        <v>40</v>
+      </c>
+      <c r="G1717">
+        <v>11</v>
+      </c>
+      <c r="H1717" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1717">
+        <v>0</v>
+      </c>
+      <c r="J1717">
+        <v>11</v>
+      </c>
+      <c r="K1717" s="2">
+        <v>45540.35820144753</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10307" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11243" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1717"/>
+  <dimension ref="A1:K1873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -55390,7 +55390,7 @@
         <v>34</v>
       </c>
       <c r="K1562" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1563" spans="1:11">
@@ -55425,7 +55425,7 @@
         <v>19</v>
       </c>
       <c r="K1563" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1564" spans="1:11">
@@ -55460,7 +55460,7 @@
         <v>8</v>
       </c>
       <c r="K1564" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1565" spans="1:11">
@@ -55495,7 +55495,7 @@
         <v>30</v>
       </c>
       <c r="K1565" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1566" spans="1:11">
@@ -55530,7 +55530,7 @@
         <v>10</v>
       </c>
       <c r="K1566" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1567" spans="1:11">
@@ -55565,7 +55565,7 @@
         <v>4</v>
       </c>
       <c r="K1567" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1568" spans="1:11">
@@ -55600,7 +55600,7 @@
         <v>1</v>
       </c>
       <c r="K1568" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1569" spans="1:11">
@@ -55635,7 +55635,7 @@
         <v>0</v>
       </c>
       <c r="K1569" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1570" spans="1:11">
@@ -55670,7 +55670,7 @@
         <v>69</v>
       </c>
       <c r="K1570" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1571" spans="1:11">
@@ -55705,7 +55705,7 @@
         <v>57</v>
       </c>
       <c r="K1571" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1572" spans="1:11">
@@ -55740,7 +55740,7 @@
         <v>89</v>
       </c>
       <c r="K1572" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1573" spans="1:11">
@@ -55775,7 +55775,7 @@
         <v>24</v>
       </c>
       <c r="K1573" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1574" spans="1:11">
@@ -55810,7 +55810,7 @@
         <v>23</v>
       </c>
       <c r="K1574" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1575" spans="1:11">
@@ -55845,7 +55845,7 @@
         <v>20</v>
       </c>
       <c r="K1575" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1576" spans="1:11">
@@ -55880,7 +55880,7 @@
         <v>29</v>
       </c>
       <c r="K1576" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1577" spans="1:11">
@@ -55915,7 +55915,7 @@
         <v>14</v>
       </c>
       <c r="K1577" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1578" spans="1:11">
@@ -55950,7 +55950,7 @@
         <v>9</v>
       </c>
       <c r="K1578" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1579" spans="1:11">
@@ -55985,7 +55985,7 @@
         <v>2</v>
       </c>
       <c r="K1579" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1580" spans="1:11">
@@ -56020,7 +56020,7 @@
         <v>16</v>
       </c>
       <c r="K1580" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1581" spans="1:11">
@@ -56055,7 +56055,7 @@
         <v>31</v>
       </c>
       <c r="K1581" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1582" spans="1:11">
@@ -56090,7 +56090,7 @@
         <v>29</v>
       </c>
       <c r="K1582" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1583" spans="1:11">
@@ -56125,7 +56125,7 @@
         <v>33</v>
       </c>
       <c r="K1583" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1584" spans="1:11">
@@ -56160,7 +56160,7 @@
         <v>39</v>
       </c>
       <c r="K1584" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1585" spans="1:11">
@@ -56195,7 +56195,7 @@
         <v>27</v>
       </c>
       <c r="K1585" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1586" spans="1:11">
@@ -56230,7 +56230,7 @@
         <v>17</v>
       </c>
       <c r="K1586" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1587" spans="1:11">
@@ -56265,7 +56265,7 @@
         <v>54</v>
       </c>
       <c r="K1587" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1588" spans="1:11">
@@ -56300,7 +56300,7 @@
         <v>19</v>
       </c>
       <c r="K1588" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1589" spans="1:11">
@@ -56335,7 +56335,7 @@
         <v>37</v>
       </c>
       <c r="K1589" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1590" spans="1:11">
@@ -56370,7 +56370,7 @@
         <v>38</v>
       </c>
       <c r="K1590" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1591" spans="1:11">
@@ -56405,7 +56405,7 @@
         <v>15</v>
       </c>
       <c r="K1591" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1592" spans="1:11">
@@ -56440,7 +56440,7 @@
         <v>40</v>
       </c>
       <c r="K1592" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1593" spans="1:11">
@@ -56475,7 +56475,7 @@
         <v>49</v>
       </c>
       <c r="K1593" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1594" spans="1:11">
@@ -56510,7 +56510,7 @@
         <v>39</v>
       </c>
       <c r="K1594" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1595" spans="1:11">
@@ -56545,7 +56545,7 @@
         <v>27</v>
       </c>
       <c r="K1595" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1596" spans="1:11">
@@ -56580,7 +56580,7 @@
         <v>14</v>
       </c>
       <c r="K1596" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1597" spans="1:11">
@@ -56615,7 +56615,7 @@
         <v>20</v>
       </c>
       <c r="K1597" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1598" spans="1:11">
@@ -56650,7 +56650,7 @@
         <v>20</v>
       </c>
       <c r="K1598" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1599" spans="1:11">
@@ -56685,7 +56685,7 @@
         <v>29</v>
       </c>
       <c r="K1599" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1600" spans="1:11">
@@ -56720,7 +56720,7 @@
         <v>40</v>
       </c>
       <c r="K1600" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1601" spans="1:11">
@@ -56755,7 +56755,7 @@
         <v>50</v>
       </c>
       <c r="K1601" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1602" spans="1:11">
@@ -56790,7 +56790,7 @@
         <v>57</v>
       </c>
       <c r="K1602" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1603" spans="1:11">
@@ -56825,7 +56825,7 @@
         <v>14</v>
       </c>
       <c r="K1603" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1604" spans="1:11">
@@ -56860,7 +56860,7 @@
         <v>52</v>
       </c>
       <c r="K1604" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1605" spans="1:11">
@@ -56895,7 +56895,7 @@
         <v>26</v>
       </c>
       <c r="K1605" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1606" spans="1:11">
@@ -56930,7 +56930,7 @@
         <v>41</v>
       </c>
       <c r="K1606" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1607" spans="1:11">
@@ -56965,7 +56965,7 @@
         <v>64</v>
       </c>
       <c r="K1607" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1608" spans="1:11">
@@ -57000,7 +57000,7 @@
         <v>22</v>
       </c>
       <c r="K1608" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1609" spans="1:11">
@@ -57035,7 +57035,7 @@
         <v>40</v>
       </c>
       <c r="K1609" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1610" spans="1:11">
@@ -57070,7 +57070,7 @@
         <v>27</v>
       </c>
       <c r="K1610" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1611" spans="1:11">
@@ -57105,7 +57105,7 @@
         <v>31</v>
       </c>
       <c r="K1611" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1612" spans="1:11">
@@ -57140,7 +57140,7 @@
         <v>2</v>
       </c>
       <c r="K1612" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1613" spans="1:11">
@@ -57175,7 +57175,7 @@
         <v>13</v>
       </c>
       <c r="K1613" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1614" spans="1:11">
@@ -57210,7 +57210,7 @@
         <v>5</v>
       </c>
       <c r="K1614" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1615" spans="1:11">
@@ -57245,7 +57245,7 @@
         <v>0</v>
       </c>
       <c r="K1615" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1616" spans="1:11">
@@ -57280,7 +57280,7 @@
         <v>0</v>
       </c>
       <c r="K1616" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1617" spans="1:11">
@@ -57315,7 +57315,7 @@
         <v>0</v>
       </c>
       <c r="K1617" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1618" spans="1:11">
@@ -57350,7 +57350,7 @@
         <v>1</v>
       </c>
       <c r="K1618" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1619" spans="1:11">
@@ -57385,7 +57385,7 @@
         <v>1</v>
       </c>
       <c r="K1619" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1620" spans="1:11">
@@ -57420,7 +57420,7 @@
         <v>2</v>
       </c>
       <c r="K1620" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1621" spans="1:11">
@@ -57455,7 +57455,7 @@
         <v>0</v>
       </c>
       <c r="K1621" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1622" spans="1:11">
@@ -57490,7 +57490,7 @@
         <v>0</v>
       </c>
       <c r="K1622" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1623" spans="1:11">
@@ -57525,7 +57525,7 @@
         <v>0</v>
       </c>
       <c r="K1623" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1624" spans="1:11">
@@ -57560,7 +57560,7 @@
         <v>1</v>
       </c>
       <c r="K1624" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1625" spans="1:11">
@@ -57595,7 +57595,7 @@
         <v>0</v>
       </c>
       <c r="K1625" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1626" spans="1:11">
@@ -57630,7 +57630,7 @@
         <v>37</v>
       </c>
       <c r="K1626" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1627" spans="1:11">
@@ -57665,7 +57665,7 @@
         <v>2</v>
       </c>
       <c r="K1627" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1628" spans="1:11">
@@ -57700,7 +57700,7 @@
         <v>19</v>
       </c>
       <c r="K1628" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1629" spans="1:11">
@@ -57735,7 +57735,7 @@
         <v>11</v>
       </c>
       <c r="K1629" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1630" spans="1:11">
@@ -57770,7 +57770,7 @@
         <v>16</v>
       </c>
       <c r="K1630" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1631" spans="1:11">
@@ -57805,7 +57805,7 @@
         <v>1</v>
       </c>
       <c r="K1631" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1632" spans="1:11">
@@ -57840,7 +57840,7 @@
         <v>0</v>
       </c>
       <c r="K1632" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1633" spans="1:11">
@@ -57875,7 +57875,7 @@
         <v>1</v>
       </c>
       <c r="K1633" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1634" spans="1:11">
@@ -57910,7 +57910,7 @@
         <v>0</v>
       </c>
       <c r="K1634" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1635" spans="1:11">
@@ -57945,7 +57945,7 @@
         <v>4</v>
       </c>
       <c r="K1635" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1636" spans="1:11">
@@ -57980,7 +57980,7 @@
         <v>1</v>
       </c>
       <c r="K1636" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1637" spans="1:11">
@@ -58015,7 +58015,7 @@
         <v>6</v>
       </c>
       <c r="K1637" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1638" spans="1:11">
@@ -58050,7 +58050,7 @@
         <v>1</v>
       </c>
       <c r="K1638" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1639" spans="1:11">
@@ -58085,7 +58085,7 @@
         <v>3</v>
       </c>
       <c r="K1639" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1640" spans="1:11">
@@ -58120,7 +58120,7 @@
         <v>0</v>
       </c>
       <c r="K1640" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1641" spans="1:11">
@@ -58155,7 +58155,7 @@
         <v>0</v>
       </c>
       <c r="K1641" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1642" spans="1:11">
@@ -58190,7 +58190,7 @@
         <v>0</v>
       </c>
       <c r="K1642" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1643" spans="1:11">
@@ -58225,7 +58225,7 @@
         <v>3</v>
       </c>
       <c r="K1643" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1644" spans="1:11">
@@ -58260,7 +58260,7 @@
         <v>6</v>
       </c>
       <c r="K1644" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1645" spans="1:11">
@@ -58295,7 +58295,7 @@
         <v>1</v>
       </c>
       <c r="K1645" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1646" spans="1:11">
@@ -58330,7 +58330,7 @@
         <v>1</v>
       </c>
       <c r="K1646" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1647" spans="1:11">
@@ -58365,7 +58365,7 @@
         <v>14</v>
       </c>
       <c r="K1647" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1648" spans="1:11">
@@ -58400,7 +58400,7 @@
         <v>5</v>
       </c>
       <c r="K1648" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1649" spans="1:11">
@@ -58435,7 +58435,7 @@
         <v>5</v>
       </c>
       <c r="K1649" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1650" spans="1:11">
@@ -58470,7 +58470,7 @@
         <v>5</v>
       </c>
       <c r="K1650" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1651" spans="1:11">
@@ -58505,7 +58505,7 @@
         <v>2</v>
       </c>
       <c r="K1651" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1652" spans="1:11">
@@ -58540,7 +58540,7 @@
         <v>6</v>
       </c>
       <c r="K1652" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1653" spans="1:11">
@@ -58575,7 +58575,7 @@
         <v>3</v>
       </c>
       <c r="K1653" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1654" spans="1:11">
@@ -58610,7 +58610,7 @@
         <v>7</v>
       </c>
       <c r="K1654" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1655" spans="1:11">
@@ -58645,7 +58645,7 @@
         <v>6</v>
       </c>
       <c r="K1655" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1656" spans="1:11">
@@ -58680,7 +58680,7 @@
         <v>5</v>
       </c>
       <c r="K1656" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1657" spans="1:11">
@@ -58715,7 +58715,7 @@
         <v>1</v>
       </c>
       <c r="K1657" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1658" spans="1:11">
@@ -58750,7 +58750,7 @@
         <v>16</v>
       </c>
       <c r="K1658" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1659" spans="1:11">
@@ -58785,7 +58785,7 @@
         <v>5</v>
       </c>
       <c r="K1659" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1660" spans="1:11">
@@ -58820,7 +58820,7 @@
         <v>13</v>
       </c>
       <c r="K1660" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1661" spans="1:11">
@@ -58855,7 +58855,7 @@
         <v>0</v>
       </c>
       <c r="K1661" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1662" spans="1:11">
@@ -58890,7 +58890,7 @@
         <v>3</v>
       </c>
       <c r="K1662" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1663" spans="1:11">
@@ -58925,7 +58925,7 @@
         <v>0</v>
       </c>
       <c r="K1663" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1664" spans="1:11">
@@ -58960,7 +58960,7 @@
         <v>1</v>
       </c>
       <c r="K1664" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1665" spans="1:11">
@@ -58995,7 +58995,7 @@
         <v>0</v>
       </c>
       <c r="K1665" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1666" spans="1:11">
@@ -59030,7 +59030,7 @@
         <v>1</v>
       </c>
       <c r="K1666" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1667" spans="1:11">
@@ -59065,7 +59065,7 @@
         <v>1</v>
       </c>
       <c r="K1667" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1668" spans="1:11">
@@ -59100,7 +59100,7 @@
         <v>2</v>
       </c>
       <c r="K1668" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1669" spans="1:11">
@@ -59135,7 +59135,7 @@
         <v>2</v>
       </c>
       <c r="K1669" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1670" spans="1:11">
@@ -59170,7 +59170,7 @@
         <v>2</v>
       </c>
       <c r="K1670" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1671" spans="1:11">
@@ -59205,7 +59205,7 @@
         <v>1</v>
       </c>
       <c r="K1671" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1672" spans="1:11">
@@ -59240,7 +59240,7 @@
         <v>2</v>
       </c>
       <c r="K1672" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1673" spans="1:11">
@@ -59275,7 +59275,7 @@
         <v>1</v>
       </c>
       <c r="K1673" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1674" spans="1:11">
@@ -59310,7 +59310,7 @@
         <v>2</v>
       </c>
       <c r="K1674" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1675" spans="1:11">
@@ -59345,7 +59345,7 @@
         <v>10</v>
       </c>
       <c r="K1675" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1676" spans="1:11">
@@ -59380,7 +59380,7 @@
         <v>4</v>
       </c>
       <c r="K1676" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1677" spans="1:11">
@@ -59415,7 +59415,7 @@
         <v>8</v>
       </c>
       <c r="K1677" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1678" spans="1:11">
@@ -59450,7 +59450,7 @@
         <v>6</v>
       </c>
       <c r="K1678" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1679" spans="1:11">
@@ -59485,7 +59485,7 @@
         <v>2</v>
       </c>
       <c r="K1679" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1680" spans="1:11">
@@ -59520,7 +59520,7 @@
         <v>4</v>
       </c>
       <c r="K1680" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1681" spans="1:11">
@@ -59555,7 +59555,7 @@
         <v>4</v>
       </c>
       <c r="K1681" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1682" spans="1:11">
@@ -59590,7 +59590,7 @@
         <v>6</v>
       </c>
       <c r="K1682" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1683" spans="1:11">
@@ -59625,7 +59625,7 @@
         <v>7</v>
       </c>
       <c r="K1683" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1684" spans="1:11">
@@ -59660,7 +59660,7 @@
         <v>3</v>
       </c>
       <c r="K1684" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1685" spans="1:11">
@@ -59695,7 +59695,7 @@
         <v>4</v>
       </c>
       <c r="K1685" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1686" spans="1:11">
@@ -59730,7 +59730,7 @@
         <v>3</v>
       </c>
       <c r="K1686" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1687" spans="1:11">
@@ -59765,7 +59765,7 @@
         <v>7</v>
       </c>
       <c r="K1687" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1688" spans="1:11">
@@ -59800,7 +59800,7 @@
         <v>4</v>
       </c>
       <c r="K1688" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1689" spans="1:11">
@@ -59835,7 +59835,7 @@
         <v>5</v>
       </c>
       <c r="K1689" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1690" spans="1:11">
@@ -59870,7 +59870,7 @@
         <v>4</v>
       </c>
       <c r="K1690" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1691" spans="1:11">
@@ -59905,7 +59905,7 @@
         <v>6</v>
       </c>
       <c r="K1691" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1692" spans="1:11">
@@ -59940,7 +59940,7 @@
         <v>1</v>
       </c>
       <c r="K1692" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1693" spans="1:11">
@@ -59975,7 +59975,7 @@
         <v>2</v>
       </c>
       <c r="K1693" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1694" spans="1:11">
@@ -60010,7 +60010,7 @@
         <v>0</v>
       </c>
       <c r="K1694" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1695" spans="1:11">
@@ -60045,7 +60045,7 @@
         <v>1</v>
       </c>
       <c r="K1695" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1696" spans="1:11">
@@ -60080,7 +60080,7 @@
         <v>0</v>
       </c>
       <c r="K1696" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1697" spans="1:11">
@@ -60115,7 +60115,7 @@
         <v>0</v>
       </c>
       <c r="K1697" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1698" spans="1:11">
@@ -60150,7 +60150,7 @@
         <v>1</v>
       </c>
       <c r="K1698" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1699" spans="1:11">
@@ -60185,7 +60185,7 @@
         <v>4</v>
       </c>
       <c r="K1699" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1700" spans="1:11">
@@ -60220,7 +60220,7 @@
         <v>4</v>
       </c>
       <c r="K1700" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1701" spans="1:11">
@@ -60255,7 +60255,7 @@
         <v>4</v>
       </c>
       <c r="K1701" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1702" spans="1:11">
@@ -60290,7 +60290,7 @@
         <v>4</v>
       </c>
       <c r="K1702" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1703" spans="1:11">
@@ -60325,7 +60325,7 @@
         <v>3</v>
       </c>
       <c r="K1703" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1704" spans="1:11">
@@ -60360,7 +60360,7 @@
         <v>8</v>
       </c>
       <c r="K1704" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1705" spans="1:11">
@@ -60395,7 +60395,7 @@
         <v>14</v>
       </c>
       <c r="K1705" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1706" spans="1:11">
@@ -60430,7 +60430,7 @@
         <v>4</v>
       </c>
       <c r="K1706" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1707" spans="1:11">
@@ -60465,7 +60465,7 @@
         <v>5</v>
       </c>
       <c r="K1707" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1708" spans="1:11">
@@ -60500,7 +60500,7 @@
         <v>3</v>
       </c>
       <c r="K1708" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1709" spans="1:11">
@@ -60535,7 +60535,7 @@
         <v>3</v>
       </c>
       <c r="K1709" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1710" spans="1:11">
@@ -60570,7 +60570,7 @@
         <v>3</v>
       </c>
       <c r="K1710" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1711" spans="1:11">
@@ -60605,7 +60605,7 @@
         <v>3</v>
       </c>
       <c r="K1711" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1712" spans="1:11">
@@ -60640,7 +60640,7 @@
         <v>2</v>
       </c>
       <c r="K1712" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1713" spans="1:11">
@@ -60675,7 +60675,7 @@
         <v>4</v>
       </c>
       <c r="K1713" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1714" spans="1:11">
@@ -60710,7 +60710,7 @@
         <v>19</v>
       </c>
       <c r="K1714" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1715" spans="1:11">
@@ -60745,7 +60745,7 @@
         <v>42</v>
       </c>
       <c r="K1715" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1716" spans="1:11">
@@ -60780,7 +60780,7 @@
         <v>2</v>
       </c>
       <c r="K1716" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
       </c>
     </row>
     <row r="1717" spans="1:11">
@@ -60815,7 +60815,5467 @@
         <v>11</v>
       </c>
       <c r="K1717" s="2">
-        <v>45540.35820144753</v>
+        <v>45540.35820144676</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:11">
+      <c r="A1718" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1718">
+        <v>56</v>
+      </c>
+      <c r="G1718">
+        <v>35</v>
+      </c>
+      <c r="H1718" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1718">
+        <v>0</v>
+      </c>
+      <c r="J1718">
+        <v>35</v>
+      </c>
+      <c r="K1718" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:11">
+      <c r="A1719" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1719">
+        <v>22</v>
+      </c>
+      <c r="G1719">
+        <v>19</v>
+      </c>
+      <c r="H1719" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1719">
+        <v>0</v>
+      </c>
+      <c r="J1719">
+        <v>19</v>
+      </c>
+      <c r="K1719" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:11">
+      <c r="A1720" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1720">
+        <v>22</v>
+      </c>
+      <c r="G1720">
+        <v>10</v>
+      </c>
+      <c r="H1720" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1720">
+        <v>0</v>
+      </c>
+      <c r="J1720">
+        <v>10</v>
+      </c>
+      <c r="K1720" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:11">
+      <c r="A1721" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1721">
+        <v>61</v>
+      </c>
+      <c r="G1721">
+        <v>31</v>
+      </c>
+      <c r="H1721" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1721">
+        <v>0</v>
+      </c>
+      <c r="J1721">
+        <v>31</v>
+      </c>
+      <c r="K1721" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:11">
+      <c r="A1722" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1722">
+        <v>20</v>
+      </c>
+      <c r="G1722">
+        <v>10</v>
+      </c>
+      <c r="H1722" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1722">
+        <v>0</v>
+      </c>
+      <c r="J1722">
+        <v>10</v>
+      </c>
+      <c r="K1722" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:11">
+      <c r="A1723" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1723">
+        <v>12</v>
+      </c>
+      <c r="G1723">
+        <v>5</v>
+      </c>
+      <c r="H1723" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1723">
+        <v>0</v>
+      </c>
+      <c r="J1723">
+        <v>5</v>
+      </c>
+      <c r="K1723" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:11">
+      <c r="A1724" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1724">
+        <v>4</v>
+      </c>
+      <c r="G1724">
+        <v>1</v>
+      </c>
+      <c r="H1724" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1724">
+        <v>0</v>
+      </c>
+      <c r="J1724">
+        <v>1</v>
+      </c>
+      <c r="K1724" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11">
+      <c r="A1725" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1725">
+        <v>2</v>
+      </c>
+      <c r="G1725">
+        <v>1</v>
+      </c>
+      <c r="H1725" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1725">
+        <v>0</v>
+      </c>
+      <c r="J1725">
+        <v>1</v>
+      </c>
+      <c r="K1725" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11">
+      <c r="A1726" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1726">
+        <v>178</v>
+      </c>
+      <c r="G1726">
+        <v>74</v>
+      </c>
+      <c r="H1726" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1726">
+        <v>0</v>
+      </c>
+      <c r="J1726">
+        <v>74</v>
+      </c>
+      <c r="K1726" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11">
+      <c r="A1727" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1727">
+        <v>129</v>
+      </c>
+      <c r="G1727">
+        <v>63</v>
+      </c>
+      <c r="H1727" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1727">
+        <v>0</v>
+      </c>
+      <c r="J1727">
+        <v>63</v>
+      </c>
+      <c r="K1727" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11">
+      <c r="A1728" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1728">
+        <v>190</v>
+      </c>
+      <c r="G1728">
+        <v>97</v>
+      </c>
+      <c r="H1728" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1728">
+        <v>0</v>
+      </c>
+      <c r="J1728">
+        <v>97</v>
+      </c>
+      <c r="K1728" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:11">
+      <c r="A1729" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1729">
+        <v>61</v>
+      </c>
+      <c r="G1729">
+        <v>26</v>
+      </c>
+      <c r="H1729" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1729">
+        <v>0</v>
+      </c>
+      <c r="J1729">
+        <v>26</v>
+      </c>
+      <c r="K1729" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:11">
+      <c r="A1730" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1730">
+        <v>56</v>
+      </c>
+      <c r="G1730">
+        <v>23</v>
+      </c>
+      <c r="H1730" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1730">
+        <v>0</v>
+      </c>
+      <c r="J1730">
+        <v>23</v>
+      </c>
+      <c r="K1730" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:11">
+      <c r="A1731" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1731">
+        <v>78</v>
+      </c>
+      <c r="G1731">
+        <v>21</v>
+      </c>
+      <c r="H1731" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1731">
+        <v>0</v>
+      </c>
+      <c r="J1731">
+        <v>21</v>
+      </c>
+      <c r="K1731" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:11">
+      <c r="A1732" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1732">
+        <v>71</v>
+      </c>
+      <c r="G1732">
+        <v>32</v>
+      </c>
+      <c r="H1732" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1732">
+        <v>0</v>
+      </c>
+      <c r="J1732">
+        <v>32</v>
+      </c>
+      <c r="K1732" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:11">
+      <c r="A1733" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1733">
+        <v>34</v>
+      </c>
+      <c r="G1733">
+        <v>17</v>
+      </c>
+      <c r="H1733" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1733">
+        <v>0</v>
+      </c>
+      <c r="J1733">
+        <v>17</v>
+      </c>
+      <c r="K1733" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:11">
+      <c r="A1734" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1734">
+        <v>27</v>
+      </c>
+      <c r="G1734">
+        <v>12</v>
+      </c>
+      <c r="H1734" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1734">
+        <v>0</v>
+      </c>
+      <c r="J1734">
+        <v>12</v>
+      </c>
+      <c r="K1734" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:11">
+      <c r="A1735" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1735">
+        <v>12</v>
+      </c>
+      <c r="G1735">
+        <v>2</v>
+      </c>
+      <c r="H1735" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1735">
+        <v>0</v>
+      </c>
+      <c r="J1735">
+        <v>2</v>
+      </c>
+      <c r="K1735" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:11">
+      <c r="A1736" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1736">
+        <v>47</v>
+      </c>
+      <c r="G1736">
+        <v>18</v>
+      </c>
+      <c r="H1736" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1736">
+        <v>0</v>
+      </c>
+      <c r="J1736">
+        <v>18</v>
+      </c>
+      <c r="K1736" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:11">
+      <c r="A1737" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1737">
+        <v>63</v>
+      </c>
+      <c r="G1737">
+        <v>32</v>
+      </c>
+      <c r="H1737" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1737">
+        <v>0</v>
+      </c>
+      <c r="J1737">
+        <v>32</v>
+      </c>
+      <c r="K1737" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:11">
+      <c r="A1738" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1738">
+        <v>79</v>
+      </c>
+      <c r="G1738">
+        <v>33</v>
+      </c>
+      <c r="H1738" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1738">
+        <v>0</v>
+      </c>
+      <c r="J1738">
+        <v>33</v>
+      </c>
+      <c r="K1738" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:11">
+      <c r="A1739" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1739">
+        <v>81</v>
+      </c>
+      <c r="G1739">
+        <v>34</v>
+      </c>
+      <c r="H1739" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1739">
+        <v>0</v>
+      </c>
+      <c r="J1739">
+        <v>34</v>
+      </c>
+      <c r="K1739" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:11">
+      <c r="A1740" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1740">
+        <v>88</v>
+      </c>
+      <c r="G1740">
+        <v>41</v>
+      </c>
+      <c r="H1740" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1740">
+        <v>0</v>
+      </c>
+      <c r="J1740">
+        <v>41</v>
+      </c>
+      <c r="K1740" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:11">
+      <c r="A1741" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1741">
+        <v>77</v>
+      </c>
+      <c r="G1741">
+        <v>31</v>
+      </c>
+      <c r="H1741" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1741">
+        <v>0</v>
+      </c>
+      <c r="J1741">
+        <v>31</v>
+      </c>
+      <c r="K1741" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:11">
+      <c r="A1742" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1742">
+        <v>46</v>
+      </c>
+      <c r="G1742">
+        <v>19</v>
+      </c>
+      <c r="H1742" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1742">
+        <v>0</v>
+      </c>
+      <c r="J1742">
+        <v>19</v>
+      </c>
+      <c r="K1742" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:11">
+      <c r="A1743" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1743">
+        <v>120</v>
+      </c>
+      <c r="G1743">
+        <v>58</v>
+      </c>
+      <c r="H1743" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1743">
+        <v>0</v>
+      </c>
+      <c r="J1743">
+        <v>58</v>
+      </c>
+      <c r="K1743" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:11">
+      <c r="A1744" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1744">
+        <v>77</v>
+      </c>
+      <c r="G1744">
+        <v>20</v>
+      </c>
+      <c r="H1744" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1744">
+        <v>0</v>
+      </c>
+      <c r="J1744">
+        <v>20</v>
+      </c>
+      <c r="K1744" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11">
+      <c r="A1745" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1745">
+        <v>77</v>
+      </c>
+      <c r="G1745">
+        <v>45</v>
+      </c>
+      <c r="H1745" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1745">
+        <v>0</v>
+      </c>
+      <c r="J1745">
+        <v>45</v>
+      </c>
+      <c r="K1745" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11">
+      <c r="A1746" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1746">
+        <v>83</v>
+      </c>
+      <c r="G1746">
+        <v>39</v>
+      </c>
+      <c r="H1746" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1746">
+        <v>0</v>
+      </c>
+      <c r="J1746">
+        <v>39</v>
+      </c>
+      <c r="K1746" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11">
+      <c r="A1747" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1747">
+        <v>35</v>
+      </c>
+      <c r="G1747">
+        <v>16</v>
+      </c>
+      <c r="H1747" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1747">
+        <v>0</v>
+      </c>
+      <c r="J1747">
+        <v>16</v>
+      </c>
+      <c r="K1747" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11">
+      <c r="A1748" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1748">
+        <v>84</v>
+      </c>
+      <c r="G1748">
+        <v>42</v>
+      </c>
+      <c r="H1748" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1748">
+        <v>0</v>
+      </c>
+      <c r="J1748">
+        <v>42</v>
+      </c>
+      <c r="K1748" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11">
+      <c r="A1749" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1749">
+        <v>115</v>
+      </c>
+      <c r="G1749">
+        <v>58</v>
+      </c>
+      <c r="H1749" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1749">
+        <v>0</v>
+      </c>
+      <c r="J1749">
+        <v>58</v>
+      </c>
+      <c r="K1749" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11">
+      <c r="A1750" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1750">
+        <v>88</v>
+      </c>
+      <c r="G1750">
+        <v>44</v>
+      </c>
+      <c r="H1750" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1750">
+        <v>0</v>
+      </c>
+      <c r="J1750">
+        <v>44</v>
+      </c>
+      <c r="K1750" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11">
+      <c r="A1751" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1751">
+        <v>56</v>
+      </c>
+      <c r="G1751">
+        <v>28</v>
+      </c>
+      <c r="H1751" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1751">
+        <v>0</v>
+      </c>
+      <c r="J1751">
+        <v>28</v>
+      </c>
+      <c r="K1751" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11">
+      <c r="A1752" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1752">
+        <v>29</v>
+      </c>
+      <c r="G1752">
+        <v>17</v>
+      </c>
+      <c r="H1752" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1752">
+        <v>0</v>
+      </c>
+      <c r="J1752">
+        <v>17</v>
+      </c>
+      <c r="K1752" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11">
+      <c r="A1753" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1753">
+        <v>57</v>
+      </c>
+      <c r="G1753">
+        <v>24</v>
+      </c>
+      <c r="H1753" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1753">
+        <v>0</v>
+      </c>
+      <c r="J1753">
+        <v>24</v>
+      </c>
+      <c r="K1753" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11">
+      <c r="A1754" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1754">
+        <v>40</v>
+      </c>
+      <c r="G1754">
+        <v>22</v>
+      </c>
+      <c r="H1754" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1754">
+        <v>0</v>
+      </c>
+      <c r="J1754">
+        <v>22</v>
+      </c>
+      <c r="K1754" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11">
+      <c r="A1755" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1755">
+        <v>92</v>
+      </c>
+      <c r="G1755">
+        <v>32</v>
+      </c>
+      <c r="H1755" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1755">
+        <v>0</v>
+      </c>
+      <c r="J1755">
+        <v>32</v>
+      </c>
+      <c r="K1755" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11">
+      <c r="A1756" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1756">
+        <v>115</v>
+      </c>
+      <c r="G1756">
+        <v>45</v>
+      </c>
+      <c r="H1756" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1756">
+        <v>0</v>
+      </c>
+      <c r="J1756">
+        <v>45</v>
+      </c>
+      <c r="K1756" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11">
+      <c r="A1757" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1757">
+        <v>153</v>
+      </c>
+      <c r="G1757">
+        <v>53</v>
+      </c>
+      <c r="H1757" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1757">
+        <v>0</v>
+      </c>
+      <c r="J1757">
+        <v>53</v>
+      </c>
+      <c r="K1757" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11">
+      <c r="A1758" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1758">
+        <v>134</v>
+      </c>
+      <c r="G1758">
+        <v>64</v>
+      </c>
+      <c r="H1758" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1758">
+        <v>0</v>
+      </c>
+      <c r="J1758">
+        <v>64</v>
+      </c>
+      <c r="K1758" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11">
+      <c r="A1759" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1759">
+        <v>39</v>
+      </c>
+      <c r="G1759">
+        <v>15</v>
+      </c>
+      <c r="H1759" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1759">
+        <v>0</v>
+      </c>
+      <c r="J1759">
+        <v>15</v>
+      </c>
+      <c r="K1759" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11">
+      <c r="A1760" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1760">
+        <v>123</v>
+      </c>
+      <c r="G1760">
+        <v>55</v>
+      </c>
+      <c r="H1760" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1760">
+        <v>0</v>
+      </c>
+      <c r="J1760">
+        <v>55</v>
+      </c>
+      <c r="K1760" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11">
+      <c r="A1761" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1761">
+        <v>50</v>
+      </c>
+      <c r="G1761">
+        <v>28</v>
+      </c>
+      <c r="H1761" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1761">
+        <v>0</v>
+      </c>
+      <c r="J1761">
+        <v>28</v>
+      </c>
+      <c r="K1761" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:11">
+      <c r="A1762" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1762">
+        <v>99</v>
+      </c>
+      <c r="G1762">
+        <v>44</v>
+      </c>
+      <c r="H1762" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1762">
+        <v>0</v>
+      </c>
+      <c r="J1762">
+        <v>44</v>
+      </c>
+      <c r="K1762" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11">
+      <c r="A1763" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1763">
+        <v>174</v>
+      </c>
+      <c r="G1763">
+        <v>69</v>
+      </c>
+      <c r="H1763" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1763">
+        <v>0</v>
+      </c>
+      <c r="J1763">
+        <v>69</v>
+      </c>
+      <c r="K1763" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11">
+      <c r="A1764" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1764">
+        <v>87</v>
+      </c>
+      <c r="G1764">
+        <v>26</v>
+      </c>
+      <c r="H1764" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1764">
+        <v>0</v>
+      </c>
+      <c r="J1764">
+        <v>26</v>
+      </c>
+      <c r="K1764" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11">
+      <c r="A1765" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1765">
+        <v>95</v>
+      </c>
+      <c r="G1765">
+        <v>43</v>
+      </c>
+      <c r="H1765" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1765">
+        <v>0</v>
+      </c>
+      <c r="J1765">
+        <v>43</v>
+      </c>
+      <c r="K1765" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11">
+      <c r="A1766" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1766">
+        <v>71</v>
+      </c>
+      <c r="G1766">
+        <v>32</v>
+      </c>
+      <c r="H1766" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1766">
+        <v>0</v>
+      </c>
+      <c r="J1766">
+        <v>32</v>
+      </c>
+      <c r="K1766" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:11">
+      <c r="A1767" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1767">
+        <v>79</v>
+      </c>
+      <c r="G1767">
+        <v>33</v>
+      </c>
+      <c r="H1767" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1767">
+        <v>0</v>
+      </c>
+      <c r="J1767">
+        <v>33</v>
+      </c>
+      <c r="K1767" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11">
+      <c r="A1768" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1768">
+        <v>3</v>
+      </c>
+      <c r="G1768">
+        <v>3</v>
+      </c>
+      <c r="H1768" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1768">
+        <v>0</v>
+      </c>
+      <c r="J1768">
+        <v>3</v>
+      </c>
+      <c r="K1768" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11">
+      <c r="A1769" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1769">
+        <v>27</v>
+      </c>
+      <c r="G1769">
+        <v>13</v>
+      </c>
+      <c r="H1769" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1769">
+        <v>0</v>
+      </c>
+      <c r="J1769">
+        <v>13</v>
+      </c>
+      <c r="K1769" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11">
+      <c r="A1770" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1770">
+        <v>9</v>
+      </c>
+      <c r="G1770">
+        <v>5</v>
+      </c>
+      <c r="H1770" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1770">
+        <v>0</v>
+      </c>
+      <c r="J1770">
+        <v>5</v>
+      </c>
+      <c r="K1770" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:11">
+      <c r="A1771" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1771">
+        <v>6</v>
+      </c>
+      <c r="G1771">
+        <v>0</v>
+      </c>
+      <c r="H1771" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1771">
+        <v>0</v>
+      </c>
+      <c r="J1771">
+        <v>0</v>
+      </c>
+      <c r="K1771" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11">
+      <c r="A1772" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1772">
+        <v>0</v>
+      </c>
+      <c r="G1772">
+        <v>0</v>
+      </c>
+      <c r="H1772" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1772">
+        <v>0</v>
+      </c>
+      <c r="J1772">
+        <v>0</v>
+      </c>
+      <c r="K1772" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:11">
+      <c r="A1773" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1773">
+        <v>1</v>
+      </c>
+      <c r="G1773">
+        <v>0</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1773">
+        <v>0</v>
+      </c>
+      <c r="J1773">
+        <v>0</v>
+      </c>
+      <c r="K1773" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11">
+      <c r="A1774" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1774">
+        <v>4</v>
+      </c>
+      <c r="G1774">
+        <v>1</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1774">
+        <v>0</v>
+      </c>
+      <c r="J1774">
+        <v>1</v>
+      </c>
+      <c r="K1774" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11">
+      <c r="A1775" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1775">
+        <v>5</v>
+      </c>
+      <c r="G1775">
+        <v>1</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1775">
+        <v>0</v>
+      </c>
+      <c r="J1775">
+        <v>1</v>
+      </c>
+      <c r="K1775" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11">
+      <c r="A1776" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1776">
+        <v>9</v>
+      </c>
+      <c r="G1776">
+        <v>3</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1776">
+        <v>0</v>
+      </c>
+      <c r="J1776">
+        <v>3</v>
+      </c>
+      <c r="K1776" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11">
+      <c r="A1777" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1777">
+        <v>0</v>
+      </c>
+      <c r="G1777">
+        <v>0</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1777">
+        <v>0</v>
+      </c>
+      <c r="J1777">
+        <v>0</v>
+      </c>
+      <c r="K1777" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11">
+      <c r="A1778" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1778">
+        <v>0</v>
+      </c>
+      <c r="G1778">
+        <v>0</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1778">
+        <v>0</v>
+      </c>
+      <c r="J1778">
+        <v>0</v>
+      </c>
+      <c r="K1778" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11">
+      <c r="A1779" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1779">
+        <v>1</v>
+      </c>
+      <c r="G1779">
+        <v>0</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1779">
+        <v>0</v>
+      </c>
+      <c r="J1779">
+        <v>0</v>
+      </c>
+      <c r="K1779" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11">
+      <c r="A1780" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1780">
+        <v>1</v>
+      </c>
+      <c r="G1780">
+        <v>1</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1780">
+        <v>0</v>
+      </c>
+      <c r="J1780">
+        <v>1</v>
+      </c>
+      <c r="K1780" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11">
+      <c r="A1781" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1781">
+        <v>0</v>
+      </c>
+      <c r="G1781">
+        <v>0</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1781">
+        <v>0</v>
+      </c>
+      <c r="J1781">
+        <v>0</v>
+      </c>
+      <c r="K1781" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11">
+      <c r="A1782" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1782">
+        <v>89</v>
+      </c>
+      <c r="G1782">
+        <v>39</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1782">
+        <v>0</v>
+      </c>
+      <c r="J1782">
+        <v>39</v>
+      </c>
+      <c r="K1782" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11">
+      <c r="A1783" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1783">
+        <v>6</v>
+      </c>
+      <c r="G1783">
+        <v>2</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1783">
+        <v>0</v>
+      </c>
+      <c r="J1783">
+        <v>2</v>
+      </c>
+      <c r="K1783" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11">
+      <c r="A1784" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1784">
+        <v>55</v>
+      </c>
+      <c r="G1784">
+        <v>20</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1784">
+        <v>0</v>
+      </c>
+      <c r="J1784">
+        <v>20</v>
+      </c>
+      <c r="K1784" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11">
+      <c r="A1785" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1785">
+        <v>47</v>
+      </c>
+      <c r="G1785">
+        <v>13</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1785">
+        <v>0</v>
+      </c>
+      <c r="J1785">
+        <v>13</v>
+      </c>
+      <c r="K1785" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11">
+      <c r="A1786" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1786">
+        <v>25</v>
+      </c>
+      <c r="G1786">
+        <v>16</v>
+      </c>
+      <c r="H1786" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1786">
+        <v>0</v>
+      </c>
+      <c r="J1786">
+        <v>16</v>
+      </c>
+      <c r="K1786" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11">
+      <c r="A1787" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1787">
+        <v>2</v>
+      </c>
+      <c r="G1787">
+        <v>1</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1787">
+        <v>0</v>
+      </c>
+      <c r="J1787">
+        <v>1</v>
+      </c>
+      <c r="K1787" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11">
+      <c r="A1788" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1788">
+        <v>0</v>
+      </c>
+      <c r="G1788">
+        <v>0</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1788">
+        <v>0</v>
+      </c>
+      <c r="J1788">
+        <v>0</v>
+      </c>
+      <c r="K1788" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:11">
+      <c r="A1789" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1789">
+        <v>4</v>
+      </c>
+      <c r="G1789">
+        <v>1</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1789">
+        <v>0</v>
+      </c>
+      <c r="J1789">
+        <v>1</v>
+      </c>
+      <c r="K1789" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:11">
+      <c r="A1790" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1790">
+        <v>1</v>
+      </c>
+      <c r="G1790">
+        <v>0</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1790">
+        <v>0</v>
+      </c>
+      <c r="J1790">
+        <v>0</v>
+      </c>
+      <c r="K1790" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11">
+      <c r="A1791" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1791">
+        <v>12</v>
+      </c>
+      <c r="G1791">
+        <v>4</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1791">
+        <v>0</v>
+      </c>
+      <c r="J1791">
+        <v>4</v>
+      </c>
+      <c r="K1791" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11">
+      <c r="A1792" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1792">
+        <v>7</v>
+      </c>
+      <c r="G1792">
+        <v>1</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1792">
+        <v>0</v>
+      </c>
+      <c r="J1792">
+        <v>1</v>
+      </c>
+      <c r="K1792" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11">
+      <c r="A1793" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1793">
+        <v>11</v>
+      </c>
+      <c r="G1793">
+        <v>6</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1793">
+        <v>0</v>
+      </c>
+      <c r="J1793">
+        <v>6</v>
+      </c>
+      <c r="K1793" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11">
+      <c r="A1794" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1794">
+        <v>3</v>
+      </c>
+      <c r="G1794">
+        <v>1</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1794">
+        <v>0</v>
+      </c>
+      <c r="J1794">
+        <v>1</v>
+      </c>
+      <c r="K1794" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11">
+      <c r="A1795" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1795">
+        <v>5</v>
+      </c>
+      <c r="G1795">
+        <v>3</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1795">
+        <v>0</v>
+      </c>
+      <c r="J1795">
+        <v>3</v>
+      </c>
+      <c r="K1795" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11">
+      <c r="A1796" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1796">
+        <v>3</v>
+      </c>
+      <c r="G1796">
+        <v>0</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1796">
+        <v>0</v>
+      </c>
+      <c r="J1796">
+        <v>0</v>
+      </c>
+      <c r="K1796" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11">
+      <c r="A1797" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1797">
+        <v>1</v>
+      </c>
+      <c r="G1797">
+        <v>0</v>
+      </c>
+      <c r="H1797" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1797">
+        <v>0</v>
+      </c>
+      <c r="J1797">
+        <v>0</v>
+      </c>
+      <c r="K1797" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11">
+      <c r="A1798" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1798">
+        <v>1</v>
+      </c>
+      <c r="G1798">
+        <v>0</v>
+      </c>
+      <c r="H1798" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1798">
+        <v>0</v>
+      </c>
+      <c r="J1798">
+        <v>0</v>
+      </c>
+      <c r="K1798" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11">
+      <c r="A1799" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1799">
+        <v>13</v>
+      </c>
+      <c r="G1799">
+        <v>3</v>
+      </c>
+      <c r="H1799" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1799">
+        <v>0</v>
+      </c>
+      <c r="J1799">
+        <v>3</v>
+      </c>
+      <c r="K1799" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11">
+      <c r="A1800" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1800">
+        <v>15</v>
+      </c>
+      <c r="G1800">
+        <v>6</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1800">
+        <v>0</v>
+      </c>
+      <c r="J1800">
+        <v>6</v>
+      </c>
+      <c r="K1800" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:11">
+      <c r="A1801" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1801">
+        <v>5</v>
+      </c>
+      <c r="G1801">
+        <v>1</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1801">
+        <v>0</v>
+      </c>
+      <c r="J1801">
+        <v>1</v>
+      </c>
+      <c r="K1801" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:11">
+      <c r="A1802" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1802">
+        <v>2</v>
+      </c>
+      <c r="G1802">
+        <v>1</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1802">
+        <v>0</v>
+      </c>
+      <c r="J1802">
+        <v>1</v>
+      </c>
+      <c r="K1802" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11">
+      <c r="A1803" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1803">
+        <v>42</v>
+      </c>
+      <c r="G1803">
+        <v>14</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1803">
+        <v>0</v>
+      </c>
+      <c r="J1803">
+        <v>14</v>
+      </c>
+      <c r="K1803" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11">
+      <c r="A1804" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1804">
+        <v>16</v>
+      </c>
+      <c r="G1804">
+        <v>7</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1804">
+        <v>0</v>
+      </c>
+      <c r="J1804">
+        <v>7</v>
+      </c>
+      <c r="K1804" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11">
+      <c r="A1805" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1805">
+        <v>34</v>
+      </c>
+      <c r="G1805">
+        <v>6</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1805">
+        <v>0</v>
+      </c>
+      <c r="J1805">
+        <v>6</v>
+      </c>
+      <c r="K1805" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:11">
+      <c r="A1806" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1806">
+        <v>9</v>
+      </c>
+      <c r="G1806">
+        <v>5</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1806">
+        <v>0</v>
+      </c>
+      <c r="J1806">
+        <v>5</v>
+      </c>
+      <c r="K1806" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:11">
+      <c r="A1807" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1807">
+        <v>5</v>
+      </c>
+      <c r="G1807">
+        <v>2</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1807">
+        <v>0</v>
+      </c>
+      <c r="J1807">
+        <v>2</v>
+      </c>
+      <c r="K1807" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11">
+      <c r="A1808" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1808">
+        <v>16</v>
+      </c>
+      <c r="G1808">
+        <v>8</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1808">
+        <v>0</v>
+      </c>
+      <c r="J1808">
+        <v>8</v>
+      </c>
+      <c r="K1808" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:11">
+      <c r="A1809" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1809">
+        <v>15</v>
+      </c>
+      <c r="G1809">
+        <v>3</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1809">
+        <v>0</v>
+      </c>
+      <c r="J1809">
+        <v>3</v>
+      </c>
+      <c r="K1809" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11">
+      <c r="A1810" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1810">
+        <v>10</v>
+      </c>
+      <c r="G1810">
+        <v>7</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1810">
+        <v>0</v>
+      </c>
+      <c r="J1810">
+        <v>7</v>
+      </c>
+      <c r="K1810" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11">
+      <c r="A1811" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1811">
+        <v>15</v>
+      </c>
+      <c r="G1811">
+        <v>6</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1811">
+        <v>0</v>
+      </c>
+      <c r="J1811">
+        <v>6</v>
+      </c>
+      <c r="K1811" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11">
+      <c r="A1812" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1812">
+        <v>14</v>
+      </c>
+      <c r="G1812">
+        <v>6</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1812">
+        <v>0</v>
+      </c>
+      <c r="J1812">
+        <v>6</v>
+      </c>
+      <c r="K1812" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:11">
+      <c r="A1813" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1813">
+        <v>13</v>
+      </c>
+      <c r="G1813">
+        <v>1</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1813">
+        <v>0</v>
+      </c>
+      <c r="J1813">
+        <v>1</v>
+      </c>
+      <c r="K1813" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11">
+      <c r="A1814" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1814">
+        <v>36</v>
+      </c>
+      <c r="G1814">
+        <v>17</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1814">
+        <v>0</v>
+      </c>
+      <c r="J1814">
+        <v>17</v>
+      </c>
+      <c r="K1814" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11">
+      <c r="A1815" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1815">
+        <v>9</v>
+      </c>
+      <c r="G1815">
+        <v>5</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1815">
+        <v>0</v>
+      </c>
+      <c r="J1815">
+        <v>5</v>
+      </c>
+      <c r="K1815" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11">
+      <c r="A1816" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1816">
+        <v>28</v>
+      </c>
+      <c r="G1816">
+        <v>14</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1816">
+        <v>0</v>
+      </c>
+      <c r="J1816">
+        <v>14</v>
+      </c>
+      <c r="K1816" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:11">
+      <c r="A1817" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1817">
+        <v>6</v>
+      </c>
+      <c r="G1817">
+        <v>0</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1817">
+        <v>0</v>
+      </c>
+      <c r="J1817">
+        <v>0</v>
+      </c>
+      <c r="K1817" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11">
+      <c r="A1818" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1818">
+        <v>3</v>
+      </c>
+      <c r="G1818">
+        <v>3</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1818">
+        <v>0</v>
+      </c>
+      <c r="J1818">
+        <v>3</v>
+      </c>
+      <c r="K1818" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11">
+      <c r="A1819" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1819">
+        <v>1</v>
+      </c>
+      <c r="G1819">
+        <v>0</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1819">
+        <v>0</v>
+      </c>
+      <c r="J1819">
+        <v>0</v>
+      </c>
+      <c r="K1819" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11">
+      <c r="A1820" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1820">
+        <v>2</v>
+      </c>
+      <c r="G1820">
+        <v>1</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1820">
+        <v>0</v>
+      </c>
+      <c r="J1820">
+        <v>1</v>
+      </c>
+      <c r="K1820" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:11">
+      <c r="A1821" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1821">
+        <v>0</v>
+      </c>
+      <c r="G1821">
+        <v>0</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1821">
+        <v>0</v>
+      </c>
+      <c r="J1821">
+        <v>0</v>
+      </c>
+      <c r="K1821" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11">
+      <c r="A1822" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1822">
+        <v>2</v>
+      </c>
+      <c r="G1822">
+        <v>1</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1822">
+        <v>0</v>
+      </c>
+      <c r="J1822">
+        <v>1</v>
+      </c>
+      <c r="K1822" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:11">
+      <c r="A1823" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1823">
+        <v>4</v>
+      </c>
+      <c r="G1823">
+        <v>1</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1823">
+        <v>0</v>
+      </c>
+      <c r="J1823">
+        <v>1</v>
+      </c>
+      <c r="K1823" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11">
+      <c r="A1824" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1824">
+        <v>6</v>
+      </c>
+      <c r="G1824">
+        <v>2</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1824">
+        <v>0</v>
+      </c>
+      <c r="J1824">
+        <v>2</v>
+      </c>
+      <c r="K1824" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11">
+      <c r="A1825" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1825">
+        <v>2</v>
+      </c>
+      <c r="G1825">
+        <v>2</v>
+      </c>
+      <c r="H1825" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1825">
+        <v>0</v>
+      </c>
+      <c r="J1825">
+        <v>2</v>
+      </c>
+      <c r="K1825" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11">
+      <c r="A1826" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1826">
+        <v>7</v>
+      </c>
+      <c r="G1826">
+        <v>2</v>
+      </c>
+      <c r="H1826" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1826">
+        <v>0</v>
+      </c>
+      <c r="J1826">
+        <v>2</v>
+      </c>
+      <c r="K1826" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11">
+      <c r="A1827" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1827">
+        <v>7</v>
+      </c>
+      <c r="G1827">
+        <v>2</v>
+      </c>
+      <c r="H1827" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1827">
+        <v>0</v>
+      </c>
+      <c r="J1827">
+        <v>2</v>
+      </c>
+      <c r="K1827" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:11">
+      <c r="A1828" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1828">
+        <v>11</v>
+      </c>
+      <c r="G1828">
+        <v>2</v>
+      </c>
+      <c r="H1828" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1828">
+        <v>0</v>
+      </c>
+      <c r="J1828">
+        <v>2</v>
+      </c>
+      <c r="K1828" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11">
+      <c r="A1829" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1829">
+        <v>14</v>
+      </c>
+      <c r="G1829">
+        <v>2</v>
+      </c>
+      <c r="H1829" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1829">
+        <v>0</v>
+      </c>
+      <c r="J1829">
+        <v>2</v>
+      </c>
+      <c r="K1829" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11">
+      <c r="A1830" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1830">
+        <v>9</v>
+      </c>
+      <c r="G1830">
+        <v>2</v>
+      </c>
+      <c r="H1830" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1830">
+        <v>0</v>
+      </c>
+      <c r="J1830">
+        <v>2</v>
+      </c>
+      <c r="K1830" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11">
+      <c r="A1831" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1831">
+        <v>20</v>
+      </c>
+      <c r="G1831">
+        <v>10</v>
+      </c>
+      <c r="H1831" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1831">
+        <v>0</v>
+      </c>
+      <c r="J1831">
+        <v>10</v>
+      </c>
+      <c r="K1831" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:11">
+      <c r="A1832" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1832">
+        <v>15</v>
+      </c>
+      <c r="G1832">
+        <v>4</v>
+      </c>
+      <c r="H1832" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1832">
+        <v>0</v>
+      </c>
+      <c r="J1832">
+        <v>4</v>
+      </c>
+      <c r="K1832" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11">
+      <c r="A1833" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1833">
+        <v>20</v>
+      </c>
+      <c r="G1833">
+        <v>8</v>
+      </c>
+      <c r="H1833" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1833">
+        <v>0</v>
+      </c>
+      <c r="J1833">
+        <v>8</v>
+      </c>
+      <c r="K1833" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11">
+      <c r="A1834" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1834">
+        <v>16</v>
+      </c>
+      <c r="G1834">
+        <v>7</v>
+      </c>
+      <c r="H1834" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1834">
+        <v>0</v>
+      </c>
+      <c r="J1834">
+        <v>7</v>
+      </c>
+      <c r="K1834" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11">
+      <c r="A1835" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1835">
+        <v>7</v>
+      </c>
+      <c r="G1835">
+        <v>2</v>
+      </c>
+      <c r="H1835" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1835">
+        <v>0</v>
+      </c>
+      <c r="J1835">
+        <v>2</v>
+      </c>
+      <c r="K1835" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11">
+      <c r="A1836" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1836">
+        <v>10</v>
+      </c>
+      <c r="G1836">
+        <v>4</v>
+      </c>
+      <c r="H1836" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1836">
+        <v>0</v>
+      </c>
+      <c r="J1836">
+        <v>4</v>
+      </c>
+      <c r="K1836" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11">
+      <c r="A1837" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1837">
+        <v>14</v>
+      </c>
+      <c r="G1837">
+        <v>4</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1837">
+        <v>0</v>
+      </c>
+      <c r="J1837">
+        <v>4</v>
+      </c>
+      <c r="K1837" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11">
+      <c r="A1838" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1838">
+        <v>9</v>
+      </c>
+      <c r="G1838">
+        <v>6</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1838">
+        <v>0</v>
+      </c>
+      <c r="J1838">
+        <v>6</v>
+      </c>
+      <c r="K1838" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11">
+      <c r="A1839" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1839">
+        <v>17</v>
+      </c>
+      <c r="G1839">
+        <v>8</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1839">
+        <v>0</v>
+      </c>
+      <c r="J1839">
+        <v>8</v>
+      </c>
+      <c r="K1839" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11">
+      <c r="A1840" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1840">
+        <v>14</v>
+      </c>
+      <c r="G1840">
+        <v>4</v>
+      </c>
+      <c r="H1840" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1840">
+        <v>0</v>
+      </c>
+      <c r="J1840">
+        <v>4</v>
+      </c>
+      <c r="K1840" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11">
+      <c r="A1841" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1841">
+        <v>8</v>
+      </c>
+      <c r="G1841">
+        <v>4</v>
+      </c>
+      <c r="H1841" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1841">
+        <v>0</v>
+      </c>
+      <c r="J1841">
+        <v>4</v>
+      </c>
+      <c r="K1841" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:11">
+      <c r="A1842" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1842">
+        <v>6</v>
+      </c>
+      <c r="G1842">
+        <v>3</v>
+      </c>
+      <c r="H1842" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1842">
+        <v>0</v>
+      </c>
+      <c r="J1842">
+        <v>3</v>
+      </c>
+      <c r="K1842" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11">
+      <c r="A1843" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1843">
+        <v>24</v>
+      </c>
+      <c r="G1843">
+        <v>7</v>
+      </c>
+      <c r="H1843" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1843">
+        <v>0</v>
+      </c>
+      <c r="J1843">
+        <v>7</v>
+      </c>
+      <c r="K1843" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11">
+      <c r="A1844" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1844">
+        <v>19</v>
+      </c>
+      <c r="G1844">
+        <v>5</v>
+      </c>
+      <c r="H1844" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1844">
+        <v>0</v>
+      </c>
+      <c r="J1844">
+        <v>5</v>
+      </c>
+      <c r="K1844" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11">
+      <c r="A1845" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1845">
+        <v>11</v>
+      </c>
+      <c r="G1845">
+        <v>5</v>
+      </c>
+      <c r="H1845" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1845">
+        <v>0</v>
+      </c>
+      <c r="J1845">
+        <v>5</v>
+      </c>
+      <c r="K1845" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11">
+      <c r="A1846" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1846">
+        <v>11</v>
+      </c>
+      <c r="G1846">
+        <v>4</v>
+      </c>
+      <c r="H1846" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1846">
+        <v>0</v>
+      </c>
+      <c r="J1846">
+        <v>4</v>
+      </c>
+      <c r="K1846" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11">
+      <c r="A1847" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1847">
+        <v>16</v>
+      </c>
+      <c r="G1847">
+        <v>6</v>
+      </c>
+      <c r="H1847" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1847">
+        <v>0</v>
+      </c>
+      <c r="J1847">
+        <v>6</v>
+      </c>
+      <c r="K1847" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11">
+      <c r="A1848" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1848">
+        <v>3</v>
+      </c>
+      <c r="G1848">
+        <v>1</v>
+      </c>
+      <c r="H1848" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1848">
+        <v>0</v>
+      </c>
+      <c r="J1848">
+        <v>1</v>
+      </c>
+      <c r="K1848" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:11">
+      <c r="A1849" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1849">
+        <v>3</v>
+      </c>
+      <c r="G1849">
+        <v>2</v>
+      </c>
+      <c r="H1849" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1849">
+        <v>0</v>
+      </c>
+      <c r="J1849">
+        <v>2</v>
+      </c>
+      <c r="K1849" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11">
+      <c r="A1850" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1850">
+        <v>2</v>
+      </c>
+      <c r="G1850">
+        <v>0</v>
+      </c>
+      <c r="H1850" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1850">
+        <v>0</v>
+      </c>
+      <c r="J1850">
+        <v>0</v>
+      </c>
+      <c r="K1850" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:11">
+      <c r="A1851" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1851">
+        <v>1</v>
+      </c>
+      <c r="G1851">
+        <v>1</v>
+      </c>
+      <c r="H1851" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1851">
+        <v>0</v>
+      </c>
+      <c r="J1851">
+        <v>1</v>
+      </c>
+      <c r="K1851" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11">
+      <c r="A1852" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1852">
+        <v>1</v>
+      </c>
+      <c r="G1852">
+        <v>0</v>
+      </c>
+      <c r="H1852" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1852">
+        <v>0</v>
+      </c>
+      <c r="J1852">
+        <v>0</v>
+      </c>
+      <c r="K1852" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:11">
+      <c r="A1853" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1853">
+        <v>1</v>
+      </c>
+      <c r="G1853">
+        <v>0</v>
+      </c>
+      <c r="H1853" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1853">
+        <v>0</v>
+      </c>
+      <c r="J1853">
+        <v>0</v>
+      </c>
+      <c r="K1853" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:11">
+      <c r="A1854" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1854">
+        <v>3</v>
+      </c>
+      <c r="G1854">
+        <v>1</v>
+      </c>
+      <c r="H1854" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1854">
+        <v>0</v>
+      </c>
+      <c r="J1854">
+        <v>1</v>
+      </c>
+      <c r="K1854" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11">
+      <c r="A1855" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1855">
+        <v>6</v>
+      </c>
+      <c r="G1855">
+        <v>4</v>
+      </c>
+      <c r="H1855" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1855">
+        <v>0</v>
+      </c>
+      <c r="J1855">
+        <v>4</v>
+      </c>
+      <c r="K1855" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11">
+      <c r="A1856" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1856">
+        <v>12</v>
+      </c>
+      <c r="G1856">
+        <v>4</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1856">
+        <v>0</v>
+      </c>
+      <c r="J1856">
+        <v>4</v>
+      </c>
+      <c r="K1856" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11">
+      <c r="A1857" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1857">
+        <v>12</v>
+      </c>
+      <c r="G1857">
+        <v>4</v>
+      </c>
+      <c r="H1857" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1857">
+        <v>0</v>
+      </c>
+      <c r="J1857">
+        <v>4</v>
+      </c>
+      <c r="K1857" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11">
+      <c r="A1858" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1858">
+        <v>14</v>
+      </c>
+      <c r="G1858">
+        <v>4</v>
+      </c>
+      <c r="H1858" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1858">
+        <v>0</v>
+      </c>
+      <c r="J1858">
+        <v>4</v>
+      </c>
+      <c r="K1858" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:11">
+      <c r="A1859" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1859">
+        <v>10</v>
+      </c>
+      <c r="G1859">
+        <v>4</v>
+      </c>
+      <c r="H1859" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1859">
+        <v>0</v>
+      </c>
+      <c r="J1859">
+        <v>4</v>
+      </c>
+      <c r="K1859" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:11">
+      <c r="A1860" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1860">
+        <v>17</v>
+      </c>
+      <c r="G1860">
+        <v>9</v>
+      </c>
+      <c r="H1860" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1860">
+        <v>0</v>
+      </c>
+      <c r="J1860">
+        <v>9</v>
+      </c>
+      <c r="K1860" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:11">
+      <c r="A1861" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1861">
+        <v>24</v>
+      </c>
+      <c r="G1861">
+        <v>14</v>
+      </c>
+      <c r="H1861" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1861">
+        <v>0</v>
+      </c>
+      <c r="J1861">
+        <v>14</v>
+      </c>
+      <c r="K1861" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11">
+      <c r="A1862" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1862">
+        <v>11</v>
+      </c>
+      <c r="G1862">
+        <v>5</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1862">
+        <v>0</v>
+      </c>
+      <c r="J1862">
+        <v>5</v>
+      </c>
+      <c r="K1862" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11">
+      <c r="A1863" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1863">
+        <v>23</v>
+      </c>
+      <c r="G1863">
+        <v>6</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1863">
+        <v>0</v>
+      </c>
+      <c r="J1863">
+        <v>6</v>
+      </c>
+      <c r="K1863" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11">
+      <c r="A1864" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1864">
+        <v>9</v>
+      </c>
+      <c r="G1864">
+        <v>3</v>
+      </c>
+      <c r="H1864" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1864">
+        <v>0</v>
+      </c>
+      <c r="J1864">
+        <v>3</v>
+      </c>
+      <c r="K1864" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11">
+      <c r="A1865" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1865">
+        <v>11</v>
+      </c>
+      <c r="G1865">
+        <v>3</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1865">
+        <v>0</v>
+      </c>
+      <c r="J1865">
+        <v>3</v>
+      </c>
+      <c r="K1865" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:11">
+      <c r="A1866" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1866">
+        <v>7</v>
+      </c>
+      <c r="G1866">
+        <v>3</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1866">
+        <v>0</v>
+      </c>
+      <c r="J1866">
+        <v>3</v>
+      </c>
+      <c r="K1866" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11">
+      <c r="A1867" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1867">
+        <v>12</v>
+      </c>
+      <c r="G1867">
+        <v>3</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1867">
+        <v>0</v>
+      </c>
+      <c r="J1867">
+        <v>3</v>
+      </c>
+      <c r="K1867" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11">
+      <c r="A1868" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1868">
+        <v>2</v>
+      </c>
+      <c r="G1868">
+        <v>2</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1868">
+        <v>0</v>
+      </c>
+      <c r="J1868">
+        <v>2</v>
+      </c>
+      <c r="K1868" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:11">
+      <c r="A1869" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1869">
+        <v>19</v>
+      </c>
+      <c r="G1869">
+        <v>6</v>
+      </c>
+      <c r="H1869" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1869">
+        <v>0</v>
+      </c>
+      <c r="J1869">
+        <v>6</v>
+      </c>
+      <c r="K1869" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:11">
+      <c r="A1870" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1870">
+        <v>47</v>
+      </c>
+      <c r="G1870">
+        <v>19</v>
+      </c>
+      <c r="H1870" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1870">
+        <v>0</v>
+      </c>
+      <c r="J1870">
+        <v>19</v>
+      </c>
+      <c r="K1870" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:11">
+      <c r="A1871" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1871">
+        <v>180</v>
+      </c>
+      <c r="G1871">
+        <v>45</v>
+      </c>
+      <c r="H1871" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1871">
+        <v>0</v>
+      </c>
+      <c r="J1871">
+        <v>45</v>
+      </c>
+      <c r="K1871" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:11">
+      <c r="A1872" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1872">
+        <v>8</v>
+      </c>
+      <c r="G1872">
+        <v>2</v>
+      </c>
+      <c r="H1872" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1872">
+        <v>0</v>
+      </c>
+      <c r="J1872">
+        <v>2</v>
+      </c>
+      <c r="K1872" s="2">
+        <v>45540.4653218438</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:11">
+      <c r="A1873" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1873">
+        <v>40</v>
+      </c>
+      <c r="G1873">
+        <v>13</v>
+      </c>
+      <c r="H1873" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1873">
+        <v>0</v>
+      </c>
+      <c r="J1873">
+        <v>13</v>
+      </c>
+      <c r="K1873" s="2">
+        <v>45540.4653218438</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11243" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12179" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1873"/>
+  <dimension ref="A1:K2029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60850,7 +60850,7 @@
         <v>35</v>
       </c>
       <c r="K1718" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1719" spans="1:11">
@@ -60885,7 +60885,7 @@
         <v>19</v>
       </c>
       <c r="K1719" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1720" spans="1:11">
@@ -60920,7 +60920,7 @@
         <v>10</v>
       </c>
       <c r="K1720" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1721" spans="1:11">
@@ -60955,7 +60955,7 @@
         <v>31</v>
       </c>
       <c r="K1721" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1722" spans="1:11">
@@ -60990,7 +60990,7 @@
         <v>10</v>
       </c>
       <c r="K1722" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1723" spans="1:11">
@@ -61025,7 +61025,7 @@
         <v>5</v>
       </c>
       <c r="K1723" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1724" spans="1:11">
@@ -61060,7 +61060,7 @@
         <v>1</v>
       </c>
       <c r="K1724" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1725" spans="1:11">
@@ -61095,7 +61095,7 @@
         <v>1</v>
       </c>
       <c r="K1725" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1726" spans="1:11">
@@ -61130,7 +61130,7 @@
         <v>74</v>
       </c>
       <c r="K1726" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1727" spans="1:11">
@@ -61165,7 +61165,7 @@
         <v>63</v>
       </c>
       <c r="K1727" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1728" spans="1:11">
@@ -61200,7 +61200,7 @@
         <v>97</v>
       </c>
       <c r="K1728" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1729" spans="1:11">
@@ -61235,7 +61235,7 @@
         <v>26</v>
       </c>
       <c r="K1729" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1730" spans="1:11">
@@ -61270,7 +61270,7 @@
         <v>23</v>
       </c>
       <c r="K1730" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1731" spans="1:11">
@@ -61305,7 +61305,7 @@
         <v>21</v>
       </c>
       <c r="K1731" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1732" spans="1:11">
@@ -61340,7 +61340,7 @@
         <v>32</v>
       </c>
       <c r="K1732" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1733" spans="1:11">
@@ -61375,7 +61375,7 @@
         <v>17</v>
       </c>
       <c r="K1733" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1734" spans="1:11">
@@ -61410,7 +61410,7 @@
         <v>12</v>
       </c>
       <c r="K1734" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1735" spans="1:11">
@@ -61445,7 +61445,7 @@
         <v>2</v>
       </c>
       <c r="K1735" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1736" spans="1:11">
@@ -61480,7 +61480,7 @@
         <v>18</v>
       </c>
       <c r="K1736" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1737" spans="1:11">
@@ -61515,7 +61515,7 @@
         <v>32</v>
       </c>
       <c r="K1737" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1738" spans="1:11">
@@ -61550,7 +61550,7 @@
         <v>33</v>
       </c>
       <c r="K1738" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1739" spans="1:11">
@@ -61585,7 +61585,7 @@
         <v>34</v>
       </c>
       <c r="K1739" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1740" spans="1:11">
@@ -61620,7 +61620,7 @@
         <v>41</v>
       </c>
       <c r="K1740" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1741" spans="1:11">
@@ -61655,7 +61655,7 @@
         <v>31</v>
       </c>
       <c r="K1741" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1742" spans="1:11">
@@ -61690,7 +61690,7 @@
         <v>19</v>
       </c>
       <c r="K1742" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1743" spans="1:11">
@@ -61725,7 +61725,7 @@
         <v>58</v>
       </c>
       <c r="K1743" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1744" spans="1:11">
@@ -61760,7 +61760,7 @@
         <v>20</v>
       </c>
       <c r="K1744" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1745" spans="1:11">
@@ -61795,7 +61795,7 @@
         <v>45</v>
       </c>
       <c r="K1745" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1746" spans="1:11">
@@ -61830,7 +61830,7 @@
         <v>39</v>
       </c>
       <c r="K1746" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1747" spans="1:11">
@@ -61865,7 +61865,7 @@
         <v>16</v>
       </c>
       <c r="K1747" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1748" spans="1:11">
@@ -61900,7 +61900,7 @@
         <v>42</v>
       </c>
       <c r="K1748" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1749" spans="1:11">
@@ -61935,7 +61935,7 @@
         <v>58</v>
       </c>
       <c r="K1749" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1750" spans="1:11">
@@ -61970,7 +61970,7 @@
         <v>44</v>
       </c>
       <c r="K1750" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1751" spans="1:11">
@@ -62005,7 +62005,7 @@
         <v>28</v>
       </c>
       <c r="K1751" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1752" spans="1:11">
@@ -62040,7 +62040,7 @@
         <v>17</v>
       </c>
       <c r="K1752" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1753" spans="1:11">
@@ -62075,7 +62075,7 @@
         <v>24</v>
       </c>
       <c r="K1753" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1754" spans="1:11">
@@ -62110,7 +62110,7 @@
         <v>22</v>
       </c>
       <c r="K1754" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1755" spans="1:11">
@@ -62145,7 +62145,7 @@
         <v>32</v>
       </c>
       <c r="K1755" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1756" spans="1:11">
@@ -62180,7 +62180,7 @@
         <v>45</v>
       </c>
       <c r="K1756" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1757" spans="1:11">
@@ -62215,7 +62215,7 @@
         <v>53</v>
       </c>
       <c r="K1757" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1758" spans="1:11">
@@ -62250,7 +62250,7 @@
         <v>64</v>
       </c>
       <c r="K1758" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1759" spans="1:11">
@@ -62285,7 +62285,7 @@
         <v>15</v>
       </c>
       <c r="K1759" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1760" spans="1:11">
@@ -62320,7 +62320,7 @@
         <v>55</v>
       </c>
       <c r="K1760" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1761" spans="1:11">
@@ -62355,7 +62355,7 @@
         <v>28</v>
       </c>
       <c r="K1761" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1762" spans="1:11">
@@ -62390,7 +62390,7 @@
         <v>44</v>
       </c>
       <c r="K1762" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1763" spans="1:11">
@@ -62425,7 +62425,7 @@
         <v>69</v>
       </c>
       <c r="K1763" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1764" spans="1:11">
@@ -62460,7 +62460,7 @@
         <v>26</v>
       </c>
       <c r="K1764" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1765" spans="1:11">
@@ -62495,7 +62495,7 @@
         <v>43</v>
       </c>
       <c r="K1765" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1766" spans="1:11">
@@ -62530,7 +62530,7 @@
         <v>32</v>
       </c>
       <c r="K1766" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1767" spans="1:11">
@@ -62565,7 +62565,7 @@
         <v>33</v>
       </c>
       <c r="K1767" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1768" spans="1:11">
@@ -62600,7 +62600,7 @@
         <v>3</v>
       </c>
       <c r="K1768" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1769" spans="1:11">
@@ -62635,7 +62635,7 @@
         <v>13</v>
       </c>
       <c r="K1769" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1770" spans="1:11">
@@ -62670,7 +62670,7 @@
         <v>5</v>
       </c>
       <c r="K1770" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1771" spans="1:11">
@@ -62705,7 +62705,7 @@
         <v>0</v>
       </c>
       <c r="K1771" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1772" spans="1:11">
@@ -62740,7 +62740,7 @@
         <v>0</v>
       </c>
       <c r="K1772" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1773" spans="1:11">
@@ -62775,7 +62775,7 @@
         <v>0</v>
       </c>
       <c r="K1773" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1774" spans="1:11">
@@ -62810,7 +62810,7 @@
         <v>1</v>
       </c>
       <c r="K1774" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1775" spans="1:11">
@@ -62845,7 +62845,7 @@
         <v>1</v>
       </c>
       <c r="K1775" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1776" spans="1:11">
@@ -62880,7 +62880,7 @@
         <v>3</v>
       </c>
       <c r="K1776" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1777" spans="1:11">
@@ -62915,7 +62915,7 @@
         <v>0</v>
       </c>
       <c r="K1777" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1778" spans="1:11">
@@ -62950,7 +62950,7 @@
         <v>0</v>
       </c>
       <c r="K1778" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1779" spans="1:11">
@@ -62985,7 +62985,7 @@
         <v>0</v>
       </c>
       <c r="K1779" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1780" spans="1:11">
@@ -63020,7 +63020,7 @@
         <v>1</v>
       </c>
       <c r="K1780" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1781" spans="1:11">
@@ -63055,7 +63055,7 @@
         <v>0</v>
       </c>
       <c r="K1781" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1782" spans="1:11">
@@ -63090,7 +63090,7 @@
         <v>39</v>
       </c>
       <c r="K1782" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1783" spans="1:11">
@@ -63125,7 +63125,7 @@
         <v>2</v>
       </c>
       <c r="K1783" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1784" spans="1:11">
@@ -63160,7 +63160,7 @@
         <v>20</v>
       </c>
       <c r="K1784" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1785" spans="1:11">
@@ -63195,7 +63195,7 @@
         <v>13</v>
       </c>
       <c r="K1785" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1786" spans="1:11">
@@ -63230,7 +63230,7 @@
         <v>16</v>
       </c>
       <c r="K1786" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1787" spans="1:11">
@@ -63265,7 +63265,7 @@
         <v>1</v>
       </c>
       <c r="K1787" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1788" spans="1:11">
@@ -63300,7 +63300,7 @@
         <v>0</v>
       </c>
       <c r="K1788" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1789" spans="1:11">
@@ -63335,7 +63335,7 @@
         <v>1</v>
       </c>
       <c r="K1789" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1790" spans="1:11">
@@ -63370,7 +63370,7 @@
         <v>0</v>
       </c>
       <c r="K1790" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1791" spans="1:11">
@@ -63405,7 +63405,7 @@
         <v>4</v>
       </c>
       <c r="K1791" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1792" spans="1:11">
@@ -63440,7 +63440,7 @@
         <v>1</v>
       </c>
       <c r="K1792" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1793" spans="1:11">
@@ -63475,7 +63475,7 @@
         <v>6</v>
       </c>
       <c r="K1793" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1794" spans="1:11">
@@ -63510,7 +63510,7 @@
         <v>1</v>
       </c>
       <c r="K1794" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1795" spans="1:11">
@@ -63545,7 +63545,7 @@
         <v>3</v>
       </c>
       <c r="K1795" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1796" spans="1:11">
@@ -63580,7 +63580,7 @@
         <v>0</v>
       </c>
       <c r="K1796" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1797" spans="1:11">
@@ -63615,7 +63615,7 @@
         <v>0</v>
       </c>
       <c r="K1797" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1798" spans="1:11">
@@ -63650,7 +63650,7 @@
         <v>0</v>
       </c>
       <c r="K1798" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1799" spans="1:11">
@@ -63685,7 +63685,7 @@
         <v>3</v>
       </c>
       <c r="K1799" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1800" spans="1:11">
@@ -63720,7 +63720,7 @@
         <v>6</v>
       </c>
       <c r="K1800" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1801" spans="1:11">
@@ -63755,7 +63755,7 @@
         <v>1</v>
       </c>
       <c r="K1801" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1802" spans="1:11">
@@ -63790,7 +63790,7 @@
         <v>1</v>
       </c>
       <c r="K1802" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1803" spans="1:11">
@@ -63825,7 +63825,7 @@
         <v>14</v>
       </c>
       <c r="K1803" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1804" spans="1:11">
@@ -63860,7 +63860,7 @@
         <v>7</v>
       </c>
       <c r="K1804" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1805" spans="1:11">
@@ -63895,7 +63895,7 @@
         <v>6</v>
       </c>
       <c r="K1805" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1806" spans="1:11">
@@ -63930,7 +63930,7 @@
         <v>5</v>
       </c>
       <c r="K1806" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1807" spans="1:11">
@@ -63965,7 +63965,7 @@
         <v>2</v>
       </c>
       <c r="K1807" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1808" spans="1:11">
@@ -64000,7 +64000,7 @@
         <v>8</v>
       </c>
       <c r="K1808" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1809" spans="1:11">
@@ -64035,7 +64035,7 @@
         <v>3</v>
       </c>
       <c r="K1809" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1810" spans="1:11">
@@ -64070,7 +64070,7 @@
         <v>7</v>
       </c>
       <c r="K1810" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1811" spans="1:11">
@@ -64105,7 +64105,7 @@
         <v>6</v>
       </c>
       <c r="K1811" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1812" spans="1:11">
@@ -64140,7 +64140,7 @@
         <v>6</v>
       </c>
       <c r="K1812" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1813" spans="1:11">
@@ -64175,7 +64175,7 @@
         <v>1</v>
       </c>
       <c r="K1813" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1814" spans="1:11">
@@ -64210,7 +64210,7 @@
         <v>17</v>
       </c>
       <c r="K1814" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1815" spans="1:11">
@@ -64245,7 +64245,7 @@
         <v>5</v>
       </c>
       <c r="K1815" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1816" spans="1:11">
@@ -64280,7 +64280,7 @@
         <v>14</v>
       </c>
       <c r="K1816" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1817" spans="1:11">
@@ -64315,7 +64315,7 @@
         <v>0</v>
       </c>
       <c r="K1817" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1818" spans="1:11">
@@ -64350,7 +64350,7 @@
         <v>3</v>
       </c>
       <c r="K1818" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1819" spans="1:11">
@@ -64385,7 +64385,7 @@
         <v>0</v>
       </c>
       <c r="K1819" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1820" spans="1:11">
@@ -64420,7 +64420,7 @@
         <v>1</v>
       </c>
       <c r="K1820" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1821" spans="1:11">
@@ -64455,7 +64455,7 @@
         <v>0</v>
       </c>
       <c r="K1821" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1822" spans="1:11">
@@ -64490,7 +64490,7 @@
         <v>1</v>
       </c>
       <c r="K1822" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1823" spans="1:11">
@@ -64525,7 +64525,7 @@
         <v>1</v>
       </c>
       <c r="K1823" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1824" spans="1:11">
@@ -64560,7 +64560,7 @@
         <v>2</v>
       </c>
       <c r="K1824" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1825" spans="1:11">
@@ -64595,7 +64595,7 @@
         <v>2</v>
       </c>
       <c r="K1825" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1826" spans="1:11">
@@ -64630,7 +64630,7 @@
         <v>2</v>
       </c>
       <c r="K1826" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1827" spans="1:11">
@@ -64665,7 +64665,7 @@
         <v>2</v>
       </c>
       <c r="K1827" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1828" spans="1:11">
@@ -64700,7 +64700,7 @@
         <v>2</v>
       </c>
       <c r="K1828" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1829" spans="1:11">
@@ -64735,7 +64735,7 @@
         <v>2</v>
       </c>
       <c r="K1829" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1830" spans="1:11">
@@ -64770,7 +64770,7 @@
         <v>2</v>
       </c>
       <c r="K1830" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1831" spans="1:11">
@@ -64805,7 +64805,7 @@
         <v>10</v>
       </c>
       <c r="K1831" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1832" spans="1:11">
@@ -64840,7 +64840,7 @@
         <v>4</v>
       </c>
       <c r="K1832" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1833" spans="1:11">
@@ -64875,7 +64875,7 @@
         <v>8</v>
       </c>
       <c r="K1833" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1834" spans="1:11">
@@ -64910,7 +64910,7 @@
         <v>7</v>
       </c>
       <c r="K1834" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1835" spans="1:11">
@@ -64945,7 +64945,7 @@
         <v>2</v>
       </c>
       <c r="K1835" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1836" spans="1:11">
@@ -64980,7 +64980,7 @@
         <v>4</v>
       </c>
       <c r="K1836" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1837" spans="1:11">
@@ -65015,7 +65015,7 @@
         <v>4</v>
       </c>
       <c r="K1837" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1838" spans="1:11">
@@ -65050,7 +65050,7 @@
         <v>6</v>
       </c>
       <c r="K1838" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1839" spans="1:11">
@@ -65085,7 +65085,7 @@
         <v>8</v>
       </c>
       <c r="K1839" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1840" spans="1:11">
@@ -65120,7 +65120,7 @@
         <v>4</v>
       </c>
       <c r="K1840" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1841" spans="1:11">
@@ -65155,7 +65155,7 @@
         <v>4</v>
       </c>
       <c r="K1841" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1842" spans="1:11">
@@ -65190,7 +65190,7 @@
         <v>3</v>
       </c>
       <c r="K1842" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1843" spans="1:11">
@@ -65225,7 +65225,7 @@
         <v>7</v>
       </c>
       <c r="K1843" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1844" spans="1:11">
@@ -65260,7 +65260,7 @@
         <v>5</v>
       </c>
       <c r="K1844" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1845" spans="1:11">
@@ -65295,7 +65295,7 @@
         <v>5</v>
       </c>
       <c r="K1845" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1846" spans="1:11">
@@ -65330,7 +65330,7 @@
         <v>4</v>
       </c>
       <c r="K1846" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1847" spans="1:11">
@@ -65365,7 +65365,7 @@
         <v>6</v>
       </c>
       <c r="K1847" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1848" spans="1:11">
@@ -65400,7 +65400,7 @@
         <v>1</v>
       </c>
       <c r="K1848" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1849" spans="1:11">
@@ -65435,7 +65435,7 @@
         <v>2</v>
       </c>
       <c r="K1849" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1850" spans="1:11">
@@ -65470,7 +65470,7 @@
         <v>0</v>
       </c>
       <c r="K1850" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1851" spans="1:11">
@@ -65505,7 +65505,7 @@
         <v>1</v>
       </c>
       <c r="K1851" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1852" spans="1:11">
@@ -65540,7 +65540,7 @@
         <v>0</v>
       </c>
       <c r="K1852" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1853" spans="1:11">
@@ -65575,7 +65575,7 @@
         <v>0</v>
       </c>
       <c r="K1853" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1854" spans="1:11">
@@ -65610,7 +65610,7 @@
         <v>1</v>
       </c>
       <c r="K1854" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1855" spans="1:11">
@@ -65645,7 +65645,7 @@
         <v>4</v>
       </c>
       <c r="K1855" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1856" spans="1:11">
@@ -65680,7 +65680,7 @@
         <v>4</v>
       </c>
       <c r="K1856" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1857" spans="1:11">
@@ -65715,7 +65715,7 @@
         <v>4</v>
       </c>
       <c r="K1857" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1858" spans="1:11">
@@ -65750,7 +65750,7 @@
         <v>4</v>
       </c>
       <c r="K1858" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1859" spans="1:11">
@@ -65785,7 +65785,7 @@
         <v>4</v>
       </c>
       <c r="K1859" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1860" spans="1:11">
@@ -65820,7 +65820,7 @@
         <v>9</v>
       </c>
       <c r="K1860" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1861" spans="1:11">
@@ -65855,7 +65855,7 @@
         <v>14</v>
       </c>
       <c r="K1861" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1862" spans="1:11">
@@ -65890,7 +65890,7 @@
         <v>5</v>
       </c>
       <c r="K1862" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1863" spans="1:11">
@@ -65925,7 +65925,7 @@
         <v>6</v>
       </c>
       <c r="K1863" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1864" spans="1:11">
@@ -65960,7 +65960,7 @@
         <v>3</v>
       </c>
       <c r="K1864" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1865" spans="1:11">
@@ -65995,7 +65995,7 @@
         <v>3</v>
       </c>
       <c r="K1865" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1866" spans="1:11">
@@ -66030,7 +66030,7 @@
         <v>3</v>
       </c>
       <c r="K1866" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1867" spans="1:11">
@@ -66065,7 +66065,7 @@
         <v>3</v>
       </c>
       <c r="K1867" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1868" spans="1:11">
@@ -66100,7 +66100,7 @@
         <v>2</v>
       </c>
       <c r="K1868" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1869" spans="1:11">
@@ -66135,7 +66135,7 @@
         <v>6</v>
       </c>
       <c r="K1869" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1870" spans="1:11">
@@ -66170,7 +66170,7 @@
         <v>19</v>
       </c>
       <c r="K1870" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1871" spans="1:11">
@@ -66205,7 +66205,7 @@
         <v>45</v>
       </c>
       <c r="K1871" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1872" spans="1:11">
@@ -66240,7 +66240,7 @@
         <v>2</v>
       </c>
       <c r="K1872" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
       </c>
     </row>
     <row r="1873" spans="1:11">
@@ -66275,7 +66275,5467 @@
         <v>13</v>
       </c>
       <c r="K1873" s="2">
-        <v>45540.4653218438</v>
+        <v>45540.46532184027</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:11">
+      <c r="A1874" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1874">
+        <v>57</v>
+      </c>
+      <c r="G1874">
+        <v>35</v>
+      </c>
+      <c r="H1874" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1874">
+        <v>0</v>
+      </c>
+      <c r="J1874">
+        <v>35</v>
+      </c>
+      <c r="K1874" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:11">
+      <c r="A1875" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1875">
+        <v>22</v>
+      </c>
+      <c r="G1875">
+        <v>19</v>
+      </c>
+      <c r="H1875" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1875">
+        <v>0</v>
+      </c>
+      <c r="J1875">
+        <v>19</v>
+      </c>
+      <c r="K1875" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:11">
+      <c r="A1876" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1876">
+        <v>24</v>
+      </c>
+      <c r="G1876">
+        <v>11</v>
+      </c>
+      <c r="H1876" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1876">
+        <v>0</v>
+      </c>
+      <c r="J1876">
+        <v>11</v>
+      </c>
+      <c r="K1876" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:11">
+      <c r="A1877" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1877">
+        <v>62</v>
+      </c>
+      <c r="G1877">
+        <v>31</v>
+      </c>
+      <c r="H1877" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1877">
+        <v>0</v>
+      </c>
+      <c r="J1877">
+        <v>31</v>
+      </c>
+      <c r="K1877" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:11">
+      <c r="A1878" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1878">
+        <v>21</v>
+      </c>
+      <c r="G1878">
+        <v>10</v>
+      </c>
+      <c r="H1878" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1878">
+        <v>0</v>
+      </c>
+      <c r="J1878">
+        <v>10</v>
+      </c>
+      <c r="K1878" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:11">
+      <c r="A1879" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1879">
+        <v>13</v>
+      </c>
+      <c r="G1879">
+        <v>5</v>
+      </c>
+      <c r="H1879" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1879">
+        <v>0</v>
+      </c>
+      <c r="J1879">
+        <v>5</v>
+      </c>
+      <c r="K1879" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:11">
+      <c r="A1880" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1880">
+        <v>4</v>
+      </c>
+      <c r="G1880">
+        <v>1</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1880">
+        <v>0</v>
+      </c>
+      <c r="J1880">
+        <v>1</v>
+      </c>
+      <c r="K1880" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:11">
+      <c r="A1881" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1881">
+        <v>2</v>
+      </c>
+      <c r="G1881">
+        <v>1</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1881">
+        <v>0</v>
+      </c>
+      <c r="J1881">
+        <v>1</v>
+      </c>
+      <c r="K1881" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:11">
+      <c r="A1882" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1882">
+        <v>183</v>
+      </c>
+      <c r="G1882">
+        <v>75</v>
+      </c>
+      <c r="H1882" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1882">
+        <v>0</v>
+      </c>
+      <c r="J1882">
+        <v>75</v>
+      </c>
+      <c r="K1882" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:11">
+      <c r="A1883" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1883">
+        <v>134</v>
+      </c>
+      <c r="G1883">
+        <v>65</v>
+      </c>
+      <c r="H1883" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1883">
+        <v>0</v>
+      </c>
+      <c r="J1883">
+        <v>65</v>
+      </c>
+      <c r="K1883" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:11">
+      <c r="A1884" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1884">
+        <v>194</v>
+      </c>
+      <c r="G1884">
+        <v>98</v>
+      </c>
+      <c r="H1884" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1884">
+        <v>0</v>
+      </c>
+      <c r="J1884">
+        <v>98</v>
+      </c>
+      <c r="K1884" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:11">
+      <c r="A1885" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1885">
+        <v>64</v>
+      </c>
+      <c r="G1885">
+        <v>27</v>
+      </c>
+      <c r="H1885" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1885">
+        <v>0</v>
+      </c>
+      <c r="J1885">
+        <v>27</v>
+      </c>
+      <c r="K1885" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:11">
+      <c r="A1886" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1886">
+        <v>57</v>
+      </c>
+      <c r="G1886">
+        <v>23</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1886">
+        <v>0</v>
+      </c>
+      <c r="J1886">
+        <v>23</v>
+      </c>
+      <c r="K1886" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:11">
+      <c r="A1887" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1887">
+        <v>83</v>
+      </c>
+      <c r="G1887">
+        <v>21</v>
+      </c>
+      <c r="H1887" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1887">
+        <v>0</v>
+      </c>
+      <c r="J1887">
+        <v>21</v>
+      </c>
+      <c r="K1887" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:11">
+      <c r="A1888" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1888">
+        <v>76</v>
+      </c>
+      <c r="G1888">
+        <v>33</v>
+      </c>
+      <c r="H1888" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1888">
+        <v>0</v>
+      </c>
+      <c r="J1888">
+        <v>33</v>
+      </c>
+      <c r="K1888" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:11">
+      <c r="A1889" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1889">
+        <v>36</v>
+      </c>
+      <c r="G1889">
+        <v>18</v>
+      </c>
+      <c r="H1889" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1889">
+        <v>0</v>
+      </c>
+      <c r="J1889">
+        <v>18</v>
+      </c>
+      <c r="K1889" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:11">
+      <c r="A1890" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1890">
+        <v>28</v>
+      </c>
+      <c r="G1890">
+        <v>13</v>
+      </c>
+      <c r="H1890" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1890">
+        <v>0</v>
+      </c>
+      <c r="J1890">
+        <v>13</v>
+      </c>
+      <c r="K1890" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:11">
+      <c r="A1891" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1891">
+        <v>12</v>
+      </c>
+      <c r="G1891">
+        <v>2</v>
+      </c>
+      <c r="H1891" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1891">
+        <v>0</v>
+      </c>
+      <c r="J1891">
+        <v>2</v>
+      </c>
+      <c r="K1891" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:11">
+      <c r="A1892" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1892">
+        <v>47</v>
+      </c>
+      <c r="G1892">
+        <v>18</v>
+      </c>
+      <c r="H1892" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1892">
+        <v>0</v>
+      </c>
+      <c r="J1892">
+        <v>18</v>
+      </c>
+      <c r="K1892" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:11">
+      <c r="A1893" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1893">
+        <v>64</v>
+      </c>
+      <c r="G1893">
+        <v>32</v>
+      </c>
+      <c r="H1893" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1893">
+        <v>0</v>
+      </c>
+      <c r="J1893">
+        <v>32</v>
+      </c>
+      <c r="K1893" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:11">
+      <c r="A1894" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1894">
+        <v>78</v>
+      </c>
+      <c r="G1894">
+        <v>33</v>
+      </c>
+      <c r="H1894" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1894">
+        <v>0</v>
+      </c>
+      <c r="J1894">
+        <v>33</v>
+      </c>
+      <c r="K1894" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:11">
+      <c r="A1895" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1895">
+        <v>86</v>
+      </c>
+      <c r="G1895">
+        <v>34</v>
+      </c>
+      <c r="H1895" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1895">
+        <v>0</v>
+      </c>
+      <c r="J1895">
+        <v>34</v>
+      </c>
+      <c r="K1895" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:11">
+      <c r="A1896" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1896">
+        <v>90</v>
+      </c>
+      <c r="G1896">
+        <v>42</v>
+      </c>
+      <c r="H1896" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1896">
+        <v>0</v>
+      </c>
+      <c r="J1896">
+        <v>42</v>
+      </c>
+      <c r="K1896" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:11">
+      <c r="A1897" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1897">
+        <v>79</v>
+      </c>
+      <c r="G1897">
+        <v>31</v>
+      </c>
+      <c r="H1897" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1897">
+        <v>0</v>
+      </c>
+      <c r="J1897">
+        <v>31</v>
+      </c>
+      <c r="K1897" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:11">
+      <c r="A1898" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1898">
+        <v>47</v>
+      </c>
+      <c r="G1898">
+        <v>20</v>
+      </c>
+      <c r="H1898" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1898">
+        <v>0</v>
+      </c>
+      <c r="J1898">
+        <v>20</v>
+      </c>
+      <c r="K1898" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:11">
+      <c r="A1899" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1899">
+        <v>127</v>
+      </c>
+      <c r="G1899">
+        <v>59</v>
+      </c>
+      <c r="H1899" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1899">
+        <v>0</v>
+      </c>
+      <c r="J1899">
+        <v>59</v>
+      </c>
+      <c r="K1899" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:11">
+      <c r="A1900" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1900">
+        <v>82</v>
+      </c>
+      <c r="G1900">
+        <v>20</v>
+      </c>
+      <c r="H1900" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1900">
+        <v>0</v>
+      </c>
+      <c r="J1900">
+        <v>20</v>
+      </c>
+      <c r="K1900" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:11">
+      <c r="A1901" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1901">
+        <v>77</v>
+      </c>
+      <c r="G1901">
+        <v>45</v>
+      </c>
+      <c r="H1901" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1901">
+        <v>0</v>
+      </c>
+      <c r="J1901">
+        <v>45</v>
+      </c>
+      <c r="K1901" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:11">
+      <c r="A1902" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1902">
+        <v>87</v>
+      </c>
+      <c r="G1902">
+        <v>39</v>
+      </c>
+      <c r="H1902" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1902">
+        <v>0</v>
+      </c>
+      <c r="J1902">
+        <v>39</v>
+      </c>
+      <c r="K1902" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:11">
+      <c r="A1903" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1903">
+        <v>36</v>
+      </c>
+      <c r="G1903">
+        <v>16</v>
+      </c>
+      <c r="H1903" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1903">
+        <v>0</v>
+      </c>
+      <c r="J1903">
+        <v>16</v>
+      </c>
+      <c r="K1903" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:11">
+      <c r="A1904" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1904">
+        <v>87</v>
+      </c>
+      <c r="G1904">
+        <v>43</v>
+      </c>
+      <c r="H1904" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1904">
+        <v>0</v>
+      </c>
+      <c r="J1904">
+        <v>43</v>
+      </c>
+      <c r="K1904" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:11">
+      <c r="A1905" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1905" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1905">
+        <v>116</v>
+      </c>
+      <c r="G1905">
+        <v>58</v>
+      </c>
+      <c r="H1905" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1905">
+        <v>0</v>
+      </c>
+      <c r="J1905">
+        <v>58</v>
+      </c>
+      <c r="K1905" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:11">
+      <c r="A1906" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1906" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1906">
+        <v>93</v>
+      </c>
+      <c r="G1906">
+        <v>48</v>
+      </c>
+      <c r="H1906" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1906">
+        <v>0</v>
+      </c>
+      <c r="J1906">
+        <v>48</v>
+      </c>
+      <c r="K1906" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:11">
+      <c r="A1907" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1907" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1907">
+        <v>58</v>
+      </c>
+      <c r="G1907">
+        <v>29</v>
+      </c>
+      <c r="H1907" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1907">
+        <v>0</v>
+      </c>
+      <c r="J1907">
+        <v>29</v>
+      </c>
+      <c r="K1907" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:11">
+      <c r="A1908" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1908" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1908">
+        <v>30</v>
+      </c>
+      <c r="G1908">
+        <v>17</v>
+      </c>
+      <c r="H1908" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1908">
+        <v>0</v>
+      </c>
+      <c r="J1908">
+        <v>17</v>
+      </c>
+      <c r="K1908" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:11">
+      <c r="A1909" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1909" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1909">
+        <v>58</v>
+      </c>
+      <c r="G1909">
+        <v>24</v>
+      </c>
+      <c r="H1909" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1909">
+        <v>0</v>
+      </c>
+      <c r="J1909">
+        <v>24</v>
+      </c>
+      <c r="K1909" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:11">
+      <c r="A1910" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1910" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1910">
+        <v>42</v>
+      </c>
+      <c r="G1910">
+        <v>23</v>
+      </c>
+      <c r="H1910" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1910">
+        <v>0</v>
+      </c>
+      <c r="J1910">
+        <v>23</v>
+      </c>
+      <c r="K1910" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:11">
+      <c r="A1911" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1911" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1911">
+        <v>95</v>
+      </c>
+      <c r="G1911">
+        <v>32</v>
+      </c>
+      <c r="H1911" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1911">
+        <v>0</v>
+      </c>
+      <c r="J1911">
+        <v>32</v>
+      </c>
+      <c r="K1911" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:11">
+      <c r="A1912" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1912" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1912">
+        <v>119</v>
+      </c>
+      <c r="G1912">
+        <v>47</v>
+      </c>
+      <c r="H1912" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1912">
+        <v>0</v>
+      </c>
+      <c r="J1912">
+        <v>47</v>
+      </c>
+      <c r="K1912" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:11">
+      <c r="A1913" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1913" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1913">
+        <v>161</v>
+      </c>
+      <c r="G1913">
+        <v>55</v>
+      </c>
+      <c r="H1913" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1913">
+        <v>0</v>
+      </c>
+      <c r="J1913">
+        <v>55</v>
+      </c>
+      <c r="K1913" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:11">
+      <c r="A1914" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1914" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1914">
+        <v>137</v>
+      </c>
+      <c r="G1914">
+        <v>64</v>
+      </c>
+      <c r="H1914" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1914">
+        <v>0</v>
+      </c>
+      <c r="J1914">
+        <v>64</v>
+      </c>
+      <c r="K1914" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:11">
+      <c r="A1915" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1915" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1915">
+        <v>40</v>
+      </c>
+      <c r="G1915">
+        <v>15</v>
+      </c>
+      <c r="H1915" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1915">
+        <v>0</v>
+      </c>
+      <c r="J1915">
+        <v>15</v>
+      </c>
+      <c r="K1915" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:11">
+      <c r="A1916" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1916" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1916">
+        <v>126</v>
+      </c>
+      <c r="G1916">
+        <v>55</v>
+      </c>
+      <c r="H1916" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1916">
+        <v>0</v>
+      </c>
+      <c r="J1916">
+        <v>55</v>
+      </c>
+      <c r="K1916" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:11">
+      <c r="A1917" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1917" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1917">
+        <v>50</v>
+      </c>
+      <c r="G1917">
+        <v>28</v>
+      </c>
+      <c r="H1917" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1917">
+        <v>0</v>
+      </c>
+      <c r="J1917">
+        <v>28</v>
+      </c>
+      <c r="K1917" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:11">
+      <c r="A1918" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1918" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1918">
+        <v>104</v>
+      </c>
+      <c r="G1918">
+        <v>45</v>
+      </c>
+      <c r="H1918" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1918">
+        <v>0</v>
+      </c>
+      <c r="J1918">
+        <v>45</v>
+      </c>
+      <c r="K1918" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:11">
+      <c r="A1919" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1919" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1919">
+        <v>180</v>
+      </c>
+      <c r="G1919">
+        <v>70</v>
+      </c>
+      <c r="H1919" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1919">
+        <v>0</v>
+      </c>
+      <c r="J1919">
+        <v>70</v>
+      </c>
+      <c r="K1919" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:11">
+      <c r="A1920" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1920" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1920">
+        <v>91</v>
+      </c>
+      <c r="G1920">
+        <v>26</v>
+      </c>
+      <c r="H1920" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1920">
+        <v>0</v>
+      </c>
+      <c r="J1920">
+        <v>26</v>
+      </c>
+      <c r="K1920" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:11">
+      <c r="A1921" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1921" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1921">
+        <v>100</v>
+      </c>
+      <c r="G1921">
+        <v>43</v>
+      </c>
+      <c r="H1921" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1921">
+        <v>0</v>
+      </c>
+      <c r="J1921">
+        <v>43</v>
+      </c>
+      <c r="K1921" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:11">
+      <c r="A1922" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1922" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1922">
+        <v>81</v>
+      </c>
+      <c r="G1922">
+        <v>32</v>
+      </c>
+      <c r="H1922" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1922">
+        <v>0</v>
+      </c>
+      <c r="J1922">
+        <v>32</v>
+      </c>
+      <c r="K1922" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:11">
+      <c r="A1923" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1923" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1923">
+        <v>82</v>
+      </c>
+      <c r="G1923">
+        <v>33</v>
+      </c>
+      <c r="H1923" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1923">
+        <v>0</v>
+      </c>
+      <c r="J1923">
+        <v>33</v>
+      </c>
+      <c r="K1923" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:11">
+      <c r="A1924" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1924" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1924">
+        <v>4</v>
+      </c>
+      <c r="G1924">
+        <v>3</v>
+      </c>
+      <c r="H1924" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1924">
+        <v>0</v>
+      </c>
+      <c r="J1924">
+        <v>3</v>
+      </c>
+      <c r="K1924" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:11">
+      <c r="A1925" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1925" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1925">
+        <v>28</v>
+      </c>
+      <c r="G1925">
+        <v>14</v>
+      </c>
+      <c r="H1925" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1925">
+        <v>0</v>
+      </c>
+      <c r="J1925">
+        <v>14</v>
+      </c>
+      <c r="K1925" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:11">
+      <c r="A1926" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1926" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1926">
+        <v>9</v>
+      </c>
+      <c r="G1926">
+        <v>5</v>
+      </c>
+      <c r="H1926" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1926">
+        <v>0</v>
+      </c>
+      <c r="J1926">
+        <v>5</v>
+      </c>
+      <c r="K1926" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:11">
+      <c r="A1927" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1927" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1927">
+        <v>6</v>
+      </c>
+      <c r="G1927">
+        <v>0</v>
+      </c>
+      <c r="H1927" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1927">
+        <v>0</v>
+      </c>
+      <c r="J1927">
+        <v>0</v>
+      </c>
+      <c r="K1927" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:11">
+      <c r="A1928" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1928" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1928">
+        <v>0</v>
+      </c>
+      <c r="G1928">
+        <v>0</v>
+      </c>
+      <c r="H1928" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1928">
+        <v>0</v>
+      </c>
+      <c r="J1928">
+        <v>0</v>
+      </c>
+      <c r="K1928" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:11">
+      <c r="A1929" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1929" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1929">
+        <v>1</v>
+      </c>
+      <c r="G1929">
+        <v>0</v>
+      </c>
+      <c r="H1929" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1929">
+        <v>0</v>
+      </c>
+      <c r="J1929">
+        <v>0</v>
+      </c>
+      <c r="K1929" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:11">
+      <c r="A1930" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1930" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1930">
+        <v>4</v>
+      </c>
+      <c r="G1930">
+        <v>1</v>
+      </c>
+      <c r="H1930" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1930">
+        <v>0</v>
+      </c>
+      <c r="J1930">
+        <v>1</v>
+      </c>
+      <c r="K1930" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:11">
+      <c r="A1931" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1931">
+        <v>5</v>
+      </c>
+      <c r="G1931">
+        <v>1</v>
+      </c>
+      <c r="H1931" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1931">
+        <v>0</v>
+      </c>
+      <c r="J1931">
+        <v>1</v>
+      </c>
+      <c r="K1931" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:11">
+      <c r="A1932" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1932">
+        <v>10</v>
+      </c>
+      <c r="G1932">
+        <v>3</v>
+      </c>
+      <c r="H1932" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1932">
+        <v>0</v>
+      </c>
+      <c r="J1932">
+        <v>3</v>
+      </c>
+      <c r="K1932" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:11">
+      <c r="A1933" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1933">
+        <v>0</v>
+      </c>
+      <c r="G1933">
+        <v>0</v>
+      </c>
+      <c r="H1933" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1933">
+        <v>0</v>
+      </c>
+      <c r="J1933">
+        <v>0</v>
+      </c>
+      <c r="K1933" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:11">
+      <c r="A1934" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1934">
+        <v>0</v>
+      </c>
+      <c r="G1934">
+        <v>0</v>
+      </c>
+      <c r="H1934" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1934">
+        <v>0</v>
+      </c>
+      <c r="J1934">
+        <v>0</v>
+      </c>
+      <c r="K1934" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:11">
+      <c r="A1935" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1935">
+        <v>1</v>
+      </c>
+      <c r="G1935">
+        <v>0</v>
+      </c>
+      <c r="H1935" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1935">
+        <v>0</v>
+      </c>
+      <c r="J1935">
+        <v>0</v>
+      </c>
+      <c r="K1935" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:11">
+      <c r="A1936" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1936">
+        <v>1</v>
+      </c>
+      <c r="G1936">
+        <v>1</v>
+      </c>
+      <c r="H1936" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1936">
+        <v>0</v>
+      </c>
+      <c r="J1936">
+        <v>1</v>
+      </c>
+      <c r="K1936" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:11">
+      <c r="A1937" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1937">
+        <v>0</v>
+      </c>
+      <c r="G1937">
+        <v>0</v>
+      </c>
+      <c r="H1937" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1937">
+        <v>0</v>
+      </c>
+      <c r="J1937">
+        <v>0</v>
+      </c>
+      <c r="K1937" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:11">
+      <c r="A1938" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1938" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1938">
+        <v>90</v>
+      </c>
+      <c r="G1938">
+        <v>40</v>
+      </c>
+      <c r="H1938" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1938">
+        <v>0</v>
+      </c>
+      <c r="J1938">
+        <v>40</v>
+      </c>
+      <c r="K1938" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:11">
+      <c r="A1939" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1939" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1939">
+        <v>6</v>
+      </c>
+      <c r="G1939">
+        <v>2</v>
+      </c>
+      <c r="H1939" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1939">
+        <v>0</v>
+      </c>
+      <c r="J1939">
+        <v>2</v>
+      </c>
+      <c r="K1939" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:11">
+      <c r="A1940" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1940" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1940">
+        <v>55</v>
+      </c>
+      <c r="G1940">
+        <v>21</v>
+      </c>
+      <c r="H1940" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1940">
+        <v>0</v>
+      </c>
+      <c r="J1940">
+        <v>21</v>
+      </c>
+      <c r="K1940" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:11">
+      <c r="A1941" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1941" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1941">
+        <v>47</v>
+      </c>
+      <c r="G1941">
+        <v>13</v>
+      </c>
+      <c r="H1941" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1941">
+        <v>0</v>
+      </c>
+      <c r="J1941">
+        <v>13</v>
+      </c>
+      <c r="K1941" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:11">
+      <c r="A1942" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1942" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1942">
+        <v>28</v>
+      </c>
+      <c r="G1942">
+        <v>16</v>
+      </c>
+      <c r="H1942" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1942">
+        <v>0</v>
+      </c>
+      <c r="J1942">
+        <v>16</v>
+      </c>
+      <c r="K1942" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:11">
+      <c r="A1943" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1943">
+        <v>2</v>
+      </c>
+      <c r="G1943">
+        <v>1</v>
+      </c>
+      <c r="H1943" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1943">
+        <v>0</v>
+      </c>
+      <c r="J1943">
+        <v>1</v>
+      </c>
+      <c r="K1943" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:11">
+      <c r="A1944" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1944">
+        <v>0</v>
+      </c>
+      <c r="G1944">
+        <v>0</v>
+      </c>
+      <c r="H1944" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1944">
+        <v>0</v>
+      </c>
+      <c r="J1944">
+        <v>0</v>
+      </c>
+      <c r="K1944" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:11">
+      <c r="A1945" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1945">
+        <v>4</v>
+      </c>
+      <c r="G1945">
+        <v>1</v>
+      </c>
+      <c r="H1945" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1945">
+        <v>0</v>
+      </c>
+      <c r="J1945">
+        <v>1</v>
+      </c>
+      <c r="K1945" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:11">
+      <c r="A1946" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1946" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1946">
+        <v>1</v>
+      </c>
+      <c r="G1946">
+        <v>0</v>
+      </c>
+      <c r="H1946" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1946">
+        <v>0</v>
+      </c>
+      <c r="J1946">
+        <v>0</v>
+      </c>
+      <c r="K1946" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:11">
+      <c r="A1947" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1947" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1947">
+        <v>12</v>
+      </c>
+      <c r="G1947">
+        <v>4</v>
+      </c>
+      <c r="H1947" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1947">
+        <v>0</v>
+      </c>
+      <c r="J1947">
+        <v>4</v>
+      </c>
+      <c r="K1947" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:11">
+      <c r="A1948" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1948" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1948">
+        <v>7</v>
+      </c>
+      <c r="G1948">
+        <v>1</v>
+      </c>
+      <c r="H1948" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1948">
+        <v>0</v>
+      </c>
+      <c r="J1948">
+        <v>1</v>
+      </c>
+      <c r="K1948" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:11">
+      <c r="A1949" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1949" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1949">
+        <v>11</v>
+      </c>
+      <c r="G1949">
+        <v>6</v>
+      </c>
+      <c r="H1949" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1949">
+        <v>0</v>
+      </c>
+      <c r="J1949">
+        <v>6</v>
+      </c>
+      <c r="K1949" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:11">
+      <c r="A1950" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1950">
+        <v>3</v>
+      </c>
+      <c r="G1950">
+        <v>1</v>
+      </c>
+      <c r="H1950" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1950">
+        <v>0</v>
+      </c>
+      <c r="J1950">
+        <v>1</v>
+      </c>
+      <c r="K1950" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:11">
+      <c r="A1951" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1951">
+        <v>5</v>
+      </c>
+      <c r="G1951">
+        <v>3</v>
+      </c>
+      <c r="H1951" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1951">
+        <v>0</v>
+      </c>
+      <c r="J1951">
+        <v>3</v>
+      </c>
+      <c r="K1951" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:11">
+      <c r="A1952" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1952">
+        <v>3</v>
+      </c>
+      <c r="G1952">
+        <v>0</v>
+      </c>
+      <c r="H1952" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1952">
+        <v>0</v>
+      </c>
+      <c r="J1952">
+        <v>0</v>
+      </c>
+      <c r="K1952" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:11">
+      <c r="A1953" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1953">
+        <v>1</v>
+      </c>
+      <c r="G1953">
+        <v>0</v>
+      </c>
+      <c r="H1953" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1953">
+        <v>0</v>
+      </c>
+      <c r="J1953">
+        <v>0</v>
+      </c>
+      <c r="K1953" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:11">
+      <c r="A1954" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1954">
+        <v>1</v>
+      </c>
+      <c r="G1954">
+        <v>0</v>
+      </c>
+      <c r="H1954" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1954">
+        <v>0</v>
+      </c>
+      <c r="J1954">
+        <v>0</v>
+      </c>
+      <c r="K1954" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:11">
+      <c r="A1955" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1955" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1955">
+        <v>13</v>
+      </c>
+      <c r="G1955">
+        <v>3</v>
+      </c>
+      <c r="H1955" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1955">
+        <v>0</v>
+      </c>
+      <c r="J1955">
+        <v>3</v>
+      </c>
+      <c r="K1955" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:11">
+      <c r="A1956" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1956" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1956">
+        <v>16</v>
+      </c>
+      <c r="G1956">
+        <v>6</v>
+      </c>
+      <c r="H1956" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1956">
+        <v>0</v>
+      </c>
+      <c r="J1956">
+        <v>6</v>
+      </c>
+      <c r="K1956" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:11">
+      <c r="A1957" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1957">
+        <v>7</v>
+      </c>
+      <c r="G1957">
+        <v>1</v>
+      </c>
+      <c r="H1957" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1957">
+        <v>0</v>
+      </c>
+      <c r="J1957">
+        <v>1</v>
+      </c>
+      <c r="K1957" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:11">
+      <c r="A1958" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1958">
+        <v>2</v>
+      </c>
+      <c r="G1958">
+        <v>1</v>
+      </c>
+      <c r="H1958" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1958">
+        <v>0</v>
+      </c>
+      <c r="J1958">
+        <v>1</v>
+      </c>
+      <c r="K1958" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:11">
+      <c r="A1959" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1959">
+        <v>45</v>
+      </c>
+      <c r="G1959">
+        <v>15</v>
+      </c>
+      <c r="H1959" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1959">
+        <v>0</v>
+      </c>
+      <c r="J1959">
+        <v>15</v>
+      </c>
+      <c r="K1959" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:11">
+      <c r="A1960" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1960">
+        <v>18</v>
+      </c>
+      <c r="G1960">
+        <v>7</v>
+      </c>
+      <c r="H1960" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1960">
+        <v>0</v>
+      </c>
+      <c r="J1960">
+        <v>7</v>
+      </c>
+      <c r="K1960" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:11">
+      <c r="A1961" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1961">
+        <v>35</v>
+      </c>
+      <c r="G1961">
+        <v>6</v>
+      </c>
+      <c r="H1961" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1961">
+        <v>0</v>
+      </c>
+      <c r="J1961">
+        <v>6</v>
+      </c>
+      <c r="K1961" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:11">
+      <c r="A1962" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1962">
+        <v>10</v>
+      </c>
+      <c r="G1962">
+        <v>5</v>
+      </c>
+      <c r="H1962" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1962">
+        <v>0</v>
+      </c>
+      <c r="J1962">
+        <v>5</v>
+      </c>
+      <c r="K1962" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:11">
+      <c r="A1963" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1963">
+        <v>6</v>
+      </c>
+      <c r="G1963">
+        <v>2</v>
+      </c>
+      <c r="H1963" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1963">
+        <v>0</v>
+      </c>
+      <c r="J1963">
+        <v>2</v>
+      </c>
+      <c r="K1963" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:11">
+      <c r="A1964" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1964">
+        <v>16</v>
+      </c>
+      <c r="G1964">
+        <v>8</v>
+      </c>
+      <c r="H1964" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1964">
+        <v>0</v>
+      </c>
+      <c r="J1964">
+        <v>8</v>
+      </c>
+      <c r="K1964" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:11">
+      <c r="A1965" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1965">
+        <v>15</v>
+      </c>
+      <c r="G1965">
+        <v>3</v>
+      </c>
+      <c r="H1965" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1965">
+        <v>0</v>
+      </c>
+      <c r="J1965">
+        <v>3</v>
+      </c>
+      <c r="K1965" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:11">
+      <c r="A1966" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1966">
+        <v>10</v>
+      </c>
+      <c r="G1966">
+        <v>7</v>
+      </c>
+      <c r="H1966" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1966">
+        <v>0</v>
+      </c>
+      <c r="J1966">
+        <v>7</v>
+      </c>
+      <c r="K1966" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:11">
+      <c r="A1967" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1967">
+        <v>15</v>
+      </c>
+      <c r="G1967">
+        <v>6</v>
+      </c>
+      <c r="H1967" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1967">
+        <v>0</v>
+      </c>
+      <c r="J1967">
+        <v>6</v>
+      </c>
+      <c r="K1967" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:11">
+      <c r="A1968" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1968">
+        <v>14</v>
+      </c>
+      <c r="G1968">
+        <v>6</v>
+      </c>
+      <c r="H1968" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1968">
+        <v>0</v>
+      </c>
+      <c r="J1968">
+        <v>6</v>
+      </c>
+      <c r="K1968" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:11">
+      <c r="A1969" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1969">
+        <v>13</v>
+      </c>
+      <c r="G1969">
+        <v>1</v>
+      </c>
+      <c r="H1969" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1969">
+        <v>0</v>
+      </c>
+      <c r="J1969">
+        <v>1</v>
+      </c>
+      <c r="K1969" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:11">
+      <c r="A1970" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1970">
+        <v>37</v>
+      </c>
+      <c r="G1970">
+        <v>18</v>
+      </c>
+      <c r="H1970" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1970">
+        <v>0</v>
+      </c>
+      <c r="J1970">
+        <v>18</v>
+      </c>
+      <c r="K1970" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:11">
+      <c r="A1971" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1971">
+        <v>9</v>
+      </c>
+      <c r="G1971">
+        <v>5</v>
+      </c>
+      <c r="H1971" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1971">
+        <v>0</v>
+      </c>
+      <c r="J1971">
+        <v>5</v>
+      </c>
+      <c r="K1971" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:11">
+      <c r="A1972" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1972">
+        <v>29</v>
+      </c>
+      <c r="G1972">
+        <v>14</v>
+      </c>
+      <c r="H1972" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1972">
+        <v>0</v>
+      </c>
+      <c r="J1972">
+        <v>14</v>
+      </c>
+      <c r="K1972" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:11">
+      <c r="A1973" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1973">
+        <v>7</v>
+      </c>
+      <c r="G1973">
+        <v>0</v>
+      </c>
+      <c r="H1973" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1973">
+        <v>0</v>
+      </c>
+      <c r="J1973">
+        <v>0</v>
+      </c>
+      <c r="K1973" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:11">
+      <c r="A1974" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1974">
+        <v>3</v>
+      </c>
+      <c r="G1974">
+        <v>3</v>
+      </c>
+      <c r="H1974" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1974">
+        <v>0</v>
+      </c>
+      <c r="J1974">
+        <v>3</v>
+      </c>
+      <c r="K1974" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:11">
+      <c r="A1975" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1975">
+        <v>1</v>
+      </c>
+      <c r="G1975">
+        <v>0</v>
+      </c>
+      <c r="H1975" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1975">
+        <v>0</v>
+      </c>
+      <c r="J1975">
+        <v>0</v>
+      </c>
+      <c r="K1975" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:11">
+      <c r="A1976" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1976">
+        <v>2</v>
+      </c>
+      <c r="G1976">
+        <v>1</v>
+      </c>
+      <c r="H1976" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1976">
+        <v>0</v>
+      </c>
+      <c r="J1976">
+        <v>1</v>
+      </c>
+      <c r="K1976" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:11">
+      <c r="A1977" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1977">
+        <v>0</v>
+      </c>
+      <c r="G1977">
+        <v>0</v>
+      </c>
+      <c r="H1977" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1977">
+        <v>0</v>
+      </c>
+      <c r="J1977">
+        <v>0</v>
+      </c>
+      <c r="K1977" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:11">
+      <c r="A1978" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1978">
+        <v>2</v>
+      </c>
+      <c r="G1978">
+        <v>1</v>
+      </c>
+      <c r="H1978" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1978">
+        <v>0</v>
+      </c>
+      <c r="J1978">
+        <v>1</v>
+      </c>
+      <c r="K1978" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:11">
+      <c r="A1979" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1979">
+        <v>4</v>
+      </c>
+      <c r="G1979">
+        <v>1</v>
+      </c>
+      <c r="H1979" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1979">
+        <v>0</v>
+      </c>
+      <c r="J1979">
+        <v>1</v>
+      </c>
+      <c r="K1979" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:11">
+      <c r="A1980" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1980">
+        <v>6</v>
+      </c>
+      <c r="G1980">
+        <v>2</v>
+      </c>
+      <c r="H1980" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1980">
+        <v>0</v>
+      </c>
+      <c r="J1980">
+        <v>2</v>
+      </c>
+      <c r="K1980" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:11">
+      <c r="A1981" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1981">
+        <v>2</v>
+      </c>
+      <c r="G1981">
+        <v>2</v>
+      </c>
+      <c r="H1981" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1981">
+        <v>0</v>
+      </c>
+      <c r="J1981">
+        <v>2</v>
+      </c>
+      <c r="K1981" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:11">
+      <c r="A1982" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1982">
+        <v>7</v>
+      </c>
+      <c r="G1982">
+        <v>2</v>
+      </c>
+      <c r="H1982" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1982">
+        <v>0</v>
+      </c>
+      <c r="J1982">
+        <v>2</v>
+      </c>
+      <c r="K1982" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:11">
+      <c r="A1983" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1983">
+        <v>8</v>
+      </c>
+      <c r="G1983">
+        <v>2</v>
+      </c>
+      <c r="H1983" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1983">
+        <v>0</v>
+      </c>
+      <c r="J1983">
+        <v>2</v>
+      </c>
+      <c r="K1983" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:11">
+      <c r="A1984" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1984">
+        <v>12</v>
+      </c>
+      <c r="G1984">
+        <v>2</v>
+      </c>
+      <c r="H1984" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1984">
+        <v>0</v>
+      </c>
+      <c r="J1984">
+        <v>2</v>
+      </c>
+      <c r="K1984" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:11">
+      <c r="A1985" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1985">
+        <v>14</v>
+      </c>
+      <c r="G1985">
+        <v>2</v>
+      </c>
+      <c r="H1985" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1985">
+        <v>0</v>
+      </c>
+      <c r="J1985">
+        <v>2</v>
+      </c>
+      <c r="K1985" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:11">
+      <c r="A1986" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1986">
+        <v>10</v>
+      </c>
+      <c r="G1986">
+        <v>2</v>
+      </c>
+      <c r="H1986" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1986">
+        <v>0</v>
+      </c>
+      <c r="J1986">
+        <v>2</v>
+      </c>
+      <c r="K1986" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:11">
+      <c r="A1987" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1987">
+        <v>20</v>
+      </c>
+      <c r="G1987">
+        <v>10</v>
+      </c>
+      <c r="H1987" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1987">
+        <v>0</v>
+      </c>
+      <c r="J1987">
+        <v>10</v>
+      </c>
+      <c r="K1987" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:11">
+      <c r="A1988" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1988">
+        <v>15</v>
+      </c>
+      <c r="G1988">
+        <v>4</v>
+      </c>
+      <c r="H1988" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1988">
+        <v>0</v>
+      </c>
+      <c r="J1988">
+        <v>4</v>
+      </c>
+      <c r="K1988" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:11">
+      <c r="A1989" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1989">
+        <v>21</v>
+      </c>
+      <c r="G1989">
+        <v>8</v>
+      </c>
+      <c r="H1989" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1989">
+        <v>0</v>
+      </c>
+      <c r="J1989">
+        <v>8</v>
+      </c>
+      <c r="K1989" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:11">
+      <c r="A1990" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1990">
+        <v>18</v>
+      </c>
+      <c r="G1990">
+        <v>7</v>
+      </c>
+      <c r="H1990" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1990">
+        <v>0</v>
+      </c>
+      <c r="J1990">
+        <v>7</v>
+      </c>
+      <c r="K1990" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:11">
+      <c r="A1991" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1991">
+        <v>7</v>
+      </c>
+      <c r="G1991">
+        <v>2</v>
+      </c>
+      <c r="H1991" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1991">
+        <v>0</v>
+      </c>
+      <c r="J1991">
+        <v>2</v>
+      </c>
+      <c r="K1991" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:11">
+      <c r="A1992" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1992">
+        <v>11</v>
+      </c>
+      <c r="G1992">
+        <v>4</v>
+      </c>
+      <c r="H1992" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1992">
+        <v>0</v>
+      </c>
+      <c r="J1992">
+        <v>4</v>
+      </c>
+      <c r="K1992" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:11">
+      <c r="A1993" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1993" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1993">
+        <v>14</v>
+      </c>
+      <c r="G1993">
+        <v>4</v>
+      </c>
+      <c r="H1993" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1993">
+        <v>0</v>
+      </c>
+      <c r="J1993">
+        <v>4</v>
+      </c>
+      <c r="K1993" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:11">
+      <c r="A1994" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1994" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1994">
+        <v>11</v>
+      </c>
+      <c r="G1994">
+        <v>8</v>
+      </c>
+      <c r="H1994" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1994">
+        <v>0</v>
+      </c>
+      <c r="J1994">
+        <v>8</v>
+      </c>
+      <c r="K1994" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:11">
+      <c r="A1995" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1995">
+        <v>19</v>
+      </c>
+      <c r="G1995">
+        <v>8</v>
+      </c>
+      <c r="H1995" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1995">
+        <v>0</v>
+      </c>
+      <c r="J1995">
+        <v>8</v>
+      </c>
+      <c r="K1995" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:11">
+      <c r="A1996" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1996">
+        <v>14</v>
+      </c>
+      <c r="G1996">
+        <v>4</v>
+      </c>
+      <c r="H1996" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1996">
+        <v>0</v>
+      </c>
+      <c r="J1996">
+        <v>4</v>
+      </c>
+      <c r="K1996" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:11">
+      <c r="A1997" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1997">
+        <v>8</v>
+      </c>
+      <c r="G1997">
+        <v>4</v>
+      </c>
+      <c r="H1997" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1997">
+        <v>0</v>
+      </c>
+      <c r="J1997">
+        <v>4</v>
+      </c>
+      <c r="K1997" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:11">
+      <c r="A1998" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1998">
+        <v>7</v>
+      </c>
+      <c r="G1998">
+        <v>3</v>
+      </c>
+      <c r="H1998" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1998">
+        <v>0</v>
+      </c>
+      <c r="J1998">
+        <v>3</v>
+      </c>
+      <c r="K1998" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:11">
+      <c r="A1999" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1999">
+        <v>24</v>
+      </c>
+      <c r="G1999">
+        <v>7</v>
+      </c>
+      <c r="H1999" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1999">
+        <v>0</v>
+      </c>
+      <c r="J1999">
+        <v>7</v>
+      </c>
+      <c r="K1999" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:11">
+      <c r="A2000" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2000">
+        <v>21</v>
+      </c>
+      <c r="G2000">
+        <v>5</v>
+      </c>
+      <c r="H2000" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2000">
+        <v>0</v>
+      </c>
+      <c r="J2000">
+        <v>5</v>
+      </c>
+      <c r="K2000" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:11">
+      <c r="A2001" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2001">
+        <v>12</v>
+      </c>
+      <c r="G2001">
+        <v>5</v>
+      </c>
+      <c r="H2001" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2001">
+        <v>0</v>
+      </c>
+      <c r="J2001">
+        <v>5</v>
+      </c>
+      <c r="K2001" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:11">
+      <c r="A2002" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2002">
+        <v>12</v>
+      </c>
+      <c r="G2002">
+        <v>4</v>
+      </c>
+      <c r="H2002" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2002">
+        <v>0</v>
+      </c>
+      <c r="J2002">
+        <v>4</v>
+      </c>
+      <c r="K2002" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:11">
+      <c r="A2003" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2003">
+        <v>16</v>
+      </c>
+      <c r="G2003">
+        <v>6</v>
+      </c>
+      <c r="H2003" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2003">
+        <v>0</v>
+      </c>
+      <c r="J2003">
+        <v>6</v>
+      </c>
+      <c r="K2003" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:11">
+      <c r="A2004" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2004">
+        <v>3</v>
+      </c>
+      <c r="G2004">
+        <v>1</v>
+      </c>
+      <c r="H2004" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2004">
+        <v>0</v>
+      </c>
+      <c r="J2004">
+        <v>1</v>
+      </c>
+      <c r="K2004" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:11">
+      <c r="A2005" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2005">
+        <v>3</v>
+      </c>
+      <c r="G2005">
+        <v>2</v>
+      </c>
+      <c r="H2005" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2005">
+        <v>0</v>
+      </c>
+      <c r="J2005">
+        <v>2</v>
+      </c>
+      <c r="K2005" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:11">
+      <c r="A2006" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2006">
+        <v>4</v>
+      </c>
+      <c r="G2006">
+        <v>0</v>
+      </c>
+      <c r="H2006" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2006">
+        <v>0</v>
+      </c>
+      <c r="J2006">
+        <v>0</v>
+      </c>
+      <c r="K2006" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:11">
+      <c r="A2007" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2007">
+        <v>1</v>
+      </c>
+      <c r="G2007">
+        <v>1</v>
+      </c>
+      <c r="H2007" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2007">
+        <v>0</v>
+      </c>
+      <c r="J2007">
+        <v>1</v>
+      </c>
+      <c r="K2007" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:11">
+      <c r="A2008" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2008">
+        <v>1</v>
+      </c>
+      <c r="G2008">
+        <v>0</v>
+      </c>
+      <c r="H2008" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2008">
+        <v>0</v>
+      </c>
+      <c r="J2008">
+        <v>0</v>
+      </c>
+      <c r="K2008" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:11">
+      <c r="A2009" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2009" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2009">
+        <v>1</v>
+      </c>
+      <c r="G2009">
+        <v>0</v>
+      </c>
+      <c r="H2009" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2009">
+        <v>0</v>
+      </c>
+      <c r="J2009">
+        <v>0</v>
+      </c>
+      <c r="K2009" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:11">
+      <c r="A2010" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2010" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2010">
+        <v>3</v>
+      </c>
+      <c r="G2010">
+        <v>1</v>
+      </c>
+      <c r="H2010" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2010">
+        <v>0</v>
+      </c>
+      <c r="J2010">
+        <v>1</v>
+      </c>
+      <c r="K2010" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:11">
+      <c r="A2011" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2011">
+        <v>6</v>
+      </c>
+      <c r="G2011">
+        <v>4</v>
+      </c>
+      <c r="H2011" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2011">
+        <v>0</v>
+      </c>
+      <c r="J2011">
+        <v>4</v>
+      </c>
+      <c r="K2011" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:11">
+      <c r="A2012" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2012">
+        <v>12</v>
+      </c>
+      <c r="G2012">
+        <v>4</v>
+      </c>
+      <c r="H2012" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2012">
+        <v>0</v>
+      </c>
+      <c r="J2012">
+        <v>4</v>
+      </c>
+      <c r="K2012" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:11">
+      <c r="A2013" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2013" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2013">
+        <v>13</v>
+      </c>
+      <c r="G2013">
+        <v>5</v>
+      </c>
+      <c r="H2013" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2013">
+        <v>0</v>
+      </c>
+      <c r="J2013">
+        <v>5</v>
+      </c>
+      <c r="K2013" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:11">
+      <c r="A2014" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2014" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2014">
+        <v>14</v>
+      </c>
+      <c r="G2014">
+        <v>4</v>
+      </c>
+      <c r="H2014" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2014">
+        <v>0</v>
+      </c>
+      <c r="J2014">
+        <v>4</v>
+      </c>
+      <c r="K2014" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:11">
+      <c r="A2015" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2015" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2015">
+        <v>10</v>
+      </c>
+      <c r="G2015">
+        <v>4</v>
+      </c>
+      <c r="H2015" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2015">
+        <v>0</v>
+      </c>
+      <c r="J2015">
+        <v>4</v>
+      </c>
+      <c r="K2015" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:11">
+      <c r="A2016" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2016" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2016">
+        <v>17</v>
+      </c>
+      <c r="G2016">
+        <v>9</v>
+      </c>
+      <c r="H2016" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2016">
+        <v>0</v>
+      </c>
+      <c r="J2016">
+        <v>9</v>
+      </c>
+      <c r="K2016" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:11">
+      <c r="A2017" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2017" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2017">
+        <v>24</v>
+      </c>
+      <c r="G2017">
+        <v>14</v>
+      </c>
+      <c r="H2017" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2017">
+        <v>0</v>
+      </c>
+      <c r="J2017">
+        <v>14</v>
+      </c>
+      <c r="K2017" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:11">
+      <c r="A2018" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2018" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2018">
+        <v>11</v>
+      </c>
+      <c r="G2018">
+        <v>5</v>
+      </c>
+      <c r="H2018" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2018">
+        <v>0</v>
+      </c>
+      <c r="J2018">
+        <v>5</v>
+      </c>
+      <c r="K2018" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:11">
+      <c r="A2019" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2019" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2019">
+        <v>23</v>
+      </c>
+      <c r="G2019">
+        <v>6</v>
+      </c>
+      <c r="H2019" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2019">
+        <v>0</v>
+      </c>
+      <c r="J2019">
+        <v>6</v>
+      </c>
+      <c r="K2019" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:11">
+      <c r="A2020" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2020" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2020">
+        <v>10</v>
+      </c>
+      <c r="G2020">
+        <v>3</v>
+      </c>
+      <c r="H2020" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2020">
+        <v>0</v>
+      </c>
+      <c r="J2020">
+        <v>3</v>
+      </c>
+      <c r="K2020" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:11">
+      <c r="A2021" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2021" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2021">
+        <v>11</v>
+      </c>
+      <c r="G2021">
+        <v>3</v>
+      </c>
+      <c r="H2021" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2021">
+        <v>0</v>
+      </c>
+      <c r="J2021">
+        <v>3</v>
+      </c>
+      <c r="K2021" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:11">
+      <c r="A2022" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2022" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2022">
+        <v>7</v>
+      </c>
+      <c r="G2022">
+        <v>3</v>
+      </c>
+      <c r="H2022" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2022">
+        <v>0</v>
+      </c>
+      <c r="J2022">
+        <v>3</v>
+      </c>
+      <c r="K2022" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:11">
+      <c r="A2023" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2023" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2023">
+        <v>12</v>
+      </c>
+      <c r="G2023">
+        <v>3</v>
+      </c>
+      <c r="H2023" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2023">
+        <v>0</v>
+      </c>
+      <c r="J2023">
+        <v>3</v>
+      </c>
+      <c r="K2023" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:11">
+      <c r="A2024" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2024" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2024">
+        <v>2</v>
+      </c>
+      <c r="G2024">
+        <v>2</v>
+      </c>
+      <c r="H2024" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2024">
+        <v>0</v>
+      </c>
+      <c r="J2024">
+        <v>2</v>
+      </c>
+      <c r="K2024" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:11">
+      <c r="A2025" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2025" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2025">
+        <v>20</v>
+      </c>
+      <c r="G2025">
+        <v>7</v>
+      </c>
+      <c r="H2025" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2025">
+        <v>0</v>
+      </c>
+      <c r="J2025">
+        <v>7</v>
+      </c>
+      <c r="K2025" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:11">
+      <c r="A2026" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2026" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2026">
+        <v>47</v>
+      </c>
+      <c r="G2026">
+        <v>19</v>
+      </c>
+      <c r="H2026" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2026">
+        <v>0</v>
+      </c>
+      <c r="J2026">
+        <v>19</v>
+      </c>
+      <c r="K2026" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:11">
+      <c r="A2027" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2027" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2027">
+        <v>184</v>
+      </c>
+      <c r="G2027">
+        <v>45</v>
+      </c>
+      <c r="H2027" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2027">
+        <v>0</v>
+      </c>
+      <c r="J2027">
+        <v>45</v>
+      </c>
+      <c r="K2027" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:11">
+      <c r="A2028" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2028" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2028">
+        <v>9</v>
+      </c>
+      <c r="G2028">
+        <v>2</v>
+      </c>
+      <c r="H2028" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2028">
+        <v>0</v>
+      </c>
+      <c r="J2028">
+        <v>2</v>
+      </c>
+      <c r="K2028" s="2">
+        <v>45540.70883707464</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:11">
+      <c r="A2029" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2029" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2029">
+        <v>42</v>
+      </c>
+      <c r="G2029">
+        <v>13</v>
+      </c>
+      <c r="H2029" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2029">
+        <v>0</v>
+      </c>
+      <c r="J2029">
+        <v>13</v>
+      </c>
+      <c r="K2029" s="2">
+        <v>45540.70883707464</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12179" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13115" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2029"/>
+  <dimension ref="A1:K2185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66310,7 +66310,7 @@
         <v>35</v>
       </c>
       <c r="K1874" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1875" spans="1:11">
@@ -66345,7 +66345,7 @@
         <v>19</v>
       </c>
       <c r="K1875" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1876" spans="1:11">
@@ -66380,7 +66380,7 @@
         <v>11</v>
       </c>
       <c r="K1876" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1877" spans="1:11">
@@ -66415,7 +66415,7 @@
         <v>31</v>
       </c>
       <c r="K1877" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1878" spans="1:11">
@@ -66450,7 +66450,7 @@
         <v>10</v>
       </c>
       <c r="K1878" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1879" spans="1:11">
@@ -66485,7 +66485,7 @@
         <v>5</v>
       </c>
       <c r="K1879" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1880" spans="1:11">
@@ -66520,7 +66520,7 @@
         <v>1</v>
       </c>
       <c r="K1880" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1881" spans="1:11">
@@ -66555,7 +66555,7 @@
         <v>1</v>
       </c>
       <c r="K1881" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1882" spans="1:11">
@@ -66590,7 +66590,7 @@
         <v>75</v>
       </c>
       <c r="K1882" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1883" spans="1:11">
@@ -66625,7 +66625,7 @@
         <v>65</v>
       </c>
       <c r="K1883" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1884" spans="1:11">
@@ -66660,7 +66660,7 @@
         <v>98</v>
       </c>
       <c r="K1884" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1885" spans="1:11">
@@ -66695,7 +66695,7 @@
         <v>27</v>
       </c>
       <c r="K1885" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1886" spans="1:11">
@@ -66730,7 +66730,7 @@
         <v>23</v>
       </c>
       <c r="K1886" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1887" spans="1:11">
@@ -66765,7 +66765,7 @@
         <v>21</v>
       </c>
       <c r="K1887" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1888" spans="1:11">
@@ -66800,7 +66800,7 @@
         <v>33</v>
       </c>
       <c r="K1888" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1889" spans="1:11">
@@ -66835,7 +66835,7 @@
         <v>18</v>
       </c>
       <c r="K1889" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1890" spans="1:11">
@@ -66870,7 +66870,7 @@
         <v>13</v>
       </c>
       <c r="K1890" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1891" spans="1:11">
@@ -66905,7 +66905,7 @@
         <v>2</v>
       </c>
       <c r="K1891" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1892" spans="1:11">
@@ -66940,7 +66940,7 @@
         <v>18</v>
       </c>
       <c r="K1892" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1893" spans="1:11">
@@ -66975,7 +66975,7 @@
         <v>32</v>
       </c>
       <c r="K1893" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1894" spans="1:11">
@@ -67010,7 +67010,7 @@
         <v>33</v>
       </c>
       <c r="K1894" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1895" spans="1:11">
@@ -67045,7 +67045,7 @@
         <v>34</v>
       </c>
       <c r="K1895" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1896" spans="1:11">
@@ -67080,7 +67080,7 @@
         <v>42</v>
       </c>
       <c r="K1896" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1897" spans="1:11">
@@ -67115,7 +67115,7 @@
         <v>31</v>
       </c>
       <c r="K1897" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1898" spans="1:11">
@@ -67150,7 +67150,7 @@
         <v>20</v>
       </c>
       <c r="K1898" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1899" spans="1:11">
@@ -67185,7 +67185,7 @@
         <v>59</v>
       </c>
       <c r="K1899" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1900" spans="1:11">
@@ -67220,7 +67220,7 @@
         <v>20</v>
       </c>
       <c r="K1900" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1901" spans="1:11">
@@ -67255,7 +67255,7 @@
         <v>45</v>
       </c>
       <c r="K1901" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1902" spans="1:11">
@@ -67290,7 +67290,7 @@
         <v>39</v>
       </c>
       <c r="K1902" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1903" spans="1:11">
@@ -67325,7 +67325,7 @@
         <v>16</v>
       </c>
       <c r="K1903" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1904" spans="1:11">
@@ -67360,7 +67360,7 @@
         <v>43</v>
       </c>
       <c r="K1904" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1905" spans="1:11">
@@ -67395,7 +67395,7 @@
         <v>58</v>
       </c>
       <c r="K1905" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1906" spans="1:11">
@@ -67430,7 +67430,7 @@
         <v>48</v>
       </c>
       <c r="K1906" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1907" spans="1:11">
@@ -67465,7 +67465,7 @@
         <v>29</v>
       </c>
       <c r="K1907" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1908" spans="1:11">
@@ -67500,7 +67500,7 @@
         <v>17</v>
       </c>
       <c r="K1908" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1909" spans="1:11">
@@ -67535,7 +67535,7 @@
         <v>24</v>
       </c>
       <c r="K1909" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1910" spans="1:11">
@@ -67570,7 +67570,7 @@
         <v>23</v>
       </c>
       <c r="K1910" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1911" spans="1:11">
@@ -67605,7 +67605,7 @@
         <v>32</v>
       </c>
       <c r="K1911" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1912" spans="1:11">
@@ -67640,7 +67640,7 @@
         <v>47</v>
       </c>
       <c r="K1912" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1913" spans="1:11">
@@ -67675,7 +67675,7 @@
         <v>55</v>
       </c>
       <c r="K1913" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1914" spans="1:11">
@@ -67710,7 +67710,7 @@
         <v>64</v>
       </c>
       <c r="K1914" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1915" spans="1:11">
@@ -67745,7 +67745,7 @@
         <v>15</v>
       </c>
       <c r="K1915" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1916" spans="1:11">
@@ -67780,7 +67780,7 @@
         <v>55</v>
       </c>
       <c r="K1916" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1917" spans="1:11">
@@ -67815,7 +67815,7 @@
         <v>28</v>
       </c>
       <c r="K1917" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1918" spans="1:11">
@@ -67850,7 +67850,7 @@
         <v>45</v>
       </c>
       <c r="K1918" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1919" spans="1:11">
@@ -67885,7 +67885,7 @@
         <v>70</v>
       </c>
       <c r="K1919" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1920" spans="1:11">
@@ -67920,7 +67920,7 @@
         <v>26</v>
       </c>
       <c r="K1920" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1921" spans="1:11">
@@ -67955,7 +67955,7 @@
         <v>43</v>
       </c>
       <c r="K1921" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1922" spans="1:11">
@@ -67990,7 +67990,7 @@
         <v>32</v>
       </c>
       <c r="K1922" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1923" spans="1:11">
@@ -68025,7 +68025,7 @@
         <v>33</v>
       </c>
       <c r="K1923" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1924" spans="1:11">
@@ -68060,7 +68060,7 @@
         <v>3</v>
       </c>
       <c r="K1924" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1925" spans="1:11">
@@ -68095,7 +68095,7 @@
         <v>14</v>
       </c>
       <c r="K1925" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1926" spans="1:11">
@@ -68130,7 +68130,7 @@
         <v>5</v>
       </c>
       <c r="K1926" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1927" spans="1:11">
@@ -68165,7 +68165,7 @@
         <v>0</v>
       </c>
       <c r="K1927" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1928" spans="1:11">
@@ -68200,7 +68200,7 @@
         <v>0</v>
       </c>
       <c r="K1928" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1929" spans="1:11">
@@ -68235,7 +68235,7 @@
         <v>0</v>
       </c>
       <c r="K1929" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1930" spans="1:11">
@@ -68270,7 +68270,7 @@
         <v>1</v>
       </c>
       <c r="K1930" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1931" spans="1:11">
@@ -68305,7 +68305,7 @@
         <v>1</v>
       </c>
       <c r="K1931" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1932" spans="1:11">
@@ -68340,7 +68340,7 @@
         <v>3</v>
       </c>
       <c r="K1932" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1933" spans="1:11">
@@ -68375,7 +68375,7 @@
         <v>0</v>
       </c>
       <c r="K1933" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1934" spans="1:11">
@@ -68410,7 +68410,7 @@
         <v>0</v>
       </c>
       <c r="K1934" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1935" spans="1:11">
@@ -68445,7 +68445,7 @@
         <v>0</v>
       </c>
       <c r="K1935" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1936" spans="1:11">
@@ -68480,7 +68480,7 @@
         <v>1</v>
       </c>
       <c r="K1936" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1937" spans="1:11">
@@ -68515,7 +68515,7 @@
         <v>0</v>
       </c>
       <c r="K1937" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1938" spans="1:11">
@@ -68550,7 +68550,7 @@
         <v>40</v>
       </c>
       <c r="K1938" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1939" spans="1:11">
@@ -68585,7 +68585,7 @@
         <v>2</v>
       </c>
       <c r="K1939" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1940" spans="1:11">
@@ -68620,7 +68620,7 @@
         <v>21</v>
       </c>
       <c r="K1940" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1941" spans="1:11">
@@ -68655,7 +68655,7 @@
         <v>13</v>
       </c>
       <c r="K1941" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1942" spans="1:11">
@@ -68690,7 +68690,7 @@
         <v>16</v>
       </c>
       <c r="K1942" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1943" spans="1:11">
@@ -68725,7 +68725,7 @@
         <v>1</v>
       </c>
       <c r="K1943" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1944" spans="1:11">
@@ -68760,7 +68760,7 @@
         <v>0</v>
       </c>
       <c r="K1944" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1945" spans="1:11">
@@ -68795,7 +68795,7 @@
         <v>1</v>
       </c>
       <c r="K1945" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1946" spans="1:11">
@@ -68830,7 +68830,7 @@
         <v>0</v>
       </c>
       <c r="K1946" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1947" spans="1:11">
@@ -68865,7 +68865,7 @@
         <v>4</v>
       </c>
       <c r="K1947" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1948" spans="1:11">
@@ -68900,7 +68900,7 @@
         <v>1</v>
       </c>
       <c r="K1948" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1949" spans="1:11">
@@ -68935,7 +68935,7 @@
         <v>6</v>
       </c>
       <c r="K1949" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1950" spans="1:11">
@@ -68970,7 +68970,7 @@
         <v>1</v>
       </c>
       <c r="K1950" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1951" spans="1:11">
@@ -69005,7 +69005,7 @@
         <v>3</v>
       </c>
       <c r="K1951" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1952" spans="1:11">
@@ -69040,7 +69040,7 @@
         <v>0</v>
       </c>
       <c r="K1952" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1953" spans="1:11">
@@ -69075,7 +69075,7 @@
         <v>0</v>
       </c>
       <c r="K1953" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1954" spans="1:11">
@@ -69110,7 +69110,7 @@
         <v>0</v>
       </c>
       <c r="K1954" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1955" spans="1:11">
@@ -69145,7 +69145,7 @@
         <v>3</v>
       </c>
       <c r="K1955" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1956" spans="1:11">
@@ -69180,7 +69180,7 @@
         <v>6</v>
       </c>
       <c r="K1956" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1957" spans="1:11">
@@ -69215,7 +69215,7 @@
         <v>1</v>
       </c>
       <c r="K1957" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1958" spans="1:11">
@@ -69250,7 +69250,7 @@
         <v>1</v>
       </c>
       <c r="K1958" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1959" spans="1:11">
@@ -69285,7 +69285,7 @@
         <v>15</v>
       </c>
       <c r="K1959" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1960" spans="1:11">
@@ -69320,7 +69320,7 @@
         <v>7</v>
       </c>
       <c r="K1960" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1961" spans="1:11">
@@ -69355,7 +69355,7 @@
         <v>6</v>
       </c>
       <c r="K1961" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1962" spans="1:11">
@@ -69390,7 +69390,7 @@
         <v>5</v>
       </c>
       <c r="K1962" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1963" spans="1:11">
@@ -69425,7 +69425,7 @@
         <v>2</v>
       </c>
       <c r="K1963" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1964" spans="1:11">
@@ -69460,7 +69460,7 @@
         <v>8</v>
       </c>
       <c r="K1964" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1965" spans="1:11">
@@ -69495,7 +69495,7 @@
         <v>3</v>
       </c>
       <c r="K1965" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1966" spans="1:11">
@@ -69530,7 +69530,7 @@
         <v>7</v>
       </c>
       <c r="K1966" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1967" spans="1:11">
@@ -69565,7 +69565,7 @@
         <v>6</v>
       </c>
       <c r="K1967" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1968" spans="1:11">
@@ -69600,7 +69600,7 @@
         <v>6</v>
       </c>
       <c r="K1968" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1969" spans="1:11">
@@ -69635,7 +69635,7 @@
         <v>1</v>
       </c>
       <c r="K1969" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1970" spans="1:11">
@@ -69670,7 +69670,7 @@
         <v>18</v>
       </c>
       <c r="K1970" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1971" spans="1:11">
@@ -69705,7 +69705,7 @@
         <v>5</v>
       </c>
       <c r="K1971" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1972" spans="1:11">
@@ -69740,7 +69740,7 @@
         <v>14</v>
       </c>
       <c r="K1972" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1973" spans="1:11">
@@ -69775,7 +69775,7 @@
         <v>0</v>
       </c>
       <c r="K1973" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1974" spans="1:11">
@@ -69810,7 +69810,7 @@
         <v>3</v>
       </c>
       <c r="K1974" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1975" spans="1:11">
@@ -69845,7 +69845,7 @@
         <v>0</v>
       </c>
       <c r="K1975" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1976" spans="1:11">
@@ -69880,7 +69880,7 @@
         <v>1</v>
       </c>
       <c r="K1976" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1977" spans="1:11">
@@ -69915,7 +69915,7 @@
         <v>0</v>
       </c>
       <c r="K1977" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1978" spans="1:11">
@@ -69950,7 +69950,7 @@
         <v>1</v>
       </c>
       <c r="K1978" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1979" spans="1:11">
@@ -69985,7 +69985,7 @@
         <v>1</v>
       </c>
       <c r="K1979" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1980" spans="1:11">
@@ -70020,7 +70020,7 @@
         <v>2</v>
       </c>
       <c r="K1980" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1981" spans="1:11">
@@ -70055,7 +70055,7 @@
         <v>2</v>
       </c>
       <c r="K1981" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1982" spans="1:11">
@@ -70090,7 +70090,7 @@
         <v>2</v>
       </c>
       <c r="K1982" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1983" spans="1:11">
@@ -70125,7 +70125,7 @@
         <v>2</v>
       </c>
       <c r="K1983" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1984" spans="1:11">
@@ -70160,7 +70160,7 @@
         <v>2</v>
       </c>
       <c r="K1984" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1985" spans="1:11">
@@ -70195,7 +70195,7 @@
         <v>2</v>
       </c>
       <c r="K1985" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1986" spans="1:11">
@@ -70230,7 +70230,7 @@
         <v>2</v>
       </c>
       <c r="K1986" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1987" spans="1:11">
@@ -70265,7 +70265,7 @@
         <v>10</v>
       </c>
       <c r="K1987" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1988" spans="1:11">
@@ -70300,7 +70300,7 @@
         <v>4</v>
       </c>
       <c r="K1988" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1989" spans="1:11">
@@ -70335,7 +70335,7 @@
         <v>8</v>
       </c>
       <c r="K1989" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1990" spans="1:11">
@@ -70370,7 +70370,7 @@
         <v>7</v>
       </c>
       <c r="K1990" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1991" spans="1:11">
@@ -70405,7 +70405,7 @@
         <v>2</v>
       </c>
       <c r="K1991" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1992" spans="1:11">
@@ -70440,7 +70440,7 @@
         <v>4</v>
       </c>
       <c r="K1992" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1993" spans="1:11">
@@ -70475,7 +70475,7 @@
         <v>4</v>
       </c>
       <c r="K1993" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1994" spans="1:11">
@@ -70510,7 +70510,7 @@
         <v>8</v>
       </c>
       <c r="K1994" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1995" spans="1:11">
@@ -70545,7 +70545,7 @@
         <v>8</v>
       </c>
       <c r="K1995" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1996" spans="1:11">
@@ -70580,7 +70580,7 @@
         <v>4</v>
       </c>
       <c r="K1996" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1997" spans="1:11">
@@ -70615,7 +70615,7 @@
         <v>4</v>
       </c>
       <c r="K1997" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1998" spans="1:11">
@@ -70650,7 +70650,7 @@
         <v>3</v>
       </c>
       <c r="K1998" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="1999" spans="1:11">
@@ -70685,7 +70685,7 @@
         <v>7</v>
       </c>
       <c r="K1999" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2000" spans="1:11">
@@ -70720,7 +70720,7 @@
         <v>5</v>
       </c>
       <c r="K2000" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2001" spans="1:11">
@@ -70755,7 +70755,7 @@
         <v>5</v>
       </c>
       <c r="K2001" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2002" spans="1:11">
@@ -70790,7 +70790,7 @@
         <v>4</v>
       </c>
       <c r="K2002" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2003" spans="1:11">
@@ -70825,7 +70825,7 @@
         <v>6</v>
       </c>
       <c r="K2003" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2004" spans="1:11">
@@ -70860,7 +70860,7 @@
         <v>1</v>
       </c>
       <c r="K2004" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2005" spans="1:11">
@@ -70895,7 +70895,7 @@
         <v>2</v>
       </c>
       <c r="K2005" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2006" spans="1:11">
@@ -70930,7 +70930,7 @@
         <v>0</v>
       </c>
       <c r="K2006" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2007" spans="1:11">
@@ -70965,7 +70965,7 @@
         <v>1</v>
       </c>
       <c r="K2007" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2008" spans="1:11">
@@ -71000,7 +71000,7 @@
         <v>0</v>
       </c>
       <c r="K2008" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2009" spans="1:11">
@@ -71035,7 +71035,7 @@
         <v>0</v>
       </c>
       <c r="K2009" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2010" spans="1:11">
@@ -71070,7 +71070,7 @@
         <v>1</v>
       </c>
       <c r="K2010" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2011" spans="1:11">
@@ -71105,7 +71105,7 @@
         <v>4</v>
       </c>
       <c r="K2011" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2012" spans="1:11">
@@ -71140,7 +71140,7 @@
         <v>4</v>
       </c>
       <c r="K2012" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2013" spans="1:11">
@@ -71175,7 +71175,7 @@
         <v>5</v>
       </c>
       <c r="K2013" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2014" spans="1:11">
@@ -71210,7 +71210,7 @@
         <v>4</v>
       </c>
       <c r="K2014" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2015" spans="1:11">
@@ -71245,7 +71245,7 @@
         <v>4</v>
       </c>
       <c r="K2015" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2016" spans="1:11">
@@ -71280,7 +71280,7 @@
         <v>9</v>
       </c>
       <c r="K2016" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2017" spans="1:11">
@@ -71315,7 +71315,7 @@
         <v>14</v>
       </c>
       <c r="K2017" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2018" spans="1:11">
@@ -71350,7 +71350,7 @@
         <v>5</v>
       </c>
       <c r="K2018" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2019" spans="1:11">
@@ -71385,7 +71385,7 @@
         <v>6</v>
       </c>
       <c r="K2019" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2020" spans="1:11">
@@ -71420,7 +71420,7 @@
         <v>3</v>
       </c>
       <c r="K2020" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2021" spans="1:11">
@@ -71455,7 +71455,7 @@
         <v>3</v>
       </c>
       <c r="K2021" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2022" spans="1:11">
@@ -71490,7 +71490,7 @@
         <v>3</v>
       </c>
       <c r="K2022" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2023" spans="1:11">
@@ -71525,7 +71525,7 @@
         <v>3</v>
       </c>
       <c r="K2023" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2024" spans="1:11">
@@ -71560,7 +71560,7 @@
         <v>2</v>
       </c>
       <c r="K2024" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2025" spans="1:11">
@@ -71595,7 +71595,7 @@
         <v>7</v>
       </c>
       <c r="K2025" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2026" spans="1:11">
@@ -71630,7 +71630,7 @@
         <v>19</v>
       </c>
       <c r="K2026" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2027" spans="1:11">
@@ -71665,7 +71665,7 @@
         <v>45</v>
       </c>
       <c r="K2027" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2028" spans="1:11">
@@ -71700,7 +71700,7 @@
         <v>2</v>
       </c>
       <c r="K2028" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
       </c>
     </row>
     <row r="2029" spans="1:11">
@@ -71735,7 +71735,5467 @@
         <v>13</v>
       </c>
       <c r="K2029" s="2">
-        <v>45540.70883707464</v>
+        <v>45540.70883707176</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:11">
+      <c r="A2030" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2030" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2030">
+        <v>58</v>
+      </c>
+      <c r="G2030">
+        <v>35</v>
+      </c>
+      <c r="H2030" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2030">
+        <v>0</v>
+      </c>
+      <c r="J2030">
+        <v>35</v>
+      </c>
+      <c r="K2030" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:11">
+      <c r="A2031" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2031" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2031">
+        <v>24</v>
+      </c>
+      <c r="G2031">
+        <v>19</v>
+      </c>
+      <c r="H2031" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2031">
+        <v>0</v>
+      </c>
+      <c r="J2031">
+        <v>19</v>
+      </c>
+      <c r="K2031" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:11">
+      <c r="A2032" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2032" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2032">
+        <v>25</v>
+      </c>
+      <c r="G2032">
+        <v>11</v>
+      </c>
+      <c r="H2032" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2032">
+        <v>0</v>
+      </c>
+      <c r="J2032">
+        <v>11</v>
+      </c>
+      <c r="K2032" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:11">
+      <c r="A2033" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2033" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2033">
+        <v>63</v>
+      </c>
+      <c r="G2033">
+        <v>31</v>
+      </c>
+      <c r="H2033" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2033">
+        <v>0</v>
+      </c>
+      <c r="J2033">
+        <v>31</v>
+      </c>
+      <c r="K2033" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:11">
+      <c r="A2034" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2034" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2034">
+        <v>21</v>
+      </c>
+      <c r="G2034">
+        <v>10</v>
+      </c>
+      <c r="H2034" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2034">
+        <v>0</v>
+      </c>
+      <c r="J2034">
+        <v>10</v>
+      </c>
+      <c r="K2034" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:11">
+      <c r="A2035" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2035" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2035">
+        <v>14</v>
+      </c>
+      <c r="G2035">
+        <v>5</v>
+      </c>
+      <c r="H2035" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2035">
+        <v>0</v>
+      </c>
+      <c r="J2035">
+        <v>5</v>
+      </c>
+      <c r="K2035" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:11">
+      <c r="A2036" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2036" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2036">
+        <v>4</v>
+      </c>
+      <c r="G2036">
+        <v>1</v>
+      </c>
+      <c r="H2036" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2036">
+        <v>0</v>
+      </c>
+      <c r="J2036">
+        <v>1</v>
+      </c>
+      <c r="K2036" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:11">
+      <c r="A2037" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2037" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2037">
+        <v>4</v>
+      </c>
+      <c r="G2037">
+        <v>1</v>
+      </c>
+      <c r="H2037" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2037">
+        <v>0</v>
+      </c>
+      <c r="J2037">
+        <v>1</v>
+      </c>
+      <c r="K2037" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:11">
+      <c r="A2038" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2038" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2038">
+        <v>192</v>
+      </c>
+      <c r="G2038">
+        <v>78</v>
+      </c>
+      <c r="H2038" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2038">
+        <v>0</v>
+      </c>
+      <c r="J2038">
+        <v>78</v>
+      </c>
+      <c r="K2038" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:11">
+      <c r="A2039" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2039" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2039">
+        <v>139</v>
+      </c>
+      <c r="G2039">
+        <v>67</v>
+      </c>
+      <c r="H2039" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2039">
+        <v>0</v>
+      </c>
+      <c r="J2039">
+        <v>67</v>
+      </c>
+      <c r="K2039" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:11">
+      <c r="A2040" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2040" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2040">
+        <v>203</v>
+      </c>
+      <c r="G2040">
+        <v>102</v>
+      </c>
+      <c r="H2040" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2040">
+        <v>0</v>
+      </c>
+      <c r="J2040">
+        <v>102</v>
+      </c>
+      <c r="K2040" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:11">
+      <c r="A2041" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2041" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2041">
+        <v>68</v>
+      </c>
+      <c r="G2041">
+        <v>28</v>
+      </c>
+      <c r="H2041" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2041">
+        <v>0</v>
+      </c>
+      <c r="J2041">
+        <v>28</v>
+      </c>
+      <c r="K2041" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:11">
+      <c r="A2042" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2042" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2042">
+        <v>60</v>
+      </c>
+      <c r="G2042">
+        <v>24</v>
+      </c>
+      <c r="H2042" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2042">
+        <v>0</v>
+      </c>
+      <c r="J2042">
+        <v>24</v>
+      </c>
+      <c r="K2042" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:11">
+      <c r="A2043" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2043">
+        <v>87</v>
+      </c>
+      <c r="G2043">
+        <v>21</v>
+      </c>
+      <c r="H2043" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2043">
+        <v>0</v>
+      </c>
+      <c r="J2043">
+        <v>21</v>
+      </c>
+      <c r="K2043" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:11">
+      <c r="A2044" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2044" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2044">
+        <v>81</v>
+      </c>
+      <c r="G2044">
+        <v>35</v>
+      </c>
+      <c r="H2044" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2044">
+        <v>0</v>
+      </c>
+      <c r="J2044">
+        <v>35</v>
+      </c>
+      <c r="K2044" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:11">
+      <c r="A2045" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2045" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2045">
+        <v>38</v>
+      </c>
+      <c r="G2045">
+        <v>18</v>
+      </c>
+      <c r="H2045" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2045">
+        <v>0</v>
+      </c>
+      <c r="J2045">
+        <v>18</v>
+      </c>
+      <c r="K2045" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:11">
+      <c r="A2046" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2046" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2046">
+        <v>28</v>
+      </c>
+      <c r="G2046">
+        <v>13</v>
+      </c>
+      <c r="H2046" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2046">
+        <v>0</v>
+      </c>
+      <c r="J2046">
+        <v>13</v>
+      </c>
+      <c r="K2046" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:11">
+      <c r="A2047" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2047" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2047">
+        <v>12</v>
+      </c>
+      <c r="G2047">
+        <v>2</v>
+      </c>
+      <c r="H2047" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2047">
+        <v>0</v>
+      </c>
+      <c r="J2047">
+        <v>2</v>
+      </c>
+      <c r="K2047" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:11">
+      <c r="A2048" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2048" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2048">
+        <v>49</v>
+      </c>
+      <c r="G2048">
+        <v>18</v>
+      </c>
+      <c r="H2048" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2048">
+        <v>0</v>
+      </c>
+      <c r="J2048">
+        <v>18</v>
+      </c>
+      <c r="K2048" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:11">
+      <c r="A2049" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2049" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2049">
+        <v>65</v>
+      </c>
+      <c r="G2049">
+        <v>32</v>
+      </c>
+      <c r="H2049" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2049">
+        <v>0</v>
+      </c>
+      <c r="J2049">
+        <v>32</v>
+      </c>
+      <c r="K2049" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:11">
+      <c r="A2050" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2050" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2050">
+        <v>82</v>
+      </c>
+      <c r="G2050">
+        <v>34</v>
+      </c>
+      <c r="H2050" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2050">
+        <v>0</v>
+      </c>
+      <c r="J2050">
+        <v>34</v>
+      </c>
+      <c r="K2050" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:11">
+      <c r="A2051" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2051" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2051">
+        <v>93</v>
+      </c>
+      <c r="G2051">
+        <v>35</v>
+      </c>
+      <c r="H2051" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2051">
+        <v>0</v>
+      </c>
+      <c r="J2051">
+        <v>35</v>
+      </c>
+      <c r="K2051" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:11">
+      <c r="A2052" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2052" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2052">
+        <v>95</v>
+      </c>
+      <c r="G2052">
+        <v>43</v>
+      </c>
+      <c r="H2052" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2052">
+        <v>0</v>
+      </c>
+      <c r="J2052">
+        <v>43</v>
+      </c>
+      <c r="K2052" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:11">
+      <c r="A2053" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2053" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2053">
+        <v>86</v>
+      </c>
+      <c r="G2053">
+        <v>32</v>
+      </c>
+      <c r="H2053" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2053">
+        <v>0</v>
+      </c>
+      <c r="J2053">
+        <v>32</v>
+      </c>
+      <c r="K2053" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:11">
+      <c r="A2054" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2054" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2054">
+        <v>49</v>
+      </c>
+      <c r="G2054">
+        <v>21</v>
+      </c>
+      <c r="H2054" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2054">
+        <v>0</v>
+      </c>
+      <c r="J2054">
+        <v>21</v>
+      </c>
+      <c r="K2054" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:11">
+      <c r="A2055" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2055" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2055">
+        <v>131</v>
+      </c>
+      <c r="G2055">
+        <v>61</v>
+      </c>
+      <c r="H2055" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2055">
+        <v>0</v>
+      </c>
+      <c r="J2055">
+        <v>61</v>
+      </c>
+      <c r="K2055" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:11">
+      <c r="A2056" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2056" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2056">
+        <v>85</v>
+      </c>
+      <c r="G2056">
+        <v>21</v>
+      </c>
+      <c r="H2056" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2056">
+        <v>0</v>
+      </c>
+      <c r="J2056">
+        <v>21</v>
+      </c>
+      <c r="K2056" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:11">
+      <c r="A2057" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2057" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2057">
+        <v>80</v>
+      </c>
+      <c r="G2057">
+        <v>45</v>
+      </c>
+      <c r="H2057" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2057">
+        <v>0</v>
+      </c>
+      <c r="J2057">
+        <v>45</v>
+      </c>
+      <c r="K2057" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:11">
+      <c r="A2058" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2058" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2058">
+        <v>92</v>
+      </c>
+      <c r="G2058">
+        <v>42</v>
+      </c>
+      <c r="H2058" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2058">
+        <v>0</v>
+      </c>
+      <c r="J2058">
+        <v>42</v>
+      </c>
+      <c r="K2058" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:11">
+      <c r="A2059" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2059" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2059">
+        <v>39</v>
+      </c>
+      <c r="G2059">
+        <v>17</v>
+      </c>
+      <c r="H2059" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2059">
+        <v>0</v>
+      </c>
+      <c r="J2059">
+        <v>17</v>
+      </c>
+      <c r="K2059" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:11">
+      <c r="A2060" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2060" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2060">
+        <v>89</v>
+      </c>
+      <c r="G2060">
+        <v>44</v>
+      </c>
+      <c r="H2060" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2060">
+        <v>0</v>
+      </c>
+      <c r="J2060">
+        <v>44</v>
+      </c>
+      <c r="K2060" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:11">
+      <c r="A2061" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2061" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2061">
+        <v>117</v>
+      </c>
+      <c r="G2061">
+        <v>58</v>
+      </c>
+      <c r="H2061" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2061">
+        <v>0</v>
+      </c>
+      <c r="J2061">
+        <v>58</v>
+      </c>
+      <c r="K2061" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:11">
+      <c r="A2062" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2062" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2062">
+        <v>94</v>
+      </c>
+      <c r="G2062">
+        <v>48</v>
+      </c>
+      <c r="H2062" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2062">
+        <v>0</v>
+      </c>
+      <c r="J2062">
+        <v>48</v>
+      </c>
+      <c r="K2062" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:11">
+      <c r="A2063" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2063" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2063">
+        <v>60</v>
+      </c>
+      <c r="G2063">
+        <v>29</v>
+      </c>
+      <c r="H2063" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2063">
+        <v>0</v>
+      </c>
+      <c r="J2063">
+        <v>29</v>
+      </c>
+      <c r="K2063" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:11">
+      <c r="A2064" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2064" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2064">
+        <v>31</v>
+      </c>
+      <c r="G2064">
+        <v>17</v>
+      </c>
+      <c r="H2064" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2064">
+        <v>0</v>
+      </c>
+      <c r="J2064">
+        <v>17</v>
+      </c>
+      <c r="K2064" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:11">
+      <c r="A2065" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2065" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2065">
+        <v>63</v>
+      </c>
+      <c r="G2065">
+        <v>26</v>
+      </c>
+      <c r="H2065" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2065">
+        <v>0</v>
+      </c>
+      <c r="J2065">
+        <v>26</v>
+      </c>
+      <c r="K2065" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:11">
+      <c r="A2066" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2066" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2066">
+        <v>42</v>
+      </c>
+      <c r="G2066">
+        <v>24</v>
+      </c>
+      <c r="H2066" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2066">
+        <v>0</v>
+      </c>
+      <c r="J2066">
+        <v>24</v>
+      </c>
+      <c r="K2066" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:11">
+      <c r="A2067" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2067" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2067">
+        <v>99</v>
+      </c>
+      <c r="G2067">
+        <v>32</v>
+      </c>
+      <c r="H2067" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2067">
+        <v>0</v>
+      </c>
+      <c r="J2067">
+        <v>32</v>
+      </c>
+      <c r="K2067" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:11">
+      <c r="A2068" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2068" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2068">
+        <v>128</v>
+      </c>
+      <c r="G2068">
+        <v>48</v>
+      </c>
+      <c r="H2068" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2068">
+        <v>0</v>
+      </c>
+      <c r="J2068">
+        <v>48</v>
+      </c>
+      <c r="K2068" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:11">
+      <c r="A2069" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2069">
+        <v>164</v>
+      </c>
+      <c r="G2069">
+        <v>56</v>
+      </c>
+      <c r="H2069" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2069">
+        <v>0</v>
+      </c>
+      <c r="J2069">
+        <v>56</v>
+      </c>
+      <c r="K2069" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:11">
+      <c r="A2070" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2070">
+        <v>144</v>
+      </c>
+      <c r="G2070">
+        <v>65</v>
+      </c>
+      <c r="H2070" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2070">
+        <v>0</v>
+      </c>
+      <c r="J2070">
+        <v>65</v>
+      </c>
+      <c r="K2070" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:11">
+      <c r="A2071" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2071">
+        <v>42</v>
+      </c>
+      <c r="G2071">
+        <v>15</v>
+      </c>
+      <c r="H2071" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2071">
+        <v>0</v>
+      </c>
+      <c r="J2071">
+        <v>15</v>
+      </c>
+      <c r="K2071" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:11">
+      <c r="A2072" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2072">
+        <v>129</v>
+      </c>
+      <c r="G2072">
+        <v>56</v>
+      </c>
+      <c r="H2072" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2072">
+        <v>0</v>
+      </c>
+      <c r="J2072">
+        <v>56</v>
+      </c>
+      <c r="K2072" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:11">
+      <c r="A2073" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2073">
+        <v>50</v>
+      </c>
+      <c r="G2073">
+        <v>28</v>
+      </c>
+      <c r="H2073" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2073">
+        <v>0</v>
+      </c>
+      <c r="J2073">
+        <v>28</v>
+      </c>
+      <c r="K2073" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:11">
+      <c r="A2074" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2074" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2074">
+        <v>111</v>
+      </c>
+      <c r="G2074">
+        <v>46</v>
+      </c>
+      <c r="H2074" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2074">
+        <v>0</v>
+      </c>
+      <c r="J2074">
+        <v>46</v>
+      </c>
+      <c r="K2074" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:11">
+      <c r="A2075" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2075" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2075">
+        <v>189</v>
+      </c>
+      <c r="G2075">
+        <v>72</v>
+      </c>
+      <c r="H2075" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2075">
+        <v>0</v>
+      </c>
+      <c r="J2075">
+        <v>72</v>
+      </c>
+      <c r="K2075" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:11">
+      <c r="A2076" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2076" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2076">
+        <v>94</v>
+      </c>
+      <c r="G2076">
+        <v>26</v>
+      </c>
+      <c r="H2076" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2076">
+        <v>0</v>
+      </c>
+      <c r="J2076">
+        <v>26</v>
+      </c>
+      <c r="K2076" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:11">
+      <c r="A2077" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2077" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2077">
+        <v>112</v>
+      </c>
+      <c r="G2077">
+        <v>45</v>
+      </c>
+      <c r="H2077" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2077">
+        <v>0</v>
+      </c>
+      <c r="J2077">
+        <v>45</v>
+      </c>
+      <c r="K2077" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:11">
+      <c r="A2078" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2078" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2078">
+        <v>87</v>
+      </c>
+      <c r="G2078">
+        <v>33</v>
+      </c>
+      <c r="H2078" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2078">
+        <v>0</v>
+      </c>
+      <c r="J2078">
+        <v>33</v>
+      </c>
+      <c r="K2078" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:11">
+      <c r="A2079" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2079">
+        <v>91</v>
+      </c>
+      <c r="G2079">
+        <v>34</v>
+      </c>
+      <c r="H2079" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2079">
+        <v>0</v>
+      </c>
+      <c r="J2079">
+        <v>34</v>
+      </c>
+      <c r="K2079" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:11">
+      <c r="A2080" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2080">
+        <v>4</v>
+      </c>
+      <c r="G2080">
+        <v>3</v>
+      </c>
+      <c r="H2080" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2080">
+        <v>0</v>
+      </c>
+      <c r="J2080">
+        <v>3</v>
+      </c>
+      <c r="K2080" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:11">
+      <c r="A2081" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2081">
+        <v>28</v>
+      </c>
+      <c r="G2081">
+        <v>14</v>
+      </c>
+      <c r="H2081" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2081">
+        <v>0</v>
+      </c>
+      <c r="J2081">
+        <v>14</v>
+      </c>
+      <c r="K2081" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:11">
+      <c r="A2082" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2082">
+        <v>9</v>
+      </c>
+      <c r="G2082">
+        <v>5</v>
+      </c>
+      <c r="H2082" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2082">
+        <v>0</v>
+      </c>
+      <c r="J2082">
+        <v>5</v>
+      </c>
+      <c r="K2082" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:11">
+      <c r="A2083" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2083">
+        <v>6</v>
+      </c>
+      <c r="G2083">
+        <v>0</v>
+      </c>
+      <c r="H2083" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2083">
+        <v>0</v>
+      </c>
+      <c r="J2083">
+        <v>0</v>
+      </c>
+      <c r="K2083" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:11">
+      <c r="A2084" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2084">
+        <v>0</v>
+      </c>
+      <c r="G2084">
+        <v>0</v>
+      </c>
+      <c r="H2084" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2084">
+        <v>0</v>
+      </c>
+      <c r="J2084">
+        <v>0</v>
+      </c>
+      <c r="K2084" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:11">
+      <c r="A2085" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2085">
+        <v>1</v>
+      </c>
+      <c r="G2085">
+        <v>0</v>
+      </c>
+      <c r="H2085" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2085">
+        <v>0</v>
+      </c>
+      <c r="J2085">
+        <v>0</v>
+      </c>
+      <c r="K2085" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:11">
+      <c r="A2086" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2086">
+        <v>4</v>
+      </c>
+      <c r="G2086">
+        <v>1</v>
+      </c>
+      <c r="H2086" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2086">
+        <v>0</v>
+      </c>
+      <c r="J2086">
+        <v>1</v>
+      </c>
+      <c r="K2086" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:11">
+      <c r="A2087" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2087">
+        <v>5</v>
+      </c>
+      <c r="G2087">
+        <v>1</v>
+      </c>
+      <c r="H2087" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2087">
+        <v>0</v>
+      </c>
+      <c r="J2087">
+        <v>1</v>
+      </c>
+      <c r="K2087" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:11">
+      <c r="A2088" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2088">
+        <v>10</v>
+      </c>
+      <c r="G2088">
+        <v>3</v>
+      </c>
+      <c r="H2088" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2088">
+        <v>0</v>
+      </c>
+      <c r="J2088">
+        <v>3</v>
+      </c>
+      <c r="K2088" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:11">
+      <c r="A2089" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2089">
+        <v>0</v>
+      </c>
+      <c r="G2089">
+        <v>0</v>
+      </c>
+      <c r="H2089" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2089">
+        <v>0</v>
+      </c>
+      <c r="J2089">
+        <v>0</v>
+      </c>
+      <c r="K2089" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:11">
+      <c r="A2090" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2090">
+        <v>0</v>
+      </c>
+      <c r="G2090">
+        <v>0</v>
+      </c>
+      <c r="H2090" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2090">
+        <v>0</v>
+      </c>
+      <c r="J2090">
+        <v>0</v>
+      </c>
+      <c r="K2090" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:11">
+      <c r="A2091" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2091">
+        <v>1</v>
+      </c>
+      <c r="G2091">
+        <v>0</v>
+      </c>
+      <c r="H2091" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2091">
+        <v>0</v>
+      </c>
+      <c r="J2091">
+        <v>0</v>
+      </c>
+      <c r="K2091" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:11">
+      <c r="A2092" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2092">
+        <v>1</v>
+      </c>
+      <c r="G2092">
+        <v>1</v>
+      </c>
+      <c r="H2092" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2092">
+        <v>0</v>
+      </c>
+      <c r="J2092">
+        <v>1</v>
+      </c>
+      <c r="K2092" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:11">
+      <c r="A2093" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2093">
+        <v>1</v>
+      </c>
+      <c r="G2093">
+        <v>0</v>
+      </c>
+      <c r="H2093" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2093">
+        <v>0</v>
+      </c>
+      <c r="J2093">
+        <v>0</v>
+      </c>
+      <c r="K2093" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:11">
+      <c r="A2094" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2094">
+        <v>93</v>
+      </c>
+      <c r="G2094">
+        <v>40</v>
+      </c>
+      <c r="H2094" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2094">
+        <v>0</v>
+      </c>
+      <c r="J2094">
+        <v>40</v>
+      </c>
+      <c r="K2094" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:11">
+      <c r="A2095" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2095">
+        <v>6</v>
+      </c>
+      <c r="G2095">
+        <v>2</v>
+      </c>
+      <c r="H2095" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2095">
+        <v>0</v>
+      </c>
+      <c r="J2095">
+        <v>2</v>
+      </c>
+      <c r="K2095" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:11">
+      <c r="A2096" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2096">
+        <v>58</v>
+      </c>
+      <c r="G2096">
+        <v>22</v>
+      </c>
+      <c r="H2096" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2096">
+        <v>0</v>
+      </c>
+      <c r="J2096">
+        <v>22</v>
+      </c>
+      <c r="K2096" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:11">
+      <c r="A2097" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2097">
+        <v>48</v>
+      </c>
+      <c r="G2097">
+        <v>13</v>
+      </c>
+      <c r="H2097" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2097">
+        <v>0</v>
+      </c>
+      <c r="J2097">
+        <v>13</v>
+      </c>
+      <c r="K2097" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:11">
+      <c r="A2098" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2098">
+        <v>28</v>
+      </c>
+      <c r="G2098">
+        <v>16</v>
+      </c>
+      <c r="H2098" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2098">
+        <v>0</v>
+      </c>
+      <c r="J2098">
+        <v>16</v>
+      </c>
+      <c r="K2098" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:11">
+      <c r="A2099" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2099">
+        <v>2</v>
+      </c>
+      <c r="G2099">
+        <v>1</v>
+      </c>
+      <c r="H2099" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2099">
+        <v>0</v>
+      </c>
+      <c r="J2099">
+        <v>1</v>
+      </c>
+      <c r="K2099" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:11">
+      <c r="A2100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2100">
+        <v>0</v>
+      </c>
+      <c r="G2100">
+        <v>0</v>
+      </c>
+      <c r="H2100" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2100">
+        <v>0</v>
+      </c>
+      <c r="J2100">
+        <v>0</v>
+      </c>
+      <c r="K2100" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:11">
+      <c r="A2101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2101">
+        <v>4</v>
+      </c>
+      <c r="G2101">
+        <v>1</v>
+      </c>
+      <c r="H2101" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2101">
+        <v>0</v>
+      </c>
+      <c r="J2101">
+        <v>1</v>
+      </c>
+      <c r="K2101" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:11">
+      <c r="A2102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2102">
+        <v>1</v>
+      </c>
+      <c r="G2102">
+        <v>0</v>
+      </c>
+      <c r="H2102" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2102">
+        <v>0</v>
+      </c>
+      <c r="J2102">
+        <v>0</v>
+      </c>
+      <c r="K2102" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:11">
+      <c r="A2103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2103">
+        <v>12</v>
+      </c>
+      <c r="G2103">
+        <v>4</v>
+      </c>
+      <c r="H2103" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2103">
+        <v>0</v>
+      </c>
+      <c r="J2103">
+        <v>4</v>
+      </c>
+      <c r="K2103" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:11">
+      <c r="A2104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2104">
+        <v>9</v>
+      </c>
+      <c r="G2104">
+        <v>1</v>
+      </c>
+      <c r="H2104" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2104">
+        <v>0</v>
+      </c>
+      <c r="J2104">
+        <v>1</v>
+      </c>
+      <c r="K2104" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:11">
+      <c r="A2105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2105">
+        <v>11</v>
+      </c>
+      <c r="G2105">
+        <v>6</v>
+      </c>
+      <c r="H2105" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2105">
+        <v>0</v>
+      </c>
+      <c r="J2105">
+        <v>6</v>
+      </c>
+      <c r="K2105" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:11">
+      <c r="A2106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2106">
+        <v>4</v>
+      </c>
+      <c r="G2106">
+        <v>1</v>
+      </c>
+      <c r="H2106" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2106">
+        <v>0</v>
+      </c>
+      <c r="J2106">
+        <v>1</v>
+      </c>
+      <c r="K2106" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:11">
+      <c r="A2107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2107">
+        <v>5</v>
+      </c>
+      <c r="G2107">
+        <v>3</v>
+      </c>
+      <c r="H2107" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2107">
+        <v>0</v>
+      </c>
+      <c r="J2107">
+        <v>3</v>
+      </c>
+      <c r="K2107" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:11">
+      <c r="A2108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2108">
+        <v>4</v>
+      </c>
+      <c r="G2108">
+        <v>1</v>
+      </c>
+      <c r="H2108" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2108">
+        <v>0</v>
+      </c>
+      <c r="J2108">
+        <v>1</v>
+      </c>
+      <c r="K2108" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:11">
+      <c r="A2109" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2109">
+        <v>1</v>
+      </c>
+      <c r="G2109">
+        <v>0</v>
+      </c>
+      <c r="H2109" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2109">
+        <v>0</v>
+      </c>
+      <c r="J2109">
+        <v>0</v>
+      </c>
+      <c r="K2109" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:11">
+      <c r="A2110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2110">
+        <v>1</v>
+      </c>
+      <c r="G2110">
+        <v>0</v>
+      </c>
+      <c r="H2110" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2110">
+        <v>0</v>
+      </c>
+      <c r="J2110">
+        <v>0</v>
+      </c>
+      <c r="K2110" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:11">
+      <c r="A2111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2111">
+        <v>13</v>
+      </c>
+      <c r="G2111">
+        <v>3</v>
+      </c>
+      <c r="H2111" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2111">
+        <v>0</v>
+      </c>
+      <c r="J2111">
+        <v>3</v>
+      </c>
+      <c r="K2111" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:11">
+      <c r="A2112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2112">
+        <v>16</v>
+      </c>
+      <c r="G2112">
+        <v>6</v>
+      </c>
+      <c r="H2112" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2112">
+        <v>0</v>
+      </c>
+      <c r="J2112">
+        <v>6</v>
+      </c>
+      <c r="K2112" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:11">
+      <c r="A2113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2113">
+        <v>7</v>
+      </c>
+      <c r="G2113">
+        <v>1</v>
+      </c>
+      <c r="H2113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2113">
+        <v>0</v>
+      </c>
+      <c r="J2113">
+        <v>1</v>
+      </c>
+      <c r="K2113" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:11">
+      <c r="A2114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2114">
+        <v>2</v>
+      </c>
+      <c r="G2114">
+        <v>1</v>
+      </c>
+      <c r="H2114" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2114">
+        <v>0</v>
+      </c>
+      <c r="J2114">
+        <v>1</v>
+      </c>
+      <c r="K2114" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:11">
+      <c r="A2115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2115">
+        <v>45</v>
+      </c>
+      <c r="G2115">
+        <v>15</v>
+      </c>
+      <c r="H2115" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2115">
+        <v>0</v>
+      </c>
+      <c r="J2115">
+        <v>15</v>
+      </c>
+      <c r="K2115" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:11">
+      <c r="A2116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2116">
+        <v>21</v>
+      </c>
+      <c r="G2116">
+        <v>9</v>
+      </c>
+      <c r="H2116" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2116">
+        <v>0</v>
+      </c>
+      <c r="J2116">
+        <v>9</v>
+      </c>
+      <c r="K2116" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:11">
+      <c r="A2117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2117">
+        <v>36</v>
+      </c>
+      <c r="G2117">
+        <v>7</v>
+      </c>
+      <c r="H2117" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2117">
+        <v>0</v>
+      </c>
+      <c r="J2117">
+        <v>7</v>
+      </c>
+      <c r="K2117" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:11">
+      <c r="A2118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2118">
+        <v>11</v>
+      </c>
+      <c r="G2118">
+        <v>5</v>
+      </c>
+      <c r="H2118" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2118">
+        <v>0</v>
+      </c>
+      <c r="J2118">
+        <v>5</v>
+      </c>
+      <c r="K2118" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:11">
+      <c r="A2119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2119">
+        <v>6</v>
+      </c>
+      <c r="G2119">
+        <v>2</v>
+      </c>
+      <c r="H2119" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2119">
+        <v>0</v>
+      </c>
+      <c r="J2119">
+        <v>2</v>
+      </c>
+      <c r="K2119" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:11">
+      <c r="A2120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2120">
+        <v>16</v>
+      </c>
+      <c r="G2120">
+        <v>8</v>
+      </c>
+      <c r="H2120" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2120">
+        <v>0</v>
+      </c>
+      <c r="J2120">
+        <v>8</v>
+      </c>
+      <c r="K2120" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:11">
+      <c r="A2121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2121">
+        <v>15</v>
+      </c>
+      <c r="G2121">
+        <v>3</v>
+      </c>
+      <c r="H2121" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2121">
+        <v>0</v>
+      </c>
+      <c r="J2121">
+        <v>3</v>
+      </c>
+      <c r="K2121" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:11">
+      <c r="A2122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2122">
+        <v>11</v>
+      </c>
+      <c r="G2122">
+        <v>7</v>
+      </c>
+      <c r="H2122" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2122">
+        <v>0</v>
+      </c>
+      <c r="J2122">
+        <v>7</v>
+      </c>
+      <c r="K2122" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:11">
+      <c r="A2123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2123">
+        <v>15</v>
+      </c>
+      <c r="G2123">
+        <v>6</v>
+      </c>
+      <c r="H2123" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2123">
+        <v>0</v>
+      </c>
+      <c r="J2123">
+        <v>6</v>
+      </c>
+      <c r="K2123" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:11">
+      <c r="A2124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2124">
+        <v>14</v>
+      </c>
+      <c r="G2124">
+        <v>6</v>
+      </c>
+      <c r="H2124" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2124">
+        <v>0</v>
+      </c>
+      <c r="J2124">
+        <v>6</v>
+      </c>
+      <c r="K2124" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:11">
+      <c r="A2125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2125">
+        <v>12</v>
+      </c>
+      <c r="G2125">
+        <v>1</v>
+      </c>
+      <c r="H2125" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2125">
+        <v>0</v>
+      </c>
+      <c r="J2125">
+        <v>1</v>
+      </c>
+      <c r="K2125" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:11">
+      <c r="A2126" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2126">
+        <v>37</v>
+      </c>
+      <c r="G2126">
+        <v>18</v>
+      </c>
+      <c r="H2126" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2126">
+        <v>0</v>
+      </c>
+      <c r="J2126">
+        <v>18</v>
+      </c>
+      <c r="K2126" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:11">
+      <c r="A2127" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2127">
+        <v>10</v>
+      </c>
+      <c r="G2127">
+        <v>5</v>
+      </c>
+      <c r="H2127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2127">
+        <v>0</v>
+      </c>
+      <c r="J2127">
+        <v>5</v>
+      </c>
+      <c r="K2127" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:11">
+      <c r="A2128" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2128">
+        <v>29</v>
+      </c>
+      <c r="G2128">
+        <v>14</v>
+      </c>
+      <c r="H2128" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2128">
+        <v>0</v>
+      </c>
+      <c r="J2128">
+        <v>14</v>
+      </c>
+      <c r="K2128" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:11">
+      <c r="A2129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2129">
+        <v>7</v>
+      </c>
+      <c r="G2129">
+        <v>0</v>
+      </c>
+      <c r="H2129" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2129">
+        <v>0</v>
+      </c>
+      <c r="J2129">
+        <v>0</v>
+      </c>
+      <c r="K2129" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:11">
+      <c r="A2130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2130">
+        <v>3</v>
+      </c>
+      <c r="G2130">
+        <v>3</v>
+      </c>
+      <c r="H2130" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2130">
+        <v>0</v>
+      </c>
+      <c r="J2130">
+        <v>3</v>
+      </c>
+      <c r="K2130" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:11">
+      <c r="A2131" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2131">
+        <v>1</v>
+      </c>
+      <c r="G2131">
+        <v>0</v>
+      </c>
+      <c r="H2131" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2131">
+        <v>0</v>
+      </c>
+      <c r="J2131">
+        <v>0</v>
+      </c>
+      <c r="K2131" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:11">
+      <c r="A2132" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2132">
+        <v>2</v>
+      </c>
+      <c r="G2132">
+        <v>1</v>
+      </c>
+      <c r="H2132" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2132">
+        <v>0</v>
+      </c>
+      <c r="J2132">
+        <v>1</v>
+      </c>
+      <c r="K2132" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:11">
+      <c r="A2133" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2133">
+        <v>0</v>
+      </c>
+      <c r="G2133">
+        <v>0</v>
+      </c>
+      <c r="H2133" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2133">
+        <v>0</v>
+      </c>
+      <c r="J2133">
+        <v>0</v>
+      </c>
+      <c r="K2133" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:11">
+      <c r="A2134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2134">
+        <v>2</v>
+      </c>
+      <c r="G2134">
+        <v>1</v>
+      </c>
+      <c r="H2134" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2134">
+        <v>0</v>
+      </c>
+      <c r="J2134">
+        <v>1</v>
+      </c>
+      <c r="K2134" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:11">
+      <c r="A2135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2135">
+        <v>4</v>
+      </c>
+      <c r="G2135">
+        <v>1</v>
+      </c>
+      <c r="H2135" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2135">
+        <v>0</v>
+      </c>
+      <c r="J2135">
+        <v>1</v>
+      </c>
+      <c r="K2135" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:11">
+      <c r="A2136" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2136">
+        <v>6</v>
+      </c>
+      <c r="G2136">
+        <v>2</v>
+      </c>
+      <c r="H2136" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2136">
+        <v>0</v>
+      </c>
+      <c r="J2136">
+        <v>2</v>
+      </c>
+      <c r="K2136" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:11">
+      <c r="A2137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2137">
+        <v>2</v>
+      </c>
+      <c r="G2137">
+        <v>2</v>
+      </c>
+      <c r="H2137" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2137">
+        <v>0</v>
+      </c>
+      <c r="J2137">
+        <v>2</v>
+      </c>
+      <c r="K2137" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:11">
+      <c r="A2138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2138">
+        <v>7</v>
+      </c>
+      <c r="G2138">
+        <v>2</v>
+      </c>
+      <c r="H2138" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2138">
+        <v>0</v>
+      </c>
+      <c r="J2138">
+        <v>2</v>
+      </c>
+      <c r="K2138" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:11">
+      <c r="A2139" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2139">
+        <v>8</v>
+      </c>
+      <c r="G2139">
+        <v>2</v>
+      </c>
+      <c r="H2139" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2139">
+        <v>0</v>
+      </c>
+      <c r="J2139">
+        <v>2</v>
+      </c>
+      <c r="K2139" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:11">
+      <c r="A2140" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2140">
+        <v>13</v>
+      </c>
+      <c r="G2140">
+        <v>2</v>
+      </c>
+      <c r="H2140" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2140">
+        <v>0</v>
+      </c>
+      <c r="J2140">
+        <v>2</v>
+      </c>
+      <c r="K2140" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:11">
+      <c r="A2141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2141">
+        <v>14</v>
+      </c>
+      <c r="G2141">
+        <v>2</v>
+      </c>
+      <c r="H2141" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2141">
+        <v>0</v>
+      </c>
+      <c r="J2141">
+        <v>2</v>
+      </c>
+      <c r="K2141" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:11">
+      <c r="A2142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2142">
+        <v>10</v>
+      </c>
+      <c r="G2142">
+        <v>2</v>
+      </c>
+      <c r="H2142" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2142">
+        <v>0</v>
+      </c>
+      <c r="J2142">
+        <v>2</v>
+      </c>
+      <c r="K2142" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:11">
+      <c r="A2143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2143">
+        <v>20</v>
+      </c>
+      <c r="G2143">
+        <v>10</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2143">
+        <v>0</v>
+      </c>
+      <c r="J2143">
+        <v>10</v>
+      </c>
+      <c r="K2143" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:11">
+      <c r="A2144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2144">
+        <v>15</v>
+      </c>
+      <c r="G2144">
+        <v>4</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2144">
+        <v>0</v>
+      </c>
+      <c r="J2144">
+        <v>4</v>
+      </c>
+      <c r="K2144" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:11">
+      <c r="A2145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2145">
+        <v>21</v>
+      </c>
+      <c r="G2145">
+        <v>8</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2145">
+        <v>0</v>
+      </c>
+      <c r="J2145">
+        <v>8</v>
+      </c>
+      <c r="K2145" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:11">
+      <c r="A2146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2146">
+        <v>18</v>
+      </c>
+      <c r="G2146">
+        <v>7</v>
+      </c>
+      <c r="H2146" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2146">
+        <v>0</v>
+      </c>
+      <c r="J2146">
+        <v>7</v>
+      </c>
+      <c r="K2146" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:11">
+      <c r="A2147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2147">
+        <v>7</v>
+      </c>
+      <c r="G2147">
+        <v>2</v>
+      </c>
+      <c r="H2147" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2147">
+        <v>0</v>
+      </c>
+      <c r="J2147">
+        <v>2</v>
+      </c>
+      <c r="K2147" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:11">
+      <c r="A2148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2148">
+        <v>11</v>
+      </c>
+      <c r="G2148">
+        <v>4</v>
+      </c>
+      <c r="H2148" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2148">
+        <v>0</v>
+      </c>
+      <c r="J2148">
+        <v>4</v>
+      </c>
+      <c r="K2148" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:11">
+      <c r="A2149" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2149">
+        <v>16</v>
+      </c>
+      <c r="G2149">
+        <v>4</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2149">
+        <v>0</v>
+      </c>
+      <c r="J2149">
+        <v>4</v>
+      </c>
+      <c r="K2149" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:11">
+      <c r="A2150" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2150">
+        <v>11</v>
+      </c>
+      <c r="G2150">
+        <v>8</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2150">
+        <v>0</v>
+      </c>
+      <c r="J2150">
+        <v>8</v>
+      </c>
+      <c r="K2150" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:11">
+      <c r="A2151" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2151">
+        <v>19</v>
+      </c>
+      <c r="G2151">
+        <v>8</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2151">
+        <v>0</v>
+      </c>
+      <c r="J2151">
+        <v>8</v>
+      </c>
+      <c r="K2151" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:11">
+      <c r="A2152" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2152">
+        <v>14</v>
+      </c>
+      <c r="G2152">
+        <v>4</v>
+      </c>
+      <c r="H2152" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2152">
+        <v>0</v>
+      </c>
+      <c r="J2152">
+        <v>4</v>
+      </c>
+      <c r="K2152" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:11">
+      <c r="A2153" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2153">
+        <v>8</v>
+      </c>
+      <c r="G2153">
+        <v>4</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2153">
+        <v>0</v>
+      </c>
+      <c r="J2153">
+        <v>4</v>
+      </c>
+      <c r="K2153" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:11">
+      <c r="A2154" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2154">
+        <v>7</v>
+      </c>
+      <c r="G2154">
+        <v>3</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2154">
+        <v>0</v>
+      </c>
+      <c r="J2154">
+        <v>3</v>
+      </c>
+      <c r="K2154" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:11">
+      <c r="A2155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2155">
+        <v>25</v>
+      </c>
+      <c r="G2155">
+        <v>7</v>
+      </c>
+      <c r="H2155" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2155">
+        <v>0</v>
+      </c>
+      <c r="J2155">
+        <v>7</v>
+      </c>
+      <c r="K2155" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:11">
+      <c r="A2156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2156">
+        <v>21</v>
+      </c>
+      <c r="G2156">
+        <v>5</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2156">
+        <v>0</v>
+      </c>
+      <c r="J2156">
+        <v>5</v>
+      </c>
+      <c r="K2156" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:11">
+      <c r="A2157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2157">
+        <v>12</v>
+      </c>
+      <c r="G2157">
+        <v>5</v>
+      </c>
+      <c r="H2157" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2157">
+        <v>0</v>
+      </c>
+      <c r="J2157">
+        <v>5</v>
+      </c>
+      <c r="K2157" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:11">
+      <c r="A2158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2158">
+        <v>12</v>
+      </c>
+      <c r="G2158">
+        <v>4</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2158">
+        <v>0</v>
+      </c>
+      <c r="J2158">
+        <v>4</v>
+      </c>
+      <c r="K2158" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:11">
+      <c r="A2159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2159">
+        <v>16</v>
+      </c>
+      <c r="G2159">
+        <v>6</v>
+      </c>
+      <c r="H2159" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2159">
+        <v>0</v>
+      </c>
+      <c r="J2159">
+        <v>6</v>
+      </c>
+      <c r="K2159" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:11">
+      <c r="A2160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2160">
+        <v>3</v>
+      </c>
+      <c r="G2160">
+        <v>1</v>
+      </c>
+      <c r="H2160" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2160">
+        <v>0</v>
+      </c>
+      <c r="J2160">
+        <v>1</v>
+      </c>
+      <c r="K2160" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:11">
+      <c r="A2161" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2161">
+        <v>3</v>
+      </c>
+      <c r="G2161">
+        <v>2</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2161">
+        <v>0</v>
+      </c>
+      <c r="J2161">
+        <v>2</v>
+      </c>
+      <c r="K2161" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:11">
+      <c r="A2162" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2162">
+        <v>4</v>
+      </c>
+      <c r="G2162">
+        <v>0</v>
+      </c>
+      <c r="H2162" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2162">
+        <v>0</v>
+      </c>
+      <c r="J2162">
+        <v>0</v>
+      </c>
+      <c r="K2162" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:11">
+      <c r="A2163" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2163">
+        <v>1</v>
+      </c>
+      <c r="G2163">
+        <v>1</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2163">
+        <v>0</v>
+      </c>
+      <c r="J2163">
+        <v>1</v>
+      </c>
+      <c r="K2163" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:11">
+      <c r="A2164" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2164">
+        <v>1</v>
+      </c>
+      <c r="G2164">
+        <v>0</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2164">
+        <v>0</v>
+      </c>
+      <c r="J2164">
+        <v>0</v>
+      </c>
+      <c r="K2164" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:11">
+      <c r="A2165" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2165">
+        <v>1</v>
+      </c>
+      <c r="G2165">
+        <v>0</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2165">
+        <v>0</v>
+      </c>
+      <c r="J2165">
+        <v>0</v>
+      </c>
+      <c r="K2165" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:11">
+      <c r="A2166" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2166">
+        <v>3</v>
+      </c>
+      <c r="G2166">
+        <v>1</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2166">
+        <v>0</v>
+      </c>
+      <c r="J2166">
+        <v>1</v>
+      </c>
+      <c r="K2166" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:11">
+      <c r="A2167" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2167">
+        <v>6</v>
+      </c>
+      <c r="G2167">
+        <v>4</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2167">
+        <v>0</v>
+      </c>
+      <c r="J2167">
+        <v>4</v>
+      </c>
+      <c r="K2167" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:11">
+      <c r="A2168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2168">
+        <v>12</v>
+      </c>
+      <c r="G2168">
+        <v>4</v>
+      </c>
+      <c r="H2168" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2168">
+        <v>0</v>
+      </c>
+      <c r="J2168">
+        <v>4</v>
+      </c>
+      <c r="K2168" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:11">
+      <c r="A2169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2169">
+        <v>13</v>
+      </c>
+      <c r="G2169">
+        <v>5</v>
+      </c>
+      <c r="H2169" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2169">
+        <v>0</v>
+      </c>
+      <c r="J2169">
+        <v>5</v>
+      </c>
+      <c r="K2169" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:11">
+      <c r="A2170" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2170">
+        <v>15</v>
+      </c>
+      <c r="G2170">
+        <v>4</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2170">
+        <v>0</v>
+      </c>
+      <c r="J2170">
+        <v>4</v>
+      </c>
+      <c r="K2170" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:11">
+      <c r="A2171" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2171">
+        <v>10</v>
+      </c>
+      <c r="G2171">
+        <v>4</v>
+      </c>
+      <c r="H2171" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2171">
+        <v>0</v>
+      </c>
+      <c r="J2171">
+        <v>4</v>
+      </c>
+      <c r="K2171" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:11">
+      <c r="A2172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2172">
+        <v>17</v>
+      </c>
+      <c r="G2172">
+        <v>9</v>
+      </c>
+      <c r="H2172" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2172">
+        <v>0</v>
+      </c>
+      <c r="J2172">
+        <v>9</v>
+      </c>
+      <c r="K2172" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:11">
+      <c r="A2173" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2173">
+        <v>26</v>
+      </c>
+      <c r="G2173">
+        <v>14</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2173">
+        <v>0</v>
+      </c>
+      <c r="J2173">
+        <v>14</v>
+      </c>
+      <c r="K2173" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:11">
+      <c r="A2174" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2174">
+        <v>12</v>
+      </c>
+      <c r="G2174">
+        <v>5</v>
+      </c>
+      <c r="H2174" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2174">
+        <v>0</v>
+      </c>
+      <c r="J2174">
+        <v>5</v>
+      </c>
+      <c r="K2174" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:11">
+      <c r="A2175" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2175">
+        <v>23</v>
+      </c>
+      <c r="G2175">
+        <v>6</v>
+      </c>
+      <c r="H2175" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2175">
+        <v>0</v>
+      </c>
+      <c r="J2175">
+        <v>6</v>
+      </c>
+      <c r="K2175" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:11">
+      <c r="A2176" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2176">
+        <v>10</v>
+      </c>
+      <c r="G2176">
+        <v>3</v>
+      </c>
+      <c r="H2176" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2176">
+        <v>0</v>
+      </c>
+      <c r="J2176">
+        <v>3</v>
+      </c>
+      <c r="K2176" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:11">
+      <c r="A2177" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2177">
+        <v>11</v>
+      </c>
+      <c r="G2177">
+        <v>3</v>
+      </c>
+      <c r="H2177" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2177">
+        <v>0</v>
+      </c>
+      <c r="J2177">
+        <v>3</v>
+      </c>
+      <c r="K2177" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:11">
+      <c r="A2178" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2178">
+        <v>8</v>
+      </c>
+      <c r="G2178">
+        <v>3</v>
+      </c>
+      <c r="H2178" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2178">
+        <v>0</v>
+      </c>
+      <c r="J2178">
+        <v>3</v>
+      </c>
+      <c r="K2178" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:11">
+      <c r="A2179" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2179">
+        <v>12</v>
+      </c>
+      <c r="G2179">
+        <v>3</v>
+      </c>
+      <c r="H2179" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2179">
+        <v>0</v>
+      </c>
+      <c r="J2179">
+        <v>3</v>
+      </c>
+      <c r="K2179" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:11">
+      <c r="A2180" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2180">
+        <v>2</v>
+      </c>
+      <c r="G2180">
+        <v>2</v>
+      </c>
+      <c r="H2180" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2180">
+        <v>0</v>
+      </c>
+      <c r="J2180">
+        <v>2</v>
+      </c>
+      <c r="K2180" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:11">
+      <c r="A2181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2181">
+        <v>21</v>
+      </c>
+      <c r="G2181">
+        <v>7</v>
+      </c>
+      <c r="H2181" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2181">
+        <v>0</v>
+      </c>
+      <c r="J2181">
+        <v>7</v>
+      </c>
+      <c r="K2181" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:11">
+      <c r="A2182" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2182">
+        <v>48</v>
+      </c>
+      <c r="G2182">
+        <v>20</v>
+      </c>
+      <c r="H2182" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2182">
+        <v>0</v>
+      </c>
+      <c r="J2182">
+        <v>20</v>
+      </c>
+      <c r="K2182" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:11">
+      <c r="A2183" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2183">
+        <v>188</v>
+      </c>
+      <c r="G2183">
+        <v>46</v>
+      </c>
+      <c r="H2183" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2183">
+        <v>0</v>
+      </c>
+      <c r="J2183">
+        <v>46</v>
+      </c>
+      <c r="K2183" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:11">
+      <c r="A2184" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2184">
+        <v>9</v>
+      </c>
+      <c r="G2184">
+        <v>2</v>
+      </c>
+      <c r="H2184" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2184">
+        <v>0</v>
+      </c>
+      <c r="J2184">
+        <v>2</v>
+      </c>
+      <c r="K2184" s="2">
+        <v>45540.91715589967</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:11">
+      <c r="A2185" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2185">
+        <v>42</v>
+      </c>
+      <c r="G2185">
+        <v>13</v>
+      </c>
+      <c r="H2185" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2185">
+        <v>0</v>
+      </c>
+      <c r="J2185">
+        <v>13</v>
+      </c>
+      <c r="K2185" s="2">
+        <v>45540.91715589967</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14051" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2185"/>
+  <dimension ref="A1:K2341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71770,7 +71770,7 @@
         <v>35</v>
       </c>
       <c r="K2030" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2031" spans="1:11">
@@ -71805,7 +71805,7 @@
         <v>19</v>
       </c>
       <c r="K2031" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2032" spans="1:11">
@@ -71840,7 +71840,7 @@
         <v>11</v>
       </c>
       <c r="K2032" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2033" spans="1:11">
@@ -71875,7 +71875,7 @@
         <v>31</v>
       </c>
       <c r="K2033" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2034" spans="1:11">
@@ -71910,7 +71910,7 @@
         <v>10</v>
       </c>
       <c r="K2034" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2035" spans="1:11">
@@ -71945,7 +71945,7 @@
         <v>5</v>
       </c>
       <c r="K2035" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2036" spans="1:11">
@@ -71980,7 +71980,7 @@
         <v>1</v>
       </c>
       <c r="K2036" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2037" spans="1:11">
@@ -72015,7 +72015,7 @@
         <v>1</v>
       </c>
       <c r="K2037" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2038" spans="1:11">
@@ -72050,7 +72050,7 @@
         <v>78</v>
       </c>
       <c r="K2038" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2039" spans="1:11">
@@ -72085,7 +72085,7 @@
         <v>67</v>
       </c>
       <c r="K2039" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2040" spans="1:11">
@@ -72120,7 +72120,7 @@
         <v>102</v>
       </c>
       <c r="K2040" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2041" spans="1:11">
@@ -72155,7 +72155,7 @@
         <v>28</v>
       </c>
       <c r="K2041" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2042" spans="1:11">
@@ -72190,7 +72190,7 @@
         <v>24</v>
       </c>
       <c r="K2042" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2043" spans="1:11">
@@ -72225,7 +72225,7 @@
         <v>21</v>
       </c>
       <c r="K2043" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2044" spans="1:11">
@@ -72260,7 +72260,7 @@
         <v>35</v>
       </c>
       <c r="K2044" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2045" spans="1:11">
@@ -72295,7 +72295,7 @@
         <v>18</v>
       </c>
       <c r="K2045" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2046" spans="1:11">
@@ -72330,7 +72330,7 @@
         <v>13</v>
       </c>
       <c r="K2046" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2047" spans="1:11">
@@ -72365,7 +72365,7 @@
         <v>2</v>
       </c>
       <c r="K2047" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2048" spans="1:11">
@@ -72400,7 +72400,7 @@
         <v>18</v>
       </c>
       <c r="K2048" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2049" spans="1:11">
@@ -72435,7 +72435,7 @@
         <v>32</v>
       </c>
       <c r="K2049" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2050" spans="1:11">
@@ -72470,7 +72470,7 @@
         <v>34</v>
       </c>
       <c r="K2050" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2051" spans="1:11">
@@ -72505,7 +72505,7 @@
         <v>35</v>
       </c>
       <c r="K2051" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2052" spans="1:11">
@@ -72540,7 +72540,7 @@
         <v>43</v>
       </c>
       <c r="K2052" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2053" spans="1:11">
@@ -72575,7 +72575,7 @@
         <v>32</v>
       </c>
       <c r="K2053" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2054" spans="1:11">
@@ -72610,7 +72610,7 @@
         <v>21</v>
       </c>
       <c r="K2054" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2055" spans="1:11">
@@ -72645,7 +72645,7 @@
         <v>61</v>
       </c>
       <c r="K2055" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2056" spans="1:11">
@@ -72680,7 +72680,7 @@
         <v>21</v>
       </c>
       <c r="K2056" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2057" spans="1:11">
@@ -72715,7 +72715,7 @@
         <v>45</v>
       </c>
       <c r="K2057" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2058" spans="1:11">
@@ -72750,7 +72750,7 @@
         <v>42</v>
       </c>
       <c r="K2058" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2059" spans="1:11">
@@ -72785,7 +72785,7 @@
         <v>17</v>
       </c>
       <c r="K2059" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2060" spans="1:11">
@@ -72820,7 +72820,7 @@
         <v>44</v>
       </c>
       <c r="K2060" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2061" spans="1:11">
@@ -72855,7 +72855,7 @@
         <v>58</v>
       </c>
       <c r="K2061" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2062" spans="1:11">
@@ -72890,7 +72890,7 @@
         <v>48</v>
       </c>
       <c r="K2062" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2063" spans="1:11">
@@ -72925,7 +72925,7 @@
         <v>29</v>
       </c>
       <c r="K2063" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2064" spans="1:11">
@@ -72960,7 +72960,7 @@
         <v>17</v>
       </c>
       <c r="K2064" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2065" spans="1:11">
@@ -72995,7 +72995,7 @@
         <v>26</v>
       </c>
       <c r="K2065" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2066" spans="1:11">
@@ -73030,7 +73030,7 @@
         <v>24</v>
       </c>
       <c r="K2066" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2067" spans="1:11">
@@ -73065,7 +73065,7 @@
         <v>32</v>
       </c>
       <c r="K2067" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2068" spans="1:11">
@@ -73100,7 +73100,7 @@
         <v>48</v>
       </c>
       <c r="K2068" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2069" spans="1:11">
@@ -73135,7 +73135,7 @@
         <v>56</v>
       </c>
       <c r="K2069" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2070" spans="1:11">
@@ -73170,7 +73170,7 @@
         <v>65</v>
       </c>
       <c r="K2070" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2071" spans="1:11">
@@ -73205,7 +73205,7 @@
         <v>15</v>
       </c>
       <c r="K2071" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2072" spans="1:11">
@@ -73240,7 +73240,7 @@
         <v>56</v>
       </c>
       <c r="K2072" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2073" spans="1:11">
@@ -73275,7 +73275,7 @@
         <v>28</v>
       </c>
       <c r="K2073" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2074" spans="1:11">
@@ -73310,7 +73310,7 @@
         <v>46</v>
       </c>
       <c r="K2074" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2075" spans="1:11">
@@ -73345,7 +73345,7 @@
         <v>72</v>
       </c>
       <c r="K2075" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2076" spans="1:11">
@@ -73380,7 +73380,7 @@
         <v>26</v>
       </c>
       <c r="K2076" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2077" spans="1:11">
@@ -73415,7 +73415,7 @@
         <v>45</v>
       </c>
       <c r="K2077" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2078" spans="1:11">
@@ -73450,7 +73450,7 @@
         <v>33</v>
       </c>
       <c r="K2078" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2079" spans="1:11">
@@ -73485,7 +73485,7 @@
         <v>34</v>
       </c>
       <c r="K2079" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2080" spans="1:11">
@@ -73520,7 +73520,7 @@
         <v>3</v>
       </c>
       <c r="K2080" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2081" spans="1:11">
@@ -73555,7 +73555,7 @@
         <v>14</v>
       </c>
       <c r="K2081" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2082" spans="1:11">
@@ -73590,7 +73590,7 @@
         <v>5</v>
       </c>
       <c r="K2082" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2083" spans="1:11">
@@ -73625,7 +73625,7 @@
         <v>0</v>
       </c>
       <c r="K2083" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2084" spans="1:11">
@@ -73660,7 +73660,7 @@
         <v>0</v>
       </c>
       <c r="K2084" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2085" spans="1:11">
@@ -73695,7 +73695,7 @@
         <v>0</v>
       </c>
       <c r="K2085" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2086" spans="1:11">
@@ -73730,7 +73730,7 @@
         <v>1</v>
       </c>
       <c r="K2086" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2087" spans="1:11">
@@ -73765,7 +73765,7 @@
         <v>1</v>
       </c>
       <c r="K2087" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2088" spans="1:11">
@@ -73800,7 +73800,7 @@
         <v>3</v>
       </c>
       <c r="K2088" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2089" spans="1:11">
@@ -73835,7 +73835,7 @@
         <v>0</v>
       </c>
       <c r="K2089" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2090" spans="1:11">
@@ -73870,7 +73870,7 @@
         <v>0</v>
       </c>
       <c r="K2090" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2091" spans="1:11">
@@ -73905,7 +73905,7 @@
         <v>0</v>
       </c>
       <c r="K2091" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2092" spans="1:11">
@@ -73940,7 +73940,7 @@
         <v>1</v>
       </c>
       <c r="K2092" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2093" spans="1:11">
@@ -73975,7 +73975,7 @@
         <v>0</v>
       </c>
       <c r="K2093" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2094" spans="1:11">
@@ -74010,7 +74010,7 @@
         <v>40</v>
       </c>
       <c r="K2094" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2095" spans="1:11">
@@ -74045,7 +74045,7 @@
         <v>2</v>
       </c>
       <c r="K2095" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2096" spans="1:11">
@@ -74080,7 +74080,7 @@
         <v>22</v>
       </c>
       <c r="K2096" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2097" spans="1:11">
@@ -74115,7 +74115,7 @@
         <v>13</v>
       </c>
       <c r="K2097" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2098" spans="1:11">
@@ -74150,7 +74150,7 @@
         <v>16</v>
       </c>
       <c r="K2098" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2099" spans="1:11">
@@ -74185,7 +74185,7 @@
         <v>1</v>
       </c>
       <c r="K2099" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2100" spans="1:11">
@@ -74220,7 +74220,7 @@
         <v>0</v>
       </c>
       <c r="K2100" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2101" spans="1:11">
@@ -74255,7 +74255,7 @@
         <v>1</v>
       </c>
       <c r="K2101" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2102" spans="1:11">
@@ -74290,7 +74290,7 @@
         <v>0</v>
       </c>
       <c r="K2102" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2103" spans="1:11">
@@ -74325,7 +74325,7 @@
         <v>4</v>
       </c>
       <c r="K2103" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2104" spans="1:11">
@@ -74360,7 +74360,7 @@
         <v>1</v>
       </c>
       <c r="K2104" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2105" spans="1:11">
@@ -74395,7 +74395,7 @@
         <v>6</v>
       </c>
       <c r="K2105" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2106" spans="1:11">
@@ -74430,7 +74430,7 @@
         <v>1</v>
       </c>
       <c r="K2106" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2107" spans="1:11">
@@ -74465,7 +74465,7 @@
         <v>3</v>
       </c>
       <c r="K2107" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2108" spans="1:11">
@@ -74500,7 +74500,7 @@
         <v>1</v>
       </c>
       <c r="K2108" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2109" spans="1:11">
@@ -74535,7 +74535,7 @@
         <v>0</v>
       </c>
       <c r="K2109" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2110" spans="1:11">
@@ -74570,7 +74570,7 @@
         <v>0</v>
       </c>
       <c r="K2110" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2111" spans="1:11">
@@ -74605,7 +74605,7 @@
         <v>3</v>
       </c>
       <c r="K2111" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2112" spans="1:11">
@@ -74640,7 +74640,7 @@
         <v>6</v>
       </c>
       <c r="K2112" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2113" spans="1:11">
@@ -74675,7 +74675,7 @@
         <v>1</v>
       </c>
       <c r="K2113" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2114" spans="1:11">
@@ -74710,7 +74710,7 @@
         <v>1</v>
       </c>
       <c r="K2114" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2115" spans="1:11">
@@ -74745,7 +74745,7 @@
         <v>15</v>
       </c>
       <c r="K2115" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2116" spans="1:11">
@@ -74780,7 +74780,7 @@
         <v>9</v>
       </c>
       <c r="K2116" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2117" spans="1:11">
@@ -74815,7 +74815,7 @@
         <v>7</v>
       </c>
       <c r="K2117" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2118" spans="1:11">
@@ -74850,7 +74850,7 @@
         <v>5</v>
       </c>
       <c r="K2118" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2119" spans="1:11">
@@ -74885,7 +74885,7 @@
         <v>2</v>
       </c>
       <c r="K2119" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2120" spans="1:11">
@@ -74920,7 +74920,7 @@
         <v>8</v>
       </c>
       <c r="K2120" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2121" spans="1:11">
@@ -74955,7 +74955,7 @@
         <v>3</v>
       </c>
       <c r="K2121" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2122" spans="1:11">
@@ -74990,7 +74990,7 @@
         <v>7</v>
       </c>
       <c r="K2122" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2123" spans="1:11">
@@ -75025,7 +75025,7 @@
         <v>6</v>
       </c>
       <c r="K2123" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2124" spans="1:11">
@@ -75060,7 +75060,7 @@
         <v>6</v>
       </c>
       <c r="K2124" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2125" spans="1:11">
@@ -75095,7 +75095,7 @@
         <v>1</v>
       </c>
       <c r="K2125" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2126" spans="1:11">
@@ -75130,7 +75130,7 @@
         <v>18</v>
       </c>
       <c r="K2126" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2127" spans="1:11">
@@ -75165,7 +75165,7 @@
         <v>5</v>
       </c>
       <c r="K2127" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2128" spans="1:11">
@@ -75200,7 +75200,7 @@
         <v>14</v>
       </c>
       <c r="K2128" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2129" spans="1:11">
@@ -75235,7 +75235,7 @@
         <v>0</v>
       </c>
       <c r="K2129" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2130" spans="1:11">
@@ -75270,7 +75270,7 @@
         <v>3</v>
       </c>
       <c r="K2130" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2131" spans="1:11">
@@ -75305,7 +75305,7 @@
         <v>0</v>
       </c>
       <c r="K2131" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2132" spans="1:11">
@@ -75340,7 +75340,7 @@
         <v>1</v>
       </c>
       <c r="K2132" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2133" spans="1:11">
@@ -75375,7 +75375,7 @@
         <v>0</v>
       </c>
       <c r="K2133" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2134" spans="1:11">
@@ -75410,7 +75410,7 @@
         <v>1</v>
       </c>
       <c r="K2134" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2135" spans="1:11">
@@ -75445,7 +75445,7 @@
         <v>1</v>
       </c>
       <c r="K2135" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2136" spans="1:11">
@@ -75480,7 +75480,7 @@
         <v>2</v>
       </c>
       <c r="K2136" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2137" spans="1:11">
@@ -75515,7 +75515,7 @@
         <v>2</v>
       </c>
       <c r="K2137" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2138" spans="1:11">
@@ -75550,7 +75550,7 @@
         <v>2</v>
       </c>
       <c r="K2138" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2139" spans="1:11">
@@ -75585,7 +75585,7 @@
         <v>2</v>
       </c>
       <c r="K2139" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2140" spans="1:11">
@@ -75620,7 +75620,7 @@
         <v>2</v>
       </c>
       <c r="K2140" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2141" spans="1:11">
@@ -75655,7 +75655,7 @@
         <v>2</v>
       </c>
       <c r="K2141" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2142" spans="1:11">
@@ -75690,7 +75690,7 @@
         <v>2</v>
       </c>
       <c r="K2142" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2143" spans="1:11">
@@ -75725,7 +75725,7 @@
         <v>10</v>
       </c>
       <c r="K2143" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2144" spans="1:11">
@@ -75760,7 +75760,7 @@
         <v>4</v>
       </c>
       <c r="K2144" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2145" spans="1:11">
@@ -75795,7 +75795,7 @@
         <v>8</v>
       </c>
       <c r="K2145" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2146" spans="1:11">
@@ -75830,7 +75830,7 @@
         <v>7</v>
       </c>
       <c r="K2146" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2147" spans="1:11">
@@ -75865,7 +75865,7 @@
         <v>2</v>
       </c>
       <c r="K2147" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2148" spans="1:11">
@@ -75900,7 +75900,7 @@
         <v>4</v>
       </c>
       <c r="K2148" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2149" spans="1:11">
@@ -75935,7 +75935,7 @@
         <v>4</v>
       </c>
       <c r="K2149" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2150" spans="1:11">
@@ -75970,7 +75970,7 @@
         <v>8</v>
       </c>
       <c r="K2150" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2151" spans="1:11">
@@ -76005,7 +76005,7 @@
         <v>8</v>
       </c>
       <c r="K2151" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2152" spans="1:11">
@@ -76040,7 +76040,7 @@
         <v>4</v>
       </c>
       <c r="K2152" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2153" spans="1:11">
@@ -76075,7 +76075,7 @@
         <v>4</v>
       </c>
       <c r="K2153" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2154" spans="1:11">
@@ -76110,7 +76110,7 @@
         <v>3</v>
       </c>
       <c r="K2154" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2155" spans="1:11">
@@ -76145,7 +76145,7 @@
         <v>7</v>
       </c>
       <c r="K2155" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2156" spans="1:11">
@@ -76180,7 +76180,7 @@
         <v>5</v>
       </c>
       <c r="K2156" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2157" spans="1:11">
@@ -76215,7 +76215,7 @@
         <v>5</v>
       </c>
       <c r="K2157" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2158" spans="1:11">
@@ -76250,7 +76250,7 @@
         <v>4</v>
       </c>
       <c r="K2158" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2159" spans="1:11">
@@ -76285,7 +76285,7 @@
         <v>6</v>
       </c>
       <c r="K2159" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2160" spans="1:11">
@@ -76320,7 +76320,7 @@
         <v>1</v>
       </c>
       <c r="K2160" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2161" spans="1:11">
@@ -76355,7 +76355,7 @@
         <v>2</v>
       </c>
       <c r="K2161" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2162" spans="1:11">
@@ -76390,7 +76390,7 @@
         <v>0</v>
       </c>
       <c r="K2162" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2163" spans="1:11">
@@ -76425,7 +76425,7 @@
         <v>1</v>
       </c>
       <c r="K2163" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2164" spans="1:11">
@@ -76460,7 +76460,7 @@
         <v>0</v>
       </c>
       <c r="K2164" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2165" spans="1:11">
@@ -76495,7 +76495,7 @@
         <v>0</v>
       </c>
       <c r="K2165" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2166" spans="1:11">
@@ -76530,7 +76530,7 @@
         <v>1</v>
       </c>
       <c r="K2166" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2167" spans="1:11">
@@ -76565,7 +76565,7 @@
         <v>4</v>
       </c>
       <c r="K2167" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2168" spans="1:11">
@@ -76600,7 +76600,7 @@
         <v>4</v>
       </c>
       <c r="K2168" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2169" spans="1:11">
@@ -76635,7 +76635,7 @@
         <v>5</v>
       </c>
       <c r="K2169" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2170" spans="1:11">
@@ -76670,7 +76670,7 @@
         <v>4</v>
       </c>
       <c r="K2170" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2171" spans="1:11">
@@ -76705,7 +76705,7 @@
         <v>4</v>
       </c>
       <c r="K2171" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2172" spans="1:11">
@@ -76740,7 +76740,7 @@
         <v>9</v>
       </c>
       <c r="K2172" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2173" spans="1:11">
@@ -76775,7 +76775,7 @@
         <v>14</v>
       </c>
       <c r="K2173" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2174" spans="1:11">
@@ -76810,7 +76810,7 @@
         <v>5</v>
       </c>
       <c r="K2174" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2175" spans="1:11">
@@ -76845,7 +76845,7 @@
         <v>6</v>
       </c>
       <c r="K2175" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2176" spans="1:11">
@@ -76880,7 +76880,7 @@
         <v>3</v>
       </c>
       <c r="K2176" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2177" spans="1:11">
@@ -76915,7 +76915,7 @@
         <v>3</v>
       </c>
       <c r="K2177" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2178" spans="1:11">
@@ -76950,7 +76950,7 @@
         <v>3</v>
       </c>
       <c r="K2178" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2179" spans="1:11">
@@ -76985,7 +76985,7 @@
         <v>3</v>
       </c>
       <c r="K2179" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2180" spans="1:11">
@@ -77020,7 +77020,7 @@
         <v>2</v>
       </c>
       <c r="K2180" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2181" spans="1:11">
@@ -77055,7 +77055,7 @@
         <v>7</v>
       </c>
       <c r="K2181" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2182" spans="1:11">
@@ -77090,7 +77090,7 @@
         <v>20</v>
       </c>
       <c r="K2182" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2183" spans="1:11">
@@ -77125,7 +77125,7 @@
         <v>46</v>
       </c>
       <c r="K2183" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2184" spans="1:11">
@@ -77160,7 +77160,7 @@
         <v>2</v>
       </c>
       <c r="K2184" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
       </c>
     </row>
     <row r="2185" spans="1:11">
@@ -77195,7 +77195,5467 @@
         <v>13</v>
       </c>
       <c r="K2185" s="2">
-        <v>45540.91715589967</v>
+        <v>45540.91715590277</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:11">
+      <c r="A2186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2186">
+        <v>58</v>
+      </c>
+      <c r="G2186">
+        <v>35</v>
+      </c>
+      <c r="H2186" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2186">
+        <v>0</v>
+      </c>
+      <c r="J2186">
+        <v>35</v>
+      </c>
+      <c r="K2186" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:11">
+      <c r="A2187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2187">
+        <v>24</v>
+      </c>
+      <c r="G2187">
+        <v>19</v>
+      </c>
+      <c r="H2187" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2187">
+        <v>0</v>
+      </c>
+      <c r="J2187">
+        <v>19</v>
+      </c>
+      <c r="K2187" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:11">
+      <c r="A2188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2188">
+        <v>25</v>
+      </c>
+      <c r="G2188">
+        <v>11</v>
+      </c>
+      <c r="H2188" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2188">
+        <v>0</v>
+      </c>
+      <c r="J2188">
+        <v>11</v>
+      </c>
+      <c r="K2188" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:11">
+      <c r="A2189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2189">
+        <v>65</v>
+      </c>
+      <c r="G2189">
+        <v>31</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2189">
+        <v>0</v>
+      </c>
+      <c r="J2189">
+        <v>31</v>
+      </c>
+      <c r="K2189" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:11">
+      <c r="A2190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2190">
+        <v>21</v>
+      </c>
+      <c r="G2190">
+        <v>10</v>
+      </c>
+      <c r="H2190" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2190">
+        <v>0</v>
+      </c>
+      <c r="J2190">
+        <v>10</v>
+      </c>
+      <c r="K2190" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:11">
+      <c r="A2191" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2191">
+        <v>14</v>
+      </c>
+      <c r="G2191">
+        <v>5</v>
+      </c>
+      <c r="H2191" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2191">
+        <v>0</v>
+      </c>
+      <c r="J2191">
+        <v>5</v>
+      </c>
+      <c r="K2191" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:11">
+      <c r="A2192" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2192">
+        <v>4</v>
+      </c>
+      <c r="G2192">
+        <v>1</v>
+      </c>
+      <c r="H2192" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2192">
+        <v>0</v>
+      </c>
+      <c r="J2192">
+        <v>1</v>
+      </c>
+      <c r="K2192" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:11">
+      <c r="A2193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2193">
+        <v>4</v>
+      </c>
+      <c r="G2193">
+        <v>1</v>
+      </c>
+      <c r="H2193" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2193">
+        <v>0</v>
+      </c>
+      <c r="J2193">
+        <v>1</v>
+      </c>
+      <c r="K2193" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:11">
+      <c r="A2194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2194">
+        <v>193</v>
+      </c>
+      <c r="G2194">
+        <v>78</v>
+      </c>
+      <c r="H2194" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2194">
+        <v>0</v>
+      </c>
+      <c r="J2194">
+        <v>78</v>
+      </c>
+      <c r="K2194" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:11">
+      <c r="A2195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2195" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2195">
+        <v>139</v>
+      </c>
+      <c r="G2195">
+        <v>67</v>
+      </c>
+      <c r="H2195" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2195">
+        <v>0</v>
+      </c>
+      <c r="J2195">
+        <v>67</v>
+      </c>
+      <c r="K2195" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:11">
+      <c r="A2196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2196" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2196">
+        <v>206</v>
+      </c>
+      <c r="G2196">
+        <v>102</v>
+      </c>
+      <c r="H2196" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2196">
+        <v>0</v>
+      </c>
+      <c r="J2196">
+        <v>102</v>
+      </c>
+      <c r="K2196" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:11">
+      <c r="A2197" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2197" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2197">
+        <v>68</v>
+      </c>
+      <c r="G2197">
+        <v>28</v>
+      </c>
+      <c r="H2197" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2197">
+        <v>0</v>
+      </c>
+      <c r="J2197">
+        <v>28</v>
+      </c>
+      <c r="K2197" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:11">
+      <c r="A2198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2198" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2198">
+        <v>60</v>
+      </c>
+      <c r="G2198">
+        <v>24</v>
+      </c>
+      <c r="H2198" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2198">
+        <v>0</v>
+      </c>
+      <c r="J2198">
+        <v>24</v>
+      </c>
+      <c r="K2198" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:11">
+      <c r="A2199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2199" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2199">
+        <v>87</v>
+      </c>
+      <c r="G2199">
+        <v>21</v>
+      </c>
+      <c r="H2199" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2199">
+        <v>0</v>
+      </c>
+      <c r="J2199">
+        <v>21</v>
+      </c>
+      <c r="K2199" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:11">
+      <c r="A2200" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2200" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2200">
+        <v>83</v>
+      </c>
+      <c r="G2200">
+        <v>36</v>
+      </c>
+      <c r="H2200" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2200">
+        <v>0</v>
+      </c>
+      <c r="J2200">
+        <v>36</v>
+      </c>
+      <c r="K2200" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:11">
+      <c r="A2201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2201" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2201">
+        <v>38</v>
+      </c>
+      <c r="G2201">
+        <v>18</v>
+      </c>
+      <c r="H2201" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2201">
+        <v>0</v>
+      </c>
+      <c r="J2201">
+        <v>18</v>
+      </c>
+      <c r="K2201" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:11">
+      <c r="A2202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2202">
+        <v>28</v>
+      </c>
+      <c r="G2202">
+        <v>13</v>
+      </c>
+      <c r="H2202" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2202">
+        <v>0</v>
+      </c>
+      <c r="J2202">
+        <v>13</v>
+      </c>
+      <c r="K2202" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:11">
+      <c r="A2203" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2203" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2203">
+        <v>12</v>
+      </c>
+      <c r="G2203">
+        <v>2</v>
+      </c>
+      <c r="H2203" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2203">
+        <v>0</v>
+      </c>
+      <c r="J2203">
+        <v>2</v>
+      </c>
+      <c r="K2203" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:11">
+      <c r="A2204" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2204" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2204">
+        <v>49</v>
+      </c>
+      <c r="G2204">
+        <v>18</v>
+      </c>
+      <c r="H2204" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2204">
+        <v>0</v>
+      </c>
+      <c r="J2204">
+        <v>18</v>
+      </c>
+      <c r="K2204" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:11">
+      <c r="A2205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2205" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2205">
+        <v>65</v>
+      </c>
+      <c r="G2205">
+        <v>32</v>
+      </c>
+      <c r="H2205" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2205">
+        <v>0</v>
+      </c>
+      <c r="J2205">
+        <v>32</v>
+      </c>
+      <c r="K2205" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:11">
+      <c r="A2206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2206" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2206">
+        <v>82</v>
+      </c>
+      <c r="G2206">
+        <v>34</v>
+      </c>
+      <c r="H2206" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2206">
+        <v>0</v>
+      </c>
+      <c r="J2206">
+        <v>34</v>
+      </c>
+      <c r="K2206" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:11">
+      <c r="A2207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2207">
+        <v>94</v>
+      </c>
+      <c r="G2207">
+        <v>35</v>
+      </c>
+      <c r="H2207" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2207">
+        <v>0</v>
+      </c>
+      <c r="J2207">
+        <v>35</v>
+      </c>
+      <c r="K2207" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:11">
+      <c r="A2208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2208" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2208">
+        <v>95</v>
+      </c>
+      <c r="G2208">
+        <v>44</v>
+      </c>
+      <c r="H2208" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2208">
+        <v>0</v>
+      </c>
+      <c r="J2208">
+        <v>44</v>
+      </c>
+      <c r="K2208" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:11">
+      <c r="A2209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2209" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2209">
+        <v>88</v>
+      </c>
+      <c r="G2209">
+        <v>33</v>
+      </c>
+      <c r="H2209" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2209">
+        <v>0</v>
+      </c>
+      <c r="J2209">
+        <v>33</v>
+      </c>
+      <c r="K2209" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:11">
+      <c r="A2210" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2210" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2210">
+        <v>50</v>
+      </c>
+      <c r="G2210">
+        <v>21</v>
+      </c>
+      <c r="H2210" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2210">
+        <v>0</v>
+      </c>
+      <c r="J2210">
+        <v>21</v>
+      </c>
+      <c r="K2210" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:11">
+      <c r="A2211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2211">
+        <v>131</v>
+      </c>
+      <c r="G2211">
+        <v>61</v>
+      </c>
+      <c r="H2211" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2211">
+        <v>0</v>
+      </c>
+      <c r="J2211">
+        <v>61</v>
+      </c>
+      <c r="K2211" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:11">
+      <c r="A2212" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2212" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2212">
+        <v>86</v>
+      </c>
+      <c r="G2212">
+        <v>22</v>
+      </c>
+      <c r="H2212" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2212">
+        <v>0</v>
+      </c>
+      <c r="J2212">
+        <v>22</v>
+      </c>
+      <c r="K2212" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:11">
+      <c r="A2213" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2213" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2213">
+        <v>81</v>
+      </c>
+      <c r="G2213">
+        <v>45</v>
+      </c>
+      <c r="H2213" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2213">
+        <v>0</v>
+      </c>
+      <c r="J2213">
+        <v>45</v>
+      </c>
+      <c r="K2213" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:11">
+      <c r="A2214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2214" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2214">
+        <v>93</v>
+      </c>
+      <c r="G2214">
+        <v>43</v>
+      </c>
+      <c r="H2214" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2214">
+        <v>0</v>
+      </c>
+      <c r="J2214">
+        <v>43</v>
+      </c>
+      <c r="K2214" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:11">
+      <c r="A2215" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2215" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2215">
+        <v>39</v>
+      </c>
+      <c r="G2215">
+        <v>17</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2215">
+        <v>0</v>
+      </c>
+      <c r="J2215">
+        <v>17</v>
+      </c>
+      <c r="K2215" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:11">
+      <c r="A2216" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2216">
+        <v>90</v>
+      </c>
+      <c r="G2216">
+        <v>44</v>
+      </c>
+      <c r="H2216" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2216">
+        <v>0</v>
+      </c>
+      <c r="J2216">
+        <v>44</v>
+      </c>
+      <c r="K2216" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:11">
+      <c r="A2217" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2217">
+        <v>118</v>
+      </c>
+      <c r="G2217">
+        <v>58</v>
+      </c>
+      <c r="H2217" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2217">
+        <v>0</v>
+      </c>
+      <c r="J2217">
+        <v>58</v>
+      </c>
+      <c r="K2217" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:11">
+      <c r="A2218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2218" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2218">
+        <v>94</v>
+      </c>
+      <c r="G2218">
+        <v>48</v>
+      </c>
+      <c r="H2218" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2218">
+        <v>0</v>
+      </c>
+      <c r="J2218">
+        <v>48</v>
+      </c>
+      <c r="K2218" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:11">
+      <c r="A2219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2219" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2219">
+        <v>60</v>
+      </c>
+      <c r="G2219">
+        <v>29</v>
+      </c>
+      <c r="H2219" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2219">
+        <v>0</v>
+      </c>
+      <c r="J2219">
+        <v>29</v>
+      </c>
+      <c r="K2219" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:11">
+      <c r="A2220" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2220" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2220">
+        <v>31</v>
+      </c>
+      <c r="G2220">
+        <v>17</v>
+      </c>
+      <c r="H2220" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2220">
+        <v>0</v>
+      </c>
+      <c r="J2220">
+        <v>17</v>
+      </c>
+      <c r="K2220" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:11">
+      <c r="A2221" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2221">
+        <v>63</v>
+      </c>
+      <c r="G2221">
+        <v>27</v>
+      </c>
+      <c r="H2221" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2221">
+        <v>0</v>
+      </c>
+      <c r="J2221">
+        <v>27</v>
+      </c>
+      <c r="K2221" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:11">
+      <c r="A2222" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2222" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2222">
+        <v>42</v>
+      </c>
+      <c r="G2222">
+        <v>24</v>
+      </c>
+      <c r="H2222" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2222">
+        <v>0</v>
+      </c>
+      <c r="J2222">
+        <v>24</v>
+      </c>
+      <c r="K2222" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:11">
+      <c r="A2223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2223" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2223">
+        <v>100</v>
+      </c>
+      <c r="G2223">
+        <v>32</v>
+      </c>
+      <c r="H2223" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2223">
+        <v>0</v>
+      </c>
+      <c r="J2223">
+        <v>32</v>
+      </c>
+      <c r="K2223" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:11">
+      <c r="A2224" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2224" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2224">
+        <v>128</v>
+      </c>
+      <c r="G2224">
+        <v>48</v>
+      </c>
+      <c r="H2224" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2224">
+        <v>0</v>
+      </c>
+      <c r="J2224">
+        <v>48</v>
+      </c>
+      <c r="K2224" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:11">
+      <c r="A2225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2225" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2225">
+        <v>165</v>
+      </c>
+      <c r="G2225">
+        <v>56</v>
+      </c>
+      <c r="H2225" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2225">
+        <v>0</v>
+      </c>
+      <c r="J2225">
+        <v>56</v>
+      </c>
+      <c r="K2225" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:11">
+      <c r="A2226" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2226" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2226">
+        <v>146</v>
+      </c>
+      <c r="G2226">
+        <v>65</v>
+      </c>
+      <c r="H2226" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2226">
+        <v>0</v>
+      </c>
+      <c r="J2226">
+        <v>65</v>
+      </c>
+      <c r="K2226" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:11">
+      <c r="A2227" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2227" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2227">
+        <v>44</v>
+      </c>
+      <c r="G2227">
+        <v>15</v>
+      </c>
+      <c r="H2227" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2227">
+        <v>0</v>
+      </c>
+      <c r="J2227">
+        <v>15</v>
+      </c>
+      <c r="K2227" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:11">
+      <c r="A2228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2228" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2228">
+        <v>129</v>
+      </c>
+      <c r="G2228">
+        <v>56</v>
+      </c>
+      <c r="H2228" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2228">
+        <v>0</v>
+      </c>
+      <c r="J2228">
+        <v>56</v>
+      </c>
+      <c r="K2228" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:11">
+      <c r="A2229" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2229" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2229">
+        <v>51</v>
+      </c>
+      <c r="G2229">
+        <v>29</v>
+      </c>
+      <c r="H2229" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2229">
+        <v>0</v>
+      </c>
+      <c r="J2229">
+        <v>29</v>
+      </c>
+      <c r="K2229" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:11">
+      <c r="A2230" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2230">
+        <v>112</v>
+      </c>
+      <c r="G2230">
+        <v>46</v>
+      </c>
+      <c r="H2230" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2230">
+        <v>0</v>
+      </c>
+      <c r="J2230">
+        <v>46</v>
+      </c>
+      <c r="K2230" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:11">
+      <c r="A2231" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2231">
+        <v>189</v>
+      </c>
+      <c r="G2231">
+        <v>72</v>
+      </c>
+      <c r="H2231" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2231">
+        <v>0</v>
+      </c>
+      <c r="J2231">
+        <v>72</v>
+      </c>
+      <c r="K2231" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:11">
+      <c r="A2232" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2232">
+        <v>94</v>
+      </c>
+      <c r="G2232">
+        <v>26</v>
+      </c>
+      <c r="H2232" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2232">
+        <v>0</v>
+      </c>
+      <c r="J2232">
+        <v>26</v>
+      </c>
+      <c r="K2232" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:11">
+      <c r="A2233" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2233">
+        <v>112</v>
+      </c>
+      <c r="G2233">
+        <v>45</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2233">
+        <v>0</v>
+      </c>
+      <c r="J2233">
+        <v>45</v>
+      </c>
+      <c r="K2233" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:11">
+      <c r="A2234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2234">
+        <v>87</v>
+      </c>
+      <c r="G2234">
+        <v>33</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2234">
+        <v>0</v>
+      </c>
+      <c r="J2234">
+        <v>33</v>
+      </c>
+      <c r="K2234" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:11">
+      <c r="A2235" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2235">
+        <v>91</v>
+      </c>
+      <c r="G2235">
+        <v>34</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2235">
+        <v>0</v>
+      </c>
+      <c r="J2235">
+        <v>34</v>
+      </c>
+      <c r="K2235" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:11">
+      <c r="A2236" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2236">
+        <v>4</v>
+      </c>
+      <c r="G2236">
+        <v>3</v>
+      </c>
+      <c r="H2236" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2236">
+        <v>0</v>
+      </c>
+      <c r="J2236">
+        <v>3</v>
+      </c>
+      <c r="K2236" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:11">
+      <c r="A2237" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2237">
+        <v>28</v>
+      </c>
+      <c r="G2237">
+        <v>14</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2237">
+        <v>0</v>
+      </c>
+      <c r="J2237">
+        <v>14</v>
+      </c>
+      <c r="K2237" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:11">
+      <c r="A2238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2238">
+        <v>9</v>
+      </c>
+      <c r="G2238">
+        <v>5</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2238">
+        <v>0</v>
+      </c>
+      <c r="J2238">
+        <v>5</v>
+      </c>
+      <c r="K2238" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:11">
+      <c r="A2239" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2239">
+        <v>6</v>
+      </c>
+      <c r="G2239">
+        <v>0</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2239">
+        <v>0</v>
+      </c>
+      <c r="J2239">
+        <v>0</v>
+      </c>
+      <c r="K2239" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:11">
+      <c r="A2240" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2240">
+        <v>0</v>
+      </c>
+      <c r="G2240">
+        <v>0</v>
+      </c>
+      <c r="H2240" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2240">
+        <v>0</v>
+      </c>
+      <c r="J2240">
+        <v>0</v>
+      </c>
+      <c r="K2240" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:11">
+      <c r="A2241" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2241">
+        <v>1</v>
+      </c>
+      <c r="G2241">
+        <v>0</v>
+      </c>
+      <c r="H2241" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2241">
+        <v>0</v>
+      </c>
+      <c r="J2241">
+        <v>0</v>
+      </c>
+      <c r="K2241" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:11">
+      <c r="A2242" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2242">
+        <v>4</v>
+      </c>
+      <c r="G2242">
+        <v>1</v>
+      </c>
+      <c r="H2242" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2242">
+        <v>0</v>
+      </c>
+      <c r="J2242">
+        <v>1</v>
+      </c>
+      <c r="K2242" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:11">
+      <c r="A2243" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2243">
+        <v>5</v>
+      </c>
+      <c r="G2243">
+        <v>1</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2243">
+        <v>0</v>
+      </c>
+      <c r="J2243">
+        <v>1</v>
+      </c>
+      <c r="K2243" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:11">
+      <c r="A2244" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2244">
+        <v>10</v>
+      </c>
+      <c r="G2244">
+        <v>3</v>
+      </c>
+      <c r="H2244" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2244">
+        <v>0</v>
+      </c>
+      <c r="J2244">
+        <v>3</v>
+      </c>
+      <c r="K2244" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:11">
+      <c r="A2245" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2245">
+        <v>0</v>
+      </c>
+      <c r="G2245">
+        <v>0</v>
+      </c>
+      <c r="H2245" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2245">
+        <v>0</v>
+      </c>
+      <c r="J2245">
+        <v>0</v>
+      </c>
+      <c r="K2245" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:11">
+      <c r="A2246" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2246">
+        <v>0</v>
+      </c>
+      <c r="G2246">
+        <v>0</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2246">
+        <v>0</v>
+      </c>
+      <c r="J2246">
+        <v>0</v>
+      </c>
+      <c r="K2246" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:11">
+      <c r="A2247" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2247">
+        <v>1</v>
+      </c>
+      <c r="G2247">
+        <v>0</v>
+      </c>
+      <c r="H2247" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2247">
+        <v>0</v>
+      </c>
+      <c r="J2247">
+        <v>0</v>
+      </c>
+      <c r="K2247" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:11">
+      <c r="A2248" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2248">
+        <v>1</v>
+      </c>
+      <c r="G2248">
+        <v>1</v>
+      </c>
+      <c r="H2248" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2248">
+        <v>0</v>
+      </c>
+      <c r="J2248">
+        <v>1</v>
+      </c>
+      <c r="K2248" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:11">
+      <c r="A2249" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2249">
+        <v>1</v>
+      </c>
+      <c r="G2249">
+        <v>0</v>
+      </c>
+      <c r="H2249" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2249">
+        <v>0</v>
+      </c>
+      <c r="J2249">
+        <v>0</v>
+      </c>
+      <c r="K2249" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:11">
+      <c r="A2250" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2250">
+        <v>97</v>
+      </c>
+      <c r="G2250">
+        <v>40</v>
+      </c>
+      <c r="H2250" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2250">
+        <v>0</v>
+      </c>
+      <c r="J2250">
+        <v>40</v>
+      </c>
+      <c r="K2250" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:11">
+      <c r="A2251" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2251">
+        <v>6</v>
+      </c>
+      <c r="G2251">
+        <v>2</v>
+      </c>
+      <c r="H2251" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2251">
+        <v>0</v>
+      </c>
+      <c r="J2251">
+        <v>2</v>
+      </c>
+      <c r="K2251" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:11">
+      <c r="A2252" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2252" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2252">
+        <v>58</v>
+      </c>
+      <c r="G2252">
+        <v>22</v>
+      </c>
+      <c r="H2252" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2252">
+        <v>0</v>
+      </c>
+      <c r="J2252">
+        <v>22</v>
+      </c>
+      <c r="K2252" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:11">
+      <c r="A2253" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2253">
+        <v>49</v>
+      </c>
+      <c r="G2253">
+        <v>13</v>
+      </c>
+      <c r="H2253" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2253">
+        <v>0</v>
+      </c>
+      <c r="J2253">
+        <v>13</v>
+      </c>
+      <c r="K2253" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:11">
+      <c r="A2254" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2254" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2254">
+        <v>28</v>
+      </c>
+      <c r="G2254">
+        <v>16</v>
+      </c>
+      <c r="H2254" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2254">
+        <v>0</v>
+      </c>
+      <c r="J2254">
+        <v>16</v>
+      </c>
+      <c r="K2254" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:11">
+      <c r="A2255" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2255">
+        <v>2</v>
+      </c>
+      <c r="G2255">
+        <v>1</v>
+      </c>
+      <c r="H2255" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2255">
+        <v>0</v>
+      </c>
+      <c r="J2255">
+        <v>1</v>
+      </c>
+      <c r="K2255" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:11">
+      <c r="A2256" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2256">
+        <v>0</v>
+      </c>
+      <c r="G2256">
+        <v>0</v>
+      </c>
+      <c r="H2256" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2256">
+        <v>0</v>
+      </c>
+      <c r="J2256">
+        <v>0</v>
+      </c>
+      <c r="K2256" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:11">
+      <c r="A2257" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2257" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2257">
+        <v>4</v>
+      </c>
+      <c r="G2257">
+        <v>1</v>
+      </c>
+      <c r="H2257" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2257">
+        <v>0</v>
+      </c>
+      <c r="J2257">
+        <v>1</v>
+      </c>
+      <c r="K2257" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:11">
+      <c r="A2258" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2258">
+        <v>1</v>
+      </c>
+      <c r="G2258">
+        <v>0</v>
+      </c>
+      <c r="H2258" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2258">
+        <v>0</v>
+      </c>
+      <c r="J2258">
+        <v>0</v>
+      </c>
+      <c r="K2258" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:11">
+      <c r="A2259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2259" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2259" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2259">
+        <v>12</v>
+      </c>
+      <c r="G2259">
+        <v>4</v>
+      </c>
+      <c r="H2259" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2259">
+        <v>0</v>
+      </c>
+      <c r="J2259">
+        <v>4</v>
+      </c>
+      <c r="K2259" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:11">
+      <c r="A2260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2260" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2260" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2260">
+        <v>9</v>
+      </c>
+      <c r="G2260">
+        <v>1</v>
+      </c>
+      <c r="H2260" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2260">
+        <v>0</v>
+      </c>
+      <c r="J2260">
+        <v>1</v>
+      </c>
+      <c r="K2260" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:11">
+      <c r="A2261" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2261" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2261" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2261">
+        <v>11</v>
+      </c>
+      <c r="G2261">
+        <v>6</v>
+      </c>
+      <c r="H2261" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2261">
+        <v>0</v>
+      </c>
+      <c r="J2261">
+        <v>6</v>
+      </c>
+      <c r="K2261" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:11">
+      <c r="A2262" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2262" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2262" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2262">
+        <v>4</v>
+      </c>
+      <c r="G2262">
+        <v>1</v>
+      </c>
+      <c r="H2262" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2262">
+        <v>0</v>
+      </c>
+      <c r="J2262">
+        <v>1</v>
+      </c>
+      <c r="K2262" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:11">
+      <c r="A2263" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2263" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2263">
+        <v>5</v>
+      </c>
+      <c r="G2263">
+        <v>3</v>
+      </c>
+      <c r="H2263" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2263">
+        <v>0</v>
+      </c>
+      <c r="J2263">
+        <v>3</v>
+      </c>
+      <c r="K2263" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:11">
+      <c r="A2264" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2264" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2264" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2264">
+        <v>4</v>
+      </c>
+      <c r="G2264">
+        <v>1</v>
+      </c>
+      <c r="H2264" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2264">
+        <v>0</v>
+      </c>
+      <c r="J2264">
+        <v>1</v>
+      </c>
+      <c r="K2264" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:11">
+      <c r="A2265" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2265" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2265" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2265">
+        <v>1</v>
+      </c>
+      <c r="G2265">
+        <v>0</v>
+      </c>
+      <c r="H2265" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2265">
+        <v>0</v>
+      </c>
+      <c r="J2265">
+        <v>0</v>
+      </c>
+      <c r="K2265" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:11">
+      <c r="A2266" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2266" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2266" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2266">
+        <v>1</v>
+      </c>
+      <c r="G2266">
+        <v>0</v>
+      </c>
+      <c r="H2266" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2266">
+        <v>0</v>
+      </c>
+      <c r="J2266">
+        <v>0</v>
+      </c>
+      <c r="K2266" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:11">
+      <c r="A2267" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2267" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2267" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2267">
+        <v>13</v>
+      </c>
+      <c r="G2267">
+        <v>3</v>
+      </c>
+      <c r="H2267" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2267">
+        <v>0</v>
+      </c>
+      <c r="J2267">
+        <v>3</v>
+      </c>
+      <c r="K2267" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:11">
+      <c r="A2268" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2268" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2268" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2268">
+        <v>16</v>
+      </c>
+      <c r="G2268">
+        <v>6</v>
+      </c>
+      <c r="H2268" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2268">
+        <v>0</v>
+      </c>
+      <c r="J2268">
+        <v>6</v>
+      </c>
+      <c r="K2268" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:11">
+      <c r="A2269" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2269" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2269">
+        <v>7</v>
+      </c>
+      <c r="G2269">
+        <v>1</v>
+      </c>
+      <c r="H2269" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2269">
+        <v>0</v>
+      </c>
+      <c r="J2269">
+        <v>1</v>
+      </c>
+      <c r="K2269" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:11">
+      <c r="A2270" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2270" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2270">
+        <v>2</v>
+      </c>
+      <c r="G2270">
+        <v>1</v>
+      </c>
+      <c r="H2270" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2270">
+        <v>0</v>
+      </c>
+      <c r="J2270">
+        <v>1</v>
+      </c>
+      <c r="K2270" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:11">
+      <c r="A2271" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2271" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2271" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2271">
+        <v>46</v>
+      </c>
+      <c r="G2271">
+        <v>15</v>
+      </c>
+      <c r="H2271" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2271">
+        <v>0</v>
+      </c>
+      <c r="J2271">
+        <v>15</v>
+      </c>
+      <c r="K2271" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:11">
+      <c r="A2272" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2272" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2272" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2272">
+        <v>21</v>
+      </c>
+      <c r="G2272">
+        <v>9</v>
+      </c>
+      <c r="H2272" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2272">
+        <v>0</v>
+      </c>
+      <c r="J2272">
+        <v>9</v>
+      </c>
+      <c r="K2272" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:11">
+      <c r="A2273" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2273" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2273" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2273">
+        <v>36</v>
+      </c>
+      <c r="G2273">
+        <v>7</v>
+      </c>
+      <c r="H2273" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2273">
+        <v>0</v>
+      </c>
+      <c r="J2273">
+        <v>7</v>
+      </c>
+      <c r="K2273" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:11">
+      <c r="A2274" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2274" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2274" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2274">
+        <v>11</v>
+      </c>
+      <c r="G2274">
+        <v>5</v>
+      </c>
+      <c r="H2274" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2274">
+        <v>0</v>
+      </c>
+      <c r="J2274">
+        <v>5</v>
+      </c>
+      <c r="K2274" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:11">
+      <c r="A2275" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2275" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2275">
+        <v>6</v>
+      </c>
+      <c r="G2275">
+        <v>2</v>
+      </c>
+      <c r="H2275" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2275">
+        <v>0</v>
+      </c>
+      <c r="J2275">
+        <v>2</v>
+      </c>
+      <c r="K2275" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:11">
+      <c r="A2276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2276" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2276" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2276">
+        <v>17</v>
+      </c>
+      <c r="G2276">
+        <v>8</v>
+      </c>
+      <c r="H2276" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2276">
+        <v>0</v>
+      </c>
+      <c r="J2276">
+        <v>8</v>
+      </c>
+      <c r="K2276" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:11">
+      <c r="A2277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2277" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2277">
+        <v>15</v>
+      </c>
+      <c r="G2277">
+        <v>3</v>
+      </c>
+      <c r="H2277" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2277">
+        <v>0</v>
+      </c>
+      <c r="J2277">
+        <v>3</v>
+      </c>
+      <c r="K2277" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:11">
+      <c r="A2278" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2278" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2278" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2278">
+        <v>12</v>
+      </c>
+      <c r="G2278">
+        <v>7</v>
+      </c>
+      <c r="H2278" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2278">
+        <v>0</v>
+      </c>
+      <c r="J2278">
+        <v>7</v>
+      </c>
+      <c r="K2278" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:11">
+      <c r="A2279" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2279" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2279" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2279">
+        <v>15</v>
+      </c>
+      <c r="G2279">
+        <v>6</v>
+      </c>
+      <c r="H2279" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2279">
+        <v>0</v>
+      </c>
+      <c r="J2279">
+        <v>6</v>
+      </c>
+      <c r="K2279" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:11">
+      <c r="A2280" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2280" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2280">
+        <v>14</v>
+      </c>
+      <c r="G2280">
+        <v>6</v>
+      </c>
+      <c r="H2280" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2280">
+        <v>0</v>
+      </c>
+      <c r="J2280">
+        <v>6</v>
+      </c>
+      <c r="K2280" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:11">
+      <c r="A2281" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2281" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2281">
+        <v>13</v>
+      </c>
+      <c r="G2281">
+        <v>1</v>
+      </c>
+      <c r="H2281" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2281">
+        <v>0</v>
+      </c>
+      <c r="J2281">
+        <v>1</v>
+      </c>
+      <c r="K2281" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:11">
+      <c r="A2282" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2282" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2282">
+        <v>37</v>
+      </c>
+      <c r="G2282">
+        <v>18</v>
+      </c>
+      <c r="H2282" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2282">
+        <v>0</v>
+      </c>
+      <c r="J2282">
+        <v>18</v>
+      </c>
+      <c r="K2282" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:11">
+      <c r="A2283" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2283" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2283">
+        <v>11</v>
+      </c>
+      <c r="G2283">
+        <v>5</v>
+      </c>
+      <c r="H2283" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2283">
+        <v>0</v>
+      </c>
+      <c r="J2283">
+        <v>5</v>
+      </c>
+      <c r="K2283" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:11">
+      <c r="A2284" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2284" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2284">
+        <v>32</v>
+      </c>
+      <c r="G2284">
+        <v>15</v>
+      </c>
+      <c r="H2284" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2284">
+        <v>0</v>
+      </c>
+      <c r="J2284">
+        <v>15</v>
+      </c>
+      <c r="K2284" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:11">
+      <c r="A2285" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2285" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2285">
+        <v>9</v>
+      </c>
+      <c r="G2285">
+        <v>0</v>
+      </c>
+      <c r="H2285" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2285">
+        <v>0</v>
+      </c>
+      <c r="J2285">
+        <v>0</v>
+      </c>
+      <c r="K2285" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:11">
+      <c r="A2286" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2286" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2286">
+        <v>3</v>
+      </c>
+      <c r="G2286">
+        <v>3</v>
+      </c>
+      <c r="H2286" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2286">
+        <v>0</v>
+      </c>
+      <c r="J2286">
+        <v>3</v>
+      </c>
+      <c r="K2286" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:11">
+      <c r="A2287" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2287" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2287">
+        <v>1</v>
+      </c>
+      <c r="G2287">
+        <v>0</v>
+      </c>
+      <c r="H2287" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2287">
+        <v>0</v>
+      </c>
+      <c r="J2287">
+        <v>0</v>
+      </c>
+      <c r="K2287" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:11">
+      <c r="A2288" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2288" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2288">
+        <v>2</v>
+      </c>
+      <c r="G2288">
+        <v>1</v>
+      </c>
+      <c r="H2288" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2288">
+        <v>0</v>
+      </c>
+      <c r="J2288">
+        <v>1</v>
+      </c>
+      <c r="K2288" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:11">
+      <c r="A2289" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2289" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2289">
+        <v>0</v>
+      </c>
+      <c r="G2289">
+        <v>0</v>
+      </c>
+      <c r="H2289" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2289">
+        <v>0</v>
+      </c>
+      <c r="J2289">
+        <v>0</v>
+      </c>
+      <c r="K2289" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:11">
+      <c r="A2290" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2290">
+        <v>2</v>
+      </c>
+      <c r="G2290">
+        <v>1</v>
+      </c>
+      <c r="H2290" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2290">
+        <v>0</v>
+      </c>
+      <c r="J2290">
+        <v>1</v>
+      </c>
+      <c r="K2290" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:11">
+      <c r="A2291" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2291" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2291">
+        <v>4</v>
+      </c>
+      <c r="G2291">
+        <v>1</v>
+      </c>
+      <c r="H2291" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2291">
+        <v>0</v>
+      </c>
+      <c r="J2291">
+        <v>1</v>
+      </c>
+      <c r="K2291" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:11">
+      <c r="A2292" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2292" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2292">
+        <v>6</v>
+      </c>
+      <c r="G2292">
+        <v>2</v>
+      </c>
+      <c r="H2292" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2292">
+        <v>0</v>
+      </c>
+      <c r="J2292">
+        <v>2</v>
+      </c>
+      <c r="K2292" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:11">
+      <c r="A2293" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2293">
+        <v>2</v>
+      </c>
+      <c r="G2293">
+        <v>2</v>
+      </c>
+      <c r="H2293" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2293">
+        <v>0</v>
+      </c>
+      <c r="J2293">
+        <v>2</v>
+      </c>
+      <c r="K2293" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:11">
+      <c r="A2294" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2294">
+        <v>7</v>
+      </c>
+      <c r="G2294">
+        <v>2</v>
+      </c>
+      <c r="H2294" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2294">
+        <v>0</v>
+      </c>
+      <c r="J2294">
+        <v>2</v>
+      </c>
+      <c r="K2294" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:11">
+      <c r="A2295" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2295">
+        <v>8</v>
+      </c>
+      <c r="G2295">
+        <v>2</v>
+      </c>
+      <c r="H2295" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2295">
+        <v>0</v>
+      </c>
+      <c r="J2295">
+        <v>2</v>
+      </c>
+      <c r="K2295" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:11">
+      <c r="A2296" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2296">
+        <v>13</v>
+      </c>
+      <c r="G2296">
+        <v>2</v>
+      </c>
+      <c r="H2296" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2296">
+        <v>0</v>
+      </c>
+      <c r="J2296">
+        <v>2</v>
+      </c>
+      <c r="K2296" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:11">
+      <c r="A2297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2297">
+        <v>14</v>
+      </c>
+      <c r="G2297">
+        <v>2</v>
+      </c>
+      <c r="H2297" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2297">
+        <v>0</v>
+      </c>
+      <c r="J2297">
+        <v>2</v>
+      </c>
+      <c r="K2297" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:11">
+      <c r="A2298" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2298" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2298">
+        <v>10</v>
+      </c>
+      <c r="G2298">
+        <v>2</v>
+      </c>
+      <c r="H2298" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2298">
+        <v>0</v>
+      </c>
+      <c r="J2298">
+        <v>2</v>
+      </c>
+      <c r="K2298" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:11">
+      <c r="A2299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2299">
+        <v>21</v>
+      </c>
+      <c r="G2299">
+        <v>11</v>
+      </c>
+      <c r="H2299" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2299">
+        <v>0</v>
+      </c>
+      <c r="J2299">
+        <v>11</v>
+      </c>
+      <c r="K2299" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:11">
+      <c r="A2300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2300">
+        <v>16</v>
+      </c>
+      <c r="G2300">
+        <v>4</v>
+      </c>
+      <c r="H2300" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2300">
+        <v>0</v>
+      </c>
+      <c r="J2300">
+        <v>4</v>
+      </c>
+      <c r="K2300" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:11">
+      <c r="A2301" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2301">
+        <v>21</v>
+      </c>
+      <c r="G2301">
+        <v>8</v>
+      </c>
+      <c r="H2301" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2301">
+        <v>0</v>
+      </c>
+      <c r="J2301">
+        <v>8</v>
+      </c>
+      <c r="K2301" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:11">
+      <c r="A2302" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2302">
+        <v>19</v>
+      </c>
+      <c r="G2302">
+        <v>7</v>
+      </c>
+      <c r="H2302" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2302">
+        <v>0</v>
+      </c>
+      <c r="J2302">
+        <v>7</v>
+      </c>
+      <c r="K2302" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:11">
+      <c r="A2303" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2303">
+        <v>7</v>
+      </c>
+      <c r="G2303">
+        <v>2</v>
+      </c>
+      <c r="H2303" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2303">
+        <v>0</v>
+      </c>
+      <c r="J2303">
+        <v>2</v>
+      </c>
+      <c r="K2303" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:11">
+      <c r="A2304" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2304">
+        <v>11</v>
+      </c>
+      <c r="G2304">
+        <v>4</v>
+      </c>
+      <c r="H2304" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2304">
+        <v>0</v>
+      </c>
+      <c r="J2304">
+        <v>4</v>
+      </c>
+      <c r="K2304" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:11">
+      <c r="A2305" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2305">
+        <v>16</v>
+      </c>
+      <c r="G2305">
+        <v>4</v>
+      </c>
+      <c r="H2305" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2305">
+        <v>0</v>
+      </c>
+      <c r="J2305">
+        <v>4</v>
+      </c>
+      <c r="K2305" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:11">
+      <c r="A2306" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2306">
+        <v>12</v>
+      </c>
+      <c r="G2306">
+        <v>8</v>
+      </c>
+      <c r="H2306" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2306">
+        <v>0</v>
+      </c>
+      <c r="J2306">
+        <v>8</v>
+      </c>
+      <c r="K2306" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:11">
+      <c r="A2307" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2307">
+        <v>19</v>
+      </c>
+      <c r="G2307">
+        <v>8</v>
+      </c>
+      <c r="H2307" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2307">
+        <v>0</v>
+      </c>
+      <c r="J2307">
+        <v>8</v>
+      </c>
+      <c r="K2307" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:11">
+      <c r="A2308" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2308">
+        <v>14</v>
+      </c>
+      <c r="G2308">
+        <v>4</v>
+      </c>
+      <c r="H2308" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2308">
+        <v>0</v>
+      </c>
+      <c r="J2308">
+        <v>4</v>
+      </c>
+      <c r="K2308" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:11">
+      <c r="A2309" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2309">
+        <v>9</v>
+      </c>
+      <c r="G2309">
+        <v>4</v>
+      </c>
+      <c r="H2309" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2309">
+        <v>0</v>
+      </c>
+      <c r="J2309">
+        <v>4</v>
+      </c>
+      <c r="K2309" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:11">
+      <c r="A2310" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2310" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2310">
+        <v>7</v>
+      </c>
+      <c r="G2310">
+        <v>3</v>
+      </c>
+      <c r="H2310" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2310">
+        <v>0</v>
+      </c>
+      <c r="J2310">
+        <v>3</v>
+      </c>
+      <c r="K2310" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:11">
+      <c r="A2311" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2311" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2311">
+        <v>25</v>
+      </c>
+      <c r="G2311">
+        <v>7</v>
+      </c>
+      <c r="H2311" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2311">
+        <v>0</v>
+      </c>
+      <c r="J2311">
+        <v>7</v>
+      </c>
+      <c r="K2311" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:11">
+      <c r="A2312" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2312">
+        <v>22</v>
+      </c>
+      <c r="G2312">
+        <v>5</v>
+      </c>
+      <c r="H2312" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2312">
+        <v>0</v>
+      </c>
+      <c r="J2312">
+        <v>5</v>
+      </c>
+      <c r="K2312" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:11">
+      <c r="A2313" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2313">
+        <v>12</v>
+      </c>
+      <c r="G2313">
+        <v>5</v>
+      </c>
+      <c r="H2313" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2313">
+        <v>0</v>
+      </c>
+      <c r="J2313">
+        <v>5</v>
+      </c>
+      <c r="K2313" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:11">
+      <c r="A2314" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2314">
+        <v>12</v>
+      </c>
+      <c r="G2314">
+        <v>4</v>
+      </c>
+      <c r="H2314" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2314">
+        <v>0</v>
+      </c>
+      <c r="J2314">
+        <v>4</v>
+      </c>
+      <c r="K2314" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:11">
+      <c r="A2315" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2315">
+        <v>16</v>
+      </c>
+      <c r="G2315">
+        <v>6</v>
+      </c>
+      <c r="H2315" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2315">
+        <v>0</v>
+      </c>
+      <c r="J2315">
+        <v>6</v>
+      </c>
+      <c r="K2315" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:11">
+      <c r="A2316" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2316">
+        <v>3</v>
+      </c>
+      <c r="G2316">
+        <v>1</v>
+      </c>
+      <c r="H2316" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2316">
+        <v>0</v>
+      </c>
+      <c r="J2316">
+        <v>1</v>
+      </c>
+      <c r="K2316" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:11">
+      <c r="A2317" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2317">
+        <v>3</v>
+      </c>
+      <c r="G2317">
+        <v>2</v>
+      </c>
+      <c r="H2317" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2317">
+        <v>0</v>
+      </c>
+      <c r="J2317">
+        <v>2</v>
+      </c>
+      <c r="K2317" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:11">
+      <c r="A2318" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2318">
+        <v>5</v>
+      </c>
+      <c r="G2318">
+        <v>1</v>
+      </c>
+      <c r="H2318" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2318">
+        <v>0</v>
+      </c>
+      <c r="J2318">
+        <v>1</v>
+      </c>
+      <c r="K2318" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:11">
+      <c r="A2319" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2319">
+        <v>1</v>
+      </c>
+      <c r="G2319">
+        <v>1</v>
+      </c>
+      <c r="H2319" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2319">
+        <v>0</v>
+      </c>
+      <c r="J2319">
+        <v>1</v>
+      </c>
+      <c r="K2319" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:11">
+      <c r="A2320" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2320">
+        <v>1</v>
+      </c>
+      <c r="G2320">
+        <v>0</v>
+      </c>
+      <c r="H2320" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2320">
+        <v>0</v>
+      </c>
+      <c r="J2320">
+        <v>0</v>
+      </c>
+      <c r="K2320" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:11">
+      <c r="A2321" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2321">
+        <v>1</v>
+      </c>
+      <c r="G2321">
+        <v>0</v>
+      </c>
+      <c r="H2321" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2321">
+        <v>0</v>
+      </c>
+      <c r="J2321">
+        <v>0</v>
+      </c>
+      <c r="K2321" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:11">
+      <c r="A2322" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2322">
+        <v>3</v>
+      </c>
+      <c r="G2322">
+        <v>1</v>
+      </c>
+      <c r="H2322" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2322">
+        <v>0</v>
+      </c>
+      <c r="J2322">
+        <v>1</v>
+      </c>
+      <c r="K2322" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:11">
+      <c r="A2323" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2323" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2323">
+        <v>7</v>
+      </c>
+      <c r="G2323">
+        <v>4</v>
+      </c>
+      <c r="H2323" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2323">
+        <v>0</v>
+      </c>
+      <c r="J2323">
+        <v>4</v>
+      </c>
+      <c r="K2323" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:11">
+      <c r="A2324" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2324" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2324">
+        <v>12</v>
+      </c>
+      <c r="G2324">
+        <v>4</v>
+      </c>
+      <c r="H2324" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2324">
+        <v>0</v>
+      </c>
+      <c r="J2324">
+        <v>4</v>
+      </c>
+      <c r="K2324" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:11">
+      <c r="A2325" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2325" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2325">
+        <v>13</v>
+      </c>
+      <c r="G2325">
+        <v>5</v>
+      </c>
+      <c r="H2325" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2325">
+        <v>0</v>
+      </c>
+      <c r="J2325">
+        <v>5</v>
+      </c>
+      <c r="K2325" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:11">
+      <c r="A2326" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2326">
+        <v>15</v>
+      </c>
+      <c r="G2326">
+        <v>4</v>
+      </c>
+      <c r="H2326" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2326">
+        <v>0</v>
+      </c>
+      <c r="J2326">
+        <v>4</v>
+      </c>
+      <c r="K2326" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:11">
+      <c r="A2327" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2327">
+        <v>10</v>
+      </c>
+      <c r="G2327">
+        <v>4</v>
+      </c>
+      <c r="H2327" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2327">
+        <v>0</v>
+      </c>
+      <c r="J2327">
+        <v>4</v>
+      </c>
+      <c r="K2327" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:11">
+      <c r="A2328" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2328">
+        <v>17</v>
+      </c>
+      <c r="G2328">
+        <v>9</v>
+      </c>
+      <c r="H2328" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2328">
+        <v>0</v>
+      </c>
+      <c r="J2328">
+        <v>9</v>
+      </c>
+      <c r="K2328" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:11">
+      <c r="A2329" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2329">
+        <v>26</v>
+      </c>
+      <c r="G2329">
+        <v>14</v>
+      </c>
+      <c r="H2329" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2329">
+        <v>0</v>
+      </c>
+      <c r="J2329">
+        <v>14</v>
+      </c>
+      <c r="K2329" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:11">
+      <c r="A2330" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2330">
+        <v>13</v>
+      </c>
+      <c r="G2330">
+        <v>5</v>
+      </c>
+      <c r="H2330" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2330">
+        <v>0</v>
+      </c>
+      <c r="J2330">
+        <v>5</v>
+      </c>
+      <c r="K2330" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:11">
+      <c r="A2331" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2331">
+        <v>23</v>
+      </c>
+      <c r="G2331">
+        <v>6</v>
+      </c>
+      <c r="H2331" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2331">
+        <v>0</v>
+      </c>
+      <c r="J2331">
+        <v>6</v>
+      </c>
+      <c r="K2331" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:11">
+      <c r="A2332" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2332">
+        <v>10</v>
+      </c>
+      <c r="G2332">
+        <v>3</v>
+      </c>
+      <c r="H2332" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2332">
+        <v>0</v>
+      </c>
+      <c r="J2332">
+        <v>3</v>
+      </c>
+      <c r="K2332" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:11">
+      <c r="A2333" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2333">
+        <v>11</v>
+      </c>
+      <c r="G2333">
+        <v>3</v>
+      </c>
+      <c r="H2333" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2333">
+        <v>0</v>
+      </c>
+      <c r="J2333">
+        <v>3</v>
+      </c>
+      <c r="K2333" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:11">
+      <c r="A2334" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2334" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2334">
+        <v>8</v>
+      </c>
+      <c r="G2334">
+        <v>3</v>
+      </c>
+      <c r="H2334" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2334">
+        <v>0</v>
+      </c>
+      <c r="J2334">
+        <v>3</v>
+      </c>
+      <c r="K2334" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:11">
+      <c r="A2335" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2335">
+        <v>12</v>
+      </c>
+      <c r="G2335">
+        <v>3</v>
+      </c>
+      <c r="H2335" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2335">
+        <v>0</v>
+      </c>
+      <c r="J2335">
+        <v>3</v>
+      </c>
+      <c r="K2335" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:11">
+      <c r="A2336" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2336">
+        <v>2</v>
+      </c>
+      <c r="G2336">
+        <v>2</v>
+      </c>
+      <c r="H2336" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2336">
+        <v>0</v>
+      </c>
+      <c r="J2336">
+        <v>2</v>
+      </c>
+      <c r="K2336" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:11">
+      <c r="A2337" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2337">
+        <v>21</v>
+      </c>
+      <c r="G2337">
+        <v>7</v>
+      </c>
+      <c r="H2337" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2337">
+        <v>0</v>
+      </c>
+      <c r="J2337">
+        <v>7</v>
+      </c>
+      <c r="K2337" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:11">
+      <c r="A2338" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2338">
+        <v>49</v>
+      </c>
+      <c r="G2338">
+        <v>20</v>
+      </c>
+      <c r="H2338" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2338">
+        <v>0</v>
+      </c>
+      <c r="J2338">
+        <v>20</v>
+      </c>
+      <c r="K2338" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:11">
+      <c r="A2339" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2339">
+        <v>191</v>
+      </c>
+      <c r="G2339">
+        <v>47</v>
+      </c>
+      <c r="H2339" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2339">
+        <v>0</v>
+      </c>
+      <c r="J2339">
+        <v>47</v>
+      </c>
+      <c r="K2339" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:11">
+      <c r="A2340" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2340">
+        <v>9</v>
+      </c>
+      <c r="G2340">
+        <v>2</v>
+      </c>
+      <c r="H2340" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2340">
+        <v>0</v>
+      </c>
+      <c r="J2340">
+        <v>2</v>
+      </c>
+      <c r="K2340" s="2">
+        <v>45541.25049284584</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:11">
+      <c r="A2341" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2341">
+        <v>42</v>
+      </c>
+      <c r="G2341">
+        <v>13</v>
+      </c>
+      <c r="H2341" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2341">
+        <v>0</v>
+      </c>
+      <c r="J2341">
+        <v>13</v>
+      </c>
+      <c r="K2341" s="2">
+        <v>45541.25049284584</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14051" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14987" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2341"/>
+  <dimension ref="A1:K2497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -77230,7 +77230,7 @@
         <v>35</v>
       </c>
       <c r="K2186" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2187" spans="1:11">
@@ -77265,7 +77265,7 @@
         <v>19</v>
       </c>
       <c r="K2187" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2188" spans="1:11">
@@ -77300,7 +77300,7 @@
         <v>11</v>
       </c>
       <c r="K2188" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2189" spans="1:11">
@@ -77335,7 +77335,7 @@
         <v>31</v>
       </c>
       <c r="K2189" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2190" spans="1:11">
@@ -77370,7 +77370,7 @@
         <v>10</v>
       </c>
       <c r="K2190" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2191" spans="1:11">
@@ -77405,7 +77405,7 @@
         <v>5</v>
       </c>
       <c r="K2191" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2192" spans="1:11">
@@ -77440,7 +77440,7 @@
         <v>1</v>
       </c>
       <c r="K2192" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2193" spans="1:11">
@@ -77475,7 +77475,7 @@
         <v>1</v>
       </c>
       <c r="K2193" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2194" spans="1:11">
@@ -77510,7 +77510,7 @@
         <v>78</v>
       </c>
       <c r="K2194" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2195" spans="1:11">
@@ -77545,7 +77545,7 @@
         <v>67</v>
       </c>
       <c r="K2195" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2196" spans="1:11">
@@ -77580,7 +77580,7 @@
         <v>102</v>
       </c>
       <c r="K2196" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2197" spans="1:11">
@@ -77615,7 +77615,7 @@
         <v>28</v>
       </c>
       <c r="K2197" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2198" spans="1:11">
@@ -77650,7 +77650,7 @@
         <v>24</v>
       </c>
       <c r="K2198" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2199" spans="1:11">
@@ -77685,7 +77685,7 @@
         <v>21</v>
       </c>
       <c r="K2199" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2200" spans="1:11">
@@ -77720,7 +77720,7 @@
         <v>36</v>
       </c>
       <c r="K2200" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2201" spans="1:11">
@@ -77755,7 +77755,7 @@
         <v>18</v>
       </c>
       <c r="K2201" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2202" spans="1:11">
@@ -77790,7 +77790,7 @@
         <v>13</v>
       </c>
       <c r="K2202" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2203" spans="1:11">
@@ -77825,7 +77825,7 @@
         <v>2</v>
       </c>
       <c r="K2203" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2204" spans="1:11">
@@ -77860,7 +77860,7 @@
         <v>18</v>
       </c>
       <c r="K2204" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2205" spans="1:11">
@@ -77895,7 +77895,7 @@
         <v>32</v>
       </c>
       <c r="K2205" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2206" spans="1:11">
@@ -77930,7 +77930,7 @@
         <v>34</v>
       </c>
       <c r="K2206" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2207" spans="1:11">
@@ -77965,7 +77965,7 @@
         <v>35</v>
       </c>
       <c r="K2207" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2208" spans="1:11">
@@ -78000,7 +78000,7 @@
         <v>44</v>
       </c>
       <c r="K2208" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2209" spans="1:11">
@@ -78035,7 +78035,7 @@
         <v>33</v>
       </c>
       <c r="K2209" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2210" spans="1:11">
@@ -78070,7 +78070,7 @@
         <v>21</v>
       </c>
       <c r="K2210" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2211" spans="1:11">
@@ -78105,7 +78105,7 @@
         <v>61</v>
       </c>
       <c r="K2211" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2212" spans="1:11">
@@ -78140,7 +78140,7 @@
         <v>22</v>
       </c>
       <c r="K2212" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2213" spans="1:11">
@@ -78175,7 +78175,7 @@
         <v>45</v>
       </c>
       <c r="K2213" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2214" spans="1:11">
@@ -78210,7 +78210,7 @@
         <v>43</v>
       </c>
       <c r="K2214" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2215" spans="1:11">
@@ -78245,7 +78245,7 @@
         <v>17</v>
       </c>
       <c r="K2215" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2216" spans="1:11">
@@ -78280,7 +78280,7 @@
         <v>44</v>
       </c>
       <c r="K2216" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2217" spans="1:11">
@@ -78315,7 +78315,7 @@
         <v>58</v>
       </c>
       <c r="K2217" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2218" spans="1:11">
@@ -78350,7 +78350,7 @@
         <v>48</v>
       </c>
       <c r="K2218" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2219" spans="1:11">
@@ -78385,7 +78385,7 @@
         <v>29</v>
       </c>
       <c r="K2219" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2220" spans="1:11">
@@ -78420,7 +78420,7 @@
         <v>17</v>
       </c>
       <c r="K2220" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2221" spans="1:11">
@@ -78455,7 +78455,7 @@
         <v>27</v>
       </c>
       <c r="K2221" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2222" spans="1:11">
@@ -78490,7 +78490,7 @@
         <v>24</v>
       </c>
       <c r="K2222" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2223" spans="1:11">
@@ -78525,7 +78525,7 @@
         <v>32</v>
       </c>
       <c r="K2223" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2224" spans="1:11">
@@ -78560,7 +78560,7 @@
         <v>48</v>
       </c>
       <c r="K2224" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2225" spans="1:11">
@@ -78595,7 +78595,7 @@
         <v>56</v>
       </c>
       <c r="K2225" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2226" spans="1:11">
@@ -78630,7 +78630,7 @@
         <v>65</v>
       </c>
       <c r="K2226" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2227" spans="1:11">
@@ -78665,7 +78665,7 @@
         <v>15</v>
       </c>
       <c r="K2227" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2228" spans="1:11">
@@ -78700,7 +78700,7 @@
         <v>56</v>
       </c>
       <c r="K2228" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2229" spans="1:11">
@@ -78735,7 +78735,7 @@
         <v>29</v>
       </c>
       <c r="K2229" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2230" spans="1:11">
@@ -78770,7 +78770,7 @@
         <v>46</v>
       </c>
       <c r="K2230" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2231" spans="1:11">
@@ -78805,7 +78805,7 @@
         <v>72</v>
       </c>
       <c r="K2231" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2232" spans="1:11">
@@ -78840,7 +78840,7 @@
         <v>26</v>
       </c>
       <c r="K2232" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2233" spans="1:11">
@@ -78875,7 +78875,7 @@
         <v>45</v>
       </c>
       <c r="K2233" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2234" spans="1:11">
@@ -78910,7 +78910,7 @@
         <v>33</v>
       </c>
       <c r="K2234" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2235" spans="1:11">
@@ -78945,7 +78945,7 @@
         <v>34</v>
       </c>
       <c r="K2235" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2236" spans="1:11">
@@ -78980,7 +78980,7 @@
         <v>3</v>
       </c>
       <c r="K2236" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2237" spans="1:11">
@@ -79015,7 +79015,7 @@
         <v>14</v>
       </c>
       <c r="K2237" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2238" spans="1:11">
@@ -79050,7 +79050,7 @@
         <v>5</v>
       </c>
       <c r="K2238" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2239" spans="1:11">
@@ -79085,7 +79085,7 @@
         <v>0</v>
       </c>
       <c r="K2239" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2240" spans="1:11">
@@ -79120,7 +79120,7 @@
         <v>0</v>
       </c>
       <c r="K2240" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2241" spans="1:11">
@@ -79155,7 +79155,7 @@
         <v>0</v>
       </c>
       <c r="K2241" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2242" spans="1:11">
@@ -79190,7 +79190,7 @@
         <v>1</v>
       </c>
       <c r="K2242" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2243" spans="1:11">
@@ -79225,7 +79225,7 @@
         <v>1</v>
       </c>
       <c r="K2243" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2244" spans="1:11">
@@ -79260,7 +79260,7 @@
         <v>3</v>
       </c>
       <c r="K2244" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2245" spans="1:11">
@@ -79295,7 +79295,7 @@
         <v>0</v>
       </c>
       <c r="K2245" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2246" spans="1:11">
@@ -79330,7 +79330,7 @@
         <v>0</v>
       </c>
       <c r="K2246" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2247" spans="1:11">
@@ -79365,7 +79365,7 @@
         <v>0</v>
       </c>
       <c r="K2247" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2248" spans="1:11">
@@ -79400,7 +79400,7 @@
         <v>1</v>
       </c>
       <c r="K2248" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2249" spans="1:11">
@@ -79435,7 +79435,7 @@
         <v>0</v>
       </c>
       <c r="K2249" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2250" spans="1:11">
@@ -79470,7 +79470,7 @@
         <v>40</v>
       </c>
       <c r="K2250" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2251" spans="1:11">
@@ -79505,7 +79505,7 @@
         <v>2</v>
       </c>
       <c r="K2251" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2252" spans="1:11">
@@ -79540,7 +79540,7 @@
         <v>22</v>
       </c>
       <c r="K2252" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2253" spans="1:11">
@@ -79575,7 +79575,7 @@
         <v>13</v>
       </c>
       <c r="K2253" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2254" spans="1:11">
@@ -79610,7 +79610,7 @@
         <v>16</v>
       </c>
       <c r="K2254" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2255" spans="1:11">
@@ -79645,7 +79645,7 @@
         <v>1</v>
       </c>
       <c r="K2255" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2256" spans="1:11">
@@ -79680,7 +79680,7 @@
         <v>0</v>
       </c>
       <c r="K2256" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2257" spans="1:11">
@@ -79715,7 +79715,7 @@
         <v>1</v>
       </c>
       <c r="K2257" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2258" spans="1:11">
@@ -79750,7 +79750,7 @@
         <v>0</v>
       </c>
       <c r="K2258" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2259" spans="1:11">
@@ -79785,7 +79785,7 @@
         <v>4</v>
       </c>
       <c r="K2259" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2260" spans="1:11">
@@ -79820,7 +79820,7 @@
         <v>1</v>
       </c>
       <c r="K2260" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2261" spans="1:11">
@@ -79855,7 +79855,7 @@
         <v>6</v>
       </c>
       <c r="K2261" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2262" spans="1:11">
@@ -79890,7 +79890,7 @@
         <v>1</v>
       </c>
       <c r="K2262" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2263" spans="1:11">
@@ -79925,7 +79925,7 @@
         <v>3</v>
       </c>
       <c r="K2263" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2264" spans="1:11">
@@ -79960,7 +79960,7 @@
         <v>1</v>
       </c>
       <c r="K2264" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2265" spans="1:11">
@@ -79995,7 +79995,7 @@
         <v>0</v>
       </c>
       <c r="K2265" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2266" spans="1:11">
@@ -80030,7 +80030,7 @@
         <v>0</v>
       </c>
       <c r="K2266" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2267" spans="1:11">
@@ -80065,7 +80065,7 @@
         <v>3</v>
       </c>
       <c r="K2267" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2268" spans="1:11">
@@ -80100,7 +80100,7 @@
         <v>6</v>
       </c>
       <c r="K2268" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2269" spans="1:11">
@@ -80135,7 +80135,7 @@
         <v>1</v>
       </c>
       <c r="K2269" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2270" spans="1:11">
@@ -80170,7 +80170,7 @@
         <v>1</v>
       </c>
       <c r="K2270" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2271" spans="1:11">
@@ -80205,7 +80205,7 @@
         <v>15</v>
       </c>
       <c r="K2271" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2272" spans="1:11">
@@ -80240,7 +80240,7 @@
         <v>9</v>
       </c>
       <c r="K2272" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2273" spans="1:11">
@@ -80275,7 +80275,7 @@
         <v>7</v>
       </c>
       <c r="K2273" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2274" spans="1:11">
@@ -80310,7 +80310,7 @@
         <v>5</v>
       </c>
       <c r="K2274" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2275" spans="1:11">
@@ -80345,7 +80345,7 @@
         <v>2</v>
       </c>
       <c r="K2275" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2276" spans="1:11">
@@ -80380,7 +80380,7 @@
         <v>8</v>
       </c>
       <c r="K2276" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2277" spans="1:11">
@@ -80415,7 +80415,7 @@
         <v>3</v>
       </c>
       <c r="K2277" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2278" spans="1:11">
@@ -80450,7 +80450,7 @@
         <v>7</v>
       </c>
       <c r="K2278" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2279" spans="1:11">
@@ -80485,7 +80485,7 @@
         <v>6</v>
       </c>
       <c r="K2279" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2280" spans="1:11">
@@ -80520,7 +80520,7 @@
         <v>6</v>
       </c>
       <c r="K2280" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2281" spans="1:11">
@@ -80555,7 +80555,7 @@
         <v>1</v>
       </c>
       <c r="K2281" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2282" spans="1:11">
@@ -80590,7 +80590,7 @@
         <v>18</v>
       </c>
       <c r="K2282" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2283" spans="1:11">
@@ -80625,7 +80625,7 @@
         <v>5</v>
       </c>
       <c r="K2283" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2284" spans="1:11">
@@ -80660,7 +80660,7 @@
         <v>15</v>
       </c>
       <c r="K2284" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2285" spans="1:11">
@@ -80695,7 +80695,7 @@
         <v>0</v>
       </c>
       <c r="K2285" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2286" spans="1:11">
@@ -80730,7 +80730,7 @@
         <v>3</v>
       </c>
       <c r="K2286" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2287" spans="1:11">
@@ -80765,7 +80765,7 @@
         <v>0</v>
       </c>
       <c r="K2287" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2288" spans="1:11">
@@ -80800,7 +80800,7 @@
         <v>1</v>
       </c>
       <c r="K2288" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2289" spans="1:11">
@@ -80835,7 +80835,7 @@
         <v>0</v>
       </c>
       <c r="K2289" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2290" spans="1:11">
@@ -80870,7 +80870,7 @@
         <v>1</v>
       </c>
       <c r="K2290" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2291" spans="1:11">
@@ -80905,7 +80905,7 @@
         <v>1</v>
       </c>
       <c r="K2291" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2292" spans="1:11">
@@ -80940,7 +80940,7 @@
         <v>2</v>
       </c>
       <c r="K2292" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2293" spans="1:11">
@@ -80975,7 +80975,7 @@
         <v>2</v>
       </c>
       <c r="K2293" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2294" spans="1:11">
@@ -81010,7 +81010,7 @@
         <v>2</v>
       </c>
       <c r="K2294" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2295" spans="1:11">
@@ -81045,7 +81045,7 @@
         <v>2</v>
       </c>
       <c r="K2295" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2296" spans="1:11">
@@ -81080,7 +81080,7 @@
         <v>2</v>
       </c>
       <c r="K2296" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2297" spans="1:11">
@@ -81115,7 +81115,7 @@
         <v>2</v>
       </c>
       <c r="K2297" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2298" spans="1:11">
@@ -81150,7 +81150,7 @@
         <v>2</v>
       </c>
       <c r="K2298" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2299" spans="1:11">
@@ -81185,7 +81185,7 @@
         <v>11</v>
       </c>
       <c r="K2299" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2300" spans="1:11">
@@ -81220,7 +81220,7 @@
         <v>4</v>
       </c>
       <c r="K2300" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2301" spans="1:11">
@@ -81255,7 +81255,7 @@
         <v>8</v>
       </c>
       <c r="K2301" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2302" spans="1:11">
@@ -81290,7 +81290,7 @@
         <v>7</v>
       </c>
       <c r="K2302" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2303" spans="1:11">
@@ -81325,7 +81325,7 @@
         <v>2</v>
       </c>
       <c r="K2303" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2304" spans="1:11">
@@ -81360,7 +81360,7 @@
         <v>4</v>
       </c>
       <c r="K2304" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2305" spans="1:11">
@@ -81395,7 +81395,7 @@
         <v>4</v>
       </c>
       <c r="K2305" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2306" spans="1:11">
@@ -81430,7 +81430,7 @@
         <v>8</v>
       </c>
       <c r="K2306" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2307" spans="1:11">
@@ -81465,7 +81465,7 @@
         <v>8</v>
       </c>
       <c r="K2307" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2308" spans="1:11">
@@ -81500,7 +81500,7 @@
         <v>4</v>
       </c>
       <c r="K2308" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2309" spans="1:11">
@@ -81535,7 +81535,7 @@
         <v>4</v>
       </c>
       <c r="K2309" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2310" spans="1:11">
@@ -81570,7 +81570,7 @@
         <v>3</v>
       </c>
       <c r="K2310" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2311" spans="1:11">
@@ -81605,7 +81605,7 @@
         <v>7</v>
       </c>
       <c r="K2311" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2312" spans="1:11">
@@ -81640,7 +81640,7 @@
         <v>5</v>
       </c>
       <c r="K2312" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2313" spans="1:11">
@@ -81675,7 +81675,7 @@
         <v>5</v>
       </c>
       <c r="K2313" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2314" spans="1:11">
@@ -81710,7 +81710,7 @@
         <v>4</v>
       </c>
       <c r="K2314" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2315" spans="1:11">
@@ -81745,7 +81745,7 @@
         <v>6</v>
       </c>
       <c r="K2315" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2316" spans="1:11">
@@ -81780,7 +81780,7 @@
         <v>1</v>
       </c>
       <c r="K2316" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2317" spans="1:11">
@@ -81815,7 +81815,7 @@
         <v>2</v>
       </c>
       <c r="K2317" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2318" spans="1:11">
@@ -81850,7 +81850,7 @@
         <v>1</v>
       </c>
       <c r="K2318" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2319" spans="1:11">
@@ -81885,7 +81885,7 @@
         <v>1</v>
       </c>
       <c r="K2319" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2320" spans="1:11">
@@ -81920,7 +81920,7 @@
         <v>0</v>
       </c>
       <c r="K2320" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2321" spans="1:11">
@@ -81955,7 +81955,7 @@
         <v>0</v>
       </c>
       <c r="K2321" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2322" spans="1:11">
@@ -81990,7 +81990,7 @@
         <v>1</v>
       </c>
       <c r="K2322" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2323" spans="1:11">
@@ -82025,7 +82025,7 @@
         <v>4</v>
       </c>
       <c r="K2323" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2324" spans="1:11">
@@ -82060,7 +82060,7 @@
         <v>4</v>
       </c>
       <c r="K2324" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2325" spans="1:11">
@@ -82095,7 +82095,7 @@
         <v>5</v>
       </c>
       <c r="K2325" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2326" spans="1:11">
@@ -82130,7 +82130,7 @@
         <v>4</v>
       </c>
       <c r="K2326" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2327" spans="1:11">
@@ -82165,7 +82165,7 @@
         <v>4</v>
       </c>
       <c r="K2327" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2328" spans="1:11">
@@ -82200,7 +82200,7 @@
         <v>9</v>
       </c>
       <c r="K2328" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2329" spans="1:11">
@@ -82235,7 +82235,7 @@
         <v>14</v>
       </c>
       <c r="K2329" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2330" spans="1:11">
@@ -82270,7 +82270,7 @@
         <v>5</v>
       </c>
       <c r="K2330" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2331" spans="1:11">
@@ -82305,7 +82305,7 @@
         <v>6</v>
       </c>
       <c r="K2331" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2332" spans="1:11">
@@ -82340,7 +82340,7 @@
         <v>3</v>
       </c>
       <c r="K2332" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2333" spans="1:11">
@@ -82375,7 +82375,7 @@
         <v>3</v>
       </c>
       <c r="K2333" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2334" spans="1:11">
@@ -82410,7 +82410,7 @@
         <v>3</v>
       </c>
       <c r="K2334" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2335" spans="1:11">
@@ -82445,7 +82445,7 @@
         <v>3</v>
       </c>
       <c r="K2335" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2336" spans="1:11">
@@ -82480,7 +82480,7 @@
         <v>2</v>
       </c>
       <c r="K2336" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2337" spans="1:11">
@@ -82515,7 +82515,7 @@
         <v>7</v>
       </c>
       <c r="K2337" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2338" spans="1:11">
@@ -82550,7 +82550,7 @@
         <v>20</v>
       </c>
       <c r="K2338" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2339" spans="1:11">
@@ -82585,7 +82585,7 @@
         <v>47</v>
       </c>
       <c r="K2339" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2340" spans="1:11">
@@ -82620,7 +82620,7 @@
         <v>2</v>
       </c>
       <c r="K2340" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
       </c>
     </row>
     <row r="2341" spans="1:11">
@@ -82655,7 +82655,5467 @@
         <v>13</v>
       </c>
       <c r="K2341" s="2">
-        <v>45541.25049284584</v>
+        <v>45541.25049284722</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:11">
+      <c r="A2342" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2342">
+        <v>61</v>
+      </c>
+      <c r="G2342">
+        <v>36</v>
+      </c>
+      <c r="H2342" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2342">
+        <v>0</v>
+      </c>
+      <c r="J2342">
+        <v>36</v>
+      </c>
+      <c r="K2342" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:11">
+      <c r="A2343" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2343">
+        <v>24</v>
+      </c>
+      <c r="G2343">
+        <v>20</v>
+      </c>
+      <c r="H2343" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2343">
+        <v>0</v>
+      </c>
+      <c r="J2343">
+        <v>20</v>
+      </c>
+      <c r="K2343" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:11">
+      <c r="A2344" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2344">
+        <v>26</v>
+      </c>
+      <c r="G2344">
+        <v>13</v>
+      </c>
+      <c r="H2344" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2344">
+        <v>0</v>
+      </c>
+      <c r="J2344">
+        <v>13</v>
+      </c>
+      <c r="K2344" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:11">
+      <c r="A2345" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2345">
+        <v>65</v>
+      </c>
+      <c r="G2345">
+        <v>35</v>
+      </c>
+      <c r="H2345" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2345">
+        <v>0</v>
+      </c>
+      <c r="J2345">
+        <v>35</v>
+      </c>
+      <c r="K2345" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:11">
+      <c r="A2346" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2346">
+        <v>21</v>
+      </c>
+      <c r="G2346">
+        <v>10</v>
+      </c>
+      <c r="H2346" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2346">
+        <v>0</v>
+      </c>
+      <c r="J2346">
+        <v>10</v>
+      </c>
+      <c r="K2346" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:11">
+      <c r="A2347" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2347">
+        <v>14</v>
+      </c>
+      <c r="G2347">
+        <v>7</v>
+      </c>
+      <c r="H2347" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2347">
+        <v>0</v>
+      </c>
+      <c r="J2347">
+        <v>7</v>
+      </c>
+      <c r="K2347" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:11">
+      <c r="A2348" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2348">
+        <v>4</v>
+      </c>
+      <c r="G2348">
+        <v>1</v>
+      </c>
+      <c r="H2348" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2348">
+        <v>0</v>
+      </c>
+      <c r="J2348">
+        <v>1</v>
+      </c>
+      <c r="K2348" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:11">
+      <c r="A2349" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2349">
+        <v>5</v>
+      </c>
+      <c r="G2349">
+        <v>3</v>
+      </c>
+      <c r="H2349" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2349">
+        <v>0</v>
+      </c>
+      <c r="J2349">
+        <v>3</v>
+      </c>
+      <c r="K2349" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:11">
+      <c r="A2350" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2350">
+        <v>199</v>
+      </c>
+      <c r="G2350">
+        <v>85</v>
+      </c>
+      <c r="H2350" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2350">
+        <v>0</v>
+      </c>
+      <c r="J2350">
+        <v>85</v>
+      </c>
+      <c r="K2350" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:11">
+      <c r="A2351" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2351">
+        <v>142</v>
+      </c>
+      <c r="G2351">
+        <v>74</v>
+      </c>
+      <c r="H2351" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2351">
+        <v>0</v>
+      </c>
+      <c r="J2351">
+        <v>74</v>
+      </c>
+      <c r="K2351" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:11">
+      <c r="A2352" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2352">
+        <v>213</v>
+      </c>
+      <c r="G2352">
+        <v>108</v>
+      </c>
+      <c r="H2352" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2352">
+        <v>0</v>
+      </c>
+      <c r="J2352">
+        <v>108</v>
+      </c>
+      <c r="K2352" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:11">
+      <c r="A2353" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2353">
+        <v>69</v>
+      </c>
+      <c r="G2353">
+        <v>33</v>
+      </c>
+      <c r="H2353" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2353">
+        <v>0</v>
+      </c>
+      <c r="J2353">
+        <v>33</v>
+      </c>
+      <c r="K2353" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:11">
+      <c r="A2354" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2354">
+        <v>64</v>
+      </c>
+      <c r="G2354">
+        <v>27</v>
+      </c>
+      <c r="H2354" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2354">
+        <v>0</v>
+      </c>
+      <c r="J2354">
+        <v>27</v>
+      </c>
+      <c r="K2354" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:11">
+      <c r="A2355" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2355">
+        <v>92</v>
+      </c>
+      <c r="G2355">
+        <v>24</v>
+      </c>
+      <c r="H2355" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2355">
+        <v>0</v>
+      </c>
+      <c r="J2355">
+        <v>24</v>
+      </c>
+      <c r="K2355" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:11">
+      <c r="A2356" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2356">
+        <v>85</v>
+      </c>
+      <c r="G2356">
+        <v>41</v>
+      </c>
+      <c r="H2356" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2356">
+        <v>0</v>
+      </c>
+      <c r="J2356">
+        <v>41</v>
+      </c>
+      <c r="K2356" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:11">
+      <c r="A2357" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2357" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2357">
+        <v>39</v>
+      </c>
+      <c r="G2357">
+        <v>18</v>
+      </c>
+      <c r="H2357" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2357">
+        <v>0</v>
+      </c>
+      <c r="J2357">
+        <v>18</v>
+      </c>
+      <c r="K2357" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:11">
+      <c r="A2358" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2358">
+        <v>28</v>
+      </c>
+      <c r="G2358">
+        <v>13</v>
+      </c>
+      <c r="H2358" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2358">
+        <v>0</v>
+      </c>
+      <c r="J2358">
+        <v>13</v>
+      </c>
+      <c r="K2358" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:11">
+      <c r="A2359" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2359">
+        <v>12</v>
+      </c>
+      <c r="G2359">
+        <v>2</v>
+      </c>
+      <c r="H2359" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2359">
+        <v>0</v>
+      </c>
+      <c r="J2359">
+        <v>2</v>
+      </c>
+      <c r="K2359" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:11">
+      <c r="A2360" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2360">
+        <v>52</v>
+      </c>
+      <c r="G2360">
+        <v>19</v>
+      </c>
+      <c r="H2360" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2360">
+        <v>0</v>
+      </c>
+      <c r="J2360">
+        <v>19</v>
+      </c>
+      <c r="K2360" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:11">
+      <c r="A2361" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2361">
+        <v>66</v>
+      </c>
+      <c r="G2361">
+        <v>35</v>
+      </c>
+      <c r="H2361" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2361">
+        <v>0</v>
+      </c>
+      <c r="J2361">
+        <v>35</v>
+      </c>
+      <c r="K2361" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:11">
+      <c r="A2362" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2362">
+        <v>84</v>
+      </c>
+      <c r="G2362">
+        <v>35</v>
+      </c>
+      <c r="H2362" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2362">
+        <v>0</v>
+      </c>
+      <c r="J2362">
+        <v>35</v>
+      </c>
+      <c r="K2362" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:11">
+      <c r="A2363" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2363">
+        <v>98</v>
+      </c>
+      <c r="G2363">
+        <v>42</v>
+      </c>
+      <c r="H2363" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2363">
+        <v>0</v>
+      </c>
+      <c r="J2363">
+        <v>42</v>
+      </c>
+      <c r="K2363" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:11">
+      <c r="A2364" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2364" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2364">
+        <v>96</v>
+      </c>
+      <c r="G2364">
+        <v>47</v>
+      </c>
+      <c r="H2364" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2364">
+        <v>0</v>
+      </c>
+      <c r="J2364">
+        <v>47</v>
+      </c>
+      <c r="K2364" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:11">
+      <c r="A2365" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2365">
+        <v>90</v>
+      </c>
+      <c r="G2365">
+        <v>33</v>
+      </c>
+      <c r="H2365" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2365">
+        <v>0</v>
+      </c>
+      <c r="J2365">
+        <v>33</v>
+      </c>
+      <c r="K2365" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:11">
+      <c r="A2366" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2366">
+        <v>52</v>
+      </c>
+      <c r="G2366">
+        <v>25</v>
+      </c>
+      <c r="H2366" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2366">
+        <v>0</v>
+      </c>
+      <c r="J2366">
+        <v>25</v>
+      </c>
+      <c r="K2366" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:11">
+      <c r="A2367" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2367">
+        <v>133</v>
+      </c>
+      <c r="G2367">
+        <v>65</v>
+      </c>
+      <c r="H2367" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2367">
+        <v>0</v>
+      </c>
+      <c r="J2367">
+        <v>65</v>
+      </c>
+      <c r="K2367" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:11">
+      <c r="A2368" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2368">
+        <v>88</v>
+      </c>
+      <c r="G2368">
+        <v>25</v>
+      </c>
+      <c r="H2368" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2368">
+        <v>0</v>
+      </c>
+      <c r="J2368">
+        <v>25</v>
+      </c>
+      <c r="K2368" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:11">
+      <c r="A2369" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2369">
+        <v>87</v>
+      </c>
+      <c r="G2369">
+        <v>50</v>
+      </c>
+      <c r="H2369" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2369">
+        <v>0</v>
+      </c>
+      <c r="J2369">
+        <v>50</v>
+      </c>
+      <c r="K2369" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:11">
+      <c r="A2370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2370">
+        <v>97</v>
+      </c>
+      <c r="G2370">
+        <v>48</v>
+      </c>
+      <c r="H2370" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2370">
+        <v>0</v>
+      </c>
+      <c r="J2370">
+        <v>48</v>
+      </c>
+      <c r="K2370" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:11">
+      <c r="A2371" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2371">
+        <v>39</v>
+      </c>
+      <c r="G2371">
+        <v>18</v>
+      </c>
+      <c r="H2371" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2371">
+        <v>0</v>
+      </c>
+      <c r="J2371">
+        <v>18</v>
+      </c>
+      <c r="K2371" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:11">
+      <c r="A2372" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2372">
+        <v>93</v>
+      </c>
+      <c r="G2372">
+        <v>48</v>
+      </c>
+      <c r="H2372" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2372">
+        <v>0</v>
+      </c>
+      <c r="J2372">
+        <v>48</v>
+      </c>
+      <c r="K2372" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:11">
+      <c r="A2373" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2373">
+        <v>121</v>
+      </c>
+      <c r="G2373">
+        <v>58</v>
+      </c>
+      <c r="H2373" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2373">
+        <v>0</v>
+      </c>
+      <c r="J2373">
+        <v>58</v>
+      </c>
+      <c r="K2373" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:11">
+      <c r="A2374" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2374">
+        <v>95</v>
+      </c>
+      <c r="G2374">
+        <v>52</v>
+      </c>
+      <c r="H2374" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2374">
+        <v>0</v>
+      </c>
+      <c r="J2374">
+        <v>52</v>
+      </c>
+      <c r="K2374" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:11">
+      <c r="A2375" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2375">
+        <v>61</v>
+      </c>
+      <c r="G2375">
+        <v>32</v>
+      </c>
+      <c r="H2375" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2375">
+        <v>0</v>
+      </c>
+      <c r="J2375">
+        <v>32</v>
+      </c>
+      <c r="K2375" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:11">
+      <c r="A2376" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2376">
+        <v>31</v>
+      </c>
+      <c r="G2376">
+        <v>17</v>
+      </c>
+      <c r="H2376" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2376">
+        <v>0</v>
+      </c>
+      <c r="J2376">
+        <v>17</v>
+      </c>
+      <c r="K2376" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:11">
+      <c r="A2377" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2377">
+        <v>64</v>
+      </c>
+      <c r="G2377">
+        <v>30</v>
+      </c>
+      <c r="H2377" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2377">
+        <v>0</v>
+      </c>
+      <c r="J2377">
+        <v>30</v>
+      </c>
+      <c r="K2377" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:11">
+      <c r="A2378" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2378">
+        <v>43</v>
+      </c>
+      <c r="G2378">
+        <v>24</v>
+      </c>
+      <c r="H2378" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2378">
+        <v>0</v>
+      </c>
+      <c r="J2378">
+        <v>24</v>
+      </c>
+      <c r="K2378" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:11">
+      <c r="A2379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2379">
+        <v>104</v>
+      </c>
+      <c r="G2379">
+        <v>37</v>
+      </c>
+      <c r="H2379" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2379">
+        <v>0</v>
+      </c>
+      <c r="J2379">
+        <v>37</v>
+      </c>
+      <c r="K2379" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:11">
+      <c r="A2380" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2380">
+        <v>135</v>
+      </c>
+      <c r="G2380">
+        <v>54</v>
+      </c>
+      <c r="H2380" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2380">
+        <v>0</v>
+      </c>
+      <c r="J2380">
+        <v>54</v>
+      </c>
+      <c r="K2380" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:11">
+      <c r="A2381" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2381">
+        <v>167</v>
+      </c>
+      <c r="G2381">
+        <v>61</v>
+      </c>
+      <c r="H2381" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2381">
+        <v>0</v>
+      </c>
+      <c r="J2381">
+        <v>61</v>
+      </c>
+      <c r="K2381" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:11">
+      <c r="A2382" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2382">
+        <v>146</v>
+      </c>
+      <c r="G2382">
+        <v>71</v>
+      </c>
+      <c r="H2382" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2382">
+        <v>0</v>
+      </c>
+      <c r="J2382">
+        <v>71</v>
+      </c>
+      <c r="K2382" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:11">
+      <c r="A2383" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2383">
+        <v>46</v>
+      </c>
+      <c r="G2383">
+        <v>17</v>
+      </c>
+      <c r="H2383" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2383">
+        <v>0</v>
+      </c>
+      <c r="J2383">
+        <v>17</v>
+      </c>
+      <c r="K2383" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:11">
+      <c r="A2384" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2384">
+        <v>135</v>
+      </c>
+      <c r="G2384">
+        <v>63</v>
+      </c>
+      <c r="H2384" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2384">
+        <v>0</v>
+      </c>
+      <c r="J2384">
+        <v>63</v>
+      </c>
+      <c r="K2384" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:11">
+      <c r="A2385" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2385">
+        <v>53</v>
+      </c>
+      <c r="G2385">
+        <v>31</v>
+      </c>
+      <c r="H2385" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2385">
+        <v>0</v>
+      </c>
+      <c r="J2385">
+        <v>31</v>
+      </c>
+      <c r="K2385" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:11">
+      <c r="A2386" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2386">
+        <v>118</v>
+      </c>
+      <c r="G2386">
+        <v>55</v>
+      </c>
+      <c r="H2386" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2386">
+        <v>0</v>
+      </c>
+      <c r="J2386">
+        <v>55</v>
+      </c>
+      <c r="K2386" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:11">
+      <c r="A2387" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2387">
+        <v>196</v>
+      </c>
+      <c r="G2387">
+        <v>81</v>
+      </c>
+      <c r="H2387" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2387">
+        <v>0</v>
+      </c>
+      <c r="J2387">
+        <v>81</v>
+      </c>
+      <c r="K2387" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:11">
+      <c r="A2388" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2388">
+        <v>98</v>
+      </c>
+      <c r="G2388">
+        <v>29</v>
+      </c>
+      <c r="H2388" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2388">
+        <v>0</v>
+      </c>
+      <c r="J2388">
+        <v>29</v>
+      </c>
+      <c r="K2388" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:11">
+      <c r="A2389" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2389">
+        <v>112</v>
+      </c>
+      <c r="G2389">
+        <v>51</v>
+      </c>
+      <c r="H2389" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2389">
+        <v>0</v>
+      </c>
+      <c r="J2389">
+        <v>51</v>
+      </c>
+      <c r="K2389" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:11">
+      <c r="A2390" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2390">
+        <v>95</v>
+      </c>
+      <c r="G2390">
+        <v>34</v>
+      </c>
+      <c r="H2390" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2390">
+        <v>0</v>
+      </c>
+      <c r="J2390">
+        <v>34</v>
+      </c>
+      <c r="K2390" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:11">
+      <c r="A2391" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2391">
+        <v>95</v>
+      </c>
+      <c r="G2391">
+        <v>34</v>
+      </c>
+      <c r="H2391" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2391">
+        <v>0</v>
+      </c>
+      <c r="J2391">
+        <v>34</v>
+      </c>
+      <c r="K2391" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:11">
+      <c r="A2392" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2392">
+        <v>4</v>
+      </c>
+      <c r="G2392">
+        <v>3</v>
+      </c>
+      <c r="H2392" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2392">
+        <v>0</v>
+      </c>
+      <c r="J2392">
+        <v>3</v>
+      </c>
+      <c r="K2392" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:11">
+      <c r="A2393" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2393">
+        <v>28</v>
+      </c>
+      <c r="G2393">
+        <v>14</v>
+      </c>
+      <c r="H2393" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2393">
+        <v>0</v>
+      </c>
+      <c r="J2393">
+        <v>14</v>
+      </c>
+      <c r="K2393" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:11">
+      <c r="A2394" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2394">
+        <v>11</v>
+      </c>
+      <c r="G2394">
+        <v>7</v>
+      </c>
+      <c r="H2394" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2394">
+        <v>0</v>
+      </c>
+      <c r="J2394">
+        <v>7</v>
+      </c>
+      <c r="K2394" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:11">
+      <c r="A2395" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2395">
+        <v>6</v>
+      </c>
+      <c r="G2395">
+        <v>0</v>
+      </c>
+      <c r="H2395" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2395">
+        <v>0</v>
+      </c>
+      <c r="J2395">
+        <v>0</v>
+      </c>
+      <c r="K2395" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:11">
+      <c r="A2396" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2396" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2396">
+        <v>0</v>
+      </c>
+      <c r="G2396">
+        <v>0</v>
+      </c>
+      <c r="H2396" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2396">
+        <v>0</v>
+      </c>
+      <c r="J2396">
+        <v>0</v>
+      </c>
+      <c r="K2396" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:11">
+      <c r="A2397" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2397">
+        <v>2</v>
+      </c>
+      <c r="G2397">
+        <v>0</v>
+      </c>
+      <c r="H2397" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2397">
+        <v>0</v>
+      </c>
+      <c r="J2397">
+        <v>0</v>
+      </c>
+      <c r="K2397" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:11">
+      <c r="A2398" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2398">
+        <v>4</v>
+      </c>
+      <c r="G2398">
+        <v>1</v>
+      </c>
+      <c r="H2398" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2398">
+        <v>0</v>
+      </c>
+      <c r="J2398">
+        <v>1</v>
+      </c>
+      <c r="K2398" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:11">
+      <c r="A2399" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2399">
+        <v>6</v>
+      </c>
+      <c r="G2399">
+        <v>1</v>
+      </c>
+      <c r="H2399" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2399">
+        <v>0</v>
+      </c>
+      <c r="J2399">
+        <v>1</v>
+      </c>
+      <c r="K2399" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:11">
+      <c r="A2400" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2400">
+        <v>10</v>
+      </c>
+      <c r="G2400">
+        <v>3</v>
+      </c>
+      <c r="H2400" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2400">
+        <v>0</v>
+      </c>
+      <c r="J2400">
+        <v>3</v>
+      </c>
+      <c r="K2400" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:11">
+      <c r="A2401" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2401">
+        <v>0</v>
+      </c>
+      <c r="G2401">
+        <v>0</v>
+      </c>
+      <c r="H2401" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2401">
+        <v>0</v>
+      </c>
+      <c r="J2401">
+        <v>0</v>
+      </c>
+      <c r="K2401" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:11">
+      <c r="A2402" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2402">
+        <v>0</v>
+      </c>
+      <c r="G2402">
+        <v>0</v>
+      </c>
+      <c r="H2402" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2402">
+        <v>0</v>
+      </c>
+      <c r="J2402">
+        <v>0</v>
+      </c>
+      <c r="K2402" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:11">
+      <c r="A2403" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2403">
+        <v>1</v>
+      </c>
+      <c r="G2403">
+        <v>0</v>
+      </c>
+      <c r="H2403" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2403">
+        <v>0</v>
+      </c>
+      <c r="J2403">
+        <v>0</v>
+      </c>
+      <c r="K2403" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:11">
+      <c r="A2404" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2404">
+        <v>1</v>
+      </c>
+      <c r="G2404">
+        <v>1</v>
+      </c>
+      <c r="H2404" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2404">
+        <v>0</v>
+      </c>
+      <c r="J2404">
+        <v>1</v>
+      </c>
+      <c r="K2404" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:11">
+      <c r="A2405" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2405">
+        <v>1</v>
+      </c>
+      <c r="G2405">
+        <v>0</v>
+      </c>
+      <c r="H2405" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2405">
+        <v>0</v>
+      </c>
+      <c r="J2405">
+        <v>0</v>
+      </c>
+      <c r="K2405" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:11">
+      <c r="A2406" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2406">
+        <v>97</v>
+      </c>
+      <c r="G2406">
+        <v>42</v>
+      </c>
+      <c r="H2406" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2406">
+        <v>0</v>
+      </c>
+      <c r="J2406">
+        <v>42</v>
+      </c>
+      <c r="K2406" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:11">
+      <c r="A2407" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2407">
+        <v>6</v>
+      </c>
+      <c r="G2407">
+        <v>2</v>
+      </c>
+      <c r="H2407" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2407">
+        <v>0</v>
+      </c>
+      <c r="J2407">
+        <v>2</v>
+      </c>
+      <c r="K2407" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:11">
+      <c r="A2408" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2408">
+        <v>59</v>
+      </c>
+      <c r="G2408">
+        <v>24</v>
+      </c>
+      <c r="H2408" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2408">
+        <v>0</v>
+      </c>
+      <c r="J2408">
+        <v>24</v>
+      </c>
+      <c r="K2408" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:11">
+      <c r="A2409" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2409">
+        <v>50</v>
+      </c>
+      <c r="G2409">
+        <v>15</v>
+      </c>
+      <c r="H2409" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2409">
+        <v>0</v>
+      </c>
+      <c r="J2409">
+        <v>15</v>
+      </c>
+      <c r="K2409" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:11">
+      <c r="A2410" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2410">
+        <v>28</v>
+      </c>
+      <c r="G2410">
+        <v>17</v>
+      </c>
+      <c r="H2410" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2410">
+        <v>0</v>
+      </c>
+      <c r="J2410">
+        <v>17</v>
+      </c>
+      <c r="K2410" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:11">
+      <c r="A2411" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2411">
+        <v>2</v>
+      </c>
+      <c r="G2411">
+        <v>1</v>
+      </c>
+      <c r="H2411" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2411">
+        <v>0</v>
+      </c>
+      <c r="J2411">
+        <v>1</v>
+      </c>
+      <c r="K2411" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:11">
+      <c r="A2412" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2412">
+        <v>0</v>
+      </c>
+      <c r="G2412">
+        <v>0</v>
+      </c>
+      <c r="H2412" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2412">
+        <v>0</v>
+      </c>
+      <c r="J2412">
+        <v>0</v>
+      </c>
+      <c r="K2412" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:11">
+      <c r="A2413" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2413">
+        <v>4</v>
+      </c>
+      <c r="G2413">
+        <v>1</v>
+      </c>
+      <c r="H2413" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2413">
+        <v>0</v>
+      </c>
+      <c r="J2413">
+        <v>1</v>
+      </c>
+      <c r="K2413" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:11">
+      <c r="A2414" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2414">
+        <v>1</v>
+      </c>
+      <c r="G2414">
+        <v>0</v>
+      </c>
+      <c r="H2414" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2414">
+        <v>0</v>
+      </c>
+      <c r="J2414">
+        <v>0</v>
+      </c>
+      <c r="K2414" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:11">
+      <c r="A2415" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2415">
+        <v>13</v>
+      </c>
+      <c r="G2415">
+        <v>6</v>
+      </c>
+      <c r="H2415" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2415">
+        <v>0</v>
+      </c>
+      <c r="J2415">
+        <v>6</v>
+      </c>
+      <c r="K2415" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:11">
+      <c r="A2416" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2416">
+        <v>9</v>
+      </c>
+      <c r="G2416">
+        <v>1</v>
+      </c>
+      <c r="H2416" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2416">
+        <v>0</v>
+      </c>
+      <c r="J2416">
+        <v>1</v>
+      </c>
+      <c r="K2416" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:11">
+      <c r="A2417" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2417">
+        <v>13</v>
+      </c>
+      <c r="G2417">
+        <v>7</v>
+      </c>
+      <c r="H2417" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2417">
+        <v>0</v>
+      </c>
+      <c r="J2417">
+        <v>7</v>
+      </c>
+      <c r="K2417" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:11">
+      <c r="A2418" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2418">
+        <v>5</v>
+      </c>
+      <c r="G2418">
+        <v>2</v>
+      </c>
+      <c r="H2418" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2418">
+        <v>0</v>
+      </c>
+      <c r="J2418">
+        <v>2</v>
+      </c>
+      <c r="K2418" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:11">
+      <c r="A2419" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2419">
+        <v>5</v>
+      </c>
+      <c r="G2419">
+        <v>3</v>
+      </c>
+      <c r="H2419" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2419">
+        <v>0</v>
+      </c>
+      <c r="J2419">
+        <v>3</v>
+      </c>
+      <c r="K2419" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:11">
+      <c r="A2420" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2420">
+        <v>4</v>
+      </c>
+      <c r="G2420">
+        <v>1</v>
+      </c>
+      <c r="H2420" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2420">
+        <v>0</v>
+      </c>
+      <c r="J2420">
+        <v>1</v>
+      </c>
+      <c r="K2420" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:11">
+      <c r="A2421" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2421">
+        <v>1</v>
+      </c>
+      <c r="G2421">
+        <v>0</v>
+      </c>
+      <c r="H2421" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2421">
+        <v>0</v>
+      </c>
+      <c r="J2421">
+        <v>0</v>
+      </c>
+      <c r="K2421" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:11">
+      <c r="A2422" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2422">
+        <v>1</v>
+      </c>
+      <c r="G2422">
+        <v>0</v>
+      </c>
+      <c r="H2422" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2422">
+        <v>0</v>
+      </c>
+      <c r="J2422">
+        <v>0</v>
+      </c>
+      <c r="K2422" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:11">
+      <c r="A2423" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2423">
+        <v>13</v>
+      </c>
+      <c r="G2423">
+        <v>3</v>
+      </c>
+      <c r="H2423" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2423">
+        <v>0</v>
+      </c>
+      <c r="J2423">
+        <v>3</v>
+      </c>
+      <c r="K2423" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:11">
+      <c r="A2424" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2424">
+        <v>17</v>
+      </c>
+      <c r="G2424">
+        <v>6</v>
+      </c>
+      <c r="H2424" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2424">
+        <v>0</v>
+      </c>
+      <c r="J2424">
+        <v>6</v>
+      </c>
+      <c r="K2424" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:11">
+      <c r="A2425" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2425">
+        <v>8</v>
+      </c>
+      <c r="G2425">
+        <v>2</v>
+      </c>
+      <c r="H2425" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2425">
+        <v>0</v>
+      </c>
+      <c r="J2425">
+        <v>2</v>
+      </c>
+      <c r="K2425" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:11">
+      <c r="A2426" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2426">
+        <v>2</v>
+      </c>
+      <c r="G2426">
+        <v>1</v>
+      </c>
+      <c r="H2426" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2426">
+        <v>0</v>
+      </c>
+      <c r="J2426">
+        <v>1</v>
+      </c>
+      <c r="K2426" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:11">
+      <c r="A2427" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2427">
+        <v>49</v>
+      </c>
+      <c r="G2427">
+        <v>17</v>
+      </c>
+      <c r="H2427" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2427">
+        <v>0</v>
+      </c>
+      <c r="J2427">
+        <v>17</v>
+      </c>
+      <c r="K2427" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:11">
+      <c r="A2428" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2428">
+        <v>23</v>
+      </c>
+      <c r="G2428">
+        <v>9</v>
+      </c>
+      <c r="H2428" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2428">
+        <v>0</v>
+      </c>
+      <c r="J2428">
+        <v>9</v>
+      </c>
+      <c r="K2428" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:11">
+      <c r="A2429" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2429">
+        <v>36</v>
+      </c>
+      <c r="G2429">
+        <v>8</v>
+      </c>
+      <c r="H2429" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2429">
+        <v>0</v>
+      </c>
+      <c r="J2429">
+        <v>8</v>
+      </c>
+      <c r="K2429" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:11">
+      <c r="A2430" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2430">
+        <v>12</v>
+      </c>
+      <c r="G2430">
+        <v>6</v>
+      </c>
+      <c r="H2430" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2430">
+        <v>0</v>
+      </c>
+      <c r="J2430">
+        <v>6</v>
+      </c>
+      <c r="K2430" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:11">
+      <c r="A2431" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2431">
+        <v>6</v>
+      </c>
+      <c r="G2431">
+        <v>2</v>
+      </c>
+      <c r="H2431" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2431">
+        <v>0</v>
+      </c>
+      <c r="J2431">
+        <v>2</v>
+      </c>
+      <c r="K2431" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:11">
+      <c r="A2432" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2432">
+        <v>18</v>
+      </c>
+      <c r="G2432">
+        <v>8</v>
+      </c>
+      <c r="H2432" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2432">
+        <v>0</v>
+      </c>
+      <c r="J2432">
+        <v>8</v>
+      </c>
+      <c r="K2432" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:11">
+      <c r="A2433" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2433">
+        <v>16</v>
+      </c>
+      <c r="G2433">
+        <v>4</v>
+      </c>
+      <c r="H2433" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2433">
+        <v>0</v>
+      </c>
+      <c r="J2433">
+        <v>4</v>
+      </c>
+      <c r="K2433" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:11">
+      <c r="A2434" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2434">
+        <v>12</v>
+      </c>
+      <c r="G2434">
+        <v>8</v>
+      </c>
+      <c r="H2434" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2434">
+        <v>0</v>
+      </c>
+      <c r="J2434">
+        <v>8</v>
+      </c>
+      <c r="K2434" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:11">
+      <c r="A2435" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2435">
+        <v>15</v>
+      </c>
+      <c r="G2435">
+        <v>6</v>
+      </c>
+      <c r="H2435" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2435">
+        <v>0</v>
+      </c>
+      <c r="J2435">
+        <v>6</v>
+      </c>
+      <c r="K2435" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:11">
+      <c r="A2436" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2436">
+        <v>14</v>
+      </c>
+      <c r="G2436">
+        <v>6</v>
+      </c>
+      <c r="H2436" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2436">
+        <v>0</v>
+      </c>
+      <c r="J2436">
+        <v>6</v>
+      </c>
+      <c r="K2436" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:11">
+      <c r="A2437" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2437">
+        <v>13</v>
+      </c>
+      <c r="G2437">
+        <v>1</v>
+      </c>
+      <c r="H2437" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2437">
+        <v>0</v>
+      </c>
+      <c r="J2437">
+        <v>1</v>
+      </c>
+      <c r="K2437" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:11">
+      <c r="A2438" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2438">
+        <v>38</v>
+      </c>
+      <c r="G2438">
+        <v>20</v>
+      </c>
+      <c r="H2438" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2438">
+        <v>0</v>
+      </c>
+      <c r="J2438">
+        <v>20</v>
+      </c>
+      <c r="K2438" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:11">
+      <c r="A2439" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2439">
+        <v>11</v>
+      </c>
+      <c r="G2439">
+        <v>5</v>
+      </c>
+      <c r="H2439" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2439">
+        <v>0</v>
+      </c>
+      <c r="J2439">
+        <v>5</v>
+      </c>
+      <c r="K2439" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:11">
+      <c r="A2440" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2440">
+        <v>34</v>
+      </c>
+      <c r="G2440">
+        <v>17</v>
+      </c>
+      <c r="H2440" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2440">
+        <v>0</v>
+      </c>
+      <c r="J2440">
+        <v>17</v>
+      </c>
+      <c r="K2440" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:11">
+      <c r="A2441" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2441">
+        <v>10</v>
+      </c>
+      <c r="G2441">
+        <v>1</v>
+      </c>
+      <c r="H2441" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2441">
+        <v>0</v>
+      </c>
+      <c r="J2441">
+        <v>1</v>
+      </c>
+      <c r="K2441" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:11">
+      <c r="A2442" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2442">
+        <v>3</v>
+      </c>
+      <c r="G2442">
+        <v>3</v>
+      </c>
+      <c r="H2442" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2442">
+        <v>0</v>
+      </c>
+      <c r="J2442">
+        <v>3</v>
+      </c>
+      <c r="K2442" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:11">
+      <c r="A2443" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2443">
+        <v>1</v>
+      </c>
+      <c r="G2443">
+        <v>0</v>
+      </c>
+      <c r="H2443" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2443">
+        <v>0</v>
+      </c>
+      <c r="J2443">
+        <v>0</v>
+      </c>
+      <c r="K2443" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:11">
+      <c r="A2444" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2444">
+        <v>2</v>
+      </c>
+      <c r="G2444">
+        <v>1</v>
+      </c>
+      <c r="H2444" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2444">
+        <v>0</v>
+      </c>
+      <c r="J2444">
+        <v>1</v>
+      </c>
+      <c r="K2444" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:11">
+      <c r="A2445" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2445">
+        <v>0</v>
+      </c>
+      <c r="G2445">
+        <v>0</v>
+      </c>
+      <c r="H2445" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2445">
+        <v>0</v>
+      </c>
+      <c r="J2445">
+        <v>0</v>
+      </c>
+      <c r="K2445" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:11">
+      <c r="A2446" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2446">
+        <v>2</v>
+      </c>
+      <c r="G2446">
+        <v>1</v>
+      </c>
+      <c r="H2446" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2446">
+        <v>0</v>
+      </c>
+      <c r="J2446">
+        <v>1</v>
+      </c>
+      <c r="K2446" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:11">
+      <c r="A2447" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2447">
+        <v>4</v>
+      </c>
+      <c r="G2447">
+        <v>1</v>
+      </c>
+      <c r="H2447" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2447">
+        <v>0</v>
+      </c>
+      <c r="J2447">
+        <v>1</v>
+      </c>
+      <c r="K2447" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:11">
+      <c r="A2448" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2448">
+        <v>6</v>
+      </c>
+      <c r="G2448">
+        <v>2</v>
+      </c>
+      <c r="H2448" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2448">
+        <v>0</v>
+      </c>
+      <c r="J2448">
+        <v>2</v>
+      </c>
+      <c r="K2448" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:11">
+      <c r="A2449" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2449">
+        <v>2</v>
+      </c>
+      <c r="G2449">
+        <v>2</v>
+      </c>
+      <c r="H2449" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2449">
+        <v>0</v>
+      </c>
+      <c r="J2449">
+        <v>2</v>
+      </c>
+      <c r="K2449" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:11">
+      <c r="A2450" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2450">
+        <v>7</v>
+      </c>
+      <c r="G2450">
+        <v>2</v>
+      </c>
+      <c r="H2450" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2450">
+        <v>0</v>
+      </c>
+      <c r="J2450">
+        <v>2</v>
+      </c>
+      <c r="K2450" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:11">
+      <c r="A2451" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2451">
+        <v>10</v>
+      </c>
+      <c r="G2451">
+        <v>3</v>
+      </c>
+      <c r="H2451" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2451">
+        <v>0</v>
+      </c>
+      <c r="J2451">
+        <v>3</v>
+      </c>
+      <c r="K2451" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:11">
+      <c r="A2452" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2452">
+        <v>14</v>
+      </c>
+      <c r="G2452">
+        <v>2</v>
+      </c>
+      <c r="H2452" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2452">
+        <v>0</v>
+      </c>
+      <c r="J2452">
+        <v>2</v>
+      </c>
+      <c r="K2452" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:11">
+      <c r="A2453" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2453">
+        <v>14</v>
+      </c>
+      <c r="G2453">
+        <v>2</v>
+      </c>
+      <c r="H2453" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2453">
+        <v>0</v>
+      </c>
+      <c r="J2453">
+        <v>2</v>
+      </c>
+      <c r="K2453" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:11">
+      <c r="A2454" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2454">
+        <v>12</v>
+      </c>
+      <c r="G2454">
+        <v>2</v>
+      </c>
+      <c r="H2454" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2454">
+        <v>0</v>
+      </c>
+      <c r="J2454">
+        <v>2</v>
+      </c>
+      <c r="K2454" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:11">
+      <c r="A2455" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2455">
+        <v>22</v>
+      </c>
+      <c r="G2455">
+        <v>11</v>
+      </c>
+      <c r="H2455" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2455">
+        <v>0</v>
+      </c>
+      <c r="J2455">
+        <v>11</v>
+      </c>
+      <c r="K2455" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:11">
+      <c r="A2456" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2456">
+        <v>16</v>
+      </c>
+      <c r="G2456">
+        <v>5</v>
+      </c>
+      <c r="H2456" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2456">
+        <v>0</v>
+      </c>
+      <c r="J2456">
+        <v>5</v>
+      </c>
+      <c r="K2456" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:11">
+      <c r="A2457" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2457">
+        <v>22</v>
+      </c>
+      <c r="G2457">
+        <v>8</v>
+      </c>
+      <c r="H2457" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2457">
+        <v>0</v>
+      </c>
+      <c r="J2457">
+        <v>8</v>
+      </c>
+      <c r="K2457" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:11">
+      <c r="A2458" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2458">
+        <v>20</v>
+      </c>
+      <c r="G2458">
+        <v>9</v>
+      </c>
+      <c r="H2458" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2458">
+        <v>0</v>
+      </c>
+      <c r="J2458">
+        <v>9</v>
+      </c>
+      <c r="K2458" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:11">
+      <c r="A2459" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2459">
+        <v>7</v>
+      </c>
+      <c r="G2459">
+        <v>2</v>
+      </c>
+      <c r="H2459" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2459">
+        <v>0</v>
+      </c>
+      <c r="J2459">
+        <v>2</v>
+      </c>
+      <c r="K2459" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:11">
+      <c r="A2460" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2460">
+        <v>11</v>
+      </c>
+      <c r="G2460">
+        <v>4</v>
+      </c>
+      <c r="H2460" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2460">
+        <v>0</v>
+      </c>
+      <c r="J2460">
+        <v>4</v>
+      </c>
+      <c r="K2460" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:11">
+      <c r="A2461" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2461">
+        <v>17</v>
+      </c>
+      <c r="G2461">
+        <v>4</v>
+      </c>
+      <c r="H2461" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2461">
+        <v>0</v>
+      </c>
+      <c r="J2461">
+        <v>4</v>
+      </c>
+      <c r="K2461" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:11">
+      <c r="A2462" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2462">
+        <v>14</v>
+      </c>
+      <c r="G2462">
+        <v>10</v>
+      </c>
+      <c r="H2462" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2462">
+        <v>0</v>
+      </c>
+      <c r="J2462">
+        <v>10</v>
+      </c>
+      <c r="K2462" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:11">
+      <c r="A2463" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2463">
+        <v>19</v>
+      </c>
+      <c r="G2463">
+        <v>9</v>
+      </c>
+      <c r="H2463" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2463">
+        <v>0</v>
+      </c>
+      <c r="J2463">
+        <v>9</v>
+      </c>
+      <c r="K2463" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:11">
+      <c r="A2464" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2464">
+        <v>15</v>
+      </c>
+      <c r="G2464">
+        <v>4</v>
+      </c>
+      <c r="H2464" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2464">
+        <v>0</v>
+      </c>
+      <c r="J2464">
+        <v>4</v>
+      </c>
+      <c r="K2464" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:11">
+      <c r="A2465" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2465">
+        <v>9</v>
+      </c>
+      <c r="G2465">
+        <v>4</v>
+      </c>
+      <c r="H2465" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2465">
+        <v>0</v>
+      </c>
+      <c r="J2465">
+        <v>4</v>
+      </c>
+      <c r="K2465" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:11">
+      <c r="A2466" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2466">
+        <v>8</v>
+      </c>
+      <c r="G2466">
+        <v>3</v>
+      </c>
+      <c r="H2466" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2466">
+        <v>0</v>
+      </c>
+      <c r="J2466">
+        <v>3</v>
+      </c>
+      <c r="K2466" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:11">
+      <c r="A2467" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2467">
+        <v>27</v>
+      </c>
+      <c r="G2467">
+        <v>8</v>
+      </c>
+      <c r="H2467" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2467">
+        <v>0</v>
+      </c>
+      <c r="J2467">
+        <v>8</v>
+      </c>
+      <c r="K2467" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:11">
+      <c r="A2468" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2468">
+        <v>26</v>
+      </c>
+      <c r="G2468">
+        <v>7</v>
+      </c>
+      <c r="H2468" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2468">
+        <v>0</v>
+      </c>
+      <c r="J2468">
+        <v>7</v>
+      </c>
+      <c r="K2468" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:11">
+      <c r="A2469" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2469">
+        <v>12</v>
+      </c>
+      <c r="G2469">
+        <v>5</v>
+      </c>
+      <c r="H2469" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2469">
+        <v>0</v>
+      </c>
+      <c r="J2469">
+        <v>5</v>
+      </c>
+      <c r="K2469" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:11">
+      <c r="A2470" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2470">
+        <v>13</v>
+      </c>
+      <c r="G2470">
+        <v>4</v>
+      </c>
+      <c r="H2470" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2470">
+        <v>0</v>
+      </c>
+      <c r="J2470">
+        <v>4</v>
+      </c>
+      <c r="K2470" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:11">
+      <c r="A2471" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2471">
+        <v>16</v>
+      </c>
+      <c r="G2471">
+        <v>6</v>
+      </c>
+      <c r="H2471" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2471">
+        <v>0</v>
+      </c>
+      <c r="J2471">
+        <v>6</v>
+      </c>
+      <c r="K2471" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:11">
+      <c r="A2472" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2472">
+        <v>3</v>
+      </c>
+      <c r="G2472">
+        <v>1</v>
+      </c>
+      <c r="H2472" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2472">
+        <v>0</v>
+      </c>
+      <c r="J2472">
+        <v>1</v>
+      </c>
+      <c r="K2472" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:11">
+      <c r="A2473" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2473">
+        <v>3</v>
+      </c>
+      <c r="G2473">
+        <v>2</v>
+      </c>
+      <c r="H2473" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2473">
+        <v>0</v>
+      </c>
+      <c r="J2473">
+        <v>2</v>
+      </c>
+      <c r="K2473" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:11">
+      <c r="A2474" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2474">
+        <v>5</v>
+      </c>
+      <c r="G2474">
+        <v>1</v>
+      </c>
+      <c r="H2474" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2474">
+        <v>0</v>
+      </c>
+      <c r="J2474">
+        <v>1</v>
+      </c>
+      <c r="K2474" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:11">
+      <c r="A2475" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2475">
+        <v>1</v>
+      </c>
+      <c r="G2475">
+        <v>1</v>
+      </c>
+      <c r="H2475" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2475">
+        <v>0</v>
+      </c>
+      <c r="J2475">
+        <v>1</v>
+      </c>
+      <c r="K2475" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:11">
+      <c r="A2476" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2476">
+        <v>2</v>
+      </c>
+      <c r="G2476">
+        <v>1</v>
+      </c>
+      <c r="H2476" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2476">
+        <v>0</v>
+      </c>
+      <c r="J2476">
+        <v>1</v>
+      </c>
+      <c r="K2476" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:11">
+      <c r="A2477" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2477">
+        <v>1</v>
+      </c>
+      <c r="G2477">
+        <v>0</v>
+      </c>
+      <c r="H2477" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2477">
+        <v>0</v>
+      </c>
+      <c r="J2477">
+        <v>0</v>
+      </c>
+      <c r="K2477" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:11">
+      <c r="A2478" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2478">
+        <v>3</v>
+      </c>
+      <c r="G2478">
+        <v>1</v>
+      </c>
+      <c r="H2478" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2478">
+        <v>0</v>
+      </c>
+      <c r="J2478">
+        <v>1</v>
+      </c>
+      <c r="K2478" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:11">
+      <c r="A2479" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2479">
+        <v>7</v>
+      </c>
+      <c r="G2479">
+        <v>4</v>
+      </c>
+      <c r="H2479" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2479">
+        <v>0</v>
+      </c>
+      <c r="J2479">
+        <v>4</v>
+      </c>
+      <c r="K2479" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:11">
+      <c r="A2480" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2480">
+        <v>13</v>
+      </c>
+      <c r="G2480">
+        <v>4</v>
+      </c>
+      <c r="H2480" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2480">
+        <v>0</v>
+      </c>
+      <c r="J2480">
+        <v>4</v>
+      </c>
+      <c r="K2480" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:11">
+      <c r="A2481" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2481">
+        <v>13</v>
+      </c>
+      <c r="G2481">
+        <v>5</v>
+      </c>
+      <c r="H2481" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2481">
+        <v>0</v>
+      </c>
+      <c r="J2481">
+        <v>5</v>
+      </c>
+      <c r="K2481" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:11">
+      <c r="A2482" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2482">
+        <v>15</v>
+      </c>
+      <c r="G2482">
+        <v>4</v>
+      </c>
+      <c r="H2482" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2482">
+        <v>0</v>
+      </c>
+      <c r="J2482">
+        <v>4</v>
+      </c>
+      <c r="K2482" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:11">
+      <c r="A2483" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2483">
+        <v>11</v>
+      </c>
+      <c r="G2483">
+        <v>5</v>
+      </c>
+      <c r="H2483" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2483">
+        <v>0</v>
+      </c>
+      <c r="J2483">
+        <v>5</v>
+      </c>
+      <c r="K2483" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:11">
+      <c r="A2484" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2484">
+        <v>17</v>
+      </c>
+      <c r="G2484">
+        <v>9</v>
+      </c>
+      <c r="H2484" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2484">
+        <v>0</v>
+      </c>
+      <c r="J2484">
+        <v>9</v>
+      </c>
+      <c r="K2484" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:11">
+      <c r="A2485" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2485">
+        <v>28</v>
+      </c>
+      <c r="G2485">
+        <v>16</v>
+      </c>
+      <c r="H2485" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2485">
+        <v>0</v>
+      </c>
+      <c r="J2485">
+        <v>16</v>
+      </c>
+      <c r="K2485" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:11">
+      <c r="A2486" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2486">
+        <v>13</v>
+      </c>
+      <c r="G2486">
+        <v>6</v>
+      </c>
+      <c r="H2486" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2486">
+        <v>0</v>
+      </c>
+      <c r="J2486">
+        <v>6</v>
+      </c>
+      <c r="K2486" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:11">
+      <c r="A2487" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2487">
+        <v>23</v>
+      </c>
+      <c r="G2487">
+        <v>6</v>
+      </c>
+      <c r="H2487" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2487">
+        <v>0</v>
+      </c>
+      <c r="J2487">
+        <v>6</v>
+      </c>
+      <c r="K2487" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:11">
+      <c r="A2488" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2488">
+        <v>10</v>
+      </c>
+      <c r="G2488">
+        <v>4</v>
+      </c>
+      <c r="H2488" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2488">
+        <v>0</v>
+      </c>
+      <c r="J2488">
+        <v>4</v>
+      </c>
+      <c r="K2488" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:11">
+      <c r="A2489" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2489">
+        <v>11</v>
+      </c>
+      <c r="G2489">
+        <v>3</v>
+      </c>
+      <c r="H2489" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2489">
+        <v>0</v>
+      </c>
+      <c r="J2489">
+        <v>3</v>
+      </c>
+      <c r="K2489" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:11">
+      <c r="A2490" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2490">
+        <v>8</v>
+      </c>
+      <c r="G2490">
+        <v>3</v>
+      </c>
+      <c r="H2490" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2490">
+        <v>0</v>
+      </c>
+      <c r="J2490">
+        <v>3</v>
+      </c>
+      <c r="K2490" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:11">
+      <c r="A2491" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2491">
+        <v>12</v>
+      </c>
+      <c r="G2491">
+        <v>3</v>
+      </c>
+      <c r="H2491" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2491">
+        <v>0</v>
+      </c>
+      <c r="J2491">
+        <v>3</v>
+      </c>
+      <c r="K2491" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:11">
+      <c r="A2492" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2492">
+        <v>2</v>
+      </c>
+      <c r="G2492">
+        <v>2</v>
+      </c>
+      <c r="H2492" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2492">
+        <v>0</v>
+      </c>
+      <c r="J2492">
+        <v>2</v>
+      </c>
+      <c r="K2492" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:11">
+      <c r="A2493" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2493">
+        <v>21</v>
+      </c>
+      <c r="G2493">
+        <v>7</v>
+      </c>
+      <c r="H2493" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2493">
+        <v>0</v>
+      </c>
+      <c r="J2493">
+        <v>7</v>
+      </c>
+      <c r="K2493" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:11">
+      <c r="A2494" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2494">
+        <v>52</v>
+      </c>
+      <c r="G2494">
+        <v>25</v>
+      </c>
+      <c r="H2494" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2494">
+        <v>0</v>
+      </c>
+      <c r="J2494">
+        <v>25</v>
+      </c>
+      <c r="K2494" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:11">
+      <c r="A2495" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2495">
+        <v>198</v>
+      </c>
+      <c r="G2495">
+        <v>47</v>
+      </c>
+      <c r="H2495" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2495">
+        <v>0</v>
+      </c>
+      <c r="J2495">
+        <v>47</v>
+      </c>
+      <c r="K2495" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:11">
+      <c r="A2496" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2496">
+        <v>11</v>
+      </c>
+      <c r="G2496">
+        <v>2</v>
+      </c>
+      <c r="H2496" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2496">
+        <v>0</v>
+      </c>
+      <c r="J2496">
+        <v>2</v>
+      </c>
+      <c r="K2496" s="2">
+        <v>45541.61169382433</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:11">
+      <c r="A2497" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2497">
+        <v>44</v>
+      </c>
+      <c r="G2497">
+        <v>15</v>
+      </c>
+      <c r="H2497" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2497">
+        <v>0</v>
+      </c>
+      <c r="J2497">
+        <v>15</v>
+      </c>
+      <c r="K2497" s="2">
+        <v>45541.61169382433</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14987" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15923" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2497"/>
+  <dimension ref="A1:K2653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -82690,7 +82690,7 @@
         <v>36</v>
       </c>
       <c r="K2342" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2343" spans="1:11">
@@ -82725,7 +82725,7 @@
         <v>20</v>
       </c>
       <c r="K2343" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2344" spans="1:11">
@@ -82760,7 +82760,7 @@
         <v>13</v>
       </c>
       <c r="K2344" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2345" spans="1:11">
@@ -82795,7 +82795,7 @@
         <v>35</v>
       </c>
       <c r="K2345" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2346" spans="1:11">
@@ -82830,7 +82830,7 @@
         <v>10</v>
       </c>
       <c r="K2346" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2347" spans="1:11">
@@ -82865,7 +82865,7 @@
         <v>7</v>
       </c>
       <c r="K2347" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2348" spans="1:11">
@@ -82900,7 +82900,7 @@
         <v>1</v>
       </c>
       <c r="K2348" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2349" spans="1:11">
@@ -82935,7 +82935,7 @@
         <v>3</v>
       </c>
       <c r="K2349" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2350" spans="1:11">
@@ -82970,7 +82970,7 @@
         <v>85</v>
       </c>
       <c r="K2350" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2351" spans="1:11">
@@ -83005,7 +83005,7 @@
         <v>74</v>
       </c>
       <c r="K2351" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2352" spans="1:11">
@@ -83040,7 +83040,7 @@
         <v>108</v>
       </c>
       <c r="K2352" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2353" spans="1:11">
@@ -83075,7 +83075,7 @@
         <v>33</v>
       </c>
       <c r="K2353" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2354" spans="1:11">
@@ -83110,7 +83110,7 @@
         <v>27</v>
       </c>
       <c r="K2354" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2355" spans="1:11">
@@ -83145,7 +83145,7 @@
         <v>24</v>
       </c>
       <c r="K2355" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2356" spans="1:11">
@@ -83180,7 +83180,7 @@
         <v>41</v>
       </c>
       <c r="K2356" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2357" spans="1:11">
@@ -83215,7 +83215,7 @@
         <v>18</v>
       </c>
       <c r="K2357" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2358" spans="1:11">
@@ -83250,7 +83250,7 @@
         <v>13</v>
       </c>
       <c r="K2358" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2359" spans="1:11">
@@ -83285,7 +83285,7 @@
         <v>2</v>
       </c>
       <c r="K2359" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2360" spans="1:11">
@@ -83320,7 +83320,7 @@
         <v>19</v>
       </c>
       <c r="K2360" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2361" spans="1:11">
@@ -83355,7 +83355,7 @@
         <v>35</v>
       </c>
       <c r="K2361" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2362" spans="1:11">
@@ -83390,7 +83390,7 @@
         <v>35</v>
       </c>
       <c r="K2362" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2363" spans="1:11">
@@ -83425,7 +83425,7 @@
         <v>42</v>
       </c>
       <c r="K2363" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2364" spans="1:11">
@@ -83460,7 +83460,7 @@
         <v>47</v>
       </c>
       <c r="K2364" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2365" spans="1:11">
@@ -83495,7 +83495,7 @@
         <v>33</v>
       </c>
       <c r="K2365" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2366" spans="1:11">
@@ -83530,7 +83530,7 @@
         <v>25</v>
       </c>
       <c r="K2366" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2367" spans="1:11">
@@ -83565,7 +83565,7 @@
         <v>65</v>
       </c>
       <c r="K2367" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2368" spans="1:11">
@@ -83600,7 +83600,7 @@
         <v>25</v>
       </c>
       <c r="K2368" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2369" spans="1:11">
@@ -83635,7 +83635,7 @@
         <v>50</v>
       </c>
       <c r="K2369" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2370" spans="1:11">
@@ -83670,7 +83670,7 @@
         <v>48</v>
       </c>
       <c r="K2370" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2371" spans="1:11">
@@ -83705,7 +83705,7 @@
         <v>18</v>
       </c>
       <c r="K2371" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2372" spans="1:11">
@@ -83740,7 +83740,7 @@
         <v>48</v>
       </c>
       <c r="K2372" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2373" spans="1:11">
@@ -83775,7 +83775,7 @@
         <v>58</v>
       </c>
       <c r="K2373" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2374" spans="1:11">
@@ -83810,7 +83810,7 @@
         <v>52</v>
       </c>
       <c r="K2374" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2375" spans="1:11">
@@ -83845,7 +83845,7 @@
         <v>32</v>
       </c>
       <c r="K2375" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2376" spans="1:11">
@@ -83880,7 +83880,7 @@
         <v>17</v>
       </c>
       <c r="K2376" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2377" spans="1:11">
@@ -83915,7 +83915,7 @@
         <v>30</v>
       </c>
       <c r="K2377" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2378" spans="1:11">
@@ -83950,7 +83950,7 @@
         <v>24</v>
       </c>
       <c r="K2378" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2379" spans="1:11">
@@ -83985,7 +83985,7 @@
         <v>37</v>
       </c>
       <c r="K2379" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2380" spans="1:11">
@@ -84020,7 +84020,7 @@
         <v>54</v>
       </c>
       <c r="K2380" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2381" spans="1:11">
@@ -84055,7 +84055,7 @@
         <v>61</v>
       </c>
       <c r="K2381" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2382" spans="1:11">
@@ -84090,7 +84090,7 @@
         <v>71</v>
       </c>
       <c r="K2382" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2383" spans="1:11">
@@ -84125,7 +84125,7 @@
         <v>17</v>
       </c>
       <c r="K2383" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2384" spans="1:11">
@@ -84160,7 +84160,7 @@
         <v>63</v>
       </c>
       <c r="K2384" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2385" spans="1:11">
@@ -84195,7 +84195,7 @@
         <v>31</v>
       </c>
       <c r="K2385" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2386" spans="1:11">
@@ -84230,7 +84230,7 @@
         <v>55</v>
       </c>
       <c r="K2386" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2387" spans="1:11">
@@ -84265,7 +84265,7 @@
         <v>81</v>
       </c>
       <c r="K2387" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2388" spans="1:11">
@@ -84300,7 +84300,7 @@
         <v>29</v>
       </c>
       <c r="K2388" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2389" spans="1:11">
@@ -84335,7 +84335,7 @@
         <v>51</v>
       </c>
       <c r="K2389" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2390" spans="1:11">
@@ -84370,7 +84370,7 @@
         <v>34</v>
       </c>
       <c r="K2390" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2391" spans="1:11">
@@ -84405,7 +84405,7 @@
         <v>34</v>
       </c>
       <c r="K2391" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2392" spans="1:11">
@@ -84440,7 +84440,7 @@
         <v>3</v>
       </c>
       <c r="K2392" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2393" spans="1:11">
@@ -84475,7 +84475,7 @@
         <v>14</v>
       </c>
       <c r="K2393" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2394" spans="1:11">
@@ -84510,7 +84510,7 @@
         <v>7</v>
       </c>
       <c r="K2394" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2395" spans="1:11">
@@ -84545,7 +84545,7 @@
         <v>0</v>
       </c>
       <c r="K2395" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2396" spans="1:11">
@@ -84580,7 +84580,7 @@
         <v>0</v>
       </c>
       <c r="K2396" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2397" spans="1:11">
@@ -84615,7 +84615,7 @@
         <v>0</v>
       </c>
       <c r="K2397" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2398" spans="1:11">
@@ -84650,7 +84650,7 @@
         <v>1</v>
       </c>
       <c r="K2398" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2399" spans="1:11">
@@ -84685,7 +84685,7 @@
         <v>1</v>
       </c>
       <c r="K2399" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2400" spans="1:11">
@@ -84720,7 +84720,7 @@
         <v>3</v>
       </c>
       <c r="K2400" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2401" spans="1:11">
@@ -84755,7 +84755,7 @@
         <v>0</v>
       </c>
       <c r="K2401" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2402" spans="1:11">
@@ -84790,7 +84790,7 @@
         <v>0</v>
       </c>
       <c r="K2402" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2403" spans="1:11">
@@ -84825,7 +84825,7 @@
         <v>0</v>
       </c>
       <c r="K2403" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2404" spans="1:11">
@@ -84860,7 +84860,7 @@
         <v>1</v>
       </c>
       <c r="K2404" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2405" spans="1:11">
@@ -84895,7 +84895,7 @@
         <v>0</v>
       </c>
       <c r="K2405" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2406" spans="1:11">
@@ -84930,7 +84930,7 @@
         <v>42</v>
       </c>
       <c r="K2406" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2407" spans="1:11">
@@ -84965,7 +84965,7 @@
         <v>2</v>
       </c>
       <c r="K2407" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2408" spans="1:11">
@@ -85000,7 +85000,7 @@
         <v>24</v>
       </c>
       <c r="K2408" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2409" spans="1:11">
@@ -85035,7 +85035,7 @@
         <v>15</v>
       </c>
       <c r="K2409" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2410" spans="1:11">
@@ -85070,7 +85070,7 @@
         <v>17</v>
       </c>
       <c r="K2410" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2411" spans="1:11">
@@ -85105,7 +85105,7 @@
         <v>1</v>
       </c>
       <c r="K2411" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2412" spans="1:11">
@@ -85140,7 +85140,7 @@
         <v>0</v>
       </c>
       <c r="K2412" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2413" spans="1:11">
@@ -85175,7 +85175,7 @@
         <v>1</v>
       </c>
       <c r="K2413" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2414" spans="1:11">
@@ -85210,7 +85210,7 @@
         <v>0</v>
       </c>
       <c r="K2414" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2415" spans="1:11">
@@ -85245,7 +85245,7 @@
         <v>6</v>
       </c>
       <c r="K2415" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2416" spans="1:11">
@@ -85280,7 +85280,7 @@
         <v>1</v>
       </c>
       <c r="K2416" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2417" spans="1:11">
@@ -85315,7 +85315,7 @@
         <v>7</v>
       </c>
       <c r="K2417" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2418" spans="1:11">
@@ -85350,7 +85350,7 @@
         <v>2</v>
       </c>
       <c r="K2418" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2419" spans="1:11">
@@ -85385,7 +85385,7 @@
         <v>3</v>
       </c>
       <c r="K2419" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2420" spans="1:11">
@@ -85420,7 +85420,7 @@
         <v>1</v>
       </c>
       <c r="K2420" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2421" spans="1:11">
@@ -85455,7 +85455,7 @@
         <v>0</v>
       </c>
       <c r="K2421" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2422" spans="1:11">
@@ -85490,7 +85490,7 @@
         <v>0</v>
       </c>
       <c r="K2422" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2423" spans="1:11">
@@ -85525,7 +85525,7 @@
         <v>3</v>
       </c>
       <c r="K2423" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2424" spans="1:11">
@@ -85560,7 +85560,7 @@
         <v>6</v>
       </c>
       <c r="K2424" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2425" spans="1:11">
@@ -85595,7 +85595,7 @@
         <v>2</v>
       </c>
       <c r="K2425" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2426" spans="1:11">
@@ -85630,7 +85630,7 @@
         <v>1</v>
       </c>
       <c r="K2426" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2427" spans="1:11">
@@ -85665,7 +85665,7 @@
         <v>17</v>
       </c>
       <c r="K2427" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2428" spans="1:11">
@@ -85700,7 +85700,7 @@
         <v>9</v>
       </c>
       <c r="K2428" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2429" spans="1:11">
@@ -85735,7 +85735,7 @@
         <v>8</v>
       </c>
       <c r="K2429" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2430" spans="1:11">
@@ -85770,7 +85770,7 @@
         <v>6</v>
       </c>
       <c r="K2430" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2431" spans="1:11">
@@ -85805,7 +85805,7 @@
         <v>2</v>
       </c>
       <c r="K2431" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2432" spans="1:11">
@@ -85840,7 +85840,7 @@
         <v>8</v>
       </c>
       <c r="K2432" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2433" spans="1:11">
@@ -85875,7 +85875,7 @@
         <v>4</v>
       </c>
       <c r="K2433" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2434" spans="1:11">
@@ -85910,7 +85910,7 @@
         <v>8</v>
       </c>
       <c r="K2434" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2435" spans="1:11">
@@ -85945,7 +85945,7 @@
         <v>6</v>
       </c>
       <c r="K2435" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2436" spans="1:11">
@@ -85980,7 +85980,7 @@
         <v>6</v>
       </c>
       <c r="K2436" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2437" spans="1:11">
@@ -86015,7 +86015,7 @@
         <v>1</v>
       </c>
       <c r="K2437" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2438" spans="1:11">
@@ -86050,7 +86050,7 @@
         <v>20</v>
       </c>
       <c r="K2438" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2439" spans="1:11">
@@ -86085,7 +86085,7 @@
         <v>5</v>
       </c>
       <c r="K2439" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2440" spans="1:11">
@@ -86120,7 +86120,7 @@
         <v>17</v>
       </c>
       <c r="K2440" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2441" spans="1:11">
@@ -86155,7 +86155,7 @@
         <v>1</v>
       </c>
       <c r="K2441" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2442" spans="1:11">
@@ -86190,7 +86190,7 @@
         <v>3</v>
       </c>
       <c r="K2442" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2443" spans="1:11">
@@ -86225,7 +86225,7 @@
         <v>0</v>
       </c>
       <c r="K2443" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2444" spans="1:11">
@@ -86260,7 +86260,7 @@
         <v>1</v>
       </c>
       <c r="K2444" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2445" spans="1:11">
@@ -86295,7 +86295,7 @@
         <v>0</v>
       </c>
       <c r="K2445" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2446" spans="1:11">
@@ -86330,7 +86330,7 @@
         <v>1</v>
       </c>
       <c r="K2446" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2447" spans="1:11">
@@ -86365,7 +86365,7 @@
         <v>1</v>
       </c>
       <c r="K2447" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2448" spans="1:11">
@@ -86400,7 +86400,7 @@
         <v>2</v>
       </c>
       <c r="K2448" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2449" spans="1:11">
@@ -86435,7 +86435,7 @@
         <v>2</v>
       </c>
       <c r="K2449" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2450" spans="1:11">
@@ -86470,7 +86470,7 @@
         <v>2</v>
       </c>
       <c r="K2450" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2451" spans="1:11">
@@ -86505,7 +86505,7 @@
         <v>3</v>
       </c>
       <c r="K2451" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2452" spans="1:11">
@@ -86540,7 +86540,7 @@
         <v>2</v>
       </c>
       <c r="K2452" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2453" spans="1:11">
@@ -86575,7 +86575,7 @@
         <v>2</v>
       </c>
       <c r="K2453" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2454" spans="1:11">
@@ -86610,7 +86610,7 @@
         <v>2</v>
       </c>
       <c r="K2454" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2455" spans="1:11">
@@ -86645,7 +86645,7 @@
         <v>11</v>
       </c>
       <c r="K2455" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2456" spans="1:11">
@@ -86680,7 +86680,7 @@
         <v>5</v>
       </c>
       <c r="K2456" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2457" spans="1:11">
@@ -86715,7 +86715,7 @@
         <v>8</v>
       </c>
       <c r="K2457" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2458" spans="1:11">
@@ -86750,7 +86750,7 @@
         <v>9</v>
       </c>
       <c r="K2458" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2459" spans="1:11">
@@ -86785,7 +86785,7 @@
         <v>2</v>
       </c>
       <c r="K2459" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2460" spans="1:11">
@@ -86820,7 +86820,7 @@
         <v>4</v>
       </c>
       <c r="K2460" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2461" spans="1:11">
@@ -86855,7 +86855,7 @@
         <v>4</v>
       </c>
       <c r="K2461" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2462" spans="1:11">
@@ -86890,7 +86890,7 @@
         <v>10</v>
       </c>
       <c r="K2462" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2463" spans="1:11">
@@ -86925,7 +86925,7 @@
         <v>9</v>
       </c>
       <c r="K2463" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2464" spans="1:11">
@@ -86960,7 +86960,7 @@
         <v>4</v>
       </c>
       <c r="K2464" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2465" spans="1:11">
@@ -86995,7 +86995,7 @@
         <v>4</v>
       </c>
       <c r="K2465" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2466" spans="1:11">
@@ -87030,7 +87030,7 @@
         <v>3</v>
       </c>
       <c r="K2466" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2467" spans="1:11">
@@ -87065,7 +87065,7 @@
         <v>8</v>
       </c>
       <c r="K2467" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2468" spans="1:11">
@@ -87100,7 +87100,7 @@
         <v>7</v>
       </c>
       <c r="K2468" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2469" spans="1:11">
@@ -87135,7 +87135,7 @@
         <v>5</v>
       </c>
       <c r="K2469" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2470" spans="1:11">
@@ -87170,7 +87170,7 @@
         <v>4</v>
       </c>
       <c r="K2470" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2471" spans="1:11">
@@ -87205,7 +87205,7 @@
         <v>6</v>
       </c>
       <c r="K2471" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2472" spans="1:11">
@@ -87240,7 +87240,7 @@
         <v>1</v>
       </c>
       <c r="K2472" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2473" spans="1:11">
@@ -87275,7 +87275,7 @@
         <v>2</v>
       </c>
       <c r="K2473" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2474" spans="1:11">
@@ -87310,7 +87310,7 @@
         <v>1</v>
       </c>
       <c r="K2474" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2475" spans="1:11">
@@ -87345,7 +87345,7 @@
         <v>1</v>
       </c>
       <c r="K2475" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2476" spans="1:11">
@@ -87380,7 +87380,7 @@
         <v>1</v>
       </c>
       <c r="K2476" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2477" spans="1:11">
@@ -87415,7 +87415,7 @@
         <v>0</v>
       </c>
       <c r="K2477" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2478" spans="1:11">
@@ -87450,7 +87450,7 @@
         <v>1</v>
       </c>
       <c r="K2478" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2479" spans="1:11">
@@ -87485,7 +87485,7 @@
         <v>4</v>
       </c>
       <c r="K2479" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2480" spans="1:11">
@@ -87520,7 +87520,7 @@
         <v>4</v>
       </c>
       <c r="K2480" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2481" spans="1:11">
@@ -87555,7 +87555,7 @@
         <v>5</v>
       </c>
       <c r="K2481" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2482" spans="1:11">
@@ -87590,7 +87590,7 @@
         <v>4</v>
       </c>
       <c r="K2482" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2483" spans="1:11">
@@ -87625,7 +87625,7 @@
         <v>5</v>
       </c>
       <c r="K2483" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2484" spans="1:11">
@@ -87660,7 +87660,7 @@
         <v>9</v>
       </c>
       <c r="K2484" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2485" spans="1:11">
@@ -87695,7 +87695,7 @@
         <v>16</v>
       </c>
       <c r="K2485" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2486" spans="1:11">
@@ -87730,7 +87730,7 @@
         <v>6</v>
       </c>
       <c r="K2486" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2487" spans="1:11">
@@ -87765,7 +87765,7 @@
         <v>6</v>
       </c>
       <c r="K2487" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2488" spans="1:11">
@@ -87800,7 +87800,7 @@
         <v>4</v>
       </c>
       <c r="K2488" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2489" spans="1:11">
@@ -87835,7 +87835,7 @@
         <v>3</v>
       </c>
       <c r="K2489" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2490" spans="1:11">
@@ -87870,7 +87870,7 @@
         <v>3</v>
       </c>
       <c r="K2490" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2491" spans="1:11">
@@ -87905,7 +87905,7 @@
         <v>3</v>
       </c>
       <c r="K2491" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2492" spans="1:11">
@@ -87940,7 +87940,7 @@
         <v>2</v>
       </c>
       <c r="K2492" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2493" spans="1:11">
@@ -87975,7 +87975,7 @@
         <v>7</v>
       </c>
       <c r="K2493" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2494" spans="1:11">
@@ -88010,7 +88010,7 @@
         <v>25</v>
       </c>
       <c r="K2494" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2495" spans="1:11">
@@ -88045,7 +88045,7 @@
         <v>47</v>
       </c>
       <c r="K2495" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2496" spans="1:11">
@@ -88080,7 +88080,7 @@
         <v>2</v>
       </c>
       <c r="K2496" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
       </c>
     </row>
     <row r="2497" spans="1:11">
@@ -88115,7 +88115,5467 @@
         <v>15</v>
       </c>
       <c r="K2497" s="2">
-        <v>45541.61169382433</v>
+        <v>45541.61169381945</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:11">
+      <c r="A2498" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2498">
+        <v>61</v>
+      </c>
+      <c r="G2498">
+        <v>36</v>
+      </c>
+      <c r="H2498" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2498">
+        <v>0</v>
+      </c>
+      <c r="J2498">
+        <v>36</v>
+      </c>
+      <c r="K2498" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:11">
+      <c r="A2499" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2499">
+        <v>24</v>
+      </c>
+      <c r="G2499">
+        <v>20</v>
+      </c>
+      <c r="H2499" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2499">
+        <v>0</v>
+      </c>
+      <c r="J2499">
+        <v>20</v>
+      </c>
+      <c r="K2499" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:11">
+      <c r="A2500" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2500">
+        <v>26</v>
+      </c>
+      <c r="G2500">
+        <v>13</v>
+      </c>
+      <c r="H2500" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2500">
+        <v>0</v>
+      </c>
+      <c r="J2500">
+        <v>13</v>
+      </c>
+      <c r="K2500" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:11">
+      <c r="A2501" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2501">
+        <v>65</v>
+      </c>
+      <c r="G2501">
+        <v>35</v>
+      </c>
+      <c r="H2501" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2501">
+        <v>0</v>
+      </c>
+      <c r="J2501">
+        <v>35</v>
+      </c>
+      <c r="K2501" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:11">
+      <c r="A2502" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2502">
+        <v>21</v>
+      </c>
+      <c r="G2502">
+        <v>10</v>
+      </c>
+      <c r="H2502" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2502">
+        <v>0</v>
+      </c>
+      <c r="J2502">
+        <v>10</v>
+      </c>
+      <c r="K2502" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:11">
+      <c r="A2503" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2503">
+        <v>14</v>
+      </c>
+      <c r="G2503">
+        <v>7</v>
+      </c>
+      <c r="H2503" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2503">
+        <v>0</v>
+      </c>
+      <c r="J2503">
+        <v>7</v>
+      </c>
+      <c r="K2503" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:11">
+      <c r="A2504" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2504">
+        <v>4</v>
+      </c>
+      <c r="G2504">
+        <v>1</v>
+      </c>
+      <c r="H2504" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2504">
+        <v>0</v>
+      </c>
+      <c r="J2504">
+        <v>1</v>
+      </c>
+      <c r="K2504" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:11">
+      <c r="A2505" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2505">
+        <v>5</v>
+      </c>
+      <c r="G2505">
+        <v>3</v>
+      </c>
+      <c r="H2505" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2505">
+        <v>0</v>
+      </c>
+      <c r="J2505">
+        <v>3</v>
+      </c>
+      <c r="K2505" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:11">
+      <c r="A2506" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2506">
+        <v>201</v>
+      </c>
+      <c r="G2506">
+        <v>85</v>
+      </c>
+      <c r="H2506" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2506">
+        <v>0</v>
+      </c>
+      <c r="J2506">
+        <v>85</v>
+      </c>
+      <c r="K2506" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:11">
+      <c r="A2507" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2507">
+        <v>143</v>
+      </c>
+      <c r="G2507">
+        <v>75</v>
+      </c>
+      <c r="H2507" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2507">
+        <v>0</v>
+      </c>
+      <c r="J2507">
+        <v>75</v>
+      </c>
+      <c r="K2507" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:11">
+      <c r="A2508" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2508">
+        <v>214</v>
+      </c>
+      <c r="G2508">
+        <v>110</v>
+      </c>
+      <c r="H2508" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2508">
+        <v>0</v>
+      </c>
+      <c r="J2508">
+        <v>110</v>
+      </c>
+      <c r="K2508" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:11">
+      <c r="A2509" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2509">
+        <v>72</v>
+      </c>
+      <c r="G2509">
+        <v>34</v>
+      </c>
+      <c r="H2509" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2509">
+        <v>0</v>
+      </c>
+      <c r="J2509">
+        <v>34</v>
+      </c>
+      <c r="K2509" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:11">
+      <c r="A2510" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2510">
+        <v>66</v>
+      </c>
+      <c r="G2510">
+        <v>28</v>
+      </c>
+      <c r="H2510" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2510">
+        <v>0</v>
+      </c>
+      <c r="J2510">
+        <v>28</v>
+      </c>
+      <c r="K2510" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:11">
+      <c r="A2511" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2511">
+        <v>92</v>
+      </c>
+      <c r="G2511">
+        <v>24</v>
+      </c>
+      <c r="H2511" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2511">
+        <v>0</v>
+      </c>
+      <c r="J2511">
+        <v>24</v>
+      </c>
+      <c r="K2511" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:11">
+      <c r="A2512" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2512">
+        <v>85</v>
+      </c>
+      <c r="G2512">
+        <v>41</v>
+      </c>
+      <c r="H2512" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2512">
+        <v>0</v>
+      </c>
+      <c r="J2512">
+        <v>41</v>
+      </c>
+      <c r="K2512" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:11">
+      <c r="A2513" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2513">
+        <v>40</v>
+      </c>
+      <c r="G2513">
+        <v>18</v>
+      </c>
+      <c r="H2513" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2513">
+        <v>0</v>
+      </c>
+      <c r="J2513">
+        <v>18</v>
+      </c>
+      <c r="K2513" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:11">
+      <c r="A2514" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2514">
+        <v>29</v>
+      </c>
+      <c r="G2514">
+        <v>13</v>
+      </c>
+      <c r="H2514" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2514">
+        <v>0</v>
+      </c>
+      <c r="J2514">
+        <v>13</v>
+      </c>
+      <c r="K2514" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:11">
+      <c r="A2515" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2515">
+        <v>12</v>
+      </c>
+      <c r="G2515">
+        <v>2</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2515">
+        <v>0</v>
+      </c>
+      <c r="J2515">
+        <v>2</v>
+      </c>
+      <c r="K2515" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:11">
+      <c r="A2516" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2516">
+        <v>52</v>
+      </c>
+      <c r="G2516">
+        <v>19</v>
+      </c>
+      <c r="H2516" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2516">
+        <v>0</v>
+      </c>
+      <c r="J2516">
+        <v>19</v>
+      </c>
+      <c r="K2516" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:11">
+      <c r="A2517" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2517">
+        <v>68</v>
+      </c>
+      <c r="G2517">
+        <v>35</v>
+      </c>
+      <c r="H2517" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2517">
+        <v>0</v>
+      </c>
+      <c r="J2517">
+        <v>35</v>
+      </c>
+      <c r="K2517" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:11">
+      <c r="A2518" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2518">
+        <v>86</v>
+      </c>
+      <c r="G2518">
+        <v>35</v>
+      </c>
+      <c r="H2518" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2518">
+        <v>0</v>
+      </c>
+      <c r="J2518">
+        <v>35</v>
+      </c>
+      <c r="K2518" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:11">
+      <c r="A2519" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2519">
+        <v>98</v>
+      </c>
+      <c r="G2519">
+        <v>42</v>
+      </c>
+      <c r="H2519" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2519">
+        <v>0</v>
+      </c>
+      <c r="J2519">
+        <v>42</v>
+      </c>
+      <c r="K2519" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:11">
+      <c r="A2520" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2520">
+        <v>99</v>
+      </c>
+      <c r="G2520">
+        <v>48</v>
+      </c>
+      <c r="H2520" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2520">
+        <v>0</v>
+      </c>
+      <c r="J2520">
+        <v>48</v>
+      </c>
+      <c r="K2520" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:11">
+      <c r="A2521" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2521">
+        <v>92</v>
+      </c>
+      <c r="G2521">
+        <v>34</v>
+      </c>
+      <c r="H2521" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2521">
+        <v>0</v>
+      </c>
+      <c r="J2521">
+        <v>34</v>
+      </c>
+      <c r="K2521" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:11">
+      <c r="A2522" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2522">
+        <v>54</v>
+      </c>
+      <c r="G2522">
+        <v>26</v>
+      </c>
+      <c r="H2522" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2522">
+        <v>0</v>
+      </c>
+      <c r="J2522">
+        <v>26</v>
+      </c>
+      <c r="K2522" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:11">
+      <c r="A2523" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2523">
+        <v>138</v>
+      </c>
+      <c r="G2523">
+        <v>66</v>
+      </c>
+      <c r="H2523" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2523">
+        <v>0</v>
+      </c>
+      <c r="J2523">
+        <v>66</v>
+      </c>
+      <c r="K2523" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:11">
+      <c r="A2524" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2524">
+        <v>89</v>
+      </c>
+      <c r="G2524">
+        <v>25</v>
+      </c>
+      <c r="H2524" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2524">
+        <v>0</v>
+      </c>
+      <c r="J2524">
+        <v>25</v>
+      </c>
+      <c r="K2524" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:11">
+      <c r="A2525" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2525">
+        <v>90</v>
+      </c>
+      <c r="G2525">
+        <v>52</v>
+      </c>
+      <c r="H2525" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2525">
+        <v>0</v>
+      </c>
+      <c r="J2525">
+        <v>52</v>
+      </c>
+      <c r="K2525" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:11">
+      <c r="A2526" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2526">
+        <v>98</v>
+      </c>
+      <c r="G2526">
+        <v>48</v>
+      </c>
+      <c r="H2526" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2526">
+        <v>0</v>
+      </c>
+      <c r="J2526">
+        <v>48</v>
+      </c>
+      <c r="K2526" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:11">
+      <c r="A2527" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2527">
+        <v>41</v>
+      </c>
+      <c r="G2527">
+        <v>19</v>
+      </c>
+      <c r="H2527" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2527">
+        <v>0</v>
+      </c>
+      <c r="J2527">
+        <v>19</v>
+      </c>
+      <c r="K2527" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:11">
+      <c r="A2528" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2528">
+        <v>98</v>
+      </c>
+      <c r="G2528">
+        <v>49</v>
+      </c>
+      <c r="H2528" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2528">
+        <v>0</v>
+      </c>
+      <c r="J2528">
+        <v>49</v>
+      </c>
+      <c r="K2528" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:11">
+      <c r="A2529" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2529">
+        <v>128</v>
+      </c>
+      <c r="G2529">
+        <v>60</v>
+      </c>
+      <c r="H2529" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2529">
+        <v>0</v>
+      </c>
+      <c r="J2529">
+        <v>60</v>
+      </c>
+      <c r="K2529" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:11">
+      <c r="A2530" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2530">
+        <v>96</v>
+      </c>
+      <c r="G2530">
+        <v>52</v>
+      </c>
+      <c r="H2530" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2530">
+        <v>0</v>
+      </c>
+      <c r="J2530">
+        <v>52</v>
+      </c>
+      <c r="K2530" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:11">
+      <c r="A2531" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2531">
+        <v>61</v>
+      </c>
+      <c r="G2531">
+        <v>32</v>
+      </c>
+      <c r="H2531" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2531">
+        <v>0</v>
+      </c>
+      <c r="J2531">
+        <v>32</v>
+      </c>
+      <c r="K2531" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:11">
+      <c r="A2532" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2532">
+        <v>31</v>
+      </c>
+      <c r="G2532">
+        <v>17</v>
+      </c>
+      <c r="H2532" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2532">
+        <v>0</v>
+      </c>
+      <c r="J2532">
+        <v>17</v>
+      </c>
+      <c r="K2532" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:11">
+      <c r="A2533" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2533">
+        <v>66</v>
+      </c>
+      <c r="G2533">
+        <v>30</v>
+      </c>
+      <c r="H2533" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2533">
+        <v>0</v>
+      </c>
+      <c r="J2533">
+        <v>30</v>
+      </c>
+      <c r="K2533" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:11">
+      <c r="A2534" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2534">
+        <v>44</v>
+      </c>
+      <c r="G2534">
+        <v>24</v>
+      </c>
+      <c r="H2534" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2534">
+        <v>0</v>
+      </c>
+      <c r="J2534">
+        <v>24</v>
+      </c>
+      <c r="K2534" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:11">
+      <c r="A2535" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2535">
+        <v>110</v>
+      </c>
+      <c r="G2535">
+        <v>39</v>
+      </c>
+      <c r="H2535" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2535">
+        <v>0</v>
+      </c>
+      <c r="J2535">
+        <v>39</v>
+      </c>
+      <c r="K2535" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:11">
+      <c r="A2536" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2536">
+        <v>136</v>
+      </c>
+      <c r="G2536">
+        <v>54</v>
+      </c>
+      <c r="H2536" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2536">
+        <v>0</v>
+      </c>
+      <c r="J2536">
+        <v>54</v>
+      </c>
+      <c r="K2536" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:11">
+      <c r="A2537" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2537">
+        <v>173</v>
+      </c>
+      <c r="G2537">
+        <v>61</v>
+      </c>
+      <c r="H2537" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2537">
+        <v>0</v>
+      </c>
+      <c r="J2537">
+        <v>61</v>
+      </c>
+      <c r="K2537" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:11">
+      <c r="A2538" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2538">
+        <v>150</v>
+      </c>
+      <c r="G2538">
+        <v>71</v>
+      </c>
+      <c r="H2538" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2538">
+        <v>0</v>
+      </c>
+      <c r="J2538">
+        <v>71</v>
+      </c>
+      <c r="K2538" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:11">
+      <c r="A2539" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2539">
+        <v>46</v>
+      </c>
+      <c r="G2539">
+        <v>17</v>
+      </c>
+      <c r="H2539" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2539">
+        <v>0</v>
+      </c>
+      <c r="J2539">
+        <v>17</v>
+      </c>
+      <c r="K2539" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:11">
+      <c r="A2540" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2540">
+        <v>136</v>
+      </c>
+      <c r="G2540">
+        <v>63</v>
+      </c>
+      <c r="H2540" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2540">
+        <v>0</v>
+      </c>
+      <c r="J2540">
+        <v>63</v>
+      </c>
+      <c r="K2540" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:11">
+      <c r="A2541" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2541">
+        <v>54</v>
+      </c>
+      <c r="G2541">
+        <v>31</v>
+      </c>
+      <c r="H2541" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2541">
+        <v>0</v>
+      </c>
+      <c r="J2541">
+        <v>31</v>
+      </c>
+      <c r="K2541" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:11">
+      <c r="A2542" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2542">
+        <v>119</v>
+      </c>
+      <c r="G2542">
+        <v>55</v>
+      </c>
+      <c r="H2542" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2542">
+        <v>0</v>
+      </c>
+      <c r="J2542">
+        <v>55</v>
+      </c>
+      <c r="K2542" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:11">
+      <c r="A2543" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2543">
+        <v>198</v>
+      </c>
+      <c r="G2543">
+        <v>84</v>
+      </c>
+      <c r="H2543" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2543">
+        <v>0</v>
+      </c>
+      <c r="J2543">
+        <v>84</v>
+      </c>
+      <c r="K2543" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:11">
+      <c r="A2544" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2544">
+        <v>99</v>
+      </c>
+      <c r="G2544">
+        <v>30</v>
+      </c>
+      <c r="H2544" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2544">
+        <v>0</v>
+      </c>
+      <c r="J2544">
+        <v>30</v>
+      </c>
+      <c r="K2544" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:11">
+      <c r="A2545" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2545">
+        <v>113</v>
+      </c>
+      <c r="G2545">
+        <v>51</v>
+      </c>
+      <c r="H2545" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2545">
+        <v>0</v>
+      </c>
+      <c r="J2545">
+        <v>51</v>
+      </c>
+      <c r="K2545" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:11">
+      <c r="A2546" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2546">
+        <v>96</v>
+      </c>
+      <c r="G2546">
+        <v>34</v>
+      </c>
+      <c r="H2546" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2546">
+        <v>0</v>
+      </c>
+      <c r="J2546">
+        <v>34</v>
+      </c>
+      <c r="K2546" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:11">
+      <c r="A2547" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2547">
+        <v>96</v>
+      </c>
+      <c r="G2547">
+        <v>34</v>
+      </c>
+      <c r="H2547" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2547">
+        <v>0</v>
+      </c>
+      <c r="J2547">
+        <v>34</v>
+      </c>
+      <c r="K2547" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:11">
+      <c r="A2548" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2548">
+        <v>5</v>
+      </c>
+      <c r="G2548">
+        <v>3</v>
+      </c>
+      <c r="H2548" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2548">
+        <v>0</v>
+      </c>
+      <c r="J2548">
+        <v>3</v>
+      </c>
+      <c r="K2548" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:11">
+      <c r="A2549" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2549" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2549">
+        <v>29</v>
+      </c>
+      <c r="G2549">
+        <v>14</v>
+      </c>
+      <c r="H2549" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2549">
+        <v>0</v>
+      </c>
+      <c r="J2549">
+        <v>14</v>
+      </c>
+      <c r="K2549" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:11">
+      <c r="A2550" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2550" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2550">
+        <v>11</v>
+      </c>
+      <c r="G2550">
+        <v>7</v>
+      </c>
+      <c r="H2550" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2550">
+        <v>0</v>
+      </c>
+      <c r="J2550">
+        <v>7</v>
+      </c>
+      <c r="K2550" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:11">
+      <c r="A2551" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2551" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2551">
+        <v>7</v>
+      </c>
+      <c r="G2551">
+        <v>0</v>
+      </c>
+      <c r="H2551" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2551">
+        <v>0</v>
+      </c>
+      <c r="J2551">
+        <v>0</v>
+      </c>
+      <c r="K2551" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:11">
+      <c r="A2552" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2552" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2552">
+        <v>0</v>
+      </c>
+      <c r="G2552">
+        <v>0</v>
+      </c>
+      <c r="H2552" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2552">
+        <v>0</v>
+      </c>
+      <c r="J2552">
+        <v>0</v>
+      </c>
+      <c r="K2552" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:11">
+      <c r="A2553" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2553" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2553">
+        <v>2</v>
+      </c>
+      <c r="G2553">
+        <v>0</v>
+      </c>
+      <c r="H2553" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2553">
+        <v>0</v>
+      </c>
+      <c r="J2553">
+        <v>0</v>
+      </c>
+      <c r="K2553" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:11">
+      <c r="A2554" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2554" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2554" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2554">
+        <v>4</v>
+      </c>
+      <c r="G2554">
+        <v>1</v>
+      </c>
+      <c r="H2554" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2554">
+        <v>0</v>
+      </c>
+      <c r="J2554">
+        <v>1</v>
+      </c>
+      <c r="K2554" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:11">
+      <c r="A2555" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2555" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2555">
+        <v>6</v>
+      </c>
+      <c r="G2555">
+        <v>1</v>
+      </c>
+      <c r="H2555" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2555">
+        <v>0</v>
+      </c>
+      <c r="J2555">
+        <v>1</v>
+      </c>
+      <c r="K2555" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:11">
+      <c r="A2556" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2556" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2556">
+        <v>10</v>
+      </c>
+      <c r="G2556">
+        <v>3</v>
+      </c>
+      <c r="H2556" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2556">
+        <v>0</v>
+      </c>
+      <c r="J2556">
+        <v>3</v>
+      </c>
+      <c r="K2556" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:11">
+      <c r="A2557" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2557">
+        <v>0</v>
+      </c>
+      <c r="G2557">
+        <v>0</v>
+      </c>
+      <c r="H2557" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2557">
+        <v>0</v>
+      </c>
+      <c r="J2557">
+        <v>0</v>
+      </c>
+      <c r="K2557" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:11">
+      <c r="A2558" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2558">
+        <v>0</v>
+      </c>
+      <c r="G2558">
+        <v>0</v>
+      </c>
+      <c r="H2558" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2558">
+        <v>0</v>
+      </c>
+      <c r="J2558">
+        <v>0</v>
+      </c>
+      <c r="K2558" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:11">
+      <c r="A2559" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2559">
+        <v>1</v>
+      </c>
+      <c r="G2559">
+        <v>0</v>
+      </c>
+      <c r="H2559" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2559">
+        <v>0</v>
+      </c>
+      <c r="J2559">
+        <v>0</v>
+      </c>
+      <c r="K2559" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:11">
+      <c r="A2560" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2560" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2560" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2560">
+        <v>1</v>
+      </c>
+      <c r="G2560">
+        <v>1</v>
+      </c>
+      <c r="H2560" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2560">
+        <v>0</v>
+      </c>
+      <c r="J2560">
+        <v>1</v>
+      </c>
+      <c r="K2560" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:11">
+      <c r="A2561" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2561">
+        <v>1</v>
+      </c>
+      <c r="G2561">
+        <v>0</v>
+      </c>
+      <c r="H2561" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2561">
+        <v>0</v>
+      </c>
+      <c r="J2561">
+        <v>0</v>
+      </c>
+      <c r="K2561" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:11">
+      <c r="A2562" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2562" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2562">
+        <v>98</v>
+      </c>
+      <c r="G2562">
+        <v>43</v>
+      </c>
+      <c r="H2562" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2562">
+        <v>0</v>
+      </c>
+      <c r="J2562">
+        <v>43</v>
+      </c>
+      <c r="K2562" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:11">
+      <c r="A2563" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2563">
+        <v>6</v>
+      </c>
+      <c r="G2563">
+        <v>2</v>
+      </c>
+      <c r="H2563" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2563">
+        <v>0</v>
+      </c>
+      <c r="J2563">
+        <v>2</v>
+      </c>
+      <c r="K2563" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:11">
+      <c r="A2564" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2564">
+        <v>59</v>
+      </c>
+      <c r="G2564">
+        <v>24</v>
+      </c>
+      <c r="H2564" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2564">
+        <v>0</v>
+      </c>
+      <c r="J2564">
+        <v>24</v>
+      </c>
+      <c r="K2564" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:11">
+      <c r="A2565" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2565">
+        <v>52</v>
+      </c>
+      <c r="G2565">
+        <v>15</v>
+      </c>
+      <c r="H2565" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2565">
+        <v>0</v>
+      </c>
+      <c r="J2565">
+        <v>15</v>
+      </c>
+      <c r="K2565" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:11">
+      <c r="A2566" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2566">
+        <v>28</v>
+      </c>
+      <c r="G2566">
+        <v>17</v>
+      </c>
+      <c r="H2566" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2566">
+        <v>0</v>
+      </c>
+      <c r="J2566">
+        <v>17</v>
+      </c>
+      <c r="K2566" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:11">
+      <c r="A2567" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2567">
+        <v>2</v>
+      </c>
+      <c r="G2567">
+        <v>1</v>
+      </c>
+      <c r="H2567" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2567">
+        <v>0</v>
+      </c>
+      <c r="J2567">
+        <v>1</v>
+      </c>
+      <c r="K2567" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:11">
+      <c r="A2568" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2568">
+        <v>0</v>
+      </c>
+      <c r="G2568">
+        <v>0</v>
+      </c>
+      <c r="H2568" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2568">
+        <v>0</v>
+      </c>
+      <c r="J2568">
+        <v>0</v>
+      </c>
+      <c r="K2568" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:11">
+      <c r="A2569" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2569">
+        <v>4</v>
+      </c>
+      <c r="G2569">
+        <v>1</v>
+      </c>
+      <c r="H2569" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2569">
+        <v>0</v>
+      </c>
+      <c r="J2569">
+        <v>1</v>
+      </c>
+      <c r="K2569" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:11">
+      <c r="A2570" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2570">
+        <v>1</v>
+      </c>
+      <c r="G2570">
+        <v>0</v>
+      </c>
+      <c r="H2570" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2570">
+        <v>0</v>
+      </c>
+      <c r="J2570">
+        <v>0</v>
+      </c>
+      <c r="K2570" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:11">
+      <c r="A2571" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2571">
+        <v>13</v>
+      </c>
+      <c r="G2571">
+        <v>6</v>
+      </c>
+      <c r="H2571" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2571">
+        <v>0</v>
+      </c>
+      <c r="J2571">
+        <v>6</v>
+      </c>
+      <c r="K2571" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:11">
+      <c r="A2572" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2572">
+        <v>11</v>
+      </c>
+      <c r="G2572">
+        <v>3</v>
+      </c>
+      <c r="H2572" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2572">
+        <v>0</v>
+      </c>
+      <c r="J2572">
+        <v>3</v>
+      </c>
+      <c r="K2572" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:11">
+      <c r="A2573" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2573">
+        <v>14</v>
+      </c>
+      <c r="G2573">
+        <v>7</v>
+      </c>
+      <c r="H2573" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2573">
+        <v>0</v>
+      </c>
+      <c r="J2573">
+        <v>7</v>
+      </c>
+      <c r="K2573" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:11">
+      <c r="A2574" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2574">
+        <v>5</v>
+      </c>
+      <c r="G2574">
+        <v>2</v>
+      </c>
+      <c r="H2574" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2574">
+        <v>0</v>
+      </c>
+      <c r="J2574">
+        <v>2</v>
+      </c>
+      <c r="K2574" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:11">
+      <c r="A2575" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2575">
+        <v>6</v>
+      </c>
+      <c r="G2575">
+        <v>3</v>
+      </c>
+      <c r="H2575" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2575">
+        <v>0</v>
+      </c>
+      <c r="J2575">
+        <v>3</v>
+      </c>
+      <c r="K2575" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:11">
+      <c r="A2576" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2576">
+        <v>7</v>
+      </c>
+      <c r="G2576">
+        <v>2</v>
+      </c>
+      <c r="H2576" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2576">
+        <v>0</v>
+      </c>
+      <c r="J2576">
+        <v>2</v>
+      </c>
+      <c r="K2576" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:11">
+      <c r="A2577" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2577">
+        <v>1</v>
+      </c>
+      <c r="G2577">
+        <v>0</v>
+      </c>
+      <c r="H2577" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2577">
+        <v>0</v>
+      </c>
+      <c r="J2577">
+        <v>0</v>
+      </c>
+      <c r="K2577" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:11">
+      <c r="A2578" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2578">
+        <v>1</v>
+      </c>
+      <c r="G2578">
+        <v>0</v>
+      </c>
+      <c r="H2578" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2578">
+        <v>0</v>
+      </c>
+      <c r="J2578">
+        <v>0</v>
+      </c>
+      <c r="K2578" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:11">
+      <c r="A2579" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2579">
+        <v>13</v>
+      </c>
+      <c r="G2579">
+        <v>3</v>
+      </c>
+      <c r="H2579" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2579">
+        <v>0</v>
+      </c>
+      <c r="J2579">
+        <v>3</v>
+      </c>
+      <c r="K2579" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:11">
+      <c r="A2580" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2580">
+        <v>17</v>
+      </c>
+      <c r="G2580">
+        <v>6</v>
+      </c>
+      <c r="H2580" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2580">
+        <v>0</v>
+      </c>
+      <c r="J2580">
+        <v>6</v>
+      </c>
+      <c r="K2580" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:11">
+      <c r="A2581" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2581">
+        <v>8</v>
+      </c>
+      <c r="G2581">
+        <v>2</v>
+      </c>
+      <c r="H2581" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2581">
+        <v>0</v>
+      </c>
+      <c r="J2581">
+        <v>2</v>
+      </c>
+      <c r="K2581" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:11">
+      <c r="A2582" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2582">
+        <v>2</v>
+      </c>
+      <c r="G2582">
+        <v>1</v>
+      </c>
+      <c r="H2582" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2582">
+        <v>0</v>
+      </c>
+      <c r="J2582">
+        <v>1</v>
+      </c>
+      <c r="K2582" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:11">
+      <c r="A2583" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2583">
+        <v>49</v>
+      </c>
+      <c r="G2583">
+        <v>17</v>
+      </c>
+      <c r="H2583" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2583">
+        <v>0</v>
+      </c>
+      <c r="J2583">
+        <v>17</v>
+      </c>
+      <c r="K2583" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:11">
+      <c r="A2584" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2584">
+        <v>23</v>
+      </c>
+      <c r="G2584">
+        <v>9</v>
+      </c>
+      <c r="H2584" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2584">
+        <v>0</v>
+      </c>
+      <c r="J2584">
+        <v>9</v>
+      </c>
+      <c r="K2584" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:11">
+      <c r="A2585" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2585">
+        <v>36</v>
+      </c>
+      <c r="G2585">
+        <v>8</v>
+      </c>
+      <c r="H2585" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2585">
+        <v>0</v>
+      </c>
+      <c r="J2585">
+        <v>8</v>
+      </c>
+      <c r="K2585" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:11">
+      <c r="A2586" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2586">
+        <v>12</v>
+      </c>
+      <c r="G2586">
+        <v>6</v>
+      </c>
+      <c r="H2586" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2586">
+        <v>0</v>
+      </c>
+      <c r="J2586">
+        <v>6</v>
+      </c>
+      <c r="K2586" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:11">
+      <c r="A2587" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2587">
+        <v>6</v>
+      </c>
+      <c r="G2587">
+        <v>2</v>
+      </c>
+      <c r="H2587" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2587">
+        <v>0</v>
+      </c>
+      <c r="J2587">
+        <v>2</v>
+      </c>
+      <c r="K2587" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:11">
+      <c r="A2588" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2588">
+        <v>18</v>
+      </c>
+      <c r="G2588">
+        <v>8</v>
+      </c>
+      <c r="H2588" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2588">
+        <v>0</v>
+      </c>
+      <c r="J2588">
+        <v>8</v>
+      </c>
+      <c r="K2588" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:11">
+      <c r="A2589" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2589">
+        <v>18</v>
+      </c>
+      <c r="G2589">
+        <v>4</v>
+      </c>
+      <c r="H2589" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2589">
+        <v>0</v>
+      </c>
+      <c r="J2589">
+        <v>4</v>
+      </c>
+      <c r="K2589" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:11">
+      <c r="A2590" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2590">
+        <v>12</v>
+      </c>
+      <c r="G2590">
+        <v>8</v>
+      </c>
+      <c r="H2590" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2590">
+        <v>0</v>
+      </c>
+      <c r="J2590">
+        <v>8</v>
+      </c>
+      <c r="K2590" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:11">
+      <c r="A2591" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2591">
+        <v>15</v>
+      </c>
+      <c r="G2591">
+        <v>6</v>
+      </c>
+      <c r="H2591" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2591">
+        <v>0</v>
+      </c>
+      <c r="J2591">
+        <v>6</v>
+      </c>
+      <c r="K2591" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:11">
+      <c r="A2592" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2592">
+        <v>14</v>
+      </c>
+      <c r="G2592">
+        <v>6</v>
+      </c>
+      <c r="H2592" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2592">
+        <v>0</v>
+      </c>
+      <c r="J2592">
+        <v>6</v>
+      </c>
+      <c r="K2592" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:11">
+      <c r="A2593" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2593">
+        <v>13</v>
+      </c>
+      <c r="G2593">
+        <v>1</v>
+      </c>
+      <c r="H2593" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2593">
+        <v>0</v>
+      </c>
+      <c r="J2593">
+        <v>1</v>
+      </c>
+      <c r="K2593" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:11">
+      <c r="A2594" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2594">
+        <v>39</v>
+      </c>
+      <c r="G2594">
+        <v>21</v>
+      </c>
+      <c r="H2594" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2594">
+        <v>0</v>
+      </c>
+      <c r="J2594">
+        <v>21</v>
+      </c>
+      <c r="K2594" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:11">
+      <c r="A2595" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2595">
+        <v>11</v>
+      </c>
+      <c r="G2595">
+        <v>5</v>
+      </c>
+      <c r="H2595" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2595">
+        <v>0</v>
+      </c>
+      <c r="J2595">
+        <v>5</v>
+      </c>
+      <c r="K2595" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:11">
+      <c r="A2596" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2596">
+        <v>34</v>
+      </c>
+      <c r="G2596">
+        <v>17</v>
+      </c>
+      <c r="H2596" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2596">
+        <v>0</v>
+      </c>
+      <c r="J2596">
+        <v>17</v>
+      </c>
+      <c r="K2596" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:11">
+      <c r="A2597" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2597">
+        <v>10</v>
+      </c>
+      <c r="G2597">
+        <v>1</v>
+      </c>
+      <c r="H2597" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2597">
+        <v>0</v>
+      </c>
+      <c r="J2597">
+        <v>1</v>
+      </c>
+      <c r="K2597" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:11">
+      <c r="A2598" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2598">
+        <v>3</v>
+      </c>
+      <c r="G2598">
+        <v>3</v>
+      </c>
+      <c r="H2598" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2598">
+        <v>0</v>
+      </c>
+      <c r="J2598">
+        <v>3</v>
+      </c>
+      <c r="K2598" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:11">
+      <c r="A2599" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2599">
+        <v>1</v>
+      </c>
+      <c r="G2599">
+        <v>0</v>
+      </c>
+      <c r="H2599" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2599">
+        <v>0</v>
+      </c>
+      <c r="J2599">
+        <v>0</v>
+      </c>
+      <c r="K2599" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:11">
+      <c r="A2600" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2600">
+        <v>2</v>
+      </c>
+      <c r="G2600">
+        <v>1</v>
+      </c>
+      <c r="H2600" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2600">
+        <v>0</v>
+      </c>
+      <c r="J2600">
+        <v>1</v>
+      </c>
+      <c r="K2600" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:11">
+      <c r="A2601" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2601" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2601">
+        <v>0</v>
+      </c>
+      <c r="G2601">
+        <v>0</v>
+      </c>
+      <c r="H2601" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2601">
+        <v>0</v>
+      </c>
+      <c r="J2601">
+        <v>0</v>
+      </c>
+      <c r="K2601" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:11">
+      <c r="A2602" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2602">
+        <v>2</v>
+      </c>
+      <c r="G2602">
+        <v>1</v>
+      </c>
+      <c r="H2602" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2602">
+        <v>0</v>
+      </c>
+      <c r="J2602">
+        <v>1</v>
+      </c>
+      <c r="K2602" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:11">
+      <c r="A2603" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2603">
+        <v>4</v>
+      </c>
+      <c r="G2603">
+        <v>1</v>
+      </c>
+      <c r="H2603" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2603">
+        <v>0</v>
+      </c>
+      <c r="J2603">
+        <v>1</v>
+      </c>
+      <c r="K2603" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:11">
+      <c r="A2604" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2604">
+        <v>6</v>
+      </c>
+      <c r="G2604">
+        <v>2</v>
+      </c>
+      <c r="H2604" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2604">
+        <v>0</v>
+      </c>
+      <c r="J2604">
+        <v>2</v>
+      </c>
+      <c r="K2604" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:11">
+      <c r="A2605" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2605">
+        <v>2</v>
+      </c>
+      <c r="G2605">
+        <v>2</v>
+      </c>
+      <c r="H2605" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2605">
+        <v>0</v>
+      </c>
+      <c r="J2605">
+        <v>2</v>
+      </c>
+      <c r="K2605" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:11">
+      <c r="A2606" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2606">
+        <v>7</v>
+      </c>
+      <c r="G2606">
+        <v>2</v>
+      </c>
+      <c r="H2606" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2606">
+        <v>0</v>
+      </c>
+      <c r="J2606">
+        <v>2</v>
+      </c>
+      <c r="K2606" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:11">
+      <c r="A2607" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2607">
+        <v>10</v>
+      </c>
+      <c r="G2607">
+        <v>3</v>
+      </c>
+      <c r="H2607" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2607">
+        <v>0</v>
+      </c>
+      <c r="J2607">
+        <v>3</v>
+      </c>
+      <c r="K2607" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:11">
+      <c r="A2608" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2608">
+        <v>14</v>
+      </c>
+      <c r="G2608">
+        <v>2</v>
+      </c>
+      <c r="H2608" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2608">
+        <v>0</v>
+      </c>
+      <c r="J2608">
+        <v>2</v>
+      </c>
+      <c r="K2608" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:11">
+      <c r="A2609" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2609">
+        <v>15</v>
+      </c>
+      <c r="G2609">
+        <v>2</v>
+      </c>
+      <c r="H2609" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2609">
+        <v>0</v>
+      </c>
+      <c r="J2609">
+        <v>2</v>
+      </c>
+      <c r="K2609" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:11">
+      <c r="A2610" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2610" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2610">
+        <v>12</v>
+      </c>
+      <c r="G2610">
+        <v>2</v>
+      </c>
+      <c r="H2610" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2610">
+        <v>0</v>
+      </c>
+      <c r="J2610">
+        <v>2</v>
+      </c>
+      <c r="K2610" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:11">
+      <c r="A2611" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2611" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2611">
+        <v>22</v>
+      </c>
+      <c r="G2611">
+        <v>12</v>
+      </c>
+      <c r="H2611" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2611">
+        <v>0</v>
+      </c>
+      <c r="J2611">
+        <v>12</v>
+      </c>
+      <c r="K2611" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:11">
+      <c r="A2612" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2612" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2612">
+        <v>17</v>
+      </c>
+      <c r="G2612">
+        <v>6</v>
+      </c>
+      <c r="H2612" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2612">
+        <v>0</v>
+      </c>
+      <c r="J2612">
+        <v>6</v>
+      </c>
+      <c r="K2612" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:11">
+      <c r="A2613" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2613" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2613">
+        <v>22</v>
+      </c>
+      <c r="G2613">
+        <v>8</v>
+      </c>
+      <c r="H2613" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2613">
+        <v>0</v>
+      </c>
+      <c r="J2613">
+        <v>8</v>
+      </c>
+      <c r="K2613" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:11">
+      <c r="A2614" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2614" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2614">
+        <v>20</v>
+      </c>
+      <c r="G2614">
+        <v>9</v>
+      </c>
+      <c r="H2614" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2614">
+        <v>0</v>
+      </c>
+      <c r="J2614">
+        <v>9</v>
+      </c>
+      <c r="K2614" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:11">
+      <c r="A2615" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2615" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2615">
+        <v>7</v>
+      </c>
+      <c r="G2615">
+        <v>2</v>
+      </c>
+      <c r="H2615" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2615">
+        <v>0</v>
+      </c>
+      <c r="J2615">
+        <v>2</v>
+      </c>
+      <c r="K2615" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:11">
+      <c r="A2616" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2616" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2616">
+        <v>11</v>
+      </c>
+      <c r="G2616">
+        <v>4</v>
+      </c>
+      <c r="H2616" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2616">
+        <v>0</v>
+      </c>
+      <c r="J2616">
+        <v>4</v>
+      </c>
+      <c r="K2616" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:11">
+      <c r="A2617" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2617" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2617" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2617">
+        <v>17</v>
+      </c>
+      <c r="G2617">
+        <v>4</v>
+      </c>
+      <c r="H2617" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2617">
+        <v>0</v>
+      </c>
+      <c r="J2617">
+        <v>4</v>
+      </c>
+      <c r="K2617" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:11">
+      <c r="A2618" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2618" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2618" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2618">
+        <v>15</v>
+      </c>
+      <c r="G2618">
+        <v>10</v>
+      </c>
+      <c r="H2618" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2618">
+        <v>0</v>
+      </c>
+      <c r="J2618">
+        <v>10</v>
+      </c>
+      <c r="K2618" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:11">
+      <c r="A2619" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2619" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2619">
+        <v>19</v>
+      </c>
+      <c r="G2619">
+        <v>9</v>
+      </c>
+      <c r="H2619" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2619">
+        <v>0</v>
+      </c>
+      <c r="J2619">
+        <v>9</v>
+      </c>
+      <c r="K2619" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:11">
+      <c r="A2620" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2620" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2620" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2620">
+        <v>15</v>
+      </c>
+      <c r="G2620">
+        <v>4</v>
+      </c>
+      <c r="H2620" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2620">
+        <v>0</v>
+      </c>
+      <c r="J2620">
+        <v>4</v>
+      </c>
+      <c r="K2620" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:11">
+      <c r="A2621" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2621" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2621" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2621">
+        <v>9</v>
+      </c>
+      <c r="G2621">
+        <v>4</v>
+      </c>
+      <c r="H2621" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2621">
+        <v>0</v>
+      </c>
+      <c r="J2621">
+        <v>4</v>
+      </c>
+      <c r="K2621" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:11">
+      <c r="A2622" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2622" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2622" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2622">
+        <v>9</v>
+      </c>
+      <c r="G2622">
+        <v>3</v>
+      </c>
+      <c r="H2622" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2622">
+        <v>0</v>
+      </c>
+      <c r="J2622">
+        <v>3</v>
+      </c>
+      <c r="K2622" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:11">
+      <c r="A2623" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2623" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2623">
+        <v>27</v>
+      </c>
+      <c r="G2623">
+        <v>8</v>
+      </c>
+      <c r="H2623" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2623">
+        <v>0</v>
+      </c>
+      <c r="J2623">
+        <v>8</v>
+      </c>
+      <c r="K2623" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:11">
+      <c r="A2624" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2624" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2624">
+        <v>26</v>
+      </c>
+      <c r="G2624">
+        <v>7</v>
+      </c>
+      <c r="H2624" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2624">
+        <v>0</v>
+      </c>
+      <c r="J2624">
+        <v>7</v>
+      </c>
+      <c r="K2624" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:11">
+      <c r="A2625" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2625" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2625">
+        <v>12</v>
+      </c>
+      <c r="G2625">
+        <v>5</v>
+      </c>
+      <c r="H2625" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2625">
+        <v>0</v>
+      </c>
+      <c r="J2625">
+        <v>5</v>
+      </c>
+      <c r="K2625" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:11">
+      <c r="A2626" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2626" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2626">
+        <v>14</v>
+      </c>
+      <c r="G2626">
+        <v>4</v>
+      </c>
+      <c r="H2626" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2626">
+        <v>0</v>
+      </c>
+      <c r="J2626">
+        <v>4</v>
+      </c>
+      <c r="K2626" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:11">
+      <c r="A2627" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2627" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2627">
+        <v>16</v>
+      </c>
+      <c r="G2627">
+        <v>6</v>
+      </c>
+      <c r="H2627" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2627">
+        <v>0</v>
+      </c>
+      <c r="J2627">
+        <v>6</v>
+      </c>
+      <c r="K2627" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:11">
+      <c r="A2628" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2628" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2628" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2628">
+        <v>3</v>
+      </c>
+      <c r="G2628">
+        <v>1</v>
+      </c>
+      <c r="H2628" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2628">
+        <v>0</v>
+      </c>
+      <c r="J2628">
+        <v>1</v>
+      </c>
+      <c r="K2628" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:11">
+      <c r="A2629" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2629" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2629" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2629">
+        <v>3</v>
+      </c>
+      <c r="G2629">
+        <v>2</v>
+      </c>
+      <c r="H2629" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2629">
+        <v>0</v>
+      </c>
+      <c r="J2629">
+        <v>2</v>
+      </c>
+      <c r="K2629" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:11">
+      <c r="A2630" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2630" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2630" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2630">
+        <v>5</v>
+      </c>
+      <c r="G2630">
+        <v>1</v>
+      </c>
+      <c r="H2630" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2630">
+        <v>0</v>
+      </c>
+      <c r="J2630">
+        <v>1</v>
+      </c>
+      <c r="K2630" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:11">
+      <c r="A2631" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2631" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2631">
+        <v>1</v>
+      </c>
+      <c r="G2631">
+        <v>1</v>
+      </c>
+      <c r="H2631" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2631">
+        <v>0</v>
+      </c>
+      <c r="J2631">
+        <v>1</v>
+      </c>
+      <c r="K2631" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:11">
+      <c r="A2632" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2632" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2632" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2632">
+        <v>2</v>
+      </c>
+      <c r="G2632">
+        <v>1</v>
+      </c>
+      <c r="H2632" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2632">
+        <v>0</v>
+      </c>
+      <c r="J2632">
+        <v>1</v>
+      </c>
+      <c r="K2632" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:11">
+      <c r="A2633" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2633" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2633">
+        <v>1</v>
+      </c>
+      <c r="G2633">
+        <v>0</v>
+      </c>
+      <c r="H2633" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2633">
+        <v>0</v>
+      </c>
+      <c r="J2633">
+        <v>0</v>
+      </c>
+      <c r="K2633" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:11">
+      <c r="A2634" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2634" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2634">
+        <v>3</v>
+      </c>
+      <c r="G2634">
+        <v>1</v>
+      </c>
+      <c r="H2634" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2634">
+        <v>0</v>
+      </c>
+      <c r="J2634">
+        <v>1</v>
+      </c>
+      <c r="K2634" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:11">
+      <c r="A2635" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2635" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2635" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2635">
+        <v>7</v>
+      </c>
+      <c r="G2635">
+        <v>4</v>
+      </c>
+      <c r="H2635" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2635">
+        <v>0</v>
+      </c>
+      <c r="J2635">
+        <v>4</v>
+      </c>
+      <c r="K2635" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:11">
+      <c r="A2636" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2636" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2636">
+        <v>13</v>
+      </c>
+      <c r="G2636">
+        <v>4</v>
+      </c>
+      <c r="H2636" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2636">
+        <v>0</v>
+      </c>
+      <c r="J2636">
+        <v>4</v>
+      </c>
+      <c r="K2636" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:11">
+      <c r="A2637" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2637" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2637" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2637">
+        <v>13</v>
+      </c>
+      <c r="G2637">
+        <v>5</v>
+      </c>
+      <c r="H2637" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2637">
+        <v>0</v>
+      </c>
+      <c r="J2637">
+        <v>5</v>
+      </c>
+      <c r="K2637" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:11">
+      <c r="A2638" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2638" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2638" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2638" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2638">
+        <v>15</v>
+      </c>
+      <c r="G2638">
+        <v>4</v>
+      </c>
+      <c r="H2638" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2638">
+        <v>0</v>
+      </c>
+      <c r="J2638">
+        <v>4</v>
+      </c>
+      <c r="K2638" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:11">
+      <c r="A2639" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2639" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2639" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2639" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2639">
+        <v>11</v>
+      </c>
+      <c r="G2639">
+        <v>5</v>
+      </c>
+      <c r="H2639" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2639">
+        <v>0</v>
+      </c>
+      <c r="J2639">
+        <v>5</v>
+      </c>
+      <c r="K2639" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:11">
+      <c r="A2640" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2640" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2640" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2640">
+        <v>17</v>
+      </c>
+      <c r="G2640">
+        <v>9</v>
+      </c>
+      <c r="H2640" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2640">
+        <v>0</v>
+      </c>
+      <c r="J2640">
+        <v>9</v>
+      </c>
+      <c r="K2640" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:11">
+      <c r="A2641" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2641" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2641" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2641">
+        <v>28</v>
+      </c>
+      <c r="G2641">
+        <v>16</v>
+      </c>
+      <c r="H2641" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2641">
+        <v>0</v>
+      </c>
+      <c r="J2641">
+        <v>16</v>
+      </c>
+      <c r="K2641" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:11">
+      <c r="A2642" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2642" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2642" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2642">
+        <v>13</v>
+      </c>
+      <c r="G2642">
+        <v>6</v>
+      </c>
+      <c r="H2642" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2642">
+        <v>0</v>
+      </c>
+      <c r="J2642">
+        <v>6</v>
+      </c>
+      <c r="K2642" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:11">
+      <c r="A2643" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2643" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2643" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2643">
+        <v>23</v>
+      </c>
+      <c r="G2643">
+        <v>6</v>
+      </c>
+      <c r="H2643" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2643">
+        <v>0</v>
+      </c>
+      <c r="J2643">
+        <v>6</v>
+      </c>
+      <c r="K2643" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:11">
+      <c r="A2644" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2644" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2644" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2644">
+        <v>10</v>
+      </c>
+      <c r="G2644">
+        <v>4</v>
+      </c>
+      <c r="H2644" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2644">
+        <v>0</v>
+      </c>
+      <c r="J2644">
+        <v>4</v>
+      </c>
+      <c r="K2644" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:11">
+      <c r="A2645" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2645" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2645">
+        <v>11</v>
+      </c>
+      <c r="G2645">
+        <v>3</v>
+      </c>
+      <c r="H2645" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2645">
+        <v>0</v>
+      </c>
+      <c r="J2645">
+        <v>3</v>
+      </c>
+      <c r="K2645" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:11">
+      <c r="A2646" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2646">
+        <v>8</v>
+      </c>
+      <c r="G2646">
+        <v>3</v>
+      </c>
+      <c r="H2646" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2646">
+        <v>0</v>
+      </c>
+      <c r="J2646">
+        <v>3</v>
+      </c>
+      <c r="K2646" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:11">
+      <c r="A2647" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2647" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2647">
+        <v>12</v>
+      </c>
+      <c r="G2647">
+        <v>3</v>
+      </c>
+      <c r="H2647" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2647">
+        <v>0</v>
+      </c>
+      <c r="J2647">
+        <v>3</v>
+      </c>
+      <c r="K2647" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:11">
+      <c r="A2648" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2648" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2648" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2648">
+        <v>2</v>
+      </c>
+      <c r="G2648">
+        <v>2</v>
+      </c>
+      <c r="H2648" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2648">
+        <v>0</v>
+      </c>
+      <c r="J2648">
+        <v>2</v>
+      </c>
+      <c r="K2648" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:11">
+      <c r="A2649" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2649" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2649">
+        <v>21</v>
+      </c>
+      <c r="G2649">
+        <v>7</v>
+      </c>
+      <c r="H2649" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2649">
+        <v>0</v>
+      </c>
+      <c r="J2649">
+        <v>7</v>
+      </c>
+      <c r="K2649" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:11">
+      <c r="A2650" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2650" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2650">
+        <v>52</v>
+      </c>
+      <c r="G2650">
+        <v>25</v>
+      </c>
+      <c r="H2650" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2650">
+        <v>0</v>
+      </c>
+      <c r="J2650">
+        <v>25</v>
+      </c>
+      <c r="K2650" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:11">
+      <c r="A2651" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2651" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2651" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2651">
+        <v>202</v>
+      </c>
+      <c r="G2651">
+        <v>48</v>
+      </c>
+      <c r="H2651" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2651">
+        <v>0</v>
+      </c>
+      <c r="J2651">
+        <v>48</v>
+      </c>
+      <c r="K2651" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:11">
+      <c r="A2652" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2652" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2652">
+        <v>11</v>
+      </c>
+      <c r="G2652">
+        <v>2</v>
+      </c>
+      <c r="H2652" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2652">
+        <v>0</v>
+      </c>
+      <c r="J2652">
+        <v>2</v>
+      </c>
+      <c r="K2652" s="2">
+        <v>45541.75045566334</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:11">
+      <c r="A2653" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2653" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2653">
+        <v>46</v>
+      </c>
+      <c r="G2653">
+        <v>15</v>
+      </c>
+      <c r="H2653" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2653">
+        <v>0</v>
+      </c>
+      <c r="J2653">
+        <v>15</v>
+      </c>
+      <c r="K2653" s="2">
+        <v>45541.75045566334</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15923" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16859" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2653"/>
+  <dimension ref="A1:K2809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -88150,7 +88150,7 @@
         <v>36</v>
       </c>
       <c r="K2498" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2499" spans="1:11">
@@ -88185,7 +88185,7 @@
         <v>20</v>
       </c>
       <c r="K2499" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2500" spans="1:11">
@@ -88220,7 +88220,7 @@
         <v>13</v>
       </c>
       <c r="K2500" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2501" spans="1:11">
@@ -88255,7 +88255,7 @@
         <v>35</v>
       </c>
       <c r="K2501" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2502" spans="1:11">
@@ -88290,7 +88290,7 @@
         <v>10</v>
       </c>
       <c r="K2502" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2503" spans="1:11">
@@ -88325,7 +88325,7 @@
         <v>7</v>
       </c>
       <c r="K2503" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2504" spans="1:11">
@@ -88360,7 +88360,7 @@
         <v>1</v>
       </c>
       <c r="K2504" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2505" spans="1:11">
@@ -88395,7 +88395,7 @@
         <v>3</v>
       </c>
       <c r="K2505" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2506" spans="1:11">
@@ -88430,7 +88430,7 @@
         <v>85</v>
       </c>
       <c r="K2506" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2507" spans="1:11">
@@ -88465,7 +88465,7 @@
         <v>75</v>
       </c>
       <c r="K2507" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2508" spans="1:11">
@@ -88500,7 +88500,7 @@
         <v>110</v>
       </c>
       <c r="K2508" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2509" spans="1:11">
@@ -88535,7 +88535,7 @@
         <v>34</v>
       </c>
       <c r="K2509" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2510" spans="1:11">
@@ -88570,7 +88570,7 @@
         <v>28</v>
       </c>
       <c r="K2510" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2511" spans="1:11">
@@ -88605,7 +88605,7 @@
         <v>24</v>
       </c>
       <c r="K2511" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2512" spans="1:11">
@@ -88640,7 +88640,7 @@
         <v>41</v>
       </c>
       <c r="K2512" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2513" spans="1:11">
@@ -88675,7 +88675,7 @@
         <v>18</v>
       </c>
       <c r="K2513" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2514" spans="1:11">
@@ -88710,7 +88710,7 @@
         <v>13</v>
       </c>
       <c r="K2514" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2515" spans="1:11">
@@ -88745,7 +88745,7 @@
         <v>2</v>
       </c>
       <c r="K2515" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2516" spans="1:11">
@@ -88780,7 +88780,7 @@
         <v>19</v>
       </c>
       <c r="K2516" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2517" spans="1:11">
@@ -88815,7 +88815,7 @@
         <v>35</v>
       </c>
       <c r="K2517" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2518" spans="1:11">
@@ -88850,7 +88850,7 @@
         <v>35</v>
       </c>
       <c r="K2518" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2519" spans="1:11">
@@ -88885,7 +88885,7 @@
         <v>42</v>
       </c>
       <c r="K2519" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2520" spans="1:11">
@@ -88920,7 +88920,7 @@
         <v>48</v>
       </c>
       <c r="K2520" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2521" spans="1:11">
@@ -88955,7 +88955,7 @@
         <v>34</v>
       </c>
       <c r="K2521" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2522" spans="1:11">
@@ -88990,7 +88990,7 @@
         <v>26</v>
       </c>
       <c r="K2522" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2523" spans="1:11">
@@ -89025,7 +89025,7 @@
         <v>66</v>
       </c>
       <c r="K2523" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2524" spans="1:11">
@@ -89060,7 +89060,7 @@
         <v>25</v>
       </c>
       <c r="K2524" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2525" spans="1:11">
@@ -89095,7 +89095,7 @@
         <v>52</v>
       </c>
       <c r="K2525" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2526" spans="1:11">
@@ -89130,7 +89130,7 @@
         <v>48</v>
       </c>
       <c r="K2526" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2527" spans="1:11">
@@ -89165,7 +89165,7 @@
         <v>19</v>
       </c>
       <c r="K2527" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2528" spans="1:11">
@@ -89200,7 +89200,7 @@
         <v>49</v>
       </c>
       <c r="K2528" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2529" spans="1:11">
@@ -89235,7 +89235,7 @@
         <v>60</v>
       </c>
       <c r="K2529" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2530" spans="1:11">
@@ -89270,7 +89270,7 @@
         <v>52</v>
       </c>
       <c r="K2530" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2531" spans="1:11">
@@ -89305,7 +89305,7 @@
         <v>32</v>
       </c>
       <c r="K2531" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2532" spans="1:11">
@@ -89340,7 +89340,7 @@
         <v>17</v>
       </c>
       <c r="K2532" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2533" spans="1:11">
@@ -89375,7 +89375,7 @@
         <v>30</v>
       </c>
       <c r="K2533" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2534" spans="1:11">
@@ -89410,7 +89410,7 @@
         <v>24</v>
       </c>
       <c r="K2534" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2535" spans="1:11">
@@ -89445,7 +89445,7 @@
         <v>39</v>
       </c>
       <c r="K2535" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2536" spans="1:11">
@@ -89480,7 +89480,7 @@
         <v>54</v>
       </c>
       <c r="K2536" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2537" spans="1:11">
@@ -89515,7 +89515,7 @@
         <v>61</v>
       </c>
       <c r="K2537" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2538" spans="1:11">
@@ -89550,7 +89550,7 @@
         <v>71</v>
       </c>
       <c r="K2538" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2539" spans="1:11">
@@ -89585,7 +89585,7 @@
         <v>17</v>
       </c>
       <c r="K2539" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2540" spans="1:11">
@@ -89620,7 +89620,7 @@
         <v>63</v>
       </c>
       <c r="K2540" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2541" spans="1:11">
@@ -89655,7 +89655,7 @@
         <v>31</v>
       </c>
       <c r="K2541" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2542" spans="1:11">
@@ -89690,7 +89690,7 @@
         <v>55</v>
       </c>
       <c r="K2542" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2543" spans="1:11">
@@ -89725,7 +89725,7 @@
         <v>84</v>
       </c>
       <c r="K2543" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2544" spans="1:11">
@@ -89760,7 +89760,7 @@
         <v>30</v>
       </c>
       <c r="K2544" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2545" spans="1:11">
@@ -89795,7 +89795,7 @@
         <v>51</v>
       </c>
       <c r="K2545" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2546" spans="1:11">
@@ -89830,7 +89830,7 @@
         <v>34</v>
       </c>
       <c r="K2546" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2547" spans="1:11">
@@ -89865,7 +89865,7 @@
         <v>34</v>
       </c>
       <c r="K2547" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2548" spans="1:11">
@@ -89900,7 +89900,7 @@
         <v>3</v>
       </c>
       <c r="K2548" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2549" spans="1:11">
@@ -89935,7 +89935,7 @@
         <v>14</v>
       </c>
       <c r="K2549" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2550" spans="1:11">
@@ -89970,7 +89970,7 @@
         <v>7</v>
       </c>
       <c r="K2550" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2551" spans="1:11">
@@ -90005,7 +90005,7 @@
         <v>0</v>
       </c>
       <c r="K2551" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2552" spans="1:11">
@@ -90040,7 +90040,7 @@
         <v>0</v>
       </c>
       <c r="K2552" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2553" spans="1:11">
@@ -90075,7 +90075,7 @@
         <v>0</v>
       </c>
       <c r="K2553" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2554" spans="1:11">
@@ -90110,7 +90110,7 @@
         <v>1</v>
       </c>
       <c r="K2554" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2555" spans="1:11">
@@ -90145,7 +90145,7 @@
         <v>1</v>
       </c>
       <c r="K2555" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2556" spans="1:11">
@@ -90180,7 +90180,7 @@
         <v>3</v>
       </c>
       <c r="K2556" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2557" spans="1:11">
@@ -90215,7 +90215,7 @@
         <v>0</v>
       </c>
       <c r="K2557" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2558" spans="1:11">
@@ -90250,7 +90250,7 @@
         <v>0</v>
       </c>
       <c r="K2558" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2559" spans="1:11">
@@ -90285,7 +90285,7 @@
         <v>0</v>
       </c>
       <c r="K2559" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2560" spans="1:11">
@@ -90320,7 +90320,7 @@
         <v>1</v>
       </c>
       <c r="K2560" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2561" spans="1:11">
@@ -90355,7 +90355,7 @@
         <v>0</v>
       </c>
       <c r="K2561" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2562" spans="1:11">
@@ -90390,7 +90390,7 @@
         <v>43</v>
       </c>
       <c r="K2562" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2563" spans="1:11">
@@ -90425,7 +90425,7 @@
         <v>2</v>
       </c>
       <c r="K2563" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2564" spans="1:11">
@@ -90460,7 +90460,7 @@
         <v>24</v>
       </c>
       <c r="K2564" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2565" spans="1:11">
@@ -90495,7 +90495,7 @@
         <v>15</v>
       </c>
       <c r="K2565" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2566" spans="1:11">
@@ -90530,7 +90530,7 @@
         <v>17</v>
       </c>
       <c r="K2566" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2567" spans="1:11">
@@ -90565,7 +90565,7 @@
         <v>1</v>
       </c>
       <c r="K2567" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2568" spans="1:11">
@@ -90600,7 +90600,7 @@
         <v>0</v>
       </c>
       <c r="K2568" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2569" spans="1:11">
@@ -90635,7 +90635,7 @@
         <v>1</v>
       </c>
       <c r="K2569" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2570" spans="1:11">
@@ -90670,7 +90670,7 @@
         <v>0</v>
       </c>
       <c r="K2570" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2571" spans="1:11">
@@ -90705,7 +90705,7 @@
         <v>6</v>
       </c>
       <c r="K2571" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2572" spans="1:11">
@@ -90740,7 +90740,7 @@
         <v>3</v>
       </c>
       <c r="K2572" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2573" spans="1:11">
@@ -90775,7 +90775,7 @@
         <v>7</v>
       </c>
       <c r="K2573" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2574" spans="1:11">
@@ -90810,7 +90810,7 @@
         <v>2</v>
       </c>
       <c r="K2574" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2575" spans="1:11">
@@ -90845,7 +90845,7 @@
         <v>3</v>
       </c>
       <c r="K2575" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2576" spans="1:11">
@@ -90880,7 +90880,7 @@
         <v>2</v>
       </c>
       <c r="K2576" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2577" spans="1:11">
@@ -90915,7 +90915,7 @@
         <v>0</v>
       </c>
       <c r="K2577" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2578" spans="1:11">
@@ -90950,7 +90950,7 @@
         <v>0</v>
       </c>
       <c r="K2578" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2579" spans="1:11">
@@ -90985,7 +90985,7 @@
         <v>3</v>
       </c>
       <c r="K2579" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2580" spans="1:11">
@@ -91020,7 +91020,7 @@
         <v>6</v>
       </c>
       <c r="K2580" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2581" spans="1:11">
@@ -91055,7 +91055,7 @@
         <v>2</v>
       </c>
       <c r="K2581" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2582" spans="1:11">
@@ -91090,7 +91090,7 @@
         <v>1</v>
       </c>
       <c r="K2582" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2583" spans="1:11">
@@ -91125,7 +91125,7 @@
         <v>17</v>
       </c>
       <c r="K2583" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2584" spans="1:11">
@@ -91160,7 +91160,7 @@
         <v>9</v>
       </c>
       <c r="K2584" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2585" spans="1:11">
@@ -91195,7 +91195,7 @@
         <v>8</v>
       </c>
       <c r="K2585" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2586" spans="1:11">
@@ -91230,7 +91230,7 @@
         <v>6</v>
       </c>
       <c r="K2586" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2587" spans="1:11">
@@ -91265,7 +91265,7 @@
         <v>2</v>
       </c>
       <c r="K2587" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2588" spans="1:11">
@@ -91300,7 +91300,7 @@
         <v>8</v>
       </c>
       <c r="K2588" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2589" spans="1:11">
@@ -91335,7 +91335,7 @@
         <v>4</v>
       </c>
       <c r="K2589" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2590" spans="1:11">
@@ -91370,7 +91370,7 @@
         <v>8</v>
       </c>
       <c r="K2590" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2591" spans="1:11">
@@ -91405,7 +91405,7 @@
         <v>6</v>
       </c>
       <c r="K2591" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2592" spans="1:11">
@@ -91440,7 +91440,7 @@
         <v>6</v>
       </c>
       <c r="K2592" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2593" spans="1:11">
@@ -91475,7 +91475,7 @@
         <v>1</v>
       </c>
       <c r="K2593" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2594" spans="1:11">
@@ -91510,7 +91510,7 @@
         <v>21</v>
       </c>
       <c r="K2594" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2595" spans="1:11">
@@ -91545,7 +91545,7 @@
         <v>5</v>
       </c>
       <c r="K2595" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2596" spans="1:11">
@@ -91580,7 +91580,7 @@
         <v>17</v>
       </c>
       <c r="K2596" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2597" spans="1:11">
@@ -91615,7 +91615,7 @@
         <v>1</v>
       </c>
       <c r="K2597" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2598" spans="1:11">
@@ -91650,7 +91650,7 @@
         <v>3</v>
       </c>
       <c r="K2598" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2599" spans="1:11">
@@ -91685,7 +91685,7 @@
         <v>0</v>
       </c>
       <c r="K2599" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2600" spans="1:11">
@@ -91720,7 +91720,7 @@
         <v>1</v>
       </c>
       <c r="K2600" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2601" spans="1:11">
@@ -91755,7 +91755,7 @@
         <v>0</v>
       </c>
       <c r="K2601" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2602" spans="1:11">
@@ -91790,7 +91790,7 @@
         <v>1</v>
       </c>
       <c r="K2602" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2603" spans="1:11">
@@ -91825,7 +91825,7 @@
         <v>1</v>
       </c>
       <c r="K2603" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2604" spans="1:11">
@@ -91860,7 +91860,7 @@
         <v>2</v>
       </c>
       <c r="K2604" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2605" spans="1:11">
@@ -91895,7 +91895,7 @@
         <v>2</v>
       </c>
       <c r="K2605" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2606" spans="1:11">
@@ -91930,7 +91930,7 @@
         <v>2</v>
       </c>
       <c r="K2606" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2607" spans="1:11">
@@ -91965,7 +91965,7 @@
         <v>3</v>
       </c>
       <c r="K2607" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2608" spans="1:11">
@@ -92000,7 +92000,7 @@
         <v>2</v>
       </c>
       <c r="K2608" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2609" spans="1:11">
@@ -92035,7 +92035,7 @@
         <v>2</v>
       </c>
       <c r="K2609" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2610" spans="1:11">
@@ -92070,7 +92070,7 @@
         <v>2</v>
       </c>
       <c r="K2610" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2611" spans="1:11">
@@ -92105,7 +92105,7 @@
         <v>12</v>
       </c>
       <c r="K2611" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2612" spans="1:11">
@@ -92140,7 +92140,7 @@
         <v>6</v>
       </c>
       <c r="K2612" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2613" spans="1:11">
@@ -92175,7 +92175,7 @@
         <v>8</v>
       </c>
       <c r="K2613" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2614" spans="1:11">
@@ -92210,7 +92210,7 @@
         <v>9</v>
       </c>
       <c r="K2614" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2615" spans="1:11">
@@ -92245,7 +92245,7 @@
         <v>2</v>
       </c>
       <c r="K2615" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2616" spans="1:11">
@@ -92280,7 +92280,7 @@
         <v>4</v>
       </c>
       <c r="K2616" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2617" spans="1:11">
@@ -92315,7 +92315,7 @@
         <v>4</v>
       </c>
       <c r="K2617" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2618" spans="1:11">
@@ -92350,7 +92350,7 @@
         <v>10</v>
       </c>
       <c r="K2618" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2619" spans="1:11">
@@ -92385,7 +92385,7 @@
         <v>9</v>
       </c>
       <c r="K2619" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2620" spans="1:11">
@@ -92420,7 +92420,7 @@
         <v>4</v>
       </c>
       <c r="K2620" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2621" spans="1:11">
@@ -92455,7 +92455,7 @@
         <v>4</v>
       </c>
       <c r="K2621" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2622" spans="1:11">
@@ -92490,7 +92490,7 @@
         <v>3</v>
       </c>
       <c r="K2622" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2623" spans="1:11">
@@ -92525,7 +92525,7 @@
         <v>8</v>
       </c>
       <c r="K2623" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2624" spans="1:11">
@@ -92560,7 +92560,7 @@
         <v>7</v>
       </c>
       <c r="K2624" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2625" spans="1:11">
@@ -92595,7 +92595,7 @@
         <v>5</v>
       </c>
       <c r="K2625" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2626" spans="1:11">
@@ -92630,7 +92630,7 @@
         <v>4</v>
       </c>
       <c r="K2626" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2627" spans="1:11">
@@ -92665,7 +92665,7 @@
         <v>6</v>
       </c>
       <c r="K2627" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2628" spans="1:11">
@@ -92700,7 +92700,7 @@
         <v>1</v>
       </c>
       <c r="K2628" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2629" spans="1:11">
@@ -92735,7 +92735,7 @@
         <v>2</v>
       </c>
       <c r="K2629" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2630" spans="1:11">
@@ -92770,7 +92770,7 @@
         <v>1</v>
       </c>
       <c r="K2630" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2631" spans="1:11">
@@ -92805,7 +92805,7 @@
         <v>1</v>
       </c>
       <c r="K2631" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2632" spans="1:11">
@@ -92840,7 +92840,7 @@
         <v>1</v>
       </c>
       <c r="K2632" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2633" spans="1:11">
@@ -92875,7 +92875,7 @@
         <v>0</v>
       </c>
       <c r="K2633" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2634" spans="1:11">
@@ -92910,7 +92910,7 @@
         <v>1</v>
       </c>
       <c r="K2634" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2635" spans="1:11">
@@ -92945,7 +92945,7 @@
         <v>4</v>
       </c>
       <c r="K2635" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2636" spans="1:11">
@@ -92980,7 +92980,7 @@
         <v>4</v>
       </c>
       <c r="K2636" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2637" spans="1:11">
@@ -93015,7 +93015,7 @@
         <v>5</v>
       </c>
       <c r="K2637" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2638" spans="1:11">
@@ -93050,7 +93050,7 @@
         <v>4</v>
       </c>
       <c r="K2638" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2639" spans="1:11">
@@ -93085,7 +93085,7 @@
         <v>5</v>
       </c>
       <c r="K2639" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2640" spans="1:11">
@@ -93120,7 +93120,7 @@
         <v>9</v>
       </c>
       <c r="K2640" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2641" spans="1:11">
@@ -93155,7 +93155,7 @@
         <v>16</v>
       </c>
       <c r="K2641" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2642" spans="1:11">
@@ -93190,7 +93190,7 @@
         <v>6</v>
       </c>
       <c r="K2642" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2643" spans="1:11">
@@ -93225,7 +93225,7 @@
         <v>6</v>
       </c>
       <c r="K2643" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2644" spans="1:11">
@@ -93260,7 +93260,7 @@
         <v>4</v>
       </c>
       <c r="K2644" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2645" spans="1:11">
@@ -93295,7 +93295,7 @@
         <v>3</v>
       </c>
       <c r="K2645" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2646" spans="1:11">
@@ -93330,7 +93330,7 @@
         <v>3</v>
       </c>
       <c r="K2646" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2647" spans="1:11">
@@ -93365,7 +93365,7 @@
         <v>3</v>
       </c>
       <c r="K2647" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2648" spans="1:11">
@@ -93400,7 +93400,7 @@
         <v>2</v>
       </c>
       <c r="K2648" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2649" spans="1:11">
@@ -93435,7 +93435,7 @@
         <v>7</v>
       </c>
       <c r="K2649" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2650" spans="1:11">
@@ -93470,7 +93470,7 @@
         <v>25</v>
       </c>
       <c r="K2650" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2651" spans="1:11">
@@ -93505,7 +93505,7 @@
         <v>48</v>
       </c>
       <c r="K2651" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2652" spans="1:11">
@@ -93540,7 +93540,7 @@
         <v>2</v>
       </c>
       <c r="K2652" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
       </c>
     </row>
     <row r="2653" spans="1:11">
@@ -93575,7 +93575,5467 @@
         <v>15</v>
       </c>
       <c r="K2653" s="2">
-        <v>45541.75045566334</v>
+        <v>45541.75045565972</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:11">
+      <c r="A2654" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2654" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2654">
+        <v>61</v>
+      </c>
+      <c r="G2654">
+        <v>37</v>
+      </c>
+      <c r="H2654" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2654">
+        <v>0</v>
+      </c>
+      <c r="J2654">
+        <v>37</v>
+      </c>
+      <c r="K2654" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:11">
+      <c r="A2655" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2655" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2655">
+        <v>24</v>
+      </c>
+      <c r="G2655">
+        <v>20</v>
+      </c>
+      <c r="H2655" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2655">
+        <v>0</v>
+      </c>
+      <c r="J2655">
+        <v>20</v>
+      </c>
+      <c r="K2655" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:11">
+      <c r="A2656" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2656" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2656" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2656">
+        <v>27</v>
+      </c>
+      <c r="G2656">
+        <v>13</v>
+      </c>
+      <c r="H2656" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2656">
+        <v>0</v>
+      </c>
+      <c r="J2656">
+        <v>13</v>
+      </c>
+      <c r="K2656" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:11">
+      <c r="A2657" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2657" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2657">
+        <v>66</v>
+      </c>
+      <c r="G2657">
+        <v>35</v>
+      </c>
+      <c r="H2657" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2657">
+        <v>0</v>
+      </c>
+      <c r="J2657">
+        <v>35</v>
+      </c>
+      <c r="K2657" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:11">
+      <c r="A2658" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2658" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2658">
+        <v>21</v>
+      </c>
+      <c r="G2658">
+        <v>10</v>
+      </c>
+      <c r="H2658" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2658">
+        <v>0</v>
+      </c>
+      <c r="J2658">
+        <v>10</v>
+      </c>
+      <c r="K2658" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:11">
+      <c r="A2659" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2659" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2659">
+        <v>14</v>
+      </c>
+      <c r="G2659">
+        <v>7</v>
+      </c>
+      <c r="H2659" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2659">
+        <v>0</v>
+      </c>
+      <c r="J2659">
+        <v>7</v>
+      </c>
+      <c r="K2659" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:11">
+      <c r="A2660" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2660" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2660">
+        <v>4</v>
+      </c>
+      <c r="G2660">
+        <v>1</v>
+      </c>
+      <c r="H2660" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2660">
+        <v>0</v>
+      </c>
+      <c r="J2660">
+        <v>1</v>
+      </c>
+      <c r="K2660" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:11">
+      <c r="A2661" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2661" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2661">
+        <v>5</v>
+      </c>
+      <c r="G2661">
+        <v>3</v>
+      </c>
+      <c r="H2661" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2661">
+        <v>0</v>
+      </c>
+      <c r="J2661">
+        <v>3</v>
+      </c>
+      <c r="K2661" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:11">
+      <c r="A2662" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2662" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2662">
+        <v>201</v>
+      </c>
+      <c r="G2662">
+        <v>86</v>
+      </c>
+      <c r="H2662" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2662">
+        <v>0</v>
+      </c>
+      <c r="J2662">
+        <v>86</v>
+      </c>
+      <c r="K2662" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:11">
+      <c r="A2663" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2663" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2663">
+        <v>145</v>
+      </c>
+      <c r="G2663">
+        <v>76</v>
+      </c>
+      <c r="H2663" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2663">
+        <v>0</v>
+      </c>
+      <c r="J2663">
+        <v>76</v>
+      </c>
+      <c r="K2663" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:11">
+      <c r="A2664" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2664" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2664">
+        <v>219</v>
+      </c>
+      <c r="G2664">
+        <v>110</v>
+      </c>
+      <c r="H2664" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2664">
+        <v>0</v>
+      </c>
+      <c r="J2664">
+        <v>110</v>
+      </c>
+      <c r="K2664" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:11">
+      <c r="A2665" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2665" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2665">
+        <v>72</v>
+      </c>
+      <c r="G2665">
+        <v>34</v>
+      </c>
+      <c r="H2665" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2665">
+        <v>0</v>
+      </c>
+      <c r="J2665">
+        <v>34</v>
+      </c>
+      <c r="K2665" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:11">
+      <c r="A2666" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2666" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2666">
+        <v>66</v>
+      </c>
+      <c r="G2666">
+        <v>28</v>
+      </c>
+      <c r="H2666" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2666">
+        <v>0</v>
+      </c>
+      <c r="J2666">
+        <v>28</v>
+      </c>
+      <c r="K2666" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:11">
+      <c r="A2667" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2667" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2667">
+        <v>92</v>
+      </c>
+      <c r="G2667">
+        <v>24</v>
+      </c>
+      <c r="H2667" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2667">
+        <v>0</v>
+      </c>
+      <c r="J2667">
+        <v>24</v>
+      </c>
+      <c r="K2667" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:11">
+      <c r="A2668" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2668" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2668">
+        <v>85</v>
+      </c>
+      <c r="G2668">
+        <v>41</v>
+      </c>
+      <c r="H2668" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2668">
+        <v>0</v>
+      </c>
+      <c r="J2668">
+        <v>41</v>
+      </c>
+      <c r="K2668" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:11">
+      <c r="A2669" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2669" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2669">
+        <v>41</v>
+      </c>
+      <c r="G2669">
+        <v>18</v>
+      </c>
+      <c r="H2669" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2669">
+        <v>0</v>
+      </c>
+      <c r="J2669">
+        <v>18</v>
+      </c>
+      <c r="K2669" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:11">
+      <c r="A2670" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2670" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2670">
+        <v>29</v>
+      </c>
+      <c r="G2670">
+        <v>13</v>
+      </c>
+      <c r="H2670" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2670">
+        <v>0</v>
+      </c>
+      <c r="J2670">
+        <v>13</v>
+      </c>
+      <c r="K2670" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:11">
+      <c r="A2671" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2671" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2671">
+        <v>12</v>
+      </c>
+      <c r="G2671">
+        <v>2</v>
+      </c>
+      <c r="H2671" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2671">
+        <v>0</v>
+      </c>
+      <c r="J2671">
+        <v>2</v>
+      </c>
+      <c r="K2671" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:11">
+      <c r="A2672" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2672" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2672">
+        <v>52</v>
+      </c>
+      <c r="G2672">
+        <v>19</v>
+      </c>
+      <c r="H2672" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2672">
+        <v>0</v>
+      </c>
+      <c r="J2672">
+        <v>19</v>
+      </c>
+      <c r="K2672" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:11">
+      <c r="A2673" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2673" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2673">
+        <v>70</v>
+      </c>
+      <c r="G2673">
+        <v>36</v>
+      </c>
+      <c r="H2673" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2673">
+        <v>0</v>
+      </c>
+      <c r="J2673">
+        <v>36</v>
+      </c>
+      <c r="K2673" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:11">
+      <c r="A2674" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2674" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2674">
+        <v>86</v>
+      </c>
+      <c r="G2674">
+        <v>35</v>
+      </c>
+      <c r="H2674" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2674">
+        <v>0</v>
+      </c>
+      <c r="J2674">
+        <v>35</v>
+      </c>
+      <c r="K2674" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:11">
+      <c r="A2675" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2675" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2675">
+        <v>97</v>
+      </c>
+      <c r="G2675">
+        <v>41</v>
+      </c>
+      <c r="H2675" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2675">
+        <v>0</v>
+      </c>
+      <c r="J2675">
+        <v>41</v>
+      </c>
+      <c r="K2675" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:11">
+      <c r="A2676" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2676" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2676">
+        <v>99</v>
+      </c>
+      <c r="G2676">
+        <v>48</v>
+      </c>
+      <c r="H2676" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2676">
+        <v>0</v>
+      </c>
+      <c r="J2676">
+        <v>48</v>
+      </c>
+      <c r="K2676" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:11">
+      <c r="A2677" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2677" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2677">
+        <v>94</v>
+      </c>
+      <c r="G2677">
+        <v>34</v>
+      </c>
+      <c r="H2677" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2677">
+        <v>0</v>
+      </c>
+      <c r="J2677">
+        <v>34</v>
+      </c>
+      <c r="K2677" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:11">
+      <c r="A2678" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2678" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2678" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2678">
+        <v>56</v>
+      </c>
+      <c r="G2678">
+        <v>26</v>
+      </c>
+      <c r="H2678" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2678">
+        <v>0</v>
+      </c>
+      <c r="J2678">
+        <v>26</v>
+      </c>
+      <c r="K2678" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:11">
+      <c r="A2679" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2679" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2679">
+        <v>141</v>
+      </c>
+      <c r="G2679">
+        <v>68</v>
+      </c>
+      <c r="H2679" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2679">
+        <v>0</v>
+      </c>
+      <c r="J2679">
+        <v>68</v>
+      </c>
+      <c r="K2679" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:11">
+      <c r="A2680" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2680" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2680">
+        <v>91</v>
+      </c>
+      <c r="G2680">
+        <v>25</v>
+      </c>
+      <c r="H2680" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2680">
+        <v>0</v>
+      </c>
+      <c r="J2680">
+        <v>25</v>
+      </c>
+      <c r="K2680" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:11">
+      <c r="A2681" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2681" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2681" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2681">
+        <v>91</v>
+      </c>
+      <c r="G2681">
+        <v>52</v>
+      </c>
+      <c r="H2681" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2681">
+        <v>0</v>
+      </c>
+      <c r="J2681">
+        <v>52</v>
+      </c>
+      <c r="K2681" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:11">
+      <c r="A2682" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2682" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2682" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2682">
+        <v>100</v>
+      </c>
+      <c r="G2682">
+        <v>48</v>
+      </c>
+      <c r="H2682" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2682">
+        <v>0</v>
+      </c>
+      <c r="J2682">
+        <v>48</v>
+      </c>
+      <c r="K2682" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:11">
+      <c r="A2683" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2683" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2683" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2683">
+        <v>41</v>
+      </c>
+      <c r="G2683">
+        <v>19</v>
+      </c>
+      <c r="H2683" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2683">
+        <v>0</v>
+      </c>
+      <c r="J2683">
+        <v>19</v>
+      </c>
+      <c r="K2683" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:11">
+      <c r="A2684" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2684" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2684" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2684">
+        <v>98</v>
+      </c>
+      <c r="G2684">
+        <v>49</v>
+      </c>
+      <c r="H2684" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2684">
+        <v>0</v>
+      </c>
+      <c r="J2684">
+        <v>49</v>
+      </c>
+      <c r="K2684" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:11">
+      <c r="A2685" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2685" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2685" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2685">
+        <v>129</v>
+      </c>
+      <c r="G2685">
+        <v>60</v>
+      </c>
+      <c r="H2685" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2685">
+        <v>0</v>
+      </c>
+      <c r="J2685">
+        <v>60</v>
+      </c>
+      <c r="K2685" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:11">
+      <c r="A2686" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2686" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2686" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2686">
+        <v>98</v>
+      </c>
+      <c r="G2686">
+        <v>53</v>
+      </c>
+      <c r="H2686" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2686">
+        <v>0</v>
+      </c>
+      <c r="J2686">
+        <v>53</v>
+      </c>
+      <c r="K2686" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:11">
+      <c r="A2687" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2687" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2687" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2687">
+        <v>64</v>
+      </c>
+      <c r="G2687">
+        <v>32</v>
+      </c>
+      <c r="H2687" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2687">
+        <v>0</v>
+      </c>
+      <c r="J2687">
+        <v>32</v>
+      </c>
+      <c r="K2687" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:11">
+      <c r="A2688" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2688" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2688" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2688">
+        <v>31</v>
+      </c>
+      <c r="G2688">
+        <v>17</v>
+      </c>
+      <c r="H2688" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2688">
+        <v>0</v>
+      </c>
+      <c r="J2688">
+        <v>17</v>
+      </c>
+      <c r="K2688" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:11">
+      <c r="A2689" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2689" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2689" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2689">
+        <v>67</v>
+      </c>
+      <c r="G2689">
+        <v>30</v>
+      </c>
+      <c r="H2689" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2689">
+        <v>0</v>
+      </c>
+      <c r="J2689">
+        <v>30</v>
+      </c>
+      <c r="K2689" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:11">
+      <c r="A2690" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2690" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2690" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2690" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2690">
+        <v>44</v>
+      </c>
+      <c r="G2690">
+        <v>24</v>
+      </c>
+      <c r="H2690" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2690">
+        <v>0</v>
+      </c>
+      <c r="J2690">
+        <v>24</v>
+      </c>
+      <c r="K2690" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:11">
+      <c r="A2691" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2691" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2691" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2691" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2691">
+        <v>110</v>
+      </c>
+      <c r="G2691">
+        <v>39</v>
+      </c>
+      <c r="H2691" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2691">
+        <v>0</v>
+      </c>
+      <c r="J2691">
+        <v>39</v>
+      </c>
+      <c r="K2691" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:11">
+      <c r="A2692" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2692" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2692" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2692" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2692">
+        <v>139</v>
+      </c>
+      <c r="G2692">
+        <v>54</v>
+      </c>
+      <c r="H2692" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2692">
+        <v>0</v>
+      </c>
+      <c r="J2692">
+        <v>54</v>
+      </c>
+      <c r="K2692" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:11">
+      <c r="A2693" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2693" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2693" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2693">
+        <v>176</v>
+      </c>
+      <c r="G2693">
+        <v>61</v>
+      </c>
+      <c r="H2693" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2693">
+        <v>0</v>
+      </c>
+      <c r="J2693">
+        <v>61</v>
+      </c>
+      <c r="K2693" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:11">
+      <c r="A2694" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2694" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2694" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2694" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2694">
+        <v>150</v>
+      </c>
+      <c r="G2694">
+        <v>71</v>
+      </c>
+      <c r="H2694" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2694">
+        <v>0</v>
+      </c>
+      <c r="J2694">
+        <v>71</v>
+      </c>
+      <c r="K2694" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:11">
+      <c r="A2695" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2695" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2695" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2695" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2695">
+        <v>46</v>
+      </c>
+      <c r="G2695">
+        <v>17</v>
+      </c>
+      <c r="H2695" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2695">
+        <v>0</v>
+      </c>
+      <c r="J2695">
+        <v>17</v>
+      </c>
+      <c r="K2695" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:11">
+      <c r="A2696" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2696" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2696" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2696" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2696">
+        <v>138</v>
+      </c>
+      <c r="G2696">
+        <v>65</v>
+      </c>
+      <c r="H2696" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2696">
+        <v>0</v>
+      </c>
+      <c r="J2696">
+        <v>65</v>
+      </c>
+      <c r="K2696" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:11">
+      <c r="A2697" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2697" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2697" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2697" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2697">
+        <v>54</v>
+      </c>
+      <c r="G2697">
+        <v>31</v>
+      </c>
+      <c r="H2697" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2697">
+        <v>0</v>
+      </c>
+      <c r="J2697">
+        <v>31</v>
+      </c>
+      <c r="K2697" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:11">
+      <c r="A2698" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2698" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2698" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2698" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2698" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2698">
+        <v>121</v>
+      </c>
+      <c r="G2698">
+        <v>56</v>
+      </c>
+      <c r="H2698" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2698">
+        <v>0</v>
+      </c>
+      <c r="J2698">
+        <v>56</v>
+      </c>
+      <c r="K2698" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:11">
+      <c r="A2699" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2699" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2699" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2699" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2699" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2699">
+        <v>200</v>
+      </c>
+      <c r="G2699">
+        <v>84</v>
+      </c>
+      <c r="H2699" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2699">
+        <v>0</v>
+      </c>
+      <c r="J2699">
+        <v>84</v>
+      </c>
+      <c r="K2699" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:11">
+      <c r="A2700" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2700" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2700" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2700" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2700" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2700">
+        <v>99</v>
+      </c>
+      <c r="G2700">
+        <v>30</v>
+      </c>
+      <c r="H2700" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2700">
+        <v>0</v>
+      </c>
+      <c r="J2700">
+        <v>30</v>
+      </c>
+      <c r="K2700" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:11">
+      <c r="A2701" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2701" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2701" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2701" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2701" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2701">
+        <v>113</v>
+      </c>
+      <c r="G2701">
+        <v>51</v>
+      </c>
+      <c r="H2701" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2701">
+        <v>0</v>
+      </c>
+      <c r="J2701">
+        <v>51</v>
+      </c>
+      <c r="K2701" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:11">
+      <c r="A2702" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2702" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2702" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2702" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2702">
+        <v>96</v>
+      </c>
+      <c r="G2702">
+        <v>34</v>
+      </c>
+      <c r="H2702" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2702">
+        <v>0</v>
+      </c>
+      <c r="J2702">
+        <v>34</v>
+      </c>
+      <c r="K2702" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:11">
+      <c r="A2703" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2703" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2703" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2703" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2703" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2703">
+        <v>97</v>
+      </c>
+      <c r="G2703">
+        <v>34</v>
+      </c>
+      <c r="H2703" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2703">
+        <v>0</v>
+      </c>
+      <c r="J2703">
+        <v>34</v>
+      </c>
+      <c r="K2703" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:11">
+      <c r="A2704" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2704" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2704" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2704" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2704">
+        <v>5</v>
+      </c>
+      <c r="G2704">
+        <v>3</v>
+      </c>
+      <c r="H2704" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2704">
+        <v>0</v>
+      </c>
+      <c r="J2704">
+        <v>3</v>
+      </c>
+      <c r="K2704" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:11">
+      <c r="A2705" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2705" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2705" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2705">
+        <v>29</v>
+      </c>
+      <c r="G2705">
+        <v>14</v>
+      </c>
+      <c r="H2705" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2705">
+        <v>0</v>
+      </c>
+      <c r="J2705">
+        <v>14</v>
+      </c>
+      <c r="K2705" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:11">
+      <c r="A2706" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2706" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2706" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2706" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2706">
+        <v>11</v>
+      </c>
+      <c r="G2706">
+        <v>7</v>
+      </c>
+      <c r="H2706" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2706">
+        <v>0</v>
+      </c>
+      <c r="J2706">
+        <v>7</v>
+      </c>
+      <c r="K2706" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:11">
+      <c r="A2707" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2707" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2707" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2707" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2707" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2707">
+        <v>7</v>
+      </c>
+      <c r="G2707">
+        <v>0</v>
+      </c>
+      <c r="H2707" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2707">
+        <v>0</v>
+      </c>
+      <c r="J2707">
+        <v>0</v>
+      </c>
+      <c r="K2707" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:11">
+      <c r="A2708" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2708" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2708" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2708" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2708" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2708">
+        <v>0</v>
+      </c>
+      <c r="G2708">
+        <v>0</v>
+      </c>
+      <c r="H2708" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2708">
+        <v>0</v>
+      </c>
+      <c r="J2708">
+        <v>0</v>
+      </c>
+      <c r="K2708" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:11">
+      <c r="A2709" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2709" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2709" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2709" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2709">
+        <v>2</v>
+      </c>
+      <c r="G2709">
+        <v>0</v>
+      </c>
+      <c r="H2709" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2709">
+        <v>0</v>
+      </c>
+      <c r="J2709">
+        <v>0</v>
+      </c>
+      <c r="K2709" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:11">
+      <c r="A2710" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2710" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2710" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2710" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2710">
+        <v>5</v>
+      </c>
+      <c r="G2710">
+        <v>1</v>
+      </c>
+      <c r="H2710" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2710">
+        <v>0</v>
+      </c>
+      <c r="J2710">
+        <v>1</v>
+      </c>
+      <c r="K2710" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:11">
+      <c r="A2711" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2711" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2711" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2711" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2711">
+        <v>6</v>
+      </c>
+      <c r="G2711">
+        <v>1</v>
+      </c>
+      <c r="H2711" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2711">
+        <v>0</v>
+      </c>
+      <c r="J2711">
+        <v>1</v>
+      </c>
+      <c r="K2711" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:11">
+      <c r="A2712" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2712" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2712" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2712" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2712">
+        <v>10</v>
+      </c>
+      <c r="G2712">
+        <v>3</v>
+      </c>
+      <c r="H2712" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2712">
+        <v>0</v>
+      </c>
+      <c r="J2712">
+        <v>3</v>
+      </c>
+      <c r="K2712" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:11">
+      <c r="A2713" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2713" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2713" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2713" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2713" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2713">
+        <v>0</v>
+      </c>
+      <c r="G2713">
+        <v>0</v>
+      </c>
+      <c r="H2713" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2713">
+        <v>0</v>
+      </c>
+      <c r="J2713">
+        <v>0</v>
+      </c>
+      <c r="K2713" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:11">
+      <c r="A2714" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2714" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2714" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2714" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2714" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2714">
+        <v>0</v>
+      </c>
+      <c r="G2714">
+        <v>0</v>
+      </c>
+      <c r="H2714" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2714">
+        <v>0</v>
+      </c>
+      <c r="J2714">
+        <v>0</v>
+      </c>
+      <c r="K2714" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:11">
+      <c r="A2715" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2715" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2715" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2715" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2715" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2715">
+        <v>1</v>
+      </c>
+      <c r="G2715">
+        <v>0</v>
+      </c>
+      <c r="H2715" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2715">
+        <v>0</v>
+      </c>
+      <c r="J2715">
+        <v>0</v>
+      </c>
+      <c r="K2715" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:11">
+      <c r="A2716" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2716" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2716" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2716" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2716">
+        <v>1</v>
+      </c>
+      <c r="G2716">
+        <v>1</v>
+      </c>
+      <c r="H2716" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2716">
+        <v>0</v>
+      </c>
+      <c r="J2716">
+        <v>1</v>
+      </c>
+      <c r="K2716" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:11">
+      <c r="A2717" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2717" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2717" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2717" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2717" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2717">
+        <v>1</v>
+      </c>
+      <c r="G2717">
+        <v>0</v>
+      </c>
+      <c r="H2717" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2717">
+        <v>0</v>
+      </c>
+      <c r="J2717">
+        <v>0</v>
+      </c>
+      <c r="K2717" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:11">
+      <c r="A2718" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2718" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2718" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2718" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2718">
+        <v>98</v>
+      </c>
+      <c r="G2718">
+        <v>43</v>
+      </c>
+      <c r="H2718" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2718">
+        <v>0</v>
+      </c>
+      <c r="J2718">
+        <v>43</v>
+      </c>
+      <c r="K2718" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:11">
+      <c r="A2719" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2719" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2719" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2719" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2719">
+        <v>6</v>
+      </c>
+      <c r="G2719">
+        <v>2</v>
+      </c>
+      <c r="H2719" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2719">
+        <v>0</v>
+      </c>
+      <c r="J2719">
+        <v>2</v>
+      </c>
+      <c r="K2719" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:11">
+      <c r="A2720" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2720" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2720" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2720" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2720">
+        <v>60</v>
+      </c>
+      <c r="G2720">
+        <v>24</v>
+      </c>
+      <c r="H2720" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2720">
+        <v>0</v>
+      </c>
+      <c r="J2720">
+        <v>24</v>
+      </c>
+      <c r="K2720" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:11">
+      <c r="A2721" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2721" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2721" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2721" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2721">
+        <v>52</v>
+      </c>
+      <c r="G2721">
+        <v>15</v>
+      </c>
+      <c r="H2721" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2721">
+        <v>0</v>
+      </c>
+      <c r="J2721">
+        <v>15</v>
+      </c>
+      <c r="K2721" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:11">
+      <c r="A2722" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2722" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2722" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2722" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2722">
+        <v>28</v>
+      </c>
+      <c r="G2722">
+        <v>17</v>
+      </c>
+      <c r="H2722" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2722">
+        <v>0</v>
+      </c>
+      <c r="J2722">
+        <v>17</v>
+      </c>
+      <c r="K2722" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:11">
+      <c r="A2723" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2723" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2723" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2723" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2723">
+        <v>3</v>
+      </c>
+      <c r="G2723">
+        <v>1</v>
+      </c>
+      <c r="H2723" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2723">
+        <v>0</v>
+      </c>
+      <c r="J2723">
+        <v>1</v>
+      </c>
+      <c r="K2723" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:11">
+      <c r="A2724" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2724" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2724" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2724" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2724">
+        <v>0</v>
+      </c>
+      <c r="G2724">
+        <v>0</v>
+      </c>
+      <c r="H2724" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2724">
+        <v>0</v>
+      </c>
+      <c r="J2724">
+        <v>0</v>
+      </c>
+      <c r="K2724" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:11">
+      <c r="A2725" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2725" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2725" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2725" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2725">
+        <v>4</v>
+      </c>
+      <c r="G2725">
+        <v>1</v>
+      </c>
+      <c r="H2725" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2725">
+        <v>0</v>
+      </c>
+      <c r="J2725">
+        <v>1</v>
+      </c>
+      <c r="K2725" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:11">
+      <c r="A2726" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2726" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2726" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2726" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2726">
+        <v>1</v>
+      </c>
+      <c r="G2726">
+        <v>0</v>
+      </c>
+      <c r="H2726" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2726">
+        <v>0</v>
+      </c>
+      <c r="J2726">
+        <v>0</v>
+      </c>
+      <c r="K2726" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:11">
+      <c r="A2727" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2727" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2727" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2727" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2727">
+        <v>13</v>
+      </c>
+      <c r="G2727">
+        <v>6</v>
+      </c>
+      <c r="H2727" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2727">
+        <v>0</v>
+      </c>
+      <c r="J2727">
+        <v>6</v>
+      </c>
+      <c r="K2727" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:11">
+      <c r="A2728" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2728" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2728" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2728" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2728">
+        <v>11</v>
+      </c>
+      <c r="G2728">
+        <v>3</v>
+      </c>
+      <c r="H2728" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2728">
+        <v>0</v>
+      </c>
+      <c r="J2728">
+        <v>3</v>
+      </c>
+      <c r="K2728" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:11">
+      <c r="A2729" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2729" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2729" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2729" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2729">
+        <v>14</v>
+      </c>
+      <c r="G2729">
+        <v>7</v>
+      </c>
+      <c r="H2729" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2729">
+        <v>0</v>
+      </c>
+      <c r="J2729">
+        <v>7</v>
+      </c>
+      <c r="K2729" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:11">
+      <c r="A2730" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2730" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2730" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2730" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2730">
+        <v>5</v>
+      </c>
+      <c r="G2730">
+        <v>2</v>
+      </c>
+      <c r="H2730" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2730">
+        <v>0</v>
+      </c>
+      <c r="J2730">
+        <v>2</v>
+      </c>
+      <c r="K2730" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:11">
+      <c r="A2731" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2731" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2731" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2731" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2731">
+        <v>6</v>
+      </c>
+      <c r="G2731">
+        <v>3</v>
+      </c>
+      <c r="H2731" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2731">
+        <v>0</v>
+      </c>
+      <c r="J2731">
+        <v>3</v>
+      </c>
+      <c r="K2731" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:11">
+      <c r="A2732" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2732" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2732" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2732" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2732">
+        <v>7</v>
+      </c>
+      <c r="G2732">
+        <v>2</v>
+      </c>
+      <c r="H2732" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2732">
+        <v>0</v>
+      </c>
+      <c r="J2732">
+        <v>2</v>
+      </c>
+      <c r="K2732" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:11">
+      <c r="A2733" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2733" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2733" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2733" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2733">
+        <v>1</v>
+      </c>
+      <c r="G2733">
+        <v>0</v>
+      </c>
+      <c r="H2733" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2733">
+        <v>0</v>
+      </c>
+      <c r="J2733">
+        <v>0</v>
+      </c>
+      <c r="K2733" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:11">
+      <c r="A2734" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2734" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2734" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2734" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2734">
+        <v>1</v>
+      </c>
+      <c r="G2734">
+        <v>0</v>
+      </c>
+      <c r="H2734" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2734">
+        <v>0</v>
+      </c>
+      <c r="J2734">
+        <v>0</v>
+      </c>
+      <c r="K2734" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:11">
+      <c r="A2735" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2735" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2735" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2735" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2735">
+        <v>13</v>
+      </c>
+      <c r="G2735">
+        <v>3</v>
+      </c>
+      <c r="H2735" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2735">
+        <v>0</v>
+      </c>
+      <c r="J2735">
+        <v>3</v>
+      </c>
+      <c r="K2735" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:11">
+      <c r="A2736" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2736" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2736" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2736" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2736">
+        <v>17</v>
+      </c>
+      <c r="G2736">
+        <v>6</v>
+      </c>
+      <c r="H2736" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2736">
+        <v>0</v>
+      </c>
+      <c r="J2736">
+        <v>6</v>
+      </c>
+      <c r="K2736" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:11">
+      <c r="A2737" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2737" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2737" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2737" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2737">
+        <v>8</v>
+      </c>
+      <c r="G2737">
+        <v>2</v>
+      </c>
+      <c r="H2737" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2737">
+        <v>0</v>
+      </c>
+      <c r="J2737">
+        <v>2</v>
+      </c>
+      <c r="K2737" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:11">
+      <c r="A2738" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2738" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2738" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2738" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2738">
+        <v>3</v>
+      </c>
+      <c r="G2738">
+        <v>1</v>
+      </c>
+      <c r="H2738" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2738">
+        <v>0</v>
+      </c>
+      <c r="J2738">
+        <v>1</v>
+      </c>
+      <c r="K2738" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:11">
+      <c r="A2739" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2739" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2739" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2739" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2739">
+        <v>49</v>
+      </c>
+      <c r="G2739">
+        <v>18</v>
+      </c>
+      <c r="H2739" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2739">
+        <v>0</v>
+      </c>
+      <c r="J2739">
+        <v>18</v>
+      </c>
+      <c r="K2739" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:11">
+      <c r="A2740" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2740" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2740" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2740" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2740">
+        <v>23</v>
+      </c>
+      <c r="G2740">
+        <v>9</v>
+      </c>
+      <c r="H2740" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2740">
+        <v>0</v>
+      </c>
+      <c r="J2740">
+        <v>9</v>
+      </c>
+      <c r="K2740" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:11">
+      <c r="A2741" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2741" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2741" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2741" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2741">
+        <v>37</v>
+      </c>
+      <c r="G2741">
+        <v>9</v>
+      </c>
+      <c r="H2741" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2741">
+        <v>0</v>
+      </c>
+      <c r="J2741">
+        <v>9</v>
+      </c>
+      <c r="K2741" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:11">
+      <c r="A2742" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2742" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2742" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2742" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2742">
+        <v>13</v>
+      </c>
+      <c r="G2742">
+        <v>7</v>
+      </c>
+      <c r="H2742" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2742">
+        <v>0</v>
+      </c>
+      <c r="J2742">
+        <v>7</v>
+      </c>
+      <c r="K2742" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:11">
+      <c r="A2743" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2743" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2743" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2743" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2743">
+        <v>6</v>
+      </c>
+      <c r="G2743">
+        <v>2</v>
+      </c>
+      <c r="H2743" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2743">
+        <v>0</v>
+      </c>
+      <c r="J2743">
+        <v>2</v>
+      </c>
+      <c r="K2743" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:11">
+      <c r="A2744" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2744" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2744" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2744" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2744">
+        <v>18</v>
+      </c>
+      <c r="G2744">
+        <v>8</v>
+      </c>
+      <c r="H2744" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2744">
+        <v>0</v>
+      </c>
+      <c r="J2744">
+        <v>8</v>
+      </c>
+      <c r="K2744" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:11">
+      <c r="A2745" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2745" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2745" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2745" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2745">
+        <v>18</v>
+      </c>
+      <c r="G2745">
+        <v>4</v>
+      </c>
+      <c r="H2745" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2745">
+        <v>0</v>
+      </c>
+      <c r="J2745">
+        <v>4</v>
+      </c>
+      <c r="K2745" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:11">
+      <c r="A2746" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2746" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2746" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2746" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2746">
+        <v>12</v>
+      </c>
+      <c r="G2746">
+        <v>8</v>
+      </c>
+      <c r="H2746" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2746">
+        <v>0</v>
+      </c>
+      <c r="J2746">
+        <v>8</v>
+      </c>
+      <c r="K2746" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:11">
+      <c r="A2747" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2747" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2747" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2747" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2747">
+        <v>15</v>
+      </c>
+      <c r="G2747">
+        <v>6</v>
+      </c>
+      <c r="H2747" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2747">
+        <v>0</v>
+      </c>
+      <c r="J2747">
+        <v>6</v>
+      </c>
+      <c r="K2747" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:11">
+      <c r="A2748" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2748" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2748" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2748" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2748">
+        <v>14</v>
+      </c>
+      <c r="G2748">
+        <v>6</v>
+      </c>
+      <c r="H2748" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2748">
+        <v>0</v>
+      </c>
+      <c r="J2748">
+        <v>6</v>
+      </c>
+      <c r="K2748" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:11">
+      <c r="A2749" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2749" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2749" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2749" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2749">
+        <v>13</v>
+      </c>
+      <c r="G2749">
+        <v>1</v>
+      </c>
+      <c r="H2749" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2749">
+        <v>0</v>
+      </c>
+      <c r="J2749">
+        <v>1</v>
+      </c>
+      <c r="K2749" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:11">
+      <c r="A2750" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2750" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2750" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2750" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2750">
+        <v>39</v>
+      </c>
+      <c r="G2750">
+        <v>21</v>
+      </c>
+      <c r="H2750" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2750">
+        <v>0</v>
+      </c>
+      <c r="J2750">
+        <v>21</v>
+      </c>
+      <c r="K2750" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:11">
+      <c r="A2751" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2751" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2751" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2751" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2751">
+        <v>11</v>
+      </c>
+      <c r="G2751">
+        <v>5</v>
+      </c>
+      <c r="H2751" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2751">
+        <v>0</v>
+      </c>
+      <c r="J2751">
+        <v>5</v>
+      </c>
+      <c r="K2751" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:11">
+      <c r="A2752" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2752" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2752" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2752" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2752">
+        <v>34</v>
+      </c>
+      <c r="G2752">
+        <v>17</v>
+      </c>
+      <c r="H2752" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2752">
+        <v>0</v>
+      </c>
+      <c r="J2752">
+        <v>17</v>
+      </c>
+      <c r="K2752" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:11">
+      <c r="A2753" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2753" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2753" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2753" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2753">
+        <v>10</v>
+      </c>
+      <c r="G2753">
+        <v>1</v>
+      </c>
+      <c r="H2753" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2753">
+        <v>0</v>
+      </c>
+      <c r="J2753">
+        <v>1</v>
+      </c>
+      <c r="K2753" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:11">
+      <c r="A2754" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2754" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2754" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2754" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2754">
+        <v>3</v>
+      </c>
+      <c r="G2754">
+        <v>3</v>
+      </c>
+      <c r="H2754" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2754">
+        <v>0</v>
+      </c>
+      <c r="J2754">
+        <v>3</v>
+      </c>
+      <c r="K2754" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:11">
+      <c r="A2755" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2755" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2755" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2755">
+        <v>1</v>
+      </c>
+      <c r="G2755">
+        <v>0</v>
+      </c>
+      <c r="H2755" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2755">
+        <v>0</v>
+      </c>
+      <c r="J2755">
+        <v>0</v>
+      </c>
+      <c r="K2755" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:11">
+      <c r="A2756" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2756" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2756" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2756" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2756">
+        <v>2</v>
+      </c>
+      <c r="G2756">
+        <v>1</v>
+      </c>
+      <c r="H2756" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2756">
+        <v>0</v>
+      </c>
+      <c r="J2756">
+        <v>1</v>
+      </c>
+      <c r="K2756" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:11">
+      <c r="A2757" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2757" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2757" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2757" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2757">
+        <v>0</v>
+      </c>
+      <c r="G2757">
+        <v>0</v>
+      </c>
+      <c r="H2757" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2757">
+        <v>0</v>
+      </c>
+      <c r="J2757">
+        <v>0</v>
+      </c>
+      <c r="K2757" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:11">
+      <c r="A2758" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2758" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2758" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2758" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2758">
+        <v>2</v>
+      </c>
+      <c r="G2758">
+        <v>1</v>
+      </c>
+      <c r="H2758" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2758">
+        <v>0</v>
+      </c>
+      <c r="J2758">
+        <v>1</v>
+      </c>
+      <c r="K2758" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:11">
+      <c r="A2759" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2759" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2759" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2759" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2759">
+        <v>4</v>
+      </c>
+      <c r="G2759">
+        <v>1</v>
+      </c>
+      <c r="H2759" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2759">
+        <v>0</v>
+      </c>
+      <c r="J2759">
+        <v>1</v>
+      </c>
+      <c r="K2759" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:11">
+      <c r="A2760" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2760" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2760" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2760" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2760">
+        <v>6</v>
+      </c>
+      <c r="G2760">
+        <v>2</v>
+      </c>
+      <c r="H2760" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2760">
+        <v>0</v>
+      </c>
+      <c r="J2760">
+        <v>2</v>
+      </c>
+      <c r="K2760" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:11">
+      <c r="A2761" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2761" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2761" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2761" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2761">
+        <v>2</v>
+      </c>
+      <c r="G2761">
+        <v>2</v>
+      </c>
+      <c r="H2761" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2761">
+        <v>0</v>
+      </c>
+      <c r="J2761">
+        <v>2</v>
+      </c>
+      <c r="K2761" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:11">
+      <c r="A2762" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2762" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2762" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2762" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2762">
+        <v>7</v>
+      </c>
+      <c r="G2762">
+        <v>2</v>
+      </c>
+      <c r="H2762" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2762">
+        <v>0</v>
+      </c>
+      <c r="J2762">
+        <v>2</v>
+      </c>
+      <c r="K2762" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:11">
+      <c r="A2763" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2763" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2763" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2763" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2763">
+        <v>10</v>
+      </c>
+      <c r="G2763">
+        <v>3</v>
+      </c>
+      <c r="H2763" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2763">
+        <v>0</v>
+      </c>
+      <c r="J2763">
+        <v>3</v>
+      </c>
+      <c r="K2763" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:11">
+      <c r="A2764" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2764" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2764" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2764" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2764">
+        <v>14</v>
+      </c>
+      <c r="G2764">
+        <v>2</v>
+      </c>
+      <c r="H2764" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2764">
+        <v>0</v>
+      </c>
+      <c r="J2764">
+        <v>2</v>
+      </c>
+      <c r="K2764" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:11">
+      <c r="A2765" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2765" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2765" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2765" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2765">
+        <v>15</v>
+      </c>
+      <c r="G2765">
+        <v>2</v>
+      </c>
+      <c r="H2765" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2765">
+        <v>0</v>
+      </c>
+      <c r="J2765">
+        <v>2</v>
+      </c>
+      <c r="K2765" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:11">
+      <c r="A2766" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2766" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2766" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2766" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2766">
+        <v>12</v>
+      </c>
+      <c r="G2766">
+        <v>2</v>
+      </c>
+      <c r="H2766" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2766">
+        <v>0</v>
+      </c>
+      <c r="J2766">
+        <v>2</v>
+      </c>
+      <c r="K2766" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:11">
+      <c r="A2767" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2767" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2767" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2767" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2767">
+        <v>22</v>
+      </c>
+      <c r="G2767">
+        <v>12</v>
+      </c>
+      <c r="H2767" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2767">
+        <v>0</v>
+      </c>
+      <c r="J2767">
+        <v>12</v>
+      </c>
+      <c r="K2767" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:11">
+      <c r="A2768" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2768" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2768" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2768" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2768">
+        <v>17</v>
+      </c>
+      <c r="G2768">
+        <v>6</v>
+      </c>
+      <c r="H2768" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2768">
+        <v>0</v>
+      </c>
+      <c r="J2768">
+        <v>6</v>
+      </c>
+      <c r="K2768" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:11">
+      <c r="A2769" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2769" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2769" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2769" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2769">
+        <v>22</v>
+      </c>
+      <c r="G2769">
+        <v>8</v>
+      </c>
+      <c r="H2769" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2769">
+        <v>0</v>
+      </c>
+      <c r="J2769">
+        <v>8</v>
+      </c>
+      <c r="K2769" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:11">
+      <c r="A2770" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2770" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2770" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2770" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2770">
+        <v>20</v>
+      </c>
+      <c r="G2770">
+        <v>9</v>
+      </c>
+      <c r="H2770" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2770">
+        <v>0</v>
+      </c>
+      <c r="J2770">
+        <v>9</v>
+      </c>
+      <c r="K2770" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:11">
+      <c r="A2771" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2771" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2771" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2771" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2771">
+        <v>7</v>
+      </c>
+      <c r="G2771">
+        <v>2</v>
+      </c>
+      <c r="H2771" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2771">
+        <v>0</v>
+      </c>
+      <c r="J2771">
+        <v>2</v>
+      </c>
+      <c r="K2771" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:11">
+      <c r="A2772" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2772" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2772" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2772" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2772">
+        <v>11</v>
+      </c>
+      <c r="G2772">
+        <v>4</v>
+      </c>
+      <c r="H2772" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2772">
+        <v>0</v>
+      </c>
+      <c r="J2772">
+        <v>4</v>
+      </c>
+      <c r="K2772" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:11">
+      <c r="A2773" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2773" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2773" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2773" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2773">
+        <v>17</v>
+      </c>
+      <c r="G2773">
+        <v>4</v>
+      </c>
+      <c r="H2773" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2773">
+        <v>0</v>
+      </c>
+      <c r="J2773">
+        <v>4</v>
+      </c>
+      <c r="K2773" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:11">
+      <c r="A2774" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2774" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2774" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2774" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2774">
+        <v>15</v>
+      </c>
+      <c r="G2774">
+        <v>10</v>
+      </c>
+      <c r="H2774" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2774">
+        <v>0</v>
+      </c>
+      <c r="J2774">
+        <v>10</v>
+      </c>
+      <c r="K2774" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:11">
+      <c r="A2775" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2775" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2775" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2775" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2775">
+        <v>19</v>
+      </c>
+      <c r="G2775">
+        <v>9</v>
+      </c>
+      <c r="H2775" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2775">
+        <v>0</v>
+      </c>
+      <c r="J2775">
+        <v>9</v>
+      </c>
+      <c r="K2775" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:11">
+      <c r="A2776" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2776" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2776" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2776" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2776">
+        <v>15</v>
+      </c>
+      <c r="G2776">
+        <v>4</v>
+      </c>
+      <c r="H2776" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2776">
+        <v>0</v>
+      </c>
+      <c r="J2776">
+        <v>4</v>
+      </c>
+      <c r="K2776" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:11">
+      <c r="A2777" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2777" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2777" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2777" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2777">
+        <v>9</v>
+      </c>
+      <c r="G2777">
+        <v>4</v>
+      </c>
+      <c r="H2777" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2777">
+        <v>0</v>
+      </c>
+      <c r="J2777">
+        <v>4</v>
+      </c>
+      <c r="K2777" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:11">
+      <c r="A2778" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2778" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2778" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2778" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2778">
+        <v>9</v>
+      </c>
+      <c r="G2778">
+        <v>3</v>
+      </c>
+      <c r="H2778" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2778">
+        <v>0</v>
+      </c>
+      <c r="J2778">
+        <v>3</v>
+      </c>
+      <c r="K2778" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:11">
+      <c r="A2779" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2779" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2779">
+        <v>27</v>
+      </c>
+      <c r="G2779">
+        <v>8</v>
+      </c>
+      <c r="H2779" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2779">
+        <v>0</v>
+      </c>
+      <c r="J2779">
+        <v>8</v>
+      </c>
+      <c r="K2779" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:11">
+      <c r="A2780" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2780" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2780">
+        <v>26</v>
+      </c>
+      <c r="G2780">
+        <v>7</v>
+      </c>
+      <c r="H2780" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2780">
+        <v>0</v>
+      </c>
+      <c r="J2780">
+        <v>7</v>
+      </c>
+      <c r="K2780" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:11">
+      <c r="A2781" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2781" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2781" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2781" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2781">
+        <v>12</v>
+      </c>
+      <c r="G2781">
+        <v>5</v>
+      </c>
+      <c r="H2781" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2781">
+        <v>0</v>
+      </c>
+      <c r="J2781">
+        <v>5</v>
+      </c>
+      <c r="K2781" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:11">
+      <c r="A2782" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2782" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2782" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2782" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2782">
+        <v>15</v>
+      </c>
+      <c r="G2782">
+        <v>4</v>
+      </c>
+      <c r="H2782" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2782">
+        <v>0</v>
+      </c>
+      <c r="J2782">
+        <v>4</v>
+      </c>
+      <c r="K2782" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:11">
+      <c r="A2783" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2783" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2783" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2783">
+        <v>16</v>
+      </c>
+      <c r="G2783">
+        <v>6</v>
+      </c>
+      <c r="H2783" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2783">
+        <v>0</v>
+      </c>
+      <c r="J2783">
+        <v>6</v>
+      </c>
+      <c r="K2783" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:11">
+      <c r="A2784" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2784" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2784" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2784" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2784">
+        <v>3</v>
+      </c>
+      <c r="G2784">
+        <v>1</v>
+      </c>
+      <c r="H2784" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2784">
+        <v>0</v>
+      </c>
+      <c r="J2784">
+        <v>1</v>
+      </c>
+      <c r="K2784" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:11">
+      <c r="A2785" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2785" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2785" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2785">
+        <v>3</v>
+      </c>
+      <c r="G2785">
+        <v>2</v>
+      </c>
+      <c r="H2785" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2785">
+        <v>0</v>
+      </c>
+      <c r="J2785">
+        <v>2</v>
+      </c>
+      <c r="K2785" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:11">
+      <c r="A2786" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2786" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2786" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2786">
+        <v>5</v>
+      </c>
+      <c r="G2786">
+        <v>1</v>
+      </c>
+      <c r="H2786" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2786">
+        <v>0</v>
+      </c>
+      <c r="J2786">
+        <v>1</v>
+      </c>
+      <c r="K2786" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:11">
+      <c r="A2787" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2787" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2787" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2787" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2787">
+        <v>1</v>
+      </c>
+      <c r="G2787">
+        <v>1</v>
+      </c>
+      <c r="H2787" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2787">
+        <v>0</v>
+      </c>
+      <c r="J2787">
+        <v>1</v>
+      </c>
+      <c r="K2787" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:11">
+      <c r="A2788" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2788" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2788" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2788">
+        <v>2</v>
+      </c>
+      <c r="G2788">
+        <v>1</v>
+      </c>
+      <c r="H2788" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2788">
+        <v>0</v>
+      </c>
+      <c r="J2788">
+        <v>1</v>
+      </c>
+      <c r="K2788" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:11">
+      <c r="A2789" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2789" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2789" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2789">
+        <v>1</v>
+      </c>
+      <c r="G2789">
+        <v>0</v>
+      </c>
+      <c r="H2789" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2789">
+        <v>0</v>
+      </c>
+      <c r="J2789">
+        <v>0</v>
+      </c>
+      <c r="K2789" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:11">
+      <c r="A2790" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2790" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2790" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2790" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2790">
+        <v>3</v>
+      </c>
+      <c r="G2790">
+        <v>1</v>
+      </c>
+      <c r="H2790" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2790">
+        <v>0</v>
+      </c>
+      <c r="J2790">
+        <v>1</v>
+      </c>
+      <c r="K2790" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:11">
+      <c r="A2791" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2791" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2791" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2791">
+        <v>7</v>
+      </c>
+      <c r="G2791">
+        <v>4</v>
+      </c>
+      <c r="H2791" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2791">
+        <v>0</v>
+      </c>
+      <c r="J2791">
+        <v>4</v>
+      </c>
+      <c r="K2791" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:11">
+      <c r="A2792" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2792" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2792" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2792">
+        <v>13</v>
+      </c>
+      <c r="G2792">
+        <v>4</v>
+      </c>
+      <c r="H2792" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2792">
+        <v>0</v>
+      </c>
+      <c r="J2792">
+        <v>4</v>
+      </c>
+      <c r="K2792" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:11">
+      <c r="A2793" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2793" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2793" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2793">
+        <v>13</v>
+      </c>
+      <c r="G2793">
+        <v>5</v>
+      </c>
+      <c r="H2793" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2793">
+        <v>0</v>
+      </c>
+      <c r="J2793">
+        <v>5</v>
+      </c>
+      <c r="K2793" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:11">
+      <c r="A2794" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2794" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2794" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2794" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2794">
+        <v>15</v>
+      </c>
+      <c r="G2794">
+        <v>4</v>
+      </c>
+      <c r="H2794" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2794">
+        <v>0</v>
+      </c>
+      <c r="J2794">
+        <v>4</v>
+      </c>
+      <c r="K2794" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:11">
+      <c r="A2795" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2795" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2795" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2795">
+        <v>12</v>
+      </c>
+      <c r="G2795">
+        <v>5</v>
+      </c>
+      <c r="H2795" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2795">
+        <v>0</v>
+      </c>
+      <c r="J2795">
+        <v>5</v>
+      </c>
+      <c r="K2795" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:11">
+      <c r="A2796" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2796" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2796" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2796">
+        <v>17</v>
+      </c>
+      <c r="G2796">
+        <v>9</v>
+      </c>
+      <c r="H2796" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2796">
+        <v>0</v>
+      </c>
+      <c r="J2796">
+        <v>9</v>
+      </c>
+      <c r="K2796" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:11">
+      <c r="A2797" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2797" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2797" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2797">
+        <v>29</v>
+      </c>
+      <c r="G2797">
+        <v>16</v>
+      </c>
+      <c r="H2797" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2797">
+        <v>0</v>
+      </c>
+      <c r="J2797">
+        <v>16</v>
+      </c>
+      <c r="K2797" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:11">
+      <c r="A2798" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2798" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2798" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2798" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2798" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2798">
+        <v>13</v>
+      </c>
+      <c r="G2798">
+        <v>6</v>
+      </c>
+      <c r="H2798" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2798">
+        <v>0</v>
+      </c>
+      <c r="J2798">
+        <v>6</v>
+      </c>
+      <c r="K2798" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:11">
+      <c r="A2799" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2799" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2799" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2799" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2799">
+        <v>23</v>
+      </c>
+      <c r="G2799">
+        <v>6</v>
+      </c>
+      <c r="H2799" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2799">
+        <v>0</v>
+      </c>
+      <c r="J2799">
+        <v>6</v>
+      </c>
+      <c r="K2799" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:11">
+      <c r="A2800" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2800" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2800" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2800">
+        <v>10</v>
+      </c>
+      <c r="G2800">
+        <v>4</v>
+      </c>
+      <c r="H2800" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2800">
+        <v>0</v>
+      </c>
+      <c r="J2800">
+        <v>4</v>
+      </c>
+      <c r="K2800" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:11">
+      <c r="A2801" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2801" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2801" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2801">
+        <v>11</v>
+      </c>
+      <c r="G2801">
+        <v>3</v>
+      </c>
+      <c r="H2801" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2801">
+        <v>0</v>
+      </c>
+      <c r="J2801">
+        <v>3</v>
+      </c>
+      <c r="K2801" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:11">
+      <c r="A2802" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2802" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2802" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2802">
+        <v>8</v>
+      </c>
+      <c r="G2802">
+        <v>3</v>
+      </c>
+      <c r="H2802" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2802">
+        <v>0</v>
+      </c>
+      <c r="J2802">
+        <v>3</v>
+      </c>
+      <c r="K2802" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:11">
+      <c r="A2803" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2803" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2803" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2803">
+        <v>13</v>
+      </c>
+      <c r="G2803">
+        <v>3</v>
+      </c>
+      <c r="H2803" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2803">
+        <v>0</v>
+      </c>
+      <c r="J2803">
+        <v>3</v>
+      </c>
+      <c r="K2803" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:11">
+      <c r="A2804" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2804" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2804" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2804">
+        <v>2</v>
+      </c>
+      <c r="G2804">
+        <v>2</v>
+      </c>
+      <c r="H2804" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2804">
+        <v>0</v>
+      </c>
+      <c r="J2804">
+        <v>2</v>
+      </c>
+      <c r="K2804" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:11">
+      <c r="A2805" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2805" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2805" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2805">
+        <v>21</v>
+      </c>
+      <c r="G2805">
+        <v>8</v>
+      </c>
+      <c r="H2805" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2805">
+        <v>0</v>
+      </c>
+      <c r="J2805">
+        <v>8</v>
+      </c>
+      <c r="K2805" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:11">
+      <c r="A2806" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2806" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2806" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2806">
+        <v>53</v>
+      </c>
+      <c r="G2806">
+        <v>25</v>
+      </c>
+      <c r="H2806" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2806">
+        <v>0</v>
+      </c>
+      <c r="J2806">
+        <v>25</v>
+      </c>
+      <c r="K2806" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:11">
+      <c r="A2807" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2807" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2807" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2807" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2807">
+        <v>205</v>
+      </c>
+      <c r="G2807">
+        <v>49</v>
+      </c>
+      <c r="H2807" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2807">
+        <v>0</v>
+      </c>
+      <c r="J2807">
+        <v>49</v>
+      </c>
+      <c r="K2807" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:11">
+      <c r="A2808" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2808" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2808" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2808" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2808">
+        <v>11</v>
+      </c>
+      <c r="G2808">
+        <v>2</v>
+      </c>
+      <c r="H2808" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2808">
+        <v>0</v>
+      </c>
+      <c r="J2808">
+        <v>2</v>
+      </c>
+      <c r="K2808" s="2">
+        <v>45541.83353156586</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:11">
+      <c r="A2809" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2809" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2809" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2809" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2809">
+        <v>46</v>
+      </c>
+      <c r="G2809">
+        <v>15</v>
+      </c>
+      <c r="H2809" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2809">
+        <v>0</v>
+      </c>
+      <c r="J2809">
+        <v>15</v>
+      </c>
+      <c r="K2809" s="2">
+        <v>45541.83353156586</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16859" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17795" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2809"/>
+  <dimension ref="A1:K2965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -93610,7 +93610,7 @@
         <v>37</v>
       </c>
       <c r="K2654" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2655" spans="1:11">
@@ -93645,7 +93645,7 @@
         <v>20</v>
       </c>
       <c r="K2655" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2656" spans="1:11">
@@ -93680,7 +93680,7 @@
         <v>13</v>
       </c>
       <c r="K2656" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2657" spans="1:11">
@@ -93715,7 +93715,7 @@
         <v>35</v>
       </c>
       <c r="K2657" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2658" spans="1:11">
@@ -93750,7 +93750,7 @@
         <v>10</v>
       </c>
       <c r="K2658" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2659" spans="1:11">
@@ -93785,7 +93785,7 @@
         <v>7</v>
       </c>
       <c r="K2659" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2660" spans="1:11">
@@ -93820,7 +93820,7 @@
         <v>1</v>
       </c>
       <c r="K2660" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2661" spans="1:11">
@@ -93855,7 +93855,7 @@
         <v>3</v>
       </c>
       <c r="K2661" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2662" spans="1:11">
@@ -93890,7 +93890,7 @@
         <v>86</v>
       </c>
       <c r="K2662" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2663" spans="1:11">
@@ -93925,7 +93925,7 @@
         <v>76</v>
       </c>
       <c r="K2663" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2664" spans="1:11">
@@ -93960,7 +93960,7 @@
         <v>110</v>
       </c>
       <c r="K2664" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2665" spans="1:11">
@@ -93995,7 +93995,7 @@
         <v>34</v>
       </c>
       <c r="K2665" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2666" spans="1:11">
@@ -94030,7 +94030,7 @@
         <v>28</v>
       </c>
       <c r="K2666" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2667" spans="1:11">
@@ -94065,7 +94065,7 @@
         <v>24</v>
       </c>
       <c r="K2667" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2668" spans="1:11">
@@ -94100,7 +94100,7 @@
         <v>41</v>
       </c>
       <c r="K2668" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2669" spans="1:11">
@@ -94135,7 +94135,7 @@
         <v>18</v>
       </c>
       <c r="K2669" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2670" spans="1:11">
@@ -94170,7 +94170,7 @@
         <v>13</v>
       </c>
       <c r="K2670" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2671" spans="1:11">
@@ -94205,7 +94205,7 @@
         <v>2</v>
       </c>
       <c r="K2671" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2672" spans="1:11">
@@ -94240,7 +94240,7 @@
         <v>19</v>
       </c>
       <c r="K2672" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2673" spans="1:11">
@@ -94275,7 +94275,7 @@
         <v>36</v>
       </c>
       <c r="K2673" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2674" spans="1:11">
@@ -94310,7 +94310,7 @@
         <v>35</v>
       </c>
       <c r="K2674" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2675" spans="1:11">
@@ -94345,7 +94345,7 @@
         <v>41</v>
       </c>
       <c r="K2675" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2676" spans="1:11">
@@ -94380,7 +94380,7 @@
         <v>48</v>
       </c>
       <c r="K2676" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2677" spans="1:11">
@@ -94415,7 +94415,7 @@
         <v>34</v>
       </c>
       <c r="K2677" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2678" spans="1:11">
@@ -94450,7 +94450,7 @@
         <v>26</v>
       </c>
       <c r="K2678" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2679" spans="1:11">
@@ -94485,7 +94485,7 @@
         <v>68</v>
       </c>
       <c r="K2679" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2680" spans="1:11">
@@ -94520,7 +94520,7 @@
         <v>25</v>
       </c>
       <c r="K2680" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2681" spans="1:11">
@@ -94555,7 +94555,7 @@
         <v>52</v>
       </c>
       <c r="K2681" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2682" spans="1:11">
@@ -94590,7 +94590,7 @@
         <v>48</v>
       </c>
       <c r="K2682" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2683" spans="1:11">
@@ -94625,7 +94625,7 @@
         <v>19</v>
       </c>
       <c r="K2683" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2684" spans="1:11">
@@ -94660,7 +94660,7 @@
         <v>49</v>
       </c>
       <c r="K2684" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2685" spans="1:11">
@@ -94695,7 +94695,7 @@
         <v>60</v>
       </c>
       <c r="K2685" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2686" spans="1:11">
@@ -94730,7 +94730,7 @@
         <v>53</v>
       </c>
       <c r="K2686" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2687" spans="1:11">
@@ -94765,7 +94765,7 @@
         <v>32</v>
       </c>
       <c r="K2687" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2688" spans="1:11">
@@ -94800,7 +94800,7 @@
         <v>17</v>
       </c>
       <c r="K2688" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2689" spans="1:11">
@@ -94835,7 +94835,7 @@
         <v>30</v>
       </c>
       <c r="K2689" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2690" spans="1:11">
@@ -94870,7 +94870,7 @@
         <v>24</v>
       </c>
       <c r="K2690" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2691" spans="1:11">
@@ -94905,7 +94905,7 @@
         <v>39</v>
       </c>
       <c r="K2691" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2692" spans="1:11">
@@ -94940,7 +94940,7 @@
         <v>54</v>
       </c>
       <c r="K2692" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2693" spans="1:11">
@@ -94975,7 +94975,7 @@
         <v>61</v>
       </c>
       <c r="K2693" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2694" spans="1:11">
@@ -95010,7 +95010,7 @@
         <v>71</v>
       </c>
       <c r="K2694" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2695" spans="1:11">
@@ -95045,7 +95045,7 @@
         <v>17</v>
       </c>
       <c r="K2695" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2696" spans="1:11">
@@ -95080,7 +95080,7 @@
         <v>65</v>
       </c>
       <c r="K2696" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2697" spans="1:11">
@@ -95115,7 +95115,7 @@
         <v>31</v>
       </c>
       <c r="K2697" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2698" spans="1:11">
@@ -95150,7 +95150,7 @@
         <v>56</v>
       </c>
       <c r="K2698" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2699" spans="1:11">
@@ -95185,7 +95185,7 @@
         <v>84</v>
       </c>
       <c r="K2699" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2700" spans="1:11">
@@ -95220,7 +95220,7 @@
         <v>30</v>
       </c>
       <c r="K2700" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2701" spans="1:11">
@@ -95255,7 +95255,7 @@
         <v>51</v>
       </c>
       <c r="K2701" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2702" spans="1:11">
@@ -95290,7 +95290,7 @@
         <v>34</v>
       </c>
       <c r="K2702" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2703" spans="1:11">
@@ -95325,7 +95325,7 @@
         <v>34</v>
       </c>
       <c r="K2703" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2704" spans="1:11">
@@ -95360,7 +95360,7 @@
         <v>3</v>
       </c>
       <c r="K2704" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2705" spans="1:11">
@@ -95395,7 +95395,7 @@
         <v>14</v>
       </c>
       <c r="K2705" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2706" spans="1:11">
@@ -95430,7 +95430,7 @@
         <v>7</v>
       </c>
       <c r="K2706" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2707" spans="1:11">
@@ -95465,7 +95465,7 @@
         <v>0</v>
       </c>
       <c r="K2707" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2708" spans="1:11">
@@ -95500,7 +95500,7 @@
         <v>0</v>
       </c>
       <c r="K2708" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2709" spans="1:11">
@@ -95535,7 +95535,7 @@
         <v>0</v>
       </c>
       <c r="K2709" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2710" spans="1:11">
@@ -95570,7 +95570,7 @@
         <v>1</v>
       </c>
       <c r="K2710" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2711" spans="1:11">
@@ -95605,7 +95605,7 @@
         <v>1</v>
       </c>
       <c r="K2711" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2712" spans="1:11">
@@ -95640,7 +95640,7 @@
         <v>3</v>
       </c>
       <c r="K2712" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2713" spans="1:11">
@@ -95675,7 +95675,7 @@
         <v>0</v>
       </c>
       <c r="K2713" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2714" spans="1:11">
@@ -95710,7 +95710,7 @@
         <v>0</v>
       </c>
       <c r="K2714" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2715" spans="1:11">
@@ -95745,7 +95745,7 @@
         <v>0</v>
       </c>
       <c r="K2715" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2716" spans="1:11">
@@ -95780,7 +95780,7 @@
         <v>1</v>
       </c>
       <c r="K2716" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2717" spans="1:11">
@@ -95815,7 +95815,7 @@
         <v>0</v>
       </c>
       <c r="K2717" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2718" spans="1:11">
@@ -95850,7 +95850,7 @@
         <v>43</v>
       </c>
       <c r="K2718" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2719" spans="1:11">
@@ -95885,7 +95885,7 @@
         <v>2</v>
       </c>
       <c r="K2719" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2720" spans="1:11">
@@ -95920,7 +95920,7 @@
         <v>24</v>
       </c>
       <c r="K2720" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2721" spans="1:11">
@@ -95955,7 +95955,7 @@
         <v>15</v>
       </c>
       <c r="K2721" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2722" spans="1:11">
@@ -95990,7 +95990,7 @@
         <v>17</v>
       </c>
       <c r="K2722" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2723" spans="1:11">
@@ -96025,7 +96025,7 @@
         <v>1</v>
       </c>
       <c r="K2723" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2724" spans="1:11">
@@ -96060,7 +96060,7 @@
         <v>0</v>
       </c>
       <c r="K2724" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2725" spans="1:11">
@@ -96095,7 +96095,7 @@
         <v>1</v>
       </c>
       <c r="K2725" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2726" spans="1:11">
@@ -96130,7 +96130,7 @@
         <v>0</v>
       </c>
       <c r="K2726" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2727" spans="1:11">
@@ -96165,7 +96165,7 @@
         <v>6</v>
       </c>
       <c r="K2727" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2728" spans="1:11">
@@ -96200,7 +96200,7 @@
         <v>3</v>
       </c>
       <c r="K2728" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2729" spans="1:11">
@@ -96235,7 +96235,7 @@
         <v>7</v>
       </c>
       <c r="K2729" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2730" spans="1:11">
@@ -96270,7 +96270,7 @@
         <v>2</v>
       </c>
       <c r="K2730" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2731" spans="1:11">
@@ -96305,7 +96305,7 @@
         <v>3</v>
       </c>
       <c r="K2731" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2732" spans="1:11">
@@ -96340,7 +96340,7 @@
         <v>2</v>
       </c>
       <c r="K2732" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2733" spans="1:11">
@@ -96375,7 +96375,7 @@
         <v>0</v>
       </c>
       <c r="K2733" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2734" spans="1:11">
@@ -96410,7 +96410,7 @@
         <v>0</v>
       </c>
       <c r="K2734" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2735" spans="1:11">
@@ -96445,7 +96445,7 @@
         <v>3</v>
       </c>
       <c r="K2735" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2736" spans="1:11">
@@ -96480,7 +96480,7 @@
         <v>6</v>
       </c>
       <c r="K2736" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2737" spans="1:11">
@@ -96515,7 +96515,7 @@
         <v>2</v>
       </c>
       <c r="K2737" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2738" spans="1:11">
@@ -96550,7 +96550,7 @@
         <v>1</v>
       </c>
       <c r="K2738" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2739" spans="1:11">
@@ -96585,7 +96585,7 @@
         <v>18</v>
       </c>
       <c r="K2739" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2740" spans="1:11">
@@ -96620,7 +96620,7 @@
         <v>9</v>
       </c>
       <c r="K2740" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2741" spans="1:11">
@@ -96655,7 +96655,7 @@
         <v>9</v>
       </c>
       <c r="K2741" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2742" spans="1:11">
@@ -96690,7 +96690,7 @@
         <v>7</v>
       </c>
       <c r="K2742" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2743" spans="1:11">
@@ -96725,7 +96725,7 @@
         <v>2</v>
       </c>
       <c r="K2743" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2744" spans="1:11">
@@ -96760,7 +96760,7 @@
         <v>8</v>
       </c>
       <c r="K2744" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2745" spans="1:11">
@@ -96795,7 +96795,7 @@
         <v>4</v>
       </c>
       <c r="K2745" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2746" spans="1:11">
@@ -96830,7 +96830,7 @@
         <v>8</v>
       </c>
       <c r="K2746" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2747" spans="1:11">
@@ -96865,7 +96865,7 @@
         <v>6</v>
       </c>
       <c r="K2747" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2748" spans="1:11">
@@ -96900,7 +96900,7 @@
         <v>6</v>
       </c>
       <c r="K2748" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2749" spans="1:11">
@@ -96935,7 +96935,7 @@
         <v>1</v>
       </c>
       <c r="K2749" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2750" spans="1:11">
@@ -96970,7 +96970,7 @@
         <v>21</v>
       </c>
       <c r="K2750" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2751" spans="1:11">
@@ -97005,7 +97005,7 @@
         <v>5</v>
       </c>
       <c r="K2751" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2752" spans="1:11">
@@ -97040,7 +97040,7 @@
         <v>17</v>
       </c>
       <c r="K2752" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2753" spans="1:11">
@@ -97075,7 +97075,7 @@
         <v>1</v>
       </c>
       <c r="K2753" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2754" spans="1:11">
@@ -97110,7 +97110,7 @@
         <v>3</v>
       </c>
       <c r="K2754" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2755" spans="1:11">
@@ -97145,7 +97145,7 @@
         <v>0</v>
       </c>
       <c r="K2755" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2756" spans="1:11">
@@ -97180,7 +97180,7 @@
         <v>1</v>
       </c>
       <c r="K2756" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2757" spans="1:11">
@@ -97215,7 +97215,7 @@
         <v>0</v>
       </c>
       <c r="K2757" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2758" spans="1:11">
@@ -97250,7 +97250,7 @@
         <v>1</v>
       </c>
       <c r="K2758" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2759" spans="1:11">
@@ -97285,7 +97285,7 @@
         <v>1</v>
       </c>
       <c r="K2759" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2760" spans="1:11">
@@ -97320,7 +97320,7 @@
         <v>2</v>
       </c>
       <c r="K2760" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2761" spans="1:11">
@@ -97355,7 +97355,7 @@
         <v>2</v>
       </c>
       <c r="K2761" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2762" spans="1:11">
@@ -97390,7 +97390,7 @@
         <v>2</v>
       </c>
       <c r="K2762" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2763" spans="1:11">
@@ -97425,7 +97425,7 @@
         <v>3</v>
       </c>
       <c r="K2763" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2764" spans="1:11">
@@ -97460,7 +97460,7 @@
         <v>2</v>
       </c>
       <c r="K2764" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2765" spans="1:11">
@@ -97495,7 +97495,7 @@
         <v>2</v>
       </c>
       <c r="K2765" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2766" spans="1:11">
@@ -97530,7 +97530,7 @@
         <v>2</v>
       </c>
       <c r="K2766" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2767" spans="1:11">
@@ -97565,7 +97565,7 @@
         <v>12</v>
       </c>
       <c r="K2767" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2768" spans="1:11">
@@ -97600,7 +97600,7 @@
         <v>6</v>
       </c>
       <c r="K2768" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2769" spans="1:11">
@@ -97635,7 +97635,7 @@
         <v>8</v>
       </c>
       <c r="K2769" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2770" spans="1:11">
@@ -97670,7 +97670,7 @@
         <v>9</v>
       </c>
       <c r="K2770" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2771" spans="1:11">
@@ -97705,7 +97705,7 @@
         <v>2</v>
       </c>
       <c r="K2771" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2772" spans="1:11">
@@ -97740,7 +97740,7 @@
         <v>4</v>
       </c>
       <c r="K2772" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2773" spans="1:11">
@@ -97775,7 +97775,7 @@
         <v>4</v>
       </c>
       <c r="K2773" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2774" spans="1:11">
@@ -97810,7 +97810,7 @@
         <v>10</v>
       </c>
       <c r="K2774" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2775" spans="1:11">
@@ -97845,7 +97845,7 @@
         <v>9</v>
       </c>
       <c r="K2775" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2776" spans="1:11">
@@ -97880,7 +97880,7 @@
         <v>4</v>
       </c>
       <c r="K2776" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2777" spans="1:11">
@@ -97915,7 +97915,7 @@
         <v>4</v>
       </c>
       <c r="K2777" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2778" spans="1:11">
@@ -97950,7 +97950,7 @@
         <v>3</v>
       </c>
       <c r="K2778" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2779" spans="1:11">
@@ -97985,7 +97985,7 @@
         <v>8</v>
       </c>
       <c r="K2779" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2780" spans="1:11">
@@ -98020,7 +98020,7 @@
         <v>7</v>
       </c>
       <c r="K2780" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2781" spans="1:11">
@@ -98055,7 +98055,7 @@
         <v>5</v>
       </c>
       <c r="K2781" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2782" spans="1:11">
@@ -98090,7 +98090,7 @@
         <v>4</v>
       </c>
       <c r="K2782" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2783" spans="1:11">
@@ -98125,7 +98125,7 @@
         <v>6</v>
       </c>
       <c r="K2783" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2784" spans="1:11">
@@ -98160,7 +98160,7 @@
         <v>1</v>
       </c>
       <c r="K2784" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2785" spans="1:11">
@@ -98195,7 +98195,7 @@
         <v>2</v>
       </c>
       <c r="K2785" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2786" spans="1:11">
@@ -98230,7 +98230,7 @@
         <v>1</v>
       </c>
       <c r="K2786" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2787" spans="1:11">
@@ -98265,7 +98265,7 @@
         <v>1</v>
       </c>
       <c r="K2787" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2788" spans="1:11">
@@ -98300,7 +98300,7 @@
         <v>1</v>
       </c>
       <c r="K2788" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2789" spans="1:11">
@@ -98335,7 +98335,7 @@
         <v>0</v>
       </c>
       <c r="K2789" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2790" spans="1:11">
@@ -98370,7 +98370,7 @@
         <v>1</v>
       </c>
       <c r="K2790" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2791" spans="1:11">
@@ -98405,7 +98405,7 @@
         <v>4</v>
       </c>
       <c r="K2791" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2792" spans="1:11">
@@ -98440,7 +98440,7 @@
         <v>4</v>
       </c>
       <c r="K2792" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2793" spans="1:11">
@@ -98475,7 +98475,7 @@
         <v>5</v>
       </c>
       <c r="K2793" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2794" spans="1:11">
@@ -98510,7 +98510,7 @@
         <v>4</v>
       </c>
       <c r="K2794" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2795" spans="1:11">
@@ -98545,7 +98545,7 @@
         <v>5</v>
       </c>
       <c r="K2795" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2796" spans="1:11">
@@ -98580,7 +98580,7 @@
         <v>9</v>
       </c>
       <c r="K2796" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2797" spans="1:11">
@@ -98615,7 +98615,7 @@
         <v>16</v>
       </c>
       <c r="K2797" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2798" spans="1:11">
@@ -98650,7 +98650,7 @@
         <v>6</v>
       </c>
       <c r="K2798" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2799" spans="1:11">
@@ -98685,7 +98685,7 @@
         <v>6</v>
       </c>
       <c r="K2799" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2800" spans="1:11">
@@ -98720,7 +98720,7 @@
         <v>4</v>
       </c>
       <c r="K2800" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2801" spans="1:11">
@@ -98755,7 +98755,7 @@
         <v>3</v>
       </c>
       <c r="K2801" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2802" spans="1:11">
@@ -98790,7 +98790,7 @@
         <v>3</v>
       </c>
       <c r="K2802" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2803" spans="1:11">
@@ -98825,7 +98825,7 @@
         <v>3</v>
       </c>
       <c r="K2803" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2804" spans="1:11">
@@ -98860,7 +98860,7 @@
         <v>2</v>
       </c>
       <c r="K2804" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2805" spans="1:11">
@@ -98895,7 +98895,7 @@
         <v>8</v>
       </c>
       <c r="K2805" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2806" spans="1:11">
@@ -98930,7 +98930,7 @@
         <v>25</v>
       </c>
       <c r="K2806" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2807" spans="1:11">
@@ -98965,7 +98965,7 @@
         <v>49</v>
       </c>
       <c r="K2807" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2808" spans="1:11">
@@ -99000,7 +99000,7 @@
         <v>2</v>
       </c>
       <c r="K2808" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
       </c>
     </row>
     <row r="2809" spans="1:11">
@@ -99035,7 +99035,5467 @@
         <v>15</v>
       </c>
       <c r="K2809" s="2">
-        <v>45541.83353156586</v>
+        <v>45541.8335315625</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:11">
+      <c r="A2810" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2810" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2810" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2810">
+        <v>61</v>
+      </c>
+      <c r="G2810">
+        <v>37</v>
+      </c>
+      <c r="H2810" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2810">
+        <v>0</v>
+      </c>
+      <c r="J2810">
+        <v>37</v>
+      </c>
+      <c r="K2810" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:11">
+      <c r="A2811" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2811" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2811" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2811">
+        <v>24</v>
+      </c>
+      <c r="G2811">
+        <v>20</v>
+      </c>
+      <c r="H2811" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2811">
+        <v>0</v>
+      </c>
+      <c r="J2811">
+        <v>20</v>
+      </c>
+      <c r="K2811" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:11">
+      <c r="A2812" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2812" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2812" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2812">
+        <v>27</v>
+      </c>
+      <c r="G2812">
+        <v>13</v>
+      </c>
+      <c r="H2812" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2812">
+        <v>0</v>
+      </c>
+      <c r="J2812">
+        <v>13</v>
+      </c>
+      <c r="K2812" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:11">
+      <c r="A2813" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2813" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2813" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2813" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2813">
+        <v>67</v>
+      </c>
+      <c r="G2813">
+        <v>36</v>
+      </c>
+      <c r="H2813" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2813">
+        <v>0</v>
+      </c>
+      <c r="J2813">
+        <v>36</v>
+      </c>
+      <c r="K2813" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:11">
+      <c r="A2814" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2814" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2814" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2814" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2814">
+        <v>22</v>
+      </c>
+      <c r="G2814">
+        <v>10</v>
+      </c>
+      <c r="H2814" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2814">
+        <v>0</v>
+      </c>
+      <c r="J2814">
+        <v>10</v>
+      </c>
+      <c r="K2814" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:11">
+      <c r="A2815" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2815" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2815" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2815" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2815">
+        <v>14</v>
+      </c>
+      <c r="G2815">
+        <v>7</v>
+      </c>
+      <c r="H2815" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2815">
+        <v>0</v>
+      </c>
+      <c r="J2815">
+        <v>7</v>
+      </c>
+      <c r="K2815" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:11">
+      <c r="A2816" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2816" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2816" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2816">
+        <v>4</v>
+      </c>
+      <c r="G2816">
+        <v>1</v>
+      </c>
+      <c r="H2816" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2816">
+        <v>0</v>
+      </c>
+      <c r="J2816">
+        <v>1</v>
+      </c>
+      <c r="K2816" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:11">
+      <c r="A2817" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2817" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2817" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2817">
+        <v>5</v>
+      </c>
+      <c r="G2817">
+        <v>3</v>
+      </c>
+      <c r="H2817" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2817">
+        <v>0</v>
+      </c>
+      <c r="J2817">
+        <v>3</v>
+      </c>
+      <c r="K2817" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:11">
+      <c r="A2818" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2818" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2818" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2818">
+        <v>203</v>
+      </c>
+      <c r="G2818">
+        <v>87</v>
+      </c>
+      <c r="H2818" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2818">
+        <v>0</v>
+      </c>
+      <c r="J2818">
+        <v>87</v>
+      </c>
+      <c r="K2818" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:11">
+      <c r="A2819" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2819" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2819" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2819">
+        <v>147</v>
+      </c>
+      <c r="G2819">
+        <v>76</v>
+      </c>
+      <c r="H2819" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2819">
+        <v>0</v>
+      </c>
+      <c r="J2819">
+        <v>76</v>
+      </c>
+      <c r="K2819" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:11">
+      <c r="A2820" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2820" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2820" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2820">
+        <v>221</v>
+      </c>
+      <c r="G2820">
+        <v>111</v>
+      </c>
+      <c r="H2820" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2820">
+        <v>0</v>
+      </c>
+      <c r="J2820">
+        <v>111</v>
+      </c>
+      <c r="K2820" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:11">
+      <c r="A2821" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2821" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2821" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2821">
+        <v>76</v>
+      </c>
+      <c r="G2821">
+        <v>35</v>
+      </c>
+      <c r="H2821" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2821">
+        <v>0</v>
+      </c>
+      <c r="J2821">
+        <v>35</v>
+      </c>
+      <c r="K2821" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:11">
+      <c r="A2822" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2822" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2822">
+        <v>67</v>
+      </c>
+      <c r="G2822">
+        <v>28</v>
+      </c>
+      <c r="H2822" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2822">
+        <v>0</v>
+      </c>
+      <c r="J2822">
+        <v>28</v>
+      </c>
+      <c r="K2822" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:11">
+      <c r="A2823" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2823" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2823" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2823" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2823">
+        <v>93</v>
+      </c>
+      <c r="G2823">
+        <v>24</v>
+      </c>
+      <c r="H2823" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2823">
+        <v>0</v>
+      </c>
+      <c r="J2823">
+        <v>24</v>
+      </c>
+      <c r="K2823" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:11">
+      <c r="A2824" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2824" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2824" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2824">
+        <v>86</v>
+      </c>
+      <c r="G2824">
+        <v>41</v>
+      </c>
+      <c r="H2824" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2824">
+        <v>0</v>
+      </c>
+      <c r="J2824">
+        <v>41</v>
+      </c>
+      <c r="K2824" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:11">
+      <c r="A2825" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2825" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2825" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2825">
+        <v>42</v>
+      </c>
+      <c r="G2825">
+        <v>19</v>
+      </c>
+      <c r="H2825" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2825">
+        <v>0</v>
+      </c>
+      <c r="J2825">
+        <v>19</v>
+      </c>
+      <c r="K2825" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:11">
+      <c r="A2826" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2826" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2826" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2826">
+        <v>29</v>
+      </c>
+      <c r="G2826">
+        <v>13</v>
+      </c>
+      <c r="H2826" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2826">
+        <v>0</v>
+      </c>
+      <c r="J2826">
+        <v>13</v>
+      </c>
+      <c r="K2826" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:11">
+      <c r="A2827" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2827" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2827" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2827">
+        <v>12</v>
+      </c>
+      <c r="G2827">
+        <v>2</v>
+      </c>
+      <c r="H2827" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2827">
+        <v>0</v>
+      </c>
+      <c r="J2827">
+        <v>2</v>
+      </c>
+      <c r="K2827" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:11">
+      <c r="A2828" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2828" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2828" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2828">
+        <v>53</v>
+      </c>
+      <c r="G2828">
+        <v>20</v>
+      </c>
+      <c r="H2828" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2828">
+        <v>0</v>
+      </c>
+      <c r="J2828">
+        <v>20</v>
+      </c>
+      <c r="K2828" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:11">
+      <c r="A2829" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2829" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2829" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2829">
+        <v>72</v>
+      </c>
+      <c r="G2829">
+        <v>36</v>
+      </c>
+      <c r="H2829" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2829">
+        <v>0</v>
+      </c>
+      <c r="J2829">
+        <v>36</v>
+      </c>
+      <c r="K2829" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:11">
+      <c r="A2830" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2830" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2830" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2830">
+        <v>87</v>
+      </c>
+      <c r="G2830">
+        <v>35</v>
+      </c>
+      <c r="H2830" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2830">
+        <v>0</v>
+      </c>
+      <c r="J2830">
+        <v>35</v>
+      </c>
+      <c r="K2830" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:11">
+      <c r="A2831" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2831" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2831" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2831" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2831">
+        <v>98</v>
+      </c>
+      <c r="G2831">
+        <v>42</v>
+      </c>
+      <c r="H2831" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2831">
+        <v>0</v>
+      </c>
+      <c r="J2831">
+        <v>42</v>
+      </c>
+      <c r="K2831" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:11">
+      <c r="A2832" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2832" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2832" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2832" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2832">
+        <v>99</v>
+      </c>
+      <c r="G2832">
+        <v>48</v>
+      </c>
+      <c r="H2832" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2832">
+        <v>0</v>
+      </c>
+      <c r="J2832">
+        <v>48</v>
+      </c>
+      <c r="K2832" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:11">
+      <c r="A2833" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2833" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2833" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2833">
+        <v>96</v>
+      </c>
+      <c r="G2833">
+        <v>34</v>
+      </c>
+      <c r="H2833" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2833">
+        <v>0</v>
+      </c>
+      <c r="J2833">
+        <v>34</v>
+      </c>
+      <c r="K2833" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:11">
+      <c r="A2834" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2834" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2834" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2834">
+        <v>59</v>
+      </c>
+      <c r="G2834">
+        <v>26</v>
+      </c>
+      <c r="H2834" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2834">
+        <v>0</v>
+      </c>
+      <c r="J2834">
+        <v>26</v>
+      </c>
+      <c r="K2834" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:11">
+      <c r="A2835" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2835" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2835" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2835" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2835">
+        <v>142</v>
+      </c>
+      <c r="G2835">
+        <v>69</v>
+      </c>
+      <c r="H2835" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2835">
+        <v>0</v>
+      </c>
+      <c r="J2835">
+        <v>69</v>
+      </c>
+      <c r="K2835" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:11">
+      <c r="A2836" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2836" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2836" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2836">
+        <v>91</v>
+      </c>
+      <c r="G2836">
+        <v>25</v>
+      </c>
+      <c r="H2836" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2836">
+        <v>0</v>
+      </c>
+      <c r="J2836">
+        <v>25</v>
+      </c>
+      <c r="K2836" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:11">
+      <c r="A2837" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2837" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2837" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2837" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2837">
+        <v>91</v>
+      </c>
+      <c r="G2837">
+        <v>52</v>
+      </c>
+      <c r="H2837" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2837">
+        <v>0</v>
+      </c>
+      <c r="J2837">
+        <v>52</v>
+      </c>
+      <c r="K2837" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:11">
+      <c r="A2838" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2838" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2838" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2838">
+        <v>101</v>
+      </c>
+      <c r="G2838">
+        <v>48</v>
+      </c>
+      <c r="H2838" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2838">
+        <v>0</v>
+      </c>
+      <c r="J2838">
+        <v>48</v>
+      </c>
+      <c r="K2838" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:11">
+      <c r="A2839" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2839" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2839" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2839">
+        <v>42</v>
+      </c>
+      <c r="G2839">
+        <v>19</v>
+      </c>
+      <c r="H2839" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2839">
+        <v>0</v>
+      </c>
+      <c r="J2839">
+        <v>19</v>
+      </c>
+      <c r="K2839" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:11">
+      <c r="A2840" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2840" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2840" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2840">
+        <v>101</v>
+      </c>
+      <c r="G2840">
+        <v>49</v>
+      </c>
+      <c r="H2840" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2840">
+        <v>0</v>
+      </c>
+      <c r="J2840">
+        <v>49</v>
+      </c>
+      <c r="K2840" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:11">
+      <c r="A2841" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2841" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2841" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2841">
+        <v>131</v>
+      </c>
+      <c r="G2841">
+        <v>60</v>
+      </c>
+      <c r="H2841" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2841">
+        <v>0</v>
+      </c>
+      <c r="J2841">
+        <v>60</v>
+      </c>
+      <c r="K2841" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:11">
+      <c r="A2842" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2842" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2842" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2842" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2842">
+        <v>99</v>
+      </c>
+      <c r="G2842">
+        <v>53</v>
+      </c>
+      <c r="H2842" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2842">
+        <v>0</v>
+      </c>
+      <c r="J2842">
+        <v>53</v>
+      </c>
+      <c r="K2842" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:11">
+      <c r="A2843" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2843" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2843" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2843">
+        <v>65</v>
+      </c>
+      <c r="G2843">
+        <v>32</v>
+      </c>
+      <c r="H2843" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2843">
+        <v>0</v>
+      </c>
+      <c r="J2843">
+        <v>32</v>
+      </c>
+      <c r="K2843" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:11">
+      <c r="A2844" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2844" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2844" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2844">
+        <v>31</v>
+      </c>
+      <c r="G2844">
+        <v>17</v>
+      </c>
+      <c r="H2844" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2844">
+        <v>0</v>
+      </c>
+      <c r="J2844">
+        <v>17</v>
+      </c>
+      <c r="K2844" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:11">
+      <c r="A2845" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2845" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2845" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2845">
+        <v>67</v>
+      </c>
+      <c r="G2845">
+        <v>30</v>
+      </c>
+      <c r="H2845" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2845">
+        <v>0</v>
+      </c>
+      <c r="J2845">
+        <v>30</v>
+      </c>
+      <c r="K2845" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:11">
+      <c r="A2846" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2846" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2846" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2846">
+        <v>46</v>
+      </c>
+      <c r="G2846">
+        <v>24</v>
+      </c>
+      <c r="H2846" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2846">
+        <v>0</v>
+      </c>
+      <c r="J2846">
+        <v>24</v>
+      </c>
+      <c r="K2846" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:11">
+      <c r="A2847" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2847" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2847" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2847">
+        <v>112</v>
+      </c>
+      <c r="G2847">
+        <v>40</v>
+      </c>
+      <c r="H2847" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2847">
+        <v>0</v>
+      </c>
+      <c r="J2847">
+        <v>40</v>
+      </c>
+      <c r="K2847" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:11">
+      <c r="A2848" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2848" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2848" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2848">
+        <v>139</v>
+      </c>
+      <c r="G2848">
+        <v>56</v>
+      </c>
+      <c r="H2848" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2848">
+        <v>0</v>
+      </c>
+      <c r="J2848">
+        <v>56</v>
+      </c>
+      <c r="K2848" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:11">
+      <c r="A2849" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2849" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2849" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2849" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2849">
+        <v>176</v>
+      </c>
+      <c r="G2849">
+        <v>61</v>
+      </c>
+      <c r="H2849" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2849">
+        <v>0</v>
+      </c>
+      <c r="J2849">
+        <v>61</v>
+      </c>
+      <c r="K2849" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:11">
+      <c r="A2850" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2850" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2850" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2850" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2850">
+        <v>152</v>
+      </c>
+      <c r="G2850">
+        <v>71</v>
+      </c>
+      <c r="H2850" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2850">
+        <v>0</v>
+      </c>
+      <c r="J2850">
+        <v>71</v>
+      </c>
+      <c r="K2850" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:11">
+      <c r="A2851" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2851" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2851" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2851">
+        <v>47</v>
+      </c>
+      <c r="G2851">
+        <v>17</v>
+      </c>
+      <c r="H2851" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2851">
+        <v>0</v>
+      </c>
+      <c r="J2851">
+        <v>17</v>
+      </c>
+      <c r="K2851" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:11">
+      <c r="A2852" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2852" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2852" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2852">
+        <v>140</v>
+      </c>
+      <c r="G2852">
+        <v>65</v>
+      </c>
+      <c r="H2852" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2852">
+        <v>0</v>
+      </c>
+      <c r="J2852">
+        <v>65</v>
+      </c>
+      <c r="K2852" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:11">
+      <c r="A2853" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2853" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2853" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2853">
+        <v>57</v>
+      </c>
+      <c r="G2853">
+        <v>31</v>
+      </c>
+      <c r="H2853" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2853">
+        <v>0</v>
+      </c>
+      <c r="J2853">
+        <v>31</v>
+      </c>
+      <c r="K2853" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:11">
+      <c r="A2854" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2854" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2854" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2854" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2854" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2854">
+        <v>122</v>
+      </c>
+      <c r="G2854">
+        <v>56</v>
+      </c>
+      <c r="H2854" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2854">
+        <v>0</v>
+      </c>
+      <c r="J2854">
+        <v>56</v>
+      </c>
+      <c r="K2854" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:11">
+      <c r="A2855" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2855" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2855" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2855" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2855">
+        <v>204</v>
+      </c>
+      <c r="G2855">
+        <v>85</v>
+      </c>
+      <c r="H2855" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2855">
+        <v>0</v>
+      </c>
+      <c r="J2855">
+        <v>85</v>
+      </c>
+      <c r="K2855" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:11">
+      <c r="A2856" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2856" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2856" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2856" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2856" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2856">
+        <v>102</v>
+      </c>
+      <c r="G2856">
+        <v>30</v>
+      </c>
+      <c r="H2856" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2856">
+        <v>0</v>
+      </c>
+      <c r="J2856">
+        <v>30</v>
+      </c>
+      <c r="K2856" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:11">
+      <c r="A2857" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2857" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2857" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2857" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2857" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2857">
+        <v>114</v>
+      </c>
+      <c r="G2857">
+        <v>51</v>
+      </c>
+      <c r="H2857" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2857">
+        <v>0</v>
+      </c>
+      <c r="J2857">
+        <v>51</v>
+      </c>
+      <c r="K2857" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:11">
+      <c r="A2858" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2858" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2858" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2858" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2858">
+        <v>97</v>
+      </c>
+      <c r="G2858">
+        <v>34</v>
+      </c>
+      <c r="H2858" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2858">
+        <v>0</v>
+      </c>
+      <c r="J2858">
+        <v>34</v>
+      </c>
+      <c r="K2858" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:11">
+      <c r="A2859" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2859" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2859" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2859" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2859">
+        <v>99</v>
+      </c>
+      <c r="G2859">
+        <v>35</v>
+      </c>
+      <c r="H2859" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2859">
+        <v>0</v>
+      </c>
+      <c r="J2859">
+        <v>35</v>
+      </c>
+      <c r="K2859" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:11">
+      <c r="A2860" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2860" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2860" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2860" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2860">
+        <v>6</v>
+      </c>
+      <c r="G2860">
+        <v>4</v>
+      </c>
+      <c r="H2860" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2860">
+        <v>0</v>
+      </c>
+      <c r="J2860">
+        <v>4</v>
+      </c>
+      <c r="K2860" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:11">
+      <c r="A2861" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2861" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2861" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2861">
+        <v>30</v>
+      </c>
+      <c r="G2861">
+        <v>14</v>
+      </c>
+      <c r="H2861" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2861">
+        <v>0</v>
+      </c>
+      <c r="J2861">
+        <v>14</v>
+      </c>
+      <c r="K2861" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:11">
+      <c r="A2862" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2862" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2862" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2862">
+        <v>11</v>
+      </c>
+      <c r="G2862">
+        <v>7</v>
+      </c>
+      <c r="H2862" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2862">
+        <v>0</v>
+      </c>
+      <c r="J2862">
+        <v>7</v>
+      </c>
+      <c r="K2862" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:11">
+      <c r="A2863" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2863" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2863" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2863">
+        <v>9</v>
+      </c>
+      <c r="G2863">
+        <v>1</v>
+      </c>
+      <c r="H2863" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2863">
+        <v>0</v>
+      </c>
+      <c r="J2863">
+        <v>1</v>
+      </c>
+      <c r="K2863" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:11">
+      <c r="A2864" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2864" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2864" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2864">
+        <v>0</v>
+      </c>
+      <c r="G2864">
+        <v>0</v>
+      </c>
+      <c r="H2864" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2864">
+        <v>0</v>
+      </c>
+      <c r="J2864">
+        <v>0</v>
+      </c>
+      <c r="K2864" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:11">
+      <c r="A2865" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2865" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2865" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2865">
+        <v>2</v>
+      </c>
+      <c r="G2865">
+        <v>0</v>
+      </c>
+      <c r="H2865" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2865">
+        <v>0</v>
+      </c>
+      <c r="J2865">
+        <v>0</v>
+      </c>
+      <c r="K2865" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:11">
+      <c r="A2866" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2866" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2866" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2866">
+        <v>5</v>
+      </c>
+      <c r="G2866">
+        <v>1</v>
+      </c>
+      <c r="H2866" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2866">
+        <v>0</v>
+      </c>
+      <c r="J2866">
+        <v>1</v>
+      </c>
+      <c r="K2866" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:11">
+      <c r="A2867" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2867" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2867" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2867">
+        <v>6</v>
+      </c>
+      <c r="G2867">
+        <v>1</v>
+      </c>
+      <c r="H2867" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2867">
+        <v>0</v>
+      </c>
+      <c r="J2867">
+        <v>1</v>
+      </c>
+      <c r="K2867" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:11">
+      <c r="A2868" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2868" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2868" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2868">
+        <v>10</v>
+      </c>
+      <c r="G2868">
+        <v>3</v>
+      </c>
+      <c r="H2868" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2868">
+        <v>0</v>
+      </c>
+      <c r="J2868">
+        <v>3</v>
+      </c>
+      <c r="K2868" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:11">
+      <c r="A2869" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2869" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2869" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2869">
+        <v>0</v>
+      </c>
+      <c r="G2869">
+        <v>0</v>
+      </c>
+      <c r="H2869" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2869">
+        <v>0</v>
+      </c>
+      <c r="J2869">
+        <v>0</v>
+      </c>
+      <c r="K2869" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:11">
+      <c r="A2870" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2870" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2870" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2870">
+        <v>0</v>
+      </c>
+      <c r="G2870">
+        <v>0</v>
+      </c>
+      <c r="H2870" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2870">
+        <v>0</v>
+      </c>
+      <c r="J2870">
+        <v>0</v>
+      </c>
+      <c r="K2870" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:11">
+      <c r="A2871" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2871" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2871" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2871">
+        <v>1</v>
+      </c>
+      <c r="G2871">
+        <v>0</v>
+      </c>
+      <c r="H2871" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2871">
+        <v>0</v>
+      </c>
+      <c r="J2871">
+        <v>0</v>
+      </c>
+      <c r="K2871" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:11">
+      <c r="A2872" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2872" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2872" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2872">
+        <v>1</v>
+      </c>
+      <c r="G2872">
+        <v>1</v>
+      </c>
+      <c r="H2872" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2872">
+        <v>0</v>
+      </c>
+      <c r="J2872">
+        <v>1</v>
+      </c>
+      <c r="K2872" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:11">
+      <c r="A2873" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2873" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2873" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2873">
+        <v>1</v>
+      </c>
+      <c r="G2873">
+        <v>0</v>
+      </c>
+      <c r="H2873" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2873">
+        <v>0</v>
+      </c>
+      <c r="J2873">
+        <v>0</v>
+      </c>
+      <c r="K2873" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:11">
+      <c r="A2874" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2874" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2874" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2874">
+        <v>99</v>
+      </c>
+      <c r="G2874">
+        <v>43</v>
+      </c>
+      <c r="H2874" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2874">
+        <v>0</v>
+      </c>
+      <c r="J2874">
+        <v>43</v>
+      </c>
+      <c r="K2874" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:11">
+      <c r="A2875" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2875" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2875" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2875">
+        <v>6</v>
+      </c>
+      <c r="G2875">
+        <v>2</v>
+      </c>
+      <c r="H2875" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2875">
+        <v>0</v>
+      </c>
+      <c r="J2875">
+        <v>2</v>
+      </c>
+      <c r="K2875" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:11">
+      <c r="A2876" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2876" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2876" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2876">
+        <v>61</v>
+      </c>
+      <c r="G2876">
+        <v>25</v>
+      </c>
+      <c r="H2876" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2876">
+        <v>0</v>
+      </c>
+      <c r="J2876">
+        <v>25</v>
+      </c>
+      <c r="K2876" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:11">
+      <c r="A2877" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2877" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2877" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2877">
+        <v>52</v>
+      </c>
+      <c r="G2877">
+        <v>15</v>
+      </c>
+      <c r="H2877" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2877">
+        <v>0</v>
+      </c>
+      <c r="J2877">
+        <v>15</v>
+      </c>
+      <c r="K2877" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:11">
+      <c r="A2878" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2878" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2878" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2878">
+        <v>28</v>
+      </c>
+      <c r="G2878">
+        <v>17</v>
+      </c>
+      <c r="H2878" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2878">
+        <v>0</v>
+      </c>
+      <c r="J2878">
+        <v>17</v>
+      </c>
+      <c r="K2878" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:11">
+      <c r="A2879" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2879" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2879" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2879">
+        <v>3</v>
+      </c>
+      <c r="G2879">
+        <v>1</v>
+      </c>
+      <c r="H2879" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2879">
+        <v>0</v>
+      </c>
+      <c r="J2879">
+        <v>1</v>
+      </c>
+      <c r="K2879" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:11">
+      <c r="A2880" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2880" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2880" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2880">
+        <v>0</v>
+      </c>
+      <c r="G2880">
+        <v>0</v>
+      </c>
+      <c r="H2880" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2880">
+        <v>0</v>
+      </c>
+      <c r="J2880">
+        <v>0</v>
+      </c>
+      <c r="K2880" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:11">
+      <c r="A2881" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2881" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2881" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2881">
+        <v>4</v>
+      </c>
+      <c r="G2881">
+        <v>1</v>
+      </c>
+      <c r="H2881" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2881">
+        <v>0</v>
+      </c>
+      <c r="J2881">
+        <v>1</v>
+      </c>
+      <c r="K2881" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:11">
+      <c r="A2882" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2882" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2882">
+        <v>2</v>
+      </c>
+      <c r="G2882">
+        <v>0</v>
+      </c>
+      <c r="H2882" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2882">
+        <v>0</v>
+      </c>
+      <c r="J2882">
+        <v>0</v>
+      </c>
+      <c r="K2882" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:11">
+      <c r="A2883" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2883" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2883">
+        <v>13</v>
+      </c>
+      <c r="G2883">
+        <v>6</v>
+      </c>
+      <c r="H2883" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2883">
+        <v>0</v>
+      </c>
+      <c r="J2883">
+        <v>6</v>
+      </c>
+      <c r="K2883" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:11">
+      <c r="A2884" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2884" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2884">
+        <v>11</v>
+      </c>
+      <c r="G2884">
+        <v>3</v>
+      </c>
+      <c r="H2884" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2884">
+        <v>0</v>
+      </c>
+      <c r="J2884">
+        <v>3</v>
+      </c>
+      <c r="K2884" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:11">
+      <c r="A2885" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2885" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2885">
+        <v>14</v>
+      </c>
+      <c r="G2885">
+        <v>7</v>
+      </c>
+      <c r="H2885" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2885">
+        <v>0</v>
+      </c>
+      <c r="J2885">
+        <v>7</v>
+      </c>
+      <c r="K2885" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:11">
+      <c r="A2886" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2886" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2886">
+        <v>5</v>
+      </c>
+      <c r="G2886">
+        <v>2</v>
+      </c>
+      <c r="H2886" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2886">
+        <v>0</v>
+      </c>
+      <c r="J2886">
+        <v>2</v>
+      </c>
+      <c r="K2886" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:11">
+      <c r="A2887" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2887" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2887">
+        <v>6</v>
+      </c>
+      <c r="G2887">
+        <v>3</v>
+      </c>
+      <c r="H2887" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2887">
+        <v>0</v>
+      </c>
+      <c r="J2887">
+        <v>3</v>
+      </c>
+      <c r="K2887" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:11">
+      <c r="A2888" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2888" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2888">
+        <v>7</v>
+      </c>
+      <c r="G2888">
+        <v>2</v>
+      </c>
+      <c r="H2888" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2888">
+        <v>0</v>
+      </c>
+      <c r="J2888">
+        <v>2</v>
+      </c>
+      <c r="K2888" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:11">
+      <c r="A2889" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2889" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2889">
+        <v>1</v>
+      </c>
+      <c r="G2889">
+        <v>0</v>
+      </c>
+      <c r="H2889" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2889">
+        <v>0</v>
+      </c>
+      <c r="J2889">
+        <v>0</v>
+      </c>
+      <c r="K2889" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:11">
+      <c r="A2890" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2890" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2890">
+        <v>1</v>
+      </c>
+      <c r="G2890">
+        <v>0</v>
+      </c>
+      <c r="H2890" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2890">
+        <v>0</v>
+      </c>
+      <c r="J2890">
+        <v>0</v>
+      </c>
+      <c r="K2890" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:11">
+      <c r="A2891" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2891" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2891">
+        <v>13</v>
+      </c>
+      <c r="G2891">
+        <v>3</v>
+      </c>
+      <c r="H2891" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2891">
+        <v>0</v>
+      </c>
+      <c r="J2891">
+        <v>3</v>
+      </c>
+      <c r="K2891" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:11">
+      <c r="A2892" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2892" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2892">
+        <v>18</v>
+      </c>
+      <c r="G2892">
+        <v>6</v>
+      </c>
+      <c r="H2892" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2892">
+        <v>0</v>
+      </c>
+      <c r="J2892">
+        <v>6</v>
+      </c>
+      <c r="K2892" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:11">
+      <c r="A2893" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2893" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2893">
+        <v>8</v>
+      </c>
+      <c r="G2893">
+        <v>2</v>
+      </c>
+      <c r="H2893" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2893">
+        <v>0</v>
+      </c>
+      <c r="J2893">
+        <v>2</v>
+      </c>
+      <c r="K2893" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:11">
+      <c r="A2894" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2894" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2894">
+        <v>3</v>
+      </c>
+      <c r="G2894">
+        <v>1</v>
+      </c>
+      <c r="H2894" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2894">
+        <v>0</v>
+      </c>
+      <c r="J2894">
+        <v>1</v>
+      </c>
+      <c r="K2894" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:11">
+      <c r="A2895" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2895" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2895">
+        <v>51</v>
+      </c>
+      <c r="G2895">
+        <v>18</v>
+      </c>
+      <c r="H2895" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2895">
+        <v>0</v>
+      </c>
+      <c r="J2895">
+        <v>18</v>
+      </c>
+      <c r="K2895" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:11">
+      <c r="A2896" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2896" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2896">
+        <v>23</v>
+      </c>
+      <c r="G2896">
+        <v>9</v>
+      </c>
+      <c r="H2896" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2896">
+        <v>0</v>
+      </c>
+      <c r="J2896">
+        <v>9</v>
+      </c>
+      <c r="K2896" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:11">
+      <c r="A2897" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2897" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2897">
+        <v>37</v>
+      </c>
+      <c r="G2897">
+        <v>9</v>
+      </c>
+      <c r="H2897" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2897">
+        <v>0</v>
+      </c>
+      <c r="J2897">
+        <v>9</v>
+      </c>
+      <c r="K2897" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:11">
+      <c r="A2898" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2898" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2898">
+        <v>13</v>
+      </c>
+      <c r="G2898">
+        <v>7</v>
+      </c>
+      <c r="H2898" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2898">
+        <v>0</v>
+      </c>
+      <c r="J2898">
+        <v>7</v>
+      </c>
+      <c r="K2898" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:11">
+      <c r="A2899" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2899" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2899">
+        <v>6</v>
+      </c>
+      <c r="G2899">
+        <v>2</v>
+      </c>
+      <c r="H2899" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2899">
+        <v>0</v>
+      </c>
+      <c r="J2899">
+        <v>2</v>
+      </c>
+      <c r="K2899" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:11">
+      <c r="A2900" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2900" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2900">
+        <v>18</v>
+      </c>
+      <c r="G2900">
+        <v>8</v>
+      </c>
+      <c r="H2900" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2900">
+        <v>0</v>
+      </c>
+      <c r="J2900">
+        <v>8</v>
+      </c>
+      <c r="K2900" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:11">
+      <c r="A2901" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2901" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2901">
+        <v>20</v>
+      </c>
+      <c r="G2901">
+        <v>5</v>
+      </c>
+      <c r="H2901" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2901">
+        <v>0</v>
+      </c>
+      <c r="J2901">
+        <v>5</v>
+      </c>
+      <c r="K2901" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:11">
+      <c r="A2902" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2902" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2902">
+        <v>12</v>
+      </c>
+      <c r="G2902">
+        <v>8</v>
+      </c>
+      <c r="H2902" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2902">
+        <v>0</v>
+      </c>
+      <c r="J2902">
+        <v>8</v>
+      </c>
+      <c r="K2902" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:11">
+      <c r="A2903" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2903" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2903">
+        <v>16</v>
+      </c>
+      <c r="G2903">
+        <v>6</v>
+      </c>
+      <c r="H2903" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2903">
+        <v>0</v>
+      </c>
+      <c r="J2903">
+        <v>6</v>
+      </c>
+      <c r="K2903" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:11">
+      <c r="A2904" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2904" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2904">
+        <v>14</v>
+      </c>
+      <c r="G2904">
+        <v>6</v>
+      </c>
+      <c r="H2904" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2904">
+        <v>0</v>
+      </c>
+      <c r="J2904">
+        <v>6</v>
+      </c>
+      <c r="K2904" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:11">
+      <c r="A2905" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2905" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2905">
+        <v>13</v>
+      </c>
+      <c r="G2905">
+        <v>1</v>
+      </c>
+      <c r="H2905" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2905">
+        <v>0</v>
+      </c>
+      <c r="J2905">
+        <v>1</v>
+      </c>
+      <c r="K2905" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:11">
+      <c r="A2906" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2906" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2906">
+        <v>39</v>
+      </c>
+      <c r="G2906">
+        <v>21</v>
+      </c>
+      <c r="H2906" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2906">
+        <v>0</v>
+      </c>
+      <c r="J2906">
+        <v>21</v>
+      </c>
+      <c r="K2906" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:11">
+      <c r="A2907" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2907" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2907">
+        <v>11</v>
+      </c>
+      <c r="G2907">
+        <v>5</v>
+      </c>
+      <c r="H2907" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2907">
+        <v>0</v>
+      </c>
+      <c r="J2907">
+        <v>5</v>
+      </c>
+      <c r="K2907" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:11">
+      <c r="A2908" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2908" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2908">
+        <v>34</v>
+      </c>
+      <c r="G2908">
+        <v>17</v>
+      </c>
+      <c r="H2908" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2908">
+        <v>0</v>
+      </c>
+      <c r="J2908">
+        <v>17</v>
+      </c>
+      <c r="K2908" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:11">
+      <c r="A2909" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2909" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2909">
+        <v>10</v>
+      </c>
+      <c r="G2909">
+        <v>1</v>
+      </c>
+      <c r="H2909" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2909">
+        <v>0</v>
+      </c>
+      <c r="J2909">
+        <v>1</v>
+      </c>
+      <c r="K2909" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:11">
+      <c r="A2910" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2910" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2910" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2910">
+        <v>4</v>
+      </c>
+      <c r="G2910">
+        <v>3</v>
+      </c>
+      <c r="H2910" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2910">
+        <v>0</v>
+      </c>
+      <c r="J2910">
+        <v>3</v>
+      </c>
+      <c r="K2910" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:11">
+      <c r="A2911" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2911" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2911" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2911">
+        <v>1</v>
+      </c>
+      <c r="G2911">
+        <v>0</v>
+      </c>
+      <c r="H2911" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2911">
+        <v>0</v>
+      </c>
+      <c r="J2911">
+        <v>0</v>
+      </c>
+      <c r="K2911" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:11">
+      <c r="A2912" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2912" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2912" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2912">
+        <v>2</v>
+      </c>
+      <c r="G2912">
+        <v>1</v>
+      </c>
+      <c r="H2912" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2912">
+        <v>0</v>
+      </c>
+      <c r="J2912">
+        <v>1</v>
+      </c>
+      <c r="K2912" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:11">
+      <c r="A2913" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2913" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2913">
+        <v>0</v>
+      </c>
+      <c r="G2913">
+        <v>0</v>
+      </c>
+      <c r="H2913" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2913">
+        <v>0</v>
+      </c>
+      <c r="J2913">
+        <v>0</v>
+      </c>
+      <c r="K2913" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:11">
+      <c r="A2914" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2914" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2914" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2914">
+        <v>2</v>
+      </c>
+      <c r="G2914">
+        <v>1</v>
+      </c>
+      <c r="H2914" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2914">
+        <v>0</v>
+      </c>
+      <c r="J2914">
+        <v>1</v>
+      </c>
+      <c r="K2914" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:11">
+      <c r="A2915" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2915" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2915">
+        <v>4</v>
+      </c>
+      <c r="G2915">
+        <v>1</v>
+      </c>
+      <c r="H2915" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2915">
+        <v>0</v>
+      </c>
+      <c r="J2915">
+        <v>1</v>
+      </c>
+      <c r="K2915" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:11">
+      <c r="A2916" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2916" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2916">
+        <v>6</v>
+      </c>
+      <c r="G2916">
+        <v>2</v>
+      </c>
+      <c r="H2916" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2916">
+        <v>0</v>
+      </c>
+      <c r="J2916">
+        <v>2</v>
+      </c>
+      <c r="K2916" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:11">
+      <c r="A2917" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2917" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2917">
+        <v>2</v>
+      </c>
+      <c r="G2917">
+        <v>2</v>
+      </c>
+      <c r="H2917" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2917">
+        <v>0</v>
+      </c>
+      <c r="J2917">
+        <v>2</v>
+      </c>
+      <c r="K2917" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:11">
+      <c r="A2918" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2918" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2918">
+        <v>7</v>
+      </c>
+      <c r="G2918">
+        <v>2</v>
+      </c>
+      <c r="H2918" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2918">
+        <v>0</v>
+      </c>
+      <c r="J2918">
+        <v>2</v>
+      </c>
+      <c r="K2918" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:11">
+      <c r="A2919" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2919" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2919">
+        <v>10</v>
+      </c>
+      <c r="G2919">
+        <v>3</v>
+      </c>
+      <c r="H2919" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2919">
+        <v>0</v>
+      </c>
+      <c r="J2919">
+        <v>3</v>
+      </c>
+      <c r="K2919" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:11">
+      <c r="A2920" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2920" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2920">
+        <v>16</v>
+      </c>
+      <c r="G2920">
+        <v>3</v>
+      </c>
+      <c r="H2920" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2920">
+        <v>0</v>
+      </c>
+      <c r="J2920">
+        <v>3</v>
+      </c>
+      <c r="K2920" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:11">
+      <c r="A2921" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2921" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2921">
+        <v>17</v>
+      </c>
+      <c r="G2921">
+        <v>2</v>
+      </c>
+      <c r="H2921" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2921">
+        <v>0</v>
+      </c>
+      <c r="J2921">
+        <v>2</v>
+      </c>
+      <c r="K2921" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:11">
+      <c r="A2922" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2922" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2922">
+        <v>13</v>
+      </c>
+      <c r="G2922">
+        <v>2</v>
+      </c>
+      <c r="H2922" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2922">
+        <v>0</v>
+      </c>
+      <c r="J2922">
+        <v>2</v>
+      </c>
+      <c r="K2922" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:11">
+      <c r="A2923" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2923" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2923">
+        <v>22</v>
+      </c>
+      <c r="G2923">
+        <v>12</v>
+      </c>
+      <c r="H2923" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2923">
+        <v>0</v>
+      </c>
+      <c r="J2923">
+        <v>12</v>
+      </c>
+      <c r="K2923" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:11">
+      <c r="A2924" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2924" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2924">
+        <v>17</v>
+      </c>
+      <c r="G2924">
+        <v>6</v>
+      </c>
+      <c r="H2924" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2924">
+        <v>0</v>
+      </c>
+      <c r="J2924">
+        <v>6</v>
+      </c>
+      <c r="K2924" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:11">
+      <c r="A2925" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2925" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2925">
+        <v>22</v>
+      </c>
+      <c r="G2925">
+        <v>8</v>
+      </c>
+      <c r="H2925" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2925">
+        <v>0</v>
+      </c>
+      <c r="J2925">
+        <v>8</v>
+      </c>
+      <c r="K2925" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:11">
+      <c r="A2926" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2926" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2926">
+        <v>21</v>
+      </c>
+      <c r="G2926">
+        <v>9</v>
+      </c>
+      <c r="H2926" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2926">
+        <v>0</v>
+      </c>
+      <c r="J2926">
+        <v>9</v>
+      </c>
+      <c r="K2926" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:11">
+      <c r="A2927" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2927" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2927">
+        <v>8</v>
+      </c>
+      <c r="G2927">
+        <v>2</v>
+      </c>
+      <c r="H2927" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2927">
+        <v>0</v>
+      </c>
+      <c r="J2927">
+        <v>2</v>
+      </c>
+      <c r="K2927" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:11">
+      <c r="A2928" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2928" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2928">
+        <v>11</v>
+      </c>
+      <c r="G2928">
+        <v>4</v>
+      </c>
+      <c r="H2928" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2928">
+        <v>0</v>
+      </c>
+      <c r="J2928">
+        <v>4</v>
+      </c>
+      <c r="K2928" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:11">
+      <c r="A2929" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2929" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2929">
+        <v>17</v>
+      </c>
+      <c r="G2929">
+        <v>4</v>
+      </c>
+      <c r="H2929" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2929">
+        <v>0</v>
+      </c>
+      <c r="J2929">
+        <v>4</v>
+      </c>
+      <c r="K2929" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:11">
+      <c r="A2930" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2930" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2930">
+        <v>15</v>
+      </c>
+      <c r="G2930">
+        <v>10</v>
+      </c>
+      <c r="H2930" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2930">
+        <v>0</v>
+      </c>
+      <c r="J2930">
+        <v>10</v>
+      </c>
+      <c r="K2930" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:11">
+      <c r="A2931" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2931" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2931">
+        <v>19</v>
+      </c>
+      <c r="G2931">
+        <v>9</v>
+      </c>
+      <c r="H2931" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2931">
+        <v>0</v>
+      </c>
+      <c r="J2931">
+        <v>9</v>
+      </c>
+      <c r="K2931" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:11">
+      <c r="A2932" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2932" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2932">
+        <v>15</v>
+      </c>
+      <c r="G2932">
+        <v>4</v>
+      </c>
+      <c r="H2932" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2932">
+        <v>0</v>
+      </c>
+      <c r="J2932">
+        <v>4</v>
+      </c>
+      <c r="K2932" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:11">
+      <c r="A2933" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2933" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2933">
+        <v>9</v>
+      </c>
+      <c r="G2933">
+        <v>4</v>
+      </c>
+      <c r="H2933" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2933">
+        <v>0</v>
+      </c>
+      <c r="J2933">
+        <v>4</v>
+      </c>
+      <c r="K2933" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:11">
+      <c r="A2934" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2934" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2934">
+        <v>9</v>
+      </c>
+      <c r="G2934">
+        <v>3</v>
+      </c>
+      <c r="H2934" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2934">
+        <v>0</v>
+      </c>
+      <c r="J2934">
+        <v>3</v>
+      </c>
+      <c r="K2934" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:11">
+      <c r="A2935" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2935" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2935">
+        <v>26</v>
+      </c>
+      <c r="G2935">
+        <v>8</v>
+      </c>
+      <c r="H2935" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2935">
+        <v>0</v>
+      </c>
+      <c r="J2935">
+        <v>8</v>
+      </c>
+      <c r="K2935" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:11">
+      <c r="A2936" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2936" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2936">
+        <v>26</v>
+      </c>
+      <c r="G2936">
+        <v>7</v>
+      </c>
+      <c r="H2936" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2936">
+        <v>0</v>
+      </c>
+      <c r="J2936">
+        <v>7</v>
+      </c>
+      <c r="K2936" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:11">
+      <c r="A2937" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2937" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2937">
+        <v>12</v>
+      </c>
+      <c r="G2937">
+        <v>5</v>
+      </c>
+      <c r="H2937" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2937">
+        <v>0</v>
+      </c>
+      <c r="J2937">
+        <v>5</v>
+      </c>
+      <c r="K2937" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:11">
+      <c r="A2938" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2938" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2938">
+        <v>14</v>
+      </c>
+      <c r="G2938">
+        <v>4</v>
+      </c>
+      <c r="H2938" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2938">
+        <v>0</v>
+      </c>
+      <c r="J2938">
+        <v>4</v>
+      </c>
+      <c r="K2938" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:11">
+      <c r="A2939" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2939" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2939">
+        <v>15</v>
+      </c>
+      <c r="G2939">
+        <v>6</v>
+      </c>
+      <c r="H2939" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2939">
+        <v>0</v>
+      </c>
+      <c r="J2939">
+        <v>6</v>
+      </c>
+      <c r="K2939" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:11">
+      <c r="A2940" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2940" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2940">
+        <v>3</v>
+      </c>
+      <c r="G2940">
+        <v>2</v>
+      </c>
+      <c r="H2940" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2940">
+        <v>0</v>
+      </c>
+      <c r="J2940">
+        <v>2</v>
+      </c>
+      <c r="K2940" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:11">
+      <c r="A2941" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2941" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2941">
+        <v>3</v>
+      </c>
+      <c r="G2941">
+        <v>2</v>
+      </c>
+      <c r="H2941" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2941">
+        <v>0</v>
+      </c>
+      <c r="J2941">
+        <v>2</v>
+      </c>
+      <c r="K2941" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:11">
+      <c r="A2942" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2942" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2942">
+        <v>5</v>
+      </c>
+      <c r="G2942">
+        <v>1</v>
+      </c>
+      <c r="H2942" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2942">
+        <v>0</v>
+      </c>
+      <c r="J2942">
+        <v>1</v>
+      </c>
+      <c r="K2942" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:11">
+      <c r="A2943" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2943" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2943">
+        <v>1</v>
+      </c>
+      <c r="G2943">
+        <v>1</v>
+      </c>
+      <c r="H2943" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2943">
+        <v>0</v>
+      </c>
+      <c r="J2943">
+        <v>1</v>
+      </c>
+      <c r="K2943" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:11">
+      <c r="A2944" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2944" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2944">
+        <v>2</v>
+      </c>
+      <c r="G2944">
+        <v>1</v>
+      </c>
+      <c r="H2944" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2944">
+        <v>0</v>
+      </c>
+      <c r="J2944">
+        <v>1</v>
+      </c>
+      <c r="K2944" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:11">
+      <c r="A2945" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2945" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2945">
+        <v>1</v>
+      </c>
+      <c r="G2945">
+        <v>0</v>
+      </c>
+      <c r="H2945" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2945">
+        <v>0</v>
+      </c>
+      <c r="J2945">
+        <v>0</v>
+      </c>
+      <c r="K2945" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:11">
+      <c r="A2946" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2946" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2946">
+        <v>3</v>
+      </c>
+      <c r="G2946">
+        <v>1</v>
+      </c>
+      <c r="H2946" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2946">
+        <v>0</v>
+      </c>
+      <c r="J2946">
+        <v>1</v>
+      </c>
+      <c r="K2946" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:11">
+      <c r="A2947" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2947" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2947">
+        <v>7</v>
+      </c>
+      <c r="G2947">
+        <v>4</v>
+      </c>
+      <c r="H2947" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2947">
+        <v>0</v>
+      </c>
+      <c r="J2947">
+        <v>4</v>
+      </c>
+      <c r="K2947" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:11">
+      <c r="A2948" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2948" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2948">
+        <v>14</v>
+      </c>
+      <c r="G2948">
+        <v>4</v>
+      </c>
+      <c r="H2948" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2948">
+        <v>0</v>
+      </c>
+      <c r="J2948">
+        <v>4</v>
+      </c>
+      <c r="K2948" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:11">
+      <c r="A2949" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2949" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2949">
+        <v>13</v>
+      </c>
+      <c r="G2949">
+        <v>5</v>
+      </c>
+      <c r="H2949" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2949">
+        <v>0</v>
+      </c>
+      <c r="J2949">
+        <v>5</v>
+      </c>
+      <c r="K2949" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:11">
+      <c r="A2950" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2950" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2950">
+        <v>15</v>
+      </c>
+      <c r="G2950">
+        <v>4</v>
+      </c>
+      <c r="H2950" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2950">
+        <v>0</v>
+      </c>
+      <c r="J2950">
+        <v>4</v>
+      </c>
+      <c r="K2950" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:11">
+      <c r="A2951" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2951" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2951">
+        <v>13</v>
+      </c>
+      <c r="G2951">
+        <v>5</v>
+      </c>
+      <c r="H2951" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2951">
+        <v>0</v>
+      </c>
+      <c r="J2951">
+        <v>5</v>
+      </c>
+      <c r="K2951" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:11">
+      <c r="A2952" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2952" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2952">
+        <v>17</v>
+      </c>
+      <c r="G2952">
+        <v>9</v>
+      </c>
+      <c r="H2952" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2952">
+        <v>0</v>
+      </c>
+      <c r="J2952">
+        <v>9</v>
+      </c>
+      <c r="K2952" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:11">
+      <c r="A2953" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2953" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2953">
+        <v>29</v>
+      </c>
+      <c r="G2953">
+        <v>16</v>
+      </c>
+      <c r="H2953" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2953">
+        <v>0</v>
+      </c>
+      <c r="J2953">
+        <v>16</v>
+      </c>
+      <c r="K2953" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:11">
+      <c r="A2954" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2954" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2954">
+        <v>13</v>
+      </c>
+      <c r="G2954">
+        <v>6</v>
+      </c>
+      <c r="H2954" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2954">
+        <v>0</v>
+      </c>
+      <c r="J2954">
+        <v>6</v>
+      </c>
+      <c r="K2954" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:11">
+      <c r="A2955" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2955" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2955">
+        <v>23</v>
+      </c>
+      <c r="G2955">
+        <v>6</v>
+      </c>
+      <c r="H2955" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2955">
+        <v>0</v>
+      </c>
+      <c r="J2955">
+        <v>6</v>
+      </c>
+      <c r="K2955" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:11">
+      <c r="A2956" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2956" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2956">
+        <v>10</v>
+      </c>
+      <c r="G2956">
+        <v>4</v>
+      </c>
+      <c r="H2956" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2956">
+        <v>0</v>
+      </c>
+      <c r="J2956">
+        <v>4</v>
+      </c>
+      <c r="K2956" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:11">
+      <c r="A2957" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2957" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2957">
+        <v>11</v>
+      </c>
+      <c r="G2957">
+        <v>3</v>
+      </c>
+      <c r="H2957" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2957">
+        <v>0</v>
+      </c>
+      <c r="J2957">
+        <v>3</v>
+      </c>
+      <c r="K2957" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:11">
+      <c r="A2958" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2958" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2958">
+        <v>8</v>
+      </c>
+      <c r="G2958">
+        <v>3</v>
+      </c>
+      <c r="H2958" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2958">
+        <v>0</v>
+      </c>
+      <c r="J2958">
+        <v>3</v>
+      </c>
+      <c r="K2958" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:11">
+      <c r="A2959" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2959" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2959">
+        <v>13</v>
+      </c>
+      <c r="G2959">
+        <v>3</v>
+      </c>
+      <c r="H2959" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2959">
+        <v>0</v>
+      </c>
+      <c r="J2959">
+        <v>3</v>
+      </c>
+      <c r="K2959" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:11">
+      <c r="A2960" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2960">
+        <v>2</v>
+      </c>
+      <c r="G2960">
+        <v>2</v>
+      </c>
+      <c r="H2960" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2960">
+        <v>0</v>
+      </c>
+      <c r="J2960">
+        <v>2</v>
+      </c>
+      <c r="K2960" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:11">
+      <c r="A2961" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2961">
+        <v>21</v>
+      </c>
+      <c r="G2961">
+        <v>8</v>
+      </c>
+      <c r="H2961" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2961">
+        <v>0</v>
+      </c>
+      <c r="J2961">
+        <v>8</v>
+      </c>
+      <c r="K2961" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:11">
+      <c r="A2962" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2962">
+        <v>54</v>
+      </c>
+      <c r="G2962">
+        <v>25</v>
+      </c>
+      <c r="H2962" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2962">
+        <v>0</v>
+      </c>
+      <c r="J2962">
+        <v>25</v>
+      </c>
+      <c r="K2962" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:11">
+      <c r="A2963" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2963">
+        <v>206</v>
+      </c>
+      <c r="G2963">
+        <v>49</v>
+      </c>
+      <c r="H2963" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2963">
+        <v>0</v>
+      </c>
+      <c r="J2963">
+        <v>49</v>
+      </c>
+      <c r="K2963" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:11">
+      <c r="A2964" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2964">
+        <v>13</v>
+      </c>
+      <c r="G2964">
+        <v>3</v>
+      </c>
+      <c r="H2964" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2964">
+        <v>0</v>
+      </c>
+      <c r="J2964">
+        <v>3</v>
+      </c>
+      <c r="K2964" s="2">
+        <v>45542.25045211409</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:11">
+      <c r="A2965" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2965">
+        <v>47</v>
+      </c>
+      <c r="G2965">
+        <v>15</v>
+      </c>
+      <c r="H2965" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2965">
+        <v>0</v>
+      </c>
+      <c r="J2965">
+        <v>15</v>
+      </c>
+      <c r="K2965" s="2">
+        <v>45542.25045211409</v>
       </c>
     </row>
   </sheetData>

--- a/dados/processed/all_data.xlsx
+++ b/dados/processed/all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17795" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18731" uniqueCount="114">
   <si>
     <t>Curso</t>
   </si>
@@ -717,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2965"/>
+  <dimension ref="A1:K3121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99070,7 +99070,7 @@
         <v>37</v>
       </c>
       <c r="K2810" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2811" spans="1:11">
@@ -99105,7 +99105,7 @@
         <v>20</v>
       </c>
       <c r="K2811" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2812" spans="1:11">
@@ -99140,7 +99140,7 @@
         <v>13</v>
       </c>
       <c r="K2812" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2813" spans="1:11">
@@ -99175,7 +99175,7 @@
         <v>36</v>
       </c>
       <c r="K2813" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2814" spans="1:11">
@@ -99210,7 +99210,7 @@
         <v>10</v>
       </c>
       <c r="K2814" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2815" spans="1:11">
@@ -99245,7 +99245,7 @@
         <v>7</v>
       </c>
       <c r="K2815" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2816" spans="1:11">
@@ -99280,7 +99280,7 @@
         <v>1</v>
       </c>
       <c r="K2816" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2817" spans="1:11">
@@ -99315,7 +99315,7 @@
         <v>3</v>
       </c>
       <c r="K2817" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2818" spans="1:11">
@@ -99350,7 +99350,7 @@
         <v>87</v>
       </c>
       <c r="K2818" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2819" spans="1:11">
@@ -99385,7 +99385,7 @@
         <v>76</v>
       </c>
       <c r="K2819" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2820" spans="1:11">
@@ -99420,7 +99420,7 @@
         <v>111</v>
       </c>
       <c r="K2820" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2821" spans="1:11">
@@ -99455,7 +99455,7 @@
         <v>35</v>
       </c>
       <c r="K2821" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2822" spans="1:11">
@@ -99490,7 +99490,7 @@
         <v>28</v>
       </c>
       <c r="K2822" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2823" spans="1:11">
@@ -99525,7 +99525,7 @@
         <v>24</v>
       </c>
       <c r="K2823" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2824" spans="1:11">
@@ -99560,7 +99560,7 @@
         <v>41</v>
       </c>
       <c r="K2824" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2825" spans="1:11">
@@ -99595,7 +99595,7 @@
         <v>19</v>
       </c>
       <c r="K2825" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2826" spans="1:11">
@@ -99630,7 +99630,7 @@
         <v>13</v>
       </c>
       <c r="K2826" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2827" spans="1:11">
@@ -99665,7 +99665,7 @@
         <v>2</v>
       </c>
       <c r="K2827" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2828" spans="1:11">
@@ -99700,7 +99700,7 @@
         <v>20</v>
       </c>
       <c r="K2828" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2829" spans="1:11">
@@ -99735,7 +99735,7 @@
         <v>36</v>
       </c>
       <c r="K2829" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2830" spans="1:11">
@@ -99770,7 +99770,7 @@
         <v>35</v>
       </c>
       <c r="K2830" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2831" spans="1:11">
@@ -99805,7 +99805,7 @@
         <v>42</v>
       </c>
       <c r="K2831" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2832" spans="1:11">
@@ -99840,7 +99840,7 @@
         <v>48</v>
       </c>
       <c r="K2832" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2833" spans="1:11">
@@ -99875,7 +99875,7 @@
         <v>34</v>
       </c>
       <c r="K2833" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2834" spans="1:11">
@@ -99910,7 +99910,7 @@
         <v>26</v>
       </c>
       <c r="K2834" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2835" spans="1:11">
@@ -99945,7 +99945,7 @@
         <v>69</v>
       </c>
       <c r="K2835" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2836" spans="1:11">
@@ -99980,7 +99980,7 @@
         <v>25</v>
       </c>
       <c r="K2836" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2837" spans="1:11">
@@ -100015,7 +100015,7 @@
         <v>52</v>
       </c>
       <c r="K2837" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2838" spans="1:11">
@@ -100050,7 +100050,7 @@
         <v>48</v>
       </c>
       <c r="K2838" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2839" spans="1:11">
@@ -100085,7 +100085,7 @@
         <v>19</v>
       </c>
       <c r="K2839" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2840" spans="1:11">
@@ -100120,7 +100120,7 @@
         <v>49</v>
       </c>
       <c r="K2840" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2841" spans="1:11">
@@ -100155,7 +100155,7 @@
         <v>60</v>
       </c>
       <c r="K2841" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2842" spans="1:11">
@@ -100190,7 +100190,7 @@
         <v>53</v>
       </c>
       <c r="K2842" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2843" spans="1:11">
@@ -100225,7 +100225,7 @@
         <v>32</v>
       </c>
       <c r="K2843" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2844" spans="1:11">
@@ -100260,7 +100260,7 @@
         <v>17</v>
       </c>
       <c r="K2844" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2845" spans="1:11">
@@ -100295,7 +100295,7 @@
         <v>30</v>
       </c>
       <c r="K2845" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2846" spans="1:11">
@@ -100330,7 +100330,7 @@
         <v>24</v>
       </c>
       <c r="K2846" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2847" spans="1:11">
@@ -100365,7 +100365,7 @@
         <v>40</v>
       </c>
       <c r="K2847" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2848" spans="1:11">
@@ -100400,7 +100400,7 @@
         <v>56</v>
       </c>
       <c r="K2848" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2849" spans="1:11">
@@ -100435,7 +100435,7 @@
         <v>61</v>
       </c>
       <c r="K2849" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2850" spans="1:11">
@@ -100470,7 +100470,7 @@
         <v>71</v>
       </c>
       <c r="K2850" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2851" spans="1:11">
@@ -100505,7 +100505,7 @@
         <v>17</v>
       </c>
       <c r="K2851" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2852" spans="1:11">
@@ -100540,7 +100540,7 @@
         <v>65</v>
       </c>
       <c r="K2852" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2853" spans="1:11">
@@ -100575,7 +100575,7 @@
         <v>31</v>
       </c>
       <c r="K2853" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2854" spans="1:11">
@@ -100610,7 +100610,7 @@
         <v>56</v>
       </c>
       <c r="K2854" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2855" spans="1:11">
@@ -100645,7 +100645,7 @@
         <v>85</v>
       </c>
       <c r="K2855" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2856" spans="1:11">
@@ -100680,7 +100680,7 @@
         <v>30</v>
       </c>
       <c r="K2856" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2857" spans="1:11">
@@ -100715,7 +100715,7 @@
         <v>51</v>
       </c>
       <c r="K2857" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2858" spans="1:11">
@@ -100750,7 +100750,7 @@
         <v>34</v>
       </c>
       <c r="K2858" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2859" spans="1:11">
@@ -100785,7 +100785,7 @@
         <v>35</v>
       </c>
       <c r="K2859" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2860" spans="1:11">
@@ -100820,7 +100820,7 @@
         <v>4</v>
       </c>
       <c r="K2860" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2861" spans="1:11">
@@ -100855,7 +100855,7 @@
         <v>14</v>
       </c>
       <c r="K2861" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2862" spans="1:11">
@@ -100890,7 +100890,7 @@
         <v>7</v>
       </c>
       <c r="K2862" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2863" spans="1:11">
@@ -100925,7 +100925,7 @@
         <v>1</v>
       </c>
       <c r="K2863" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2864" spans="1:11">
@@ -100960,7 +100960,7 @@
         <v>0</v>
       </c>
       <c r="K2864" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2865" spans="1:11">
@@ -100995,7 +100995,7 @@
         <v>0</v>
       </c>
       <c r="K2865" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2866" spans="1:11">
@@ -101030,7 +101030,7 @@
         <v>1</v>
       </c>
       <c r="K2866" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2867" spans="1:11">
@@ -101065,7 +101065,7 @@
         <v>1</v>
       </c>
       <c r="K2867" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2868" spans="1:11">
@@ -101100,7 +101100,7 @@
         <v>3</v>
       </c>
       <c r="K2868" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2869" spans="1:11">
@@ -101135,7 +101135,7 @@
         <v>0</v>
       </c>
       <c r="K2869" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2870" spans="1:11">
@@ -101170,7 +101170,7 @@
         <v>0</v>
       </c>
       <c r="K2870" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2871" spans="1:11">
@@ -101205,7 +101205,7 @@
         <v>0</v>
       </c>
       <c r="K2871" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2872" spans="1:11">
@@ -101240,7 +101240,7 @@
         <v>1</v>
       </c>
       <c r="K2872" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2873" spans="1:11">
@@ -101275,7 +101275,7 @@
         <v>0</v>
       </c>
       <c r="K2873" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2874" spans="1:11">
@@ -101310,7 +101310,7 @@
         <v>43</v>
       </c>
       <c r="K2874" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2875" spans="1:11">
@@ -101345,7 +101345,7 @@
         <v>2</v>
       </c>
       <c r="K2875" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2876" spans="1:11">
@@ -101380,7 +101380,7 @@
         <v>25</v>
       </c>
       <c r="K2876" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2877" spans="1:11">
@@ -101415,7 +101415,7 @@
         <v>15</v>
       </c>
       <c r="K2877" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2878" spans="1:11">
@@ -101450,7 +101450,7 @@
         <v>17</v>
       </c>
       <c r="K2878" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2879" spans="1:11">
@@ -101485,7 +101485,7 @@
         <v>1</v>
       </c>
       <c r="K2879" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2880" spans="1:11">
@@ -101520,7 +101520,7 @@
         <v>0</v>
       </c>
       <c r="K2880" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2881" spans="1:11">
@@ -101555,7 +101555,7 @@
         <v>1</v>
       </c>
       <c r="K2881" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2882" spans="1:11">
@@ -101590,7 +101590,7 @@
         <v>0</v>
       </c>
       <c r="K2882" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2883" spans="1:11">
@@ -101625,7 +101625,7 @@
         <v>6</v>
       </c>
       <c r="K2883" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2884" spans="1:11">
@@ -101660,7 +101660,7 @@
         <v>3</v>
       </c>
       <c r="K2884" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2885" spans="1:11">
@@ -101695,7 +101695,7 @@
         <v>7</v>
       </c>
       <c r="K2885" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2886" spans="1:11">
@@ -101730,7 +101730,7 @@
         <v>2</v>
       </c>
       <c r="K2886" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2887" spans="1:11">
@@ -101765,7 +101765,7 @@
         <v>3</v>
       </c>
       <c r="K2887" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2888" spans="1:11">
@@ -101800,7 +101800,7 @@
         <v>2</v>
       </c>
       <c r="K2888" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2889" spans="1:11">
@@ -101835,7 +101835,7 @@
         <v>0</v>
       </c>
       <c r="K2889" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2890" spans="1:11">
@@ -101870,7 +101870,7 @@
         <v>0</v>
       </c>
       <c r="K2890" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2891" spans="1:11">
@@ -101905,7 +101905,7 @@
         <v>3</v>
       </c>
       <c r="K2891" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2892" spans="1:11">
@@ -101940,7 +101940,7 @@
         <v>6</v>
       </c>
       <c r="K2892" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2893" spans="1:11">
@@ -101975,7 +101975,7 @@
         <v>2</v>
       </c>
       <c r="K2893" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2894" spans="1:11">
@@ -102010,7 +102010,7 @@
         <v>1</v>
       </c>
       <c r="K2894" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2895" spans="1:11">
@@ -102045,7 +102045,7 @@
         <v>18</v>
       </c>
       <c r="K2895" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2896" spans="1:11">
@@ -102080,7 +102080,7 @@
         <v>9</v>
       </c>
       <c r="K2896" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2897" spans="1:11">
@@ -102115,7 +102115,7 @@
         <v>9</v>
       </c>
       <c r="K2897" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2898" spans="1:11">
@@ -102150,7 +102150,7 @@
         <v>7</v>
       </c>
       <c r="K2898" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2899" spans="1:11">
@@ -102185,7 +102185,7 @@
         <v>2</v>
       </c>
       <c r="K2899" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2900" spans="1:11">
@@ -102220,7 +102220,7 @@
         <v>8</v>
       </c>
       <c r="K2900" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2901" spans="1:11">
@@ -102255,7 +102255,7 @@
         <v>5</v>
       </c>
       <c r="K2901" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2902" spans="1:11">
@@ -102290,7 +102290,7 @@
         <v>8</v>
       </c>
       <c r="K2902" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2903" spans="1:11">
@@ -102325,7 +102325,7 @@
         <v>6</v>
       </c>
       <c r="K2903" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2904" spans="1:11">
@@ -102360,7 +102360,7 @@
         <v>6</v>
       </c>
       <c r="K2904" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2905" spans="1:11">
@@ -102395,7 +102395,7 @@
         <v>1</v>
       </c>
       <c r="K2905" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2906" spans="1:11">
@@ -102430,7 +102430,7 @@
         <v>21</v>
       </c>
       <c r="K2906" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2907" spans="1:11">
@@ -102465,7 +102465,7 @@
         <v>5</v>
       </c>
       <c r="K2907" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2908" spans="1:11">
@@ -102500,7 +102500,7 @@
         <v>17</v>
       </c>
       <c r="K2908" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2909" spans="1:11">
@@ -102535,7 +102535,7 @@
         <v>1</v>
       </c>
       <c r="K2909" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2910" spans="1:11">
@@ -102570,7 +102570,7 @@
         <v>3</v>
       </c>
       <c r="K2910" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2911" spans="1:11">
@@ -102605,7 +102605,7 @@
         <v>0</v>
       </c>
       <c r="K2911" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2912" spans="1:11">
@@ -102640,7 +102640,7 @@
         <v>1</v>
       </c>
       <c r="K2912" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2913" spans="1:11">
@@ -102675,7 +102675,7 @@
         <v>0</v>
       </c>
       <c r="K2913" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2914" spans="1:11">
@@ -102710,7 +102710,7 @@
         <v>1</v>
       </c>
       <c r="K2914" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2915" spans="1:11">
@@ -102745,7 +102745,7 @@
         <v>1</v>
       </c>
       <c r="K2915" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2916" spans="1:11">
@@ -102780,7 +102780,7 @@
         <v>2</v>
       </c>
       <c r="K2916" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2917" spans="1:11">
@@ -102815,7 +102815,7 @@
         <v>2</v>
       </c>
       <c r="K2917" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2918" spans="1:11">
@@ -102850,7 +102850,7 @@
         <v>2</v>
       </c>
       <c r="K2918" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2919" spans="1:11">
@@ -102885,7 +102885,7 @@
         <v>3</v>
       </c>
       <c r="K2919" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2920" spans="1:11">
@@ -102920,7 +102920,7 @@
         <v>3</v>
       </c>
       <c r="K2920" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2921" spans="1:11">
@@ -102955,7 +102955,7 @@
         <v>2</v>
       </c>
       <c r="K2921" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2922" spans="1:11">
@@ -102990,7 +102990,7 @@
         <v>2</v>
       </c>
       <c r="K2922" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2923" spans="1:11">
@@ -103025,7 +103025,7 @@
         <v>12</v>
       </c>
       <c r="K2923" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2924" spans="1:11">
@@ -103060,7 +103060,7 @@
         <v>6</v>
       </c>
       <c r="K2924" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2925" spans="1:11">
@@ -103095,7 +103095,7 @@
         <v>8</v>
       </c>
       <c r="K2925" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2926" spans="1:11">
@@ -103130,7 +103130,7 @@
         <v>9</v>
       </c>
       <c r="K2926" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2927" spans="1:11">
@@ -103165,7 +103165,7 @@
         <v>2</v>
       </c>
       <c r="K2927" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2928" spans="1:11">
@@ -103200,7 +103200,7 @@
         <v>4</v>
       </c>
       <c r="K2928" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2929" spans="1:11">
@@ -103235,7 +103235,7 @@
         <v>4</v>
       </c>
       <c r="K2929" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2930" spans="1:11">
@@ -103270,7 +103270,7 @@
         <v>10</v>
       </c>
       <c r="K2930" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2931" spans="1:11">
@@ -103305,7 +103305,7 @@
         <v>9</v>
       </c>
       <c r="K2931" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2932" spans="1:11">
@@ -103340,7 +103340,7 @@
         <v>4</v>
       </c>
       <c r="K2932" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2933" spans="1:11">
@@ -103375,7 +103375,7 @@
         <v>4</v>
       </c>
       <c r="K2933" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2934" spans="1:11">
@@ -103410,7 +103410,7 @@
         <v>3</v>
       </c>
       <c r="K2934" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2935" spans="1:11">
@@ -103445,7 +103445,7 @@
         <v>8</v>
       </c>
       <c r="K2935" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2936" spans="1:11">
@@ -103480,7 +103480,7 @@
         <v>7</v>
       </c>
       <c r="K2936" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2937" spans="1:11">
@@ -103515,7 +103515,7 @@
         <v>5</v>
       </c>
       <c r="K2937" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2938" spans="1:11">
@@ -103550,7 +103550,7 @@
         <v>4</v>
       </c>
       <c r="K2938" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2939" spans="1:11">
@@ -103585,7 +103585,7 @@
         <v>6</v>
       </c>
       <c r="K2939" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2940" spans="1:11">
@@ -103620,7 +103620,7 @@
         <v>2</v>
       </c>
       <c r="K2940" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2941" spans="1:11">
@@ -103655,7 +103655,7 @@
         <v>2</v>
       </c>
       <c r="K2941" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2942" spans="1:11">
@@ -103690,7 +103690,7 @@
         <v>1</v>
       </c>
       <c r="K2942" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2943" spans="1:11">
@@ -103725,7 +103725,7 @@
         <v>1</v>
       </c>
       <c r="K2943" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2944" spans="1:11">
@@ -103760,7 +103760,7 @@
         <v>1</v>
       </c>
       <c r="K2944" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2945" spans="1:11">
@@ -103795,7 +103795,7 @@
         <v>0</v>
       </c>
       <c r="K2945" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2946" spans="1:11">
@@ -103830,7 +103830,7 @@
         <v>1</v>
       </c>
       <c r="K2946" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2947" spans="1:11">
@@ -103865,7 +103865,7 @@
         <v>4</v>
       </c>
       <c r="K2947" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2948" spans="1:11">
@@ -103900,7 +103900,7 @@
         <v>4</v>
       </c>
       <c r="K2948" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2949" spans="1:11">
@@ -103935,7 +103935,7 @@
         <v>5</v>
       </c>
       <c r="K2949" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2950" spans="1:11">
@@ -103970,7 +103970,7 @@
         <v>4</v>
       </c>
       <c r="K2950" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2951" spans="1:11">
@@ -104005,7 +104005,7 @@
         <v>5</v>
       </c>
       <c r="K2951" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2952" spans="1:11">
@@ -104040,7 +104040,7 @@
         <v>9</v>
       </c>
       <c r="K2952" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2953" spans="1:11">
@@ -104075,7 +104075,7 @@
         <v>16</v>
       </c>
       <c r="K2953" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2954" spans="1:11">
@@ -104110,7 +104110,7 @@
         <v>6</v>
       </c>
       <c r="K2954" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2955" spans="1:11">
@@ -104145,7 +104145,7 @@
         <v>6</v>
       </c>
       <c r="K2955" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2956" spans="1:11">
@@ -104180,7 +104180,7 @@
         <v>4</v>
       </c>
       <c r="K2956" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2957" spans="1:11">
@@ -104215,7 +104215,7 @@
         <v>3</v>
       </c>
       <c r="K2957" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2958" spans="1:11">
@@ -104250,7 +104250,7 @@
         <v>3</v>
       </c>
       <c r="K2958" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2959" spans="1:11">
@@ -104285,7 +104285,7 @@
         <v>3</v>
       </c>
       <c r="K2959" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2960" spans="1:11">
@@ -104320,7 +104320,7 @@
         <v>2</v>
       </c>
       <c r="K2960" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2961" spans="1:11">
@@ -104355,7 +104355,7 @@
         <v>8</v>
       </c>
       <c r="K2961" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2962" spans="1:11">
@@ -104390,7 +104390,7 @@
         <v>25</v>
       </c>
       <c r="K2962" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2963" spans="1:11">
@@ -104425,7 +104425,7 @@
         <v>49</v>
       </c>
       <c r="K2963" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2964" spans="1:11">
@@ -104460,7 +104460,7 @@
         <v>3</v>
       </c>
       <c r="K2964" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
       </c>
     </row>
     <row r="2965" spans="1:11">
@@ -104495,7 +104495,5467 @@
         <v>15</v>
       </c>
       <c r="K2965" s="2">
-        <v>45542.25045211409</v>
+        <v>45542.25045211805</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:11">
+      <c r="A2966" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2966">
+        <v>61</v>
+      </c>
+      <c r="G2966">
+        <v>37</v>
+      </c>
+      <c r="H2966" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2966">
+        <v>0</v>
+      </c>
+      <c r="J2966">
+        <v>37</v>
+      </c>
+      <c r="K2966" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:11">
+      <c r="A2967" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2967">
+        <v>24</v>
+      </c>
+      <c r="G2967">
+        <v>20</v>
+      </c>
+      <c r="H2967" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2967">
+        <v>0</v>
+      </c>
+      <c r="J2967">
+        <v>20</v>
+      </c>
+      <c r="K2967" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:11">
+      <c r="A2968" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2968">
+        <v>27</v>
+      </c>
+      <c r="G2968">
+        <v>13</v>
+      </c>
+      <c r="H2968" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2968">
+        <v>0</v>
+      </c>
+      <c r="J2968">
+        <v>13</v>
+      </c>
+      <c r="K2968" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:11">
+      <c r="A2969" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2969">
+        <v>69</v>
+      </c>
+      <c r="G2969">
+        <v>38</v>
+      </c>
+      <c r="H2969" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2969">
+        <v>0</v>
+      </c>
+      <c r="J2969">
+        <v>38</v>
+      </c>
+      <c r="K2969" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:11">
+      <c r="A2970" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2970">
+        <v>23</v>
+      </c>
+      <c r="G2970">
+        <v>10</v>
+      </c>
+      <c r="H2970" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2970">
+        <v>0</v>
+      </c>
+      <c r="J2970">
+        <v>10</v>
+      </c>
+      <c r="K2970" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:11">
+      <c r="A2971" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2971">
+        <v>14</v>
+      </c>
+      <c r="G2971">
+        <v>7</v>
+      </c>
+      <c r="H2971" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2971">
+        <v>0</v>
+      </c>
+      <c r="J2971">
+        <v>7</v>
+      </c>
+      <c r="K2971" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:11">
+      <c r="A2972" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2972">
+        <v>5</v>
+      </c>
+      <c r="G2972">
+        <v>2</v>
+      </c>
+      <c r="H2972" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2972">
+        <v>0</v>
+      </c>
+      <c r="J2972">
+        <v>2</v>
+      </c>
+      <c r="K2972" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:11">
+      <c r="A2973" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2973">
+        <v>5</v>
+      </c>
+      <c r="G2973">
+        <v>3</v>
+      </c>
+      <c r="H2973" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2973">
+        <v>0</v>
+      </c>
+      <c r="J2973">
+        <v>3</v>
+      </c>
+      <c r="K2973" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:11">
+      <c r="A2974" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2974">
+        <v>203</v>
+      </c>
+      <c r="G2974">
+        <v>87</v>
+      </c>
+      <c r="H2974" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2974">
+        <v>0</v>
+      </c>
+      <c r="J2974">
+        <v>87</v>
+      </c>
+      <c r="K2974" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:11">
+      <c r="A2975" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2975">
+        <v>151</v>
+      </c>
+      <c r="G2975">
+        <v>76</v>
+      </c>
+      <c r="H2975" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2975">
+        <v>0</v>
+      </c>
+      <c r="J2975">
+        <v>76</v>
+      </c>
+      <c r="K2975" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:11">
+      <c r="A2976" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2976">
+        <v>224</v>
+      </c>
+      <c r="G2976">
+        <v>113</v>
+      </c>
+      <c r="H2976" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2976">
+        <v>0</v>
+      </c>
+      <c r="J2976">
+        <v>113</v>
+      </c>
+      <c r="K2976" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:11">
+      <c r="A2977" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2977">
+        <v>77</v>
+      </c>
+      <c r="G2977">
+        <v>35</v>
+      </c>
+      <c r="H2977" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2977">
+        <v>0</v>
+      </c>
+      <c r="J2977">
+        <v>35</v>
+      </c>
+      <c r="K2977" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:11">
+      <c r="A2978" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2978">
+        <v>68</v>
+      </c>
+      <c r="G2978">
+        <v>28</v>
+      </c>
+      <c r="H2978" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2978">
+        <v>0</v>
+      </c>
+      <c r="J2978">
+        <v>28</v>
+      </c>
+      <c r="K2978" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:11">
+      <c r="A2979" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2979">
+        <v>93</v>
+      </c>
+      <c r="G2979">
+        <v>24</v>
+      </c>
+      <c r="H2979" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2979">
+        <v>0</v>
+      </c>
+      <c r="J2979">
+        <v>24</v>
+      </c>
+      <c r="K2979" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:11">
+      <c r="A2980" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2980">
+        <v>86</v>
+      </c>
+      <c r="G2980">
+        <v>41</v>
+      </c>
+      <c r="H2980" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2980">
+        <v>0</v>
+      </c>
+      <c r="J2980">
+        <v>41</v>
+      </c>
+      <c r="K2980" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:11">
+      <c r="A2981" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2981">
+        <v>42</v>
+      </c>
+      <c r="G2981">
+        <v>19</v>
+      </c>
+      <c r="H2981" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2981">
+        <v>0</v>
+      </c>
+      <c r="J2981">
+        <v>19</v>
+      </c>
+      <c r="K2981" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:11">
+      <c r="A2982" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2982">
+        <v>29</v>
+      </c>
+      <c r="G2982">
+        <v>13</v>
+      </c>
+      <c r="H2982" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2982">
+        <v>0</v>
+      </c>
+      <c r="J2982">
+        <v>13</v>
+      </c>
+      <c r="K2982" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:11">
+      <c r="A2983" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2983">
+        <v>12</v>
+      </c>
+      <c r="G2983">
+        <v>2</v>
+      </c>
+      <c r="H2983" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2983">
+        <v>0</v>
+      </c>
+      <c r="J2983">
+        <v>2</v>
+      </c>
+      <c r="K2983" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:11">
+      <c r="A2984" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2984">
+        <v>53</v>
+      </c>
+      <c r="G2984">
+        <v>20</v>
+      </c>
+      <c r="H2984" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2984">
+        <v>0</v>
+      </c>
+      <c r="J2984">
+        <v>20</v>
+      </c>
+      <c r="K2984" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:11">
+      <c r="A2985" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2985">
+        <v>72</v>
+      </c>
+      <c r="G2985">
+        <v>36</v>
+      </c>
+      <c r="H2985" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2985">
+        <v>0</v>
+      </c>
+      <c r="J2985">
+        <v>36</v>
+      </c>
+      <c r="K2985" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:11">
+      <c r="A2986" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2986">
+        <v>87</v>
+      </c>
+      <c r="G2986">
+        <v>35</v>
+      </c>
+      <c r="H2986" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2986">
+        <v>0</v>
+      </c>
+      <c r="J2986">
+        <v>35</v>
+      </c>
+      <c r="K2986" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:11">
+      <c r="A2987" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2987">
+        <v>98</v>
+      </c>
+      <c r="G2987">
+        <v>42</v>
+      </c>
+      <c r="H2987" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2987">
+        <v>0</v>
+      </c>
+      <c r="J2987">
+        <v>42</v>
+      </c>
+      <c r="K2987" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:11">
+      <c r="A2988" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2988">
+        <v>102</v>
+      </c>
+      <c r="G2988">
+        <v>49</v>
+      </c>
+      <c r="H2988" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2988">
+        <v>0</v>
+      </c>
+      <c r="J2988">
+        <v>49</v>
+      </c>
+      <c r="K2988" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:11">
+      <c r="A2989" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2989">
+        <v>96</v>
+      </c>
+      <c r="G2989">
+        <v>34</v>
+      </c>
+      <c r="H2989" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2989">
+        <v>0</v>
+      </c>
+      <c r="J2989">
+        <v>34</v>
+      </c>
+      <c r="K2989" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:11">
+      <c r="A2990" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2990">
+        <v>60</v>
+      </c>
+      <c r="G2990">
+        <v>26</v>
+      </c>
+      <c r="H2990" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2990">
+        <v>0</v>
+      </c>
+      <c r="J2990">
+        <v>26</v>
+      </c>
+      <c r="K2990" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:11">
+      <c r="A2991" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2991">
+        <v>145</v>
+      </c>
+      <c r="G2991">
+        <v>69</v>
+      </c>
+      <c r="H2991" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2991">
+        <v>0</v>
+      </c>
+      <c r="J2991">
+        <v>69</v>
+      </c>
+      <c r="K2991" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:11">
+      <c r="A2992" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2992">
+        <v>91</v>
+      </c>
+      <c r="G2992">
+        <v>25</v>
+      </c>
+      <c r="H2992" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2992">
+        <v>0</v>
+      </c>
+      <c r="J2992">
+        <v>25</v>
+      </c>
+      <c r="K2992" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:11">
+      <c r="A2993" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2993">
+        <v>92</v>
+      </c>
+      <c r="G2993">
+        <v>52</v>
+      </c>
+      <c r="H2993" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2993">
+        <v>0</v>
+      </c>
+      <c r="J2993">
+        <v>52</v>
+      </c>
+      <c r="K2993" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:11">
+      <c r="A2994" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2994">
+        <v>103</v>
+      </c>
+      <c r="G2994">
+        <v>48</v>
+      </c>
+      <c r="H2994" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2994">
+        <v>0</v>
+      </c>
+      <c r="J2994">
+        <v>48</v>
+      </c>
+      <c r="K2994" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:11">
+      <c r="A2995" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2995">
+        <v>42</v>
+      </c>
+      <c r="G2995">
+        <v>19</v>
+      </c>
+      <c r="H2995" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2995">
+        <v>0</v>
+      </c>
+      <c r="J2995">
+        <v>19</v>
+      </c>
+      <c r="K2995" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:11">
+      <c r="A2996" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2996">
+        <v>101</v>
+      </c>
+      <c r="G2996">
+        <v>49</v>
+      </c>
+      <c r="H2996" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2996">
+        <v>0</v>
+      </c>
+      <c r="J2996">
+        <v>49</v>
+      </c>
+      <c r="K2996" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:11">
+      <c r="A2997" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2997">
+        <v>132</v>
+      </c>
+      <c r="G2997">
+        <v>61</v>
+      </c>
+      <c r="H2997" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2997">
+        <v>0</v>
+      </c>
+      <c r="J2997">
+        <v>61</v>
+      </c>
+      <c r="K2997" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:11">
+      <c r="A2998" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2998">
+        <v>103</v>
+      </c>
+      <c r="G2998">
+        <v>53</v>
+      </c>
+      <c r="H2998" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2998">
+        <v>0</v>
+      </c>
+      <c r="J2998">
+        <v>53</v>
+      </c>
+      <c r="K2998" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:11">
+      <c r="A2999" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2999">
+        <v>65</v>
+      </c>
+      <c r="G2999">
+        <v>32</v>
+      </c>
+      <c r="H2999" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2999">
+        <v>0</v>
+      </c>
+      <c r="J2999">
+        <v>32</v>
+      </c>
+      <c r="K2999" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:11">
+      <c r="A3000" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3000">
+        <v>31</v>
+      </c>
+      <c r="G3000">
+        <v>17</v>
+      </c>
+      <c r="H3000" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3000">
+        <v>0</v>
+      </c>
+      <c r="J3000">
+        <v>17</v>
+      </c>
+      <c r="K3000" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:11">
+      <c r="A3001" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3001">
+        <v>67</v>
+      </c>
+      <c r="G3001">
+        <v>30</v>
+      </c>
+      <c r="H3001" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3001">
+        <v>0</v>
+      </c>
+      <c r="J3001">
+        <v>30</v>
+      </c>
+      <c r="K3001" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:11">
+      <c r="A3002" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3002">
+        <v>46</v>
+      </c>
+      <c r="G3002">
+        <v>24</v>
+      </c>
+      <c r="H3002" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3002">
+        <v>0</v>
+      </c>
+      <c r="J3002">
+        <v>24</v>
+      </c>
+      <c r="K3002" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:11">
+      <c r="A3003" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3003">
+        <v>113</v>
+      </c>
+      <c r="G3003">
+        <v>40</v>
+      </c>
+      <c r="H3003" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3003">
+        <v>0</v>
+      </c>
+      <c r="J3003">
+        <v>40</v>
+      </c>
+      <c r="K3003" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:11">
+      <c r="A3004" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3004">
+        <v>140</v>
+      </c>
+      <c r="G3004">
+        <v>56</v>
+      </c>
+      <c r="H3004" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3004">
+        <v>0</v>
+      </c>
+      <c r="J3004">
+        <v>56</v>
+      </c>
+      <c r="K3004" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:11">
+      <c r="A3005" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3005">
+        <v>178</v>
+      </c>
+      <c r="G3005">
+        <v>62</v>
+      </c>
+      <c r="H3005" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3005">
+        <v>0</v>
+      </c>
+      <c r="J3005">
+        <v>62</v>
+      </c>
+      <c r="K3005" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:11">
+      <c r="A3006" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3006">
+        <v>154</v>
+      </c>
+      <c r="G3006">
+        <v>72</v>
+      </c>
+      <c r="H3006" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3006">
+        <v>0</v>
+      </c>
+      <c r="J3006">
+        <v>72</v>
+      </c>
+      <c r="K3006" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:11">
+      <c r="A3007" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3007">
+        <v>48</v>
+      </c>
+      <c r="G3007">
+        <v>17</v>
+      </c>
+      <c r="H3007" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3007">
+        <v>0</v>
+      </c>
+      <c r="J3007">
+        <v>17</v>
+      </c>
+      <c r="K3007" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:11">
+      <c r="A3008" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3008">
+        <v>142</v>
+      </c>
+      <c r="G3008">
+        <v>65</v>
+      </c>
+      <c r="H3008" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3008">
+        <v>0</v>
+      </c>
+      <c r="J3008">
+        <v>65</v>
+      </c>
+      <c r="K3008" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:11">
+      <c r="A3009" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3009">
+        <v>59</v>
+      </c>
+      <c r="G3009">
+        <v>31</v>
+      </c>
+      <c r="H3009" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3009">
+        <v>0</v>
+      </c>
+      <c r="J3009">
+        <v>31</v>
+      </c>
+      <c r="K3009" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:11">
+      <c r="A3010" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3010">
+        <v>123</v>
+      </c>
+      <c r="G3010">
+        <v>56</v>
+      </c>
+      <c r="H3010" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3010">
+        <v>0</v>
+      </c>
+      <c r="J3010">
+        <v>56</v>
+      </c>
+      <c r="K3010" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:11">
+      <c r="A3011" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3011">
+        <v>206</v>
+      </c>
+      <c r="G3011">
+        <v>85</v>
+      </c>
+      <c r="H3011" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3011">
+        <v>0</v>
+      </c>
+      <c r="J3011">
+        <v>85</v>
+      </c>
+      <c r="K3011" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:11">
+      <c r="A3012" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3012">
+        <v>103</v>
+      </c>
+      <c r="G3012">
+        <v>30</v>
+      </c>
+      <c r="H3012" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3012">
+        <v>0</v>
+      </c>
+      <c r="J3012">
+        <v>30</v>
+      </c>
+      <c r="K3012" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:11">
+      <c r="A3013" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3013">
+        <v>114</v>
+      </c>
+      <c r="G3013">
+        <v>51</v>
+      </c>
+      <c r="H3013" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3013">
+        <v>0</v>
+      </c>
+      <c r="J3013">
+        <v>51</v>
+      </c>
+      <c r="K3013" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:11">
+      <c r="A3014" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3014">
+        <v>97</v>
+      </c>
+      <c r="G3014">
+        <v>34</v>
+      </c>
+      <c r="H3014" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3014">
+        <v>0</v>
+      </c>
+      <c r="J3014">
+        <v>34</v>
+      </c>
+      <c r="K3014" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:11">
+      <c r="A3015" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3015">
+        <v>99</v>
+      </c>
+      <c r="G3015">
+        <v>35</v>
+      </c>
+      <c r="H3015" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3015">
+        <v>0</v>
+      </c>
+      <c r="J3015">
+        <v>35</v>
+      </c>
+      <c r="K3015" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:11">
+      <c r="A3016" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3016">
+        <v>6</v>
+      </c>
+      <c r="G3016">
+        <v>4</v>
+      </c>
+      <c r="H3016" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3016">
+        <v>0</v>
+      </c>
+      <c r="J3016">
+        <v>4</v>
+      </c>
+      <c r="K3016" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:11">
+      <c r="A3017" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3017">
+        <v>30</v>
+      </c>
+      <c r="G3017">
+        <v>14</v>
+      </c>
+      <c r="H3017" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3017">
+        <v>0</v>
+      </c>
+      <c r="J3017">
+        <v>14</v>
+      </c>
+      <c r="K3017" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:11">
+      <c r="A3018" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3018">
+        <v>11</v>
+      </c>
+      <c r="G3018">
+        <v>7</v>
+      </c>
+      <c r="H3018" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3018">
+        <v>0</v>
+      </c>
+      <c r="J3018">
+        <v>7</v>
+      </c>
+      <c r="K3018" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:11">
+      <c r="A3019" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3019">
+        <v>9</v>
+      </c>
+      <c r="G3019">
+        <v>1</v>
+      </c>
+      <c r="H3019" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3019">
+        <v>0</v>
+      </c>
+      <c r="J3019">
+        <v>1</v>
+      </c>
+      <c r="K3019" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:11">
+      <c r="A3020" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3020">
+        <v>1</v>
+      </c>
+      <c r="G3020">
+        <v>0</v>
+      </c>
+      <c r="H3020" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3020">
+        <v>0</v>
+      </c>
+      <c r="J3020">
+        <v>0</v>
+      </c>
+      <c r="K3020" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:11">
+      <c r="A3021" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3021">
+        <v>2</v>
+      </c>
+      <c r="G3021">
+        <v>0</v>
+      </c>
+      <c r="H3021" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3021">
+        <v>0</v>
+      </c>
+      <c r="J3021">
+        <v>0</v>
+      </c>
+      <c r="K3021" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:11">
+      <c r="A3022" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3022">
+        <v>5</v>
+      </c>
+      <c r="G3022">
+        <v>1</v>
+      </c>
+      <c r="H3022" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3022">
+        <v>0</v>
+      </c>
+      <c r="J3022">
+        <v>1</v>
+      </c>
+      <c r="K3022" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:11">
+      <c r="A3023" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3023">
+        <v>6</v>
+      </c>
+      <c r="G3023">
+        <v>1</v>
+      </c>
+      <c r="H3023" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3023">
+        <v>0</v>
+      </c>
+      <c r="J3023">
+        <v>1</v>
+      </c>
+      <c r="K3023" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:11">
+      <c r="A3024" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3024">
+        <v>10</v>
+      </c>
+      <c r="G3024">
+        <v>3</v>
+      </c>
+      <c r="H3024" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3024">
+        <v>0</v>
+      </c>
+      <c r="J3024">
+        <v>3</v>
+      </c>
+      <c r="K3024" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:11">
+      <c r="A3025" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3025">
+        <v>0</v>
+      </c>
+      <c r="G3025">
+        <v>0</v>
+      </c>
+      <c r="H3025" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3025">
+        <v>0</v>
+      </c>
+      <c r="J3025">
+        <v>0</v>
+      </c>
+      <c r="K3025" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:11">
+      <c r="A3026" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3026">
+        <v>0</v>
+      </c>
+      <c r="G3026">
+        <v>0</v>
+      </c>
+      <c r="H3026" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3026">
+        <v>0</v>
+      </c>
+      <c r="J3026">
+        <v>0</v>
+      </c>
+      <c r="K3026" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:11">
+      <c r="A3027" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3027">
+        <v>1</v>
+      </c>
+      <c r="G3027">
+        <v>0</v>
+      </c>
+      <c r="H3027" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3027">
+        <v>0</v>
+      </c>
+      <c r="J3027">
+        <v>0</v>
+      </c>
+      <c r="K3027" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:11">
+      <c r="A3028" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3028">
+        <v>1</v>
+      </c>
+      <c r="G3028">
+        <v>1</v>
+      </c>
+      <c r="H3028" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3028">
+        <v>0</v>
+      </c>
+      <c r="J3028">
+        <v>1</v>
+      </c>
+      <c r="K3028" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:11">
+      <c r="A3029" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3029">
+        <v>1</v>
+      </c>
+      <c r="G3029">
+        <v>0</v>
+      </c>
+      <c r="H3029" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3029">
+        <v>0</v>
+      </c>
+      <c r="J3029">
+        <v>0</v>
+      </c>
+      <c r="K3029" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:11">
+      <c r="A3030" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3030">
+        <v>101</v>
+      </c>
+      <c r="G3030">
+        <v>43</v>
+      </c>
+      <c r="H3030" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3030">
+        <v>0</v>
+      </c>
+      <c r="J3030">
+        <v>43</v>
+      </c>
+      <c r="K3030" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:11">
+      <c r="A3031" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3031">
+        <v>6</v>
+      </c>
+      <c r="G3031">
+        <v>2</v>
+      </c>
+      <c r="H3031" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3031">
+        <v>0</v>
+      </c>
+      <c r="J3031">
+        <v>2</v>
+      </c>
+      <c r="K3031" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:11">
+      <c r="A3032" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3032">
+        <v>61</v>
+      </c>
+      <c r="G3032">
+        <v>25</v>
+      </c>
+      <c r="H3032" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3032">
+        <v>0</v>
+      </c>
+      <c r="J3032">
+        <v>25</v>
+      </c>
+      <c r="K3032" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:11">
+      <c r="A3033" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3033">
+        <v>53</v>
+      </c>
+      <c r="G3033">
+        <v>15</v>
+      </c>
+      <c r="H3033" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3033">
+        <v>0</v>
+      </c>
+      <c r="J3033">
+        <v>15</v>
+      </c>
+      <c r="K3033" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:11">
+      <c r="A3034" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3034">
+        <v>28</v>
+      </c>
+      <c r="G3034">
+        <v>17</v>
+      </c>
+      <c r="H3034" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3034">
+        <v>0</v>
+      </c>
+      <c r="J3034">
+        <v>17</v>
+      </c>
+      <c r="K3034" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:11">
+      <c r="A3035" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3035">
+        <v>3</v>
+      </c>
+      <c r="G3035">
+        <v>1</v>
+      </c>
+      <c r="H3035" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3035">
+        <v>0</v>
+      </c>
+      <c r="J3035">
+        <v>1</v>
+      </c>
+      <c r="K3035" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:11">
+      <c r="A3036" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3036">
+        <v>0</v>
+      </c>
+      <c r="G3036">
+        <v>0</v>
+      </c>
+      <c r="H3036" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3036">
+        <v>0</v>
+      </c>
+      <c r="J3036">
+        <v>0</v>
+      </c>
+      <c r="K3036" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:11">
+      <c r="A3037" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3037">
+        <v>4</v>
+      </c>
+      <c r="G3037">
+        <v>1</v>
+      </c>
+      <c r="H3037" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3037">
+        <v>0</v>
+      </c>
+      <c r="J3037">
+        <v>1</v>
+      </c>
+      <c r="K3037" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:11">
+      <c r="A3038" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3038">
+        <v>2</v>
+      </c>
+      <c r="G3038">
+        <v>0</v>
+      </c>
+      <c r="H3038" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3038">
+        <v>0</v>
+      </c>
+      <c r="J3038">
+        <v>0</v>
+      </c>
+      <c r="K3038" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:11">
+      <c r="A3039" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3039">
+        <v>13</v>
+      </c>
+      <c r="G3039">
+        <v>6</v>
+      </c>
+      <c r="H3039" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3039">
+        <v>0</v>
+      </c>
+      <c r="J3039">
+        <v>6</v>
+      </c>
+      <c r="K3039" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:11">
+      <c r="A3040" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3040">
+        <v>11</v>
+      </c>
+      <c r="G3040">
+        <v>3</v>
+      </c>
+      <c r="H3040" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3040">
+        <v>0</v>
+      </c>
+      <c r="J3040">
+        <v>3</v>
+      </c>
+      <c r="K3040" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:11">
+      <c r="A3041" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3041">
+        <v>14</v>
+      </c>
+      <c r="G3041">
+        <v>7</v>
+      </c>
+      <c r="H3041" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3041">
+        <v>0</v>
+      </c>
+      <c r="J3041">
+        <v>7</v>
+      </c>
+      <c r="K3041" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:11">
+      <c r="A3042" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3042">
+        <v>5</v>
+      </c>
+      <c r="G3042">
+        <v>2</v>
+      </c>
+      <c r="H3042" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3042">
+        <v>0</v>
+      </c>
+      <c r="J3042">
+        <v>2</v>
+      </c>
+      <c r="K3042" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:11">
+      <c r="A3043" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3043">
+        <v>6</v>
+      </c>
+      <c r="G3043">
+        <v>3</v>
+      </c>
+      <c r="H3043" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3043">
+        <v>0</v>
+      </c>
+      <c r="J3043">
+        <v>3</v>
+      </c>
+      <c r="K3043" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:11">
+      <c r="A3044" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3044">
+        <v>7</v>
+      </c>
+      <c r="G3044">
+        <v>2</v>
+      </c>
+      <c r="H3044" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3044">
+        <v>0</v>
+      </c>
+      <c r="J3044">
+        <v>2</v>
+      </c>
+      <c r="K3044" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:11">
+      <c r="A3045" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3045">
+        <v>1</v>
+      </c>
+      <c r="G3045">
+        <v>0</v>
+      </c>
+      <c r="H3045" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3045">
+        <v>0</v>
+      </c>
+      <c r="J3045">
+        <v>0</v>
+      </c>
+      <c r="K3045" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:11">
+      <c r="A3046" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3046">
+        <v>1</v>
+      </c>
+      <c r="G3046">
+        <v>0</v>
+      </c>
+      <c r="H3046" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3046">
+        <v>0</v>
+      </c>
+      <c r="J3046">
+        <v>0</v>
+      </c>
+      <c r="K3046" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:11">
+      <c r="A3047" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3047">
+        <v>13</v>
+      </c>
+      <c r="G3047">
+        <v>3</v>
+      </c>
+      <c r="H3047" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3047">
+        <v>0</v>
+      </c>
+      <c r="J3047">
+        <v>3</v>
+      </c>
+      <c r="K3047" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:11">
+      <c r="A3048" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3048">
+        <v>18</v>
+      </c>
+      <c r="G3048">
+        <v>6</v>
+      </c>
+      <c r="H3048" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3048">
+        <v>0</v>
+      </c>
+      <c r="J3048">
+        <v>6</v>
+      </c>
+      <c r="K3048" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:11">
+      <c r="A3049" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3049">
+        <v>8</v>
+      </c>
+      <c r="G3049">
+        <v>2</v>
+      </c>
+      <c r="H3049" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3049">
+        <v>0</v>
+      </c>
+      <c r="J3049">
+        <v>2</v>
+      </c>
+      <c r="K3049" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:11">
+      <c r="A3050" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3050">
+        <v>3</v>
+      </c>
+      <c r="G3050">
+        <v>1</v>
+      </c>
+      <c r="H3050" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3050">
+        <v>0</v>
+      </c>
+      <c r="J3050">
+        <v>1</v>
+      </c>
+      <c r="K3050" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:11">
+      <c r="A3051" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3051">
+        <v>51</v>
+      </c>
+      <c r="G3051">
+        <v>18</v>
+      </c>
+      <c r="H3051" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3051">
+        <v>0</v>
+      </c>
+      <c r="J3051">
+        <v>18</v>
+      </c>
+      <c r="K3051" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:11">
+      <c r="A3052" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3052">
+        <v>23</v>
+      </c>
+      <c r="G3052">
+        <v>9</v>
+      </c>
+      <c r="H3052" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3052">
+        <v>0</v>
+      </c>
+      <c r="J3052">
+        <v>9</v>
+      </c>
+      <c r="K3052" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:11">
+      <c r="A3053" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3053">
+        <v>37</v>
+      </c>
+      <c r="G3053">
+        <v>9</v>
+      </c>
+      <c r="H3053" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3053">
+        <v>0</v>
+      </c>
+      <c r="J3053">
+        <v>9</v>
+      </c>
+      <c r="K3053" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:11">
+      <c r="A3054" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3054">
+        <v>13</v>
+      </c>
+      <c r="G3054">
+        <v>7</v>
+      </c>
+      <c r="H3054" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3054">
+        <v>0</v>
+      </c>
+      <c r="J3054">
+        <v>7</v>
+      </c>
+      <c r="K3054" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:11">
+      <c r="A3055" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3055">
+        <v>6</v>
+      </c>
+      <c r="G3055">
+        <v>2</v>
+      </c>
+      <c r="H3055" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3055">
+        <v>0</v>
+      </c>
+      <c r="J3055">
+        <v>2</v>
+      </c>
+      <c r="K3055" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:11">
+      <c r="A3056" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3056">
+        <v>18</v>
+      </c>
+      <c r="G3056">
+        <v>8</v>
+      </c>
+      <c r="H3056" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3056">
+        <v>0</v>
+      </c>
+      <c r="J3056">
+        <v>8</v>
+      </c>
+      <c r="K3056" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:11">
+      <c r="A3057" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3057">
+        <v>21</v>
+      </c>
+      <c r="G3057">
+        <v>5</v>
+      </c>
+      <c r="H3057" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3057">
+        <v>0</v>
+      </c>
+      <c r="J3057">
+        <v>5</v>
+      </c>
+      <c r="K3057" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:11">
+      <c r="A3058" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3058">
+        <v>12</v>
+      </c>
+      <c r="G3058">
+        <v>8</v>
+      </c>
+      <c r="H3058" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3058">
+        <v>0</v>
+      </c>
+      <c r="J3058">
+        <v>8</v>
+      </c>
+      <c r="K3058" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:11">
+      <c r="A3059" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3059">
+        <v>17</v>
+      </c>
+      <c r="G3059">
+        <v>6</v>
+      </c>
+      <c r="H3059" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3059">
+        <v>0</v>
+      </c>
+      <c r="J3059">
+        <v>6</v>
+      </c>
+      <c r="K3059" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:11">
+      <c r="A3060" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3060">
+        <v>14</v>
+      </c>
+      <c r="G3060">
+        <v>6</v>
+      </c>
+      <c r="H3060" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3060">
+        <v>0</v>
+      </c>
+      <c r="J3060">
+        <v>6</v>
+      </c>
+      <c r="K3060" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:11">
+      <c r="A3061" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3061">
+        <v>13</v>
+      </c>
+      <c r="G3061">
+        <v>1</v>
+      </c>
+      <c r="H3061" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3061">
+        <v>0</v>
+      </c>
+      <c r="J3061">
+        <v>1</v>
+      </c>
+      <c r="K3061" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:11">
+      <c r="A3062" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3062" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3062">
+        <v>39</v>
+      </c>
+      <c r="G3062">
+        <v>21</v>
+      </c>
+      <c r="H3062" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3062">
+        <v>0</v>
+      </c>
+      <c r="J3062">
+        <v>21</v>
+      </c>
+      <c r="K3062" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:11">
+      <c r="A3063" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3063">
+        <v>11</v>
+      </c>
+      <c r="G3063">
+        <v>5</v>
+      </c>
+      <c r="H3063" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3063">
+        <v>0</v>
+      </c>
+      <c r="J3063">
+        <v>5</v>
+      </c>
+      <c r="K3063" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:11">
+      <c r="A3064" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3064">
+        <v>35</v>
+      </c>
+      <c r="G3064">
+        <v>17</v>
+      </c>
+      <c r="H3064" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3064">
+        <v>0</v>
+      </c>
+      <c r="J3064">
+        <v>17</v>
+      </c>
+      <c r="K3064" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:11">
+      <c r="A3065" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3065">
+        <v>10</v>
+      </c>
+      <c r="G3065">
+        <v>1</v>
+      </c>
+      <c r="H3065" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3065">
+        <v>0</v>
+      </c>
+      <c r="J3065">
+        <v>1</v>
+      </c>
+      <c r="K3065" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:11">
+      <c r="A3066" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3066">
+        <v>4</v>
+      </c>
+      <c r="G3066">
+        <v>3</v>
+      </c>
+      <c r="H3066" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3066">
+        <v>0</v>
+      </c>
+      <c r="J3066">
+        <v>3</v>
+      </c>
+      <c r="K3066" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:11">
+      <c r="A3067" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3067">
+        <v>1</v>
+      </c>
+      <c r="G3067">
+        <v>0</v>
+      </c>
+      <c r="H3067" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3067">
+        <v>0</v>
+      </c>
+      <c r="J3067">
+        <v>0</v>
+      </c>
+      <c r="K3067" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:11">
+      <c r="A3068" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3068">
+        <v>2</v>
+      </c>
+      <c r="G3068">
+        <v>1</v>
+      </c>
+      <c r="H3068" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3068">
+        <v>0</v>
+      </c>
+      <c r="J3068">
+        <v>1</v>
+      </c>
+      <c r="K3068" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:11">
+      <c r="A3069" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3069">
+        <v>0</v>
+      </c>
+      <c r="G3069">
+        <v>0</v>
+      </c>
+      <c r="H3069" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3069">
+        <v>0</v>
+      </c>
+      <c r="J3069">
+        <v>0</v>
+      </c>
+      <c r="K3069" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:11">
+      <c r="A3070" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3070">
+        <v>2</v>
+      </c>
+      <c r="G3070">
+        <v>1</v>
+      </c>
+      <c r="H3070" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3070">
+        <v>0</v>
+      </c>
+      <c r="J3070">
+        <v>1</v>
+      </c>
+      <c r="K3070" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:11">
+      <c r="A3071" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3071">
+        <v>4</v>
+      </c>
+      <c r="G3071">
+        <v>1</v>
+      </c>
+      <c r="H3071" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3071">
+        <v>0</v>
+      </c>
+      <c r="J3071">
+        <v>1</v>
+      </c>
+      <c r="K3071" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:11">
+      <c r="A3072" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3072">
+        <v>7</v>
+      </c>
+      <c r="G3072">
+        <v>2</v>
+      </c>
+      <c r="H3072" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3072">
+        <v>0</v>
+      </c>
+      <c r="J3072">
+        <v>2</v>
+      </c>
+      <c r="K3072" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:11">
+      <c r="A3073" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3073">
+        <v>2</v>
+      </c>
+      <c r="G3073">
+        <v>2</v>
+      </c>
+      <c r="H3073" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3073">
+        <v>0</v>
+      </c>
+      <c r="J3073">
+        <v>2</v>
+      </c>
+      <c r="K3073" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:11">
+      <c r="A3074" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3074">
+        <v>7</v>
+      </c>
+      <c r="G3074">
+        <v>2</v>
+      </c>
+      <c r="H3074" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3074">
+        <v>0</v>
+      </c>
+      <c r="J3074">
+        <v>2</v>
+      </c>
+      <c r="K3074" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:11">
+      <c r="A3075" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3075">
+        <v>10</v>
+      </c>
+      <c r="G3075">
+        <v>3</v>
+      </c>
+      <c r="H3075" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3075">
+        <v>0</v>
+      </c>
+      <c r="J3075">
+        <v>3</v>
+      </c>
+      <c r="K3075" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:11">
+      <c r="A3076" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3076">
+        <v>16</v>
+      </c>
+      <c r="G3076">
+        <v>3</v>
+      </c>
+      <c r="H3076" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3076">
+        <v>0</v>
+      </c>
+      <c r="J3076">
+        <v>3</v>
+      </c>
+      <c r="K3076" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:11">
+      <c r="A3077" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3077">
+        <v>17</v>
+      </c>
+      <c r="G3077">
+        <v>2</v>
+      </c>
+      <c r="H3077" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3077">
+        <v>0</v>
+      </c>
+      <c r="J3077">
+        <v>2</v>
+      </c>
+      <c r="K3077" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:11">
+      <c r="A3078" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3078">
+        <v>13</v>
+      </c>
+      <c r="G3078">
+        <v>2</v>
+      </c>
+      <c r="H3078" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3078">
+        <v>0</v>
+      </c>
+      <c r="J3078">
+        <v>2</v>
+      </c>
+      <c r="K3078" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:11">
+      <c r="A3079" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3079">
+        <v>22</v>
+      </c>
+      <c r="G3079">
+        <v>12</v>
+      </c>
+      <c r="H3079" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3079">
+        <v>0</v>
+      </c>
+      <c r="J3079">
+        <v>12</v>
+      </c>
+      <c r="K3079" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:11">
+      <c r="A3080" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3080">
+        <v>17</v>
+      </c>
+      <c r="G3080">
+        <v>6</v>
+      </c>
+      <c r="H3080" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3080">
+        <v>0</v>
+      </c>
+      <c r="J3080">
+        <v>6</v>
+      </c>
+      <c r="K3080" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:11">
+      <c r="A3081" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3081">
+        <v>22</v>
+      </c>
+      <c r="G3081">
+        <v>8</v>
+      </c>
+      <c r="H3081" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3081">
+        <v>0</v>
+      </c>
+      <c r="J3081">
+        <v>8</v>
+      </c>
+      <c r="K3081" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:11">
+      <c r="A3082" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3082">
+        <v>21</v>
+      </c>
+      <c r="G3082">
+        <v>10</v>
+      </c>
+      <c r="H3082" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3082">
+        <v>0</v>
+      </c>
+      <c r="J3082">
+        <v>10</v>
+      </c>
+      <c r="K3082" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:11">
+      <c r="A3083" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3083">
+        <v>8</v>
+      </c>
+      <c r="G3083">
+        <v>2</v>
+      </c>
+      <c r="H3083" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3083">
+        <v>0</v>
+      </c>
+      <c r="J3083">
+        <v>2</v>
+      </c>
+      <c r="K3083" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:11">
+      <c r="A3084" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3084">
+        <v>11</v>
+      </c>
+      <c r="G3084">
+        <v>4</v>
+      </c>
+      <c r="H3084" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3084">
+        <v>0</v>
+      </c>
+      <c r="J3084">
+        <v>4</v>
+      </c>
+      <c r="K3084" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:11">
+      <c r="A3085" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3085">
+        <v>17</v>
+      </c>
+      <c r="G3085">
+        <v>4</v>
+      </c>
+      <c r="H3085" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3085">
+        <v>0</v>
+      </c>
+      <c r="J3085">
+        <v>4</v>
+      </c>
+      <c r="K3085" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:11">
+      <c r="A3086" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3086">
+        <v>15</v>
+      </c>
+      <c r="G3086">
+        <v>10</v>
+      </c>
+      <c r="H3086" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3086">
+        <v>0</v>
+      </c>
+      <c r="J3086">
+        <v>10</v>
+      </c>
+      <c r="K3086" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:11">
+      <c r="A3087" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3087">
+        <v>19</v>
+      </c>
+      <c r="G3087">
+        <v>9</v>
+      </c>
+      <c r="H3087" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3087">
+        <v>0</v>
+      </c>
+      <c r="J3087">
+        <v>9</v>
+      </c>
+      <c r="K3087" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:11">
+      <c r="A3088" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3088">
+        <v>15</v>
+      </c>
+      <c r="G3088">
+        <v>4</v>
+      </c>
+      <c r="H3088" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3088">
+        <v>0</v>
+      </c>
+      <c r="J3088">
+        <v>4</v>
+      </c>
+      <c r="K3088" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:11">
+      <c r="A3089" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3089">
+        <v>9</v>
+      </c>
+      <c r="G3089">
+        <v>4</v>
+      </c>
+      <c r="H3089" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3089">
+        <v>0</v>
+      </c>
+      <c r="J3089">
+        <v>4</v>
+      </c>
+      <c r="K3089" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:11">
+      <c r="A3090" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3090">
+        <v>9</v>
+      </c>
+      <c r="G3090">
+        <v>3</v>
+      </c>
+      <c r="H3090" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3090">
+        <v>0</v>
+      </c>
+      <c r="J3090">
+        <v>3</v>
+      </c>
+      <c r="K3090" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:11">
+      <c r="A3091" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3091">
+        <v>26</v>
+      </c>
+      <c r="G3091">
+        <v>8</v>
+      </c>
+      <c r="H3091" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3091">
+        <v>0</v>
+      </c>
+      <c r="J3091">
+        <v>8</v>
+      </c>
+      <c r="K3091" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:11">
+      <c r="A3092" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3092">
+        <v>27</v>
+      </c>
+      <c r="G3092">
+        <v>7</v>
+      </c>
+      <c r="H3092" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3092">
+        <v>0</v>
+      </c>
+      <c r="J3092">
+        <v>7</v>
+      </c>
+      <c r="K3092" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:11">
+      <c r="A3093" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3093">
+        <v>12</v>
+      </c>
+      <c r="G3093">
+        <v>5</v>
+      </c>
+      <c r="H3093" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3093">
+        <v>0</v>
+      </c>
+      <c r="J3093">
+        <v>5</v>
+      </c>
+      <c r="K3093" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:11">
+      <c r="A3094" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3094">
+        <v>14</v>
+      </c>
+      <c r="G3094">
+        <v>4</v>
+      </c>
+      <c r="H3094" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3094">
+        <v>0</v>
+      </c>
+      <c r="J3094">
+        <v>4</v>
+      </c>
+      <c r="K3094" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:11">
+      <c r="A3095" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3095">
+        <v>15</v>
+      </c>
+      <c r="G3095">
+        <v>6</v>
+      </c>
+      <c r="H3095" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3095">
+        <v>0</v>
+      </c>
+      <c r="J3095">
+        <v>6</v>
+      </c>
+      <c r="K3095" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:11">
+      <c r="A3096" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3096">
+        <v>3</v>
+      </c>
+      <c r="G3096">
+        <v>2</v>
+      </c>
+      <c r="H3096" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3096">
+        <v>0</v>
+      </c>
+      <c r="J3096">
+        <v>2</v>
+      </c>
+      <c r="K3096" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:11">
+      <c r="A3097" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3097">
+        <v>4</v>
+      </c>
+      <c r="G3097">
+        <v>2</v>
+      </c>
+      <c r="H3097" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3097">
+        <v>0</v>
+      </c>
+      <c r="J3097">
+        <v>2</v>
+      </c>
+      <c r="K3097" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:11">
+      <c r="A3098" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3098">
+        <v>5</v>
+      </c>
+      <c r="G3098">
+        <v>1</v>
+      </c>
+      <c r="H3098" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3098">
+        <v>0</v>
+      </c>
+      <c r="J3098">
+        <v>1</v>
+      </c>
+      <c r="K3098" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:11">
+      <c r="A3099" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3099">
+        <v>1</v>
+      </c>
+      <c r="G3099">
+        <v>1</v>
+      </c>
+      <c r="H3099" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3099">
+        <v>0</v>
+      </c>
+      <c r="J3099">
+        <v>1</v>
+      </c>
+      <c r="K3099" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:11">
+      <c r="A3100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3100">
+        <v>2</v>
+      </c>
+      <c r="G3100">
+        <v>1</v>
+      </c>
+      <c r="H3100" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3100">
+        <v>0</v>
+      </c>
+      <c r="J3100">
+        <v>1</v>
+      </c>
+      <c r="K3100" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:11">
+      <c r="A3101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3101">
+        <v>1</v>
+      </c>
+      <c r="G3101">
+        <v>0</v>
+      </c>
+      <c r="H3101" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3101">
+        <v>0</v>
+      </c>
+      <c r="J3101">
+        <v>0</v>
+      </c>
+      <c r="K3101" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:11">
+      <c r="A3102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3102">
+        <v>3</v>
+      </c>
+      <c r="G3102">
+        <v>1</v>
+      </c>
+      <c r="H3102" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3102">
+        <v>0</v>
+      </c>
+      <c r="J3102">
+        <v>1</v>
+      </c>
+      <c r="K3102" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:11">
+      <c r="A3103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3103">
+        <v>7</v>
+      </c>
+      <c r="G3103">
+        <v>4</v>
+      </c>
+      <c r="H3103" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3103">
+        <v>0</v>
+      </c>
+      <c r="J3103">
+        <v>4</v>
+      </c>
+      <c r="K3103" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:11">
+      <c r="A3104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3104">
+        <v>14</v>
+      </c>
+      <c r="G3104">
+        <v>4</v>
+      </c>
+      <c r="H3104" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3104">
+        <v>0</v>
+      </c>
+      <c r="J3104">
+        <v>4</v>
+      </c>
+      <c r="K3104" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:11">
+      <c r="A3105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3105">
+        <v>13</v>
+      </c>
+      <c r="G3105">
+        <v>5</v>
+      </c>
+      <c r="H3105" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3105">
+        <v>0</v>
+      </c>
+      <c r="J3105">
+        <v>5</v>
+      </c>
+      <c r="K3105" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:11">
+      <c r="A3106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3106">
+        <v>15</v>
+      </c>
+      <c r="G3106">
+        <v>4</v>
+      </c>
+      <c r="H3106" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3106">
+        <v>0</v>
+      </c>
+      <c r="J3106">
+        <v>4</v>
+      </c>
+      <c r="K3106" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:11">
+      <c r="A3107" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3107">
+        <v>13</v>
+      </c>
+      <c r="G3107">
+        <v>5</v>
+      </c>
+      <c r="H3107" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3107">
+        <v>0</v>
+      </c>
+      <c r="J3107">
+        <v>5</v>
+      </c>
+      <c r="K3107" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:11">
+      <c r="A3108" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3108">
+        <v>17</v>
+      </c>
+      <c r="G3108">
+        <v>9</v>
+      </c>
+      <c r="H3108" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3108">
+        <v>0</v>
+      </c>
+      <c r="J3108">
+        <v>9</v>
+      </c>
+      <c r="K3108" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:11">
+      <c r="A3109" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3109">
+        <v>29</v>
+      </c>
+      <c r="G3109">
+        <v>16</v>
+      </c>
+      <c r="H3109" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3109">
+        <v>0</v>
+      </c>
+      <c r="J3109">
+        <v>16</v>
+      </c>
+      <c r="K3109" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:11">
+      <c r="A3110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3110">
+        <v>14</v>
+      </c>
+      <c r="G3110">
+        <v>6</v>
+      </c>
+      <c r="H3110" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3110">
+        <v>0</v>
+      </c>
+      <c r="J3110">
+        <v>6</v>
+      </c>
+      <c r="K3110" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:11">
+      <c r="A3111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3111">
+        <v>23</v>
+      </c>
+      <c r="G3111">
+        <v>6</v>
+      </c>
+      <c r="H3111" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3111">
+        <v>0</v>
+      </c>
+      <c r="J3111">
+        <v>6</v>
+      </c>
+      <c r="K3111" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:11">
+      <c r="A3112" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3112">
+        <v>10</v>
+      </c>
+      <c r="G3112">
+        <v>4</v>
+      </c>
+      <c r="H3112" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3112">
+        <v>0</v>
+      </c>
+      <c r="J3112">
+        <v>4</v>
+      </c>
+      <c r="K3112" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:11">
+      <c r="A3113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3113">
+        <v>11</v>
+      </c>
+      <c r="G3113">
+        <v>3</v>
+      </c>
+      <c r="H3113" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3113">
+        <v>0</v>
+      </c>
+      <c r="J3113">
+        <v>3</v>
+      </c>
+      <c r="K3113" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:11">
+      <c r="A3114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3114">
+        <v>8</v>
+      </c>
+      <c r="G3114">
+        <v>3</v>
+      </c>
+      <c r="H3114" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3114">
+        <v>0</v>
+      </c>
+      <c r="J3114">
+        <v>3</v>
+      </c>
+      <c r="K3114" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:11">
+      <c r="A3115" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3115">
+        <v>13</v>
+      </c>
+      <c r="G3115">
+        <v>3</v>
+      </c>
+      <c r="H3115" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3115">
+        <v>0</v>
+      </c>
+      <c r="J3115">
+        <v>3</v>
+      </c>
+      <c r="K3115" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:11">
+      <c r="A3116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3116">
+        <v>2</v>
+      </c>
+      <c r="G3116">
+        <v>2</v>
+      </c>
+      <c r="H3116" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3116">
+        <v>0</v>
+      </c>
+      <c r="J3116">
+        <v>2</v>
+      </c>
+      <c r="K3116" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:11">
+      <c r="A3117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3117">
+        <v>21</v>
+      </c>
+      <c r="G3117">
+        <v>8</v>
+      </c>
+      <c r="H3117" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3117">
+        <v>0</v>
+      </c>
+      <c r="J3117">
+        <v>8</v>
+      </c>
+      <c r="K3117" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:11">
+      <c r="A3118" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3118">
+        <v>54</v>
+      </c>
+      <c r="G3118">
+        <v>25</v>
+      </c>
+      <c r="H3118" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3118">
+        <v>0</v>
+      </c>
+      <c r="J3118">
+        <v>25</v>
+      </c>
+      <c r="K3118" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:11">
+      <c r="A3119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3119">
+        <v>206</v>
+      </c>
+      <c r="G3119">
+        <v>49</v>
+      </c>
+      <c r="H3119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3119">
+        <v>0</v>
+      </c>
+      <c r="J3119">
+        <v>49</v>
+      </c>
+      <c r="K3119" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:11">
+      <c r="A3120" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3120">
+        <v>13</v>
+      </c>
+      <c r="G3120">
+        <v>3</v>
+      </c>
+      <c r="H3120" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3120">
+        <v>0</v>
+      </c>
+      <c r="J3120">
+        <v>3</v>
+      </c>
+      <c r="K3120" s="2">
+        <v>45542.5004313485</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:11">
+      <c r="A3121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3121">
+        <v>48</v>
+      </c>
+      <c r="G3121">
+        <v>16</v>
+      </c>
+      <c r="H3121" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3121">
+        <v>0</v>
+      </c>
+      <c r="J3121">
+        <v>16</v>
+      </c>
+      <c r="K3121" s="2">
+        <v>45542.5004313485</v>
       </c>
     </row>
   </sheetData>
